--- a/reddit_cleaned.xlsx
+++ b/reddit_cleaned.xlsx
@@ -463,7 +463,51 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nata pessoas vão tornar possivel cristina rodrigues eleita porto constituída arguida mp sujeita termo identidade residência suspeitas ter acedido indevidamente eliminado milhares email pan desvinculou partido evita prestar declarações sobre caso httpswwwsabadoptportugaldetalhecristinarodriguesconstituidaarguidaporapagaoinformaticohttpswwwsabadoptportugaldetalhecristinarodriguesconstituidaarguidaporapagaoinformatico eduardo teixeira eleito viana castelo acusado falsas presenças deputado psd causa crime falsificação doc falsidade informática conseguiu presente simultâneo reuniões viana castelo palácio bento lisboa httpstwittercomgandamaucostatusphotohttpsobservadorptministeriopublicoinvestigaalegadasfalsaspresencasdedeputadodopsdporvianadocastelohttpsobservadorptministeriopublicoinvestigaalegadasfalsaspresencasdedeputadodopsdporvianadocastelo filipe melo eleito braga condenado pagar dívida juros assoc pagou consultas tratamentos filho pagou salário penhorado ante deste caso surgiu lista pública execuções valores ultrapassavam httpsvisaoptatualidadepoliticasalariodedeputadodochegapenhoradoporcolegiocatolicodebragahttpsvisaoptatualidadepoliticasalariodedeputadodochegapenhoradoporcolegiocatolicodebraga pedro frazão eleito santarém condenado tribunal cascais retratarse declarações falsas proferiu sobre francisco louçã condenado pagar cada dia atraso rectificação recorreu tribunal relação perdeu novamente httpssicnoticiasptpaisdeputadodochegapoderaterdepagareurosaoestadoeafranciscoloucabfachttpssicnoticiasptpaisdeputadodochegapoderaterdepagareurosaoestadoeafranciscoloucabfac ricardo dia pinto eleito lisboa surge lista pública execuções dívida quase ricardo dia pinto ricardo regalla dia ricardo moreira regalla diaspinto contudo ben penhoráveis cobrir valor httpspoligrafosapoptfactcheckchegaelegeudeputadocomdividadequasemileurosnalistapublicadeexecucoeshttpspoligrafosapoptfactcheckchegaelegeudeputadocomdividadequasemileurosnalistapublicadeexecucoes rui paulo sousa eleito lisboa acusado mp crime desobediência jantar comício pessoas pleno estado emergência covid após mentir sobre autorização dg saúde argumentou consciência violar regras httpswwwpublicoptpoliticanoticiadoisdeputadoschegarecemeleitosacusadosmpcrimedesobedienciahttpswwwpublicoptpoliticanoticiadoisdeputadoschegarecemeleitosacusadosmpcrimedesobediencia joão esteves silva vice distrital castelo branco conselheiro nacional condenado supremo tribunal ano prisão acumulado pequenos furtos burlas roubava conteúdo caixas esmolas assaltou casas veículos lojas restaurantes httpsrcbradiocovadabeiraptcandidatoadeputadodochegapelodistritotemantecedentescriminaishttpsrcbradiocovadabeiraptcandidatoadeputadodochegapelodistritotemantecedentescriminais vítor ramalho empresário agrícola candidato póvoa miguel moura detido homicídio qualificado acusado mp tentar matar tiro casal imigrantes tendolhe sido apreendidas armas relatório pj aponta crime homicídio forma tentada httpsrrsapoptnoticiapoliticarenunciouaomandatoeleitodochegasuspeitodedisparoscontrafamiliasuecahttpsrrsapoptnoticiapoliticarenunciouaomandatoeleitodochegasuspeitodedisparoscontrafamiliasueca fábio lemos militante actualmente detido aguardar julgamento agredir imigrante indiciado outra agressão outro casal preso âmbito guerra gang evidentes traços ódio racial suspeito homicídio qualificado httpswwwiscteiulptassetsfilespdfhttpswwwiscteiulptassetsfilespdf pedro alves líder chegaaveiro condenado violência doméstica ano seis meses pena suspensa pagar euro indemnização frequentar programa especial condenados violência doméstica httpssicnoticiasptprogramasjornaisjornaldanoiteminutosliderdochegaaveirocondenadoporviolenciadomesticapseadadmitempactonajusticadcafhttpssicnoticiasptprogramasjornaisjornaldanoiteminutosliderdochegaaveirocondenadoporviolenciadomesticapseadadmitempactonajusticadcaf eduardo cassiano nogueira pinto miranda n lista círculo vila real condenado ano crime burla serviço nacional saúde esquema falsificação receitas comparticipadas segundo mp lesou sn mil euro httpswwwdnptlusaperfildoisrostosdeumburlaaoserviconacionaldesaudehtmlhttpswwwdnptlusaperfildoisrostosdeumburlaaoserviconacionaldesaudehtml hélio filipe segurança andré ventura delegado eleito lisboa acusado mp julho crime quais ofensas integridade física qualificada sequestro extorsão falsificação documentos roubo aguarda liberdade marcação julgamento httpswwwiscteiulptassetsfilespdfhttpswwwiscteiulptassetsfilespdf luc mombito dirigente nacional chega nuno pons dirigente autarca assessor chega acusação crime ameaça agravada jornalista pedro coelho atentado liberdade imprensa posse arma proibida caso nuno pons httpsexpressoptsociedadechegapjfazbuscasascasasdelucmombitoenunopontesquefoidetidoporpossedearmailegalccahttpsexpressoptsociedadechegapjfazbuscasascasasdelucmombitoenunopontesquefoidetidoporpossedearmailegalcca josé manuel pombinho barreira soares deputado eleito lisboa acusado agressão forma tentada deputado municipal psd rui rei durante assembleia municipal vila franca xira httpswwwpublicoptpoliticanoticiatentativasagressaochegapsdvilafrancaxiraobrigaintervencaopsphttpswwwpublicoptpoliticanoticiatentativasagressaochegapsdvilafrancaxiraobrigaintervencaopsp antónio pinto pereira deputado eleito coimbra alvo acção disciplinar ter manipulado testis escolha múltipla alunos confirmam instituto superior ciências sociais políticas iscsp universidade lisboa desmente httpswwwsabadoptportugaldetalheanovaestreladochegasuspeitodealterarnotashttpswwwsabadoptportugaldetalheanovaestreladochegasuspeitodealterarnotas pedro pinto deputado eleito faro acusado insultar agredir árbitrosadversários durante torneio futebol sub crato deputado ainda impedido situações ataque equipa adversária acusado igualmente ameaçar assessor p corredores ar httpsexpressoptpoliticapartidospaiistoeumavergonhadeputadodochegaagrediuarbitrodeanosemjogodefutebolbeahttpsexpressoptpoliticapartidospaiistoeumavergonhadeputadodochegaagrediuarbitrodeanosemjogodefutebolbea luís m p lope simpson militante detido pj tráfego armas guerra posse dezenas armas proibidas diversos calibre géneros pistolas revólveres carabinas caçadeiras facas soqueiras além detonadores milhares munições httpsominhoptdetidosportraficodearmasembragapagammileurosparasairemliberdadehttpsominhoptdetidosportraficodearmasembragapagammileurosparasairemliberdade milena alexandra boto castro vereadora eleita câmara municipal benavente condenada crime receptação processo tribunal deu provado comprou sucata roubada grupo criminoso liderado militar gnr samora correia httpsobservadorptespeciaisvereadoradochegaembenaventefoicondenadaporcomprarsucataroubadaagrupocriminosolideradopormilitardagnrhttpsobservadorptespeciaisvereadoradochegaembenaventefoicondenadaporcomprarsucataroubadaagrupocriminosolideradopormilitardagnr maria manuela pereira tender deputada eleita vila real exdeputada psd acusada falsear presenças ar polémica presençasfantasma afirmou simultaneamente reuniões cm chaves reuniões plenárias assembleia república httpsptwikipediaorgwikimanuelatenderhttpsptwikipediaorgwikimanuelatender antónio laranjo toni número lista viana castelo empresário negócios noite praia amorosa ligados exploração sexual jovens sul americana irmão detido rede organizada tráfico brasileiras prostituição portugal luxemburgo httpswwwcmjornalptpoliticadetalhenumerotresdalistadecandidatospelochegadevianadocasteloeempresariodanoitehttpswwwcmjornalptpoliticadetalhenumerotresdalistadecandidatospelochegadevianadocasteloeempresariodanoite sérgio júnior sérgio chorão deputado municipal braga detido outubro psp tráfico droga posse ilegal armas operação psp apreendidas várias armas numerário inúmeros comprimidos substâncias dopantes httpswwwjnptdeputadomunicipaldochegadetidodiztratarsetudodegrandeequivocohttpswwwjnptdeputadomunicipaldochegadetidodiztratarsetudodegrandeequivoco mário monteiro líder chega ovar denunciado entregas dinheiro presidente cm ovar troca adjudicação obra dirigente assume ter sido correio suborno entregando vários envelope dinheiro total mil euro httpswwwrtpptnoticiaspoliticapolemicaemovardirigentedochegadiztersidocorreiodesubornovhttpswwwrtpptnoticiaspoliticapolemicaemovardirigentedochegadiztersidocorreiodesubornov</t>
+          <t>**A nata das pessoas que vão tornar isso possivel.**
+1. Cristina Rodrigues (eleita pelo Porto) Constituída arguida pelo MP em 2022, e sujeita a termo de identidade e residência por suspeitas de ter acedido indevidamente e eliminado milhares de emails do PAN quando se desvinculou do partido. Evita prestar declarações sobre o caso.
+[https://www.sabado.pt/portugal/detalhe/cristina-rodrigues-constituida-arguida-por-apagao-informatico](https://www.sabado.pt/portugal/detalhe/cristina-rodrigues-constituida-arguida-por-apagao-informatico)
+2. Eduardo Teixeira (eleito por Viana do Castelo) Acusado por falsas presenças como deputado do PSD. Em causa, crimes de falsificação de docs ou falsidade informática.  Conseguiu estar presente, em simultâneo, em reuniões em Viana do Castelo, e no Palácio de São Bento, em Lisboa.
+[ ](https://twitter.com/gandama2uco/status/1767629975157420186/photo/1)[https://observador.pt/2019/10/07/ministerio-publico-investiga-alegadas-falsas-presencas-de-deputado-do-psd-por-viana-do-castelo/](https://observador.pt/2019/10/07/ministerio-publico-investiga-alegadas-falsas-presencas-de-deputado-do-psd-por-viana-do-castelo/)
+3. Filipe Melo (eleito por Braga) Condenado a pagar uma dívida de 15.000€ + juros à Assoc. que pagou consultas e tratamentos do seu filho. Não pagou, teve o salário penhorado. Mesmo antes deste caso, surgiu na lista pública de execuções por valores que ultrapassavam os 80.000€.
+[https://visao.pt/atualidade/politica/2023-06-23-salario-de-deputado-do-chega-penhorado-por-colegio-catolico-de-braga/](https://visao.pt/atualidade/politica/2023-06-23-salario-de-deputado-do-chega-penhorado-por-colegio-catolico-de-braga/)
+4. Pedro Frazão (eleito por Santarém)  Condenado pelo Tribunal de Cascais a retratar-se das declarações falsas que proferiu sobre Francisco Louçã. Condenado a pagar 100€ por cada dia em atraso da rectificação. Recorreu para o Tribunal da Relação. Perdeu novamente.
+[https://sicnoticias.pt/pais/2023-01-27-Deputado-do-Chega-podera-ter-de-pagar-3.700-euros-ao-Estado-e-a-Francisco-Louca-39b9f4ac](https://sicnoticias.pt/pais/2023-01-27-Deputado-do-Chega-podera-ter-de-pagar-3.700-euros-ao-Estado-e-a-Francisco-Louca-39b9f4ac)
+5. Ricardo Dias Pinto (eleito por Lisboa)  Surge na lista pública de execuções com uma dívida de quase 15.000€. Ricardo Dias Pinto (ou Ricardo Regalla Dias, ou Ricardo Moreira Regalla Dias-Pinto) não tem, contudo, bens penhoráveis para cobrir esse valor.
+[https://poligrafo.sapo.pt/fact-check/chega-elegeu-deputado-com-divida-de-quase-15-mil-euros-na-lista-publica-de-execucoes](https://poligrafo.sapo.pt/fact-check/chega-elegeu-deputado-com-divida-de-quase-15-mil-euros-na-lista-publica-de-execucoes)
+6. Rui Paulo Sousa (eleito por Lisboa)  Acusado pelo MP em 2022 pelo crime de desobediência (jantar comício com 170 pessoas em pleno estado de emergência COVID-19).  Após mentir sobre autorização da DG Saúde, argumentou que não tinha consciência de que estava a violar as regras.
+[https://www.publico.pt/2022/02/05/politica/noticia/dois-deputados-chega-recemeleitos-acusados-mp-crime-desobediencia-1994413](https://www.publico.pt/2022/02/05/politica/noticia/dois-deputados-chega-recemeleitos-acusados-mp-crime-desobediencia-1994413)
+7. João Esteves da Silva  Vice da distrital de Castelo Branco e conselheiro nacional, condenado em 2002 pelo Supremo Tribunal a 3 anos de prisão por um acumulado de pequenos furtos e burlas (roubava o conteúdo de caixas de esmolas, assaltou casas, veículos, lojas e restaurantes).
+[https://rcb-radiocovadabeira.pt/candidato-a-deputado-do-chega-pelo-distrito-tem-antecedentes-criminais/](https://rcb-radiocovadabeira.pt/candidato-a-deputado-do-chega-pelo-distrito-tem-antecedentes-criminais/)
+8. Vítor Ramalho, empresário agrícola, candidato (Póvoa de São Miguel, Moura)  Detido por homicídio qualificado. Acusado pelo MP de tentar matar a tiro um casal de imigrantes, tendo-lhe sido apreendidas 13 armas. Relatório da PJ aponta para 9 crimes de homicídio na forma tentada.
+[https://rr.sapo.pt/noticia/politica/2021/10/19/renunciou-ao-mandato-eleito-do-chega-suspeito-de-disparos-contra-familia-sueca/257470/](https://rr.sapo.pt/noticia/politica/2021/10/19/renunciou-ao-mandato-eleito-do-chega-suspeito-de-disparos-contra-familia-sueca/257470/)
+9. Fábio Lemos, militante  Actualmente detido a aguardar julgamento por agredir imigrante, já fora indiciado por outra agressão a um outro casal em 2023. Preso em 2021 no âmbito de uma guerra de gangs com “evidentes traços de ódio racial”. Suspeito de homicídio qualificado.
+[https://www.iscte-iul.pt/assets/files/2024/02/26/1708946789019\_109773152.pdf](https://www.iscte-iul.pt/assets/files/2024/02/26/1708946789019_109773152.pdf)
+10. Pedro Alves, líder do Chega-Aveiro  Condenado, em 2020, por violência doméstica, a um ano e seis meses de pena suspensa, a pagar 600 euros de indemnização, e a frequentar um programa especial para condenados por violência doméstica.
+[https://sicnoticias.pt/programas/jornais-10---15---20/jornal-da-noite-10/2024-02-26-10-minutos-lider-do-Chega-Aveiro-condenado-por-violencia-domestica-PS-e-AD-admitem-pacto-na-Justica-dc3574af](https://sicnoticias.pt/programas/jornais-10---15---20/jornal-da-noite-10/2024-02-26-10-minutos-lider-do-Chega-Aveiro-condenado-por-violencia-domestica-PS-e-AD-admitem-pacto-na-Justica-dc3574af)
+11. Eduardo Cassiano Nogueira Pinto Miranda, n.º 3 da lista pelo círculo de Vila Real  Condenado em 2019 (2 anos) do crime de burla ao Serviço Nacional de Saúde num esquema de falsificação de receitas comparticipadas que segundo o MP lesou o SNS em mais de 300 mil euros.
+[https://www.dn.pt/lusa/perfil-dois-rostos-de-um-burla-ao-servico-nacional-de-saude-10955382.html/](https://www.dn.pt/lusa/perfil-dois-rostos-de-um-burla-ao-servico-nacional-de-saude-10955382.html/)
+12. Hélio Filipe, segurança de André Ventura, delegado eleito por Lisboa  Acusado pelo MP (Julho de 2021) de 16 crimes, entre os quais ofensas à integridade física qualificada, sequestro, extorsão, falsificação de documentos e roubo. Aguarda em liberdade a marcação do julgamento.
+[https://www.iscte-iul.pt/assets/files/2024/02/26/1708946789019\_109773152.pdf](https://www.iscte-iul.pt/assets/files/2024/02/26/1708946789019_109773152.pdf)
+13. e 14. Luc Mombito (dirigente nacional do Chega) e Nuno Pontes (dirigente, autarca e assessor do Chega)  Acusação pelos crimes de ameaça agravada (ao jornalista Pedro Coelho), atentado à liberdade de imprensa e posse de arma proibida (no caso de Nuno Pontes).
+[https://expresso.pt/sociedade/2023-06-06-Chega-PJ-faz-buscas-as-casas-de-Luc-Mombito-e-Nuno-Pontes-que-foi-detido-por-posse-de-arma-ilegal-c06c75a4](https://expresso.pt/sociedade/2023-06-06-Chega-PJ-faz-buscas-as-casas-de-Luc-Mombito-e-Nuno-Pontes-que-foi-detido-por-posse-de-arma-ilegal-c06c75a4)
+15. José Manuel Pombinho Barreira Soares, deputado eleito por Lisboa  Acusado de agressão na forma tentada, de um deputado municipal do PSD (Rui Rei), durante a Assembleia Municipal de Vila Franca de Xira
+[https://www.publico.pt/2022/07/27/politica/noticia/tentativas-agressao-chega-psd-vila-franca-xira-obriga-intervencao-psp-2015196](https://www.publico.pt/2022/07/27/politica/noticia/tentativas-agressao-chega-psd-vila-franca-xira-obriga-intervencao-psp-2015196)
+16. António Pinto Pereira, deputado eleito por Coimbra  Alvo de acção disciplinar em 2018 por ter manipulado testes de escolha múltipla. Alunos confirmam, e o Instituto Superior de Ciências Sociais e Políticas (ISCSP) da Universidade de Lisboa não desmente.
+[https://www.sabado.pt/portugal/detalhe/a-nova-estrela-do-chega-suspeito-de-alterar-notas](https://www.sabado.pt/portugal/detalhe/a-nova-estrela-do-chega-suspeito-de-alterar-notas)
+17. Pedro Pinto, deputado eleito por Faro  Acusado de insultar e agredir árbitros/adversários durante um torneio de futebol Sub-13 no Crato. O deputado terá ainda impedido situações de ataque da equipa adversária. Acusado igualmente de ameaçar assessor do PS nos corredores da AR.
+[https://expresso.pt/politica/partidos/2023-06-26-Pai-isto-e-uma-vergonha-deputado-do-Chega-agrediu-arbitro-de-18-anos-em-jogo-de-futebol-be58a563](https://expresso.pt/politica/partidos/2023-06-26-Pai-isto-e-uma-vergonha-deputado-do-Chega-agrediu-arbitro-de-18-anos-em-jogo-de-futebol-be58a563)
+18. Luís M. P. Lopes (“Simpson”), militante  Detido em 2021 pela PJ por tráfego de armas de guerra, na posse de dezenas de armas proibidas de diversos calibres e géneros (pistolas, revólveres, carabinas, caçadeiras, facas e soqueiras), além de detonadores e milhares de munições.
+[https://ominho.pt/detidos-por-trafico-de-armas-em-braga-pagam-200-mil-euros-para-sair-em-liberdade/](https://ominho.pt/detidos-por-trafico-de-armas-em-braga-pagam-200-mil-euros-para-sair-em-liberdade/)
+19. Milena Alexandra Boto e Castro, vereadora eleita na Câmara Municipal de Benavente  Condenada pelo crime de receptação num processo em que o tribunal deu como provado que comprou sucata roubada a um grupo criminoso liderado por um militar da GNR de Samora Correia
+[https://observador.pt/especiais/vereadora-do-chega-em-benavente-foi-condenada-por-comprar-sucata-roubada-a-grupo-criminoso-liderado-por-militar-da-gnr/](https://observador.pt/especiais/vereadora-do-chega-em-benavente-foi-condenada-por-comprar-sucata-roubada-a-grupo-criminoso-liderado-por-militar-da-gnr/)
+20. Maria Manuela Pereira Tender, deputada eleita por Vila Real  Ex-deputada do PSD, acusada de falsear presenças na AR na polémica das “presenças-fantasma” de 2018. Afirmou estar simultaneamente em reuniões da CM de Chaves e em reuniões plenárias da Assembleia da República.
+[https://pt.wikipedia.org/wiki/Manuela\_Tender](https://pt.wikipedia.org/wiki/Manuela_Tender)
+21. António Laranjo ("Toni"), número 3 da lista em Viana do Castelo  Empresário de "negócios da noite" na praia da Amorosa, ligados à exploração sexual de jovens sul americanas. Irmão detido em rede organizada de tráfico de brasileiras para prostituição em Portugal → Luxemburgo.
+[https://www.cmjornal.pt/politica/detalhe/numero-tres-da-lista-de-candidatos-pelo-chega-de-viana-do-castelo-e-empresario-da-noite](https://www.cmjornal.pt/politica/detalhe/numero-tres-da-lista-de-candidatos-pelo-chega-de-viana-do-castelo-e-empresario-da-noite)
+22. Sérgio Júnior ("Sérgio Chorão"), deputado municipal em Braga  Detido em Outubro de 2023 pela PSP por tráfico de droga e posse ilegal de armas. Na operação da PSP foram apreendidas várias armas, 38.105 € em numerário, inúmeros comprimidos e substâncias dopantes
+[https://www.jn.pt/4169326603/deputado-municipal-do-chega-detido-diz-tratar-se-tudo-de-grande-equivoco/](https://www.jn.pt/4169326603/deputado-municipal-do-chega-detido-diz-tratar-se-tudo-de-grande-equivoco/)
+23. Mário Monteiro, líder do Chega em Ovar  Denunciado por entregas de dinheiro ao presidente da CM Ovar em troca da adjudicação de uma obra. Dirigente assume ter sido correio de suborno, entregando vários envelopes com dinheiro, num total de 120 mil euros.
+[https://www.rtp.pt/noticias/politica/polemica-em-ovar-dirigente-do-chega-diz-ter-sido-correio-de-suborno\_v1551312](https://www.rtp.pt/noticias/politica/polemica-em-ovar-dirigente-do-chega-diz-ter-sido-correio-de-suborno_v1551312)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -483,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>un turistas serem enganados</t>
+          <t>Mais uns turistas a serem enganados.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -503,7 +547,9 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>faro bloqueiam estrada modo obrigar carros parar pedir dinheiro condutor atento tentam furtar objectos possam dentro carro pessoal zona cuidado</t>
+          <t xml:space="preserve">
+Em Faro, bloqueiam a estrada de modo a obrigar os carros a parar para pedir dinheiro, e quando o condutor não está atento, tentam também furtar objectos que possam estar dentro do carro.
+Pessoal da zona, cuidado!</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -523,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>agora vejam lá querem surpresas daqui doi ano</t>
+          <t>Agora vejam lá se querem mais "surpresas" daqui a dois anos</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -543,7 +589,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>maria joão ano fugiu casa namorado ano dia ante fez espera trabalho acabou agredir colega proteger família desesperada nenhum cruzou elaés alguém conhece rapaz alguma ideia onde levado razões temer pior</t>
+          <t xml:space="preserve">A Maria João tem 16 anos e fugiu de casa com o namorado de 25 anos, que dias antes lhe fez uma espera no trabalho e acabou a agredir um colega que a estava a proteger.
+A família está desesperada.
+Será que nenhum de nós se cruzou com ela/és?
+Alguém conhece o rapaz? Alguma ideia de para onde a terá levado? Há razões para temer o pior?
+</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -563,7 +613,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>olá vai polémico sei fd brasileiros portugal epá adaptem vossa postura estilo vida país onde vieram acolhemovos vejo problema nenhum nisso vários amigo brasileiros fiz últimos meses adoroos maioria brasileiros coisa pessoalmente gosto epá falam alto pa crlh conversas grupo amigo telefone audio whatsapp sim flagelo dia noite gajo ouvir conversa toda queira outro dia phone assim ouvia conversa miúdas pita vá faziam alto drama like tik tok sabiam toda gente ouvir faziam questão ficasse bem presente queriam toda gente ouvisse cool sabem bem dançar tentam cantar conseguem pronto têm encontrar outro talento talvez siga grupos então praia churrascos parques públicos acho demais levam colunas funk outro flagelo têm todo direito claro digo podem moderar estilo vida estilo país onde tuga pacato sério fala tom moderado fala menos menos quer dizer boa pessoas saibamos divertirnos humor acho hospitaleiros sabemos receber sabemos comer bem sabemos adaptarnos bem brasil vezes adaptar forma falar percebessem falar bem devagar aberto começar usar expressões brasileiras usava ante brasileiro faz insiste seis diz meia muda nega categoricamente seis número invenção burla engraçado ouvi brasileiros dizerem mal recebidos portugal português assim adianto nada nesta questão deixo vossa consideração fdse assim vou obrigar ninguém brasil mudar completamente estilo oportunidade falar sobre amigo brasil conversa sempre bom rumo admitiam falam alto festivos exagero vezes lado admiti podemos demasiado sérios possa parecer antipáticos encontrámos equilíbrio boa amizade continuum exatamente ante brincam sabem brincar mandamos piadas secas bem sabemos vieram outro país devem adaptarse acho encontrando meio termo ninguém sinta rejeitado podemos falar abertamente sobre coisas movimentos woke cabeça tempo radicalismos bjs abraços</t>
+          <t>Olá!
+Isto vai ser polémico já sei mas que se f0d@!
+Brasileiros que estão em Portugal - epá adaptem a vossa postura ao estilo de vida do país para onde vieram. Nós acolhemo-vos e eu não vejo problema nenhum nisso. Tenho vários amigos brasileiros que fiz nos últimos meses e adoro-os!
+Mas a maioria dos brasileiros tem uma coisa que pessoalmente não gosto: epá falam alto pa c@r@lh0! Em conversas de grupo com amigos, ao telefone, em audios do Whatsapp (sim, esse flagelo), seja de dia, seja de noite. Um gajo tem de estar a ouvir a conversa toda deles mesmo que não queira! No outro dia estava de phones e mesmo assim ouvia a conversa de 2 miúdas (pitas vá) que faziam alto drama com likes do tik tok. E elas sabiam que toda a gente estava a ouvir, mas faziam questão de que isso ficasse bem presente! Elas queriam que toda a gente ouvisse que são muito cool e que sabem muito bem dançar e que tentam muito cantar... mas.. não conseguem pronto. Têm de encontrar outro talento talvez, siga.
+Em grupos então, na praia, em churrascos em parques públicos, acho que é demais mesmo. E levam as suas colunas com funk (outro flagelo). Têm todo o direito claro, não digo que não, mas podem moderar o seu estilo de vida ao estilo do país onde estão.
+O Tuga é um ser mais pacato, mais sério, fala num tom mais moderado e até fala menos (muito menos). Isso não quer dizer que não sejamos boas pessoas, que não saibamos divertir-nos, que não tenhamos humor (temos mais até acho eu). Somos hospitaleiros, sabemos receber, sabemos comer bem e sabemos adaptar-nos bem. Já fui ao Brasil 3 vezes e eu tive de adaptar a minha forma de falar para que me percebessem. Tive de falar bem mais devagar, mais aberto e tive de começar a usar expressões brasileiras que não usava antes. O brasileiro não faz isto. Insiste que "seis" se diz "meia" e não muda isso e nega categoricamente que "seis" seja um número - para ele isso é uma invenção e uma burla.
+O mais engraçado é que já ouvi brasileiros a dizerem que são mal recebidos em Portugal e que o português é isto e aquilo. Como assim? Nem adianto mais nada nesta questão.. deixo à vossa consideração, mas f0d@-se como assim?!
+Não vou obrigar ninguém do brasil a mudar completamente o seu estilo - tive oportunidade já de falar sobre isto com os amigos do Brasil e a conversa até foi sempre num bom rumo - eles admitiam que falam alto e que são mais festivos até em exagero por vezes. Por meu lado, eu admiti que podemos ser demasiado sérios e isso possa parecer que somos antipáticos. E encontrámos um equilíbrio numa boa. E a nossa amizade continua exatamente como antes - eles brincam como sabem brincar e nós mandamos as nossas piadas secas como bem sabemos também.
+Vocês vieram para outro país, devem adaptar-se acho eu. E nós a vocês, encontrando um meio termo em que ninguém se sinta rejeitado! Podemos falar abertamente sobre as coisas sem movimentos woke na cabeça e ao mesmo tempo sem radicalismos?
+Bjs / abraços!</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -583,7 +642,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>centro saúde moscavide pessoas desde espera deitadas chão cheguei m vem segurança grita avisamos vagas pessoas aqui pessoalmente razão ir hospital ontem consulta sn indicou resultado após horas atendida hoje vez vou conseguir portugal espero melhores breve</t>
+          <t xml:space="preserve">Centro de Saúde de Moscavide 
+Pessoas desde as 3:00 à espera. Deitadas no chão. Eu cheguei as 6:00. Aos 10m para as 8:00 vem o segurança e grita “Avisamos que só temos 3 vagas”…. Estão mais de 50 pessoas aqui. 
+Eu pessoalmente não tenho razão para ir ao hospital, mas ontem sem consulta foi o que o SNS indicou… sem resultado após 9 horas não fui atendida. 
+E hoje mais uma vez não vou conseguir.. 
+Portugal, espero que melhores em breve. </t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -603,7 +666,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>viva malta throwaway questões privacidade fazer algum tempo vindo adiar basicamente parceira ganhámos primeiro prémio euromilhões sempre alguém sabe disso inundados perguntas pessoalmente sentimos confortáveis responder muitas forma anónima grandes problemas alguém alguma dúvida força tentarem responder máximo conseguir abraço todos p mod acharem faz sentido pff apaguem post</t>
+          <t>Viva malta,
+Throwaway por questões de privacidade
+já estou para fazer isto a algum tempo, mas tenho vindo a adiar.
+Basicamente eu e a minha parceira ganhámos o primeiro prémio do Euromilhões em 2018. Sempre que alguém sabe disso somos "inundados" por perguntas... e pessoalmente não nos sentimos confortáveis em responder a muitas, mas se for de forma anónima não temos grandes problemas.
+Por isso, se alguém tiver alguma dúvida. força! tentarem responder ao máximo que conseguir. :)
+Abraço a todos
+P.S: Se os mods acharem que não faz sentido pff apaguem o post.</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -623,7 +692,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>empresa trampa</t>
+          <t>Que empresa de trampa!!!</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -643,7 +712,8 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>banido lembremse bem máquina trabalha pipeline redes sociais portuguesas</t>
+          <t>Fui banido por isto. 
+Lembrem-se bem de para que máquina trabalha a pipeline das redes sociais portuguesas</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -663,7 +733,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>juíza jovem pouco ano casada filhos pequenos mora prédio quer prédio faça obras colocar isolamento térmico apartamentos ficam fáceis manter quentes inverno climatização ficará barata fica barato apartamento mil euro reunião condomínio onde poucos condóminos maioria favor obra alguns condóminos querem despesa elevada alguns viveram desafogadamente agora têm algumas dificuldades outros querem fazer empatia dificuldades pagar obra outros querem manifestaram dúvidas sobre cobrança pagamento podem ter dificuldades pagar jovem juíza manifesta menor hesitações todos motivada fazer obra cobrança pagarem menor dificuldades fazer penhora apartamento dessas famílias faço todos dia diz jovem juíza menor hesitações algumas pessoas podem vir alvo penhoras ouvirem revoltadas assustadas achei frieza bastante desumana juíza mau</t>
+          <t xml:space="preserve">Para juíza é jovem, pouco mais de 30 anos. Casada, com 2 filhos pequenos.
+Mora no meu prédio. 
+Quer que o prédio faça obras, colocar um isolamento térmico. Depois os apartamentos ficam mais fáceis de manter quentes no inverno, a climatização ficará mais barata. Mas não fica barato, por apartamento 20 a 25 mil euros. 
+Numa reunião de condomínio onde foram poucos condóminos a maioria era a favor da obra. Mas alguns dos condóminos não querem, para eles é uma despesa muito elevada. Alguns já viveram mais desafogadamente e agora têm algumas dificuldades. Outros não querem fazer por empatia por aqueles que terão dificuldades em pagar a obra. Outros querem, mas manifestaram dúvidas sobre a cobrança do pagamento aqueles que podem ter dificuldades em pagar. 
+Mas a jovem juíza não manifesta a menor das hesitações, é de todos a mais motivada a fazer a obra. A cobrança aos que não pagarem não tem para ela a menor das dificuldades, é fazer a penhora do apartamento dessas famílias. 
+- Faço isso todos os dias - diz a jovem juíza sem a menor das hesitações, com algumas das pessoas que podem vir a ser alvo das penhoras a ouvirem revoltadas e assustadas. 
+Achei a frieza dela bastante desumana e que isso numa uma juíza é muito mau. </t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -683,7 +759,9 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>senhora reclama acontecem assalto todos dia inclusive último partiram montra loja roubarem par havaianas rua graça sei cidade alguém sabe</t>
+          <t xml:space="preserve">
+Senhora reclama que acontecem assalto todos os dias, e inclusive no último partiram a montra de uma loja para roubarem um par de Havaianas.
+É na Rua da Graça, mas não sei em que cidade é, alguém sabe?</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -703,7 +781,9 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>consigo imagens coments segue imagem processador metade pc unidade mal corre word</t>
+          <t xml:space="preserve">Como não consigo por imagens nos coments segue imagem do processador de metade dos pc da minha unidade.
+Mal corre o word 
+</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -723,7 +803,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>httpsexpressoptopiniaocartaamarcelorebelodesousaaedd</t>
+          <t>https://expresso.pt/opiniao/2024-03-15-Carta-a-Marcelo-Rebelo-de-Sousa-a6ed208d</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -743,7 +823,10 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>procurando engravidar contra vontade parceiro parceiro pode sujeito paternidade desejada porque enganado mulher faz deve sofrer alguma penalização têm ocorrido casos mulheres usam esperma fica preservativo engravidar sexo oral boris becker antigo campeão ténis filha mulher usou esquema</t>
+          <t xml:space="preserve">Procurando engravidar contra a vontade do parceiro.
+O parceiro pode depois ser sujeito a uma paternidade não desejada porque foi enganado.
+A mulher que faz isto deve sofrer alguma penalização? Qual?
+Também têm ocorrido casos de mulheres que usam o esperma que fica no preservativo para engravidar. Ou do sexo oral. Boris Becker, antigo campeão de ténis, tem uma filha em que a mulher usou esse esquema.  </t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -763,7 +846,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gajo pussy sabe trabalhar pede dinheiro porque conteúdo monetização dar dinheiro gajo deviam apanhar multa horrível gajo vá trabalhar qualquer pessoa dita inteligente decente fodase</t>
+          <t xml:space="preserve">O gajo é um pussy não sabe trabalhar e pede dinheiro porque o conteúdo não tem monetização?
+Se vocês forem dar dinheiro a esse gajo, deviam apanhar uma multa horrível 
+O gajo que vá trabalhar como qualquer pessoa dita inteligente e decente 
+Ora foda-se </t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -783,7 +869,8 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pessoas conseguem ter opiniões tão convictas saiba certo passou opinião pessoas deviam ter menos opiniões ter posição saberem ocorreu certo</t>
+          <t>É como as pessoas conseguem ter opiniões tão convictas sem que se saiba ao certo o que se passou.
+Na minha opinião as pessoas deviam ter menos opiniões, só ter uma posição depois de saberem o que ocorreu ao certo.</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -803,7 +890,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hoje faculdade alguém falou comigo disse podes vir comigo precisamos falar começou falar sobre post pensar adivinharam única coisa disse online politécnico lisboa politécnico escs isel estsel iscal esel etc importante agora contei passou marquei reunião próxima semana agora espero pais saibam disto algo ver quero mostrar ninguém família sinto confortável agora quero agradecervos porque sei vós deu razão fazer ia fazer quero dizer última coisa alguém conheçam situação semelhante falem pais porque muitas pessoas gostam falar disto pais obrigado</t>
+          <t xml:space="preserve">Hoje estava na minha faculdade e alguém falou comigo e disse "podes vir comigo? precisamos de falar"
+E começou a falar sobre o meu post.
+E eu estava a pensar "como é que adivinharam que era eu? a única coisa que eu disse online é que era do politécnico de Lisboa mas o politécnico tem o ESCS, o ISEL, o ESTSEL, o ISCAL, o ESEL, etc..."
+Mas o mais importante é que agora contei o que se passou e marquei uma reunião com eles na próxima semana.
+Agora espero que os meus pais não saibam disto, não é que eles tenham algo a ver com isto, mas não quero mostrar isto a ninguém da minha família, não me sinto confortável.
+Mas agora só quero agradecer-vos porque sei que foi um de vós que me deu uma razão para não fazer o que ia fazer.
+Só quero dizer uma última coisa, se alguém que conheçam estiver numa situação semelhante à minha, não falem com os pais, porque muitas pessoas não gostam de falar disto aos pais.
+Obrigado.
+</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -823,7 +918,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pediram ajuda instituição onde faço voluntariado avaliar situação família filhos pai mãe desempregados desde sempre rendimento inserção social recebem euro além disso ação formação recebe euro mensais abonos família recebem euro têm filho meses sei vai fazendo un biscates sei quanto recebe sei tudo somado vai euro câmara municipal pagalhe alguns medicamentos precisam regularmente renda casa habitação social euro dívida pagam vários ano conclusão rendimento ficam mensalmente rendimento superior euro trabalharem acrescem biscates faz vamos ajudar</t>
+          <t xml:space="preserve">Pediram ajuda à instituição onde faço voluntariado. 
+Fomos avaliar a situação. Família com 3 filhos, pai e mãe desempregados desde sempre. 
+Mas de rendimento de inserção social recebem 710 euros. Além disso ele está numa ação de formação e recebe 400 euros mensais por isso. De abonos de família recebem 500 euros (têm um filho com 16 meses). 
+Sei que vai fazendo uns biscates. Não sei quanto recebe por isso. Sei que isto tudo somado já vai em mais de 1600 euros. 
+A câmara municipal paga-lhe alguns medicamentos de que precisam regularmente. 
+Renda de casa, habitação social, 30 euros. Em dívida, não pagam há vários anos. 
+Conclusão, rendimento ficam mensalmente com um rendimento superior a 1.600 euros, sem trabalharem, a que acrescem os biscates que ele faz. 
+Não, não vamos ajudar  </t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -843,7 +945,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>serum melhor forma protesto</t>
+          <t>Sera que isto é mesmo a melhor forma de protesto?</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -863,7 +965,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gatas queria mulher tanto insistiu venceu cansaço toda castradas porque gatas cio insuportáveis porque parece vivem tempo apesar castrada gosta cheiro sovacos rebola cima camisas usadas lambe sovacos deixar lambe rebolase abraça braço enquanto faz li algumas gatas fazem causa hormonas masculinas apenas coisas surpreendeu comecei ter gatos outras coisas surpreenderam inteligentes esperava podem ter gama vocalizações maiores suponha vocalizações gatas gatos irmã parecem bebé fazer primeiras tentativas falar entendem algumas coisas digo sabem abrir sacos fecho eclair animais solitários gostam viver pequenos grupos pensava ligavam donos razão ter aceitado ter gatos pensava iam pedir muita atenção realmente pedem exigem</t>
+          <t>Tenho 3 gatas. Não queria, mas a minha mulher tanto insistiu que venceu pelo cansaço.
+Todas estão castradas. Porque as gatas com o cio são insuportáveis e porque parece que vivem mais tempo. 
+Mas apesar de castrada uma delas gosta do cheiro dos meus sovacos, rebola em cima das minhas camisas usadas e até me lambe os sovacos se eu deixar. Lambe, rebola-se e abraça o meu braço enquanto o faz. 
+Pelo que li algumas gatas fazem isto por causa das hormonas masculinas. 
+Esta é apenas uma das coisas que me surpreendeu quando comecei a ter gatos.
+Outras coisas que me surpreenderam
+- são muito mais inteligentes do que eu esperava. Podem ter uma gama de vocalizações muito maiores do que suponha. As vocalizações de uma das minhas gatas (e um dos gatos da minha irmã) parecem as de um bebé a fazer as primeiras tentativas de falar. E entendem algumas das coisas que eu digo. 
+Também sabem abrir sacos com fecho eclair.
+-Não são animais solitários, gostam de viver em pequenos grupos. 
+-Pensava que não ligavam muito aos donos. Foi essa a razão para ter aceitado ter gatos. Pensava que não iam pedir muita atenção... e realmente não pedem. Exigem!</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -883,7 +994,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>acontecer agora h</t>
+          <t xml:space="preserve">Está a acontecer agora, às 17h </t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -903,7 +1014,9 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>desculpem aguento trendices cafés brunch influencers nómadas todo lado panóplia infindável restaurantes cozinhas mundo inteiro reduziram cozinha local minoria outro dia desses locais além ter sido atendido inglês alguém bom dia sabe dizer ainda paguei latte meia leite galão sabem acham fim irreversível</t>
+          <t>Desculpem mas já não aguento as “trendices” dos cafés de brunch, os influencers e nómadas por todo o lado, ou a panóplia infindável de restaurantes de cozinhas do mundo inteiro que reduziram a cozinha local à minoria. 
+No outro dia fui a um desses locais e para além de ter sido atendido em inglês por alguém que nem bom dia sabe dizer, ainda paguei €4 por um “latte” (não há meia de leite nem galão, nem sabem o que isso é). 
+Acham que isto terá fim, ou é irreversível?</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -923,7 +1036,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>acabaram tentar burlarpartilho conversa contactocomo vê conversa falta inteligência individuo provavelmente vai tentar outras vezes número</t>
+          <t>Acabaram de me tentar burlar....partilho a conversa e o contacto..como se vê pela conversa e falta de inteligência do individuo provavelmente vai tentar outras vezes com o mesmo número.</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -943,11 +1056,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nome dariam macho prenda natal esposa</t>
+          <t xml:space="preserve">Que nomes dariam a este macho (prenda de Natal da minha esposa ) </t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -963,7 +1076,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>lendo comentários post anterior desenrolar campanha fiz algumas alterações</t>
+          <t>Lendo os comentários do post anterior e também com o desenrolar da campanha, fiz algumas alterações</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -983,7 +1096,8 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mesma família inéme jénierre jnr eminem ideia ascanilho</t>
+          <t>Da mesma família de INÉME, JÉNIERRE e JNR temos EMINEM.
+Ideia de: @AScanilho</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1003,7 +1117,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>percebo nada possível muitos filhos serem tirados pais falta condições ciganos usarem garotos pedir dinheiro leiria péssimo andam grupo virem pessoa sozinha mandam garoto pequeno mínimo educação miúdos pedem exigem coisas ten dinheiro comida contada mês posso dar comida garotos faço milagres disse garoto pequeno moedas tirou dedo rego tentou enfiar cara merda outra garota pediu dinheiro ofereci comida aceitou queria tudo obrigada faz favor dá dinheiro dó caralho tão todos cágados calor morte rua possível continuarem ter filhos monte terem condições cuidar acontecer nada pais ficam filhos menos</t>
+          <t xml:space="preserve">Não percebo nada. Como é possível muitos filhos serem tirados aos pais por falta de condições, e os ciganos usarem os garotos para pedir dinheiro. Em Leiria está péssimo. Andam em grupo, mas se virem uma pessoa sozinha mandam um garoto pequeno, que nem o mínimo de educação tem. Os miúdos não pedem, exigem as coisas que tens. Eu tenho o dinheiro e comida contada para o mês, posso dar comida aos garotos, mas não faço milagres. 
+Disse a um garoto pequeno que não tinha moedas e ele tirou o dedo do rego e tentou enfiar na minha cara. Mas que merda é esta!
+Outra garota pediu dinheiro, ofereci comida. Ela aceitou, mas queria tudo o que eu tinha. 
+Nem obrigada, nem se faz favor. É "dá dinheiro". Dó o caralho. 
+Eles tão todos cágados, num calor de morte na rua. Como é possível continuarem a ter filhos aos montes, não terem condições para os cuidar, e não acontecer nada.
+Tem pais que ficam sem os filhos por menos.
+</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1023,7 +1143,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>população jovem altamente qualificada geral encontra emprego facilidade área formação portugal noutros casos opta trabalhar estrangeiro condições salariais laborais vantajosas entretanto país desenvolve sobretudo setor turismo depende trabalhadores qualificados funções camareiros empregados mesa outras evidente portuguese número desempenhar tai funções população portuguesa idade ativa nomeadamente abaixo ano qualificações coadunam tipo trabalho disponível área turismo resultado importação mãodeobra semiescrava rei roque marcha clara substituição populacional deliberada vê quer urgente refletir bem sobre futuro queremos país sobre sobrevivência enquanto população votar consciência próximas eleições quais ditarão provavelmente irreversibilidade desta substituição</t>
+          <t>Temos uma população jovem altamente qualificada que, no geral, ou não encontra emprego com facilidade na sua área de formação em Portugal ou, noutros casos, opta por trabalhar no estrangeiro em condições salariais e laborais mais vantajosas. 
+Entretanto, o país desenvolve sobretudo o setor do turismo, o qual depende de trabalhadores não qualificados, em funções como camareiros, empregados de mesa, entre outras. 
+Como é evidente, não há portugueses em número para desempenhar tais funções: a população portuguesa em idade ativa, nomeadamente abaixo dos 50 anos, tem qualificações que não se coadunam com o tipo de trabalho disponível na área do turismo. 
+Resultado: importação de mão-de-obra semi-escrava sem rei nem roque. 
+Está em marcha uma clara substituição populacional, deliberada ou não. Só não vê quem não quer. É urgente, por isso, refletir muito bem sobre o futuro que queremos para o país, sobre a nossa sobrevivência enquanto população, e votar em consciência nas próximas eleições, as quais ditarão, provavelmente, a irreversibilidade, ou não, desta substituição.</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1043,7 +1167,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>voluntariado apoiar famílias pobres lido várias famílias ciganas posso falar sobre nesta área dão problemas relevantes algumas têm comportamentos fazem consigam arranjar emprego alguns ciganos ciganas empregos normais nesta família pai cigana emprego normal fábrica ganhava pouco salário mínimo renda euro maus hábitos faziam família mulher filhos continue passar necessidade recebiam ri abusa álcool fim semana chega casa manhã bêbado emprego envolveuse outra mulher cigana obviamente esposa cigana gostou certeza fortes suspeitas ambiente casa ficou mau discussões permanentes filha velha apenas ano prometida casamento jovem cigano ano dada altura saturada permanente guerra conjugal necessidades passava casa fugiu viver noivo comunidade cigana casados família medo soubesse poi sabem casarem filhos ante ante podem ter problemas justiça mim contaramme logo confiam completamente mim podium fazer apenas ano casa guerra permanente aliás menina tratamento psiquiátrico depressão conselho óbvia necessidade institucionalizála iria piorar situação vejo pudesse melhorar entretanto fez ano cpcj justiça irão fazer coisa nenhuma pai deixou mãe juntouse outra mulher emigrou alemanha onde arranjaram outros empregos vive lá bem coloca fotos facebook mostrar mulher restantes filhos sair onde moravam agora moram junto pais doentes amontoados pequeno apartamento habitação social podium arranjar emprego sinceramente depressão ninguém dava emprego cigana continuum gostar marido agora mãe proíbe filhos falarem pai telemóvel redes sociais acho ainda esperança volta meio tudo sinto sensação impotência procuramos ajudar alguns alimentos medicamentos conselhos apenas ouvindo desabafos podem importante filhos crescerem repitam ciclo pobreza pais vivem</t>
+          <t xml:space="preserve">No meu voluntariado a apoiar famílias pobres, lido com várias famílias ciganas. Depois posso falar mais sobre isso, mas nesta área não dão problemas relevantes. Algumas têm é comportamentos que fazem com que não consigam depois arranjar um emprego. 
+Mas já há alguns ciganos e ciganas com empregos normais. 
+Nesta família o pai cigana tinha um emprego normal, numa fábrica. Ganhava um pouco mais do que o salário mínimo, mas a renda de 600 euros e os maus hábitos dele faziam com que a família, mulher e 4 filhos, continue a passar necessidade. Não recebiam RIS. Ele abusa do álcool ao fim de semana, chega a casa às 4 ou 5 da manhã, bêbado. No emprego envolveu-se com outra mulher, não cigana. Obviamente a esposa, cigana, não gostou, ela não tinha a certeza, mas fortes suspeitas, e o ambiente em casa ficou muito mau, discussões permanentes. 
+A filha mais velha, apenas 13 anos, estava prometida casamento a um jovem cigano, com 18 anos. 
+A dada altura saturada da permanente guerra conjugal, e das necessidades que passava em casa, fugiu e foi viver com o noivo. Para a comunidade cigana estão casados. A família tinha medo que se soubesse, pois sabem que se casarem os filhos antes dos 14 antes podem ter problemas com a justiça. 
+A mim contaram-me logo. Confiam completamente em mim. 
+Mas que podia eu fazer? Ela tinha apenas 13 anos, mas em casa era uma guerra permanente. Aliás a menina estava em tratamento psiquiátrico para depressão. Por conselho meu e óbvia necessidade. 
+Institucionalizá-la iria piorar a situação, não vejo que pudesse melhorar. 
+Entretanto fez 14 anos e a CPCJ e a justiça já não irão fazer coisa nenhuma. 
+O pai deixou a mãe, juntou-se com a outra mulher e emigrou, para a Alemanha, onde arranjaram outros empregos. Vive lá bem, coloca fotos no facebook a mostrar isso. 
+A mulher e os restantes filhos tiveram de sair onde moravam, agora moram junto com os pais dela, doentes, amontoados num pequeno apartamento de habitação social. Ela podia arranjar um emprego? Sinceramente com a depressão com que ela está ninguém lhe dava um emprego, mesmo que não fosse cigana. Continua a gostar do marido. Agora a mãe proíbe os filhos de falarem com o pai, nem por telemóvel, nem pelas redes sociais. Acho que ainda tem esperança que ele volte. 
+No meio de tudo isto o que sinto é uma sensação de impotência. Procuramos ajudar com alguns alimentos, medicamentos, conselhos ou apenas ouvindo os desabafos, que podem até ser o mais importante, para que os filhos quando crescerem não repitam o ciclo de pobreza em que os pais vivem. </t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1063,7 +1198,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>esposa filhotes ano ano queremos vamos ter filho espera nova ano meio toda gente dizemos criticam opinião contrário pais sogros irmãos cunhados amigo médico família ginecologista dizem doi chega deixem tardenão sabem metemetcetc vida estabilizada ganhamos bem pequena quinta quase toda paga dificuldade financeira arriscado ir ano loucura sermos jovens conseguimos entender porque toda gente relutante queremos esperar tarde alguns fatores nasci pais agora bastante acabados convivem netos casa consigo arrastar atividade família quero passar todos pais sabem primeiros ano difícil ir cinema jantar etccom crianças espaçadas sempre presos assim rápido relação irmãos achamos menos idade maior probabilidade terem infância gira brincarem junto etc edite obrigado todos apoio vou tentar responder todos conseguir fica aqui agradecimento edite genecologista deu luz verde engravidar teceu opiniões pessoais contra dissemos certeza insistiu voltamos afirmar fez cara feia quase chamando burro ficamos parvo situação poi feito exames médica acabado dar luz verde aceitamos opinião pessoal sobre ter crianças idades próximas ficou xatiada vez médica porque deixou trabalhar grupo hospitalar vamos vamos voltar</t>
+          <t xml:space="preserve">Eu e minha esposa temos 2 filhotes 3anos 1ano.
+Queremos e vamos ter mais 1 filho estamos só a espera que a mais nova tenha ano e meio.
+Toda a gente que dizemos criticam ou opinião em contrário.
+Pais, sogros, irmãos, cunhados, amigos.
+Até o médico de família e a ginecologista.
+Ou dizem dois já chega, ou deixem para mais tarde,não sabem nas que se metem...etc.etc...
+Temos vida estabilizada, ganhamos bem, temos uma pequena quinta já quase toda paga, ou seja não é por dificuldade financeira que seja arriscado ir para o 3°
+Temos 32 e 34 anos, ou seja não é uma loucura por sermos jovens.
+Não conseguimos entender porque de toda gente estar relutante.
+Não queremos esperar por mais tarde por alguns fatores, 
+Quando nasci os meus pais já tinham 40/39 agora  com 74/73 bastante acabados, já só convivem com os netos em casa, não consigo arrastar para atividade em família, e não quero passar pelo mesmo.
+Todos pais sabem como são os 3 primeiros anos, é difícil ir ao cinema jantar etc...com as crianças.
+Se forem espaçadas estamos sempre presos, assim é mais rápido.
+Relação entre irmãos achamos que com menos idade maior probabilidade de terem um infância mais gira de brincarem juntos etc...
+Edite: obrigado a todos pelo apoio,  vou tentar responder a todos mas se não conseguir fica aqui o agradecimento
+Edite: a genecologista deu luz verde para engravidar, mas depois teceu opiniões pessoais contra, nos dissemos que tínhamos a certeza e ele insistiu, voltamos a afirmar e ela fez cara feia quase chamando de burros. Nos ficamos parvos com a situação pois ela tinha feito exames e a médica tinha acabado de dar luz verde mas depois como não aceitamos a opinião pessoal sobre ter 3 crianças em idades próximas ficou xatiada. 
+Era 2 vez que fomos a esta médica porque a nossa deixou de trabalhar para o grupo hospitalar que vamos.
+Não vamos voltar </t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1083,7 +1235,8 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sismo durante transmissão missa freguesia serreta reparem ruído balanço árvore natal</t>
+          <t>Sismo durante transmissão de missa na freguesia da Serreta.
+Reparem no ruído e no balanço da árvore de Natal.</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1103,7 +1256,10 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vai ter poder partido republicano vai dominar supremo tribunal senado provavelmente congresso além disso agradar porque pode reeleito tudo somado pode radical</t>
+          <t xml:space="preserve">Vai ter mais poder. 
+O partido republicano vai dominar o supremo tribunal, o senado e provavelmente o congresso, 
+Além disso não tem de agradar porque não pode ser reeleito. 
+Tudo somado pode ser mais radical. </t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1123,7 +1279,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>caros amigo internautas fazer contas impacto confusão nome adn ad possam ter tido nestas legislativas pontos prévios tipicamente votante direita partime rir falta visãoatenção psdcds considero culpa totalmente desses doi partidos bom exemplo mercado funcionar processo rebranding vou considerar concordam influência deste engano número votantes adn relatos primeira pessoa alguns simple facto partido passar k k votos x maior ano qualquer mediatismo vou assumir resultados faltam lisboa mem martin vão absolutamente anormais passando contas considerando votos adn ad p perde deputados lisboa viseu chega perde deputado coimbra ad ganha deputados bastava realidade cerca votos adn ad acontecer cenário considerando cenário ultra conservador votos adn ad p perde deputado viseu ad ganha deputado contas feitas números deputados finais maiores partidos números momento considerando psad estrangeiro deverão ad p chega cenário normal adn ad ad p chega conservador ad p chega contas ad perdeu claro erro estratégico relação nome eleições boa noite todos obrigado votarem</t>
+          <t xml:space="preserve">Caros amigos internautas,  
+Fui fazer as contas do impacto que a confusão entre os nomes ADN e AD possam ter tido nestas legislativas.  
+Pontos prévios:  
+- Sou tipicamente votante de direita.  
+- Parti-me a rir com esta falta de visão/atenção do PSD/CDS.  
+- Considero que a culpa é totalmente desses dois partidos, e que isto foi um bom exemplo do "mercado a funcionar" num processo de rebranding.  
+- Vou considerar que concordam que houve influência deste engano no número de votantes do ADN, seja pelos relatos em primeira pessoa de alguns, ou pelo simples facto de um partido passar de 10k para 100k votos, 10x maior, em 2 anos sem qualquer mediatismo.  
+- Vou também assumir que os resultados que faltam em Lisboa (de Mem Martins) não vão ser absolutamente anormais.
+Passando às contas:  
+**Considerando que 50% dos votos do ADN seriam para a AD**.  
+PS: Perde 2 deputados (Lisboa, Viseu).  
+Chega: Perde 1 deputado (Coimbra).  
+AD: Ganha esses 3 deputados.  
+(Bastava na realidade, que cerca de 37% dos votos na ADN fossem para a AD para acontecer este cenário).  
+**Considerando um cenário ultra conservador, em que só 8% dos votos do ADN seriam para a AD**.  
+PS: Perde 1 deputado (Viseu).  
+AD: Ganha esse mesmo deputado.  
+Contas feitas, os números de deputados finais dos 3 maiores partidos, com os números que temos ao momento, e considerando 2-2 (PS/AD) no estrangeiro, deverão ser:  
+AD: 81.  
+PS: 79.  
+Chega: 48.  
+**Com o cenário "normal" (40% ADN -&gt; AD):**  
+AD: 84.  
+PS: 77.  
+Chega: 47.  
+E mesmo com o conservador:  
+AD: 82.  
+PS: 78.  
+Chega: 48.  
+São estas as contas do que a AD perdeu por um claro erro estratégico em relação ao seu nome para estas eleições.  
+Boa noite a todos e obrigado por votarem.
+</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1143,7 +1330,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>últimos dia comentado sub tugas tentar dar dicas pessoal sair operadoras un minutos uextremeshock mandoume pm dizer curtido comentários aceitei pensar queria ajuda alguma ajuda conversa rapidamente ficou estranha começou perguntar idade saca dum ten dama disse logo demasiado pessoal pra gajo qualquer reddit perguntar responde desculpa desabafar virgem hermafrodita logo aqui grande red flag porque termo hermafrodita correto intersexo certeza saberia termo correto começa então dizer mora america traços femininos blablabla começa mandar fotos modelo diz modelo nada começa dizer quer dar prazer homem mulher fiquei reação gajo comete erro mandar link insta tal modelo nome cesar daniel telemóvel abre definição browser conta insta aberta browser primeira coisa aparece juntate miguel silva instagram abrir app mandeio logo merda disse gajo doentio objectivo disto queria ganhar mim tipo doença ter inventar toda história triste hermafrodita saber quer sei dizer conseguiu surpreender afinal gajos ainda doentes cabeça pensava desculpem rant atenção mete conversa convosco aqui un tempo outro querer partilhar fotos pita agora sei posso postar aqui desculpem mod</t>
+          <t>Nos últimos dias tenho comentado mais pelos subs tugas a tentar dar dicas aos pessoal de como sair das operadoras.   
+Há uns minutos o u/Extreme-Shock-6553 mandou-me pm a dizer que tinha curtido dos meus comentários e eu aceitei a pensar que queria ajuda com alguma ajuda com isso.   
+A conversa rapidamente ficou estranha, começou a perguntar a minha idade e depois saca dum “tens dama?”. Eu disse logo que isso era demasiado pessoal pra um gajo qualquer do reddit perguntar, ao que ele responde:   
+“Desculpa, estou só a desabafar. Sou virgem e hermafrodita”.   
+Logo aqui uma grande red flag, porque o termo hermafrodita já não é o correto, é intersexo, se ele fosse, de certeza que saberia o termo correto.   
+Começa então a dizer que mora na america e que tem traços femininos e blablabla e começa a mandar fotos de um modelo ( e diz que é modelo) e do nada começa a dizer que quer dar prazer a um homem como se fosse mulher.  Fiquei sem reação, o gajo depois comete o erro de me mandar links do insta do tal modelo de nome Cesar Daniel, só que estou no telemóvel, abre por definição no browser e como não tenho conta do insta aberta no browser a primeira coisa que aparece é “Junta-te a Miguel Silva no instagram” para abrir a app. Mandei-o logo à merda e disse que ele era um gajo doentio.   
+Qual é o objectivo disto? O que é que ele queria ganhar de mim? Que tipo de doença tem que se ter para inventar toda uma história triste de ser hermafrodita e não saber o que quer ser?    
+Nem sei mais o que dizer, conseguiu me surpreender. Afinal há gajos ainda mais doentes da cabeça do que eu pensava.   
+Desculpem o rant, mas tenham atenção a quem mete conversa convosco aqui. Há uns tempos era o outro a querer partilhar fotos de pitas e agora isto.   
+(Nem sei se posso postar isto aqui, desculpem mods)</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1163,7 +1359,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>bem termo certo cá vai conto porque voluntariado sábado ocorreume chovia distribuía alimentos várias famílias molhado bastante evidente particular calças molhadas perto mim várias pessoas dizerme abrigar melhor falta tempo condições climatéricas favoráveis além disso molhado coisa incomoda aí além nisto mulher viúva ano dáme bom apalpão rabo diz molhado evidente bastante óbvio intenção ver molhado ignorei abuso tempo atrás férias allgarve resolvi rapar cabeça fácil secar mercado local mulher banca onde ocasionalmente comprado algumas frutas legume começa cantar samba carecas gostam ignorei boca ainda atrás outra vez voluntariado furgoneta cheia sacos alimentos distribuir encostado porta lateral furgoneta esticado chegar saco alimentos determinada família mulher ano ano encostase mim começa abanarse fazer sexo comigo vários presentes riramse aqui pude ignorar repreender alguma aspereza dizendo ter pouco respeito mim respondeu desastradamente tesão pior emenda soneto jovens estudantes façam insinuações menos veladas dou desconto jovens imaturas olhar reprovação seguese frente mulheres idade ter juízo casadas ainda cima exemplo primeiro caso homem dar apalpão rabo mulher provavelmente distribuição alimentos acabava logo ali terceiro exemplo provavelmente família nunca ajudada provavelmente mulher sentirseía abusada mulheres fazer fizeram sendo homem sinto propriamente vítima acho apenas parvoíce seguese frente ignorando tolices</t>
+          <t xml:space="preserve">Não será bem este é o termo certo, mas cá vai.
+Conto isto porque no meu voluntariado no sábado ocorreu-me. Chovia e eu distribuía alimentos a várias famílias. Estava molhado, era bastante evidente, em particular as minhas calças estavam molhadas. Estavam perto de mim várias pessoas a dizer-me para eu me abrigar melhor, mas a falta de tempo e as condições climatéricas não eram favoráveis a isso. Além disso estar molhado não é coisa que me incomoda por aí além. 
+Nisto uma mulher, viúva, já com mais de 70 anos, dá-me um bom apalpão no rabo e diz "ele está mesmo molhado". Era evidente e foi bastante óbvio que a intenção não foi ver se eu estava molhado. Ignorei o abuso.
+Tempos atrás, estava eu de férias no "Allgarve" resolvi rapar a cabeça. Mais fácil de secar. Quando fui ao mercado local uma mulher de uma banca  onde ocasionalmente já tinha comprado algumas frutas e legumes começa a cantar o samba "É dos carecas que elas gostam mais..." ignorei a boca.
+Ainda mais atrás outra vez no voluntariado estava eu com uma furgoneta, cheia de sacos com alimentos para distribuir, encostado à porta lateral da furgoneta, esticado para chegar ao saco alimentos de uma determinada família, uma mulher com 37 anos anos encosta-se a mim, e começa a abanar-se como se estivesse a fazer sexo comigo. Vários dos presentes riram-se e aqui não pude ignorar tive de a repreender com alguma aspereza, dizendo para ter um pouco de respeito por mim. Respondeu desastradamente "estava com tesão". Pior a emenda que o soneto. 
+Que jovens estudantes façam insinuações mais ou menos veladas, dou um desconto, são jovens imaturas. Olhar de reprovação e segue-se em frente. Mas mulheres com mais que idade para ter juízo e casadas ainda por cima! 
+Por exemplo, no primeiro caso, se fosse um homem a dar um apalpão no rabo de uma mulher, provavelmente a distribuição de alimentos acabava logo ali. O mesmo no terceiro exemplo, em que provavelmente aquela família nunca mais seria ajudada e provavelmente a mulher sentir-se-ía abusada. 
+Como foram mulheres a fazer o que fizeram e sendo eu homem não me sinto propriamente vítima, acho apenas que foi uma parvoíce e segue-se em frente, ignorando as tolices. </t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1183,7 +1386,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>filipe melo ultimo post primeiro deputado lista três eleitos chega círculo braga legislativas arguido falsidade depoimento declaração disse tribunal desconhecer acta interna partido proprio assinou httpsecosapoptdeputadodochegaconstituidoarguidoporprestarfalsasdeclaracoesemtribunalhttpsecosapoptdeputadodochegaconstituidoarguidoporprestarfalsasdeclaracoesemtribunal xb httpswwwredditcomrportugalcommentsbezcdvamoslimparportugalhttpswwwredditcomrportugalcommentsbezcdvamoslimparportugal</t>
+          <t>Filipe Melo, #3 do meu ultimo post, primeiro deputado na lista dos três eleitos do Chega pelo círculo de Braga nas legislativas é arguido por “falsidade de depoimento ou de declaração”.
+Disse em tribunal, desconhecer uma acta interna do partido, que ele proprio assinou
+[https://eco.sapo.pt/2024/03/18/deputado-do-chega-constituido-arguido-por-prestar-falsas-declaracoes-em-tribunal/](https://eco.sapo.pt/2024/03/18/deputado-do-chega-constituido-arguido-por-prestar-falsas-declaracoes-em-tribunal/)
+&amp;#x200B;
+[https://www.reddit.com/r/portugal2/comments/1bezc6d/vamos\_limpar\_portugal/](https://www.reddit.com/r/portugal2/comments/1bezc6d/vamos_limpar_portugal/)</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1203,7 +1410,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>diz polígrafo acordo relatório estatístico anual estrangeiros mantêm contribuintes total residentes contribuintes cada residentes população total portugal contribuintes cada residentes baseouse relatório estatístico anual indicadores integração imigranteshttpsmigrantintegrationeceuropaeusystemfilesrelatorioestatisticoanualindicadoresdeintegracaodeimigrantespdf basta ir relatório ver página concluímos apenas população imigrante ano neste intervalo etário poucos imigrantes estudantes reformados logo nunca podem contribuintes residentes resto população nesta faixa etária pessoas podemos ver ainda taxon desemprego imigrantes população geral página podemos ver página número beneficiários diversas prestações sociais usando taxon desemprego considerando população idade ativa então ordem concluo taxon imigrantes trabalham ordem polígrafo demagogia incompetência pretende fazer passar faço post debater nada sobre imigração analisar análise polígrafo parece total incompetência então manipulação grosseira ainda dizem redes sociais veiculam fake news edit quadro relatório página particularmente elucidativo origem erro joana mortágua polígrafo nesse quadro rácio contribuintes residentes duas nacionalidade imigrantes brasileiros indianos indica claramente muitos imigrantes têm autorização residência contabilizados residentes contribuintes aliás valor rácio contribuintesemigrantes subiu quase</t>
+          <t xml:space="preserve">diz o polígrafo:
+&gt;De acordo com este relatório estatístico anual, “os estrangeiros mantêm mais contribuintes por total de residentes (**87 contribuintes por cada 100 residentes** em 2022) que a população total em Portugal (48 contribuintes por cada 100 residentes)”.
+Baseou-se no [relatório Estatístico Anual - Indicadores de Integração de Imigrantes](https://migrant-integration.ec.europa.eu/system/files/2023-12/Relatorio%20Estatistico%20Anual%20-%20Indicadores%20de%20Integracao%20de%20Imigrantes%202023.pdf)
+Mas basta ir a este relatório e ver a página 62 e concluímos que apenas 73% da população imigrante tem entre 20 e 65 anos. Mesmo neste intervalo etário há, e não poucos, imigrantes estudantes e reformados. Logo nunca podem ser 87 contribuintes entre 100 residentes.
+Para o resto da população 53% está nesta faixa etária (mais &lt;20 e muito mais pessoas com &gt;65) .
+Podemos ver ainda que a taxa de desemprego entre os imigrantes é de 14,3% e entre a população em geral é de 6,1% (página 190)
+Também podemos ver na página 224 o número de beneficiários das diversas prestações sociais .
+Usando esta taxa de desemprego e considerando que a população em idade ativa é então da ordem dos 73% concluo que a taxa de imigrantes que trabalham é da ordem dos 63% e não os 87% que o polígrafo, na sua demagogia ou incompetência pretende fazer passar.
+Não faço este post para debater nada sobre a imigração, mas para analisar a análise do polígrafo, que me parece de uma total incompetência ou então uma manipulação grosseira. Ainda dizem que as redes sociais veiculam fake news.
+**EDIT** - o quadro 8.5 do relatório, na página 218 é particularmente elucidativo da origem do erro de Joana Mortágua e do polígrafo. Nesse quadro o rácio entre contribuintes e residentes para as duas nacionalidade com mais imigrantes é de 115,3% para os brasileiros e 158,6% para os indianos! Ora o que isto indica claramente é há muitos imigrantes que não têm autorização de residência e não são contabilizados como residentes, mas que são contribuintes. 
+Aliás o valor do rácio contribuintes/emigrantes subiu quase 25% de 2021 para 2022. </t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1223,7 +1440,8 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>httpspreviewredditcptoybgxcjpgwidthformatpjpgautowebpsbeedacccdc</t>
+          <t xml:space="preserve">https://preview.redd.it/6cp3to8ybgxc1.jpg?width=2060&amp;format=pjpg&amp;auto=webp&amp;s=76088984b71814365eed591a82c76c36183c53dc
+</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1243,7 +1461,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>httpswwwacoreshorasptmeninadeanosabusadaporhomenshttpswwwacoreshorasptmeninadeanosabusadaporhomens surgiram informações sobre abusos arguido acompanhado cerca homens trabalhavam construção urbanização deslocouse residência menor ameaçar morte mãe vítima caso calasse acordo acusação ministério público restantes arguidos praticaram momentos distintos dezenas abusos sexuais arguidos ofereciam cigarros dinheiro menor procuravam coagir vítima ameaçando contariam pai comportamento abusos prolongaramse durante meses caso chegou conhecimento comissão protecção menores denunciou psp httpssicnoticiasptpaiscondenadosdoshomensacusadosdeabusosexualdemenornosacoreshttpssicnoticiasptpaiscondenadosdoshomensacusadosdeabusosexualdemenornosacores acusados cinco condenados penas prisão quatro seis ano prática abuso sexual criança tendo sido considerado provado cópula sexo oral menor tribunal condenou ainda outros cinco homens penas suspensas absolveu três considerou outro inimputável</t>
+          <t>[https://www.acores24horas.pt/menina-de-12-anos-abusada-por-14-homens/](https://www.acores24horas.pt/menina-de-12-anos-abusada-por-14-homens/)
+&gt;...Quando surgiram informações sobre os abusos, o arguido, acompanhado de cerca de 30 homens que trabalhavam na construção de uma urbanização, deslocou-se à residência da menor para ameaçar de morte a mãe da vítima, caso esta não se calasse.
+&gt;...  
+De acordo com a acusação do Ministério Público, os restantes arguidos praticaram, em momentos distintos, dezenas de abusos sexuais. Os arguidos ofereciam cigarros e dinheiro à menor. Também procuravam coagir a vítima, ameaçando que contariam ao seu pai o seu comportamento. Os abusos prolongaram-se durante 13 meses, até que o caso chegou ao conhecimento da Comissão de Protecção de Menores, que denunciou à PSP.
+[https://sicnoticias.pt/pais/2010-03-17-condenados-10-dos-14-homens-acusados-de-abuso-sexual-de-menor-nos-acores1](https://sicnoticias.pt/pais/2010-03-17-condenados-10-dos-14-homens-acusados-de-abuso-sexual-de-menor-nos-acores1)
+&gt;...
+&gt;Entre os 14 acusados, cinco foram condenados com penas de prisão entre quatro e seis anos pela prática de abuso sexual de criança, tendo sido considerado provado que **"tiveram cópula e sexo oral"** com a menor.
+&gt;O tribunal condenou ainda outros cinco homens com penas suspensas, absolveu três e considerou o outro inimputável.
+&gt;...</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1263,7 +1489,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>seguimento post anterior decidi comprar meia dúzia sacos cama meia dúzia pessoas abrigo dormem ruahttpswwwredditcomrportugalcommentsayszdecidicomprarmeiadcbaziadesacoscamaparaa ante doi post anteriores porque saiu querer duplicado httpswwwredditcomrportugalcommentsaytldecidicomprarmeiadcbaziadesacoscamaparaahttpswwwredditcomrportugalcommentsaytldecidicomprarmeiadcbaziadesacoscamaparaa acabei comprar sacos cama temperatura conforto c sugestão cientistacrazyhttpswwwredditcomusercientistacrazy comprei colchões campismohttpswwwdecathlonptpcolchonetedobravelmtisolantexcmpessoarpmccazul além disso alguém deu algumas sugestões pareceram boa segui ainda toda segui comprei pasta dentes escovas talheres copos plástico ainda comprei sugestão alguém aqui dez manta térmicas emergênciahttpswwwdecathlonptpmantadesobrevivenciareutilizavelrpmc cometi alguns erros distribuição principalmente primeiros sacos cama levei sacos cama perguntei queriam disseram sim usar colchenetes comecei inquirir primeiro levar sacos colchonetes alguns souberam usar corretamente colchonetes consegui explicarlhe devem usados doi abrigo disseram queriam sacos cama porque rapidamente iriam roubar maior parte manifestou receio roubassem coisas têm quase sempre vigiálas razões juntarem pequenos grupos pessoas maior parte abrigo dentes poucos quis pasta dentes escova dentes alguns pegaram nelas preciosidades maior parte pareceume serem alcoólicos dei doi casais coisa recentemente praticamente via ruas claramente homem atraso mental bastante evidente outro homem dormia perto vaio apoiando alguns tanta necessidade conversa coisas levava doi poucos meses situação abrigo outra coisa reparei alguns precisam gorros quentes cabeça vou ver ainda hoje consigo arranjar alguns resolvi colocar aqui agradecer todos ajudaram sugestões post anteriores dar conhecimento ocorreu entretanto</t>
+          <t>No seguimento de um post anterior
+[Decidi comprar meia dúzia de sacos cama para a meia dúzia de pessoas sem abrigo que dormem na minha rua](https://www.reddit.com/r/portugal2/comments/18aysz7/decidi_comprar_meia_d%C3%BAzia_de_sacos_cama_para_a/)
+ou antes dois posts anteriores porque me saiu sem querer em duplicado
+[https://www.reddit.com/r/portugal2/comments/18ayt0l/decidi\_comprar\_meia\_d%C3%BAzia\_de\_sacos\_cama\_para\_a/](https://www.reddit.com/r/portugal2/comments/18ayt0l/decidi_comprar_meia_d%C3%BAzia_de_sacos_cama_para_a/)
+Acabei por comprar 7 sacos cama com uma temperatura de conforto de -1º C
+e por sugestão de [cientistacrazy](https://www.reddit.com/user/cientistacrazy/) comprei também [10 colchões de campismo](https://www.decathlon.pt/p/colchonete-dobravel-mt500-isolante-195-x-55-cm-1-pessoa/_/R-p-306340?mc=8543045&amp;c=AZUL)
+Além disso alguém deu algumas sugestões que me pareceram boas e segui, ainda não todas, mas segui. Comprei pasta dos dentes e escovas. Talheres e copos de plástico ainda não.
+comprei também, por sugestão de alguém aqui, [dez mantas térmicas de emergência](https://www.decathlon.pt/p/manta-de-sobrevivencia-reutilizavel/_/R-p-312111?mc=8572289)
+Cometi alguns erros na distribuição, principalmente nos primeiros sacos cama.
+Levei os sacos cama e perguntei se queriam, 3 disseram que sim, mas não os estão a usar. O mesmo para os colchenetes. Depois comecei a inquirir primeiro e só levar os sacos e colchonetes depois. Alguns não souberam usar corretamente os colchonetes e também não consegui explicar-lhe como devem ser usados.
+Dois sem abrigo disseram que não queriam os sacos cama porque rapidamente os iriam roubar. A maior parte deles manifestou esse receio de que lhes roubassem as coisas. Têm de estar quase sempre a vigiá-las. Esta será uma das razões para se juntarem em pequenos grupos de 2 a 3 pessoas. 
+A maior parte dos sem abrigo não tem dentes ou tem muito poucos e não quis pasta dos dentes, nem escova dos dentes, mas alguns pegaram nelas como em preciosidades.
+A maior parte pareceu-me serem alcoólicos. Dei a dois casais, coisa que até recentemente praticamente não se via nas ruas. Um deles era claramente um homem com um atraso mental bastante evidente. Outro homem dormia perto dele e vai-o apoiando.
+Alguns tinham tanta necessidade de conversa como das coisas que levava. Dois deles estão há poucos meses na situação de sem abrigo.
+Outra coisa que reparei que alguns precisam é de gorros quentes para a cabeça, vou ver se ainda hoje consigo arranjar alguns.
+Resolvi colocar isto aqui para agradecer a todos os que me ajudaram com sugestões nos posts anteriores e para dar conhecimento do que ocorreu entretanto.</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1283,7 +1524,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>agrade tarefa pediramme fazer alguém fazêlo arranjar voluntários todos horários fácil principalmente domingo tarde contar imprevistos última hora alguém fica doente outra razão pode vir contrário propaganda negativa alguns grupos fazem nomeadamente alguns grupos políticos esmagadora maioria voluntários recolha alimentos logística disto banco alimentar tenta aproveitar alimentos recolhidos contrário quer contribuir compram alguns alimentos doar acho estranho alguns setores políticos tentem combater tudo iniciativa privada ajudar necessitam ainda cima alguns fazem dizemse esquerda defender políticas solidárias toda pessoas cortes voluntários assim simpáticos todos desagradáveis voluntários apesar disso generalidade pessoas afável voluntários principalmente crianças jovens curioso estando tempo entrada supermercado faço vários ano apercebome número significativo pessoas faz ronda vários supermercados regressa supermercado várias vezes fim semana obviamente ocorre reformados acabamos aperceber generalizando tipo pessoas ajuda ajuda menos pessoas pobremente vestidas tendem doar menos esperar pessoas vestidas forma vistosa parecer vão festa dão menos ainda tanto esperar pessoas vestidas forma cuidada discreta tendem generosos experiência pessoal obviamente nenhum rigor científico porque experiência empírica apenas supermercado sempre vários ano aparecem algumas pessoas dizerem precisam ajuda ficámos contactos avaliar necessidade dessas pessoas desses casos verificouse precisar realmente ajuda</t>
+          <t xml:space="preserve">Não é que me agrade esta tarefa, mas pediram-me para o fazer e alguém tem de fazê-lo.
+Arranjar voluntários para todos os horários não me foi fácil, principalmente para o domingo de tarde. Há também que contar com os imprevistos de última hora, alguém que fica doente ou que por outra razão não pode vir.
+Ao contrário da propaganda negativa que alguns grupos fazem, nomeadamente alguns grupos políticos, a esmagadora maioria dos voluntários, seja da recolha de alimentos, seja na logística depois disto, já no banco alimentar, não se tenta aproveitar dos alimentos recolhidos, muito pelo contrário, também quer contribuir e compram alguns alimentos para doar. Acho estranho que alguns setores políticos tentem combater tudo o que seja iniciativa privada para ajudar os que mais necessitam e ainda por cima alguns dos que fazem isto dizem-se de esquerda e defender políticas solidárias.   
+Nem todas as pessoas são corteses para com os voluntários, mesmo assim temos de ser simpáticos para com todos, mesmo para com aqueles que são desagradáveis para com os voluntários. Apesar disso a generalidade das pessoas é afável para com os voluntários, principalmente se forem crianças ou jovens. 
+Curioso é que estando muito tempo na entrada do supermercado, e já faço isto há vários anos, apercebo-me que há um número significativo de pessoas que "faz a ronda" por vários supermercados e até regressa ao mesmo supermercado várias vezes num mesmo fim de semana. Obviamente isto ocorre mais com reformados. Também acabamos por nos aperceber, generalizando, que tipo de pessoas ajuda mais ou ajuda menos. Pessoas mais pobremente vestidas tendem a doar menos, o que era de esperar, mas pessoas vestidas de forma vistosa, a parecer que vão para uma festa, dão menos ainda, o que não era tanto de esperar. Pessoas vestidas de forma cuidada, mas discreta, tendem a ser os mais generosos. Isto na minha experiência pessoal, que obviamente não tem nenhum rigor científico, até porque a minha experiência é empírica e apenas de um supermercado, que é sempre o mesmo há vários anos. 
+Aparecem algumas pessoas a dizerem que precisam de ajuda. Ficámos com os contactos para avaliar depois a necessidade dessas pessoas. Um desses casos verificou-se precisar realmente de ajuda. </t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1303,7 +1549,9 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>stealthing prática remover preservativo durante ato sexual conhecimento consentimento outra pessoa petição online pedir criminalização stealthing mim pareceme difícil provar consentimento ausência tribunal acham deve criminalizado</t>
+          <t>O stealthing é a prática de remover o preservativo durante o ato sexual sem o conhecimento ou consentimento da outra pessoa,
+Há uma petição online a pedir a criminalização do stealthing
+A mim parece-me muito difícil provar o consentimento ou ausência dele num tribunal, mas fora isso acham que deve ser criminalizado?</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1323,7 +1571,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>garantidamente impopular devia proibido levantar tabuleiros praças alimentação centros comerciais pessoas protestam alguém levanta levantar tabuleiro sentarse seguida outra pessoa mesma mesa limpa bom meio transmissão doenças contagiosas gripe tuberculose covid outras doenças transmitidas desta forma prática devia proibida praças alimentação fechadas durante pandemia obrigatoriedade levantamento tabuleiros serve apenas baixar custos pessoal logo aumentar lucros donos centros comerciais</t>
+          <t>Garantidamente impopular.
+Devia ser proibido levantar os tabuleiros das praças de alimentação dos centros comerciais.
+As pessoas protestam quando alguém não os levanta, mas levantar um tabuleiro e sentar-se em seguida outra pessoa na mesma mesa sem esta sem limpa é um bom meio de transmissão de doenças contagiosas. Gripes, tuberculose, covid e outras doenças são transmitidas desta forma.
+Por isso é que esta prática devia ser proibida e foi por isso que as praças da alimentação estiveram fechadas durante a pandemia.
+A "obrigatoriedade" do levantamento dos tabuleiros serve apenas para baixar os custos com pessoal, logo aumentar os lucros, dos donos dos centros comerciais.</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1343,7 +1595,8 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>beja indostânicos lutam si tira facão bolso trás</t>
+          <t xml:space="preserve">Em Beja, Indostânicos lutam entre si, e um deles tira um facão do bolso de trás.
+</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1363,7 +1616,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>simple preserva quinas castelos esfera armilar gostei</t>
+          <t xml:space="preserve">É mais simples mas preserva as quinas, os castelos e a esfera armilar, gostei. </t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1383,7 +1636,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>httpswwwjnptpspsufocouhomemcomsacodeplasticoparaobterconfissao</t>
+          <t>https://www.jn.pt/6193537347/psp-sufocou-homem-com-saco-de-plastico-para-obter-confissao/</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1403,7 +1656,10 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sintome ficar comido cabeça esposa igual ver achamos anda todo mundo ficar vossa opinião algo correu malou através alimentação radiação qualquer outro motivo vem agora ia porque vamos deixar ter capacidade continuar sozinhos sinto grande perda cognitiva nível profissional consultor informático programador sintome perder muitas capacidades percome meio pensamentos capaz ter reunião h fim lembrar metade pontos</t>
+          <t>Eu sinto-me a ficar comido da cabeça, minha esposa igual, e a nosso ver achamos que anda todo mundo a ficar, qual a vossa opinião?
+Será que algo correu mal(ou através da alimentação, radiação ou qualquer outro motivo) e é por isso que vem agora a IA porque vamos deixar de ter capacidade de continuar sozinhos?
+Sinto uma grande perda cognitiva.
+A nível profissional sou consultor informático (programador) sinto-me a perder muitas capacidades, perco-me no meio dos pensamentos, sou capaz de ter uma reunião de 1h e no fim só me lembrar de metade dos pontos.</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1423,7 +1679,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>acabas almoçar vais redes sociais</t>
+          <t xml:space="preserve">Quando acabas de almoçar e vais para as redes sociais. </t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1443,7 +1699,8 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>httpswwwnbcnewscomnbcoutoutpoliticsandpolicybritainbanspubertyblockerstransgenderminorsrcnahttpswwwnbcnewscomnbcoutoutpoliticsandpolicybritainbanspubertyblockerstransgenderminorsrcna notícia censurada reurope</t>
+          <t>[https://www.nbcnews.com/nbc-out/out-politics-and-policy/britain-bans-puberty-blockers-transgender-minors-rcna183839](https://www.nbcnews.com/nbc-out/out-politics-and-policy/britain-bans-puberty-blockers-transgender-minors-rcna183839)
+Notícia censurada no r/europe</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1463,7 +1720,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>httpscnnportugaliolptcontinentesacodeplasticocontinentetirameiosalarioatrabalhadorporfurtodesacodeplasticoddedebfbbbdceahttpscnnportugaliolptcontinentesacodeplasticocontinentetirameiosalarioatrabalhadorporfurtodesacodeplasticoddedebfbbbdcea trabalhador continente apanhado sair trabalho saco plástico pagar suspenso dia ficou metade salário avança jornal notíciashttpswwwjnptcontinentetirameiosalarioafuncionarioqueialevarsacodeplasticosempagar segundo jornal trabalhador auferia prejuízo empresa saco custava vão estado outras entidades públicas ter devolvido saco momento confrontado funcionário acabou colocar empresa tribunal pedir indemnização euro entanto tribunal sintra deu razão classificou decisão empregador proporcional adequada necessária trabalhador recorreu então relação lisboa concluiu castigo desproporcional perante sentença vez continente recorrer via judicial supremo tribunal acabaria concluir decisão hipermercado grande desproporção valores bem autor tentou apropriar corte salário si reduzido reação continente emitiu comunicado onde diz colaborador causa serviço empresa tendo trabalhado organização durante ano atingir idade reforma durante colaboração empresa alvo outros processos destes processos motivado tentativa furto produto encontrava venda loja realçar decisão disciplinar aplicada empresa confirmada tribunal cascais licitude mereceu pareceres favoráveis parte ministério público junto tribunal relação lisboa supremo tribunal justiça lêse comunicado onde realça ainda causa valor sim princípio</t>
+          <t>[https://cnnportugal.iol.pt/continente/saco-de-plastico/continente-tira-meio-salario-a-trabalhador-por-furto-de-saco-de-plastico/20240522/664d96ded34ebf9bbb3dcea4](https://cnnportugal.iol.pt/continente/saco-de-plastico/continente-tira-meio-salario-a-trabalhador-por-furto-de-saco-de-plastico/20240522/664d96ded34ebf9bbb3dcea4)
+&gt;Um trabalhador do Continente que em 2021 foi apanhado a sair do trabalho com um saco de plástico sem pagar foi suspenso por 15 dias e ficou sem metade do salário, [avança o Jornal de Notícias](https://www.jn.pt/6381118287/continente-tira-meio-salario-a-funcionario-que-ia-levar-saco-de-plastico-sem-pagar/). Segundo o jornal, o trabalhador auferia 735€ e o prejuízo para a empresa foi de 0,02€ (o saco custava 0,10€ mas 0,08€ vão para o Estado e outras entidades públicas).
+&gt;Depois de ter devolvido o saco no momento em que foi confrontado, o funcionário acabou por colocar a empresa em tribunal e pedir uma indemnização de 3.500 euros. 
+&gt;No entanto, o tribunal de Sintra não lhe deu razão e classificou a decisão do empregador como "proporcional, adequada e necessária". O trabalhador recorreu então para a Relação de Lisboa, que concluiu que o castigo era "desproporcional". 
+&gt;Perante a sentença, foi a vez de o Continente recorrer por via judicial para o Supremo Tribunal, que acabaria por concluir que a decisão do hipermercado teve "uma grande desproporção entre os valores do bem que o autor se tentou apropriar" e o corte do salário - "já por si reduzido".  
+Em reação, o Continente emitiu um comunicado onde diz que "o colaborador em causa já não está ao serviço da empresa, tendo trabalhado na organização durante 23 anos, até atingir a idade da sua reforma".
+&gt;"Durante a sua colaboração com a empresa, foi alvo de outros processos. Um destes processos foi motivado pela tentativa de furto de um produto que se encontrava à venda na loja. É de realçar que a decisão disciplinar aplicada pela empresa foi confirmada pelo Tribunal de Cascais. A sua licitude mereceu pareceres favoráveis por parte do Ministério Público junto do Tribunal da Relação de Lisboa e do Supremo Tribunal de Justiça", lê-se no comunicado, onde realça ainda que "o que está em causa não é o valor, mas sim o princípio".</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1483,7 +1746,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>worten grande cancro comercial vendedores lojas agarrados púlpitos caixas registadoras colados stand smartphones artigo situações porque sabem gerir armazém deve podemos encomendar moço fazer encomenda faziao casa venho loja ter artigo hora sabem vender sabem vender produto alguns andam lá andar feitos zombie encontra vendedor presente loja vezes entro lá dentro ninguém andam lá clientes toda gente percebeu vale pena grande abraço fórum coimbra alma shopping coimbra visto</t>
+          <t>A Worten, grande cancro comercial. Vendedores nas lojas agarrados aos púlpitos das caixas registadoras, ou colados no stand dos smartphones. Quando não tem um artigo como 90% das situações porque não sabem gerir o armazém como deve ser: “podemos encomendar “. Moço, se fosse para fazer encomenda fazia-o em casa, quando venho numa loja é para ter o artigo na hora. Não sabem o que estão a vender, não sabem vender um produto, alguns andam lá por andar feitos zombies. Isto é quando se encontra um vendedor presente na loja. Por vezes entro lá dentro, e não está ninguém. Nem andam lá clientes, já toda a gente percebeu que não vale a pena. Um grande abraço a do fórum Coimbra e a do Alma Shopping Coimbra. Aquilo só visto 🤣</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1503,7 +1766,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mouche</t>
+          <t>Na mouche!</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1523,7 +1786,10 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mulher sinto importante expressar pensamentos sobre feminismo especialmente trata certas atitudes vejo movimento fico desiludida algumas feministas clara tânia graça criticam homens inerentemente inferiores tipo retórica faz mal bem cria divisões desnecessárias géneros acredito defender direitos mulheres deve envolver menosprezar homens verdadeira igualdade implica reconhecer valor todos indivíduos independentemente género possível lutar direitos mulheres recorrer desvalorizar outros gostava saber pensam sobre única sentirme assim</t>
+          <t xml:space="preserve">
+Como mulher, sinto que é importante expressar os meus pensamentos sobre o feminismo, especialmente quando se trata de certas atitudes que vejo no movimento. Fico desiludida quando algumas feministas, como a Clara não e a Tânia graça, criticam os homens como se fossem inerentemente inferiores. Este tipo de retórica faz mais mal do que bem e cria divisões desnecessárias entre os géneros.
+Acredito que defender os direitos das mulheres não deve envolver menosprezar os homens. A verdadeira igualdade implica reconhecer o valor de todos os indivíduos, independentemente do género. É possível lutar pelos direitos das mulheres sem recorrer a desvalorizar os outros.
+Gostava de saber o que vocês pensam sobre isto. Serei a única a sentir-me assim?</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1543,7 +1809,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptportugaldetalheagredirpoliciasmedicoseprofessoresvaiserpunidocomanosdeprisaorefhpprimeirosdestaqueshttpswwwcmjornalptportugaldetalheagredirpoliciasmedicoseprofessoresvaiserpunidocomanosdeprisaorefhpprimeirosdestaques quase agentes psp militares gnr agredidos desde início deste ano agredir elementos forças segurança guardas prisionais professores pessoal docente escolas profissionais saúde bombeiros vai arriscar oito ano prisão efetiva caso proposta governo enviada assembleia república aprovada previsto segundo ministra administração interna documento agrava penas agora moldura penal cinco ano prisão deu entrada semana passada prevê isenção custas transforma parte desses crime crime públicos dispensando queixa vítima ministra margarida blasco inadmissível inaceitável janeiro agosto deste ano agentes psp militares gnr sido agredidos funções</t>
+          <t>[https://www.cmjornal.pt/portugal/detalhe/agredir-policias-medicos-e-professores-vai-ser-punido-com-8-anos-de-prisao?ref=HP\_PrimeirosDestaques](https://www.cmjornal.pt/portugal/detalhe/agredir-policias-medicos-e-professores-vai-ser-punido-com-8-anos-de-prisao?ref=HP_PrimeirosDestaques)
+&gt;**Quase 1300 agentes da PSP e militares da GNR agredidos desde o início deste ano.**
+&gt;Quem agredir elementos das forças de segurança, guardas prisionais, professores e pessoal não docente das escolas, profissionais de saúde e bombeiros vai arriscar oito anos de prisão efetiva caso a proposta do Governo enviada à Assembleia da República seja aprovada como previsto.
+&gt;Segundo a ministra da Administração Interna, o documento que agrava as penas - até agora a moldura penal era de um a cinco anos de prisão - deu entrada na semana passada, prevê a isenção de custas e transforma parte desses crimes em crimes públicos, dispensando a queixa da vítima.
+&gt;Para a ministra Margarida Blasco "é inadmissível e inaceitável que, entre janeiro e agosto deste ano, 1295 agentes da PSP e militares da GNR tenham sido agredidos em funções".</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1563,7 +1833,10 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>guerra putin contra ucrânia mergulhar ruzzia abismo todos dia cerca soldados ruzzos perdem vida campo batalha refletindo exército mal equipado comandado falta pessoal crítica ponto putin ter depender aliados coreia norte armamento básico sinal claro desespero militar consequências vão além campo batalha economia ruzza colapsar sanções fuga talentos falta jovens trabalhadores sustentar economia alarmante agravada recrutamento forçado êxodo massa tempo descontentamento população cresce silenciosamente censura evidente muitos russos rejeitariam guerra absurda trouxe nada além isolamento sofrimento putin perder campo batalha economia confiança próprio povo aliança regime coreia norte reforça quanto regime encurralado escalada contínua levará fim rápido inevitável regime guerra perdida verdadeiro poder nesta guerra povo ucraniano resiliência inabalável defendem terra liberdade mostrando mundo coragem igual tempo modernos</t>
+          <t>A guerra de Putin contra a Ucrânia está a mergulhar a Ruzzia num abismo. Todos os dias, cerca de **600-1.000 soldados ruZZos** perdem a vida no campo de batalha, refletindo um exército mal equipado e comandado. A falta de pessoal é crítica, ao ponto de Putin ter que depender de aliados como a Coreia do Norte para armamento básico — um sinal claro de desespero militar.
+As consequências vão além do campo de batalha. A economia ruzza está a colapsar com as sanções e a fuga de talentos. A falta de jovens trabalhadores para sustentar a economia é alarmante, agravada pelo recrutamento forçado e o êxodo em massa. Ao mesmo tempo, o descontentamento da população cresce silenciosamente. Sem censura, é evidente que muitos russos rejeitariam esta guerra absurda, que não trouxe nada além de isolamento e sofrimento.
+Putin está a perder no campo de batalha, na economia e na confiança do próprio povo. A sua aliança com regimes como a Coreia do Norte só reforça o quanto o regime está encurralado. A escalada contínua só levará a um fim mais rápido e inevitável para o regime e para a sua guerra perdida.
+O verdadeiro poder nesta guerra é o povo ucraniano. Com uma resiliência inabalável, defendem a sua terra e liberdade, mostrando ao mundo uma coragem sem igual nos tempos modernos.</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1583,7 +1856,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>httpssicnoticiasptpaisvideocontinuoabusoudecincocriancasemmatosinhosmaedevitimaprocessouestadodfhttpssicnoticiasptpaisvideocontinuoabusoudecincocriancasemmatosinhosmaedevitimaprocessouestadodf mãe vítimas abuso sexual cadastro crime tráfico droga furto agressões condução carta suficiente escola autarquia afastado cargo ocupava escola mãe aluna abusada sexualmente funcionário escola matosinhos processou instituição ensino estado ter colocado exrecluso trabalhar instituição homem antecedentes criminais trabalhar contínuo através programa instituto emprego formação profissional condenado três ano pena suspensa abusos sexuais cinco alunos escola xb</t>
+          <t>[https://sicnoticias.pt/pais/2024-04-17-video-continuo-abusou-de-cinco-criancas-em-matosinhos-mae-de-vitima-processou-estado-125d51f3](https://sicnoticias.pt/pais/2024-04-17-video-continuo-abusou-de-cinco-criancas-em-matosinhos-mae-de-vitima-processou-estado-125d51f3)
+&gt; Para a mãe de uma das vítimas de abuso sexual, o cadastro de crimes de  tráfico de droga, furto, agressões e condução sem carta era suficiente  para que a escola e a autarquia o tivessem afastado do cargo que ocupava  na escola.   
+&gt;  
+&gt;  
+&gt;  
+&gt;**A mãe de uma aluna abusada sexualmente por um funcionário de  uma escola em Matosinhos processou a instituição de ensino e o estado  por ter colocado um ex-recluso a trabalhar na instituição. O homem, com  antecedentes criminais, esteve a trabalhar como contínuo através de um  programa do Instituto do Emprego e Formação Profissional. Foi condenado a três anos de pena suspensa por abusos sexuais a cinco alunos da escola.**  
+&gt;  
+&gt;...
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1603,7 +1884,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>vieram buscar roupa algumas famílias maioria imigrantes continuam chegar muitos quase sempre mulheres vir buscar roupa toda família imigrantes levam muita roupa chegam apenas pequena mala avião instituição onde faço algum voluntariado ajuda várias famílias ciganas imigrantes outras maior parte famílias monoparentais procuro tratar bem toda gente ouvir pouco todos sempre tempo disponível permite vejo ciganos habituados bem tratados parte agressividade atribuída vem daí parte cigana perto ano grávida meses mostrame lista médica diz precisa diz nada diz possibilidades comprar quase nada daquilo sei verdade olha lista angústia ternura compreilhe algumas coisas outras instituição usadas demoslhe faltam ainda quase metade coisas saída visito famílias casas cigana disse pediu amizade facebook usam facebook facebook disselhe aliás disse várias vezes cair si então pedi amizade diz algum alarme sei facebook entrego alimentos algumas famílias mãe imigrante chegada poucas semanas filho velho ano pergunto todo material precisa escola frequenta semanas nada previsto acaso levado material escolar dado comecei darlhe algum desse material esferográficas borrachas lápis grafite caderno escolar linhas etc menino salta contentamento enquanto recebe cada destas coisas nunca visto reação assim acabou tarde regresso casa contente consciência damos pouco necessidades recorrem dizer muitas vezes podíamos ajudar ajudamos deixa certa angústia alma</t>
+          <t xml:space="preserve">Vieram buscar roupa algumas famílias. Na sua maioria imigrantes. Continuam a chegar muitos. Quase sempre são as mulheres  a vir buscar roupa para toda a família. As imigrantes levam muita roupa, chegam apenas com uma pequena mala de avião. 
+A instituição onde faço algum voluntariado ajuda várias famílias ciganas. E imigrantes. E outras. A maior parte delas famílias monoparentais. 
+Procuro tratar bem toda a gente. E ouvir um pouco a todos, mas nem sempre o tempo disponível permite isso.
+Vejo que os ciganos não estão habituados a ser bem tratados. Parte da agressividade que lhes é atribuída vem daí. Parte. 
+Uma cigana, perto de 30 anos, está grávida, 8 meses. Mostra-me uma lista do que a médica lhes diz que precisa. Diz que não tem nada e diz e que não tem possibilidades para comprar quase nada daquilo, e eu sei que é verdade. Olha para a lista com angústia e ternura. Comprei-lhe algumas coisas, outras a instituição tinha usadas e demos-lhe. Faltam ainda quase metade das coisas. Já eu estava de saída, visito as famílias nas suas casas, quando a cigana me disse que me pediu amizade pelo facebook.
+Usam muito o facebook. Mas eu não tenho facebook, disse-lhe. Aliás disse várias vezes até ela cair em si. Então a quem pedi eu amizade?, diz com algum alarme.
+ Não sei, eu não tenho facebook.
+Entrego alimentos a mais algumas famílias. Uma delas é uma mãe imigrante, chegada há poucas semanas. Filho mais velho com 8 anos. pergunto se tem todo o material que precisa para a escola, que frequenta há umas 3 semanas. Não tem nada. Não tinha previsto isso, mas por acaso tinha levado material escolar que nos tinham dado. Comecei a dar-lhe algum desse material, esferográficas, borrachas, lápis de grafite, caderno escolar de linhas, etc... O menino salta de contentamento enquanto recebe cada uma destas coisas. Nunca tinha visto uma reação assim. 
+E acabou a tarde. Regresso a casa. Contente? Não, tenho consciência que aquilo que damos é muito pouco para as necessidades dos que a nós recorrem e tive de dizer muitas mais vezes que não podíamos ajudar, que aquelas em que ajudamos. E isso deixa uma certa angústia na alma. </t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1623,7 +1912,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>un largo meses acompanhei familiar urgência hospital cujo nome apetece lembrar hospital universitário problema pneumotorax pulmão totalmente colapsado acabou ter internado durante várias semanas deixaramme entrar pude apreciar enorme falta humanidade grupo enfermeirosas doente colocado sala ampla cortina impedia visão dentro dentro perto meia noite dada altura médica tenta colocar dreno pulmão doente lado poucos metro grupo meia dúzia enfermeiros enfermeiras médica chama nome váris virem ajudar manobra imediatamente tod menos enfermeira afastam outro lado sala enfermeira sobrante vai ajudar logo espera doi minuto entra diz chamou vim agora precisa diz médica tom cansado coloquei dreno primeira reação querer denunciar todo grupo enfermeiros enfermeiras indignos médica pensei familiar podium ficar dependente má vontade alguns poi provavelmente iria ficar internado ficou podiam vingarse nele hoje provavelmente faria forma diferente arranjaria maneira denunciar manter familiar segurança naquele momento cansaço receio consequências familiar caleime ficoume imenso desprezo enorme repugnância enfermeirs</t>
+          <t xml:space="preserve">Já foi há uns largos meses. 
+Acompanhei um familiar meu uma urgência num hospital de cujo nome não me apetece lembrar, mas é um hospital universitário. 
+Problema, pneumotorax num pulmão, que estava totalmente colapsado. Acabou por ter de ser internado durante várias semanas.
+Deixaram-me entrar e pude apreciar a enorme falta de humanidade de um grupo de enfermeiros/as. 
+ O doente foi colocado numa sala ampla, mas com uma cortina que impedia a visão de dentro para fora e de fora para dentro. Era já perto da meia noite.
+A dada altura a médica tenta colocar um  dreno no pulmão do doente, Do lado de fora, a poucos metros está um grupo com uma meia dúzia de enfermeiros e enfermeiras. A médica chama pelo nome de vári@s deles, para virem ajudar na manobra. Imediatamente tod@s, menos uma enfermeira, se afastam para o outro lado da sala, A enfermeira sobrante também não vai ajudar logo, espera um ou dois minuto, e depois entra e diz:
+- Não me chamou, mas eu vim. 
+- Agora também já não é precisa - diz a médica num tom cansado - já coloquei o dreno. 
+A minha primeira reação foi querer denunciar todo aquele grupo de enfermeiros e enfermeiras indignos à médica... mas depois pensei que o meu familiar podia ficar dependente da má vontade de alguns deles, pois provavelmente iria ficar internado, como ficou, e podiam vingar-se nele. 
+Hoje provavelmente faria de forma diferente, arranjaria maneira de os denunciar e manter o meu familiar em segurança, mas naquele momento, com o cansaço e o receio das consequências para o meu familiar, calei-me. Mas ficou-me um imenso desprezo, uma enorme repugnância, por aqueles enfermeir@s. </t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1643,7 +1941,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>boa tarde amigo reddit grande problema mãos sei onde virar devido problema força maior infelizmente alugar quarto ter onde morar problema cadela labradora ano desde bebe sempre cuidei tratei família agora vejo encurralada poi posso ter comigo grande tristeza pesar fazer post associações dão resposta lotação cheia família amigo ninguém sabe ninguém ninguém pode ficar preciso passa palavra chegar algum lado cadela super mega meiga fofa ano idosa sabe sentar deitar dar pata busca fica tudo cão saudável precisa equilibrado dá maravilhosamente bem outros cães ladra praticamente circunstância nenhuma preciso julgamentos aqui tentar algo porque esgotei todos contactos contactos contactos possíveis zona lisboa precisamente arredores saiba algo favor diga algo obrigado</t>
+          <t xml:space="preserve">Boa tarde amigos do Reddit.
+Estou com um grande problema em mãos e não sei por onde me virar. 
+Devido a um problema de força maior tive que infelizmente alugar um quarto para ter onde morar.
+O problema é que tenho uma cadela labradora com 10 anos. Estou com ela desde bebe. Sempre cuidei e tratei dela como família mas agora vejo me encurralada pois não a posso mesmo ter comigo. 
+É com grande tristeza e pesar que estou a fazer este post. Associações não me dão resposta por lotação cheia e família e amigos ninguém sabe de ninguém e também ninguém pode ficar com ela. 
+Preciso de um passa a palavra para chegar a algum lado.
+A cadela é super mega meiga e fofa, está com 10 anos por isso já é idosa. Sabe sentar, deitar, dar a pata, busca, fica e tudo o que um cão saudável precisa para ser equilibrado. Dá se maravilhosamente bem com outros cães e não ladra praticamente em circunstância nenhuma. 
+Não preciso de julgamentos, se estou aqui a tentar algo é porque já esgotei todos os meus contactos e contactos dos contactos possíveis.
+Somos da zona de Lisboa mais precisamente arredores. 
+A quem saiba algo por favor diga algo. 
+Obrigado 🙂 </t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1663,7 +1971,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>facto exmelhor amigo costa recebeu k dinheiro m ações único trabalho estabelecer contatos governo httpsvisaoptatualidadepoliticadiogolacerdamachadorecebeumaisdeemileacoesdastartcampuscomoreconhecimentoparaosucessofuturodaempresa httpssicnoticiasptpaiseprecisoescalaraoprimeiroministroescutasrevelampressaodastartcampusbfb facto start campus facilidades ninguém chegando ponto escreverem quatro lei governo aprovar muitos afirmam facilidades dada ilegais httpswwwrtpptnoticiaspoliticagalambaatuoudeformailegalparabeneficiarstartcampusn facto escutas ouvese quero nada disso escrito quero nada disso email obvio sendo completamente estúpidos sabem coisas escrevem httpsrrsapoptespecialpaisstartcampuscolaborouemquatrodiplomasdegalambasefizeresoqueestouadizeraportariaestaaqui facto tribunal diz indícios tráfico influências suspeitas meras especulações httpswwwrtpptnoticiaspaisoperacaoinfluencerrelacaodizquenaohaindiciosdetraficodeinfluenciasdeescariaelacerdamachadon sugiro arquivarem todos processo contra sócrates nada escrito josé sócrates aceito corrompido troco milhões amigo vai guardar tudo especulações tribunal chama tudo reconhecido notário imprensa cada vez dependente dinheiro poder alinha discurso lincha investiga acha óbvio facilidades causa pagaram exmelhor amigo primeiro ministro</t>
+          <t>Facto: O Ex-melhor amigo de Costa recebeu 200K em dinheiro e 17M em ações. O único trabalho dele era estabelecer contatos com o governo.
+https://visao.pt/atualidade/politica/2023-11-09-diogo-lacerda-machado-recebeu-mais-de-e200-mil-e-acoes-da-start-campus-como-reconhecimento-para-o-sucesso-futuro-da-empresa/
+https://sicnoticias.pt/pais/2023-11-09-E-preciso-escalar-ao-primeiro-ministro-escutas-revelam-pressao-da-Start-Campus-b02f997b
+Facto: A Start campus teve facilidades que mais ninguém teve. Chegando ao ponto de escreverem quatro leis para o governo aprovar. Muitos afirmam que as facilidades dadas são ilegais 
+https://www.rtp.pt/noticias/politica/galamba-atuou-de-forma-ilegal-para-beneficiar-start-campus_n1528340
+Facto: Nas escutas ouve-se isto "não quero nada disso escrito, não quero nada disso por email" É obvio que não sendo completamente estúpidos sabem que há coisas que não se escrevem 
+https://rr.sapo.pt/especial/pais/2023/11/10/start-campus-colaborou-em-quatro-diplomas-de-galamba-se-fizeres-o-que-estou-a-dizer-a-portaria-esta-aqui/354722/
+Facto: O tribunal diz que não há indícios de tráfico de influências e que as suspeitas são meras especulações
+https://www.rtp.pt/noticias/pais/operacao-influencer-relacao-diz-que-nao-ha-indicios-de-trafico-de-influencias-de-escaria-e-lacerda-machado_n1565020
+Sugiro arquivarem todos os processo contra o Sócrates. Não há nada escrito "Eu José Sócrates aceito ser corrompido a troco de milhões que o meu amigo vai guardar". Tudo o que há são "especulações" como o tribunal chama a tudo o que não está reconhecido em notário
+A imprensa cada vez mais dependente de quem tem dinheiro e poder, alinha com este discurso, e lincha quem investiga e acha que é óbvio que só tiveram essas facilidades por causa do $$$ que pagaram ao ex-melhor amigo do primeiro ministro.</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1683,7 +2001,9 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>httpswwwjnptpanavancacomdenunciacontraconcorrentedacasadossegredoshttpswwwjnptpanavancacomdenunciacontraconcorrentedacasadossegredos renata concorrente casa segredos contou colegas cadela levou coça vida disso nunca fugiu vídeo tornouse viral madrugada desta segundafeira inês sousa real portavoz pan anunciou partido irá fazer chegar denúncia ministério público</t>
+          <t>[https://www.jn.pt/6767324309/pan-avanca-com-denuncia-contra-concorrente-da-casa-dos-segredos/](https://www.jn.pt/6767324309/pan-avanca-com-denuncia-contra-concorrente-da-casa-dos-segredos/)
+&gt;Renata, concorrente da "Casa dos Segredos", contou aos colegas que a sua cadela levou "a coça da vida dela" e, depois disso, nunca mais fugiu. O vídeo tornou-se viral e, na madrugada desta segunda-feira, Inês de Sousa Real, porta-voz do PAN, anunciou que o partido irá fazer chegar a denúncia ao Ministério Público.  
+...</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1703,7 +2023,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>httpspteuronewscommyeuropeisraelfinanciouohamasparaenfraqueceraautoridadepalestinianaafirmajosepborrell nenhuma dúvida sobre dito letras toda ministro actual israel hamas util israel muitas provas incluindo celebre malas milhões dólares apanhados fronteira tempo vejo noticias médico amputar anestesia perna sobrinha mesa sala europa defensora direitos humanos apoia país diz ter exército moral mundo faz tudo pode minimizar atingir civis tempo recusa medicamentos anestesia toda população exceção</t>
+          <t>https://pt.euronews.com/my-europe/2024/01/19/israel-financiou-o-hamas-para-enfraquecer-a-autoridade-palestiniana-afirma-josep-borrell
+Não nenhuma dúvida sobre isso. Também foi dito com as letras todas por um ministro actual de Israel. Que o Hamas é util a Israel. E há muitas provas. Incluindo as celebre malas com milhões de dólares que foram apanhados na fronteira.
+Ao mesmo tempo vejo nas noticias um médico amputar sem anestesia, a perna da sobrinha na mesa da sala.
+E a Europa defensora dos direitos humanos, apoia o país que diz:
+Ter o exército mais moral do mundo, e que faz tudo o que pode para minimizar atingir civis
+E ao mesmo tempo recusa medicamentos e anestesia a toda a população sem exceção</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1723,7 +2048,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>olá todos favor julguem ontem passei piores dia vida companhia namorado preciso desabafar desesperada sei fazer cerca ano comecei namorar atual companheiro início ano decidimos altura darmos passo adiante encetámos preparações arrumarmos trouxas realizarmos sonho viver concumbinato semana partilhamos mesma casa posso adiantar sonho transformouse espécie pesadelo sei desembaraçar perceberem melhor falar deixemme darvos algum contexto tremer enquanto escrevo vou tentar clara possível ano sempre vivi pais irmãos avós vida família casa cheia apoio familiar completo nunca sozinha vi situação precisasse ajuda brotassem imediato várias pessoas apoiar companheiro órfão posso dar muitos pormenores manter anonimato vida facil viémos viver cantinho puxar interior lugar vazio apenas meia dúzia casas afastado povoação casa fica defronte antigo cemitério nunca gostei casa causa disso confesso tudo resto merecedor grande gratidão lá podermos viver propriamente assustadiça preparada viria acontecer último fim semana sábado domingo inaugurámos vija junto iria melhor noite vidairia porque expetativa acontece tiro saiume culatra noite começou bem ficámos acordados tarde devemos ter adormecido lá horas meninas passaram sabem bem grande acontecimento vidas diferente adormeci sorriso satisfação cara perdeu todo significaso logo seguida meio noite acordei estremunhada sobressaltada ruído estranho vindo perto mim tentei ver negrume distinguia nada chamei fiquei resposta peguei telemóvel h madrugada ruído estranho vinha namorado fiquei medo ter ataque algo gnero corri ligar luz quarto deitado barriga cima respirava maneira grosseira pensei asfixiar dentro calmo mexia coração ficou logo acelerado aproximeime acordar pousei mãos nele dei salto horror porque olhos revirados respiração grave piorou tentei despertar acordou grito contribuiu piorar grau pânico tomada medo chamei nome havia meio acordar aproximei novamente levantouse olhoume ar doente pergunteilhe bem ficou especado olhar mim ar sério indiferente disse meia duzia coisas dentes quais percebi mãe mãe deitate puta tentei chamálo terra verificar bem deitouse novamente completamente alheio mim ignorandome completo voltou dormir sério pessoal tentar descrever melhor posso episódio sei consigo fazer entender aterrorizante disto tudo voltei cama encolhime canto assutada dentro pensar havia presenciado tentando acalmar batidas coração devo ter demorado mmais duas horas pegar sono novamnete primeira noite viver segurança casa pais episódio terror absoluto volta horas acordei havia tomado pequenoalmoço tomado duche escutar música enquanto lavava loiça manhã tudo parecia diferente talvez luz dia aterrorizada ainda presente susto apanhado apenas algumas horas ante falar super normal feliz pessoa carinhosa elegante sempre serviume pequeno almoço mesa cozinha conteilhe passado obter respostas sossegassem lembrava nada desvalorizou situação concenveume devia ter tido febre noturna deve ter alucinado fiquei descansada longo dia esqueci assunto passou segunda noite ainda pior desta vez acordada gritos comigo apanhei susto vida desatei gritos tentei perceber passava luzes acesas mãos cabeça dizer visto pai sair cemitério imenso embaraço contar aqui público acreditem preciso fazer imaginem acontecer convosco próximo janela olhava lugar onde havia dito cemitério desativado abandonado sei lá dizia acordado gritos cabeça visto pai sair maldito cemitério chorei disselhe acalmar porque assustar precisávamos falar sério porque noite passada vivido puro terror agora piorar passar contigo passar contigo amor estás assustarme gritei choro desespero demonstrou qualquer empatia comigo sentouse cama pensar quieto quis ligar pais fiquei coregem fazer sequer sabia dizer passar pouco deitava mãos cabeça dizia sentia peso enorme nuca batia mãos coro cabeludo fim tempo lá acalmou deitouse voltou dormir olhou mim nesta segunda noite dormi nada fiquei branco hora levantar sorte tento férias sempre podium recuperar sono durante dia caso contrário poderia ter consequências âmbito desempenho profissional tomada cansaço decorrente falta sono tentei falar sério clarificar vez toda passar especial vez reagiu acontecido super bemdsposto saudável parecia zombie quase incapaz manter pálpebras abertas ficar longo deixemme dizervos apenas piorou noites seguintes coisas estranhas passam companheiro durante noite hoje consegui dormir casa amiga quero terminar relação favor ajudemme perceber passa pesadelo</t>
+          <t>Olá a todos, por favor não me julguem. Ontem passei um dos piores dias da minha vida na companhia do meu namorado. Preciso de desabafar, estou desesperada e não sei o que fazer.
+Há cerca de 3 anos comecei a namorar com o meu atual companheiro. No início do ano decidimos que estava na altura de darmos um passo adiante e encetámos a nossas preparações para arrumarmos as trouxas e realizarmos um sonho, viver em concumbinato. Há uma semana que partilhamos a mesma casa e o que vos posso adiantar é que o sonho transformou-se numa espécie de pesadelo do qual não sei como me desembaraçar.
+Para perceberem melhor do que estou a falar, deixem-me dar-vos algum contexto. Estou a tremer enquanto escrevo isto, mas vou tentar ser o mais clara possível.
+Tenho 26 anos e sempre vivi com os meus pais, irmãos e avós, vida em família, casa cheia, apoio familiar completo. Nunca estive sozinha nem me vi numa situação em que precisasse de ajuda e da qual não brotassem de imediato várias pessoas para me apoiar. O meu companheiro tem 24 e é órfão (não posso dar muitos mais pormenores para manter o anonimato, mas ele não teve uma vida (facil). Viémos viver para um cantinho, a puxar mais para o interior, um lugar mais vazio, com apenas meia dúzia de casas, afastado da povoação. A nossa casa fica defronte de um antigo cemitério. Nunca gostei da casa por causa disso, mas confesso que tudo o resto é merecedor de grande gratidão, por lá podermos viver. Eu não sou propriamente assustadiça, mas não estava preparada para o que me viria a acontecer.
+No último fim de semana, de sábado para domingo, inaugurámos a nossa vija juntos. Iria ser a melhor noite da minha vida,...iria, porque era a minha expetativa. Acontece que o tiro saiu-me pela culatra. A noite começou bem, até ficámos acordados até mais tarde e devemos ter adormecido para lá das 00 horas. As meninas que já passaram pelo mesmo sabem bem que este é um grande acontecimento nas nossas vidas e eu não sou diferente. Adormeci com um sorriso de satisfação na cara que perdeu todo o significaso logo de seguida.
+A meio da noite acordei estremunhada e sobressaltada com um ruído estranho vindo de muito perto de mim. Tentei ver no negrume, mas não se distinguia nada. Chamei por ele e fiquei sem resposta. Peguei no telemóvel eram 3:40h da madrugada. Aquele ruído estranho vinha do meu namorado. Fiquei com medo que ele estivesse a ter um ataque ou algo do g´nero e corri para ligar a luz do quarto. Ele estava deitado de barriga para cima e respirava de uma maneira grosseira, pensei que estava a asfixiar por dentro. Mas ele estava calmo. Não se mexia. O meu coração ficou logo acelerado e aproximei-me dele para o acordar. Mas quando pousei as mãos nele, dei um salto de horror, porque ele tinha os olhos revirados e aquela respiração grave só piorou quando o tentei despertar. Ele não acordou com o meu grito isto só contribuiu para piorar o meu grau de pânico. Tomada pelo medo, chamei pelo nome dele e não havia meio de acordar. Quando me aproximei novamente ele levantou-se e olhou-me com um ar de doente. Perguntei-lhe se ele estava bem e ele ficou especado a olhar para mim, com ar sério e indiferente, disse meia duzia de coisas por entre os dentes das quais só percebi "a minha mãe, a minha mãe. Deita-te p\*u\*ta". Tentei chamá-lo à terra e verificar se estava bem, mas ele deitou-se novamente, completamente alheio a mim e ignorando-me por completo e voltou a dormir. A sério pessoal, estou a tentar descrever o melhor que posso este episódio, mas não sei se me consigo fazer entender. Foi aterrorizante. Depois disto tudo, voltei para a cama e encolhi-me no meu canto, assutada por dentro e por fora, a pensar no que havia presenciado, tentando acalmar as batidas do coração.
+Devo ter demorado mmais de duas horas a pegar no sono novamnete. Para a primeira noite a viver fora da segurança da casa dos meus pais, este episódio foi de terror absoluto.
+Por volta das 11 horas, quando acordei, ele já havia tomado o pequeno-almoço, tomado um duche e estava a escutar música enquanto lavava a loiça. De manhã tudo parecia diferente, talvez pela luz do dia. Já não estava aterrorizada, mas ainda tinha presente o susto que tinha apanhado apenas algumas horas antes. Fui falar com ele e ele estava super normal, feliz, a pessoa carinhosa e elegante de sempre. Serviu-me o pequeno almoço na mesa da cozinha e eu contei-lhe o que se tinha passado para obter respostas que me sossegassem. Ele não se lembrava de nada e desvalorizou a situação. Concenveu-me que devia ter tido uma febre noturna e que deve ter alucinado. Fiquei muito mais descansada e o ao longo do dia esqueci o assunto. Mas o que se passou na segunda noite foi ainda pior.
+Desta vez fui acordada com ele aos gritos comigo. Apanhei o susto da minha vida. Desatei aos gritos também e tentei perceber o que se passava. As luzes estavam acesas e ele tinha as mãos na cabeça a dizer que tinha visto o meu pai a sair do cemitério. Estou com imenso embaraço a contar isto aqui em público, acreditem, mas preciso de o fazer. Imaginem isto a acontecer convosco. Ele estava próximo da janela e olhava para o lugar onde havia o dito cemitério desativado ou abandonado ou sei lá o que é que aquilo é, e dizia que tinha acordado com gritos na cabeça e que tinha visto o meu pai a sair do maldito cemitério.
+Chorei e disse-lhe para ele se acalmar porque me estava a assustar muito e que precisávamos de falar muito a sério porque a noite passada já tinha vivido um puro terror e que agora estava a piorar.  "O que se está a passar contigo? O que se está a passar contigo amor? Estás a assustar-me muito." Gritei isto por entre choro de desespero e ele não demonstrou qualquer empatia comigo e sentou-se na cama a pensar, muito quieto. Eu quis ligar aos meus pais, mas fiquei sem coregem para o fazer. Nem sequer sabia como lhes dizer o que se estava a passar. Pouco depois deitava as mãos à cabeça e dizia que sentia um peso enorme na nuca e batia com as mãos no coro cabeludo. Ao fim de um tempo lá acalmou, deitou-se e voltou a dormir. Mas nem olhou para mim. Nesta segunda noite, não dormi nada. Fiquei em branco até à hora de me levantar. A sorte é que tento eu como ele estamos de férias e sempre podia recuperar o sono durante o dia, caso contrário, poderia ter consequências no âmbito do desempenho profissional.
+Tomada pelo cansaço decorrente da falta de sono, tentei falar com ele muito a sério, para clarificar de uma vez por todas o que se estava a passar entre nós e com ele em especial. Mais uma vez ele reagiu como se não tivesse acontecido, super bem-dsposto e saudável. Já eu parecia uma zombie, quase incapaz de manter as pálpebras abertas.
+Isto está a ficar muito longo. Deixem-me dizer-vos apenas que piorou nas noites seguintes. Coisas muito estranhas se passam com o meu companheiro durante a noite e eu hoje já não consegui dormir com ele. Fui para casa de uma amiga e só quero terminar a relação. Por favor, ajudem-me a perceber o que se passa. Que pesadelo é este?</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1743,7 +2079,10 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>httpswwwcmtvptatualidadedetalhepspcortapontedeabrilnosdoissentidosedetemhomemvejaovideodomomentorefhpdestaquesarasgarhttpswwwcmtvptatualidadedetalhepspcortapontedeabrilnosdoissentidosedetemhomemvejaovideodomomentorefhpdestaquesarasgar surreal todos dia agora sai fornada quentinha crime sensações</t>
+          <t>[https://www.cm-tv.pt/atualidade/detalhe/20240918-1312-psp-corta-ponte-25-de-abril-nos-dois-sentidos-e-detem-homem-veja-o-video-do-momento?ref=HP\_DestaquesaRasgar](https://www.cm-tv.pt/atualidade/detalhe/20240918-1312-psp-corta-ponte-25-de-abril-nos-dois-sentidos-e-detem-homem-veja-o-video-do-momento?ref=HP_DestaquesaRasgar)
+Surreal...
+Todos os dias agora sai mais uma fornada quentinha de crime...
+Sensações...</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1763,7 +2102,10 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>httpswwwdnptcriminalidadeemlisboaaspessoasacabamporacharquenaovaleapenaqueixaremse zona mouraria repetemse assaltos consumos droga céu aberto agressões tentativa violação homicídio presidente junta pede ajuda cml psp governo vendedores ambulantes martim moniz pleno dia vender charros ninguém faz nada questão colocada muitos trabalhadores daquela zona baixa paulo nuno silva partilha preocupações outros funcionários moradores durante sessão pública promovida hotel mundial junta freguesia santa maria maior jfsmm sob mote estado alerta insegurança santa maria maior dn acesso alguns depoimentos prestados nessa sessão</t>
+          <t>https://www.dn.pt/4950534842/criminalidade-em-lisboa-as-pessoas-acabam-por-achar-que-nao-vale-a-pena-queixarem-se/
+Na zona da Mouraria repetem-se os assaltos, os consumos de droga a céu aberto, agressões, uma tentativa de violação e um homicídio. O presidente da junta pede ajuda à CML, à PSP e ao governo
+Por que é que há vendedores ambulantes, no Martim Moniz, em pleno dia, a vender charros e ninguém faz nada?” A questão foi colocada por um dos muitos trabalhadores daquela zona da Baixa, Paulo Nuno Silva, que partilha preocupações com outros funcionários e moradores, durante uma sessão pública, promovida no hotel Mundial, pela junta de freguesia de Santa Maria Maior (JFSMM), sob o mote Estado de Alerta - Insegurança em Santa Maria Maior. O DN teve acesso a alguns dos depoimentos prestados nessa sessão.
+...</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1783,7 +2125,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptmundodetalhealemanhavaicontrolartodasasfronteirasparacombaterimigracaoirregularhttpswwwcmjornalptmundodetalhealemanhavaicontrolartodasasfronteirasparacombaterimigracaoirregular medida ainda objetivo reduzir ameaças grupos terroristas islâmicos organizações criminosas transfronteiriças ministério administração interna alemanha anunciou alargamento controlo toda fronteiras país combater imigração irregular proteger segurança interna controlos fronteiriços vigor fronteira polaca bem república checa suíça acordo dw medida ainda objetivo reduzir ameaças grupos terroristas islâmicos organizações criminosas transfronteiriças países vizinhos alemanha todos membros zona schengen dentro restrições controlos viagens debate longa data sobre imigração sistema asilo alemanha intensificouse últimas semanas após ataque mortal faca cidade solingen oeste país</t>
+          <t>[https://www.cmjornal.pt/mundo/detalhe/alemanha-vai-controlar-todas-as-fronteiraspara-combater-imigracao-irregular](https://www.cmjornal.pt/mundo/detalhe/alemanha-vai-controlar-todas-as-fronteiraspara-combater-imigracao-irregular)
+&gt;**Medida tem ainda por objetivo reduzir as ameaças dos grupos terroristas islâmicos e organizações criminosas transfronteiriças.**
+&gt;O Ministério da Administração Interna da Alemanha anunciou o alargamento do controlo de todas as fronteiras do país para combater a imigração irregular e proteger a segurança interna. Os controlos fronteiriços já estão em vigor na fronteira polaca, bem como na República Checa e na Suíça. 
+&gt;De acordo com o *DW*, a medida tem ainda por objetivo reduzir as ameaças dos grupos terroristas islâmicos e organizações criminosas transfronteiriças.
+&gt;Os países vizinhos da Alemanha são todos membros da Zona Schengen, dentro da qual não há restrições nem controlos nas viagens.
+&gt;O debate de longa data sobre a imigração e o sistema de asilo na Alemanha intensificou-se nas últimas semanas após um ataque mortal com faca na cidade de Solingen, no oeste do país.</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1803,7 +2150,8 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>café voltava carro vi velha chave riscar carro acham normal chameia bazou carro carro mal estacionado nada pronto perguntei empregado café conhecia senhora deume número filho liguei deu nada acham faça vou polícia</t>
+          <t>Estava num café e quando voltava para o carro vi uma velha com uma chave a riscar me o carro! Vocês acham isto normal, depois eu chamei-a e ela bazou para o carro dela.
+O meu carro não estava mal estacionado nem nada mas pronto perguntei ao empregado do café se ele conhecia a senhora e ele deu-me o número do filho dela. Liguei lhe e não deu em nada que acham que faça? Vou à polícia?</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1823,7 +2171,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pai encaminhado nova carreira bruxelas agora eis ex presidente junta campo ourique novo ceo agência comunicação aparece novo comentador cnn isenção editorial quero ainda dizem despudorado nepotismo imunda cumplicidade medium</t>
+          <t>O Pai já está encaminhado para a nova carreira em Bruxelas e agora eis que o ex presidente da junta de Campo de Ourique e novo CEO de uma agência de comunicação aparece como novo comentador da CNN (isenção editorial para que te quero!). Depois ainda dizem que não estamos com um despudorado nepotismo com a imunda cumplicidade dos media…</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1843,7 +2191,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>httpswwwjnptfilhaquebloqueouopainasredessociaisperdepensaodealimentos tribunal relação porto considera jovem ano via pai mera fonte rendimentos juízes punem violação acentuada dever respeito cortou relações pai visitando telefonando perguntando estado saúde tentou contactar filha bloqueouo redes sociais onde partilhou fotografia padrasto legendandoa ten orgulho pai posta foto pai faz sim cria progenitor queria filha ano conhecesse meiairmã bebé nascida outra relação rejeitou outros contactos família paterna queria sim pai contribuísse sustento educação recentemente tribunal relação porto trp acusou jovem ver progenitor mera fonte rendimento privoua pensão alimentos bloquear pai rede social semelhante cumprimentar publicamente chegaram comparar juízes desembargadores</t>
+          <t xml:space="preserve">https://www.jn.pt/3195985977/filha-que-bloqueou-o-pai-nas-redes-sociais-perde-pensao-de-alimentos/
+Tribunal da Relação do Porto considera que jovem de 18 anos via o pai como mera fonte de rendimentos. Juízes punem "violação acentuada do dever de respeito"
+Cortou relações com o pai, não o visitando, telefonando ou perguntando pelo seu estado de saúde. E quando ele tentou contactar a filha, esta bloqueou-o nas redes sociais, onde partilhou uma fotografia com o padrasto, legendando-a: “Se tens orgulho no teu pai posta foto dele” e “Pai não é quem faz, mas sim quem cria”.
+O progenitor queria até que a filha, de 18 anos, conhecesse a meia-irmã bebé, nascida de outra relação, mas ela rejeitou esse e outros contactos com a família paterna. Queria, sim, que o pai contribuísse para o seu sustento e educação, mas, recentemente, o Tribunal da Relação do Porto (TRP) acusou a jovem de ver o progenitor como mera fonte de rendimento e privou-a da pensão de alimentos. “Bloquear o pai numa rede social é semelhante a não o cumprimentar publicamente”, chegaram a comparar os juízes desembargadores.
+</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1863,7 +2215,10 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditwociqwucpngwidthformatpngautowebpscceeeacebcaccdbdf preço mirtilos porque compro diretamente produtor quilos época congeloos total consumi kcal gastei euro energia cozinhar</t>
+          <t xml:space="preserve">&amp;#x200B;
+https://preview.redd.it/w51oci8q1wuc1.png?width=542&amp;format=png&amp;auto=webp&amp;s=c5c8783e6259e06eace42373bc490accdb268df2
+O preço dos mirtilos é porque os compro diretamente ao produtor, 20 quilos na época deles e depois congelo-os.
+No total consumi 2734 kcal e gastei 3,96 euros, fora a energia para cozinhar. </t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1883,7 +2238,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sinto f vários ano querer relacionamentos ninguém dedicar outras coisas vida ano sent necessidade procurar alguém porque sozinha tempo quer queiras acaba deixar triste depressiva acabas querer alguém sente falta carinho tudo relação proporciona saí saio algumas vezes encontrei ninguém agrade emocionalmente fisicamente tentei meetups saídas á noite último tentei apps encontros onde dava match quase toda gente propriamente tinder onde enganada agora receio parar lá voltar gostava encontrar alguém dividir vida sonho casar ter filhos acho destino vai sempre ficar sozinha nunca vou encontrar ninguém dizem fazer hobby interesse nada trabalho dá conta cabeça suficiente pensei conversa pessoas rua demasiado creepy pensei deixar instagram aberto colocar vários story partilhar vida alguém passou situação dêem dicas posso fazer encontrar solução</t>
+          <t xml:space="preserve">É o que me sinto.
+Eu F 32, depois de vários anos sem querer relacionamentos com ninguém e a dedicar me a outras coisas na minha vida, este ano senti a necessidade de procurar alguém, porque estar sozinha por muito tempo quer queiras ou não acaba por te deixar triste, depressiva e acabas por querer alguém, sentes falta do carinho e tudo que uma relação proporciona.
+Saí e saio algumas vezes mas não encontrei ninguém que me agrade emocionalmente e fisicamente, tentei meetups também não, saídas á noite , e por último tentei apps de encontros onde dava match com quase toda a gente mas mais propriamente Tinder onde fui enganada e agora estou com receio de parar lá voltar.
+Gostava de encontrar alguém para dividir a vida, sonho em casar ter filhos mas acho que o meu destino vai ser para sempre ficar sozinha e nunca vou encontrar no ninguém.
+Dizem me para fazer hobbies mas não tenho interesse em nada , o trabalho já me dá conta da cabeça o suficiente, já pensei em por conversa com pessoas na rua, será que é demasiado creepy? Já pensei em deixar o Instagram aberto e colocar vários stories e partilhar a minha vida.
+Alguém mais já passou por esta situação e dêem me dicas do que mais posso fazer para encontrar uma solução </t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1903,7 +2263,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>agora restaurante bota altahttpsexpressoptboacamaboamesaaumentoderendaobrigaaoencerramentodohistoricorestaurantebotaaltatenhopenadestalisboaqueestaafecharaab bairro alto fecha apesar incluído programa lojas história proprietários imóvel exigiram aumento renda negócios fecham terem sustentabilidade económica porque proprietários imóveis utilizam contratos abrigo nrau através aumentos renda brutais expulsarem neste mês dezembro anunciados encerramentos casa chineza vida portuguesa livraria ferin casa achilles barbearia campos virão porque vários proprietários negócios encostados parede proprietários imóveis pagarem várias vezes pagam renda saírem brevemente haverá confeitaria nacional gambrinus galeto benard mexicana pavilhão chinês outros lugares icónicos históricos cidade país lugar destes estabelecimentos vão nascer hotéis alojamento local outros estabelecimentos gosto nova população expat lisboa massas turistas invadem cidade tudo corrido cafés brunch tosta abacate ovo mexido nómadas similares assim vai lisboa cada vez menos lisboeta cada vez menos portuguesa</t>
+          <t>Agora é o restaurante [Bota Alta](https://expresso.pt/boa-cama-boa-mesa/2023-12-30-Aumento-de-renda-obriga-ao-encerramento-do-historico-restaurante-Bota-Alta-Tenho-pena-desta-Lisboa-que-esta-a-fechar-6832aab7) no Bairro Alto que fecha, apesar de incluído no programa Lojas Com História. 
+Os proprietários do imóvel exigiram um aumento da renda de €1300 para €11000. Ou seja, os negócios fecham não por não terem sustentabilidade económica, mas porque os proprietários dos imóveis utilizam os contratos ao abrigo do NRAU para, através de aumentos de renda brutais, os expulsarem.
+Neste mês de dezembro foram anunciados os encerramentos da Casa Chineza, A Vida Portuguesa, Livraria Ferin, Casa Achilles e Barbearia Campos. E mais virão, porque são vários os proprietários dos negócios que estão a ser encostados à parede pelos proprietários dos imóveis para ou pagarem várias vezes mais do que pagam pela renda ou saírem.
+Brevemente não haverá Confeitaria Nacional, Gambrinus, Galeto, Benard, Mexicana, Pavilhão Chinês, entre outros lugares icónicos e históricos da cidade e até do país.
+No lugar destes estabelecimentos vão nascer hotéis, alojamento local, ou outros estabelecimentos mais ao gosto da nova população expat de Lisboa ou das massas de turistas que invadem a cidade. Será tudo corrido a cafés de brunch com tosta de abacate e ovo mexido para os nómadas e similares.
+E assim vai Lisboa, cada vez menos lisboeta e cada vez menos portuguesa.</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1923,7 +2288,8 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>moda inútil anti ecológica faz perder tempo dinheiro energia espero futuro passe moda</t>
+          <t xml:space="preserve">Moda inútil, anti ecológica, que faz perder tempo e dinheiro com energia.
+Espero que no futuro isto passe de moda. </t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1943,7 +2309,13 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>afinal homem morto nenhuma faca mão próprios polícias reconhecem justificar uso armas fogo polícias novatos porque sempre polícias novatos fazerem trabalho locais problemáticos onde bom ter experiência atos vandalismo continuam ainda li nada sobre consequências autores ainda ninguém identificado detido causa destes atos vandalismo motorista autocarro incendiado continuum internado estado grave autores disto identificados detidos autores incêndio bomba gasolina ato perigoso identificados presos apareceu suposto líder algumas revoltas httpsexpressoptsociedadevideoelesnaovaopararagoragaranteoliderdosconfrontosnobairrodozambujalementrevistaasicfbdhttpsexpressoptsociedadevideoelesnaovaopararagoragaranteoliderdosconfrontosnobairrodozambujalementrevistaasicfbd atos criminosos jornalista obrigado identificar fontes causa atos criminosos</t>
+          <t xml:space="preserve">Afinal o homem que foi morto não tinha nenhuma faca na mão, os próprios polícias reconhecem isso. Como justificar o uso de armas de fogo? 
+Os polícias eram novatos. Porque são sempre polícias novatos a fazerem o trabalho em locais mais problemáticos onde seria bom ter mais experiência?
+Os atos de vandalismo continuam, mas ainda não li nada sobre as consequências para os seus autores. Ainda não há ninguém identificado e detido por causa destes atos de vandalismo? 
+O motorista do autocarro incendiado continua internado em estado grave, Os autores disto foram identificados e detidos? Os autores do incêndio numa bomba de gasolina, ato muito perigoso, já foram identificados e presos? 
+Apareceu um suposto líder de algumas revoltas: 
+[https://expresso.pt/sociedade/2024-10-23-video-eles-nao-vao-parar-agora-garante-o-lider-dos-confrontos-no-bairro-do-zambujal-em-entrevista-a-sic-1f1b590d](https://expresso.pt/sociedade/2024-10-23-video-eles-nao-vao-parar-agora-garante-o-lider-dos-confrontos-no-bairro-do-zambujal-em-entrevista-a-sic-1f1b590d)
+são atos criminosos. O jornalista não é obrigado a identificar as suas fontes quando estão em causa atos criminosos?  </t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1963,7 +2335,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>voluntariado costumo telefonar famílias ante visitar normalmente levar alguma ajuda alimentos medicamentos etc destas famílias menina agora ano pouco tempo sempre telefonava sempre chorar desde cerca ano recentemente lembro telefonar menina chorar recentemente percebi porquê menina aliás altura ainda bebé sempre usar telemóvel mãe atender tirarlhe telemóvel maneira mãe entreter casa agora chora fase atendedor chamadas sabe nome atende chamada fala pouco comigo tagarela chama mãe família monoparental pai suíça dinheiro chegalhe pagar jantares euro restaurante publica conta facebook pagar pensão alimentos</t>
+          <t xml:space="preserve">No meu voluntariado costumo telefonar para as famílias antes de as visitar, normalmente para levar alguma ajuda, alimentos, medicamentos, etc.
+Uma destas famílias tem uma menina, agora com 4 anos, que até há pouco tempo sempre que eu telefonava estava sempre a chorar. Isto desde que tinha cerca de um ano. Até recentemente não me lembro de telefonar sem a menina estar a chorar. 
+Só recentemente percebi porquê. A menina, aliás na altura ainda bebé, estava sempre a usar o telemóvel, a mãe para a atender tinha de tirar-lhe o telemóvel. 
+Era (e é) a maneira que a mãe tinha e tem de a entreter quando ela está em casa. 
+Agora já não chora, está na fase de atendedor de chamadas e sabe o meu nome. Atende a chamada, fala um pouco comigo (é muito tagarela) e só depois chama a mãe. 
+Família monoparental, o pai está na Suíça, o dinheiro chega-lhe para pagar jantares de mais de 120 euros no restaurante (publica a conta no facebook), mas não para pagar a pensão de alimentos.  </t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1983,7 +2360,8 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>alguém ouviu falar alguma comemoração ano camões ouvi acho lamentável esquecimento irrelevância comemorações ano camões</t>
+          <t>Alguém ouviu falar de alguma comemoração dos 500 anos de Camões? 
+Eu não ouvi e acho lamentável este esquecimento ou a irrelevância das comemorações dos 500 anos de Camões.</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2003,7 +2381,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>acho ridículo cada vez celebrações estrangeiras cidades portuguesas celebrações estrangeiras estrangeiros menos portuguese li algures começa dificuldades encontrar participantes tradicionais desfiles santo antónio admira bairros inteiros lisboa onde portuguese minoria praticamente inexistentes ninguém quer parar</t>
+          <t xml:space="preserve">Sou só eu que acho ridículo cada vez mais haver celebrações estrangeiras pelas cidades portuguesas? 
+Não só há mais celebrações estrangeiras como também há mais estrangeiros e menos portugueses. 
+Já li algures que começa a haver dificuldades em encontrar participantes para os tradicionais desfiles de Santo António. 
+Não admira, há bairros inteiros em Lisboa onde os portugueses são a minoria ou mesmo praticamente inexistentes.
+Ninguém quer parar isto? 
+</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2023,7 +2406,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>oferecer gb net yorn</t>
+          <t>A oferecer 1001GB de net no meu Yorn.</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2043,7 +2426,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vamos virar brasil</t>
+          <t>Vamos virar um Brasil</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2063,7 +2446,8 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>olá malta faz bastante tempo desde ex acabou comigo fiquei embaixo gostava maior medo perdela infelizmente aconteceu resumidamente gostava mim acabarmos namorava outro demorou bastante tempo conseguir mentalizar aconteceu ter aceitar eventualmente consegui falo tempo vejo desde então ocasionalmente lá aparece sonhos deixa frustrado sei fazer desde então conheci nova pessoas fiz novos amigo comecei ir gym tento passear posso sai cabeça decide aparecer sonhos enquanto dormo</t>
+          <t>Olá malta, já faz bastante tempo desde que a minha ex acabou comigo. Fiquei muito embaixo, eu gostava mesmo muito dela e o meu maior medo era perde-la, o que infelizmente foi o que aconteceu. 
+Muito resumidamente eu gostava muito mais dela que ela a mim, e depois de acabarmos, 1 mes depois já namorava com outro. Demorou bastante tempo até conseguir mentalizar o que aconteceu e ter de aceitar mas eventualmente consegui. Já não falo com ela à muito tempo nem a vejo também, mas desde então ocasionalmente lá ela aparece nos meus sonhos, e isto deixa me muito frustrado. Não sei o que fazer mesmo, desde então conheci novas pessoas, fiz novos amigos, comecei a ir ao gym ,tento passear mais quando posso mas ela não me sai da cabeça e decide aparecer nos meus sonhos enquanto dormo.</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2083,7 +2467,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>boa malta peço desculpa ante qualquer tipo linguagem apropriada sub venho partilhar experiência basicamente desabafo pedido dicas dar contexto aluno universitário cibersegurança redes sistemas informáticos hobby jogar online recorro uso internet diferentes tipos horários horas indefinidas tanto posso estudar h jogar manhã estudar manhã vir café indiferentemente horário farto desta operadora cliente ano bem caso pai titular contrato casa irmãos sempre serviços zon passaram lembrome desde sempre problemas novo pouco ligava porque dava uso bem lembro irmãos sempre reclamar medida crescendo desenvolvendo gosto informática desde novo hobby jogar online óbvio comecei passar primeira pessoa problemas internet pais nunca muita literacia informática então aconteceu inúmeras vezes falar contactar destes problemas vez chavalo ia ligar linha apoio cliente desde un ano trás passo ter interação direta nome pai ter conhecimento passa desde ligar lá manhã porque fazer projetos fico net serem h cheio packet loss sinceramente passei tanto atendimento terrível desde comentários epah consigo fazer nada lol horas horas dormir atendido profissionais impecáveis deu entender ponto estuda constante contacto área difícil mim analisar anomalias recorrentes identificar clara falta noção nestas ridículas práticas poupar un trocos lá ganham parece tou ter interações amen lol sinto farto experienciar problemas recorrentes sendo pai cliente tantos ano tornase falta consideração diversas vezes irmão tentamos chamar atenção pai trocarmos operadora acaba sempre trocar contentarse ofertas ridículas fazem forma tentar limpar incompetência apresentam culpo pai porque preocupar dá uso serviços tv chamadas dado móveis vez motorista vida pessoal envolve tecnologia ponto sentir problemas penso receio fazer mudança drástica serviço vez implica trocar todo tipo coisas tv cartões telemóvel net gosta envolvido burocracias sei perto único passar problemas malta passou problemas resolveram fazer trocaram operadora procedimentos passaram conseguiram resolverse manter tipo problemas passaram valeu pena sei vir nova operadora possivelmente promissora caso mudar iria vodafone problema contrato penso acabar daqui ano força input todo tipo dicas dar experiências partilhar aceites qualquer tipo detalhes queiram questionar vontade</t>
+          <t>Boas malta, peço desculpa antes de mais qualquer tipo de linguagem que não seja apropriada ao sub.
+Venho partilhar a minha experiência com a NOS, basicamente um desabafo e um pedido de dicas.
+Para dar contexto, sou aluno universitário em cibersegurança, redes e sistemas informáticos, uma das hobbies que tenho é jogar online. Recorro ao uso da internet aos mais diferentes tipos de horários e por horas indefinidas, tanto posso estar a estudar das 15 as 19h como a jogar das 21 as 4 da manhã ou estar a estudar das 3 às 5 da manhã depois de vir do café. Indiferentemente do horário, já estou farto desta operadora.
+Sou cliente da NOS há mais de 10 anos, bem, eu não, no caso o meu pai que é o titular do contrato. Numa casa com 3 irmãos sempre tivemos serviços ZON que passaram a NOS e lembro-me desde sempre de haver problemas. Quando era mais novo pouco ligava porque não lhe dava muito uso, mas bem me lembro dos meus irmãos sempre a reclamar. À medida que fui crescendo fui desenvolvendo o meu gosto pela informática e desde novo que tenho como hobby jogar online, e como é óbvio comecei a passar em primeira pessoa por estes problemas de internet. Os meus pais nunca tiveram muita literacia informática, então aconteceu inúmeras vezes falar com ele para contactar com a NOS destes problemas, uma vez que era chavalo e não ia ser eu a ligar para a linha de apoio ao cliente. Desde há uns anos para trás que passo a ser eu a ter interação direta com a NOS em nome do meu pai por ter mais conhecimento, passa desde ligar para lá às 3 da manhã porque estou a fazer projetos e fico sem net até serem 19h e estar cheio de packet loss. Muito sinceramente já passei por tanto atendimento terrível, desde comentários como "Epah eu não consigo fazer nada lol" a um "Estas horas são horas de estar a dormir", também como já fui atendido por profissionais impecáveis, mas deu para entender o meu ponto.
+Para quem estuda e está em constante contacto com a área não é difícil para mim analisar estas anomalias recorrentes e identificar a clara falta de noção da NOS nestas ridículas práticas para poupar uns trocos ou lá o que ganham com isso (até parece que tou a ter interações com a amen lol). Já me sinto farto de experienciar estes problemas recorrentes e sendo o meu pai cliente há tantos anos isto torna-se uma falta de consideração. Foram diversas vezes que eu e o meu irmão tentamos chamar a atenção ao meu pai para trocarmos de operadora mas ele acaba sempre por não trocar e contentar-se com as ofertas ridículas que eles fazem de forma a tentar limpar a incompetência que apresentam. Não culpo o meu pai porque ele tem mais com que se preocupar e não dá uso a não ser aos serviços de TV, chamadas e dados móveis uma vez que ele é motorista e na vida pessoal não se envolve com a tecnologia ao ponto de sentir estes problemas. Penso que ele tenha receio de fazer esta mudança drástica de serviço uma vez que implica trocar todo o tipo de coisas, TV, cartões de telemóvel, Net e não gosta muito de estar envolvido em burocracias.
+Sei que não sou nem de perto o único a passar por estes problemas, por isso, malta que passou por estes problemas, o que resolveram fazer? Trocaram de operadora? Que procedimentos passaram? Conseguiram resolver-se e manter a NOS? Por que tipo de problemas passaram mas valeu a pena?
+Sei que está para vir uma nova operadora possivelmente promissora mas caso tivesse de mudar iria para a Vodafone, o problema é também o contrato que penso acabar só daqui a 2 anos.
+Força nos inputs, todo o tipo de dicas que tenham para dar ou experiências que tenham para partilhar são aceites. Qualquer tipo de detalhes que queiram questionar estejam à vontade.</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2103,7 +2494,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>httpswwwtheguardiancomusnewsjanfloridasocialmediateenagerbanbillhttpswwwtheguardiancomusnewsjanfloridasocialmediateenagerbanbill bill would prohibit teenager from creating an account and is now headed to the state republicancontrolled senate florida lawmaker advanced billhttpswwwflsenategovsessionbillbilltextepdf on wednesday that would prohibit social medium platform from allowing young teen to have an account while requiring everyone else to verify their age the measure prohibits anyone under from creating new social medium account and requires platform to delete existing account held by minor who are younger than it also would require social medium company to delete any personal information from the account and the platform to use nongovernmental independent thirdparty not affiliated with the social medium platform to verify user age the bill passed the florida house with bipartisan votehttpswwwflsenategovsessionbilltabvotehistory and now head to the republicancontrolled senate these dopamine hit from social medium are so addictive it like digital fentanyl fiona mcfarland republican state lawmaker who cosponsored the legislation said on the house floor on wednesday according to politicohttpswwwpoliticocomnewsfloridasocialmediarestrictions and even the most pluggedin parent or attuned teen ha hard time shutting the door against these addictive feature vivek murthy the u surgeon general released warning last yearhttpswwwhhsgovsitesdefaultfilessgyouthmentalhealthsocialmediaadvisorypdf about the danger of social medium kid while he said more research wa needed to fully understand the effect there are ample indicator that social medium can also have profound risk of harm to the mental health and wellbeing of child and adolescent the bill doe not name which platform specifically the bill would apply to but say it would apply to anything that utilizes addictive harmful or deceptive design feature or any other feature that is designed to cause an account holder to have an excessive or compulsive need to use or engage with the social medium platform florida is one of several state that ha taken action recently to limit teenagershttpswwwpoliticocomnewsfloridasocialmediarestrictions exposure to social medium last year utah becamehttpswwwsltribcomnewspoliticsutahsnewsocialmediaregulation the first state in the country to ban people under from using social medium without consent from guardian the state also prohibits minor from using social medium account from pm to am an industry trade group is currently suing utah over the law other state have required the platform to undertake measure such child safety assessment and requiring changehttpswwwpoliticocomnewskidsonlinestatessocialmediatextsomestatesclikeutahandtodirectcontenttominors in the algorithm that are served to minor new york city also declared social mediahttpsabcchicagocomsocialmediaaddictionpublichealthhazardnewyorkcityexcidtawlstwtaidbdaffccffecutmcampaigntrueanthematrendingcontentutmmediumtrueanthemutmsourcetwitter public health hazard on wednesday xb</t>
+          <t xml:space="preserve"> [https://www.theguardian.com/us-news/2024/jan/25/florida-social-media-teenager-ban-bill](https://www.theguardian.com/us-news/2024/jan/25/florida-social-media-teenager-ban-bill)
+&gt; Bill would prohibit teenagers from creating an account, and is now headed to the state’s Republican-controlled senate   
+&gt;  
+&gt;Florida lawmakers advanced [a bill](https://www.flsenate.gov/Session/Bill/2024/1/BillText/e1/PDF)  on Wednesday that would prohibit social media platforms from allowing  young teens to have an account while requiring everyone else to verify  their age.  
+&gt;  
+&gt;The measure prohibits anyone under  16 from creating a new social media account and requires platforms to  delete existing accounts held by minors who are younger than 16. It also  would require social media companies to delete any personal information  from the accounts and for the platforms to use a “nongovernmental,  independent, third-party not affiliated with the social media platform”  to verify users’ age.  
+&gt;  
+&gt; The bill passed the Florida house with a [bipartisan 106-13 vote](https://www.flsenate.gov/Session/Bill/2024/1/?Tab=VoteHistory) and now heads to the Republican-controlled senate.  
+&gt;  
+&gt;“These  dopamine hits \[from social media\] are so addictive, it’s like a digital  fentanyl,” Fiona McFarland, a Republican state lawmaker who cosponsored  the legislation, said on the house floor on Wednesday, [according to Politico](https://www.politico.com/news/2024/01/24/florida-social-media-restrictions-00137670). “And even the most plugged-in parent or attuned teen has a hard time shutting the door against these addictive features.”  
+&gt;  
+&gt;Vivek Murthy, the US surgeon general, released [a warning last year](https://www.hhs.gov/sites/default/files/sg-youth-mental-health-social-media-advisory.pdf)  about the dangers of social media for kids. While he said more research  was needed to fully understand the effects, “there are ample indicators  that social media can also have a profound risk of harm to the mental  health and wellbeing of children and adolescents”.  
+&gt;  
+&gt;The  bill does not name which platforms specifically the bill would apply to  but says it would apply to anything that “utilizes addictive, harmful,  or deceptive design features, or any other feature that is designed to  cause an account holder to have an excessive or compulsive need to use  or engage with the social media platform”.  
+&gt;  
+&gt;Florida is one of several states that has taken action recently [to limit teenagers’](https://www.politico.com/news/2024/01/24/florida-social-media-restrictions-00137670) exposure to social media. Last year, [Utah became](https://www.sltrib.com/news/politics/2024/01/17/utahs-new-social-media-regulation/)  the first state in the country to ban people under 18 from using social  media without consent from a guardian. The state also prohibits minors  from using a social media account from 10.30pm to 6.30am. An industry  trade group is currently suing Utah over the law.  
+&gt;  
+&gt;Other states have required the platforms to undertake measures such as children safety assessments [and requiring a change](https://www.politico.com/news/2024/01/13/kids-online-states-social-media-00135390#:~:text=Some%20states%2C%20like%20Utah%20and,to%20direct%20content%20to%20minors) in the algorithms that are served to minors. New York City [also declared social media](https://abc7chicago.com/social-media-addiction-public-health-hazard-new-york-city/14356945/?ex_cid=TA_WLS_TW&amp;taid=65b25daf2fcc0f0001fe333c&amp;utm_campaign=trueAnthem%3A+Trending+Content&amp;utm_medium=trueAnthem&amp;utm_source=twitter) a “public health hazard” on Wednesday.
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2123,7 +2532,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>quero começar guerra aqui sub faço post so quero ouvir perspectivas morei ano portugal voltei imaginam mudado melhor pouco pouco voume apercebendo maquilhagem chegar ponto pensando migrar novo duas coisas melhoraram nada suficiente burocracia corrupçãoimpunidade un exemplos quis abrir empresa registros fiquei filum desde manhã finalmente abrem porta funcionária grita hoje atendemos possível todos filum lá investir país criar trabalhos pagar impostos primer passo complicam tudo finalmente abri puxar dentes casamento casado ano casamento portugal registrado países diferentes problemas nenhuns aqui levo ano tentar resolver registrar casamento nenhum documento serve oficiais união europeia lei precisam aceitar finalmente consegui marcassem entrevista investigar realmente casados nunca deram horário agora pedido negado oferecer informação necessária tentamos recorrer ninguém sabe dizer fazer irs demorou meses inscrever sistema perguntem porque algo ver ter migrado tempo levaram finalmente poder pagar impostos recibo verde deramme coimas ter registrado rendimentos podium registrar parte pequena seguro cheios histórias porque assim fizemos merecer atraso acho política algo cultural porque pura má vontade funcionários acham perto chorar</t>
+          <t xml:space="preserve">Não quero começar uma guerra aqui no sub, não é por isso que faço este post. So quero ouvir as perspectivas de vocês. Eu morei 20+ anos fora de Portugal e voltei em 2017. Como imaginam muito tinha mudado, muito para o melhor. Mas pouco a pouco vou-me apercebendo que é só maquilhagem e estou a chegar a um ponto em que estou pensando em migrar de novo. Duas coisas que não melhoraram nada, ou o suficiente, são a burocracia e a corrupção/impunidade. Uns exemplos: 
+- Quis abrir uma empresa. Fui aos registros e fiquei na fila desde as 7 da manhã. Quando finalmente abrem as portas uma funcionária grita “Hoje só atendemos 4”! Como é possível? Todos na fila estão lá para investir no país, criar trabalhos e pagar impostos?! E já no primer passo complicam tudo. Finalmente abri, mas foi como puxar dentes.
+- O meu casamento. Estou casado há 16 anos. O meu casamento não foi em Portugal mas está registrado em 4 países diferentes sem problemas nenhuns. Aqui levo 3 anos a tentar resolver e registrar o meu casamento. Nenhum documento serve, nem os oficiais da União Europeia que por lei eles precisam aceitar. Finalmente consegui que marcassem um entrevista para investigar se realmente estamos casados mas nunca deram horário e agora o pedido foi negado por “nós não oferecer a informação necessária”. Tentamos recorrer mas ninguém sabe dizer o que fazer.
+- O IRS demorou 17 meses para me inscrever no sistema. Não me perguntem porque, teve algo a ver com eu ter migrado, mas foi o tempo que levaram para eu finalmente poder pagar impostos como recibo verde. Deram-me 10 coimas por não ter registrado os meus rendimentos, mesmo que não podia registrar. 
+Isto é só uma parte pequena, estou seguro que vocês também estão cheios de histórias como estas. Porque estamos assim? O que fizemos para merecer este atraso? Eu não acho que é só política, é algo cultural também porque muito é pura má vontade dos funcionários. Que acham. Estou perto de chorar. </t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2143,7 +2556,21 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>httpsominhoptchairmandaleicadizqueosempregadosemfamalicaosaounicosnaotemosdistonaalemanhahttpsominhoptchairmandaleicadizqueosempregadosemfamalicaosaounicosnaotemosdistonaalemanha andreas kauffman chairman leica camera ag empresa alemã máquinas fotográficas cuja préprodução integralmente assegurada unidade industrial famalicão deixou rasgados elogios trabalhadores portuguese considerandoos talentosos comprometidos profissionalmente próprios alemães carregam décadas rótulo entrevista portal executive digesthttpsexecutivedigestsapoptnoticiasanosleicaaformacomoosempregadosaquinutremasempresaseestaoaoladodelasealgounicodizandreaskauffman kauffman revelou empresamãe alemã grande respeito profissionais engenheiros portuguese destacou parceria universidade minho assegurar talentos alemão explica região minho muitas empresas alemãs outras sempre procura melhor talento forma empregados aqui nutrem empresas lado algo único alemanha compromisso trabalho grande chairman salienta ainda trabalhadores portuguese orgulhosos portugal apenas pequeno país canto europa andreas kauffman revelou ainda alguns projetos futuro ainda condicionado terreno poder ampliar instalações localizadas lousado concelho famalicão contudo termos equipamentos investidos cerca milhões euro ano número diminuído porque máquinas têm apresentado maior durabilidade responsável alemão lembra leica decidiu abrir fábrica famalicão ano ante abril altura responsável engenharia viu carro alvejado autoestrada decidiu permanecer país erguer fábrica conta ainda além famalicão havia opções tunísia irlanda serem países salários baixos alemanha onde trabalhadores contacto setor industrial forte implementação têxtil proximidade aeroporto maia fez alemãs escolhessem freguesia limite famalicão distrito porto integrarem xb</t>
+          <t>[https://ominho.pt/chairman-da-leica-diz-que-os-empregados-em-famalicao-sao-unicos-nao-temos-disto-na-alemanha/](https://ominho.pt/chairman-da-leica-diz-que-os-empregados-em-famalicao-sao-unicos-nao-temos-disto-na-alemanha/)
+&gt; Andreas Kauffman, chairman da Leica Camera AG, empresa alemã de máquinas  fotográficas cuja pré-produção é integralmente assegurada na unidade  industrial de Famalicão, deixou rasgados elogios aos trabalhadores  portugueses, considerando-os mais talentosos e comprometidos  profissionalmente do que os próprios alemães, que carregam há décadas  esse rótulo.    
+&gt;  
+&gt; Em entrevista ao portal [*Executive Digest*](https://executivedigest.sapo.pt/noticias/50-anos-leica-a-forma-como-os-empregados-aqui-nutrem-as-empresas-e-estao-ao-lado-delas-e-algo-unico-diz-andreas-kauffman/),  Kauffman revelou que a empresa-mãe alemã tem “grande respeito” pelos  profissionais e pelos engenheiros portugueses, e destacou a parceria com  a Universidade do Minho “para assegurar talentos”.   
+&gt;  
+&gt;O alemão explica que na região do Minho “há muitas empresas, alemãs e  outras”, que estão sempre à procura do melhor talento: “A forma como os  empregados aqui nutrem as empresas e estão ao lado delas é algo único  que não temos na Alemanha e o compromisso com o trabalho é muito  grande”.  
+&gt;  
+&gt;O chairman salienta ainda que os trabalhadores portugueses são “muito  orgulhosos” e que “Portugal não é apenas um pequeno país no canto da  Europa”.   
+&gt;  
+&gt;Andreas Kauffman revelou ainda alguns projetos para o futuro, ainda  condicionado por “não haver mais terreno” para poder ampliar as  instalações localizadas em Lousado, no concelho de Famalicão. Contudo,  em termos de equipamentos, são investidos cerca de 4 milhões de euros  por ano, número que tem diminuído porque as máquinas têm apresentado  maior durabilidade.   
+&gt;  
+&gt;O responsável alemão lembra quando a Leica decidiu abrir uma fábrica  em Famalicão, um ano antes do 25 de Abril de 1974. Na altura, o  responsável pela engenharia viu o seu carro ser alvejado na autoestrada,  mas decidiu permanecer no país e erguer a fábrica.   
+&gt;  
+&gt;Conta ainda que, para além de Famalicão, havia as opções de Tunísia  ou Irlanda, por serem países com salários mais baixos do que na Alemanha  e onde os trabalhadores já tinham contacto com o setor industrial. A  forte implementação têxtil e a proximidade com o aeroporto da Maia fez  com que os alemãs escolhessem uma freguesia no limite entre Famalicão e o  distrito do Porto para se integrarem. 
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2163,7 +2590,8 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jornal notícias maio httpspreviewredditwvftjozedjpgwidthformatpjpgautowebpseccaeedeeabbaeebd</t>
+          <t xml:space="preserve">[Jornal de Notícias 29 de maio 2024](https://preview.redd.it/wvft6joz7e3d1.jpg?width=2056&amp;format=pjpg&amp;auto=webp&amp;s=e22c4864c23aee3605dee32ab07ba3641e73e2bd)
+</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2183,7 +2611,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>inventado vezes realidade bem estranha ficção httpswwwpublicoptpoliticanoticiadeputadochegaeuropaimigranteilegalfrancaexpulsoduasvezes</t>
+          <t>Isto nem inventado :) por vezes a realidade é bem mais estranha que a ficção https://www.publico.pt/2024/03/20/politica/noticia/deputado-chega-europa-imigrante-ilegal-franca-expulso-duas-vezes-2084322</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2203,7 +2631,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>plano abre estações metro semabrigo valores diários temperatura mínima apresentem c c menos horas seguidas plano treta nbsp gajo ontem diz nessa temperatura acompanhar serviços atuar ainda hoje preciso frio continuar vamos imediatamente acionar plano vamos proteger acolher pessoas gajo devia ir passar noite rua nbsp certo talvez saber imprensa pegar nisto lá ativou plano deviam ter aberto estações dia atrás espera imprensa</t>
+          <t>Um plano que só abre as estações do metro aos sem-abrigo quando há "valores diários de temperatura mínima que se apresentem entre 3º C a - 1º C por, pelo menos, 48 horas seguidas" é um plano da treta
+&amp;nbsp;
+Um gajo que ontem diz isto "Não estamos nessa temperatura, mas estamos a acompanhar com os nossos serviços para atuar ainda hoje, se for preciso. Se este frio continuar, nós vamos imediatamente acionar o plano e vamos proteger e acolher as pessoas" é um gajo que devia ir passar noite na rua.
+&amp;nbsp;
+É certo que talvez por saber que a imprensa está a pegar nisto, lá ativou o plano. Mas já deviam ter aberto as estações dias atrás, sem estar à espera da imprensa.</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2223,7 +2655,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>russia atingiu embaixada portugal ucrânia ninguem abre bico portugal queria saber têm pro russos portugal dizer sobre assunto</t>
+          <t xml:space="preserve">A Russia atingiu a embaixada do Portugal no Ucrânia, e ninguem abre o bico em Portugal. Eu queria saber o que têm os pro russos em Portugal a dizer sobre o assunto. </t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2243,7 +2675,8 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>xb jornal notícias httpspreviewredditrplozyhscjpgwidthformatpjpgautowebpscfdbcddeedaefccba</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 3-4-2024](https://preview.redd.it/rplo2z5yh9sc1.jpg?width=1008&amp;format=pjpg&amp;auto=webp&amp;s=7c74300fdb262c1d5545dee8da25e28320fc6cba)</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2263,7 +2696,10 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ía caminhar povoação turística passei menino cerca ano chamava pai ninguém parecia ligarlhe nada olhando redor vi poderia pai menino caminhava rua comercial transito deitando olho atrevi segurálo ainda acusado querer raptar menino agrediamme limiteime manterme suficientemente perto impedir atravessar estrada transito aproximava menino atravessar estrada transito pensei bem lá vou ter correr risco segurar menino impedilo atropelado felizmente preciso porque pai apareceu correr tempo segurar menino mulher tido tantos receios impedir menino perdido andar ali vaguear rumo enquanto chamava pai sendo homem achei melhor intervir alternativa</t>
+          <t>Ía eu a caminhar por uma povoação turística quando passei por um menino com cerca de 2 anos que chamava pelo pai. Ninguém parecia ligar-lhe nada e olhando em redor não vi quem poderia ser o pai.
+O menino caminhava por uma rua comercial sem transito e eu fui deitando o olho. Não me atrevi a segurá-lo, ainda era acusado de querer raptar o menino e agrediam-me. Limitei-me a manter-me suficientemente perto para o impedir de atravessar a estrada com transito de que se aproximava. Quando o menino estava mesmo para atravessar a estrada com transito pensei "Bem, lá vou eu ter de correr o risco e segurar o menino  e impedi-lo de ser atropelado".
+Felizmente não foi preciso porque o pai apareceu a correr mesmo a tempo de segurar o menino.
+Se eu fosse uma mulher não teria tido tantos receios em impedir o menino perdido de andar por ali a vaguear sem rumo enquanto chamava pelo pai. Mas sendo homem achei melhor só intervir mesmo se não houvesse alternativa.</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2283,7 +2719,8 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocommundogastamileurosemraspadinhassempremioatrasdosonhodariqueza homem guarda hoje raspadinhas prémio pensou ajudasse combater vício errado agora receber tratamento</t>
+          <t>https://www.noticiasaominuto.com/mundo/2552957/gasta-407-mil-euros-em-raspadinhas-sem-premio-atras-do-sonho-da-riqueza
+Homem guarda até hoje as raspadinhas sem prémio. Pensou que isso o ajudasse a combater o vício, mas estava errado. Agora, está a receber tratamento.</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2303,7 +2740,8 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptpoliticadetalhegovernoautorizainvasaodeterrenosparaexploracaodelitiohttpswwwcmjornalptpoliticadetalhegovernoautorizainvasaodeterrenosparaexploracaodelitio empresa responsável prospeção lítio autorização governo entrar terrenos privados baldios aldeias boticas ontem enviou carta visados informar trabalhos vão avançar</t>
+          <t>[https://www.cmjornal.pt/politica/detalhe/governo-autoriza-invasao-de-terrenos-para-exploracao-de-litio](https://www.cmjornal.pt/politica/detalhe/governo-autoriza-invasao-de-terrenos-para-exploracao-de-litio)
+&gt;A empresa responsável pela prospeção de lítio tem autorização do Governo para entrar nos terrenos privados e baldios das aldeias de Boticas e ontem já enviou uma carta aos visados a informar que os trabalhos vão avançar</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2323,7 +2761,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>httpspplwaresapoptappleapplewatchsalvouavidaaumportuguesdeanos</t>
+          <t>https://pplware.sapo.pt/apple/apple-watch-salvou-a-vida-a-um-portugues-de-34-anos/</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2343,7 +2781,13 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptmundodetalhehomemcondenadoporviolenciadomesticamudoudesexoefoiilibadoemespanhahttpswwwcmjornalptmundodetalhehomemcondenadoporviolenciadomesticamudoudesexoefoiilibadoemespanha tribunal violência contra mulheres sevilha disse agora competência objetiva homem condenado meses prisão crime violência doméstica contra namorada ilibado após ter mudado sexo sevilha espanha conta el mundo setembro agressor julgado tribunal penal sevilha pena prisão efetiva meses após serem recusados vários recursos mês ante homem mudou sexo conservatória registo civil advogado vítima considera fraude lei agosto tribunal violência contra mulheres sevilha emitiu despacho inibe tribunais instrução aplicar nova medidas coação argumentando sexo mudou sendo agora mulher competência objetiva julgar ficando então ilibado vítima terminou relação excompanheiro cinco ano devido maus tratos tanto físicos psicológicos sujeita habitualmente denunciados tribunais violência contra mulheres contou agência efe josé antónio sire advogada vítima mês julho agora mulher voltado agredir ameçar excompanheira restam alguns dia vida informando mudado sexo alucinação woke vai chegar ponto portugal</t>
+          <t xml:space="preserve">[https://www.cmjornal.pt/mundo/detalhe/homem-condenado-por-violencia-domestica-mudou-de-sexo-e-foi-ilibado-em-espanha](https://www.cmjornal.pt/mundo/detalhe/homem-condenado-por-violencia-domestica-mudou-de-sexo-e-foi-ilibado-em-espanha)
+&gt;**Tribunal de Violência contra as Mulheres de Sevilha disse que não há agora competência objetiva.**
+&gt;Um homem, condenado a 15 meses de prisão pelo crime de violência doméstica contra a namorada, foi ilibado após ter mudado de sexo, em Sevilha, Espanha, conta o *El Mundo*. 
+&gt;A 11 de setembro de 2023, o agressor foi julgado pelo Tribunal Penal de Sevilha a uma pena de prisão efetiva de 15 meses, após serem recusados vários recursos. Um mês antes, o homem mudou de sexo na conservatória do Registo Civil, o que o advogado da vítima considera uma "fraude à lei".
+&gt;A 13 de agosto, o Tribunal de Violência contra as Mulheres de Sevilha, emitiu um despacho que inibe os tribunais de instrução de aplicar novas medidas de coação, argumentando que o sexo mudou, sendo agora uma mulher e que, por isso, não há competência objetiva para o julgar, ficando então ilibado.
+&gt;A vítima terminou a relação com o ex-companheiro há cinco anos devido aos maus tratos, tanto físicos como psicológicos, a que era sujeita habitualmente e que foram denunciados nos tribunais de Violência contra as Mulheres, contou à agência *Efe*, José António Sires, advogada da vítima. No mês de julho, a agora mulher terá voltado a agredir e a ameçar a ex-companheira: "só te restam alguns dias de vida", informando também que tinha mudado de sexo. 
+Será que esta alucinação "woke" também vai chegar a este ponto em Portugal? </t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2363,7 +2807,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>seguimento post anteriorhttpswwwredditcomrportugalcommentstquwjdistribuicacaodesacoscamaasemabrigo tencionava voltar assunto certo pudor voltar mencionálo aqui ninguém conhece volto partilhar coisa ocorreu hoje mostra verdadeira generosidade hoje ia dar alguns gorros abrigo dei saco cama veio pedir podium dar outro saco cama perguntei aconteceu outro saco cama dado disseme deu mulher casal apareceu abrigo mesma rua deitados poucos metro dei sacos cama naquele local abrigo agora realmente lá mulher deitada saco cama dado abrigo pedir novo saco cama gesto verdadeiro altruísmo generosidade mim comprar saco cama faz assim tanta diferença vai representar un dia sofrer frio vento fazem sentir durante noite porto nesta altura</t>
+          <t>No seguimento de p[ost anterior](https://www.reddit.com/r/portugal2/comments/18tquwj/distribui%C3%A7%C3%A3o_de_sacos_cama_a_sem_abrigo/)
+Não tencionava voltar a este assunto e tenho até um certo pudor em voltar a mencioná-lo, mas como aqui ninguém me conhece...
+Volto para partilhar uma coisa que ocorreu hoje e que mostra o que é a verdadeira generosidade. Hoje ia dar alguns gorros e um dos sem abrigo a que dei um saco cama veio pedir se lhe podia dar outro saco cama.
+Perguntei o que aconteceu ao outro saco cama que lhe tinha dado. Disse-me que o deu à mulher de um casal que apareceu, também sem abrigo, na mesma rua e que estavam deitados a poucos metros dele. Quando eu dei os sacos cama naquele local estavam 2 sem abrigo e agora estão 5 e realmente lá estava a mulher deitada no saco cama que eu tinha dado ao sem abrigo que me estava a pedir um novo saco cama.
+Este é que é um gesto de verdadeiro altruísmo e generosidade. Para mim comprar mais um saco cama não faz assim tanta diferença, mas para ele vai representar uns dias a sofrer mais com o frio e o vento que se fazem sentir durante a noite no Porto nesta altura.</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2383,7 +2831,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>httpsdelitodeopiniaoblogssapoptpensamentodasemanahttpsdelitodeopiniaoblogssapoptpensamentodasemana bronnie ware prestadora cuidados paliativos reino unido escreve sobre comuns arrependimentos pessoas expressam leito morte terem tido coragem viver vida fiel si próprios terem passado demasiado tempo trabalhar terem tido coragem expressar sentimentos terem conseguido preservar amizades terem permitido serem felizes top five regret of the dying lição contra materialismo consumismo caracterizam paradigma vida moderna httpswwwtheguardiancomlifeandstylefebtopfiveregretsofthedyinghttpswwwtheguardiancomlifeandstylefebtopfiveregretsofthedying</t>
+          <t xml:space="preserve">[https://delitodeopiniao.blogs.sapo.pt/pensamento-da-semana-17006582](https://delitodeopiniao.blogs.sapo.pt/pensamento-da-semana-17006582)
+Bronnie Wares, uma prestadora de cuidados paliativos do Reino Unido, escreve sobre os mais comuns arrependimentos que as pessoas expressam no leito da morte. Estes são:
+ 1) não terem tido a coragem de viver uma vida fiel a si próprios; 
+2) terem passado demasiado tempo a trabalhar; 
+3) não terem tido a coragem de expressar os seus sentimentos; 
+4) não terem conseguido preservar as suas amizades; 
+5) não se terem permitido serem mais felizes.
+ ("Top five regrets of the Dying"). É uma lição contra o materialismo e consumismo que caracterizam o paradigma da vida moderna.
+[https://www.theguardian.com/lifeandstyle/2012/feb/01/top-five-regrets-of-the-dying](https://www.theguardian.com/lifeandstyle/2012/feb/01/top-five-regrets-of-the-dying)
+</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2403,7 +2860,9 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>lentidão atendendo ministro justiça durante alguns ano primeiro ministro durante oito ano possibilidade fazer justiça funcionar forma minimamente eficaz ver poder deixou justiça estado lamentável queixarse forma justiça funciona mal prazer perverso apaniguados anterior governo perdoem pequena mesquinhez</t>
+          <t xml:space="preserve">E da sua lentidão.
+Atendendo a que foi ministro da justiça durante alguns anos, primeiro ministro durante oito anos teve a possibilidade de fazer a justiça funcionar de forma minimamente eficaz. 
+Ver quem esteve no poder e deixou a justiça num estado lamentável a queixar-se da forma como a justiça funciona mal é um prazer perverso. Os apaniguados do anterior governo que me perdoem por esta pequena mesquinhez. </t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2423,7 +2882,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sofro desde mal bastante tempo tentei várias coisas preservativo substâncias spray etc urologista prescreveu comprimido tomar ante ato mim funciona poi chance ter sexo planejado baixíssimas gostava saber algo uso contínuo li algumas opções medicamentos ansiedade etc efeito positivos tratar desse tipo problema consigo prescrição tipo medicamentos consulta psicanalista deve bastar extremamente frustante alguém partilhar problema trataram</t>
+          <t xml:space="preserve">É isso, sofro desde mal a bastante tempo. Já tentei várias coisas como preservativo com substâncias, spray, etc.
+O urologista prescreveu um comprimido para se tomar antes do ato, para mim não funciona pois as chances de eu ter sexo planejado são baixíssimas. 
+Gostava de saber de algo para uso contínuo, li algumas opções de medicamentos para ansiedade e etc que tem efeito positivos para tratar desse tipo de problema. 
+Como é que consigo uma prescrição para este tipo de medicamentos? Uma consulta com um psicanalista deve bastar? 
+Isso é extremamente frustante....
+Alguém a partilhar do mesmo problema e como é que trataram? </t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2443,7 +2907,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>httpswwwpublicoptsociedadenoticiaadultosportugalsocompreendetextossimplesmatematicabasica</t>
+          <t>https://www.publico.pt/2024/12/10/sociedade/noticia/40-adultos-portugal-so-compreende-textos-simples-matematica-basica-2115087</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2463,7 +2927,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bom dia todos escrevovos autêntica genuina motivacional alegria matinal desejar excelente bom dia lembremse acordarem vosso sono sextafeira aí aproxima belo fim semana aleluia glória deus amém fim quero agradecer vossa encarecida simpática atenção cumprimentos breve</t>
+          <t>Bom dia a todos!
+Escrevo-vos com a mais autêntica, genuina e motivacional alegria matinal, para vos desejar um excelente bom dia!
+Lembrem-se que quando acordarem do vosso 3° sono, já é sexta-feira e que aí se aproxima mais um belo de um fim de semana.
+Aleluia e glória a deus, amém!
+Por fim, quero agradecer pela vossa encarecida e simpática atenção, Cumprimentos e até breve 😂</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2483,7 +2951,24 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocompaistribunaltravademissaodepoliciaquefurtoudoissumoscomvalordehttpswwwnoticiasaominutocompaistribunaltravademissaodepoliciaquefurtoudoissumoscomvalorde caso noticiado jornal notícias remonta janeiro polícia forçou entrada instalações messe comando distrital psp santarém levar duas garrafas sumo montante euro agente condenado crime furto simple tribunal santarém pagar multa euro decisão transitou julgado janeiro psp abriulhe processo disciplinar contudo seis ano factos maio ministro administração interna josé luís carneiro aplicoulhe pena demissão agente psp interpôs procedimento cautelar suspender demissão segundo jornal alegou apresentado relatório final processo disciplinar diretor nacional psp ordenou reformulação nele constasse pena demissão aposentação compulsiva vez suspensão agravada sugerira instrutor homem alegou ainda doi filhos sustentar vencimento demissão consequências economia familiar assim setembro tribunal administrativo fiscal leiria deu razão polícia concedendolhe providência cautelar ministério administração interna mai recorreu então decisão suspensão tcas mantevea acórdão tcas consultado notícias minutohttpswwwdgsiptjtcansfafbccddedfafcaopendocument juízes antecipam pena demissão mostrará manifestamente desproporcional aplicação pena expulsiva deverá ter lugar conduta arguido atinja tal forma prestígio credibilidade instituição integra aplicação degradaria imagem dessa entidade imagem impunidade permissiva transmitiria verdade respeita proporcionalidade pena podemos perder vista perante agente policial específico código deontológico apertado conjunto deveres conduta facto mostra desproporcional aplicar pena demissão resultado furto messe psp refrigerantes valor total cerca atenta ausência repercussão publica referido evento estando poi demonstrado controvertido crime inviabilizado manutenção relação funcional pode ainda lerse</t>
+          <t xml:space="preserve">[https://www.noticiasaominuto.com/pais/2523181/tribunal-trava-demissao-de-policia-que-furtou-dois-sumos-com-valor-de-1](https://www.noticiasaominuto.com/pais/2523181/tribunal-trava-demissao-de-policia-que-furtou-dois-sumos-com-valor-de-1)
+&gt;...  
+&gt;  
+&gt; O caso, noticiado pelo Jornal de Notícias, remonta a 28 de janeiro de  2017, quando o polícia forçou a entrada nas instalações da messe do  Comando Distrital da PSP de Santarém para levar duas garrafas de sumo no  montante de 1,11 euros.  
+&gt;  
+&gt;O agente foi condenado por um crime de furto simples pelo Tribunal de  Santarém a pagar uma multa de 280 euros. Esta decisão transitou em  julgado em 14 de janeiro de 2021 e a PSP abriu-lhe um processo  disciplinar.  
+&gt;  
+&gt;Contudo, mais  de seis anos depois dos factos, a 20 de maio de 2023, o ministro da  Administração Interna, José Luís Carneiro, aplicou-lhe a pena de  demissão.  
+&gt;  
+&gt;O agente da PSP interpôs um procedimento cautelar para suspender a  demissão. Segundo o mesmo jornal, alegou que, apresentado o relatório  final do processo disciplinar ao diretor nacional da PSP, este ordenou a  sua reformulação para que nele constasse uma pena de demissão ou  aposentação compulsiva, em vez de suspensão agravada, como sugerira o  instrutor.  
+&gt;  
+&gt;O homem alegou ainda que tinha dois filhos  para sustentar e que, sem vencimento, a demissão teria consequências na  sua economia familiar.   
+&gt;  
+&gt;Assim, em 8 de setembro de 2023, o Tribunal Administrativo e Fiscal  de Leiria deu razão ao polícia, concedendo-lhe a providência cautelar. O  Ministério da Administração Interna (MAI) recorreu então da decisão de  suspensão, mas o TCAS manteve-a.  
+&gt;  
+&gt;No acórdão do TCAS [consultado também pelo Notícias ao Minuto](https://www.dgsi.pt/jtca.nsf/170589492546a7fb802575c3004c6d7d/6e67d348f30a0fc480258a7100548797?OpenDocument)  os juízes antecipam que a pena de demissão "se mostrará manifestamente  desproporcional" e que "a aplicação de pena expulsiva só deverá ter  lugar quando a conduta do arguido atinja de tal forma o prestígio e a  credibilidade da instituição que integra, que a sua não aplicação  degradaria a imagem dessa entidade, pela imagem de impunidade permissiva  que transmitiria".  
+&gt;  
+&gt;"Se é verdade, no que respeita à proporcionalidade da pena, que não  podemos perder de vista que estamos perante um agente policial com um  específico código deontológico e com um apertado conjunto de deveres de  conduta, o que é facto é que se mostra desproporcional aplicar a pena de  demissão em resultado do furto numa messe da PSP de refrigerantes com  um valor total de cerca de 1€, atenta até a ausência de repercussão  publica do referido evento, não estando pois demonstrado que o  controvertido crime tenha inviabilizado a manutenção da relação  funcional", pode ainda ler-se. </t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2503,7 +2988,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptsociedadedetalheomelhorqueijodomundoeportuguesevemdofundao</t>
+          <t>https://www.cmjornal.pt/sociedade/detalhe/o-melhor-queijo-do-mundo-e-portugues-e-vem-do-fundao</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2523,7 +3008,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>dia futuralia pai ver irmão trabalhar lá investigámos algumas universidades ano falámos pessoas lá pai falar pessoa universidade perguntou homem boa universidade vossos alunos acabam mcdonalds disse frente cara toda gente favor façam humilhante pior universidade</t>
+          <t xml:space="preserve">
+Um dia, fui à Futuralia com o meu pai para ver o meu irmão que estava a trabalhar lá.
+Investigámos algumas universidades (estou no 12º ano) e falámos com as pessoas de lá.
+E o meu pai estava a falar com uma pessoa de uma universidade e perguntou ao homem "esta é uma boa universidade ou os vossos alunos acabam no McDonalds?", e disse isto à frente da cara dele e de toda a gente.
+Por favor, não façam isto, é muito humilhante mesmo que seja a pior universidade.</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2543,7 +3032,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>famílias pobres procuro apoiar conheço alguns casos casamentos menores entendendo casamento realidade legal contrato casamento sim realidade social anterior realidade legal existem casamentos sociedades povos têm estado sequer têm lei escritas neste sentido ciganos consideramse casados desde relação sexual considerem têm intenção manter relacionamento duradouro sendo assim conheço casos casamentos menores partir ano casos raparigas casaram ano ainda casaram ano partir daí ainda casos casaram ano contrário ideia comum nenhum destes casos casamento forçado pais contrário muitos casos forçado filhos forçado filhos porque muitas vezes pais mães ciganos queriam filhos filhas casassem tão cedo adolescentes ciganos sabendo etnia cigana aceita casamentos adolescentes apaixonandose vezes apenas querendo fugir problemas família forçam casamento contra vontade pais nestes casos contra vontade pais simplesmente fogem pais têm relações sexuais querer casar comunicam ato consumado pais obrigados lei ciganas aceitar casamento casos conheço região norte litoral apetece divulgar posso dizer nada sobre outras regiões porque vou apercebendo algumas diferenças significativas ciganos diferentes zona portugal</t>
+          <t>Nas famílias pobres que procuro apoiar conheço alguns casos de casamentos de menores.
+Entendendo por casamento não a realidade legal, o contrato de casamento, mas sim a realidade social, que é anterior à realidade legal. Existem casamentos mesmo em sociedades e povos que não têm estado, nem sequer têm leis escritas.
+Neste sentido os ciganos consideram-se casados desde que tenham uma relação sexual e considerem que têm intenção de manter um relacionamento duradouro.
+Sendo assim conheço casos de casamentos com menores a partir dos 13 anos.
+3 casos de raparigas que "casaram" com 13 anos.
+mais ainda que "casaram" com 14 anos e a partir daí ainda mais casos que casaram com 15, 16, 17 anos
+Mas ao contrário do que é ideia comum em nenhum destes casos o casamento foi forçado pelos pais, pelo contrário em muitos casos foi forçado pelos filhos.
+Forçado pelos filhos porque muitas vezes os pais (e mães) ciganos não queriam que os filhos e filhas casassem tão cedo, mas os adolescentes ciganos sabendo que a etnia cigana aceita os casamentos de adolescentes e apaixonando-se (e às vezes apenas querendo fugir dos problemas da sua  família) forçam o casamento contra a vontade dos pais. Ou seja, nestes casos em que é contra a vontade dos pais simplesmente fogem dos pais, têm relações sexuais com quem querer "casar" e depois comunicam o ato consumado e os pais são "obrigados" pelas "leis" ciganas a aceitar esse casamento.
+Isto nos casos que conheço, que é numa região do norte litoral que não me apetece divulgar. Não posso dizer nada sobre outras regiões, porque me vou apercebendo que há algumas diferenças significativas entre os ciganos de diferentes zonas de Portugal.</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2563,7 +3060,9 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>confirmase vez ruzzia abateu avião cheio civis deve paz pzp defendeou putinistas cá tasco vai nato continuar dormir</t>
+          <t>Confirma-se que mais uma vez a RuZZia abateu um avião cheio de civis.
+Deve ser esta a paz que o PZP defende…ou o Putinistas cá do tasco.
+Até quando vai a NATO continuar a dormir?</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2583,7 +3082,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>sei heide escrever user uizarohttpswwwredditcomuserizaro estado dia todo postar cenas vai cometer suicídio epa alguem conhecer pessoalmente vamos tentar evitar aconteça</t>
+          <t>Eu nem sei como hei-de escrever isto mas, este user u/[Izaro500](https://www.reddit.com/user/Izaro500/) tem estado o dia todo a postar cenas de que vai cometer suicídio, epa se alguem o conhecer pessoalmente vamos tentar evitar que isso aconteça!</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2603,7 +3102,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptportugaldetalhemulherprivadadecomeredebeberpelomaridoembarceloshttpswwwcmjornalptportugaldetalhemulherprivadadecomeredebeberpelomaridoembarcelos mulher ano resgatada gnr barcelos macieira rate sábado tarde após alerta filho assustada fragilizada apresentava sinai desnutrição segundo denúncia menos três dia isolada casa deixada marido fome sede homem ano marroquino detido violência doméstica tentou resistir algemado militares vai segundafeira tribunal cm vítima nega violência tudo bem tudo passou confusão filhos disse mulher após ter passado noite hospital barcelos apesar relato terror feito sábado militares libertaram cativeiro mulher domingo posto gnr tentar ver marido detido acredita ainda segundafeira regressa casa casal marroquinos vive desde barcelos casa sinai evidentes degradação além casal cinco filhos vive segunda família alegado agressor outra mulher jovem cinco filhos caso sido sinalizado junta freguesia</t>
+          <t>[https://www.cmjornal.pt/portugal/detalhe/mulher-privada-de-comer-e-de-beber-pelo-marido-em-barcelos](https://www.cmjornal.pt/portugal/detalhe/mulher-privada-de-comer-e-de-beber-pelo-marido-em-barcelos)
+&gt;Uma mulher de 50 anos foi resgatada pela GNR de Barcelos, em Macieira de Rates, no sábado à tarde, após alerta de um filho. Estava assustada e fragilizada e apresentava sinais de desnutrição.
+&gt;Segundo a denúncia, estava há pelo menos três dias isolada em casa, deixada pelo marido, à fome e à sede.
+&gt;O homem, de 51 anos, um marroquino, foi detido por violência doméstica. Tentou resistir ao ser algemado pelos militares. Vai esta segunda-feira a tribunal.
+&gt;Ao CM, a vítima nega a violência. “Está tudo bem. Tudo não passou de uma confusão dos meus filhos”, disse a mulher, após ter passado a noite no Hospital de Barcelos.
+&gt;Apesar do relato de terror feito no sábado aos militares que a libertaram do cativeiro, a mulher foi no domingo ao posto da GNR tentar ver o marido detido. Acredita que ainda esta segunda-feira regressa a casa.
+&gt;O casal de marroquinos vive desde 2011 em Barcelos. Na casa, com sinais evidentes de degradação, além do casal e dos cinco filhos, vive uma segunda família do alegado agressor: outra mulher mais jovem e mais cinco filhos.
+&gt;O caso já tinha sido sinalizado pela junta de freguesia.</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2623,7 +3129,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>httpsexecutivedigestsapoptnoticiasquasetresemcadaquatroamostrasdefrangodolidltembacteriasresistentesaantibioticosdenunciaestudosupermercadonegaacusacoeshttpsexecutivedigestsapoptnoticiasquasetresemcadaquatroamostrasdefrangodolidltembacteriasresistentesaantibioticosdenunciaestudosupermercadonegaacusacoes estudo microbiológico europeu revelou terçafeira percentagem preocupante agentes patogénicos resistentes antibióticos carne frango vendida lidl acordo publicação espanhola público amostras colhidas espanha contaminadas bactérias total frangos analisados apresentam listeria enquanto contêm patógenos associados doenças escherichia coli campylobacter tabloide britânico daily mail referiu metade frango lidl contaminado superbactérias resistentes medicamentos potencialmente mortais resultados mostraram produtos analisados positivos mrsa betalactamases espectro estendido esbl bactérias respondem tratamento antimicrobiano análise realizada laboratório independente sediado cidade alemã colónia apoiado organização dakks estudo mostra bactérias ligadas infeções origem alimentar produtos lojas lidl espanha alemanha itália reino unido polónia amostras espanholas adquiridas madrid valência barcelona revelaram amostras contaminados valor contrasta resultados obtidos noutros países terço produtos alemanha reino unido acordo júlia elizalde gestora campanha observatório bemestar animal oba declarações publicação espanhola resistência antibióticos bactérias surgiu devido uso preventivo destes medicamentos explorações evitar doenças gripe aviária animais recebem antibióticos doentes superexposição provocado aparecimento bactérias resistentes hoje encontradas frangos embalados vendidos lidl esclarece lidl negou acusações garantindo realiza controlos qualidade exaustivos através organizações independentes credenciadas tanto autoridades serviços saúde realizam controlos todos fornecedores carne aves comercializamos lojas garantindo assim cumprem todos requisitos legislação vigor afirmam salientando primeira vez oba lança denúncia verificar informações gostaríamos enfatizar bactérias carne fresca frango pode conter consequência método criação fornecedores específicos representam desafio geral toda indústria carne aves concluem infeções resistentes medicamentos matam cerca milhões pessoas ano todo mundo prevendose número aumente milhões tomada ação bactérias multirresistentes podem propagarse animais seres humanos através cadeia alimentar devido sensibilidades comerciais dado sobre níveis bactérias resistentes antibióticos alimentos amplamente disponíveis estudo revelou presença significativa patógenos diarreicos carne frango investigadores relataram amostras analisadas espanha contaminadas campylobacter escherichia coli primeira bactéria pode causar desde infeção leve diarreia grave febre doenças inflamação articulações síndrome guillainbarré escherichia coli vez pode causar desde diarreia infeções urinárias complicações graf septicemia</t>
+          <t>[https://executivedigest.sapo.pt/noticias/quase-tres-em-cada-quatro-amostras-de-frango-do-lidl-tem-bacterias-resistentes-a-antibioticos-denuncia-estudo-supermercado-nega-acusacoes/](https://executivedigest.sapo.pt/noticias/quase-tres-em-cada-quatro-amostras-de-frango-do-lidl-tem-bacterias-resistentes-a-antibioticos-denuncia-estudo-supermercado-nega-acusacoes/)
+&gt;Um estudo microbiológico europeu revelou, esta terça-feira, uma percentagem preocupante de agentes patogénicos resistentes a antibióticos na carne de frango vendida pelo Lidl: de acordo com a publicação espanhola ‘Público’, 71% das amostras colhidas em Espanha estão contaminadas com estas bactérias – do total de frangos analisados, 38% apresentam listeria, enquanto 83% contêm patógenos associados a doenças como ‘Escherichia coli’ e ‘Campylobacter’.
+&gt;Já o tabloide britânico ‘Daily Mail’ referiu que mais de metade do frango Lidl está contaminado com ‘superbactérias’ resistentes a medicamentos potencialmente mortais: os resultados mostraram que 23 dos 40 produtos analisados ​​foram positivos para MRSA e beta-lactamases de espectro estendido (ESBL), bactérias que já não respondem ao tratamento antimicrobiano.
+&gt;A análise foi realizada por um laboratório independente sediado na cidade alemã de Colónia, apoiado pela organização DAkkS – o estudo mostra bactérias ligadas a infeções de origem alimentar em 142 produtos de 22 lojas Lidl em Espanha, Alemanha, Itália, Reino Unido e Polónia.
+&gt;As amostras espanholas, adquiridas em Madrid, Valência e Barcelona , ​​revelaram que 17 das 24 amostras, ou seja, 71%, estavam contaminados, valor que contrasta com os resultados obtidos noutros países: um terço dos produtos na Alemanha e 58% no Reino Unido.
+&gt;De acordo com Júlia Elizalde, gestora de campanha do Observatório do Bem-Estar Animal (OBA), em declarações à publicação espanhola, a resistência aos antibióticos nas bactérias surgiu devido ao uso preventivo destes medicamentos nas explorações. “Para evitar doenças como a gripe aviária, os animais recebem antibióticos mesmo quando não estão doentes. Essa superexposição tem provocado o aparecimento de bactérias resistentes, que hoje são encontradas nos frangos embalados vendidos pelo Lidl”, esclarece.
+&gt;O Lidl já negou as acusações, garantindo que realiza controlos de qualidade “exaustivos” através de organizações independentes e credenciadas. “Tanto as autoridades como os serviços de saúde realizam também controlos a todos os nossos fornecedores e à carne de aves que comercializamos nas nossas lojas, garantindo assim que cumprem todos os requisitos da legislação em vigor”, afirmam, salientando que não é a primeira vez que a OBA lança uma denúncia sem verificar as suas informações. “Gostaríamos de enfatizar que as bactérias que a carne fresca de frango pode conter não são uma consequência do método de criação dos nossos fornecedores específicos, mas representam um desafio geral para toda a indústria da carne de aves”, concluem.
+&gt;As infeções resistentes aos medicamentos matam cerca de 1,3 milhões de pessoas por ano em todo o mundo, prevendo-se que o número aumente para 10 milhões até 2050 se não for tomada uma ação.
+&gt;As bactérias multirresistentes podem propagar-se dos animais para os seres humanos através da cadeia alimentar, mas, devido a sensibilidades comerciais, os dados sobre os níveis de bactérias resistentes aos antibióticos nos alimentos não estão amplamente disponíveis.
+&gt;O estudo revelou a presença significativa de patógenos diarreicos na carne de frango: os investigadores relataram que 83% das amostras analisadas em Espanha estão contaminadas com ‘Campylobacter’ ou ‘Escherichia coli’. A primeira é uma bactéria que pode causar desde uma infeção leve até diarreia grave com febre e até doenças como inflamação das articulações ou síndrome de Guillain-Barré.
+&gt;A ‘Escherichia coli’, por sua vez, pode causar desde diarreia até infeções urinárias e até complicações graves como a septicemia.</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2643,7 +3159,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>hoje podem últimas horas portugal país adoro deixar ano mau mim agravado facto próximo ano poderei fazer todos querem fazer relação família piorou sinto melhor solução irme embora depressa possível difícil difícil fazer sinto perdi tudo vou despedirme toda gente professores colegas familiares ajudaram amanhã prometo vou lembrar bonito última vez frente local conheço vista ponte rio tejo desejo boa sorte todos espero ninguém abandonar país</t>
+          <t>Hoje podem ser as minhas últimas 24 horas em Portugal, país que adoro mas que tenho de deixar.
+Este ano foi mau para mim, agravado pelo facto de que no próximo ano não poderei fazer o que todos querem fazer.
+A relação que tinha com a minha família piorou e sinto que a melhor solução é ir-me embora o mais depressa possível.
+É difícil, muito difícil fazer isto.
+Mas sinto que perdi tudo.
+Vou despedir-me de toda a gente: professores, colegas, familiares e aqueles que me ajudaram.
+Amanhã prometo que me vou lembrar de como isto é bonito uma última vez. em frente a um local que conheço com vista para a ponte e o rio Tejo.
+Desejo boa sorte a todos e espero também que ninguém tenha de abandonar este país.
+🇵🇹</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2663,7 +3187,8 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>httpsecosapopteuropaestaaficarparatrasdeclinioeconomicoameacaestadosocialeinvestimentosalertalagardehttpsecosapopteuropaestaaficarparatrasdeclinioeconomicoameacaestadosocialeinvestimentosalertalagarde</t>
+          <t xml:space="preserve">[https://eco.sapo.pt/2024/11/18/europa-esta-a-ficar-para-tras-declinio-economico-ameaca-estado-social-e-investimentos-alerta-lagarde/](https://eco.sapo.pt/2024/11/18/europa-esta-a-ficar-para-tras-declinio-economico-ameaca-estado-social-e-investimentos-alerta-lagarde/)
+</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2683,7 +3208,10 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>i have neighbour who is one of those dirty noisy and aggressive one who if you try to complain about loud music at am or try to complain that they leave their rubbish on the ground and not in the bin threatens you with very violent act last time i got kicked in the face i tried to call the police to report the problem but out of the three time i called the squad car never came to the house when i went to the station they reply that i have proof of what i say i only have the video where they make noise at night the owner of the house say that her all this is not problem and that i must not stress her or she will kick out of the house the two are friend they knew each other from brazil i know this is not good way to solve the problem but it bother that i cant sleep when i pay of my salary in tax</t>
+          <t>I have a neighbour who is one of those dirty, noisy and aggressive ones who if you try to complain about loud music at 3am or try to complain that they leave their rubbish on the ground and not in the bin, threatens you with very violent acts (last time I got kicked in the face).
+I tried to call the police to report the problem, but out of the three times I called the squad car never came to the house, when I went to the station they reply that I have no proof of what I say (I only have the videos where they make noise at night).
+The owner of the house says that for her all this is not a problem and that I must not stress her or she will kick me out of the house (the two are friends, they knew each other from Brazil).
+I know this is not a good way to solve the problem, but it bothers me that I can't sleep when I pay 40% of my salary in taxes.</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2703,7 +3231,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>httpscnnportugaliolptbananacomediantevoltaramacolarumabananaaumaparedevenderamnaporseismilhoesdeeurosfaafdebbechttpscnnportugaliolptbananacomediantevoltaramacolarumabananaaumaparedevenderamnaporseismilhoesdeeurosfaafdebbec banana colada fita adesiva parede vendida dólares seguiuse alvoroço redes sociais debate cansado sobre significado arte criação viral artista maurizio cattelan intitulada comediante provou bom investimento colecionador três edições obra arte ultrapassou estimativas vendida milhões dólares leilão sothebys nova iorque quartafeira leiloeira estimava obra vendida milhão milhões dólares licitação começou dólares durante venda leiloeiro oliver barker descreveu obra icónica perturbadora enquanto brincava vender banana leilão palavras nunca pensei dizer pouco venda sothebys revelou justin sun colecionador chinês fundador plataforma criptomoedas adquirido obra apenas obra arte afirmou sun comunicado imprensa representa fenómeno cultural une mundos arte meme comunidade criptomoedas acredito peça irá inspirar reflexão discussão futuro tornarseá parte história</t>
+          <t>[https://cnnportugal.iol.pt/banana/comediante/voltaram-a-colar-uma-banana-a-uma-parede-venderam-na-por-seis-milhoes-de-euros/20241121/673f6aafd34e94b82907b6ec](https://cnnportugal.iol.pt/banana/comediante/voltaram-a-colar-uma-banana-a-uma-parede-venderam-na-por-seis-milhoes-de-euros/20241121/673f6aafd34e94b82907b6ec)
+&gt;Quando uma banana colada com fita adesiva a uma parede foi vendida por 120.000 dólares em 2019, seguiu-se um alvoroço nas redes sociais e um debate cansado sobre o significado da arte.
+&gt;Mas a criação viral do artista Maurizio Cattelan, intitulada “Comediante”, provou ser um bom investimento para um colecionador: Uma das três “edições” da obra de arte ultrapassou as estimativas e foi vendida por 6,24 milhões de dólares num leilão da Sotheby's em Nova Iorque, esta quarta-feira.
+&gt;A leiloeira estimava que a obra fosse vendida entre 1 milhão e 1,5 milhões de dólares; a licitação começou em 800.000 dólares.
+&gt;Durante a venda, o leiloeiro Oliver Barker descreveu a obra como “icónica” e “perturbadora”, enquanto brincava que vender uma banana em leilão eram “palavras que nunca pensei dizer”.
+&gt;Pouco depois da venda, a Sotheby's revelou que Justin Sun, um colecionador chinês e fundador de uma plataforma de criptomoedas, tinha adquirido a obra.
+&gt;“Esta não é apenas uma obra de arte”, afirmou Sun no comunicado de imprensa. “Representa um fenómeno cultural que une os mundos da arte, dos memes e da comunidade das criptomoedas. Acredito que esta peça irá inspirar mais reflexão e discussão no futuro e tornar-se-á parte da história.”  
+...</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2723,7 +3258,9 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>vou aproveitar anonimato net colocar pergunta atrevo perguntar vivo porque conheço pessoalmente ninguém use tipo bikini parte cuequinha enfiada rego rabo desconfortável ter corda sempre enfiada rabo pareceme pouco confortável intuitos provocativos ofensivos</t>
+          <t>Vou aproveitar o anonimato da net para colocar uma pergunta que não me atrevo a perguntar ao vivo, até porque não conheço pessoalmente ninguém que use.
+Este tipo de bikini, com parte da cuequinha enfiada no rego do rabo não é desconfortável? Ter uma corda sempre enfiada no rabo parece-me pouco confortável. 
+Sem intuitos provocativos, nem ofensivos.</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2743,7 +3280,8 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>procuro democracia apenas vingança dêemme vossas melhores sugestões líquidos colocar dentro frasco apanhar gatunos edit suposto prank rapaziada levo mal usem shampoo x naquele quarto parece comuna toda gente usa coisas un outros objetivo rirnos bocado causar danos permanentes bem opção creme depilatório tantadora</t>
+          <t>Não procuro democracia, apenas vingança.  Dêem-me as vossas melhores sugestões de líquidos para colocar dentro do frasco e apanhar os gatunos. 
+Edit: É suposto ser uma prank rapaziada, eu não levo a mal que me usem shampoo x) Naquele quarto parece uma comuna, toda a gente usa as coisas uns dos outros. O objetivo é rir-nos um bocado sem causar danos permanentes... se bem que a opção do creme depilatório é tantadora...</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2763,7 +3301,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>how the portuguese speak english so well compared to the spanish</t>
+          <t>How the Portuguese speak english so well compared to the Spanish?</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2783,7 +3321,10 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>assistir debate televisivo eleições americana entrevistador perguntou candidatos apenas doi iriam combater flagelo toxicodependência naquele país disse minutos responder caí mim pensei minutos mal teorema pitágoras dava explicar forma generalidade pessoas entendesse quanto problema complexo tipicamente problemas inerentes gestão país aí percebi candidatos respondiam meia dúzia frase belo efeito pré preparadas agradar potenciais eleitores quase sempre sido dita campanha pouco nada diziam sobre resolução problemas gestão país</t>
+          <t xml:space="preserve">Foi a assistir a um debate televisivo para as eleições americanas. 
+O entrevistador perguntou aos candidatos, eram apenas dois, como eles iriam combater o flagelo da toxicodependência naquele país. Depois disse que tinham 3 minutos para responder. 
+Caí em mim e pensei que em 3 minutos mal o teorema de Pitágoras dava para explicar de forma que a generalidade das pessoas o entendesse, quanto mais um problema complexo, como são tipicamente os problemas inerentes à gestão de um país.
+Foi aí que percebi que os candidatos respondiam meia dúzia de frase de belo efeito, pré preparadas para a agradar ao seus potenciais eleitores, que quase sempre já tinham sido ditas em campanha, mas que pouco ou nada diziam sobre a resolução dos problemas e a gestão do país. </t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2803,7 +3344,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>larguem narrativa pcp companhia faz bem ninguém todos sabemos gente assalariados putin vimos apoio ridículo têm eleições ruzzia funciona típico bully deslargame senão voume ti lev trombas assunto fica resolvido acordem façamse homens porque merda resolve bandeirinhas querem paz europa ruzzia sair ucrânia pagar estragos causou visto milhares mortes danos psicológicos nunca recuperadas httpspreviewredditqcgyjenejpgwidthformatpjpgautowebpscbecafeaebdbab</t>
+          <t>Larguem a narrativa do PCP e companhia, que isso não faz bem a ninguém.
+Já todos sabemos que essa gente são assalariados do Putin e vimos o apoio ridículo que têm nas eleições.
+A Ruzzia funciona como um típico bully: "Deslarga-me, senão vou-me a ti." - depois leva nas trombas e o assunto fica resolvido.
+Acordem e façam-se homens, porque esta merda não se resolve com bandeirinhas.
+Se querem paz na Europa, a Ruzzia tem de sair JÁ da Ucrânia e pagar pelos estragos que causou, visto que as milhares de mortes e danos psicológicos nunca serão recuperadas.
+https://preview.redd.it/qc5gyje1n62e1.jpg?width=682&amp;format=pjpg&amp;auto=webp&amp;s=c1bec83360af22e4a6e2b9d9616b070a687484b1</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2823,7 +3369,9 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>olá sentem calor verão suportável crianças jovem adulta sinceramente caos aguentar dia quentes motivação fazer algo férias quase</t>
+          <t>Olá!
+Também sentem que o calor do verão era muito mais suportável quando eram crianças?
+Sou uma jovem adulta e sinceramente é um caos aguentar os dias mais quentes, motivação para fazer algo nas férias é quase 0...</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2843,7 +3391,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>httpswwwcnncomussocialmediachildreninfluencerscecindexhtml</t>
+          <t>https://www.cnn.com/2024/05/29/us/social-media-children-influencers-cec/index.html</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2863,7 +3411,9 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>realidade centenas escolas básicas ciclo pouco todo país escolas restantes ciclos ensino lá caminham sendo segundo líder maior partido centrodireita dito maior regozijo maioria escolas alunos estrangeiros calhar digo importava aferir péssimos resultados pisa relacionados sobrecarga estrangeiros escolas além muitos dominarem língua acomodar todos escolas implica necessariamente turmas número alunos superior desejável possível garantir ensino qualidade</t>
+          <t>Esta é a realidade de centenas de escolas básicas do 1.º ciclo um pouco por todo o país.
+As escolas dos restantes ciclos de ensino para lá caminham, sendo que segundo o líder do maior partido do centro-direita, e dito com o maior regozijo, na maioria das escolas 20% dos alunos já são estrangeiros.
+Se calhar, digo eu, importava aferir se os péssimos resultados no PISA 2023 não estão relacionados com a sobrecarga de estrangeiros nas escolas. É que para além de muitos não dominarem a língua, acomodar todos nas escolas implica necessariamente haver turmas com um número de alunos muito superior ao desejável para ser possível garantir um ensino de qualidade.</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2883,7 +3433,9 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>alarmismo muitas afirmações falsas veiculadas pessoas deviam responsáveis ano ocorrer muitos incêndios ano particularmente problemático incêndios amazónia parece existir nenhuma preocupação causa disso gostaria dizer estranho parece razão alarmismo nunca causa amazónia</t>
+          <t xml:space="preserve">Com muito alarmismo e muitas afirmações falsas veiculadas por pessoas que deviam ser mais responsáveis, 
+Este ano estão a ocorrer muitos incêndios e está a ser um ano particularmente problemático com os incêndios na Amazónia, mas parece não existir nenhuma preocupação por causa disso. 
+Gostaria de dizer que é estranho, mas não me parece, a razão para o alarmismo nunca foi por causa da Amazónia. </t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2903,7 +3455,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>httpspplwaresapoptredessociaisafinaleraverdadeofacebookeagoogleestiveramaouviroquedizianosmartphone</t>
+          <t>https://pplware.sapo.pt/redes_sociais/afinal-era-verdade-o-facebook-e-a-google-estiveram-a-ouvir-o-que-dizia-no-smartphone/</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2923,7 +3475,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>httpswwwrtpptnoticiasmundoiraolancaataquededronescontraisraelasituacaoaominutoehttpswwwrtpptnoticiasmundoiraolancaataquededronescontraisraelasituacaoaominutoe</t>
+          <t>[https://www.rtp.pt/noticias/mundo/irao-lanca-ataque-de-drones-contra-israel-a-situacao-ao-minuto\_e1564162](https://www.rtp.pt/noticias/mundo/irao-lanca-ataque-de-drones-contra-israel-a-situacao-ao-minuto_e1564162)</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2943,7 +3495,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>lendo comentários post anterior desenrolar campanha fiz algumas alterações</t>
+          <t>Lendo os comentários do post anterior e também com o desenrolar da campanha, fiz algumas alterações</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2963,7 +3515,10 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ver notícias desta confusão toda fcp quantidade gente sai rua ir futebol neste caso pior ainda sai rua manifestar contra treinador contestar decisões presidente clube bola saírem rua contestarem decisões políticos defenderem direitos pedirem melhores condições si todos portuguese saúde segurança educação melhores condições competitividade salarial etc etc causa meia dúzia gatos pingados cima rotunda tentar imitar coletes amarelos futebol move multidões multidões ficam cada burras cegas tapa olhos canais ver cheios deste assunto futebol futebol futebol epá desculpem irritame prioridades toda contrário fds</t>
+          <t>Estou a ver umas notícias desta confusão toda com o FCP. A quantidade de gente que sai à rua para ir ao futebol mas não só.. neste caso pior ainda, que sai à rua para se manifestar contra um treinador e contestar as decisões do presidente de um clube da bola?!
+E saírem à rua para contestarem decisões de políticos? E defenderem os seus direitos? E pedirem melhores condições para si e para todos os portugueses na saúde, segurança, educação, melhores condições e competitividade salarial, etc, etc.. Quando é esta a causa são meia dúzia de gatos pingados em cima de uma rotunda a tentar imitar os coletes amarelos. 
+O futebol move multidões. E essas multidões ficam cada mais burras e cegas com isso. São só tapa olhos.. os canais que estou a ver estão cheios deste assunto. Futebol, futebol, futebol. 
+Epá desculpem, isto irrita-me. As prioridades estão todas ao contrário fds…</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2983,7 +3538,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>olá começo post contar episódio rápido deixou vontade dar abraço àqueles tipos ia conduzir atrás camião lixo algo acontece vez né naquela rua havia hipótese ultrapassar restava outra opção senão esperar cada ponto senhores recolhiam lixo contentores paragens última paragem carro atrás mim começa apitar põe mão mandar vir claramente senhores ficaram meios nervosos começam acelerar passo contentores despachar ainda escorregou bateu joelho chão vi nesse momento expressão tristeza nervosismo nele miúdo ano talvez fiquei vontade sair darlhe abraço calhar combinar pegar nun sacos lixo mandar dentro carro outro tipo queria lixarlhes vida resto viagem pra casa pensar trabalhos tramados pessoal lev cabeça clientes arrogantes mal educados restaurantes atendimento público geral lojas obras trabalhos pesados motoristas autocarros outros limpezas etc trabalham destes trabalhos deixo abraço força nisso ignorem simplesmente pessoas acham sabem outros difícil deixem aqui quiserem vosso abraço outros trabalhos mencionei aqui bjs abraços</t>
+          <t>Olá!
+Começo o post por contar um episódio rápido mas que me deixou com vontade de dar um abraço àqueles tipos. Ia a conduzir atrás de um camião do lixo (algo que acontece de vez em quando né?). Naquela rua não havia hipótese de ultrapassar por isso não restava outra opção senão esperar em cada ponto em que os senhores recolhiam o lixo dos contentores. Foram 3 paragens. Na última paragem o carro atrás de mim começa a apitar e põe a mão de fora a mandar vir claramente para eles. Os senhores ficaram meios nervosos com aquilo e começam a acelerar o passo com os contentores para despachar aquilo. Um deles ainda escorregou e bateu com o joelho no chão. E vi nesse momento a expressão de tristeza / nervosismo nele - era um miúdo com os seus 20 anos talvez. E fiquei com vontade de sair e dar-lhe um abraço só. E depois se calhar combinar com eles pegar nuns sacos do lixo e mandar para dentro do carro do outro tipo. Mas não queria lixar-lhes a vida a eles.
+E com isto fui o resto da viagem pra casa a pensar em trabalhos que são tramados e em que o pessoal leva na cabeça de clientes arrogantes e mal educados. Restaurantes, atendimento ao público no geral, lojas, obras, trabalhos pesados, motoristas de autocarros e outros, limpezas, etc.
+Se trabalham num destes trabalhos deixo o meu abraço e força nisso! Ignorem simplesmente as pessoas que acham que sabem mais que os outros, por muito difícil que seja!
+E deixem aqui se quiserem o vosso abraço a outros trabalhos que não mencionei aqui.
+Bjs / Abraços</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3003,7 +3563,8 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ontem dia mau voltei ler livro adoro principezinho antoine saintexupery excerto acho toda gente devia saber pessoas grandes gostam números falamos novo amigo nunca perguntam essencial nunca dizem som voz quais jogos preferidos colecciona borboletas perguntam idade quantos irmãos quanto pesa quanto pai ganha então pensam conhecem disseres adultos vi linda casa tijolo corderosa gerânios janelas pombas telhado conseguem imaginar casa preciso dizerlhes vi casa vale cem mil franco então exclamam bonita</t>
+          <t xml:space="preserve">Ontem tive um dia mau e voltei a ler um livro que adoro. É O Principezinho, de Antoine de Saint-Exupery, e há um excerto dele que acho que toda a gente devia saber:
+As pessoas grandes gostam de números. Quando lhes falamos de um novo amigo, nunca perguntam o essencial. Nunca dizem: "Qual é o som da voz dele? Quais são os jogos preferidos dele? Ele colecciona borboletas?" Perguntam: "Que idade é que ele tem? Quantos irmãos é que ele tem? Quanto é que ele pesa? Quanto é que o pai dele ganha?". Só então pensam que o conhecem. Se disseres aos adultos: "Vi uma linda casa de tijolo cor-de-rosa, com gerânios nas janelas e pombas no telhado...", eles não conseguem imaginar essa casa. É preciso dizer-lhes: "Vi uma casa que vale cem mil francos". Então eles exclamam: "Que bonita!" </t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3023,7 +3584,10 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>httpswwwaterceiranoiteorgaofascismoapenasoqueefascismohttpswwwaterceiranoiteorgaofascismoapenasoqueefascismo todo contraproducente além erro histórico gritante apelidar fascismo fascismo apenas porque objeto assim apelidado corresponde escolhas atitudes articulam posições natureza conservadora assumidamente direita extremadireita atual tirando curtas franjas completamente retrógradas ainda sentem nostalgia regime fascista século passado formalmente fascista ante populista xenófoba neoliberal defensora possibilidades democracia oferece chamála fascista anacrónico instala confusão desarmando cidadãos perante iniciativas natureza bem diversa fascista século passado neste caso menos modo algum fascista direita democrática tratada desse modo cortada relação correntes progressistas fazem tende empurrada braços daquela outra extremum assumidamente antidemocrática fascista pessoas forma absurda vi chamar assim homens mulheres próximos p exibem escolhas pontuais natureza autoritária complacência direita interesses associados mundo negócios disseminar logro nada lev salvo oferecer faz ficção viver permanente guerra contra todos nela confundindo inimigos ocasionais aliados</t>
+          <t>[https://www.aterceiranoite.org/2024/04/08/ao-fascismo-apenas-o-que-e-fascismo/](https://www.aterceiranoite.org/2024/04/08/ao-fascismo-apenas-o-que-e-fascismo/)
+&gt;É de todo contraproducente, além de um erro histórico gritante, apelidar de fascismo o que não é fascismo, apenas porque o objeto assim apelidado corresponde a escolhas e atitudes que articulam com posições de natureza conservadora ou assumidamente de direita. A extrema-direita atual, tirando curtas franjas completamente retrógradas e que ainda sentem nostalgia pelos regimes fascistas do século passado, não é formalmente fascista: é antes populista e xenófoba, mas também neoliberal e defensora das possibilidades que a democracia lhe oferece. Chamá-la de «fascista» é anacrónico e instala a confusão, desarmando os cidadãos perante as suas iniciativas, de uma natureza bem diversa da dos fascistas do século passado.  
+&gt;  
+&gt;Como, e neste caso muito menos, de modo algum é «fascista» a direita democrática, que, ao ser tratada desse modo, cortada a relação com as correntes progressistas que o fazem, tende a ser empurrada para os braços daquela outra, mais extrema e assumidamente antidemocrática. Como não são «fascistas» também as pessoas – de forma absurda, até já vi chamar assim até a homens e mulheres próximos do PS – que exibem escolhas pontuais de natureza autoritária ou de complacência para com a direita e para com interesses associados ao mundo dos negócios. Disseminar este logro a nada leva, salvo a oferecer a quem o faz a ficção de viver em permanente guerra contra todos, nela confundindo inimigos e ocasionais aliados.</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3043,7 +3607,8 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditguvlapgnoncjpgwidthformatpjpgautowebpseacbfbeebbedabab</t>
+          <t>&amp;#x200B;
+https://preview.redd.it/guvla8pgnonc1.jpg?width=1028&amp;format=pjpg&amp;auto=webp&amp;s=300eacb9fb5073e4713e54b3be93d08a1b751ab3</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3063,7 +3628,8 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>xb jornal notícias dezembro httpspreviewredditkkhzdptcjpgwidthformatpjpgautowebpsebeebcbfedcabebfaaa</t>
+          <t>&amp;#x200B;
+[Jornal de notícias 28 dezembro de 2023 ](https://preview.redd.it/3k19khzdpt9c1.jpg?width=318&amp;format=pjpg&amp;auto=webp&amp;s=0e26be611eb70c4bf598e5dc1ab85e6bf2a0a07a)</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3083,7 +3649,23 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>boa vinha pedir opinião pais filhos algum tipo deficiência necessidade guiada mãe hoje ruas país assisti mãe dizer filha cheiro mij ten estás todo mij ten vergonha seres assim outros insultos sent necessidade intervir mãe mesma queria entrar conflito comigo pedi simplesmente sra falar assim menina vinha cima mim tudo óbvio disseme meter educação filha blablabla disse professora feito escândalo rua toda gente olhar vireilhe costa disse boa professora assim país precisa tom alto evitar subir conversa oiçoa dizer jeito insulto cidadão fiquei pensar assunto decidi perceber pais aqui filhos mesma situação explicarem passei verdadeiramente limites nohateplease upd idade menos superior ano upd obrigada todos x responderam</t>
+          <t>Boas, vinha pedir opinião de pais que tenham filhos com algum tipo de deficiência (com necessidade de ser guiada pela mãe).
+Hoje numa das ruas do nosso país, assisti a uma mãe a dizer a uma filha : 
+Que cheiro a mij* que tu tens.
+Tu estás todo mij* da
+Não tens vergonha de seres assim.
+Entre outros insultos que senti mesmo necessidade de intervir e a mãe da mesma queria entrar em conflito comigo.
+Eu pedi simplesmente à sra para não falar assim com a menina. 
+E ela já vinha para cima de mim com tudo. 
+Como é óbvio disse-me para não me meter, e na educação da filha, blablabla 
+E disse: eu sou professora
+Como ela já tinha feito escândalo na rua e tinha toda a gente a olhar, virei-lhe costas e disse: 
+boa, é uma professora assim que o nosso país precisa (mas não em tom muito alto) para evitar subir muito a conversa com ela.
+Oiço-a dizer, em jeito de insulto : "você é que é um cidadão"
+Fiquei a pensar no assunto e decidi perceber se há pais aqui com filhos na mesma situação para me explicarem se passei verdadeiramente os limites. 
+#noHatePlease
+Upd: idade, pelo menos, superior a 15 anos.
+Upd3: obrigada a todos os x por responderam!</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3103,7 +3685,8 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>jornal notícias abril httpspreviewredditfagficfxcjpgwidthformatpjpgautowebpsabecdfebafb</t>
+          <t xml:space="preserve">[Jornal de Notícias 29 de abril de 2024](https://preview.redd.it/fa7g8fic2fxc1.jpg?width=2060&amp;format=pjpg&amp;auto=webp&amp;s=a5b4621955e9861577c55977df20411e5b4afb03)
+</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3123,7 +3706,8 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewredditcdfgvhfxncjpgwidthformatpjpgautowebpsaafbdadcfa</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 12 de março de 2024](https://preview.redd.it/cdf3g3vhfxnc1.jpg?width=1677&amp;format=pjpg&amp;auto=webp&amp;s=064aa263658412f12627b9d8a90dc9f8a6275659)</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3143,7 +3727,8 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewredditsywhremgncjpgwidthformatpjpgautowebpsbdaceeacfeffacc</t>
+          <t>&amp;#x200B;
+[Jornal de notícias 3 de março de 2024](https://preview.redd.it/sywhremg23nc1.jpg?width=1756&amp;format=pjpg&amp;auto=webp&amp;s=030911b4da3780ceea5cf1835e56f8f7a081c78c)</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3163,7 +3748,10 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>neste debate todo sórdido diretora recrutamento aubay portugal consultora informática lamenta fim regime rnh segundo mesma tornouse difícil atrair estrangeiros altamente qualificados portugal portugal autosuficiente nesse aspeto dito perguntome portuguese cheguem desempenhar funções altamente especializadas empresa necessita pagam oferecem condições salariais justas sendo portuguese preferem trabalhar noutro país área daí fiquei genuinamente curioso</t>
+          <t>Neste debate, todo ele sórdido, a diretora de recrutamento da Aubay Portugal, uma consultora informática, lamenta o fim do regime dos RNH.
+Segundo a mesma, tornou-se muito mais difícil atrair estrangeiros altamente qualificados para Portugal, e Portugal não é auto-suficiente nesse aspeto. 
+Dito isto, pergunto-me: não há portugueses que cheguem para desempenhar as funções “altamente especializadas” de que esta empresa necessita; ou não pagam e oferecem as condições salariais justas sendo que, por isso, os portugueses preferem trabalhar noutro país?
+Não sou da área, daí que fiquei genuinamente curioso.</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3183,7 +3771,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>httpswwwpublicoptazulnoticiaministeriojusticacondenadodestruircoloniaandorinhastribunallourinhaoriginserpauto</t>
+          <t>https://www.publico.pt/2024/12/04/azul/noticia/ministerio-justica-condenado-destruir-colonia-andorinhas-tribunal-lourinha-2114436?origin=serp_auto</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3203,7 +3791,8 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>jornal notícias httpspreviewredditxyrjhrdjpgwidthformatpjpgautowebpseccebbccbbfdddb</t>
+          <t xml:space="preserve">[Jornal de Notícias 21-5-2024](https://preview.redd.it/xyr3jhr3602d1.jpg?width=340&amp;format=pjpg&amp;auto=webp&amp;s=e2024c551ce724b7bc9cb61998485b8f5dd7d33b)
+</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3223,7 +3812,10 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>corto relações amizades tóxicas fizeram pensaram amigosas apoiam criticam deixo falar</t>
+          <t>Eu corto relações com amizades tóxicas 😅
+Já fizeram? Pensaram?
+Amigos/as que não me apoiam e só criticam deixo de falar
+E vocês?</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3243,7 +3835,13 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>bom dia conta throwaway f marido m portuguese vivemos junto ano estando casados doi sofre depressão ansiedade sofro depressão muitos ano caso depressão recente sido difícil combater entrou burnout trabalho suporta sequer ideia aguentar tanto tempo reforma trabalho poi sido capaz tal gravidade cronicidade problemas saúde mentais entanto aufiro rendimentos passivos ordem mensais marido neste episódio depressivo burnout sente aguenta tentado pensar soluções sabemos fazer despesas fixas ordem mensais situações imprevistas vezes surgem tratados acompanhados pouco tempo ainda tomo medicação ano grandes melhorias imóvel renda pagamos sabemos fazer medo arriscar negócio marido medo largar emprego ficar garantias estabilidade estabilidade psicológica importante recuperar depressão burnout demo volta volta cabeça tentar pensar soluções vezes dava jeito ideia objetiva caixa fariam nesta situação agradeço leu aqui alguma ideia possa ajudar gostamos outro queremos apoiar mutuamente lutar junto gostaríamos tanto finalmente poder felizes edit economias poucas</t>
+          <t>Bom dia. Esta é uma conta throwaway. Eu (37F) e o meu marido (56M), portugueses, vivemos juntos há 4 anos, estando casados há dois. Ele sofre de depressão e ansiedade e eu também sofro de depressão há muitos anos. No caso dele a depressão é mais recente, mas tem sido difícil de combater. Ele entrou em burnout no trabalho e já não suporta sequer a ideia de aguentar tanto tempo até à reforma. Eu não trabalho pois também não tenho sido capaz tal é a gravidade e cronicidade dos meus problemas de saúde mentais. No entanto aufiro rendimentos passivos na ordem dos 500€ mensais.
+O meu marido neste episódio depressivo e de burnout sente que não aguenta mais. Temos tentado pensar em soluções mas não sabemos o que fazer. As nossas despesas fixas são na ordem dos 600€ mensais, fora situações imprevistas que por vezes surgem.
+Estamos a ser tratados e acompanhados, mas há pouco tempo ainda. Eu já tomo medicação há anos sem grandes melhorias.
+Tenho um imóvel. Renda não pagamos. Não sabemos o que fazer. Temos medo de arriscar num negócio. O meu marido tem medo de largar o emprego e ficar sem garantias de estabilidade. Mas a estabilidade psicológica para ele seria muito mais importante para ele recuperar da depressão e burnout 
+Já demos voltas e voltas à cabeça a tentar pensar em soluções? Por vezes dava jeito uma ideia de fora, objetiva ou fora da caixa. O que fariam nesta situação.
+Agradeço muito a quem leu até aqui e tiver alguma ideia que nos possa ajudar. Nós gostamos muito um do outro e queremos nos apoiar mutuamente e lutar juntos e gostaríamos tanto de finalmente poder ser felizes.
+Edit: as nossas economias são poucas.</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3263,7 +3861,8 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>jornal notícias junho httpspreviewredditkfiwhcwdjpgwidthformatpjpgautowebpsbaefdddfefcabeefdf</t>
+          <t xml:space="preserve">[Jornal de Notícias junho de 2024](https://preview.redd.it/kfiw3hc5w47d1.jpg?width=994&amp;format=pjpg&amp;auto=webp&amp;s=b21a63e9fdd6d2663fe3f35c7ab775e476efd52f)
+</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3283,7 +3882,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>consciente lembrome un ano atrás ter ido fazer caminhada praia fiz cerca km areia cada lado passar praia havia grande alarido volta nadador salvador aproximeime percebi rapariga afogado sido apanhada onda pouco maior nadador salvador distraído dizia nadador salvador ano nunca acontecido nada morte afogamento rápida silenciosa nadador salvador consciente sempre atento distrairse pode ter consequência morte alguém porque li comentário post alguém pedia sugestões empregos dessem pouco trabalho alguém sugeria nadador salvador</t>
+          <t xml:space="preserve">Para quem for consciente. 
+Lembro-me de uns anos atrás ter ido fazer uma caminhada pela praia, fiz cerca de 5 km pela areia, para cada lado.
+Ao passar numa praia havia um grande alarido em volta de um nadador salvador. Aproximei-me e percebi que uma rapariga se tinha afogado. Tinha sido apanhada por uma onda um pouco maior e o nadador salvador estava distraído. 
+Dizia que era nadador salvador há 11 anos e nunca tinha acontecido nada. 
+A morte por afogamento é rápida e silenciosa. Um nadador salvador consciente tem de estar sempre atento. Distrair-se pode ter como consequência a morte de alguém. 
+Isto porque li num comentário a um post  em que alguém pedia sugestões para empregos que dessem pouco trabalho alguém sugeria ser nadador salvador.  </t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3303,7 +3907,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>boa tarde pessoal espero bem gostaria ajuda podemos fazer vou detalhar esposa trabalha salão beleza junto doi gajos namorados morador vizinho cima betinho deve ter torno ano fica vandalizando estabelecimento jogando fez ovos junto amigo idiotas batem vidro salão durante dia fica intimidando trabalhadores clientes vizinhos aguentam tanta baderna festas gritarias noite toda sabem fazer policia chamada diversas vezes vem local meninos ficam debochando cara polícia nada faz coisas intensificado jogando coisas cadeiras etc varanda próximo carros estacionados pra intimidar casal homossexual acham fracos tiram vantagem disso esposa brasileira forte sangue quente vai acabar castrando arrumando problema justiça incompetência polícia dar surra arrancar dentes alguém outra sugestão agradeço esposa rapazes querem trabalhar pagar impostos paz</t>
+          <t>Boa tarde pessoal, espero que estejam bem. Gostaria de ajuda no que podemos fazer, vou detalhar:
+Minha esposa trabalha num salão de beleza, junto com dois gajos que são namorados. O morador vizinho de cima é "Betinho", deve ter em torno de 18 anos e fica vandalizando o estabelecimento jogando fezes e ovos junto com seus amigos idiotas. Batem no vidro do salão durante o dia e fica intimidando os trabalhadores e clientes. Os vizinhos deles não aguentam mais tanta baderna, festas e gritarias a noite toda e não sabem mais o que fazer. A Policia já foi chamada diversas vezes, vem até o local e os meninos ficam debochando da cara da polícia que nada faz. 
+As coisas tem se intensificado mais, estão jogando coisas (cadeiras etc) da varanda próximo aos carros estacionados pra intimidar e pelo casal ser homossexual acham que são fracos e tiram vantagem disso. Minha esposa que é brasileira, forte e sangue quente, vai acabar castrando um deles e arrumando problema na justiça por incompetência da polícia.
+Fora dar uma surra e arrancar os dentes deles, alguém tem outra sugestão?
+Agradeço! Minha esposa e os rapazes só querem trabalhar e pagar seus impostos em paz.</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3323,7 +3931,8 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>reddit eliminar provas contra maduro vejam vídeo gravei mostrar link vídeo aqui alojado queria arriscar carregálo plataforma sistema youtube httpsstreamablecomzervzhttpsstreamablecomzervz</t>
+          <t>Reddit está a eliminar provas contra Maduro, vejam o vídeo que gravei a mostrar isso:
+O link do vídeo está aqui alojado, não queria arriscar carregá-lo numa plataforma de "sistema" como o Youtube: [https://streamable.com/zervz0](https://streamable.com/zervz0)</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -3343,7 +3952,13 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>agência cgd recentemente remodelada atendido empregada deve ter vinte poucos ano reparei forma posto trabalho ergonomicamente mal desenhado enquanto escrevia computador pergunteilhe dores costa poi posição monitor deveria ter aqui todos dores costa respondeu poi admira posição monitor provoca deixam alterar posição ter monitor assim podermos olhar frente porta pronto agência cgd recentemente remodelada onde postos trabalho feitos tal forma pouco tempo todos funcionários problemas costa provavelmente irão ter faltar devido certamente desenhou sabia problemas inevitavelmente provoca forma desenhados</t>
+          <t xml:space="preserve">Fui a uma agência da CGD. **Recentemente remodelada.** 
+Fui atendido por uma empregada que deve ter vinte e poucos anos. 
+Reparei que a forma como estava o posto de trabalho era ergonomicamente mal desenhado. Enquanto ela escrevia no computador perguntei-lhe se ela não tinha dores nas costas, pois pela posição do monitor deveria ter.
+Aqui todos temos dores nas costas. - respondeu
+Pois, não me admira, a posição do monitor provoca isso.
+- Não nos deixam alterar esta posição - temos de ter o monitor assim, para podermos olhar em frente, para a porta.
+E pronto, é isto, uma agência da CGD, recentemente remodelada, onde os postos de trabalho estão feitos de tal forma que em pouco tempo todos os funcionários estão com problemas nas costas. E muito provavelmente irão por ter de faltar devido a isso. E certamente quem os desenhou sabia os problemas que inevitavelmente provoca a forma como eles estão desenhados. </t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3363,7 +3978,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>httpsjornaldoalgarveptprecodaaguanoalgarveabaixodamedianacionaleerrocrassodizexpresidentedaapahttpsjornaldoalgarveptprecodaaguanoalgarveabaixodamedianacionaleerrocrassodizexpresidentedaapa expresidente agência portuguesa ambiente nuno lacasta defendeu hoje faro erro crasso tarifário água algarve abaixo média nacional plenum situação escassez hídrica tarifas água urbana algarve média inferiores média nacional região escassez hídrica ter água barata zona abundância erro análise crasso disse expresidente apa deixou cargo final janeiro após cerca ano funções nuno lacasta falava debate sobre crise hídrica algarve promovido ordem economistas delegação regional algarve realizado farohttpsjornaldoalgarveptsfaro docente universitário consultor ambiente sustentabilidade manter preços atualmente cobrados serviços abastecimento setor urbano inclui turismo significa dar incentivo económico óbvio pessoas pouparem água segundo nuno lacasta três disfunções termos económicos encontra análise temática escassez água algarve outras duas disfunções passam existência segundos contadores normalmente utilizados rega jardins enchimento piscinas têm tarifário favorável utilização água potável rega possível andarmos gastar rega água beber questionou acrescentando andamos gastar dinheiro impostos despoluir limpar água beber entanto utilizamos água regar espaços verdes lavar carros nuno lacasta criticou ainda nível perdas água abastecimento público algarve cento dependente cada município considerando país complacente situação dormiu sombra bananeira apesar forte investimento realizado setor últimas décadas expresidente agência portuguesa ambiente considerou região pode desperdiçar plano investimentos milhões euro fundos plano recuperação resiliência prr defendeu construção segunda estação dessalinização além daquela prevista instalar albufeira chuvas março deramnos oito meses momento cidade cabo desapareceu ter chovido fevereiro março afirmou alusão crise hídrica cidade áfrica sul passou quase levando corte total abastecimento água chamado dia zero barragens algarve dispõem atualmente hectómetros cúbicos hm água período homólogo ano passado situandose capacidade total revelou semana agência portuguesa ambientehttpswwwapambientept apa apesar chuvas registadas primeiros meses ano período páscoa terem melhorado reservas região autoridades ambientais têm vindo alertar situação seca mantém algarve necessário continuar adotar medidas controlo consumo algarve situação alerta devido seca desde fevereiro tendo governo aprovado conjunto medidas restrição consumo nomeadamente redução setor urbano incluindo turismo agricultura medidas somamse outras combate perdas redes abastecimento utilização água tratada rega espaços verdes ruas campos golfe suspensão atribuição títulos utilização recursos hídricos governo admitiu elevar nível restrições declarando estado emergência ambiental calamidade caso medidas agora implementadas insuficientes fazer face escassez hídrica regiãohttpsjornaldoalgarveptprecodaaguanoalgarveabaixodamedianacionaleerrocrassodizexpresidentedaapao expresidente agência portuguesa ambiente nuno lacasta defendeu hoje faro erro crasso tarifário água algarve abaixo média nacional plenum situação escassez hídricaas tarifas água urbana algarve média inferiores média nacional região escassez hídrica ter água barata zona abundância erro análise crasso disse expresidente apa deixou cargo final janeiro após cerca ano funçõesnuno lacasta falava debate sobre crise hídrica algarve promovido ordem economistas delegação regional algarve realizado faropara docente universitário consultor ambiente sustentabilidade manter preços atualmente cobrados serviços abastecimento setor urbano inclui turismo significa dar incentivo económico óbvio pessoas pouparem águasegundo nuno lacasta três disfunções termos económicos encontra análise temática escassez água algarveashttpalgarveas outras duas disfunções passam existência segundos contadores normalmente utilizados rega jardins enchimento piscinas têm tarifário favorável utilização água potável regacomo possível andarmos gastar rega água beber questionou acrescentando andamos gastar dinheiro impostos despoluir limpar água beber entanto utilizamos água regar espaços verdes lavar carrosnuno lacasta criticou ainda nível perdas água abastecimento público algarve cento dependente cada município considerando país complacente situação dormiu sombra bananeira apesar forte investimento realizado setor últimas décadaso expresidente agência portuguesa ambiente considerou região pode desperdiçar plano investimentos milhões euro fundos plano recuperação resiliência prr defendeu construção segunda estação dessalinização além daquela prevista instalar albufeiraas chuvas março deramnos oito meses momento cidade cabo desapareceu ter chovido fevereiro março afirmou alusão crise hídrica cidade áfrica sul passou quase levando corte total abastecimento água chamado dia zeroas barragens algarve dispõem atualmente hectómetros cúbicos hm água período homólogo ano passado situandose capacidade total revelou semana agência portuguesa ambiente apaapesar chuvas registadas primeiros meses ano período páscoa terem melhorado reservas região autoridades ambientais têm vindo alertar situação seca mantém algarve necessário continuar adotar medidas controlo consumoo algarve situação alerta devido seca desde fevereiro tendo governo aprovado conjunto medidas restrição consumo nomeadamente redução setor urbano incluindo turismo agriculturaa medidas somamse outras combate perdas redes abastecimento utilização água tratada rega espaços verdes ruas campos golfe suspensão atribuição títulos utilização recursos hídricoso governo admitiu elevar nível restrições declarando estado emergência ambiental calamidade caso medidas agora implementadas insuficientes fazer face escassez hídrica região</t>
+          <t>[https://jornaldoalgarve.pt/preco-da-agua-no-algarve-abaixo-da-media-nacional-e-erro-crasso-diz-ex-presidente-da-apa/](https://jornaldoalgarve.pt/preco-da-agua-no-algarve-abaixo-da-media-nacional-e-erro-crasso-diz-ex-presidente-da-apa/)
+&gt;O ex-presidente da Agência Portuguesa do Ambiente Nuno Lacasta defendeu hoje, em Faro, que é um erro crasso o tarifário da água no Algarve estar abaixo da média nacional, em plena situação de escassez hídrica.
+&gt;**“As tarifas de água urbanas do Algarve são, em média, 15 a 17% inferiores à média nacional. Numa região de escassez \[hídrica\] (…), ter água mais barata do que em zonas de abundância é um erro de análise crasso”, disse o ex-presidente da APA, que deixou o cargo no final de janeiro após cerca de 12 anos em funções.**
+&gt;Nuno Lacasta falava num debate sobre a crise hídrica no Algarve promovido pela Ordem dos Economistas – Delegação Regional do Algarve, realizado em [Faro](https://jornaldoalgarve.pt/?s=Faro).
+&gt;Para o docente universitário e consultor em ambiente e sustentabilidade, manter os preços atualmente cobrados pelos serviços de abastecimento no setor urbano, que inclui o turismo, significa “dar um incentivo económico óbvio para as pessoas não pouparem água”.
+&gt;Segundo Nuno Lacasta, esta é uma de três “disfunções”, em termos económicos, que encontra na análise à temática da escassez de água no Algarve.
+&gt;**As outras duas disfunções passam pela existência dos segundos contadores, normalmente utilizados para rega de jardins ou enchimento de piscinas e que têm um tarifário mais favorável, e pela utilização de água potável na rega.**
+&gt;“Como é possível andarmos a gastar para rega água para beber”, questionou, acrescentando: “Andamos a gastar dinheiro dos nossos impostos para despoluir e para limpar a água para beber. E, no entanto, utilizamos esta água para regar espaços verdes ou lavar carros”.
+&gt;Nuno Lacasta criticou ainda o nível de perdas de água no abastecimento público do Algarve, “entre 20 a 40 por cento, dependente de cada município”, considerando que o país foi “complacente” com a situação e dormiu “à sombra da bananeira”, apesar do forte investimento realizado no setor nas últimas décadas.
+&gt;O ex-presidente da Agência Portuguesa do Ambiente considerou que a região “não pode desperdiçar” o plano de investimentos de 240 milhões de euros, com fundos do Plano de Recuperação e Resiliência (PRR), e defendeu a construção de uma segunda estação de dessalinização, além daquela que está prevista para instalar em Albufeira.
+&gt;“As chuvas de março deram-nos oito meses. Mas o momento Cidade de Cabo não desapareceu por ter chovido em fevereiro e março”, afirmou, numa alusão à crise hídrica que a cidade de África do Sul passou em 2018, quase levando a um corte total no abastecimento de água, o chamado ‘dia zero’.
+&gt;As barragens do Algarve dispõem atualmente de mais 6,6 hectómetros cúbicos (hm3) de água do que no período homólogo do ano passado, situando-se nos 45% da sua capacidade total, revelou esta semana a [Agência Portuguesa do Ambiente](https://www.apambiente.pt/) (APA).
+&gt;Apesar de as chuvas registadas nos primeiros meses do ano e no período da Páscoa terem melhorado as reservas na região, as autoridades ambientais têm vindo a alertar que a situação de seca se mantém no Algarve e é necessário continuar a adotar medidas de controlo do consumo.
+&gt;O Algarve está em situação de alerta devido à seca desde 05 de fevereiro, tendo o Governo aprovado um conjunto de medidas de restrição ao consumo, nomeadamente a redução de 15% no setor urbano, incluindo o turismo, e de 25% na agricultura.
+&gt;A estas medidas somam-se outras como o combate às perdas nas redes de abastecimento, a utilização de água tratada na rega de espaços verdes, ruas e campos de golfe ou a suspensão da atribuição de títulos de utilização de recursos hídricos.
+&gt;O Governo já admitiu elevar o nível das restrições, declarando o estado de emergência ambiental ou de calamidade, caso as medidas agora implementadas sejam insuficientes para fazer face à escassez hídrica na regiãohttps://jornaldoalgarve.pt/preco-da-agua-no-algarve-abaixo-da-media-nacional-e-erro-crasso-diz-ex-presidente-da-apa/O ex-presidente da Agência Portuguesa do Ambiente Nuno Lacasta defendeu hoje, em Faro, que é um erro crasso o tarifário da água no Algarve estar abaixo da média nacional, em plena situação de escassez hídrica.“As tarifas de água urbanas do Algarve são, em média, 15 a 17% inferiores à média nacional. Numa região de escassez \[hídrica\] (…), ter água mais barata do que em zonas de abundância é um erro de análise crasso”, disse o ex-presidente da APA, que deixou o cargo no final de janeiro após cerca de 12 anos em funções.Nuno Lacasta falava num debate sobre a crise hídrica no Algarve promovido pela Ordem dos Economistas – Delegação Regional do Algarve, realizado em Faro.Para o docente universitário e consultor em ambiente e sustentabilidade, manter os preços atualmente cobrados pelos serviços de abastecimento no setor urbano, que inclui o turismo, significa “dar um incentivo económico óbvio para as pessoas não pouparem água”.Segundo Nuno Lacasta, esta é uma de três “disfunções”, em termos económicos, que encontra na análise à temática da escassez de água no [Algarve.As](http://Algarve.As) outras duas disfunções passam pela existência dos segundos contadores, normalmente utilizados para rega de jardins ou enchimento de piscinas e que têm um tarifário mais favorável, e pela utilização de água potável na rega.“Como é possível andarmos a gastar para rega água para beber”, questionou, acrescentando: “Andamos a gastar dinheiro dos nossos impostos para despoluir e para limpar a água para beber. E, no entanto, utilizamos esta água para regar espaços verdes ou lavar carros”.Nuno Lacasta criticou ainda o nível de perdas de água no abastecimento público do Algarve, “entre 20 a 40 por cento, dependente de cada município”, considerando que o país foi “complacente” com a situação e dormiu “à sombra da bananeira”, apesar do forte investimento realizado no setor nas últimas décadas.O ex-presidente da Agência Portuguesa do Ambiente considerou que a região “não pode desperdiçar” o plano de investimentos de 240 milhões de euros, com fundos do Plano de Recuperação e Resiliência (PRR), e defendeu a construção de uma segunda estação de dessalinização, além daquela que está prevista para instalar em Albufeira.“As chuvas de março deram-nos oito meses. Mas o momento Cidade de Cabo não desapareceu por ter chovido em fevereiro e março”, afirmou, numa alusão à crise hídrica que a cidade de África do Sul passou em 2018, quase levando a um corte total no abastecimento de água, o chamado ‘dia zero’.As barragens do Algarve dispõem atualmente de mais 6,6 hectómetros cúbicos (hm3) de água do que no período homólogo do ano passado, situando-se nos 45% da sua capacidade total, revelou esta semana a Agência Portuguesa do Ambiente (APA).Apesar de as chuvas registadas nos primeiros meses do ano e no período da Páscoa terem melhorado as reservas na região, as autoridades ambientais têm vindo a alertar que a situação de seca se mantém no Algarve e é necessário continuar a adotar medidas de controlo do consumo.O Algarve está em situação de alerta devido à seca desde 05 de fevereiro, tendo o Governo aprovado um conjunto de medidas de restrição ao consumo, nomeadamente a redução de 15% no setor urbano, incluindo o turismo, e de 25% na agricultura.A estas medidas somam-se outras como o combate às perdas nas redes de abastecimento, a utilização de água tratada na rega de espaços verdes, ruas e campos de golfe ou a suspensão da atribuição de títulos de utilização de recursos hídricos.O Governo já admitiu elevar o nível das restrições, declarando o estado de emergência ambiental ou de calamidade, caso as medidas agora implementadas sejam insuficientes para fazer face à escassez hídrica na região</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3383,7 +4013,39 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>pais têm ano casados desde novos pai sempre porco monstro sempre bateu quer mãe quer filhos muitas vezes batia nela porque queria sair filhos queria sair amigo apagou cigarros pernas irmã irmão devia ter un ano ainda existia porque gostava molhar batatas amarelo ovo nunca comia branco mandoulhe sopapo sangou nariz ainda obrigou comer espetou garfo perna irmão porque logo apagar luz mandou apanhei valente chegou absurdo histórias irmãos mãe exatamente oposto talvez cruz acarretou preocupada gentil costumo dizer existir paraíso entrar ninguém entra sente dores outros podium morrer drogado zona ficava cama quase semana ia reconfortar chorava pensar dor pais deviam sentir teoricamente agressões pararam comecei ripostar casa ano passaram ano digo teoricamente porque frente deixei lá ver mãe diz bate faz escrava obriga fazer tudo saca compras pega tendo problemas joelhos onde operada chamalhe nome faz chantagem psicológica dizer vai matar parte loiça chãotudo ainda continuum coisa medo mim mãe confessou ter dia morrer levarla junto ter liberdade mãe separa esquecer coisa positiva mostrouse quero parte desabafo agora vem pedido ajuda pessoas tido vossas famílias situações denúncia anónima funciona processo medo ver encorralado faça suicide leve mãe quero libertar mãe medo pf ajudemme entender porque quero dar un últimos ano felizes mãe vier processo mal feito prefiro deixar correr ver vai primeiro cancro intervir lixar tudo cancro mete medo porque segicar frágil devagar certeza vai fazer algo rápido der internado consegue cristão acho vou inferno sinto pai desculpem desabafar outra vez quero entender processo pessoas passado obrigado p vou responder perguntas sobre história</t>
+          <t>Os meus pais têm 73 anos.
+Casados desde novos o meu pai sempre foi um porco um monstro .
+Sempre bateu quer na minha mãe quer nos filhos.
+Muitas vezes batia nela só porque queria sair com os filhos e eles queria sair com os amigos.
+Apagou cigarros nas pernas da minha irmã.
+O meu irmão devia ter uns 6 a 9 anos (eu ainda não existia) só porque ele gostava e molhar as batatas no amarelo do ovo e nunca comia o branco, mandou-lhe um sopapo que sangou pelo nariz e ainda obrigou a comer.
+Espetou um garfo na perna do meu irmão porque não foi logo apagar a luz quando ele mandou
+Eu apanhei valente mas não chegou a ser o absurdo das histórias dos meus irmãos.
+A minha mãe exatamente o oposto talvez pela cruz que acarretou, muito preocupada muito gentil eu costumo dizer se existir paraíso e ela não entrar ninguém entra.
+Ela sente as dores dos outros.
+Até podia morrer um drogado da nossa zona que ela ficava de cama quase uma semana e quando a ia reconfortar ela chorava a pensar na dor dos pais que deviam estar a sentir.
+Teoricamente as agressões pararam quando eu comecei a ripostar na casa dos 18 20anos. Já se passaram 15anos.
+Digo teoricamente porque dos 25 para a frente deixei de estar lá para ver.
+A minha mãe diz que ele não lhe bate.
+Mas ele faz dela uma escrava, obriga a fazer tudo nem uma saca de compras pega mesmo ela tendo problemas de joelhos onde já foi operada.
+Chama-lhe nomes , faz chantagem psicológica a dizer que se vai matar, parte a loiça no chão....tudo isso ainda continua.
+Uma coisa que eu tenho medo, e a mim mãe também já confessou ter, é se um dia ele tiver para morrer levar-la junto com ele, para ela não ter liberdade.
+Minha mãe não se separa isso é para esquecer.
+Só há uma coisa positiva no meu mais , mostrou-se quem eu não quero ser.
+Está parte foi o desabafo.
+Agora vem o pedido de ajuda.
+Pessoas que tenham tido nas vossas famílias situações de denúncia anónima. 
+Como funciona o processo?
+É que eu tenho medo que ele ao se ver encorralado faça se suicide e leve a minha mãe com ele.
+Já há muito que eu quero libertar a minha mãe, mas tenho muito esses medo PF ajudem-me a entender.
+Porque eu quero dar uns últimos anos felizes a minha mãe.
+Se vier que o processo é muito mal feito prefiro deixar correr e ver se ele vai primeiro que já tem cancro . Do que intervir e lixar tudo
+O cancro dele também mete medo porque ele segicar frágil devagar tenho a certeza do que ele vai fazer. Se for algo mais rápido ou quando der por ela já estar internado já não consegue .
+Eu sou cristão e acho que vou para o inferno pelo que sinto pelo meu pai.
+Desculpem já estou a desabafar outra vez.
+O que eu quero é mesmo entender o processo de pessoas que já tenham passado por isso.
+Obrigado.
+Ps: não vou responder a perguntas sobre a história.</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3403,7 +4065,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>família precisava habitação social funcionários trata processos seleção famílias disse família faria arranjassem casa bairros sociais dessem mil euro família alargada conseguiram arranjar mil euro pouco tempo colocados bairro social funcionário decide vereador decide confia nele provas nenhumas apenas testemunho família colocada nessa casa obviamente negará tudo perguntarem conheço vereador ter falado meia dúzia vezes denunciar corrupto</t>
+          <t>Uma família precisava de habitação social.
+Um dos funcionários que trata dos processos de seleção das famílias disse a essa família que faria com que arranjassem uma casa num dos bairros sociais se lhe dessem mil euros.
+Entre a família alargada conseguiram arranjar os mil euros.
+Pouco tempo depois foram colocados num bairro social.
+Não é este funcionário que decide,  mas o vereador que decide confia nele. 
+Não tenho provas nenhumas, apenas o testemunho da família colocada nessa casa, que obviamente negará tudo se lhes perguntarem.
+Conheço o vereador, de ter falado com ele meia dúzia de vezes. 
+Como denunciar este corrupto?</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3423,7 +4092,29 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>httpsdelitodeopiniaoblogssapoptsimplesmentevergonhosohttpsdelitodeopiniaoblogssapoptsimplesmentevergonhoso pedro correia faz agora dez anoshttpsobservadorptguineequatorialjaestanacplpeemfrances cimeira díli guiné equatorial admitida membro pleno direito comunidade países língua portuguesa cumprir critérios fundamentais plasmados estatutos desta organizaçãohttpswwwcplporgfilesfilercplpccegixccegestatutoscplppdf desde logo idioma português nunca vigorou naquela república subsariana colónia espanhola além disso país mantinha pena mortehttpsobservadorptguineequatorialmantempenademorteparacertoscasosdenunciaamnistiainternacional ordenamento jurídico aberração bastaria deixálo lado lá porta esquecer teodoro obiang data ainda hoje tirano tempo poder áfrica tristemente célebre violar elementares direitos humanoshttpswwwamnistiaptguineequatorialanosdemedoemortecomobiangnopoder recordome bem sent humilhação nacional ver presidente república primeiroministro sentados àquela mesa fiquei perplexo perceber proclamados defensores direitos humanos dilma rousseff xanana gusmão dobravam cerviz tirano malabo dilma combateu ditadura militar brasileira abraçou obiang tão repugnante generais almirantes dessa triste memória brasil agravante déspota ocupa poder além dobro tempo durou ditadura militar brasília lado xanana liderou povo timorense luta contra regime ditatorial general suharto ocupação ilegal timorleste indonésia devia ter sido primeiro pôr obiang distância lamentavelmente contrário deulhe honras astrorei política internacional referida cimeirahttpstimorlestegovtlpn portugal resistido limite vetando entrada guiné equatorial cplp ninguém acompanhar nesta posição questão defesa direitos humanos fizemos relação timor nunca devemos temer isolamento porque razão verdade dependem modas tendências calculismos ocasião listas precedências menos dependem descoberta nova reservas petróleo prefiro ver país isolado perder razão dignidade vêlo integradinho comunidade internacional perdendo outra originalidade força cplp assentaria sempre base cultural idioma comum cultura comum cimentada unidade linguística partir momento critério dominante assentou diplomacia económica venha noruega venezuela turquia arábia saudita organização manteria sigla significado bem diferente comunidade países ligação petróleo parte apenas consumidoresaquisidores ironias parte cplp justifica enquanto entidade congregadora estados onde fala português nada língua camões pessoa alda lara craveirinha alda espíritosanto mia couto manuel bandeira drummond sophia agualusa eça machado assis confunde tosco castelhano arengado ditador guiné equatorial questão central julho admitida cplp torpe tirania base inqualificável aldrabice língua portuguesa serviu falsa moeda troca entrada repugnantes ditadores africanos nunca faltaram ditadores áfrica passou contar bênção oficial estado envergonhoume enquanto cidadão português dez ano continuo sentir</t>
+          <t xml:space="preserve">[https://delitodeopiniao.blogs.sapo.pt/simplesmente-vergonhoso-17200487](https://delitodeopiniao.blogs.sapo.pt/simplesmente-vergonhoso-17200487)
+&gt;Pedro Correia, 23.07.24
+&gt;**1**
+&gt;[Faz agora dez anos](https://observador.pt/2014/07/22/guine-equatorial-ja-esta-na-cplp-e-em-frances/), na cimeira de Díli, a Guiné Equatorial foi admitida como membro de pleno direito da Comunidade dos Países de Língua Portuguesa. Sem cumprir critérios fundamentais plasmados nos [estatutos desta organização](https://www.cplp.org/Files/Filer/cplp/CCEG/IX_CCEG/Estatutos-CPLP.pdf). Desde logo, o idioma português nunca vigorou naquela república subsariana que foi colónia espanhola até 1968. Além disso o país mantinha a [pena de morte](https://observador.pt/2023/03/28/guine-equatorial-mantem-pena-de-morte-para-certos-casos-denuncia-amnistia-internacional/) no seu ordenamento jurídico - aberração que bastaria para deixá-lo do lado de lá da porta.
+&gt;Sem esquecer que Teodoro Obiang era à data, como ainda hoje, o tirano há mais tempo no poder em África. Tristemente célebre por [violar elementares direitos humanos](https://www.amnistia.pt/guine-equatorial-40-anos-de-medo-e-morte-com-obiang-no-poder/).
+&gt; **2**
+&gt;Recordo-me bem: senti como uma humilhação nacional ver o Presidente da República e o primeiro-ministro sentados àquela mesa. E fiquei perplexo ao perceber que proclamados defensores de direitos humanos, como Dilma Rousseff e Xanana Gusmão, dobravam a cerviz ao tirano de Malabo.
+&gt;Dilma, que combateu a ditadura militar brasileira, abraçou Obiang, tão repugnante como os generais e almirantes dessa era de triste memória no Brasil. Com uma agravante: este déspota ocupa o poder para além do dobro do tempo que durou a ditadura militar em Brasília.
+&gt;Por seu lado Xanana, que liderou o povo timorense na luta contra o regime ditatorial do general Suharto e a ocupação ilegal de Timor-Leste pela Indonésia, devia ter sido o primeiro a pôr Obiang à distância. Lamentavelmente, pelo contrário, deu-lhe honras de astro-rei da política internacional na [referida cimeira](https://timor-leste.gov.tl/?p=10386&amp;n=1).
+&gt;**3**
+&gt;Portugal terá resistido até ao limite. Foi vetando a entrada da Guiné Equatorial na CPLP até mais ninguém nos acompanhar nesta posição.
+&gt;A questão é que na defesa dos direitos humanos - como fizemos em relação a Timor - nunca devemos temer o isolamento. Porque a razão e a verdade não dependem de modas, tendências, calculismos de ocasião ou listas de precedências. Muito menos dependem da descoberta de novas reservas de petróleo.
+&gt;Prefiro ver o meu país isolado sem perder a razão nem a dignidade do que vê-lo integradinho na "comunidade internacional", perdendo uma e outra.
+&gt;A originalidade e a força da CPLP assentaria sempre na base cultural. No idioma comum, na cultura comum cimentada pela unidade linguística.
+&gt;A partir do momento em que o critério dominante assentou na "diplomacia económica", que venha a Noruega, a Venezuela, a Turquia, até a Arábia Saudita.
+&gt;A organização manteria a sigla, mas com um significado bem diferente. Comunidade dos Países de Ligação ao Petróleo. Da nossa parte apenas como consumidores-aquisidores...
+&gt; 
+&gt;**4**
+&gt;Ironias à parte, a CPLP só se justifica enquanto entidade congregadora de Estados onde se fala português. Nada mais.
+&gt;A nossa língua - a de Camões, de Pessoa, de Alda Lara, de Craveirinha, de Alda Espírito-Santo, de Mia Couto, de Manuel Bandeira, de Drummond, de Sophia, de Agualusa, de Eça e Machado de Assis - não se confunde com o tosco castelhano arengado pelo ditador da Guiné Equatorial.
+&gt;A questão central é esta. Em 23 de Julho de 2014 foi admitida na CPLP uma torpe tirania com base numa inqualificável aldrabice: a língua portuguesa serviu de falsa moeda de troca a esta entrada.
+&gt;Um dos mais repugnantes ditadores africanos (e nunca faltaram ditadores em África) passou a contar também com a bênção oficial do nosso Estado. Isto envergonhou-me enquanto cidadão português.
+&gt;Dez anos depois, continuo a sentir o mesmo. </t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3443,7 +4134,8 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>sempre ideia homens qualquer rapariga menos jeitosa suficiente enquanto mulheres apenas un poucos gajos passam crivo ainda assim disto ainda estarão sob intenso escrutínio vox pensam mulheres sempre exigentes gajos</t>
+          <t>Sempre tive a ideia que para os homens qualquer rapariga mais ou menos jeitosa era suficiente enquanto que para mulheres apenas uns poucos gajos passam no crivo e ainda assim depois disto ainda estarão sob intenso escrutínio.
+Isto é também o que voces pensam? As mulheres sempre são mais exigentes que os gajos?</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3463,7 +4155,8 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>então pode começar acelerar processos licenciamento pendentes durante ano tristeza socialista</t>
+          <t xml:space="preserve">Então pode começar a acelerar os processos de licenciamento que estão pendentes durante anos. 
+É uma tristeza esta socialista. </t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3483,7 +4176,13 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>achoas curiosa alguém algumas sempre gostei ouvir pessoas velhas ainda guardam memórias tempo antigos muitos relatos diretos penso registados escrito homem agora ano contoume terra torre moncorvo algumas pessoas ganharam dia noite bastante dinheiro volfrâmio mostrarem abundância viviam vezes juntavase pequeno grupo amigo fretavam táxi levar meio monte dar cagada enquanto todos dia formava filum considerável racionamento pessoas principalmente mulheres ficavam toda noite espera receberem quilo pão alguns poucos alimentos clássico acenderem cigarro nota banco bisavó contava vez mostrou pedra volfrâmio encontrado vizinha pegou pedra fugiu rouboulhe pedra volfrâmio vendeua comprou blusa dinheiro ano bisavá ainda contava episódio mágoa alguém conhece alguma história desse tempo</t>
+          <t>Acho-as curiosas.  Alguém tem algumas?
+Eu sempre gostei de ouvir as pessoas mais velhas, que ainda guardam memórias de tempos antigos, muitos relatos diretos que penso que não foram registados por escrito.
+Um homem agora com 86 anos contou-me que na terra dele, Torre de Moncorvo, algumas pessoas ganharam do dia para a noite bastante dinheiro com volfrâmio. Para mostrarem a abundância em que viviam por vezes juntava-se um pequeno grupo de amigos e fretavam um táxi para os levar para o meio do monte para  dar uma cagada.
+Isto enquanto todos os dias se formava uma fila considerável para o racionamento, em que as pessoas, principalmente mulheres, ficavam toda a noite à espera para receberem um quilo de pão e mais alguns poucos alimentos.
+Um clássico é acenderem um cigarro com uma nota de banco.
+A minha bisavó contava que uma vez mostrou uma pedra de volfrâmio que tinha encontrado a uma vizinha. Esta pegou na pedra e fugiu, roubou-lhe a pedra de volfrâmio, vendeu-a e comprou uma blusa com esse dinheiro. Com mais de 90 anos a minha bisavá ainda contava esse episódio com mágoa.
+Alguém conhece mais alguma história desse tempo?</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3503,7 +4202,10 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>pessoal hoje vendi computador fixo bem barato percebe assunto i geração rx gb ram hdd tb problema comprador insistiu testar pc casa formatar agora quer devolver produto porque diz pc lento sendo esperado pc componentes diz hdd estragado causar pc funciona totalmente bem demora abrir algumas aplicações porque hdd básico normal ameaçar chamar polícia hoje quer levar esquadra faço ignoro</t>
+          <t>Pessoal hoje vendi um computador fixo bem barato (200€) que para quem percebe do assunto tem um i3 9a geração, uma rx570, 16gb de RAM e um HDD de 1 tb.
+O problema é que o meu comprador insistiu em testar o PC em casa depois de eu o formatar com ele e agora quer devolver o produto porque diz que o PC está lento sendo que é o esperado de um PC com estes componentes.
+Ele diz que o HDD está estragado e está a causar isto, mas o PC funciona totalmente bem e só demora a abrir algumas aplicações porque ele tem um HDD básico e isto é normal.
+Ele está a ameaçar chamar a polícia hoje e quer levar me à esquadra, o que faço? Ignoro?</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3523,7 +4225,8 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>httpspreviewredditbhbgyykdjpgwidthformatpjpgautowebpsabaacdaaeefbdda</t>
+          <t xml:space="preserve">https://preview.redd.it/8bh83bgyyk6d1.jpg?width=2056&amp;format=pjpg&amp;auto=webp&amp;s=ab127a113877ac45d160aa7e1e0f1658b92d5da5
+</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3543,7 +4246,24 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>httpsexecutivedigestsapoptnoticiasbotswanaameacaenviarmilelefantesparaaalemanhanaoebrincadeiragarantepresidentehttpsexecutivedigestsapoptnoticiasbotswanaameacaenviarmilelefantesparaaalemanhanaoebrincadeiragarantepresidente presidente botswana mokgweetsi masisi ameaçou terçafeira enviar mil elefantes alemanha porque doi países discutem sobre importação troféus caça brincadeira referiu entrevista jornal alemão bild masisi atacou governo federal alemão ministério ambiente particular liderado ministra verdes steffi lemke tentar proibir importação troféus apesar sobrepopulação elefantes botswana alemanha maiores importadores troféus caça ue fácil sentarse berlim ter opinião sobre assuntos botswana pagar preço preservação desses animais mundo referiu botswana lar cerca mil elefantes acordo dado governo enviou mil angola gostaríamos fazer oferta república federal alemanha anunciou masisi aceitaremos resposta queremos elefantes possam passear livremente clima alemão mau suficiente acrescentou gostam tanto favor aceitem presente autoridades país áfrica austral protestaram contra potencial proibição reino unido importação troféus caçadores safari alertando março enviariam mil elefantes hyde park londres organização direitos animais peta manifestou apoio plano lemke restringir possivelmente proibir importação chamados troféus caça considerado hobby pessoas ricas cansadas têm dinheiro moral soma horrendas caçadores amadores gastam viagem caça acabam mãos população pobre administração parque nacional quase exclusivamente bolsos operadores turísticos proprietários explorações caça destacou portavoz peta jornal politico salientando botswana deveria proibir totalmente caça troféus investir turismo fotográfico gerar receitas garantindo animais vivos fariam imagem país acordo presidente botswana situação elefantes país grave têm provocado mortes destruição colheitas devastação várias aldeias mokgweetsi masisi convidou ministra alemã visitar proteção vida selvagem botswana garantindo país fez qualquer outro país mundo tal medida agravaria pobreza país ministério federal ambiente alemanha disse botswana ainda contactou sobre assunto lemke sinalizou aceitará convite botswana surgir oportunidade inspecionar proteção vida selvagem país áfrica austral</t>
+          <t>[https://executivedigest.sapo.pt/noticias/botswana-ameaca-enviar-20-mil-elefantes-para-a-alemanha-nao-e-brincadeira-garante-presidente/](https://executivedigest.sapo.pt/noticias/botswana-ameaca-enviar-20-mil-elefantes-para-a-alemanha-nao-e-brincadeira-garante-presidente/)
+&gt; O presidente do Botswana, Mokgweetsi Masisi, ameaçou esta terça-feira  enviar 20 mil elefantes para a Alemanha: isto porque os dois países  discutem sobre a importação de troféus de caça. “Não é brincadeira”,  referiu, em entrevista ao jornal alemão ‘BILD’.   
+&gt;  
+&gt;Masisi atacou o Governo federal alemão, e o Ministério do Ambiente em  particular, liderado pela ministra dos Verdes, Steffi Lemke, por tentar  proibir a importação de troféus, apesar da sobre-população de elefantes  no Botswana. A Alemanha é um dos maiores importadores de troféus de  caça na UE. “É muito fácil sentar-se em Berlim e ter uma opinião sobre  os nossos assuntos no Botswana. Estamos a pagar o preço pela preservação  desses animais para o mundo”, referiu.  
+&gt;  
+&gt;O Botswana, lar de cerca de 130 mil elefantes, de acordo com dados do  Governo, já enviou 8 mil para Angola. “Também gostaríamos de fazer essa  oferta à República Federal da Alemanha”, anunciou Masisi. “Não  aceitaremos um não como resposta.”  
+&gt;  
+&gt;“Queremos que os nossos elefantes possam passear livremente. O clima  alemão já é mau o suficiente para eles”, acrescentou. “Se gostam tanto  deles, por favor aceitem este presente nosso.”  
+&gt;  
+&gt;As autoridades do país da África Austral já protestaram contra uma  potencial proibição do Reino Unido à importação de troféus por caçadores  de safari, alertando em março que enviariam 10 mil elefantes para Hyde  Park, em Londres.  
+&gt;  
+&gt;A organização de direitos dos animais PETA manifestou o seu apoio aos  planos de Lemke para restringir e possivelmente proibir a importação  dos chamados troféus de caça, considerado “um hobby de pessoas ricas e  cansadas que têm mais dinheiro do que moral”.   
+&gt;  
+&gt;“As somas horrendas que os caçadores amadores gastam numa viagem de  caça não acabam nas mãos da população pobre ou na administração de um  parque nacional, mas quase exclusivamente nos bolsos dos operadores  turísticos e proprietários de explorações de caça”, destacou um  porta-voz da PETA ao jornal ‘POLITICO’, salientando que o Botswana  deveria proibir totalmente a caça de troféus e investir no turismo  fotográfico para gerar receitas, garantindo que os animais vivos fariam  mais pela imagem do país.   
+&gt;  
+&gt;De acordo com o presidente do Botswana, a situação dos elefantes no  seu país é grave e têm provocado mortes, destruição de colheitas e  devastação em várias aldeias. Mokgweetsi Masisi convidou a ministra  alemã a visitar a proteção da vida selvagem no Botswana, garantindo que o  seu país fez mais “do que qualquer outro país do mundo” e que tal  medida agravaria a pobreza do país.    
+&gt;  
+&gt;O Ministério Federal do Ambiente da Alemanha disse que o Botswana  “ainda não os contactou sobre este assunto”, mas que Lemke “sinalizou  que aceitará o convite do Botswana se surgir uma oportunidade” para  inspecionar a proteção da vida selvagem no país da África Austral.</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3563,7 +4283,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptmundodetalhefrancaacabacomvendalivredeantigripais</t>
+          <t>https://www.cmjornal.pt/mundo/detalhe/franca-acaba-com-venda-livre-de-antigripais</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3583,7 +4303,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>alguém ano olhaste disseste gajo vai lado nenhum agora dizes gajo mudou agora sucesso</t>
+          <t>Alguém que há 10 ou 20 anos olhaste e disseste “este gajo não vai a lado nenhum” mas agora dizes “este gajo mudou e agora tem sucesso”?</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3603,7 +4323,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocompoliticapanpropoealteracaoaleiparapermitiranimaisdecompanhianaspraias</t>
+          <t>https://www.noticiasaominuto.com/politica/2618639/pan-propoe-alteracao-a-lei-para-permitir-animais-de-companhia-nas-praias</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3623,7 +4343,14 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>vida dolorosa miserável injusta agonizante parece ter sido criada castigo entanto vejo pessoas muitas sorrir viver falar pessoas obviamente perfeitas menos preferem vida outra percebo tipo mundo deus criou pessoas amam criação outras odeiam condenados sofrer viver verdadeiro inferno dura décadas menos entanto pessoas aceitamno recusome acreditar livres criações manipuladas desfrutar criação cruel alguns manipulados outros melhor maneira evitar prisioneiro fuja fazer nunca saiba prisão fiódor dostoiévski</t>
+          <t xml:space="preserve">A vida é dolorosa, miserável, injusta, agonizante. Parece ter sido criada como um castigo. 
+E no entanto vejo pessoas (e são muitas) a sorrir, a viver, a falar, pessoas que obviamente não são perfeitas mas que pelo menos preferem esta vida a outra.
+Não percebo que tipo de mundo Deus criou: há pessoas que amam a sua criação, mas outras que a odeiam.
+Estamos condenados a sofrer, estamos a viver um verdadeiro inferno que dura 8 décadas ou menos, e no entanto as pessoas aceitam-no!
+Recuso-me a acreditar que somos livres: somos criações manipuladas para desfrutar de uma criação cruel, alguns são manipulados e outros não.
+&gt; A melhor maneira de evitar que um prisioneiro fuja é fazer com que ele nunca saiba que está na prisão.
+&gt; Fiódor Dostoiévski
+</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3643,7 +4370,8 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>httpsvisaoptatualidadepoliticapedrofrazaovairespondernajusticapordifamacaoagravadadepoisdequeixaapresentadaporjosemanuelpureza aprovada levantamento imunidade parlamentar</t>
+          <t xml:space="preserve">https://visao.pt/atualidade/politica/2024-03-13-pedro-frazao-vai-responder-na-justica-por-difamacao-agravada-depois-de-queixa-apresentada-por-jose-manuel-pureza/
+Já foi aprovada o levantamento da imunidade parlamentar </t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3663,7 +4391,9 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>httpsecosapoptgovernoportuguesmandaencerrartemporariamenteembaixadaemkievhttpsecosapoptgovernoportuguesmandaencerrartemporariamenteembaixadaemkiev outros países fazer probabilidade ocorrer algo grave próximos dia considerável</t>
+          <t>[https://eco.sapo.pt/2024/11/20/governo-portugues-manda-encerrar-temporariamente-embaixada-em-kiev/](https://eco.sapo.pt/2024/11/20/governo-portugues-manda-encerrar-temporariamente-embaixada-em-kiev/)
+outros países estão a fazer o mesmo
+a probabilidade de ocorrer algo grave nos próximos dias é considerável</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3683,7 +4413,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalpttvmediadetalhertpfinanciafilmeespanholsobrematadordetouroshttpswwwcmjornalpttvmediadetalhertpfinanciafilmeespanholsobrematadordetouros</t>
+          <t>[https://www.cmjornal.pt/tv-media/detalhe/rtp-financia-filme-espanhol-sobre-matador-de-touros](https://www.cmjornal.pt/tv-media/detalhe/rtp-financia-filme-espanhol-sobre-matador-de-touros)</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3703,7 +4433,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>alguns ver ondas mar bater rochas mar bravo ver gatas brincar amassar pãozinho brincar contemplar hora dourada final dia tudo fica dourado enquanto conduzo regresso casa ouvir chilrear aves árvores final dia regressam ninhos consigo ouvir verão quais vossos</t>
+          <t xml:space="preserve">Eu tenho alguns:
+Ver as ondas do mar a bater nas rochas quando o mar está bravo
+Ver as minhas gatas a brincar ou a amassar pãozinho (ou até brincar com elas)
+Contemplar a hora dourada ao final do dia (quando tudo fica mais dourado) enquanto conduzo de regresso a casa
+ouvir o chilrear das aves nas árvores ao final do dia, quando regressam aos seus ninhos (só consigo ouvir isto no verão) 
+quais são os vossos? </t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3723,7 +4458,10 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>httpswwwjnptsalariosbaixosedesmotivacaoforcamcentenasdepoliciasasairdagnredapsphttpswwwjnptsalariosbaixosedesmotivacaoforcamcentenasdepoliciasasairdagnredapsp últimos cinco ano elementos incluindo oficiais abandonaram forças segurança ingressar frontex pj opte nova profissão militares agentes cumpram prazos pagam indemnização últimos cinco ano polícias abandonaram fileiras gnr psp integrarem organismos internacionais desempenharem outras profissões ingressarem polícia judiciária pj oficiais destas forças segurança preferir carreira inspetor baixos ordenados falta condições progressão carreira lenta limitada justificam maioria saídas</t>
+          <t>[https://www.jn.pt/1958346570/salarios-baixos-e-desmotivacao-forcam-centenas-de-policias-a-sair-da-gnr-e-da-psp/](https://www.jn.pt/1958346570/salarios-baixos-e-desmotivacao-forcam-centenas-de-policias-a-sair-da-gnr-e-da-psp/)
+&gt;Nos últimos cinco anos, 550 elementos, incluindo oficiais, abandonaram estas forças de segurança para ingressar na Frontex ou na PJ. Há também quem opte por nova profissão. Militares e agentes que não cumpram prazos pagam indemnização.
+&gt;Nos últimos cinco anos, 550 polícias abandonaram as fileiras da GNR e da PSP para integrarem organismos internacionais, desempenharem outras profissões ou para ingressarem na Polícia Judiciária (PJ). Até oficiais destas forças de segurança estão a preferir a carreira de inspetor. Os baixos ordenados, a falta de condições e a progressão na carreira lenta e limitada justificam a maioria das saídas.
+&gt;...</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3743,7 +4481,24 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>httpsexpressoptsociedadenovaplataformavaicompararprecosnossupermercadosdetodoopaispararevolucionaraformadefazercomprasbfhttpsexpressoptsociedadenovaplataformavaicompararprecosnossupermercadosdetodoopaispararevolucionaraformadefazercomprasbf kabazhttpswwwkabazpt controlado kuantokusta lançado segundafeira além permitir comparação cabaz total supermercados analisando custo total cabaz cada supermercado possibilita maximização poupanças trocando artigos semelhantes kuantokusta investiu mil euro nova plataforma digital lançar hoje promete revolucionar forma fazer compras supermercado disponibilizar preços atualizados vários produtos vendidos todos pontos país comunicado comparador preços marketplace avança nova plataforma denominada kabaz culmina doi ano investigação desenvolvimento id permitirá identificar supermercado onde lista compras fica barata otimizar poupança consumidores optarem dividir compras supermercados onde preços baixos além permitir comparação cabaz total supermercados analisando custo total cabaz cada supermercado kabaz possibilita maximização poupanças trocando artigos semelhantes preços disponíveis localização forma adaptarse realidade local utilizadores sendo futuramente ainda introduzidas outras funcionalidades histórico alerta preços edit apenas compara estabelecimentos lojas online kindhttpswwwredditcomuserkind httpssupersavepthttpssupersavept existe melhor ainda askricardohttpswwwredditcomuseraskricardo app preço frescohttpsplaygooglecomstoreappsdetailsidappprecofresco lê produtos codigos barras joaocrownhttpswwwredditcomuserjoaocrown aparentemente vantagem relação supersave dá fazer cabaz comparar valor vários supermercados zebpethttpswwwredditcomuserzebpet xb</t>
+          <t>[https://expresso.pt/sociedade/2024-01-29-Nova-plataforma-vai-comparar-precos-nos-supermercados-de-todo-o-pais-para-revolucionar-a-forma-de-fazer-compras-80726b4f](https://expresso.pt/sociedade/2024-01-29-Nova-plataforma-vai-comparar-precos-nos-supermercados-de-todo-o-pais-para-revolucionar-a-forma-de-fazer-compras-80726b4f)
+&gt;O [Kabaz](https://www.kabaz.pt/), controlado pelo KuantoKusta, é lançado esta segunda-feira. Além de permitir a comparação do cabaz total entre supermercados, analisando o custo total do cabaz em cada supermercado, possibilita uma maximização das poupanças, trocando artigos semelhantes  
+&gt;  
+&gt;KuantoKusta investiu 500 mil euros numa nova plataforma digital a lançar hoje e que promete "revolucionar a forma de fazer compras no supermercado", ao disponibilizar os preços atualizados dos vários produtos vendidos em todos os pontos do país.  
+&gt;  
+&gt;Em comunicado, o comparador de preços e 'marketplace' avança que a nova plataforma -- denominada Kabaz e que culmina dois anos de investigação e desenvolvimento (I&amp;D) -- permitirá identificar o supermercado onde uma lista de compras fica mais barata e otimizar a poupança dos consumidores, se estes optarem por dividir as compras pelos supermercados onde os preços são mais baixos.  
+&gt;  
+&gt;Para além de permitir a comparação do cabaz total entre  supermercados, analisando o custo total do cabaz em cada supermercado, o  Kabaz possibilita uma maximização das poupanças, trocando artigos  semelhantes.  
+&gt;  
+&gt;Os preços estão disponíveis por localização, de  forma a adaptar-se à realidade local dos utilizadores, sendo que,  futuramente, serão ainda introduzidas outras funcionalidades, como um  histórico e um alerta de preços.  
+&gt;  
+&gt;...
+Edit: 
+ \- Apenas compara estabelecimentos com lojas online -  [404KiND](https://www.reddit.com/user/404KiND/) 
+\- [https://supersave.pt/](https://supersave.pt/) Já existe, mas mais uma, melhor ainda :)  [askricardo](https://www.reddit.com/user/askricardo/)
+ \- Há também a app "[Preço Fresco](https://play.google.com/store/apps/details?id=app.precofresco)", que até lê os produtos pelos codigos de barras.  [joaocrown](https://www.reddit.com/user/joaocrown/)
+\- Aparentemente a vantagem em relação à Supersave é que dá para fazer um  cabaz e comparar o valor do mesmo nos vários supermercados.   - [zebpet](https://www.reddit.com/user/zebpet/)
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3763,7 +4518,9 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>poi vejo casas oficialmente arrendadas deixarem alugadas apenas família passarem alugadas várias famílias imigrantes cada viver quarto sala wc cozinha partilhados nenhum contrato arrendamento oficialmente vazias realidade nunca tão cheias suponho ocorrer noutras regiões portugal</t>
+          <t>Pois vejo casas que estavam oficialmente arrendadas a deixarem de estar alugadas apenas a uma família e passarem a estar alugadas a várias famílias imigrantes, cada uma a viver em seu quarto, com sala, wc e cozinha partilhados, mas sem nenhum contrato de arrendamento.
+Oficialmente estão vazias, na realidade nunca estiveram tão cheias.
+Suponho que o mesmo esteja a ocorrer noutras regiões de Portugal.</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3783,7 +4540,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>estrangeiro sonho criar família portuguesa começa parecer sonho cada dia passa tudo quero coisas simple acordar todos dia lado companheiro português bom dia irmos junto compras pingo doce próximo viajar explorar fantástico país playlist quim barreiros acabar dia preco certo televisão ter sogros portuguese obrigaremme comer toda comida post pode parecer piada sonho português real visitamos feiras junto toda semanas quanto tempo passa perco esperança sequer falo bem língua usar google translate traduzir maior parte deste post inglês acho todos sonhos tornam realidade aceitar</t>
+          <t>Como estrangeiro, o sonho de criar uma família portuguesa começa a parecer mais um sonho a cada dia que passa.
+Tudo o que eu quero são coisas simples. Acordar todos os dias ao lado do meu companheiro português com um "bom dia". Irmos juntos às compras no Pingo Doce mais próximo.
+Viajar e explorar o fantástico país com uma playlist do Quim Barreiros. Acabar o dia com o Preco Certo na televisão.
+Ter os meus sogros portugueses a obrigarem-me a comer toda a comida deles.
+Este post pode parecer uma piada, mas não é. O sonho português é real.
+Visitamos as feiras juntos todas as semanas.
+Mas quanto mais o tempo passa, mais eu perco a esperança. Nem sequer falo bem a língua (tive de usar o Google Translate para traduzir a maior parte deste post do inglês)
+Acho que nem todos os nossos sonhos se tornam realidade e temos de aceitar isso</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3803,7 +4567,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>enquanto cidadão contribuinte algumas dúvidas preocupações propósito protesto polícias pena tal debatido espaço público comunicação social quanto custa contribuintes satisfazer pedir injusto dar subsídios risco pj psp gnr poi últimos sujeitos risco obviamente valores orçamento estado totalmente diferentes dado número operacionais quanto ganha polícia líquidos total apresentar apenas salários base dizme pouco carreiras onde boa parte vencimento provém horas extra subsídios gratificações suplementos quanto entra conta polícia ano profissão média quadro europeu considerando portugal todos auferem mal considerando poder compra médio país enquadra vencimento polícias exemplo professores queixamse salários baixos quadro europeu ganham comparação demais licenciadosmestrados país porque infelizmente portugal maioria população aufere mal quadro europeu ataque classe enorme respeito polícias ajudam manter ordem pública simplesmente apresento perguntas enquanto cidadão contribuinte diz daniel oliveira bem perguntar ofende agradeço antemão</t>
+          <t>Enquanto cidadão e contribuinte tenho algumas dúvidas e preocupações a propósito do protesto dos polícias. Tenho pena que tal não seja debatido no espaço público ou pela comunicação social.
+ - Quanto nos custa a nós contribuintes satisfazer o que estão a pedir? É injusto dar subsídios de risco à PJ e não à PSP e GNR pois estes últimos estão muito mais sujeitos a risco, mas obviamente que os valores no orçamento de estado serão totalmente diferentes dado o número de operacionais.
+ - Quanto ganha um polícia líquidos no total? Apresentar apenas salários base diz-me pouco. São carreiras onde boa parte do vencimento provém de horas extras, subsídios, gratificações ou suplementos. Quanto entra na conta de um polícia com 10 anos de profissão, em média?
+ - No quadro europeu, considerando que em Portugal todos auferem mal, e considerando o poder de compra médio do país, como se enquadra o vencimento dos polícias? Por exemplo os professores queixam-se dos salários baixos, mas no quadro europeu são dos que mais ganham em comparação com os demais licenciados/mestrados do mesmo país, isto porque, infelizmente, em Portugal a maioria da população aufere mal no quadro europeu.
+Isto não é um ataque à classe, tenho um enorme respeito pelos polícias que ajudam a manter a ordem pública. Simplesmente apresento perguntas enquanto cidadão e contribuinte. Como diz Daniel Oliveira, e bem, perguntar não ofende.
+Agradeço de antemão</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3823,7 +4592,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>hoje percorri rua desde largo intendente rua mouraria diversas vezes quase vomitei cheiro nauseabundo mesma exalava cheiro mistura especiarias lixo inexplicável nunca experimentado talvez facto estarem c passei acentuado odor quero imaginar dia quentes verão fiquei pensar odor ruas cidades índia paquistão etc alguém lá estado consegue comparar agonizante</t>
+          <t xml:space="preserve">Hoje percorri esta rua desde o largo do Intendente até à rua da Mouraria e por diversas vezes quase vomitei com o cheiro nauseabundo que a mesma exalava. Era um cheiro de uma mistura de especiarias com lixo inexplicável e que nunca tinha experimentado. Talvez o facto de estarem 24ºC quando passei tivesse acentuado o odor, por isso nem quero imaginar como será nos dias quentes de verão. Fiquei a pensar, será que é este o odor das ruas das cidades na Índia, Paquistão, etc.? Alguém que já lá tenha estado consegue comparar? É agonizante. </t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3843,7 +4612,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>bem ano universidade ciências porto estudar física sempre aluno notas excelentes secundário tirava quase tudo excepto português única coisa baixava média ano consegui matemática física química onde destaquei resto disciplinas notas boa ciências evidenciei entanto último ano secundário aconteceu algo inesperado perdi repente toda motivação estudar escolhi física porque sempre gostei área início comecei bem primeiro teste segundo sempre descer terceiro período tirei último teste matemática história parecida notas começaram baixar gradualmente acabei perder motivação exame final tirei qualquer coisa assim consegui entrar física universidade porto média final tal média secundário exames ficou nunca estudar testis importantes conseguia sempre puxar mim exame física química estudei imenso acabei tirar matemática estudei apenas últimos doi dia agora desde entrei universidade parece consigo prestar atenção aulas teste análise sábado sincero percebo absolutamente nada pior continuo conseguir estudar pressão aumenta portanto situação nada fácil precisar ajuda porque consigo estudar focarme teste análise porta alguém sugestões conselhos sair deste bloqueio preciso encontrar forma voltar concentrarme recuperar ritmo porque sinceramente sei fazer</t>
+          <t>Ora bem, eu estou no 1º ano da Universidade de Ciências do Porto, a estudar Física. Sempre fui um aluno de notas excelentes. No secundário, tirava 5 a quase tudo, excepto a Português, que era a única coisa que me baixava a média. No 10º e 11º anos, consegui 19 a Matemática e entre 18 e 20 a Física e Química, onde mais me destaquei. No resto das disciplinas, as notas também eram boas, mas foi mesmo nas ciências que me evidenciei.
+No entanto, no último ano do secundário, aconteceu algo inesperado: perdi, de repente, toda a motivação para estudar. Escolhi Física porque sempre gostei muito da área, e no início até comecei bem, com 20 no primeiro teste e 19,7 no segundo. Mas depois foi sempre a descer. No terceiro período, tirei 15 no último teste. Em Matemática, a história foi parecida — as notas começaram a baixar gradualmente.
+Acabei por perder a motivação para o exame final e tirei 10, qualquer coisa. Mesmo assim, consegui entrar em Física na Universidade do Porto com uma média final de 15 e tal. A minha média do secundário foi de 18,1, mas a dos exames ficou pelos 13. Nunca fui de estudar muito, mas quando os testes eram importantes, conseguia sempre puxar por mim. Para o exame de Física e Química, estudei imenso e acabei por tirar "só" 16,4. Para o de Matemática, estudei apenas nos últimos dois dias.
+Agora, desde que entrei na universidade, parece que não consigo prestar atenção às aulas. Tenho um teste de Análise no sábado e, para ser sincero, não percebo absolutamente nada. O pior é que continuo sem conseguir estudar, e a pressão só aumenta.
+Portanto, a situação não está nada fácil. Estou mesmo a precisar de ajuda, porque não consigo estudar nem focar-me, e o teste de Análise está mesmo à porta. Alguém tem sugestões ou conselhos para sair deste bloqueio? Preciso de encontrar uma forma de voltar a concentrar-me e recuperar o ritmo, porque, sinceramente, já não sei o que fazer.</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3863,7 +4636,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>primeiro pergunta possível saber sob escuta agora debate posso comecar ultimamente visto políticos queixarse invasão privacidade escutas verdade apanhados boca botija primeiro havia indícios confirmaram segundo político cidadão comum poder consequentemente responsabilidade figura pública deveria exemplo povo tal deveria agir forma impune deveria disponível escrutínio então responder conhecimento recordo assim calhar evitavamse escutas durante tanto tempo outro lado pessoas pareceme pergunto tanto recurso humano escutar tudo fim pergunta sendo whatsapp encriptado chegaram mensagens pns dar ok á indemnização alexandra real</t>
+          <t xml:space="preserve">Primeiro, uma pergunta: é possível saber se estou sob escuta?
+Agora o debate, posso comecar:
+- Ultimamente temos visto os políticos a queixar-se de invasão de privacidade com escutas, quando na verdade foram apanhados com a boca na botija. Primeiro havia indícios, que se confirmaram. Segundo, um político não é um cidadão comum, tem poder e, consequentemente, responsabilidade. É uma figura pública que deveria ser um exemplo para o povo. Como tal, não deveria agir de forma impune e deveria estar disponível ao escrutínio, ou então responder mais do que "não tive conhecimento" ou "não me recordo", assim se calhar evitavam-se escutas durante tanto tempo.
+- Por outro lado, 14000 pessoas parece-me muito, até me pergunto como há tanto recurso humano para escutar isso tudo.
+- Por fim uma pergunta, sendo o WhatsApp encriptado, como chegaram às mensagens do PNS a dar o ok á indemnização da Alexandra Reis?
+</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3883,7 +4661,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>mesma família jénierre jnr</t>
+          <t>Da mesma família da JÉNIERRE e da JNR.</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3903,7 +4681,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>visiting portugal the first time and it bit scary how fast you guy drive</t>
+          <t>Visiting Portugal for the first time and it's a bit scary how fast you guys drive 🤣</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3923,7 +4701,9 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>testemunha disso ontem visitava amigo havia incêndio km enquanto lá caíram várias folhas queimadas quintal casa condições tempo quente seco vento folhas cascas eucalipto poderem criar novos focos incêndio vários quilómetros foco original praticamente inevitável situação vivemos hoje extremamente perigoso bombeiros tentam combater incêndios poi podem ficar encurralados vários focos incêndio</t>
+          <t>Fui testemunha disso ontem
+Visitava um amigo meu e havia um incêndio a 4 km, mas enquanto lá estava caíram várias folhas queimadas no quintal da casa. 
+Com as condições que temos tempo quente, seco e muito vento e com as folhas e cascas do eucalipto a poderem criar novos focos de incêndio a vários quilómetros do foco original é praticamente inevitável a situação que vivemos hoje. E extremamente perigoso para os bombeiros que tentam combater os incêndios, pois podem ficar encurralados entre vários focos de incêndio.</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3943,7 +4723,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>httpswwwpublicoptlocalnoticiadoisferidosincendiolojatransformadahabitacaolisboahttpswwwpublicoptlocalnoticiadoisferidosincendiolojatransformadahabitacaolisboa doi feridos desalojados incêndio loja transformada habitação lisboa incêndiohttpswwwpublicoptsociedadenoticiatresmortosincendioprediocentrolisboa ocorreu loja ocupada nove camas seis residentes acordo informação polícia segurança pública todos residentes bangladesh indicou directora serviço municipal protecção civil origem pequeno foco incêndio curtocircuito tendo chamas propagado outras habitações agradecimentos uchinonoolho aviso relação erro post anteriormente aqui colocado eliminar comprovadamente incorreto</t>
+          <t xml:space="preserve">[https://www.publico.pt/2024/04/17/local/noticia/dois-feridos-incendio-loja-transformada-habitacao-lisboa-2087314](https://www.publico.pt/2024/04/17/local/noticia/dois-feridos-incendio-loja-transformada-habitacao-lisboa-2087314)
+&gt;...  Dois feridos e 50 desalojados em incêndio em loja transformada em habitação em Lisboa  
+"[O incêndio](https://www.publico.pt/2021/07/10/sociedade/noticia/tres-mortos-incendio-predio-centro-lisboa-1969871) ocorreu numa loja ocupada por nove camas e seis residentes, que, de acordo com informação da Polícia de Segurança Pública, são todos residentes do Bangladesh", indicou a directora do Serviço Municipal de Protecção Civil. Na origem do pequeno foco de incêndio esteve um curto-circuito, não se tendo as chamas propagado às outras habitações.  
+&gt;  
+&gt;...
+Os nossos agradecimentos ao  u/Chino-no-Olho pelo aviso em relação ao erro no post anteriormente aqui colocado e que tivemos de eliminar por estar comprovadamente incorreto.                     </t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -3963,7 +4748,30 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>httpswwwjnpttribunalbrasileiroabreprocessoaelonmuskporataquesajusticahttpswwwjnpttribunalbrasileiroabreprocessoaelonmuskporataquesajustica supremo tribunal federal brasil ordenou domingo abertura investigações contra empresário norteamericano elon musk ataques justiça ameaça bilionário obedecer ordens bloqueio contas rede social x antigo twitter proprietário outra razões deste inquérito investigações alegados crime manipulação criminosa dolosa x obstrução justiça ordenadas magistrado alexandre moraes membro supremo tribunal federal responsável processo sobre uso redes sociais disseminação notícias falsas ataques democracia decisão publicada supremo tribunal federal magnata mensagem rede x ter acusado alexandre moraes impor censura brasil decisões bloqueio diferentes perfis rede social aparente motivo musk avisado sábado ia desobedecer decisões magistrado implicasse multado obrigasse fechar empresa brasil porque opinião defesa liberdade expressão importante lucros x vai publicar breve toda exigências feitas magistrado pedidos violam lei brasileira juiz traído descarada repetidamente constituição povo brasileiro deve renunciar impugnado afirmou bilionário decisão moraes advertiu rede social x abstenha desobedecer qualquer ordem judicial proferida reative perfis ordem bloqueio ordenada supremo tribunal federal tribunal eleitoral brasil sob pena multa diária mil reais cerca mil euro cada conta ativa disputa musk autoridades brasileiras começou sábado x disse ter sido forçada bloquear certas contas populares brasil decisão judicial posteriormente empresário nascido áfrica sul disse ia levantar toda restrições impostas justiça apesar potenciais consequências forma combater censura flagrante conduta obstrução justiça brasileira incitação crime ameaça pública desobediência ordens judiciais futura ausência cooperação plataforma factos desrespeitam soberania brasil reforçam conexão dolosa instrumentalização criminosa atividades extwitter atual x práticas ilícitas investigadas diversos inquéritos anteriormente citados devendo objeto investigação polícia federal afirmou magistrado decisão acordo site brasileiro uol moraes alertou além disso redes sociais terra lei terra ninguém devem respeito absoluto lei brasileiras domingo deputada brasileira gleisi hoffmann presidente partido trabalhadores pt liderado presidente país luiz inácio lula silva acusou musk ameaçar democracia brasil ataques poder judiciário</t>
+          <t xml:space="preserve">[https://www.jn.pt/3191181379/tribunal-brasileiro-abre-processo-a-elon-musk-por-ataques-a-justica/](https://www.jn.pt/3191181379/tribunal-brasileiro-abre-processo-a-elon-musk-por-ataques-a-justica/)
+&gt; O Supremo Tribunal Federal do Brasil ordenou, no domingo, a abertura de  investigações contra o empresário norte-americano Elon Musk, por ataques  à Justiça.                    
+&gt;  
+&gt; A ameaça do bilionário de não obedecer às ordens de bloqueio de  contas na rede social X (antigo Twitter), da qual é proprietário, é  outra das razões deste inquérito.  
+&gt;  
+&gt;As investigações pelos alegados crimes de "manipulação criminosa e  dolosa" da X e obstrução à Justiça foram ordenadas pelo magistrado  Alexandre de Moraes, membro do Supremo Tribunal Federal e responsável  por um processo sobre o uso das redes sociais para a disseminação de  notícias falsas e ataques à democracia.  
+&gt;  
+&gt; A decisão foi publicada pelo Supremo Tribunal Federal depois de o  magnata, numa mensagem na rede X, ter acusado Alexandre de Moraes de  impor censura no Brasil com decisões de bloqueio de diferentes perfis na  rede social sem aparente motivo.  
+&gt;  
+&gt;Musk já tinha avisado, no sábado, que ia desobedecer às decisões do  magistrado mesmo que isso implicasse ser multado e o obrigasse a fechar a  empresa no Brasil, porque, na sua opinião, a defesa da liberdade de  expressão é mais importante do que os lucros.  
+&gt;  
+&gt; "A X vai publicar em breve todas as exigências feitas pelo magistrado  e como esses pedidos violam a lei brasileira. Este juiz tem traído  descarada e repetidamente a Constituição e o povo brasileiro. Ele deve  renunciar ou ser impugnado", afirmou o bilionário.  
+&gt;  
+&gt;Na decisão, Moraes advertiu a rede social X para que se abstenha de  desobedecer a qualquer ordem judicial proferida ou reative perfis com  ordem de bloqueio ordenada pelo Supremo Tribunal Federal ou pelo  Tribunal Eleitoral do Brasil, sob pena de multa diária de 100 mil reais  (cerca de 18 mil euros) por cada conta que esteja ativa.  
+&gt;  
+&gt; A disputa entre Musk e as autoridades brasileiras começou no sábado,  quando a X disse ter sido forçada a "bloquear certas contas populares no  Brasil" por decisão judicial.  
+&gt;  
+&gt;Posteriormente, o empresário nascido na África do Sul disse que ia  levantar todas as restrições impostas pela Justiça, apesar das  potenciais consequências, como forma de combater a censura.  
+&gt;  
+&gt; "A flagrante conduta de obstrução à Justiça brasileira, a incitação  ao crime, a ameaça pública de desobediência às ordens judiciais e de  futura ausência de cooperação da plataforma são factos que desrespeitam a  soberania do Brasil e reforçam à conexão da dolosa instrumentalização  criminosa das atividades do ex-Twitter, atual 'X', com as práticas  ilícitas investigadas pelos diversos inquéritos anteriormente citados,  devendo ser objeto de investigação da Polícia Federal", afirmou o  magistrado na decisão, de acordo com o site brasileiro UOL.  
+&gt;  
+&gt;Moraes alertou, além disso, que "**as redes sociais não são terra sem lei e não são terra de ninguém**", e que devem respeito absoluto às leis brasileiras.  
+&gt;  
+&gt; Também no domingo, a deputada brasileira Gleisi Hoffmann, presidente do  Partido dos Trabalhadores (PT), liderado pelo presidente do país, Luiz  Inácio Lula da Silva, acusou Musk de ameaçar a democracia no Brasil com  ataques ao poder judiciário. </t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -3983,7 +4791,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>semana sido horrível mim sintome completamente cansado desmotivado sinto envergonhado porque colegas bem sucedidos universidade todos dia sinto vou falhar capaz viver mundo tão exigente haverá alguma boa razão continuar obrigado</t>
+          <t xml:space="preserve">Esta semana tem sido horrível para mim, sinto-me completamente cansado e desmotivado.
+Também me sinto envergonhado porque não sou como os meus colegas bem sucedidos da universidade, todos os dias sinto que vou falhar e que não sou capaz de viver num mundo tão exigente.
+Haverá alguma boa razão para continuar?
+Obrigado.
+</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4003,7 +4815,9 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>httpslifestylesapoptvidaecarreiranoticiasvidaecarreiraartigoscadaportuguesdesperdicakgdealimentosporanosaoeurosemcomidahttpslifestylesapoptvidaecarreiranoticiasvidaecarreiraartigoscadaportuguesdesperdicakgdealimentosporanosaoeurosemcomida cada indivíduo portugal desperdiça kg alimentos ano gasta euro orçamento alimentar alimentos desperdiçados dado avançados too good to go mês celebra semana desperdício alimentar</t>
+          <t>[https://lifestyle.sapo.pt/vida-e-carreira/noticias-vida-e-carreira/artigos/cada-portugues-desperdica-184-kg-de-alimentos-por-ano-sao-336-euros-em-comida](https://lifestyle.sapo.pt/vida-e-carreira/noticias-vida-e-carreira/artigos/cada-portugues-desperdica-184-kg-de-alimentos-por-ano-sao-336-euros-em-comida)
+&gt;Cada indivíduo em Portugal desperdiça 184 kg de alimentos por ano e gasta 336 euros do seu orçamento alimentar em alimentos que depois são desperdiçados. Dados avançados pela Too Good to Go no mês em que se celebra a “Semana sem Desperdício Alimentar”.  
+...</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4023,7 +4837,10 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>devia preocupar dizemos reduzirmos irs irc iva etc serviços públicos colapsam poi bem segundo artigo httpswwwdnptpoliticaimpostosestaoaderreteremmecanismosdecorrupcaohtmlantigo podemos poupar mil milhões euro portuguese impostos manter serviços hoje portuguese tiram cornos próptio cú preferem sempre ir bater contra carga fiscal gritar comunês unissono taxese rico entendase pmes trabalha remotamente estrangeiro geralmente recibos acordem burro acordem</t>
+          <t>Isto é que nos devia de preocupar quando dizemos que se reduzirmos o IRS, IRC, IVA etc. os serviços públicos colapsam.
+Pois bem, segundo [este artigo ](https://www.dn.pt/politica/impostos-estao-a-derreter-em-mecanismos-de-corrupcao-2011810.html/)antigo, podemos poupar 80 mil milhões de euros aos portugueses em impostos, e manter os serviços que temos hoje.
+Mas como os portugueses não tiram os cornos do próptio cú, preferem sempre ir bater contra a carga fiscal, e gritar em comunês unissono "taxe-se mais os ricos" (entenda-se, as PMEs e quem trabalha remotamente para o estrangeiro, geralmente a recibos).
+Acordem burros, acordem!</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4043,7 +4860,8 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>jornal notícias maio httpspreviewredditgutryviuiydjpgwidthformatpjpgautowebpseeadcbbfffdfecbb</t>
+          <t xml:space="preserve">[Jornal de Notícias 27 maio de 2024](https://preview.redd.it/gutryviuiy2d1.jpg?width=569&amp;format=pjpg&amp;auto=webp&amp;s=5779015ee2adcbb4ff66492821fdf6e283c62bb7)
+</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -4063,7 +4881,13 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>httpscnnportugaliolptpornografiacriancashacriancascomanosdependentesdepornografiabcddebfbbbdeehttpscnnportugaliolptpornografiacriancashacriancascomanosdependentesdepornografiabcddebfbbbdee revista imprensa portugal rapazes raparigas ano viram conteúdos pornográficos primeiro contacto pornografia online acontece média ano revela estudo kid online citado jornal expressohttpsexpressoptsociedadehacriancasdeanosdependentesdepornografiaonlinecde dá conta portugal rapazes raparigas ano viram conteúdos pornográficos segundo jornal dado compilados especialistas acreditam números aumentado pandemia estudo adianta ainda muitos site têm mecanismos verificação idade entanto fracos fácil acesso tipo conteúdos gerar preocupação vez quanto cedo começa consumir tipo conteúdos maior probabilidade ficar viciado doi ano dado terem sido compilados fundo nações unidas infância unicef alertou enorme quantidade pornografia disponível online incluindo conteúdos cada vez gráficos extremos facilmente acessíveis menores toda idadesrevista imprensa portugal rapazes raparigas ano viram conteúdos pornográficoso primeiro contacto pornografia online acontece média ano revela estudo kid online citado jornal expresso dá conta portugal rapazes raparigas ano viram conteúdos pornográficossegundo jornal dado compilados especialistas acreditam números aumentado pandemiao estudo adianta ainda muitos site têm mecanismos verificação idade entanto fracoso fácil acesso tipo conteúdos gerar preocupação vez quanto cedo começa consumir tipo conteúdos maior probabilidade ficar viciadodois ano dado terem sido compilados fundo nações unidas infância unicef alertou enorme quantidade pornografia disponível online incluindo conteúdos cada vez gráficos extremos facilmente acessíveis menores toda idades</t>
+          <t>[https://cnnportugal.iol.pt/pornografia/criancas/ha-criancas-com-11-anos-dependentes-de-pornografia/20240524/66503bcdd34ebf9bbb3de44e](https://cnnportugal.iol.pt/pornografia/criancas/ha-criancas-com-11-anos-dependentes-de-pornografia/20240524/66503bcdd34ebf9bbb3de44e)
+&gt;REVISTA DE IMPRENSA || Em Portugal, 40% dos rapazes e 26% das raparigas entre os 9 e os 16 anos já viram conteúdos pornográficos
+&gt;O primeiro contacto com pornografia online acontece, em média, aos 11 anos, revela o estudo “EU Kids Online” [citado pelo jornal Expresso](https://expresso.pt/sociedade/2024-05-23-ha-criancas-de-11-anos-dependentes-de-pornografia-online-5c8d15e8) e que dá conta que em Portugal, 40% dos rapazes e 26% das raparigas entre os 9 e os 16 anos já viram conteúdos pornográficos.
+&gt;Segundo o jornal, os dados foram compilados em 2019, mas os especialistas acreditam que os números tenham aumentado depois da pandemia.
+&gt;O estudo adianta ainda que muitos dos sites já têm mecanismos de verificação da idade, no entanto são fracos.
+&gt;O fácil acesso a este tipo de conteúdos está a gerar preocupação, uma vez que quanto mais cedo se começa a consumir este tipo de conteúdos, maior é a probabilidade de ficar viciado.
+&gt;Dois anos depois dos dados terem sido compilados, o Fundo das Nações Unidas para a Infância (Unicef) alertou para a “enorme quantidade de pornografia disponível online, incluindo conteúdos cada vez mais gráficos e extremos que são facilmente acessíveis a menores de todas as idades”.REVISTA DE IMPRENSA || Em Portugal, 40% dos rapazes e 26% das raparigas entre os 9 e os 16 anos já viram conteúdos pornográficosO primeiro contacto com pornografia online acontece, em média, aos 11 anos, revela o estudo “EU Kids Online” citado pelo jornal Expresso e que dá conta que em Portugal, 40% dos rapazes e 26% das raparigas entre os 9 e os 16 anos já viram conteúdos pornográficos.Segundo o jornal, os dados foram compilados em 2019, mas os especialistas acreditam que os números tenham aumentado depois da pandemia.O estudo adianta ainda que muitos dos sites já têm mecanismos de verificação da idade, no entanto são fracos.O fácil acesso a este tipo de conteúdos está a gerar preocupação, uma vez que quanto mais cedo se começa a consumir este tipo de conteúdos, maior é a probabilidade de ficar viciado.Dois anos depois dos dados terem sido compilados, o Fundo das Nações Unidas para a Infância (Unicef) alertou para a “enorme quantidade de pornografia disponível online, incluindo conteúdos cada vez mais gráficos e extremos que são facilmente acessíveis a menores de todas as idades”.</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4083,7 +4907,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>programa piloto lisboa imagem lógica diria resíduos orgânicos correto contentor prédio vizinhos metem resíduos orgânicos dentro sacos plástico alguém ajuda esclarece único deposita orgânicos saco qdo único ponho questão mal</t>
+          <t>Programa piloto em Lisboa. 
+Pela imagem e lógica diria que seria só resíduos orgânicos correto?
+Mas no contentor do meu prédio os vizinhos metem resíduos orgânicos dentro de sacos de plástico. 
+Alguém me ajuda e esclarece?
+Sou único que deposita os orgânicos sem saco e qdo se é único ponho em questão se sou eu que estou mal</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4103,7 +4931,9 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>boa tarde venho pedir opiniões experiências pessoas mantenham mantiverem relações existe diferença escolaridade salários bastante diferença notaram complicações longo prazo nunca problema nível crescimento familiar notaram entrave pessoa ganha menos nunca ter tido pensamento paimãe dificuldades possam ter sentido obrigada desde feedback</t>
+          <t xml:space="preserve">Boa tarde,
+Venho pedir opiniões e experiências de pessoas que mantenham ou mantiverem relações em que existe uma diferença na escolaridade e salários com bastante diferença entre eles. Notaram complicações a longo prazo ou nunca foi um problema? A nível de crescimento familiar notaram que isso foi um entrave para a pessoa que ganha menos nunca ter tido o pensamento de ser pai/mãe? Que mais dificuldades possam ter sentido ou não?
+Obrigada desde já pelo feedback. </t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -4123,7 +4953,8 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>driving in portugal the first time an australian and when i go on the motorway per the sign im being passed by many car at great speed how fast you guy normally go on the motorway</t>
+          <t xml:space="preserve">Driving in Portugal for the first time as an Australian, and when I go 120 on the motorway as per the signs, I'm being passed by many cars at great speeds!
+How fast do you guys normally go on the motorway? </t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4143,7 +4974,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>httpsexpressoptinternacionalmedioorienteguerraisraelhamascolombiaanunciasuspensaodavendadecarvaoaisraelfahttpsexpressoptinternacionalmedioorienteguerraisraelhamascolombiaanunciasuspensaodavendadecarvaoaisraelfa suspenderemos exportações carvão israel cesse genocídio anunciou presidente colombiano gustavo petro avançado rutura relações diplomáticas israel presidente colombiano gustavo petro anunciou sábado país vai suspender breve exportações carvão israel enquanto guerra faixa gaza continuar suspenderemos exportações carvão israel cesse genocídio escreveu governante esquerda rede social x citado agência francepresse presidente colômbia anunciado maio rutura relações diplomáticas israel qualificando governo primeiroministro benjamin netanyahu genocida condução guerra faixa gaza além decisão pôr fim compra armas fabricadas israel principais fornecedores forças segurança país sulamericano decreto ministério comércio indústria detalha suspensão exportações carvão aplicada cumprimento integral medidas provisórias ordenadas tribunal internacional justiça âmbito processo aplicação convenção prevenção punição crime genocídio faixa gaza acordo governo colombiano medida entrará vigor cinco dia após publicação jornal oficial afetará mercadorias quais solicitada autorização transporte eleito primeiro presidente esquerda história colômbia gustavo petro criticou fortemente várias ocasiões guerra conduzida israel faixa gaza sequência ataques precedentes movimento islamita palestiniano hamas sul território israelita outubroclube expresso</t>
+          <t>[https://expresso.pt/internacional/medio-oriente/guerra-israel-hamas/2024-06-08-colombia-anuncia-suspensao-da-venda-de-carvao-a-israel-5f5141a2](https://expresso.pt/internacional/medio-oriente/guerra-israel-hamas/2024-06-08-colombia-anuncia-suspensao-da-venda-de-carvao-a-israel-5f5141a2)
+&gt;“Suspenderemos as exportações de carvão para Israel até que cesse o genocídio”, anunciou o presidente colombiano Gustavo Petro, que já tinha avançado com a rutura de relações diplomáticas com Israel
+&gt;O presidente colombiano Gustavo Petro anunciou este sábado que o seu país vai suspender em breve as exportações de carvão para Israel, enquanto a guerra na Faixa de Gaza continuar.
+&gt;"Suspenderemos as exportações de carvão para Israel até que cesse o genocídio", escreveu o governante de esquerda na rede social X, citado pela agência France-Presse.
+&gt;O presidente da Colômbia já tinha anunciado, em maio, a rutura de relações diplomáticas com Israel, qualificando o Governo do primeiro-ministro Benjamin Netanyahu de "genocida" na condução da guerra na Faixa de Gaza, além da decisão de pôr fim também à compra de armas fabricadas por Israel, um dos principais fornecedores das forças de segurança do país sul-americano.
+&gt;Um decreto do Ministério do Comércio e da Indústria detalha que a suspensão das exportações de carvão será aplicada "até ao cumprimento integral das medidas provisórias ordenadas pelo Tribunal Internacional de Justiça, no âmbito do processo de aplicação da Convenção para a Prevenção e Punição do Crime de Genocídio na Faixa de Gaza.
+&gt;De acordo com o Governo colombiano, a medida entrará em vigor cinco dias após a sua publicação no jornal oficial e não afetará as mercadorias para as quais já foi solicitada uma autorização de transporte.
+&gt;Eleito em 2022 como o primeiro presidente de esquerda na história da Colômbia, Gustavo Petro criticou fortemente, em várias ocasiões, a guerra conduzida por Israel na Faixa de Gaza, na sequência dos ataques sem precedentes do movimento islamita palestiniano Hamas no sul do território israelita, em 7 de outubro.Clube Expresso</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4163,7 +5001,19 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>hola everyone based on the recommendation of fellow redditor i have decided to repost the post of regrettable experience during my january stay in lisbon this post wa removed from lisbon subreddit presumably not to ruin the city image so ive decided to share it here to reach wider audience while i must admit that much of the fault lie with my own lack of caution and just plain stupidity i aim to shed light on the presence of such individual and activity within the capital and to advise others to be cautious despite this incident i must say that i really enjoyed my time in lisbon and view it one of the most beautiful city ive been to cheer the original post hello everyone ive arrived yesterday and i absolutely love the city unfortunately ive had very traumatic experience which ruined my visit yesterday near the lost inn hostel where im staying ive been mugged by group of guy selling baking soda i went get some food nearby and on the way there guy asked multiple time about buying some you know what i refused and went on i wa going back another guy came and kept asking and i kept refusing but he wa very persistent eventually the guy from before came with him and they kept pushing and demanding just to try some and i still kept refusing i really wanted to get them off and did really stupid thing i tried it and said i will come later to buy but he said hey you opened it now you have to pay u or we will call the bos i said i dont have that money on and then he took look in my wallet and took i had and said to go to the atm and get more money i said i dont have anymore and then he called the bos three more guy appeared and they said to if i dont get the money they will break my face i went to the atm got the money gave them but then the bos slipped large package and said to give him or they will beat up i quickly hid my other card in the pocket and withdrew all the remaining money from the other one gave them and explained i dont have any more which they eventually believed because atm wasnt giving money so they left i wa so traumatised i threw the product away now im not sure what to so im asking here i know that i can not get the money back but should i call the police could i get in trouble shouldve i kept the product evidence please any info would be helpful i know i did the stupid thing in the beginning but i still want to serve them justice thank you i will try to enjoy this beautiful city in the following day</t>
+          <t xml:space="preserve">Hola everyone, based on the recommendation of a fellow redditor, I have decided to repost the post of a regrettable experience during my January stay in Lisbon. This post was removed from Lisbon subreddit, presumably not to ruin the city's image, so I've decided to share it here to reach a wider audience. While I must admit that much of the fault lies with my own lack of caution and just plain stupidity, I aim to shed light on the presence of such individuals and activities within the capital and to advise others to be cautious. Despite this incident, I must say that I really enjoyed my time in Lisbon and view it as one of the most beautiful cities I´ve been to. 
+Cheers! 
+The original post: 
+Hello everyone,   
+I've arrived yesterday and I absolutely love the city.   
+Unfortunately I've had a very traumatic experience, which ruined my visit.   
+Yesterday near the Lost Inn Hostel, where I'm staying, I've been  mugged by a group of guys, selling "baking soda". I went get some food  nearby and on the way there, a guy asked me multiple times about buying  some you know what, I refused and went on. As I was going back another  guy came and kept asking me and I kept refusing, but he was very  persistent. Eventually the guy from before came with him and they kept  pushing and demanding just to try some and I still kept refusing.   
+I really wanted to get them off and did a really stupid thing, I  tried it and said I will come later to buy, but he said: "Hey, you  opened it, now you have to pay us 80€ or we will call the boss". I said I  don't have that money on me, and then he took a look in my wallet and  took 50€ I had and said to go to the ATM and get more money. I said I  dont have anymore and then he called the boss. Three more guys appeared  and they said to me, if I don't get the money they will break my face.   
+I went to the ATM, got the money gave them, but then the boss  slipped me a large package and said to give him 300€ or they will beat  me up. I quickly hid my other card in the pocket and withdrew all the  remaining money from the other one (200€), gave them and explained I  don't have any more, which they eventually believed, because ATM wasn't  giving me money, so they left.   
+I was so traumatised, I threw the product away now I'm not sure what to do, so I'm asking here.   
+I know, that I cannot get the money back, but should I call the  police? Could I get in trouble? Should've I kept the product as  evidence?   
+Please, any info would be helpful, I know I did the stupid thing in the beginning, but I still want to serve them justice.   
+Thank you, I will try to enjoy this beautiful city in the following 2 days.   </t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4183,7 +5033,10 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditsclhbehcjpgwidthformatpjpgautowebpsdcccbaedeefbcdcae fazendo contas preço estrangeiros compram preço portuguese compram preço médio casas m possível calcular percentagem casas ante m comprada estrangeiros percentagem comprada portuguese estrangeiros compraram apenas casas ante m</t>
+          <t xml:space="preserve">&amp;#x200B;
+https://preview.redd.it/s5clh9b1e7hc1.jpg?width=1056&amp;format=pjpg&amp;auto=webp&amp;s=d3465c53c354133290cbae3577d6eef9b0c2dcae
+Mas fazendo as contas ao preço que os estrangeiros compram, ao preço que os portugueses compram e ao preço médio das casas por m2 é possível calcular qual é a percentagem de casas, ou antes de m2, que é comprada por estrangeiros e a percentagem comprada por portugueses. 
+Os estrangeiros compraram apenas 5,7% das casas, ou antes dos m2. </t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4203,7 +5056,18 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>httpsexecutivedigestsapoptnoticiasrussiapodevenceraguerranaucranianumaquestaodesemanasalertacasabrancahttpsexecutivedigestsapoptnoticiasrussiapodevenceraguerranaucranianumaquestaodesemanasalertacasabranca francisco laranjeira httpsexecutivedigestsapoptauthorfranciscolaranjeira jan rússia pode vencer guerra ucrânia questão semanas máximo par meses convicção administração biden alertou passada quintafeira grupo legisladores possibilidade voz conselheiros segurança nacional casa branca jake sullivan diretora inteligência nacional avril haines segundo dado capitólio desde kremlin invadiu ucrânia primeira vez atualidade eua atribuíram mil milhões dólares assistência segurança ajudar kiev preservar integridade territorial proteger fronteiras melhorar cooperação nato deste montante administração biden aprovou mil milhões dólares apoio desde fevereiro entanto nova ajuda ucrânia bloqueada congresso desde outono faz parte legislação forneceria financiamento israel taiwan segurança fronteiras estados unidos outubro joe biden solicitou especificamente mil milhões dólares ajuda militar adicional kiev ainda resistência muitos republicanos congresso bloqueado pacote ajuda muitos senadores republicanos defendem ucrânia deve resolver próprio conflito territorial deve disposta ceder território quiser alcançar paz reunião casa branca legisladores ocorreu porta fechada serviços inteligência americanos avisaram ucrânia ficar munições prestes ceder frente efeitos dramáticos estados unidos vez poderia levar outros países japão coreia sul repensar alianças mensagem vitória russa deveria facto eua terem conseguido cumprir repercutirá todo mundo</t>
+          <t xml:space="preserve">[https://executivedigest.sapo.pt/noticias/russia-pode-vencer-a-guerra-na-ucrania-numa-questao-de-semanas-alerta-casa-branca/](https://executivedigest.sapo.pt/noticias/russia-pode-vencer-a-guerra-na-ucrania-numa-questao-de-semanas-alerta-casa-branca/)
+&gt;  [ Por **Francisco Laranjeira** ](https://executivedigest.sapo.pt/author/francisco-laranjeira/) **14:17, 22 Jan 2024**       
+&gt;  
+&gt;A Rússia pode vencer a guerra na Ucrânia numa  questão de semanas ou, no máximo, um par de meses: esta é a convicção  da Administração Biden, que alertou, na passada quinta-feira, um grupo  de legisladores para a possibilidade pela voz dos conselheiros de  Segurança Nacional da Casa Branca, Jake Sullivan, e pela diretora de  Inteligência Nacional, Avril Haines.   
+&gt;  
+&gt;Segundo dados do Capitólio, desde 2014, quando o Kremlin invadiu a  Ucrânia pela primeira vez, até à atualidade, os EUA atribuíram mais de  46 mil milhões de dólares em assistência de segurança para ajudar Kiev a  preservar a sua integridade territorial, proteger as suas fronteiras e  melhorar a cooperação com a NATO.  
+&gt;  
+&gt;Deste montante, a Administração Biden aprovou mais de 43 mil milhões  de dólares em apoio desde fevereiro de 2022. No entanto, a nova ajuda à  Ucrânia está bloqueada no Congresso desde o outono e faz parte de uma  legislação que forneceria financiamento para Israel, Taiwan e a  segurança das fronteiras dos Estados Unidos.   
+&gt;  
+&gt;Em outubro, Joe Biden solicitou especificamente 60 mil milhões de  dólares em ajuda militar adicional para Kiev, ainda que a resistência de  muitos republicanos no Congresso tenha bloqueado o pacote de ajuda: há  muitos senadores republicanos que defendem que a Ucrânia deve resolver o  seu próprio conflito territorial e deve estar disposta a ceder  território se quiser alcançar a paz.   
+&gt;  
+&gt;A reunião entre a Casa Branca e os legisladores ocorreu de porta  fechada, mas os serviços de inteligência americanos avisaram que a  Ucrânia está a ficar sem munições e está prestes a ceder na frente, o  que teria efeitos dramáticos para os Estados Unidos, uma vez que poderia  levar outros países, como o Japão ou Coreia do Sul, a repensar as suas  alianças: a mensagem era que a vitória russa se deveria ao facto de os  EUA não terem conseguido cumprir, o que se repercutirá em todo o mundo. </t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -4223,7 +5087,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>why so many portuguese people hate speed camera and say they are only there making money well saying speeding is perfectly safe and should not be punished australian say that speed camera are there to save life and that speeding is dangerous and should be punished the speed limit in australia tend to be bit lower than portugal too interested to hear viewpoint from both portuguese and australian</t>
+          <t xml:space="preserve">Why do so many Portuguese people hate speed cameras and say they are only there for making money? As well as saying speeding is perfectly safe and should not be punished 
+Australians say that speed cameras are there to save lives and that speeding is dangerous and should be punished 
+The speed limits in Australia tend to be a bit lower than Portugal too 
+Interested to hear viewpoints from both Portuguese and Australians 
+</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -4243,7 +5111,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>httpssicnoticiasptpaisvideoemportugaltodososdiasereportadoumcasodeviolenciasexualnasescolasba</t>
+          <t>https://sicnoticias.pt/pais/2024-10-11-video-em-portugal-todos-os-dias-e-reportado-um-caso-de-violencia-sexual-nas-escolas-511ba149</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4263,7 +5131,8 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>aprecio bastante forma apresenta notícias pessoa parece sóbria profissional boa naquilo faz bonita apresentase sempre gosto têm algum apresentador cujo estilo apreciem particularmente</t>
+          <t>Aprecio bastante a forma como ela apresenta as notícias. Uma pessoa que me parece ser sóbria, profissional e boa naquilo que faz, muito bonita e apresenta-se sempre com gosto.
+E vocês, têm algum apresentador cujo estilo apreciem particularmente?</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -4283,7 +5152,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>partir hoje vivemos défice ecológico humanidade usa recursos naturais ecossistemas planeta conseguem regenerar portugal pegada ecológica httpspreviewredditlxuwphtgdpngwidthformatpngautowebpsbdbdfeddafbbcfdfdcacb pareceme difícil evitar desastre esgotamento recursos habitantes países pobres querem viver melhor aumento consumo ness países maior países rico podem conseguir reduzir logo extremamente difícil evitar pegada ecológica mundial diminua diminua atuais tendência deve subir descer ameaça esgotamento recursos essenciais iminente</t>
+          <t xml:space="preserve">A partir de hoje vivemos em défice ecológico.
+# A humanidade usa mais 74% de recursos naturais do que os ecossistemas do planeta conseguem regenerar . Portugal tem pegada ecológica de 2,75 
+https://preview.redd.it/lxuw0pht93gd1.png?width=1199&amp;format=png&amp;auto=webp&amp;s=81065bd7bd0fed49daf0b0b282c72f2dfd35cacb
+Parece-me muito difícil evitar um desastre por esgotamento de recursos, os habitantes dos países pobres querem viver melhor e o aumento do consumo nesses países será maior do que aquilo que os países mais ricos podem conseguir reduzir, logo é extremamente difícil evitar que a pegada ecológica mundial diminua e que diminua dos 1,7 atuais para 1. A tendência deve ser para subir e não para descer, até que a ameaça de esgotamento de recursos essenciais esteja iminente. 
+</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -4303,7 +5176,13 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>httpsexecutivedigestsapoptnoticiaspaivivepesadeloaposverfilhoraptadopelamaeequeixasequeeignoradopelajusticahttpsexecutivedigestsapoptnoticiaspaivivepesadeloaposverfilhoraptadopelamaeequeixasequeeignoradopelajustica igor brito vive pesadelo doi ano desde filho raptado mãe mandados detenção emitidos portugal têm validade espanha deixando pai situação impotência incerteza quanto futuro filho sentado chão hospital vigo espanha onde fala língua igor brito relatum correio manhã história desespero frustração discuto justiça pai doi ano roubaram filho desabafa desde mãe levou menino local desconhecido igor iniciou batalha judicial mandados detenção emitidos portugal europa suspeita criança dubai recentemente mãe menino encontrados espanha comportamento suspeito mãe levou médicos chamarem polícia menino internado pneumonia avisado vigo pensei pesadelo terminado diz igor entanto devido férias judiciais falta validade mandados espanha pesadelo continuum evitar mãe volta desaparecer filho igor tentar providência cautelar impedir menino alta hospital posso arriscar mãe volta desaparecer tão pouco institucionalizado explica correio manhã doi polícias vigiam agora porta quarto criança aguardando instruções justiça portuguesa enquanto tanto igor quanto mãe podem visitar menino garantias fuja novamente dubai poder paternal menino ainda regulamentado apesar existir processo rapto mandados emitidos portugal ausência prolongada mãe impedido qualquer decisão judicial advogada igor maria josé guiomar feito tudo alcance incluindo pedidos tribunal menores sucesso criança permanece internada hospital vigo incerteza sobre futuro persiste possibilidade institucionalizada espanha cima mesa decisão poderia tomada autoridades espanholas situação resolvida rapidamente</t>
+          <t>[https://executivedigest.sapo.pt/noticias/pai-vive-pesadelo-apos-ver-filho-raptado-pela-mae-e-queixa-se-que-e-ignorado-pela-justica/](https://executivedigest.sapo.pt/noticias/pai-vive-pesadelo-apos-ver-filho-raptado-pela-mae-e-queixa-se-que-e-ignorado-pela-justica/)
+&gt;Igor Brito vive um pesadelo há dois anos, desde que o seu filho foi raptado pela mãe. Os mandados de detenção emitidos em Portugal não têm validade em Espanha, deixando o pai numa situação de impotência e incerteza quanto ao futuro do seu filho.
+&gt;Sentado no chão de um hospital em Vigo, Espanha, onde se fala uma língua que não é a sua, Igor Brito relata ao Correio da Manhã a sua história de desespero e frustração. “Eu não discuto Justiça, eu sou só um pai a quem há dois anos roubaram um filho,” desabafa. Desde que a mãe levou o menino para um local desconhecido, Igor iniciou uma batalha judicial. Mandados de detenção foram emitidos em Portugal e fora da Europa, com a suspeita de que a criança estivesse no Dubai.
+&gt;Recentemente, a mãe e o menino foram encontrados em Espanha. O comportamento suspeito da mãe levou os médicos a chamarem a polícia quando o menino foi internado com pneumonia. “Fui avisado que ele estava em Vigo e pensei que o pesadelo tinha terminado,” diz Igor. No entanto, devido às férias judiciais e à falta de validade dos mandados em Espanha, o pesadelo continua.
+&gt;Para evitar que a mãe volte a desaparecer com o filho, Igor está a tentar uma providência cautelar para impedir que o menino tenha alta do hospital. “Não posso arriscar que a mãe volte a desaparecer, nem tão pouco que ele seja institucionalizado,” explica ao Correio da Manhã. Dois polícias vigiam agora a porta do quarto da criança, aguardando instruções da justiça portuguesa. Enquanto isso, tanto Igor quanto a mãe podem visitar o menino, mas não há garantias de que ela não fuja novamente para o Dubai.
+&gt;O poder paternal do menino ainda não foi regulamentado. Apesar de existir um processo de rapto e mandados emitidos em Portugal, a ausência prolongada da mãe tem impedido qualquer decisão judicial. A advogada de Igor, Maria José Guiomar, tem feito tudo ao seu alcance, incluindo pedidos ao Tribunal de Menores, mas sem sucesso.
+&gt;A criança permanece internada no Hospital de Vigo, e a incerteza sobre o seu futuro persiste. A possibilidade de ser institucionalizada em Espanha está em cima da mesa, uma decisão que poderia ser tomada pelas autoridades espanholas se a situação não for resolvida rapidamente.</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4323,7 +5202,8 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>trabalho área engenharia todos colaboradores fazem horário h h intervalos min h almoço portanto h trabalho dia hora extra paga contrato trabalho contrato termo certo contempla horário apenas diz fazer horário vigência empresa fala compensação horas extra sendo faço exemplo h semanais recebo nenhuma compensação dúvida legal alguma maneira empresa justificar</t>
+          <t>No meu trabalho (área de engenharia) todos os colaboradores fazem o horário das 8h às 18h, com 2 intervalos de 15min e 1h de almoço e, portanto, 9h de trabalho por dia. Esta hora extra não é paga. No contrato de trabalho (contrato a termo certo) não contempla o horário (apenas diz que tenho de fazer o horário em vigência na empresa). Também não fala em compensação por horas extra (sendo que quando faço, por exemplo 50h semanais, não recebo nenhuma compensação).
+A minha dúvida é: isto é legal? Há alguma maneira de a empresa justificar isto?</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -4343,7 +5223,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>httpsexpressopteconomiaeconomiaenergiaprepareseparaumextranafaturadeeletricidadeserviraparapagaratarifasocialdequemmenosganhaafe</t>
+          <t>https://expresso.pt/economia/economia_energia/2024-04-15-prepare-se-para-um-extra-na-fatura-de-eletricidade-servira-para-pagar-a-tarifa-social-de-quem-menos-ganha-17af946e</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4363,7 +5243,8 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>xb jornal notícias janeiro httpspreviewredditcnjvrcddcjpgwidthformatpjpgautowebpscecaccdecaafeef</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 15 janeiro de 2024](https://preview.redd.it/c22njvrcd1dc1.jpg?width=2044&amp;format=pjpg&amp;auto=webp&amp;s=c1e2c20acc0175932154d3e6665caa1f8e19e1f3)</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4383,7 +5264,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>via ninguém rua ficaram admirados tristes porque apenas viam algumas pessoas esplanadas cafés pastelarias convívio pessoas vizinhos claramente quase desaparecido vila fica interior norte visto cenário muitas outras povoações aldeias vila basta urbanização dessa povoação permita uso automóvel desde porta casa destino pretendido pessoas entram automóvel ainda casa saem porta ponto destino parecia quase povoação fantasma ruas ruas desertas única pessoa andar nelas automóveis circular daqui ali consequência enorme diminuição convívio pessoas população estiolar sentimento pertença comunidade população isolamento social basta ir povoação uso automóvel possa tão intenso parecerem serem povoação vida convívio pessoas comércio rua</t>
+          <t xml:space="preserve">Não se via ninguém na rua. 
+Ficaram admirados, e tristes, porque apenas se viam algumas pessoas nas esplanadas dos cafés e pastelarias. O convívio entre as pessoas, os vizinhos tinha claramente quase desaparecido.  
+A vila fica no interior norte mas tenho visto o mesmo cenário em muitas outras povoações, aldeias e vilas. 
+Basta que a urbanização dessa povoação permita o uso do automóvel desde a porta de casa até ao destino pretendido. As pessoas entram no automóvel ainda em casa e saem dele à porta do ponto de destino. 
+Parecia quase uma povoação fantasma. Ruas e ruas desertas, sem uma única pessoa a andar nelas, com os automóveis a circular daqui para ali.
+A consequência é uma enorme diminuição do convívio entre as pessoas da população, um estiolar do sentimento de pertença à comunidade da população, o isolamento social. 
+Mas basta ir a uma povoação em que uso do automóvel não possa ser tão intenso, para parecerem (e serem) povoação com muito mais vida, mais convívio entre as pessoas e com mais comércio de rua. 
+</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -4403,7 +5291,8 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>httpspreviewredditaehnnndjpgwidthformatpjpgautowebpsfbebadeedcfe conhecem alguns</t>
+          <t>https://preview.redd.it/846ae5h1nnnd1.jpg?width=378&amp;format=pjpg&amp;auto=webp&amp;s=71919158619f5beb589a57960415d2e7e63dc5fe
+Conhecem mais alguns?</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -4423,7 +5312,9 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>httpswwwrtpptnoticiaspaisemigrantesportuguesesqueixamsedosnovosemigrantesemfrancav emigrantes portuguese paris dizem pensar regressar definitivamente portugal queixamse turbulência politica social frança regresso pode implicar separação famílias</t>
+          <t>https://www.rtp.pt/noticias/pais/emigrantes-portugueses-queixam-se-dos-novos-emigrantes-em-franca_v1590915
+Emigrantes portugueses em Paris dizem estar a pensar em regressar definitivamente a Portugal. Queixam-se da turbulência politica e social em França, mas o regresso pode implicar a separação das famílias.
+...</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -4443,7 +5334,13 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>httpssetemargenscomasolidaoeumaepidemiaecadavezmaisjovenssofremdelatambemhttpssetemargenscomasolidaoeumaepidemiaecadavezmaisjovenssofremdelatambem solidão epidemia transversal toda idades cada vez jovens pedir apoio centros gescuta gabinete escuta lisboa fundado revelação sandra chaves costa última edição programa margens antena httpswwwrtpptplaypemargens verdade problema atinge sobretudo pessoas acima ano temse alargado outras faixas etárias fenómeno complexo paradoxal porque pode acontecer inclusivamente rodeados pessoas exemplo seio família afirma responsável gescuta conta pessoas regime voluntariado acompanhar sente necessidade escutadohttpswwwgabinetedeescutapt gescuta fez atendimentos durante ano gabinetes funcionamento igreja mamede centro social paroquial oeiras centro comercial colombo todos área lisboa pode contactado além página digital telefone endereço geralgabinetedeescutaptmailtogeralgabinetedeescutapt sandra chaves costa licenciada engenharia química biotecnologia pósgraduação gestão oito ano mudou vida criar gescuta algumas pessoas fez mestrado couselling universidade ramon llull barcelona formações adicionais áreas pessoas resistência mudança reconstrução autoestima pastoral saúde crisis existenciais perda sentido vida desesperança revolta deus evitou doença sofrimento luto ansiedade algumas razões levam pessoas procurar gescuta diz sandra chaves costa questões solidão trauma relações pais filhos abordados livro pássaros aqui brasileiro victor vidal vencedor prémio leya atendimentos percentagem mulheres procuram ajuda continuum dominante cerca enquanto jovens atendidos passou ano passado provável subam ainda gescuta pretende espaço acolhimento necessário pessoas aconselhadas procurar ajuda especializada embora realidades diferentes tendências referidas linha números têm sido divulgados âmbito saúde mental ano lectivo cerca amostra mil adolescentes país apresentou sintomas depressãohttpsnoticiassaudeptsobeparaonumerodeadolescentesemportugalcomsintomasdepressivos universidades esgotaram verbas apoios saúde mental estudanteshttpswwwpublicoptsociedadenoticiauniversidadesesgotamverbadisponivelapoiossaudementalestudantes</t>
+          <t>[https://setemargens.com/a-solidao-e-uma-epidemia-e-cada-vez-mais-jovens-sofrem-dela-tambem/](https://setemargens.com/a-solidao-e-uma-epidemia-e-cada-vez-mais-jovens-sofrem-dela-tambem/)
+&gt;“A solidão é uma epidemia”, é “transversal a todas as idades” e há cada vez mais jovens a pedir apoio a centros como os do GEscuta (Gabinete de Escuta), de Lisboa, fundado em 2016. A revelação é de Sandra Chaves Costa na última edição do programa [7MARGENS, da Antena 1](https://www.rtp.pt/play/p12257/e779663/7-margens).
+&gt;Se é verdade que o problema atinge sobretudo as pessoas acima dos 75 anos, ela tem-se alargado a outras faixas etárias. “É um fenómeno que é complexo, é paradoxal, porque pode acontecer inclusivamente quando estamos rodeados de pessoas, por exemplo no seio de uma família”, afirma a responsável do GEscuta, que conta com 12 pessoas em regime de voluntariado, a acompanhar quem sente [necessidade de ser escutado](https://www.gabinetedeescuta.pt).
+&gt;O GEscuta fez 330 atendimentos durante o ano de 2023, nos gabinetes em funcionamento na Igreja de São Mamede, no Centro Social Paroquial de Oeiras e no centro comercial Colombo, todos na área de Lisboa. (Pode ser contactado, além da página digital, pelo telefone 964 400675 ou pelo endereço [geral@gabinetedeescuta.pt](mailto:geral@gabinetedeescuta.pt))
+&gt;Sandra Chaves Costa é licenciada em Engenharia Química (Biotecnologia), com uma pós-graduação em Gestão, mas há oito anos mudou de vida para criar o GEscuta, com mais algumas pessoas. Fez um mestrado em “Couselling” pela Universidade Ramon Llull de Barcelona, formações adicionais em áreas como “pessoas com resistência à mudança”, “reconstrução de autoestima” e “Pastoral da Saúde”.
+&gt;“Crises existenciais, perda de sentido de vida, desesperança, revolta para com um Deus que não evitou a doença ou o sofrimento, o luto, a ansiedade” são algumas das razões que levam as pessoas a procurar o GEscuta, diz Sandra Chaves Costa (e questões como a solidão, o trauma ou as relações entre pais e filhos são também abordados no livro *Não* *Há* *Pássaros* *Aqui*, do brasileiro Victor Vidal, vencedor do Prémio Leya 2023). Nos atendimentos, a percentagem de mulheres que procuram ajuda continua a ser dominante (cerca de 80 %), enquanto a de jovens atendidos passou de 2% em 2019 para 21% no ano passado – e em 2024 é provável que subam ainda mais.
+&gt;O GEscuta pretende ser um espaço de acolhimento e, quando necessário, as pessoas são aconselhadas a procurar ajuda especializada. Mas, embora sejam realidades diferentes, as tendências referidas estão em linha com números que têm sido divulgados no âmbito da saúde mental: **no ano lectivo 22-23, cerca de 45% de uma amostra de 13 mil adolescentes no país apresentou** [**sintomas de depressão**](https://noticiassaude.pt/sobe-para-45-o-numero-de-adolescentes-em-portugal-com-sintomas-depressivos/)**;** e as universidades esgotaram já as verbas para [apoios à saúde mental dos estudantes](https://www.publico.pt/2024/06/08/sociedade/noticia/universidades-esgotam-verba-disponivel-apoios-saude-mental-estudantes-2093358).</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -4463,7 +5360,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ultimamente visto redes sociais repletas contrafações inclusive grupos telegram vendem contrafações ensinam vender tai contrafações preços originais antigamente perseguição vendedores ambulantes vendiam contrafeito abundante hoje dia perseguição acabou revenda destes produtos deixou crime penível</t>
+          <t xml:space="preserve">Ultimamente tenho visto as redes sociais estão repletas de contrafações, inclusive é grupos de telegram que vendem contrafações e ensinam como vender tais contrafações a preços de originais. Antigamente a perseguição aos vendedores ambulantes que vendiam contrafeito era abundante, hoje em dia essa perseguição acabou ? A revenda destes produtos deixou de ser crime penível ? </t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -4483,7 +5380,8 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>jornal notícias maio httpspreviewredditrrygigknydjpgwidthformatpjpgautowebpsdbedabddabcddcf pensava faziam testis ante autorizarem colocação mercado</t>
+          <t xml:space="preserve">[Jornal de Notícias 25 de maio de 2024](https://preview.redd.it/rr3ygigkny2d1.jpg?width=1071&amp;format=pjpg&amp;auto=webp&amp;s=31752d88be4432d6a5b9935dda121bc82d9dc6f3)
+Pensava que faziam os testes antes de autorizarem a colocação no mercado. </t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -4503,7 +5401,13 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>polónia disposta ajudar kyiv fazer regressar homens combater noticiasaominutocomhttpswwwnoticiasaominutocommundopoloniadispostaaajudarkyivafazerregressarhomensparacombater governo polónia anunciou pronto ajudar kyiv fazer regressar ucrânia homens expatriados idade combater noticia hoje agence francepresse afp segundo agência notícias francesa ministro defesa polaco kosiniakkamysz entrevista quartafeira noite adiantou polónia manifestado disponibilidade ajudar ucrânia garantir pessoas sujeitas serviço militar obrigatório ucrânia quartafeira governo ucraniano anunciou vai deixar emitir passaportes estrangeiro homens ucranianos idade tentativa mobilizar soldados lutar contra exército russo ministro ucraniano negócios estrangeiros dmytro kouleba aponta afp considerou injusta situação homens expatriados compatriotas morrer linha frente surpreende nada autoridades ucranianas fazer tudo podem enviar soldados frente disse ministro polaco wladyslaw kosiniakkamysz televisão comercial polsat cita afp afp refere ainda quartafeira anúncio kyiv centenas ucranianos aglomeraramse porta gabinete passaportes fechado varsóvia</t>
+          <t>[Polónia disposta a ajudar Kyiv a fazer regressar homens para combater (noticiasaominuto.com)](https://www.noticiasaominuto.com/mundo/2548168/polonia-disposta-a-ajudar-kyiv-a-fazer-regressarhomens-para-combater)
+&gt;O Governo da Polónia anunciou que está pronto a ajudar Kyiv a fazer regressar à Ucrânia os homens expatriados em idade de combater, noticia hoje a Agence France-Presse (AFP).
+&gt;Segundo aquela agência de notícias francesa, o ministro da Defesa polaco, Kosiniak-Kamysz, numa entrevista na quarta-feira à noite, adiantou que a Polónia já tinha manifestado disponibilidade para "ajudar a Ucrânia a garantir que as pessoas sujeitas ao serviço militar obrigatório fossem para a Ucrânia".
+&gt;Na quarta-feira, o Governo ucraniano anunciou que vai deixar de emitir passaportes no estrangeiro para homens ucranianos com idade entre os 18 e os 60, numa tentativa de mobilizar mais soldados para lutar contra o exército russo.
+&gt;O ministro ucraniano dos Negócios Estrangeiros, Dmytro Kouleba, aponta a AFP, considerou injusta a situação dos homens expatriados, quando os seus compatriotas estão a morrer na linha da frente.
+&gt;"Não me surpreende nada que as autoridades ucranianas estejam a fazer tudo o que podem para enviar soldados para a frente", disse o ministro polaco Wladyslaw Kosiniak-Kamysz à televisão comercial Polsat, cita a AFP.
+&gt;A AFP refere ainda que na quarta-feira, depois do anúncio de Kyiv, centenas de ucranianos aglomeraram-se à porta de um gabinete de passaportes fechado em Varsóvia.</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -4523,7 +5427,15 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>httpszapaeiouptalicioujogadoresparaperderemcontraobenficaboaventuracondenadoaanosemeseshttpszapaeiouptalicioujogadoresparaperderemcontraobenficaboaventuracondenadoaanosemeses empresário condenado três crime corrupção ativa após tentar comprar três jogadores rio ave perderem contra encarnados época empresário futebol césar boaventura condenado quartafeira tribunal matosinhos pena prisão cumulativa três ano quatro meses execução suspensa três crime corrupção ativa desporto empresário faltou leitura acórdão alegando doença ainda condenado pagamento mil euro favor instituição solidariedade social promoção desporto impedido ter atividade profissional agente jogadores forma direta indireta durante doi ano tribunal deu provado aliciamento exjogadores rio ave cássio marcelo lionn ilibou césar boaventura crime corrupção forma tentada antigo jogador marítimo romain salin xb</t>
+          <t>[https://zap.aeiou.pt/aliciou-jogadores-para-perderem-contra-o-benfica-boaventura-condenado-a-3-anos-e-4-meses-583918](https://zap.aeiou.pt/aliciou-jogadores-para-perderem-contra-o-benfica-boaventura-condenado-a-3-anos-e-4-meses-583918)
+&gt; E**mpresário condenado por três crimes de corrupção ativa após  “tentar comprar” três jogadores do Rio Ave para perderem contra os  encarnados, na época 2015/16.**  
+&gt;  
+&gt;   O empresário de futebol César Boaventura foi condenado esta  quarta-feira, pelo Tribunal de Matosinhos, a uma pena de prisão  cumulativa de **três anos e quatro meses, com execução suspensa**, por três crimes de corrupção ativa no desporto.  
+&gt;  
+&gt;O empresário, que faltou à leitura do acórdão alegando doença, foi ainda condenado ao **pagamento de** **30 mil euros**  a favor de uma instituição de solidariedade social ou de promoção do  desporto, e impedido de ter atividade profissional como agente de  jogadores, de forma direta ou indireta, durante dois anos.  
+&gt;  
+&gt;O tribunal deu como provado o aliciamento aos ex-jogadores do Rio Ave **Cássio**, **Marcelo** e **Lionn**, mas ilibou César Boaventura do crime de corrupção em forma tentada ao antigo jogador do Marítimo **Romain Salin**.
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -4543,7 +5455,10 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>boa noite criei galeria imagens artefactos idade bronze idade ferro portugal algumas peças importantes caracteristicas antepassados acho todos portuguese deviam conhecer artefactos tão antigos terra httpsprotogalblogspotcompgaleriadeartefactoshtmlhttpsprotogalblogspotcompgaleriadeartefactoshtml galeria completa continuarei expandila frequentemente</t>
+          <t xml:space="preserve">Boa noite, criei esta galeria de imagens de artefactos da idade do bronze e idade do ferro em portugal, são algumas das peças mais importantes e caracteristicas dos nossos antepassados, acho que todos os portugueses deviam conhecer estes artefactos tão antigos da nossa terra  
+[https://protogal.blogspot.com/p/galeria-de-artefactos.html](https://protogal.blogspot.com/p/galeria-de-artefactos.html)  
+a galeria não está completa, continuarei a expandi-la frequentemente 
+</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -4563,7 +5478,14 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>httpssapoptatualidadeartigospopulacaodaucraniadiminuiuemmilhoesdepessoasdesdeoiniciodainvasaohttpssapoptatualidadeartigospopulacaodaucraniadiminuiuemmilhoesdepessoasdesdeoiniciodainvasao população ucraniana diminuiu milhões pessoas desde invasão russa fevereiro provocou êxodo queda taxon natalidade informou hoje onu globalmente constatamos população ucrânia diminuiu milhões habitantes desde início guerra declarou florence bauer diretora regional fundo população nações unidas unfpa genebra diretora explicou redução resultado combinação fatores destacou ante escalada guerra ucrânia enfrentava importantes desafios demográficos ante guerra ucrânia menores taxas natalidade europa outras áreas leste europa outros países mundo população envelheceu jovens emigraram busca nova oportunidades destacou bauer desde início conflito milhões pessoas fugiram ucrânia taxon natalidade caiu filho mulher menores índices mundo abaixo limite renovar população crianças acrescentou diretora unfpa lamentou morte número significativo pessoas conflito</t>
+          <t xml:space="preserve">[https://24.sapo.pt/atualidade/artigos/populacao-da-ucrania-diminuiu-em-10-milhoes-de-pessoas-desde-o-inicio-da-invasao](https://24.sapo.pt/atualidade/artigos/populacao-da-ucrania-diminuiu-em-10-milhoes-de-pessoas-desde-o-inicio-da-invasao)
+&gt;A população ucraniana diminuiu em 10 milhões de pessoas desde a invasão russa em fevereiro de 2022, que provocou um êxodo e uma queda na taxa de natalidade, informou hoje a ONU.
+&gt;"Globalmente, constatamos que a população na Ucrânia diminuiu em mais de 10 milhões de habitantes desde o início da guerra", declarou Florence Bauer, diretora regional do Fundo de População das Nações Unidas (UNFPA), em Genebra.
+&gt;A diretora explicou que a redução é resultado de uma "combinação de fatores" e destacou que "mesmo antes da escalada da guerra", a Ucrânia enfrentava importantes desafios demográficos.
+&gt;Antes da guerra, a Ucrânia tinha uma das menores taxas de natalidade da Europa e, como em outras áreas do leste da Europa e em outros países do mundo, a população envelheceu e os jovens emigraram em busca de novas oportunidades, destacou Bauer.
+&gt;Mas desde o início do conflito, 6,7 milhões de pessoas fugiram da Ucrânia e a taxa de natalidade caiu para um filho por mulher. Este é "um dos menores índices do mundo e está muito abaixo" do limite para renovar a população, que é de 2,1 crianças, acrescentou.
+&gt;A diretora do UNFPA também lamentou a morte de "um número significativo" de pessoas no conflito.
+</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -4583,7 +5505,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>alguém reparou pululam restaurantes lojas estrangeiros lisboa tendo restaurantes snackbars tascas típicos lisboa sido reduzidos minoria indostão mourariamartim moniz onde odor ruas varia urinol caril toda cidade panóplia brunch lojas specialized coffee gelatarias italianas lojas doughnut cadeias cafés intitulam copenhagen coffee lab própria tradição café pâtisseries restaurantes toda parte mundo lugares nenhuma ligação portugal geórgia vietname começo achar demasiado dificuldade encontrar café onde possa pedir galão latte apenas comer petiscos tapa problema ocorrer substituição adição existia decorre diretamente própria população portuguesa substituída fossemos ingleses holandeses alemães outros qualquer tradição culinária digna desse nome entendia agora assim acho urgente travar crescimento desta erva daninha vai erradicando cada vez tradição bairrismo lisboeta chega</t>
+          <t>Mais alguém reparou que pululam restaurantes e lojas de e para estrangeiros em Lisboa, tendo os restaurantes, snack-bars e tascas típicos de Lisboa sido reduzidos a uma minoria?
+Fora o Indostão na Mouraria/Martim Moniz, onde o odor das ruas varia entre urinol e caril, há também por toda a cidade uma panóplia de "brunches", lojas de "specialized coffee", gelatarias italianas, lojas de doughnuts, cadeias de cafés que se intitulam "Copenhagen Coffee Lab" como se não tivéssemos a nossa própria tradição de café, "pâtisseries", e restaurantes de toda a parte do mundo (até de lugares com nenhuma ligação com Portugal, como a Geórgia ou o Vietname).
+Começo a achar demasiado quando tenho dificuldade em encontrar um café onde possa pedir um galão e não um "latte", ou apenas comer petiscos e não "tapas" e é este o problema! Está a ocorrer uma substituição e não uma adição ao que já existia, o que decorre diretamente de a própria população portuguesa estar a ser substituída.
+Se fossemos ingleses, holandeses, alemães, ou outros sem qualquer tradição culinária digna desse nome, até entendia, agora assim não, e acho urgente travar o crescimento desta erva daninha que vai erradicando cada vez mais a tradição e o bairrismo lisboeta.
+Chega!</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -4603,7 +5529,9 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>httpswwwjnptumadasmaisviolentasorganizacoesdaeuropatinhacentrodeoperacoesemlisboa violentas organizações europa mocro maffia lisboa centros operações aliás capital portuguesa vivia elementos topo rede dedicada tráfico droga raptos sequestros</t>
+          <t>https://www.jn.pt/3351052457/uma-das-mais-violentas-organizacoes-da-europa-tinha-centro-de-operacoes-em-lisboa/
+Uma das mais violentas organizações da Europa, a Mocro Maffia, tinha em Lisboa um dos seus centros de operações. Era, aliás, na capital portuguesa que vivia um dos elementos de topo da rede dedicada ao tráfico de droga, raptos e sequestros.
+...</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -4623,7 +5551,9 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>suponhamos encontravam desconhecidoa consideravam atraente percebiam podiam fazer sexo elea ninguém viesse saber total segurança nenhuma consequência desagradável fariam fariam view pollhttpswwwredditcompollcobpd</t>
+          <t>Suponhamos que encontravam um/a desconhecido/a que consideravam  muito atraente e percebiam que podiam fazer sexo com ele/a sem que  ninguém viesse a saber, em total segurança e sem nenhuma consequência  desagradável.   
+Fariam? Não fariam?   
+[View Poll](https://www.reddit.com/poll/1co2bpd)</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -4643,7 +5573,15 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>voluntariado vou fazendo ajudar famílias pobres ocorreu situação estranha acompanhamos toxicodependente finalmente quer tratarse deixar droga estado lastimável perdeu quilos últimos doi ano toda gente voltou costa queixase poi porque podíamos ajudálo sentir dor provocada consequências ações pior rouba agride mendiga arruma carros vamos interessa finalmente quer tratarse processo internamento instituição ajuda assistente social cá sítio ainda bem dissemoslhe apoiaríamos esperarmos ajuda assistência social todo processo demorado podium demasiado demorado desespero mau conselheiro perdeu bilhete identidade tempo atrás tempo suficiente cartão cidadão precisa internado pagar pode pedir atestado pobreza junta freguesia ok vai junta freguesia junta freguesia dizemlhe inscrito centro emprego ok vai centro emprego centro emprego dizemlhe precisa cartão cidadão bilhete identidade inscrever eis pescadinha rabo boca burocrática sim acabamos pagarlhe cartão cidadão sim internado tratamento espero finalmente saía droga homem inteligente vício droga facilmente arranja emprego razoavelmente bem pago</t>
+          <t>No voluntariado que vou fazendo para ajudar famílias pobres ocorreu uma situação estranha.
+Acompanhamos um toxicodependente que finalmente quer tratar-se e deixar a droga. Está num estado lastimável, perdeu mais de 25 quilos no últimos dois anos. Toda a gente me voltou as costas queixa-se ele. Pois, porque será?
+Podíamos ajudá-lo mais, mas se ele não sentir a dor provocada pelas consequências das ações dele será pior. Não rouba, não agride, mendiga, arruma carros.
+Mas vamos ao que interessa. Finalmente quer tratar-se e estava em processo de internamento numa instituição, com a ajuda da assistente social cá do sítio. Ainda bem, dissemos-lhe que o apoiaríamos, se esperarmos pela ajuda da assistência social todo o processo seria muito mais demorado, podia até ser demasiado demorado. O desespero é mau conselheiro.
+Mas ele perdeu o bilhete de identidade há muito tempo atrás. Tempo suficiente para não ser o cartão do cidadão. E precisa dele para ser internado. Para não pagar pode pedir um atestado de pobreza na junta de freguesia.
+OK, vai à junta de freguesia. Na junta de freguesia dizem-lhe que tem de estar inscrito no centro de emprego.
+OK, vai ao centro de emprego. No centro de emprego dizem-lhe que precisa do cartão do cidadão ou do bilhete de identidade para se inscrever...
+Eis a pescadinha de rabo na boca burocrática.
+Sim, acabamos por pagar-lhe o cartão do cidadão. Sim, está já internado em tratamento. Espero que finalmente saía da droga. Ele até é um homem inteligente e sem o vício da droga facilmente arranja um emprego razoavelmente bem pago.</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -4663,7 +5601,8 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditutanydacjpgwidthformatpjpgautowebpsdcbddebbdbacdbebdae</t>
+          <t>&amp;#x200B;
+https://preview.redd.it/8ut5an4yd0ac1.jpg?width=714&amp;format=pjpg&amp;auto=webp&amp;s=d05c2701bdde8b6b2d607b8ac7d6416b8eb1d4ae</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -4683,7 +5622,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>culpa peidar alto acreditem pudesse controlar largava bufas vez peidos paracem petardos deste tempo escola gozado causa disso hoje dia nada mudou sabem alguma técnica têm alguns conselhos aliviar gas barulhentos poder viver vida normal enviem comentários infantis tipo pôe rolha piada ainda cima tentei resultoutambém tentei usar calças cabedal apesar ajudar eliminar ruido gas começam acumular calças começam inchar zona nadegas pareço balão</t>
+          <t>Não tenho culpa de me peidar muito alto, acreditem, se pudesse controlar largava bufas em vez de peidos que paracem petardos. Deste o tempo da escola que era muito gozado por causa disso, hoje em dia nada mudou, sabem alguma técnica ou têm alguns conselhos para aliviar estes gases barulhentos e poder viver uma vida normal ? Não me enviem comentários infantis do tipo pôe uma rolha, não tem piada ainda por cima já tentei e não resultou.Também já tentei usar calças de cabedal e apesar de ajudar a eliminar o ruido os gases começam a acumular e as calças começam a inchar na zona das nadegas, pareço um balão.</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -4703,7 +5642,10 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>preguiçoso nunca esforcei trabalhei arduamente desde nasci empregos pessoas assim obrigado</t>
+          <t xml:space="preserve">
+Sou preguiçoso e nunca me esforcei /trabalhei arduamente desde que nasci.
+Há empregos para pessoas assim?
+Muito obrigado.</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -4723,7 +5665,8 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>comunicação social impedida entrar curral freiras verdade extremamente mau regime httpsmadeirartpptsociedadeacessovedadoexclusivamenteacomunicacaosocialvideo</t>
+          <t>A comunicação social foi impedida de entrar no Curral das Freiras. Se isto for verdade, é extremamente mau… Mais uma do regime. 
+https://madeira.rtp.pt/sociedade/acesso-vedado-exclusivamente-a-comunicacao-social-video/</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -4743,7 +5686,8 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>sabemos portugal sítio muitos viciados jogo jerónimo martin acha faz sentido colaboradores caixa impingirem lotaria euro cada compra legal</t>
+          <t xml:space="preserve">Sabemos que Portugal é um sítio com muitos viciados no jogo, por isso a Jerónimo Martins acha que faz sentido os colaboradores da caixa impingirem uma lotaria de 5 euros em cada compra.
+Isto é legal? </t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -4763,7 +5707,15 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>httpssapoptatualidadeartigosleiportuguesaprotegecriminososeforagidosdeteridentidadereveladapelasautoridadeshttpssapoptatualidadeartigosleiportuguesaprotegecriminososeforagidosdeteridentidadereveladapelasautoridades regime proteção dado vigente portugal proíbe divulgação imagens pessoas foragidas justiça portuguese lista procurados interpol todos acusados cometer crime estrangeiro regulamento geral proteção dado demasiado restritivo toca divulgação imagens pessoas foragidas justiça autoridades nacionais acreditam sim pedem regime alterado noticiahttpswwwjnptportugalblindaidentidadedecriminososeforagidos jornal notícias causa facto atual lei proibir divulgação fotografias mulheres homens procurados polícia justificandose reserva direito imagem tal autoridades nacionais acreditam sofrer desvantagens relação congéneres europeias toca localização suspeitos publicação destas fotografias ajudaria investigação admite fernando santos chefe brigadas unidade informação criminal uic polícia judiciária jn neste momento pessoas fuga particularmente mira autoridades europeias figurando europe most wanted fugitivehttpseumostwantedeu gerida rede europeia equipas procura ativa fugitivos âmbito europol aponta jn toda explicitada idade nacionalidade descrição física crime pessoa acusada assim fotografia salvo algumas exceções além disso alguns suspeitos incluem menção perigosos qualquer português nesta lista estrangeiro cometido crime portugal contrário passa interpol organização internacional polícia criminal coordena investigações autoridades policiais todo mundo site interpol portugueseshttpswwwinterpolinthowweworknoticesrednoticesviewrednotices foragidos lista procurados maioria imagem dado pessoais publicados casos contornam legislação portuguesa porque tratam casos suspeitos crime noutros países procurados autoridades desses estados caso exemplo serafim pereira almeida cruz procurado argentina contrabando estupefacientes vitaly gudkov cidadão russoportuguês procurado moscovo crime fraude larga escala entanto aponta jn exceções permanecem ativos cerca mandados detenção nome condenados suspeitos prática crime portugal nenhum figura site</t>
+          <t>[https://24.sapo.pt/atualidade/artigos/lei-portuguesa-protege-criminosos-e-foragidos-de-ter-identidade-revelada-pelas-autoridades](https://24.sapo.pt/atualidade/artigos/lei-portuguesa-protege-criminosos-e-foragidos-de-ter-identidade-revelada-pelas-autoridades)
+&gt;O regime de proteção de dados vigente em Portugal proíbe a divulgação de imagens de pessoas foragidas à Justiça. Há 11 portugueses na lista dos mais procurados da Interpol, mas todos eles são acusados de cometer crimes no estrangeiro.
+&gt;Será que o Regulamento Geral de Proteção de Dados é demasiado restritivo no que toca à divulgação de imagens de pessoas foragidas à justiça? As autoridades nacionais acreditam que sim, e pedem que o regime seja alterado, [noticia](https://www.jn.pt/1772904390/portugal-blinda-identidade-de-criminosos-e-foragidos/) o Jornal de Notícias.
+&gt;Em causa está o facto da atual lei proibir a divulgação de fotografias de mulheres e homens procurados pela polícia, justificando-se essa reserva com o direito à imagem. Como tal, as autoridades nacionais acreditam sofrer desvantagens em relação às suas congéneres europeias no que toca à localização de suspeitos. "A publicação destas fotografias ajudaria muito a investigação", admite Fernando Santos, chefe das brigadas da Unidade de Informação Criminal (UIC) da Polícia Judiciária, ao JN.
+&gt;Há neste momento 56 pessoas em fuga particularmente na mira das autoridades europeias, figurando na "[Europe’s Most Wanted Fugitive](https://eumostwanted.eu/)”, gerida pela Rede Europeia de Equipas de Procura Ativa de Fugitivos no âmbito da Europol. Como aponta o JN, em todas elas está explicitada a idade, a nacionalidade, a descrição física e os crimes de que a pessoa é acusada, assim como uma fotografia, salvo algumas exceções. Além disso, alguns dos suspeitos incluem a menção de que são perigosos.
+&gt;Não há qualquer português nesta lista ou estrangeiro que tenha cometido crimes em Portugal, ao contrário do que se passa na Interpol, a Organização Internacional de Polícia Criminal que coordena investigações entre autoridades policiais de todo o mundo.
+&gt;No site da Interpol,[ há 11 portugueses](https://www.interpol.int/How-we-work/Notices/Red-Notices/View-Red-Notices#) foragidos na lista dos mais procurados, a maioria com imagem e dados pessoais publicados. Estes casos contornam a legislação portuguesa porque se tratam de casos de suspeitos de crimes noutros países, procurados pelas autoridades desses estados.
+&gt;É o caso, por exemplo, de Serafim Pereira Almeida da Cruz, procurado pela Argentina por "Contrabando de Estupefacientes". Ou Vitaly Gudkov, cidadão russo-português procurado por Moscovo pelo crime de "fraude de larga escala".
+&gt;No entanto, como aponta o JN, estas são as exceções, já que permanecem ativos cerca de 800 mandados de detenção com o nome de condenados ou suspeitos da prática de crimes em Portugal, mas nenhum deles figura no site.</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -4783,7 +5735,8 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>xb jornal notícias janeiro httpspreviewredditlwucfoqdlecjpgwidthformatpjpgautowebpsaacdcbedaaeeecbbbdea</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 25 janeiro de 2024 ](https://preview.redd.it/lwucfoqd4lec1.jpg?width=1067&amp;format=pjpg&amp;auto=webp&amp;s=4aa67c00d8c3be7d9aa4e0958e3ecbbbd002e54a)</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -4803,7 +5756,15 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ana privatizada sido permitido aumento taxas acima inflação algumas centenas cento apesar volume negócios ter duplicado lucro ter quadriplicado foilhe permitido investir abaixo prometeu início estado protegido bem interesses ana inclusivamente deulhe direito prática escolher local novo aeroporto obriga fazer obras contratualizadas acaso exministro arnaut fazer assessoria jurídica privatizações parar presidente nbsp tap pública pagar ninguém defende pagar boa parte desses aumentos taxas ana cada aterragem passou euro sofre imenso falta investimento aeroporto parte dificuldades portela resolvemse aumento terminal espaço estacionamento aviões movimentação ante aterrarem apesar tap queixar falta investimento ana ano agora governo intimou ana fazer obras obrigada país diferente havendo eleições todos meses</t>
+          <t>À ANA, que foi privatizada em 2013, tem sido permitido um aumento de taxas muito acima da inflação, algumas de centenas por cento.
+Apesar do volume de negócios ter duplicado e o lucro ter quadriplicado, foi-lhe permitido investir 19% abaixo do que prometeu no início.
+O Estado tem protegido bem os interesses da ANA, inclusivamente deu-lhe o direito na prática de escolher o local do novo aeroporto e não a obriga a fazer obras contratualizadas.
+Não é por acaso que o ex-ministro Arnaut, depois de fazer a assessoria jurídica às privatizações, foi parar a seu Presidente.
+&amp;nbsp;
+Já a TAP que é pública e que somos nós a pagar ninguém a defende. Tem que pagar boa parte desses aumentos de taxas da ANA (cada aterragem passou de 100 para 372 euros).
+E sofre imenso com a falta de investimento no aeroporto. Parte das dificuldades da Portela resolvem-se com aumento do terminal, mais espaço para estacionamento de aviões e de movimentação antes e depois de aterrarem.
+Apesar da TAP que é nossa se queixar da falta de investimento da ANA há anos, só agora o governo intimou a ANA a fazer as obras a que está obrigada. 
+Este seria um país diferente havendo eleições todos os meses.</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -4823,7 +5784,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>httpsexecutivedigestsapoptnoticiasfalsaprofessoradematematicarecorredodespedimentoparaosupremotribunaladministrativodefesaalegaqueprazoslegaisforamultrapassadoshttpsexecutivedigestsapoptnoticiasfalsaprofessoradematematicarecorredodespedimentoparaosupremotribunaladministrativodefesaalegaqueprazoslegaisforamultrapassados paula pinto pereira professor matemática lecionou durante ano ter habilitações legais recorreu demissão supremo tribunal administrativo adiantou sextafeira cnn portugal causa abertura inquérito quase seis meses após primeira três denúncias deram entrada inspeçãogeral educação lei clara fixa prazo dia contar conhecimento factos instauração processo disciplinar primeira denúncia anónima chegou inspeçãogeral educação março segunda chegou três dia terceira última denúncia anónima recebida quatro meses julho ano agosto determinada abertura processo inquérito concluído sete meses março processo disciplinar culminou decisão demissão professora exigência devolução quase mil euro instaurado doi dia abril sequência temporal questionada docente recurso supremo defesa denúncias continham factos processo inquérito aberto cinco meses lei omissa quanto prazo abertura inquérito clara fixa prazo dia contar conhecimento factos instauração processo disciplinar acordo tese instauração processo disciplinar aconteceu ano conhecimento denúncia superiores hierárquicos professora recurso refere ainda prescrição factos entrega comprovativos habilitações realizouse ano letivos acordo defesa professora matemática factos prescritos força decurso prazo prescrição longa ano contar prática factos recurso defende professora pode punida vez excedidos todos prazos previstos lei considerando superiores hierárquicos paula pinto pereira renunciaram direito punir</t>
+          <t>[https://executivedigest.sapo.pt/noticias/falsa-professora-de-matematica-recorre-do-despedimento-para-o-supremo-tribunal-administrativo-defesa-alega-que-prazos-legais-foram-ultrapassados/](https://executivedigest.sapo.pt/noticias/falsa-professora-de-matematica-recorre-do-despedimento-para-o-supremo-tribunal-administrativo-defesa-alega-que-prazos-legais-foram-ultrapassados/)
+&gt;Paula Pinto Pereira, a professor de Matemática que lecionou durante 30 anos sem ter habilitações legais, recorreu da demissão para o Supremo Tribunal Administrativo, adiantou esta sexta-feira a ‘CNN Portugal’. Em causa, está a abertura do inquérito quase seis meses após a primeira de três denúncias que deram entrada na Inspeção-Geral da Educação, quando a lei é clara quando “fixa um prazo de 60 dias a contar do conhecimento dos factos para instauração de um processo disciplinar”.
+&gt;A primeira denúncia anónima chegou à Inspeção-Geral da Educação a 12 de março de 2021; a segunda chegou três dias depois e a terceira e última denúncia anónima foi recebida quatro meses depois, a 15 de julho do mesmo ano. A 23 de agosto, foi determinada a abertura de um processo de inquérito, que seria concluído sete meses depois (29 de março de 2022). O processo disciplinar, que culminou na decisão de demissão da professora e na exigência de devolução de quase 350 mil euros, só é instaurado dois dias depois, a 1 de abril de 2022.
+&gt;Esta sequência temporal é questionada pela ‘docente’ no recurso para o Supremo. Para a defesa, as denúncias já continham os factos e o processo de inquérito foi aberto mais de cinco meses depois. E se a lei é omissa quanto a prazo para abertura de inquérito, é clara quando “fixa um prazo de 60 dias a contar do conhecimento dos factos para instauração de um processo disciplinar”. De acordo com esta tese, a instauração do processo disciplinar aconteceu mais de um ano depois do conhecimento da denúncia pelos superiores hierárquicos da professora.
+&gt;O recurso refere ainda a prescrição dos factos – a entrega dos comprovativos de habilitações realizou-se nos anos letivos de 1990/91, 1993 e 2002: de acordo com a defesa da professora de Matemática, são factos prescritos por força do decurso do prazo de prescrição longa (um ano a contar da prática dos factos). Ou seja, o recurso defende que a professora não pode ser punida uma vez que foram excedidos todos os prazos previstos na lei, considerando que os superiores hierárquicos de Paula Pinto Pereira renunciaram ao direito de punir.</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -4843,7 +5808,9 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>sítio certo desde miúda completamente apaixonada filme castelo andante howl moving castle adoro estilo visual magia atmosfera toque especial fantasia filme agora procura algo semelhante pouco perdida quero encontrar filmes séries transmitam mesma vibe algo leve mágico idealmente disponível português ptpt alguma recomendação</t>
+          <t>Não se este é o sítio certo, mas desde miúda que sou completamente apaixonada pelo filme "Castelo Andante" (Howl's Moving Castle). Adoro o estilo visual, a magia, a atmosfera e o toque especial de fantasia que o filme tem. Agora estou à procura de algo semelhante, mas estou um pouco perdida.
+Quero encontrar filmes ou séries que me transmitam a mesma vibe: algo leve, mágico e idealmente disponível em português (pt-pt).
+Alguma recomendação?</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -4863,7 +5830,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>bom dia todoas questão debatida neste momento ouve falar medium tratado pandémico organização mundial saúde resumidamente tratado pretende criar sistema oms poderes sobrepor lei internas cada país situações pandemia acho assunto merece maior visibilidade pouco fala vossa opinião sobre</t>
+          <t xml:space="preserve">Bom dia a todo(a)s
+Há uma questão que está a ser debatida neste momento e da qual não se ouve falar nos media, que é o "Tratado Pandémico" da Organização Mundial de Saúde.
+Resumidamente, este Tratado pretende criar um sistema em que a OMS terá poderes para se sobrepor às leis internas de cada país, em situações de pandemia.
+Acho que este assunto merece maior visibilidade, mas pouco se fala dele.
+Qual é a vossa opinião sobre isto ?
+</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -4883,7 +5855,8 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>procurar sub portuguese encontrado bastantes sub partilha conteúdos nsfw todos bastantes membros post frequentes maioria post fotos mulheres dizer dão informações sobre dá bem perceber claramente feitos mulheres parecem grupos partilha revenge porn onde percebo além ilegal vai contra regras reddit possível tantos tantos membros ativos genuinamente fiquei chocada acho estranho fale nisso assustador pensar quão banal partilha desses conteúdos claramente consentimento dessas mulheres quantas pessoas partilhar vingança coisas íntimas forma tão pública perguntome quantas sabem acontecer descobriram devem exposição muitas trabalhadoras sexo façam conteúdos onlyfans afins deixa ilegal repugnante partilha consentimento sei espero post descoberta definitivamente estragou dia</t>
+          <t>Ao procurar subs portugueses tenho encontrado bastantes subs de partilha de conteúdos NSFW, todos eles com bastantes membros e posts frequentes. A maioria dos posts são fotos de mulheres a dizer que dão informações sobre elas (dá bem para perceber o que é, claramente não são feitos por essas mulheres), parecem grupos de partilha de "Revenge porn" e até onde percebo além de ilegal também vai contra as regras do Reddit. Como é possível haver tantos e com tantos membros ativos? Eu genuinamente fiquei chocada e acho estranho que nem se fale nisso... É assustador pensar no quão banal é a partilha desses conteúdos, claramente sem consentimento dessas mulheres, e quantas pessoas estão a partilhar por vingança coisas íntimas e de forma tão pública. Pergunto-me quantas nem sabem que lhes está a acontecer e aquelas que descobriram como é que não devem estar com essa exposição... Mesmo que muitas sejam trabalhadoras do sexo, façam conteúdos para onlyfans e afins, não deixa de ser ilegal e repugnante essa partilha sem consentimento.
+Nem sei o que espero com este post mas essa descoberta definitivamente estragou o meu dia.</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -4903,7 +5876,47 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>httpscnnportugaliolptmadeiraministeriopublicoarguidosestaodetidoshaoitodiasporqueministeriopublicoseesqueceudeprovasnamadeirabbfcadefcbcaahttpscnnportugaliolptmadeiraministeriopublicoarguidosestaodetidoshaoitodiasporqueministeriopublicoseesqueceudeprovasnamadeirabbfcadefcbcaa advogados doi suspeitos corrupção madeira ainda interrogados chamados urgência tribunal campus justiça lisboa advogados doi suspeitos corrupção madeira chamados urgência tribunal campus justiça lisboa quintafeira decorrer interrogatório empresário custódio correia três detidoshttpsecosapoptinterrogatoriosaossuspeitosdecorrupcaonamadeirajaarrancaram restantes ainda sido ministério público decidiu chamar advogados avelino farinha raul soares veiga pedro calado paulo sá cunha razões eco sabe ministério público feito chegar chamado ticão algumas provas apreendidas nomeadamente relativas construção hospital funchal fazem parte inquérito apercebeu arguidos detidos vários dia arguidos processo custódio correia ouvido quintafeira juiz instrução criminal chegados documentos advogados outros detidos chamados precisamente analisar prova entrada tribunal central instrução criminal h advogado raul soares veiga mandatário avelino farinha líder grupo construção afa referiu sido chamado urgência trata inquérito quintafeira começaram interrogatórios três detidos semana operação suspeitas corrupção madeirahttpsecosapoptinterrogatoriosaossuspeitosdecorrupcaonamadeirajaarrancaram pedro calado presidente demissionário câmara funchal custódio correia empresário principal acionista grupo ligado construção civil socicorreia avelino farinha líder grupo construção afa pedro calado formalizou segundafeira renúncia cargo presidente maior câmara madeira custódio correia avelino farinha detidos janeiro sequência cerca buscas domiciliárias domiciliárias efetuadas polícia judiciária pj sobretudo madeira açores várias zona continente causa cerca crime vão desde corrupção prevaricação segundo ministério público pedro calado suspeito sete crime corrupção passiva crime punido pena prisão oito ano pena pode chegar dez ano agravada custódio correia suspeito três crime corrupção ativa avelino farinha quatro crime corrupção ativa artigo cp pune agente pena prisão cinco ano lista crime fica aqui apesar concretizar ministério público sublinha ainda suscetíveis integrar prática arguidos crime prevaricação recebimento oferta indevidos vantagem participação económica negócio abuso poderes tráfico influência poderão cerca cinco crime cada arguidos advogados juízes contra detenção oito dia quartafeira centena advogados exigiram detidos possam presentes juiz instrução criminal conhecerem medidas coação prazo máximo inultrapassável horas cumprindo constituição segundo subscritores carta enviada lusa prazo poderá ultrapassar horas casos excecionais devidamente fundamentados observando princípios estrita necessidade proporcionalidade sublinhando prática últimos ano sido manter cidadãos detidos vários dia após identificação primeiras horas conhecerem medidas coação advogados argumentam necessário todos cidadãos detidos possam presentes juiz instrução criminal terem conhecimento medidas coação aplicadas prazo máximo inultrapassável horas salvo casos excecionais devidamente fundamentados observando princípios estrita necessidade proporcionalidade ordem advogados reagiu dizendo constatado preocupação existência detenção cidadãs serem submetidos primeiro interrogatório judicial ficando detidos vários dia interrogatório concluído prazo razoável proporcional diz comunicado bastonária fernanda almeida pinheiro independentemente entendimentos jurídicos possam existir quanto matéria aceitável tipo atuação torne frequente banalizada casos mediáticos processos contra cidadão anónimo ordem advogados espera tipo atuação revisto rapidamente todos agentes justiça percebam percebem advogados situações podem continuar existir segundo constituição república portuguesa detenção submetida prazo máximo horas apreciação judicial restituição liberdade imposição medida coação adequada devendo juiz conhecer causa determinaram comunicálas detido interrogálo darlhe oportunidade defesa determina ainda prisão preventiva natureza excecional sendo decretada mantida sempre possa aplicada caução outra medida favorável prevista lei decisão judicial ordene mantenha medida privação liberdade deve logo comunicada parente pessoa confiança detido indicados acrescenta definindo prisão preventiva sujeita prazos estabelecidos lei xb</t>
+          <t>[https://cnnportugal.iol.pt/madeira/ministerio-publico/arguidos-estao-detidos-ha-oito-dias-porque-ministerio-publico-se-esqueceu-de-provas-na-madeira/20240201/65bbfc1ad34e371fc0bca2a3](https://cnnportugal.iol.pt/madeira/ministerio-publico/arguidos-estao-detidos-ha-oito-dias-porque-ministerio-publico-se-esqueceu-de-provas-na-madeira/20240201/65bbfc1ad34e371fc0bca2a3)
+&gt;Advogados dos dois suspeitos de corrupção na Madeira – que ainda não  foram interrogados – foram chamados "de urgência" ao tribunal no Campus  de Justiça, em Lisboa  
+&gt;  
+&gt;Os advogados de dois dos suspeitos de corrupção na Madeira foram  chamados “de urgência” ao tribunal no Campus de Justiça, em Lisboa. Esta  quinta-feira estava a decorrer[ o interrogatório ao empresário Custódio Correia, um dos três detidos.](https://eco.sapo.pt/2024/01/31/interrogatorios-aos-suspeitos-de-corrupcao-na-madeira-ja-arrancaram/) Os  restantes ainda não o tinham sido. E, por isso, o Ministério Público  decidiu chamar os advogados de Avelino Farinha (Raul Soares da Veiga) e  de Pedro Calado (Paulo de Sá e Cunha).  
+&gt;  
+&gt;As razões?  
+&gt;  
+&gt;O ECO sabe que o Ministério Público não tinha feito chegar ao chamado  Ticão algumas das provas apreendidas, nomeadamente as relativas à  construção do hospital do Funchal – e não só – que também fazem parte do  inquérito. E só se apercebeu já com os arguidos detidos há vários dias.  Um dos arguidos do processo, Custódio Correia, estava a ser ouvido esta  quinta-feira pelo juiz de instrução criminal.  
+&gt;  
+&gt;Chegados os documentos, os advogados dos outros detidos foram  chamados precisamente para analisar essa prova. À entrada do Tribunal  Central de Instrução Criminal, pelas 14h00, o advogado Raul Soares da  Veiga, mandatário de Avelino Farinha, líder do grupo de construção AFA,  referiu que tinha sido chamado de “urgência”.  
+&gt;  
+&gt;  
+&gt;  
+&gt;De que se trata este inquérito?  
+&gt;  
+&gt;Na quinta-feira, [começaram os interrogatórios aos três detidos há uma semana numa operação por suspeitas de corrupção na Madeira:](https://eco.sapo.pt/2024/01/31/interrogatorios-aos-suspeitos-de-corrupcao-na-madeira-ja-arrancaram/) Pedro  Calado, presidente demissionário da Câmara do Funchal, Custódio  Correia, empresário e principal acionista do grupo ligado à construção  civil Socicorreia, e Avelino Farinha, líder do grupo de construção AFA  
+&gt;  
+&gt;Pedro Calado, que formalizou na segunda-feira a renúncia ao cargo de  presidente da maior câmara da Madeira, Custódio Correia e Avelino  Farinha foram detidos a 24 de janeiro, na sequência de cerca de 130  buscas domiciliárias e não domiciliárias efetuadas pela Polícia  Judiciária (PJ) sobretudo na Madeira, mas também nos Açores e em várias  zonas do continente.  
+&gt;  
+&gt;Em causa estão cerca de 30 crimes que vão desde corrupção a  prevaricação. Segundo o Ministério Público, Pedro Calado é suspeito de  sete crimes de corrupção passiva. Este crime é punido com pena de prisão  de um a oito anos, mas a pena pode chegar aos dez anos se for agravada.  
+&gt;  
+&gt; Já Custódio Correia é suspeito de três crimes de corrupção ativa e  Avelino Farinha de quatro. O crime de corrupção ativa (artigo 374.º do  CP), pune o agente com pena de prisão de um a cinco anos.  
+&gt;  
+&gt;Mas a lista de crimes não fica por aqui. Apesar de não concretizar, o  Ministério Público sublinha que “são ainda suscetíveis de integrar a  prática pelos arguidos dos crimes de prevaricação, recebimento ou oferta  indevidos de vantagem, participação económica em negócio, abuso de  poderes e tráfico de influência”. Ou seja: poderão ser cerca de cinco  crimes por cada um dos arguidos.  
+&gt;  
+&gt;Advogados e juízes contra detenção de oito dias  
+&gt;  
+&gt;Esta quarta-feira, mais de uma centena de advogados exigiram que os  detidos possam ser presentes a um juiz de instrução criminal e  conhecerem as medidas de coação no prazo “máximo e inultrapassável de 48  horas”, cumprindo a Constituição.  
+&gt;  
+&gt;Segundo os subscritores de uma carta enviada à Lusa, o prazo só  poderá ultrapassar as 48 horas “em casos excecionais devidamente  fundamentados e observando princípios de estrita necessidade e  proporcionalidade”, sublinhando que a prática nos últimos anos tem sido a  de manter os cidadãos detidos por vários dias, após a sua identificação  nas primeiras 48 horas, sem conhecerem as medidas de coação.  
+&gt;  
+&gt; Os advogados argumentam que é necessário que “todos os cidadãos  detidos possam ser presentes a um juiz de instrução criminal e terem  conhecimento das medidas de coação aplicadas no prazo máximo e  inultrapassável de 48 horas, salvo em casos excecionais devidamente  fundamentados e observando princípios de estrita necessidade e  proporcionalidade”.  
+&gt;  
+&gt;A Ordem dos Advogados também já reagiu dizendo que “tem constatado  com preocupação a existência de detenção de cidadãs para serem  submetidos a primeiro interrogatório judicial, ficando detidos por  vários dias sem que o interrogatório seja concluído num prazo razoável e  proporcional”, diz o comunicado da bastonária Fernanda de Almeida  Pinheiro. Independentemente dos entendimentos jurídicos que possam  existir quanto a esta matéria, “não é aceitável que este tipo de atuação  se torne frequente e banalizada, seja em casos mediáticos seja em  processos contra o cidadão anónimo”. A Ordem dos Advogados espera que  este tipo de atuação “seja revisto rapidamente e todos os agentes da  justiça percebam, como percebem os advogados, que situações como estas  não podem continuar a existir”.  
+&gt;  
+&gt; Segundo a Constituição da República Portuguesa, “a detenção será  submetida, no prazo máximo de 48 horas, a apreciação judicial, para  restituição à liberdade ou imposição de medida de coação  adequada, devendo o juiz conhecer das causas que a determinaram e  comunicá-las ao detido, interrogá-lo e dar-lhe oportunidade de defesa”.  
+&gt;  
+&gt;Determina ainda que “a prisão preventiva tem natureza excecional, não  sendo decretada nem mantida sempre que possa ser aplicada caução ou  outra medida mais favorável prevista na lei”.  
+&gt;  
+&gt;“A decisão judicial que ordene ou mantenha uma medida de privação da  liberdade deve ser logo comunicada a parente ou pessoa da confiança do  detido, por este indicados”, acrescenta, definindo que “a prisão  preventiva está sujeita aos prazos estabelecidos na lei”.
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -4923,7 +5936,9 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>vi tvi email dso casos gémeas confirmação mentiras cima mentiras dou garantido basta politico abrir boca achei graça alegar tal caso costa cunha ultrapassar burocracias usa pressões fazer coisas ilegais passar cima outros direitos falar burcocracia pode falar razões humanitárias porque razões humanitárias sempre amigo milionários casal filho mesma doença pai remendar cadeira pedaços madeira conforme filho cresce amigo precisam cadeiras nova mil euro pagas</t>
+          <t>Vi na TVi os emails dso casos das gémeas. Confirmação das mentiras em cima de mentiras. Isso já dou como garantido. Basta um politico abrir a boca.
+Achei graça foi alegar tal como no caso do Costa, que a cunha era para ultrapassar burocracias. Quando se usa pressões para fazer coisas ilegais e passar por cima de outros que tinham mais direitos, não se está falar de burcocracia.
+E não se pode falar de razões humanitárias. Porque essas "razões humanitárias" são sempre para amigos milionários. Há um casal que tem um filho com a mesma doença, que o pai tem que remendar a cadeira com pedaços de madeira, conforme o filho cresce. Para os "amigos" que nem precisam há cadeiras novas de 60 mil euros pagas por nós.</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -4943,7 +5958,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>httpsoregioesptsicetvicondenadasapagarmaisdemilhoesdeeurospelosdireitosdosartistas</t>
+          <t>https://oregioes.pt/sic-e-tvi-condenadas-a-pagar-mais-de-10-milhoes-de-euros-pelos-direitos-dos-artistas/</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -4963,7 +5978,23 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>httpscortafitasblogssapoptoregressodoscromagnonhttpscortafitasblogssapoptoregressodoscromagnon joãoafonso machado história absolutamente verdadeira ocorreu cerca hora contase assim recheada testemunhas presenciais i comboio suburbano vinha porto norte páginas tantas quatro barulhentos indíviduos três homens mulher quê exibindo arma branca desataram dar pancada doi pacatos indianos vinham famalicão ii bateram selvaticamente deixandoo ferido necessitar tratamento hospitalar após fugiram estação s tomão coronado pouco longe destino indianos sendo cautela ainda perguntaram onde dirigiam iii carruagem ficou encharcada sangue ninguém nela moveu dedo auxílio vítimas iv meliantes apresentavamse cabeça rapada cabelo pintado extravagantemente todos tatuagens posto v indianos comunmente gente pacífica ordeira migraram ganhar sustento encontramse muitas vezes ainda desenquadrados desambientados sendo presa fácil deste tipo energúmenos vi quais agem normalmente selváticos propósitos raciais políticos adianta ocultar lê redes sociais tal respeito arrogância vg troglodita chamado mário machado talvez maior mentor deste tipo atitudes quanto sabe ocasionalmente encarcerado vii neste contexto haverá sempre distinguir machados pedra lascada sobredito caso demais machados sobretudos oriundos melhores forjas rhur viii chegada famalicão desceram três testemunhas vítima companheiro surgiram carro psp ambulância seguiu hospital ix falei outro indiano manifestamente apavorado x criminosos identificados sairem s romão estarão algures agora rindo façanha gruta restantes bando hoje saciado fome amanhã porventura voltarão emboscadas xi vale dizer certeza apanhados quiçá próxima alguém agir lestamente concluindo xii xenófobo raça primitiva tatuada énos manifestamente inferior qualquer motivo dê caça</t>
+          <t>[https://corta-fitas.blogs.sapo.pt/o-regresso-dos-cro-magnon-8373401](https://corta-fitas.blogs.sapo.pt/o-regresso-dos-cro-magnon-8373401)
+&gt;por João-Afonso Machado, em 04.12.24
+&gt;A história é absolutamente verdadeira, ocorreu há cerca de uma hora e conta-se assim, recheada de testemunhas presenciais:
+&gt;I - O comboio suburbano vinha do Porto para norte. A páginas tantas, quatro barulhentos indíviduos -  três homens e uma mulher - sem mais nem quê, e exibindo uma arma branca, desataram a dar pancada em dois pacatos indianos que vinham para Famalicão.
+&gt;II - Bateram selvaticamente num deles, deixando-o ferido e a necessitar de tratamento hospitalar, após o que fugiram na estação de S. Tomão do Coronado, um pouco longe do destino dos indianos (sendo que, à cautela, ainda perguntaram a estes para onde se dirigiam).
+&gt;III - A carruagem ficou encharcada em sangue e ninguém nela moveu um dedo em auxílio das vítimas.
+&gt;IV - Os meliantes apresentavam-se de cabeça rapada, eles, e de cabelo pintado extravagantemente, ela. Todos com as suas tatuagens.
+&gt;Isto posto:
+&gt;V - Os indianos são comunmente gente pacífica e ordeira. Migraram para ganhar o seu sustento, encontram-se muitas vezes ainda desenquadrados e desambientados, sendo presa fácil deste tipo de energúmenos.
+&gt;VI - Os quais agem normalmente com selváticos propósitos raciais e políticos. Não adianta ocultar o que se lê nas redes sociais a tal respeito, ou a arrogância *v.g.* de um troglodita chamado Mário Machado, talvez o maior mentor deste tipo de atitudes e, quanto se sabe, ocasionalmente não encarcerado.
+&gt;VII - (Neste contexto, haverá sempre que distinguir os machados de pedra lascada - o sobredito caso - e os demais machados, sobretudos os oriundos das melhores forjas do Rhur...)
+&gt;VIII - À chegada a Famalicão, desceram três testemunhas com a vítima e o seu companheiro, e surgiram um carro da PSP e a ambulância que depois seguiu para o hospital.
+&gt;IX - Falei com o outro indiano que, manifestamente, estava apavorado.
+&gt;X - Os criminosos, não identificados, ao sairem em S. Romão estarão algures, agora, rindo da sua façanha em uma gruta e com os restantes do bando. Por hoje terão saciado a sua fome; amanhã, porventura, voltarão a mais emboscadas.
+&gt;XI - Vale dizer, com certeza não serão apanhados; quiçá na próxima, se alguém agir lestamente.
+&gt;Concluindo:
+&gt;XII - Sou um xenófobo. Esta raça primitiva e tatuada é-nos manifestamente inferior. E não há qualquer motivo para que não se lhes dê caça.</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -4983,7 +6014,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>fotografia ums meses</t>
+          <t>fotografia de há ums meses</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -5003,7 +6034,18 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>gentleman driver português conduz devagar gastar rolamentos rodas pneus coloca sempre carro pertinho berma estrada gastar alcatrão acciona piscas virar utiliza apenas polegar indicador desgastar plástico segura volante mínimo dedos possível mesmas razões retira plásticos proteção tablier botões desgastem chegar cruzamento nunca prioridade deixa sempre toda gente passar frente venha direita cede prioridade outros humildade caracteriza nobre povo levanta mão cumprimentar todos peões passeio assim outros condutores estaciona carro tenta sempre ocupar apenas metade lugar poupar portagens escolhe sempre pórtico funcionário pagar moedas trava suavemente posicionar junto janela funcionário conversa pouco despedese cumprimento ante arrancar lentamente dizendo grato senhor engenheiro portagens além disso dia chuva verdadeiro gentleman driver português nunca usa limpavidros máximo gastar borrachas prefere deixar chuva acumular pouco vidro poi sabe vidro bem molhado requer manutenção assim poupa próxima viagem</t>
+          <t>Um "gentleman driver" português conduz devagar para não gastar os rolamentos das rodas e os pneus. 
+Coloca sempre o carro pertinho da berma da estrada para não gastar o alcatrão. 
+Quando acciona os piscas para virar, utiliza apenas o polegar e o indicador, para não desgastar o plástico.
+ Também segura o volante com o mínimo de dedos possível, pelas mesmas razões. 
+Não retira os plásticos de proteção do tablier e dos botões, para que não se desgastem. 
+Ao chegar a um cruzamento, nunca tem prioridade; deixa sempre toda a gente passar à sua frente, mesmo que venha da direita. 
+Cede a prioridade aos outros com a humildade que caracteriza o nosso nobre povo. 
+Levanta a mão para cumprimentar todos os peões no passeio, assim como os outros condutores. 
+Quando estaciona o carro, tenta sempre ocupar apenas metade do lugar, para poupar.
+Nos portagens, escolhe sempre o pórtico com um funcionário para pagar em moedas. 
+Trava suavemente para se posicionar junto à janela do funcionário, conversa um pouco com ele e depois despede-se com um cumprimento antes de arrancar lentamente, dizendo: "Muito grato, senhor engenheiro das portagens.
+Além disso, em dias de chuva, um verdadeiro "gentleman driver" português nunca usa os limpa-vidros no máximo, para não gastar as borrachas. Prefere deixar a chuva acumular um pouco no vidro, pois sabe que um vidro bem molhado não requer manutenção, e assim poupa para a próxima viagem!</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -5023,7 +6065,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>httpsecosapopttribunalconfirmamultademilhoesaocarteldabanca</t>
+          <t>https://eco.sapo.pt/2024/09/20/tribunal-confirma-multa-de-225-milhoes-ao-cartel-da-banca/</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -5043,7 +6085,9 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>tocaramme campainha testemunha jeová queria discutir assunto bíblico sobre futuro ameaçado despachei gajo porque acredito nada disso gajo continuum tocar campainhas parou embora ameacei chamar polícia sequer legal estarem incomodar pessoas</t>
+          <t>Tocaram-me à campainha e era um testemunha de Jeová que queria discutir um assunto bíblico, sobre se o futuro está ameaçado. Despachei o gajo, até porque não acredito em nada disso,
+O gajo continua a tocar as campainhas, e só parou e foi embora quando ameacei chamar a polícia.
+Isto é sequer legal estarem a incomodar as pessoas?</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -5063,7 +6107,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>httpsecosapoptgovernoacabacomprimaziatotaldocompradordecasasobreabancaquandoconstrutorentraeminsolvencia</t>
+          <t>https://eco.sapo.pt/2024/08/02/governo-acaba-com-primazia-total-do-comprador-de-casa-sobre-a-banca-quando-construtor-entra-em-insolvencia/</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -5083,7 +6127,15 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>httpswwwdinheirovivoptprodutoresdevinhopedemaogovernomaismilhoesparaacabarcomexcedenteshttpswwwdinheirovivoptprodutoresdevinhopedemaogovernomaismilhoesparaacabarcomexcedentes bruxelas aprovou mobilização milhões euro destilação crise portugal admite montante possa vir complementado verbas nacionais milhões litros vinho excesso mercado nacional portugal preparase quarta vez cinco ano fazer nova destilação crise pagar vinhos excesso mercado queimados transformados álcool fin industriais energéticos milhões euro bruxelas aprovou semana destilação temporária excecional pretende ajudar fazer face acumulação stock precedentes ministro agricultura avisou proposta ainda aprovada votada dia julho colégio comissários setor considera valor insuficiente atendendo existência cerca milhões litros vinho vender pouco sabe ainda sobre operacionalizada destilação sendo certo comunicado deu conhecer pacote milhões ministro agricultura deixou claro trata medida repetida futuro atribuição apoio vai obedecer rigorosos critérios regras elegibilidade controlo produtores importado vinho últimos três ano elegíveis receber apoios destilação sextafeira parlamento josé manuel fernandes alertou destilação pequeno paliativo solução problema setor prometeu reforçar brutalmente fiscalização entrada vinho país questão desde portugal importado quase milhões litros vinho ano refere presidente andovi associação nacional denominações origem equivalente milhão garrafas dia todos dia ano loucura cria suspeição sobre vinho introduzido mercado diz francisco toscano rico responsável comissão vitivinícola região cvr lisboa país importava metade deste valor entretanto âmbito medidas apoio crise setor causa pandemia estado disponibilizou milhões euro quais destilação crise seis ajudas armazenamento verbas chegaram totalmente utilizadas nesse ano apesar ministra agricultura então ter aumentado cêntimos valor pago litro vinho denominação origem doc encaminhado destilação cêntimos vinhos indicação geográfica ig altura aprovada majoração regiões viticultura zona montanha cêntimos doc cêntimos vinhos ig nesse ano aprovada queima quase milhões litros vinho nova destilação crise embora referente ainda programa apoio setor causa covid permitiu retirar quase milhões litros excedentes sendo preço pago ano anterior milhões euro destinados fim serviram apenas retirar mercado pouco metade vinho adegas vitivinicultores propunhamse entregar destilação quase milhões litros dinheiro milhões complicar situação si difícil vindima cerca milhões litros maior desde elevadas últimas duas décadas indicou ine final ano passado associado quebra exportações redução consumo mercado nacional criou tempestade perfeita duas quebras explicam aproximadamente milhões litros menos</t>
+          <t>[https://www.dinheirovivo.pt/3020273332/produtores-de-vinho-pedem-ao-governo-mais-30-milhoes-para-acabar-com-excedentes/](https://www.dinheirovivo.pt/3020273332/produtores-de-vinho-pedem-ao-governo-mais-30-milhoes-para-acabar-com-excedentes/)
+&gt;Bruxelas aprovou a mobilização de 15 milhões de euros para uma destilação de crise em Portugal, mas admite que montante possa vir a ser complementado até 200% com verbas nacionais. Há 200 milhões de litros de vinho em excesso no mercado nacional.
+&gt;Portugal prepara-se para, pela quarta vez em cinco anos, fazer uma nova destilação de crise, ou seja, pagar para que os vinhos em excesso no mercado sejam queimados e transformados em álcool para fins industriais e energéticos. São 15 milhões de euros que Bruxelas aprovou, esta semana, para esta destilação “temporária e excecional”, que pretende ajudar a fazer face a uma acumulação de stocks “sem precedentes”. O ministro da Agricultura já avisou que a proposta tem ainda de ser aprovada, e que será votada, dia 19 de julho, no colégio de comissários, mas o setor considera o valor insuficiente, atendendo à existência de cerca de 200 milhões de litros de vinho por vender.
+&gt;Pouco se sabe ainda sobre como será operacionalizada a destilação, sendo certo que, no comunicado que deu a conhecer este pacote de 15 milhões, o ministro da Agricultura deixou já claro que se trata de uma medida “que não será repetida no futuro” e que a atribuição do apoio “vai obedecer a rigorosos critérios e regras de elegibilidade e de controlo”. Mais, os produtores que tenham importado vinho nos últimos três anos “não são elegíveis para receber apoios à destilação”. Na sexta-feira, no Parlamento, José Manuel Fernandes alertou que a destilação é “um pequeno paliativo” e não a solução para o problema do setor e prometeu “reforçar brutalmente” a fiscalização da entrada de vinho no país.
+&gt;A questão é que, desde 2019, Portugal tem importado quase 300 milhões de litros de vinho ao ano. Ou, como refere o presidente da ANDOVI, a Associação Nacional das Denominações de Origem, “é o equivalente a um milhão de garrafas ao dia, todos os dias do ano. Isto é uma loucura e cria suspeição sobre como é que esse vinho está a ser introduzido no mercado”, diz Francisco Toscano Rico, que é também o responsável da Comissão Vitivinícola da Região (CVR) de Lisboa. Em 2013, o país importava metade deste valor.
+&gt;Entretanto, em 2020, e no âmbito das medidas de apoio à crise no setor por causa da pandemia, o Estado disponibilizou 18 milhões de euros, 12 dos quais para uma destilação de crise e seis para ajudas ao armazenamento. Verbas que não chegaram a ser totalmente utilizadas nesse ano, apesar de a ministra da Agricultura de então ter aumentado de 40 para 60 cêntimos o valor pago por litro de vinho com denominação de origem (DOC) encaminhado para a destilação e de 30 para 45 cêntimos o dos vinhos com indicação geográfica (IG). Na altura, foi também aprovada uma majoração para regiões com viticultura em zona de montanha de 15 cêntimos nos DOC e de 20 cêntimos nos vinhos com IG.
+&gt;Nesse ano, foi aprovada a queima de quase 12 milhões de litros de vinho. Em 2021, nova destilação de crise, embora referente ainda ao programa de apoio ao setor por causa da covid, permitiu retirar quase 18 milhões de litros mais de excedentes, sendo que o preço pago foi o mesmo do ano anterior. Em 2023, foram 20 milhões de euros destinados ao mesmo fim, e serviram apenas para retirar do mercado pouco mais de metade do vinho que estava nas adegas: os vitivinicultores propunham-se entregar para destilação quase 58 milhões de litros, só houve dinheiro para 30 milhões.
+&gt;Para complicar uma situação que já de si era difícil, a vindima de 2023 foi de cerca de 750 milhões de litros, a maior desde 2006 e “uma das mais elevadas das últimas duas décadas”, indicou o INE no final do ano passado. O que, associado a uma quebra das exportações e a uma redução do consumo no mercado nacional, criou a tempestade perfeita. Só estas duas quebras explicam aproximadamente 150 milhões de litros a menos do que em 2022.
+&gt;...</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -5103,7 +6155,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>últimos ano parece cinema menos cinema comercial sofre crescente crise criatividade maiores sucessos novo filme série vários filmes nova versão filme menos antigo melhor hipóteses filme baseado livro menos sucesso filmes novos argumentos originais fazerem sucesso parecemme cada vez menos pareceme crise agravar concordam sim quais motivos</t>
+          <t>Nos últimos anos parece que o cinema, pelo menos o cinema mais comercial, sofre de uma crescente crise de criatividade. 
+Os maiores sucessos são o novo filme de uma série com vários filmes, ou a nova versão de um filme mais ou menos antigo, ou na melhor das hipóteses um filme baseado num livro com mais ou menos sucesso.
+Filmes novos, com argumentos originais, a fazerem sucesso parecem-me ser cada vez menos. 
+E isto parece-me ser uma crise que se está a agravar. 
+Concordam? Se sim quais os motivos para isto?</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -5123,7 +6179,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>jornal notícias junho httpspreviewredditjinowogiqdjpgwidthformatpjpgautowebpsbbaaadafbfcedfeacde</t>
+          <t>[Jornal de Notícias 20 de Junho de 2024](https://preview.redd.it/7jinowogiq7d1.jpg?width=356&amp;format=pjpg&amp;auto=webp&amp;s=46b8b7a6aa343d9af7b81f6ce1d9fe0a17c36d3e)</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -5143,7 +6199,8 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>httpsexpressoptsociedadesantacasadevedinheiroamaiororganizacaocriminosadobrasilcaa sorrir pra chorar</t>
+          <t>https://expresso.pt/sociedade/2024-06-13-santa-casa-deve-dinheiro-a-maior-organizacao-criminosa-do-brasil-3ca5355a
+Sorrir pra não chorar</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -5163,7 +6220,8 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>apenas esquerda identitaria tentar mudar forma pessoas percecionam realidade atraves linguagem empresas fazem deixam referir trabalhador trabalhador empregado usarem termo colaborador tentando criar ilusao donos empresa chefes estao nivel exatamente mesmos interesses trabalhadores</t>
+          <t>Não é apenas a esquerda identitaria a tentar mudar a forma como as pessoas percecionam a realidade atraves da linguagem.
+As empresas fazem o mesmo, deixam de se referir ao trabalhador como trabalhador ou empregado para usarem o termo "colaborador", tentando criar a ilusao de que os donos da empresa e chefes estao ao mesmo nivel e tem exatamente os mesmos interesses que os seus trabalhadores.</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -5183,7 +6241,10 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>única coisa boa faço inútil outras pessoas tudo faço escola acaba mal família odeiame sozinho todos vão ter futuro brilhante vou semabrigo morar debaixo ponte autismo consigo falar corretamente outras pessoas força suficiente entrar exército trabalhar obras idade mental ano única coisa vou fazer agora ver canal panda ouvir xana toctoc porque acho vou sempre falhado criança nunca vai ter futuro adulto sério</t>
+          <t>A única coisa boa que faço é ser um inútil para as outras pessoas, tudo o que faço (não só na escola) acaba mal.
+A minha família odeia-me, estou sozinho, todos vão ter um futuro brilhante e eu vou ser um sem-abrigo a morar debaixo de uma ponte.
+Tenho autismo, não consigo falar corretamente com as outras pessoas e não tenho força suficiente para entrar no exército ou trabalhar nas obras.
+A minha idade mental é de 5 anos, por isso a única coisa que vou fazer agora é ver o canal panda e ouvir a Xana Toc-toc porque acho que vou ser sempre um falhado e uma criança que nunca vai ter um futuro ou ser um adulto a sério.</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -5203,7 +6264,10 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>sintoma comum prurido vaginal pode intenso outros sintomas ardor urinar corrimento vaginal branco espesso geralmente apresenta mau odor dor durante relações sexuais vermelhidão volta vagina vaginites candidíase geralmente resultado proliferação excessiva fungo candida situações normais fungo naturalmente presente vagina pequenas quantidades doença considerada infeção sexualmente transmissível embora possa ocorrer maior frequência pessoas sexualmente ativas possível dieta rica açúcares simple possa ter influência roupa apertada tipo roupa interior higiene pessoal aparentam ter influênciao diagnóstico realizado análises amostra corrimento vaginal dado sintomas semelhantes infeções sexualmente transmissíveis clamídia gonorreia pode necessário realizar exames despistar outras causa cerca toda mulheres apresentam menos vaginite candidíase algum momento vida cerca metade apresenta menos duas cerca apresenta três infeções ano segunda causa comum inflamação vaginal atrás vaginose bacteriana</t>
+          <t>O sintoma mais comum é o prurido vaginal, que pode ser intenso. Entre outros sintomas estão o ardor ao urinar, corrimento vaginal branco e espesso que geralmente não apresenta mau odor, dor durante as relações sexuais e vermelhidão em volta da vagina.
+As vaginites por candidíase são geralmente o resultado da proliferação excessiva do fungo Candida. Em situações normais, este fungo está naturalmente presente na vagina em pequenas quantidades. A doença não é considerada uma infeção sexualmente transmissível, embora possa ocorrer com maior frequência em pessoas sexualmente ativas. É possível que uma dieta rica em açúcares simples possa também ter influência. 
+A roupa apertada, o tipo de roupa interior e a higiene pessoal não aparentam ter influência.O diagnóstico é realizado com análises a uma amostra de corrimento vaginal. Dado que os sintomas são semelhantes aos de infeções sexualmente transmissíveis como a clamídia e a gonorreia, pode ser necessário realizar exames para despistar outras causas. 
+Cerca de 75% de todas as mulheres apresentam pelo menos uma vaginite por candidíase em algum momento de sua vida. Cerca de metade apresenta pelo menos duas. Cerca de 5% apresenta mais de três infeções por ano. É a segunda causa mais comum de inflamação vaginal, atrás da vaginose bacteriana.</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -5223,7 +6287,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>imaginem sistema onde cada cidadão pudesse votar tempo real através plataforma online propostas surgissem diretamente população acabaríamos privilégios representantes políticos colocaríamos poder verdadeiramente mãos povo sim democracias diretas exigem população educada informada impossível alcançar vejam exemplo países nórdicos onde após gerações investimento educação confiança mútua alcançaram nível impressionante maturidade social ilustrar ness países existem lojas qualquer funcionário supervisão onde pessoas escolhem produtos registam compraram sistema automático fazem pagamento sozinhas câmaras seguranças controlo confiam ninguém irá roubar demonstra nível responsabilidade ética sociedade pode atingir aposta verdadeiramente educação confiança outro lado modelo representativo hoje raramente serve interesses maioria historicamente temse inclinado beneficiar pequena elite muitas vezes degradase autoritarismo corrupção tempo piorar muitos cansados sentirmos representados nenhum partido parece política atual reflete anseios reais população sim interesses individuais grupos restritos claro desafios democracia direta desinformação cibersegurança inclusão digital problemas enfrentados tecnologia disponível hoje perfeitamente possível criar sistema transparente seguro eficiente plataformas digitais utilizadas alguns países mostram utopia então pergunto estaríamos prontos apostar educação confiança povo decidir destinos país vez continuar depender vontade representantes muitas vezes jogam apenas causa própria verdadeira democracia vamos debater faz sentido portugal avançar modelo democracia direta quais desafios podemos superar</t>
+          <t>Imaginem um sistema onde cada cidadão pudesse votar em tempo real, através de uma plataforma online, nas propostas que surgissem diretamente da população. Acabaríamos com os privilégios dos representantes políticos e colocaríamos o poder verdadeiramente nas mãos do povo.
+Sim, as democracias diretas exigem uma população educada e informada, mas isso não é impossível de alcançar. Vejam o exemplo dos países nórdicos, onde, após gerações de investimento em educação e confiança mútua, alcançaram um nível impressionante de maturidade social. Para ilustrar, nesses países existem lojas sem qualquer funcionário ou supervisão, onde as pessoas escolhem os produtos, registam o que compraram num sistema automático e fazem o pagamento sozinhas. Não há câmaras, seguranças ou controlo — confiam que ninguém irá roubar. Isso demonstra o nível de responsabilidade e ética que uma sociedade pode atingir quando se aposta verdadeiramente na educação e na confiança.
+Por outro lado, o modelo representativo que temos hoje raramente serve os interesses da maioria. Historicamente, tem-se inclinado a beneficiar uma pequena elite e, muitas vezes, degrada-se em autoritarismo ou corrupção com o tempo. Para piorar, muitos de nós já estamos cansados de não nos sentirmos representados por nenhum partido. Parece que a política atual não reflete os anseios reais da população, mas sim interesses individuais ou de grupos restritos.
+Claro, há desafios numa democracia direta. A desinformação, a cibersegurança e a inclusão digital são problemas que teriam de ser enfrentados. Mas, com a tecnologia disponível hoje, é perfeitamente possível criar um sistema transparente, seguro e eficiente. Plataformas digitais, como as utilizadas em alguns países, já mostram que isso não é uma utopia.
+Então, pergunto: estaríamos prontos para apostar na educação e confiança no povo para decidir os destinos do país, em vez de continuar a depender da vontade de representantes que muitas vezes jogam apenas em causa própria? Não seria esta a verdadeira democracia?
+Vamos debater: Faz sentido para Portugal avançar para um modelo de democracia direta? Quais os desafios e como os podemos superar?</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -5243,7 +6312,14 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>decisão difícil exigiu muita reflexão vida demasiado dura mim demasiado fraco coisas têm estado correr mal consigo mudálas pioram cada vez melhor mim acabar tudo vez ter viver vou tentar acabar tudo ante natal causar problemas preparei mensagem família outra grupo whatsapp faculdade desejo vida feliz toda gente conheço família possa compreender tudo culpa decisão perguntarem pensar agora sim consigo acreditar alguns dia terra porque agora porque quero ver toda gente última vez</t>
+          <t>Foi uma decisão difícil, que exigiu muita reflexão, mas esta vida é demasiado dura para mim e eu sou demasiado fraco.
+As coisas têm estado a correr mal e não consigo mudá-las, só pioram cada vez mais.
+É melhor para mim acabar com tudo em vez de ter de viver isto.
+Vou tentar acabar com tudo antes do Natal para não causar mais problemas.
+Preparei uma mensagem, uma para a minha família e outra para o grupo de Whatsapp da minha faculdade.
+Desejo uma vida feliz a toda a gente que conheço e que a minha família possa compreender tudo, a culpa não é deles, a decisão foi minha.
+Se me perguntarem o que estou a pensar agora, sim, não consigo acreditar que só tenho mais alguns dias na Terra.
+"E porque não agora?", porque quero ver toda a gente uma última vez.</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -5263,7 +6339,10 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>acho melhores peças humor português atualmente pouco conhecida httpswwwyoutubecomwatchvdwivrrdhttpswwwyoutubecomwatchvdwivrrd antónio feio josé pedro gomes antónio feio melhores humoristas portuguese devidamente conhecido</t>
+          <t xml:space="preserve">Acho das melhores peças de humor em português, atualmente pouco conhecida:
+[https://www.youtube.com/watch?v=dW6I\_VRR8d8](https://www.youtube.com/watch?v=dW6I_VRR8d8)
+De António Feio e José Pedro Gomes.
+António Feio foi um dos melhores humoristas portugueses e não é devidamente conhecido. </t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -5283,7 +6362,9 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>termos desporto portugal quase monocultura futebol longe desporto popular sei outro país onde futebol forma tão esmagadora desporto dominante portugal difícil atleta tornarse profissional noutro desporto futebol pode contribuir existam muitos menos atletas topo noutros desportos muitos potenciais campeões outros desportos hoje futebolistas terceira divisão nacional</t>
+          <t xml:space="preserve">Em termos de desporto Portugal é quase uma monocultura, o futebol é de muito longe o desporto mais popular.
+Não sei se há outro país onde o futebol seja de forma tão esmagadora o desporto mais dominante. Em Portugal é muito difícil um atleta tornar-se um profissional noutro desporto que não seja o futebol. 
+Pode isto contribuir para que existam muitos menos atletas de topo noutros desportos? Será que muitos potenciais campeões de outros desportos são hoje futebolistas da terceira divisão nacional? </t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -5303,7 +6384,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>httpswwwtempoptnoticiascienciaamanhaumafortetempestadegeomagneticavaiatingiraterrasegundoanoaaoqueeeoquepodeaconteceralertahtml</t>
+          <t>https://www.tempo.pt/noticias/ciencia/amanha-uma-forte-tempestade-geomagnetica-vai-atingir-a-terra-segundo-a-noaa-o-que-e-e-o-que-pode-acontecer-alerta.html</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -5323,7 +6404,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>httpswwwinstagramcomreelcybjsosstiigshzrbthsbwhhmhlh</t>
+          <t>https://www.instagram.com/reel/C5ybjsOssTI/?igsh=Z3R3bThsbWhhMHlh</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -5343,7 +6424,42 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>httpswwwjnptcamaradoportodiscuteregulamentodosartistasderuaqueproibeamplificacaodesomhttpswwwjnptcamaradoportodiscuteregulamentodosartistasderuaqueproibeamplificacaodesom executivo câmara porto discute segundafeira regulamento animadores rua distingue cidade duas zona atuação implica emissão licença proíbe utilização amplificação som proposta lusa hoje acesso vereadora catarina santos cunha esclarece objetivo município contribuir valorização atividade animador rua regulamentando gerindo qualificando intervenções espaço público incentivando diversificação disseminação diferentes zona regulamento animadores rua anexo proposta mantém conforme inicialmente anunciado duas áreas onde artistas poderão atuar maior pressão turística referente baixa cidade zona b outra menor pressão turística zona abrange toda freguesias exceto centro histórico toda ruas qualquer zona artistas devem manter distância mínima metro sendo além distanciamento zona maior pressão turística definido número máximo animadores topónimo rua cedofeita poderão atuar cinco animadores rua flores rua santa catarina praça ribeira cais estiva cais ribeira cais guindais três terreiro sé poderão atuar doi animadores animador calçada vandoma largo domingo rua carmelitas rua sampaio bruno animadores poderão ocupar espaço público terem licença deverá solicitada presencialmente gabinete munícipe via online zona animadores ficam isentos pagamento taxas zona b aplicase redução valor previsto tabela taxas municipais fixa euro dia licença poderá atribuída cada animador período máximo dia seguidos topónimo sendo dentro mesma rua animadores podem trocar lugar regulamento determina licença pode prorrogada fim data respetiva licença início seguinte mesma rua existir período carência trinta dia seguidos podendo entanto animador requerer licenças outros topónimos animador pode pedir único requerimento número licenças deseja meses seguintes contar data primeiro pedido licença área ocupação permitida comercialização artigos exposição intuito comercial respetiva área deverá delimitada devendo animador usar obrigatoriamente esteira própria disponibilizada câmara municipal porto atuações poderão decorrer sendo permitidas atuações proximidades edifícios habitação junto escolas durante horário funcionamento junto unidades saúde menos cinco metro qualquer cruzamento passadeiras frente entradas degraus estações comboio metro outros meios avenida aliados praça general humberto delgado praça d joão i largo amor perdição passeio frente jardim palácio cristal menos metro cada lado paragens autocarros interdita atuação animadores rua toda atuações proibida amplificação som considerando regulamento animador deve procurar minimizar incomodidade sonora compatibilizar convivência junto habitações espaços comerciais estabelecimentos hospitalares escolas regulamento discutido reunião pública executivo deverá entrar vigor dia após publicação diário república estando prevista consulta pública discutido reunião municipal documento segue discussão assembleia municipal porto município manifestou intenção regular atividade julho ano passado</t>
+          <t>[https://www.jn.pt/5727933429/camara-do-porto-discute-regulamento-dos-artistas-de-rua-que-proibe-amplificacao-de-som/](https://www.jn.pt/5727933429/camara-do-porto-discute-regulamento-dos-artistas-de-rua-que-proibe-amplificacao-de-som/)
+&gt; O executivo da Câmara do Porto discute na segunda-feira o regulamento  dos animadores de rua, que distingue a cidade em duas zonas de atuação,  implica a emissão de uma licença e proíbe a utilização de amplificação  de som.                    
+&gt;  
+&gt; Na proposta, a que a Lusa teve hoje acesso, a vereadora Catarina  Santos Cunha esclarece ser objetivo do município "contribuir para a  valorização da atividade de Animador de Rua, regulamentando, gerindo e  qualificando as intervenções no espaço público, incentivando a sua  diversificação e disseminação por diferentes zonas".  
+&gt;  
+&gt;O regulamento dos animadores de rua, anexo à proposta, mantém,  conforme inicialmente anunciado, duas áreas onde os artistas poderão  atuar, uma de maior pressão turística, referente à baixa da cidade (zona  B), e outra de menor pressão turística (zona A, que abrange todas as  freguesias exceto o centro histórico).  
+&gt;  
+&gt; Em todas as ruas, qualquer que seja a zona, os artistas devem manter  uma distância mínima de 150 metros, sendo que, além do distanciamento,  na zona de maior pressão turística é definido um número máximo de  animadores por topónimo.  
+&gt;  
+&gt;Na Rua de Cedofeita poderão atuar cinco animadores, na Rua das  Flores, na Rua de Santa Catarina e na Praça da Ribeira, Cais da Estiva,  Cais da Ribeira e Cais dos Guindais três.  
+&gt;  
+&gt; Já no Terreiro da Sé poderão atuar dois animadores e um animador na  Calçada da Vandoma, Largo de São Domingos, Rua das Carmelitas e Rua de  Sampaio Bruno.  
+&gt;  
+&gt;Os animadores não poderão ocupar o espaço público sem terem uma  licença, que deverá ser solicitada presencialmente no Gabinete do  Munícipe ou via 'online'.  
+&gt;  
+&gt; Na zona A os animadores ficam isentos do pagamento de taxas e na zona  B aplica-se uma redução de 70% do valor previsto na tabela de taxas  municipais, que fixa um euro por dia.  
+&gt;  
+&gt;A licença só poderá ser atribuída a cada animador por um período  máximo de 15 dias seguidos por topónimo, sendo que, dentro da mesma rua,  os animadores podem trocar de lugar.  
+&gt;  
+&gt; O regulamento determina que a licença não pode ser prorrogada e que,  entre o fim da data da respetiva licença e o início da seguinte para a  mesma rua, tem de existir um período de carência de trinta dias  seguidos, podendo, no entanto, o animador requerer licenças para outros  topónimos.  
+&gt;  
+&gt;O animador pode também pedir, num único requerimento, o número de  licenças que deseja até 12 meses seguintes, a contar da data do primeiro  pedido de licença.  
+&gt;  
+&gt; Na área de ocupação, não é permitida a comercialização de artigos,  nem a exposição com o intuito comercial. A respetiva área deverá ser  delimitada, devendo o animador usar "obrigatoriamente uma esteira  própria disponibilizada pela Câmara Municipal do Porto".  
+&gt;  
+&gt;As atuações poderão decorrer entre as 10:00 e as 22:00, não sendo  permitidas atuações nas proximidades de edifícios de habitação entre as  20:00 e as 08:00, junto a escolas durante o horário de funcionamento,  junto de unidades de saúde, a menos de cinco metros de qualquer  cruzamento ou passadeiras, em frente a entradas ou degraus de estações  de comboio, metro e outros meios.  
+&gt;  
+&gt; A Avenida dos Aliados, a Praça do General Humberto Delgado, a Praça  D. João I, o Largo Amor de Perdição, no passeio em frente ao Jardim do  Palácio de Cristal e a menos de 10 metros (de cada lado) de paragens de  autocarros está interdita a atuação dos animadores de rua.  
+&gt;  
+&gt;Em todas as atuações está proibida a amplificação de som,  considerando o regulamento que o animador deve "procurar minimizar a  incomodidade sonora e compatibilizar a convivência junto de habitações,  espaços comerciais, estabelecimentos hospitalares ou escolas".  
+&gt;  
+&gt;O regulamento, que será discutido na reunião pública do executivo,  deverá entrar em vigor 30 dias após a publicação em Diário da República,  não estando prevista consulta pública.  
+&gt;  
+&gt;Depois de discutido em reunião municipal, o documento segue para discussão na Assembleia Municipal do Porto.  
+&gt;  
+&gt;O município manifestou a intenção de regular esta atividade em julho do ano passado.</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -5363,7 +6479,10 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>httpsportaltransparenciaercptentidadesocsobservadorontimesaidentidadebceeeeeanofinanceirogeraldafin gostam deitar dinheiro janela poderem influenciar opinião pública sentido defesa interesses jornal mão trabalhadores conta outrem defesa grande maioria população portuguesa</t>
+          <t>https://portaltransparencia.erc.pt/entidades-ocs/observador-ontime-sa/?IdEntidade=5b32ce3e-1255-e711-80e0-00505684056e&amp;anoFinanceiro=2022&amp;geral=dafin
+Será que gostam de deitar dinheiro pela janela?
+Ou será que é para poderem influenciar a "opinião pública" no sentido da defesa dos seus interesses?
+Qual é o jornal que está na mão dos trabalhadores por conta de outrem para a defesa da grande maioria da população portuguesa?</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -5383,7 +6502,8 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>xb httpspreviewreddithiuxodicdcjpgwidthformatpjpgautowebpscfabcdafcec</t>
+          <t>&amp;#x200B;
+https://preview.redd.it/hiux6odic7dc1.jpg?width=4206&amp;format=pjpg&amp;auto=webp&amp;s=c382f25959979014a4b2960c8746d5a5fce63c37</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -5403,7 +6523,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>httpsobservadorptnovoconselhoparaaacaoclimaticanaopodetomarposseporquetemmetadedasmulheresquedeviaterhttpsobservadorptnovoconselhoparaaacaoclimaticanaopodetomarposseporquetemmetadedasmulheresquedeviater</t>
+          <t>[https://observador.pt/2024/11/04/novo-conselho-para-a-acao-climatica-nao-pode-tomar-posse-porque-tem-metade-das-mulheres-que-devia-ter/](https://observador.pt/2024/11/04/novo-conselho-para-a-acao-climatica-nao-pode-tomar-posse-porque-tem-metade-das-mulheres-que-devia-ter/)</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -5423,7 +6543,10 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>famílias pobres apoio voluntariado faço adolescente ano decidiu vegetariano famílias além pobre pouca instrução instrução capacidade fazer dieta vegetariana sofrer défices nutricionais disselhe pedirem orientação médico família sei médicos família sabem suficiente nutrição evitar adolescente venha sofrer problemas causa desta dieta vegetariana familiares médicos doutras especialidades disseram formação têm sobre nutrição pouca edit obrigado todos conselhos vamos adaptar cabaz alimentos damos família atendendo situação</t>
+          <t>Numa das famílias pobres que apoio no meu voluntariado que faço um adolescente de 15 anos decidiu ser vegetariano. Ora a famílias além de pobre tem muito pouca instrução e ele também não tem nem instrução nem capacidade para fazer uma dieta vegetariana sem sofrer de défices nutricionais.
+Disse-lhe para pedirem orientação ao médico de família, mas não sei se os médicos de família sabem o suficiente de nutrição para evitar que este adolescente venha a sofrer de problemas por causa desta dieta vegetariana.
+Tenho familiares médicos, doutras especialidades, que me disseram que a formação que têm sobre nutrição é muito pouca.
+Edit - obrigado a todos pelos conselhos. Vamos adaptar o cabaz de alimentos que damos à família atendendo a esta situação.</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -5443,7 +6566,15 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>prévia uso tiktok p controlar puto tb acompanhalo nova redes posto dou mim ver life pessoal tuga tiktok fico parvo gente pedir taptap baleias pistolas leões insultaremse un outros forma q estarolas tomem posições contribuam guito pessoal ganhar batalhas tiktokers ganham balúrdios deve gente tirar k mês n percebo cm gente dar febre vou enunciar alguns casos gaja q ex toxico q vive rsi nada contra pedir dinheiro p almocar restaurante comprar tabaco drogado chamado fabio insultar toda gente vestirse princesa pessoaa ver mandar prendas euro tiago grila tiago big brother slo bento sinceramente conjunto atrasados cheios pasta custa disto pronto rant n consigo perceber gasta dinheiro onde metade vai tiktok enviar leões corações mao whatever pessoas merda ha un qts palhaços cindy q quer anel loja n sei quê toni q frança so visto pf n gastem dinheiro nessa merda n vao nesse engodo q fdp mundo</t>
+          <t>Prévia: uso tiktok mais p controlar o puto e tb acompanha.lo nas novas redes
+Posto isto: dou por mim a ver lives de pessoal tuga no tiktok em que fico parvo. Gente a pedir taptap e baleias e pistolas e leões. A insultarem.se uns aos outros de forma a q estarolas tomem posições e contribuam em guito para pessoal ganhar batalhas. Os tiktokers ganham balúrdios.  Deve haver gente a tirar 5k+  por mês e n percebo cm é que há gente a dar para esta febre
+Vou enunciar alguns casos:
+Uma gaja q é ex toxico e q vive do rsi (nada contra) a pedir dinheiro p almocar no restaurante e comprar tabaco 
+Um drogado chamado fabio a insultar toda a gente e a vestir-se de princesa com 500 pessoaa a ver e a mandar prendas se 100euros
+Um tiago grila, o tiago do big brother,  o slo, o bento... sinceramente, um conjunto de atrasados cheios de pasta à custa disto
+E pronto. É uma rant. N consigo perceber como se gasta dinheiro, onde metade vai para o tiktok, para enviar "leões" e corações de mao e whatever a pessoas de merda 
+Ha uns qts mais palhaços.  A cindy q quer um anel da loja n sei quê, o toni q é de França... so visto
+Pf n gastem dinheiro nessa merda e n vao nesse engodo. Q fdp de mundo...</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -5463,7 +6594,8 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>gostava saber curiosidade saber faixa sim circunstâncias adquiridas</t>
+          <t xml:space="preserve">Gostava de saber. Tenho curiosidade para saber. estou na faixa entre 20-30. 
+E se sim, em que circunstâncias foram adquiridas. </t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -5483,7 +6615,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocommundovenderammilhoesdekgdefrutaselegumescomobiologicosmasnaoeramhttpswwwnoticiasaominutocommundovenderammilhoesdekgdefrutaselegumescomobiologicosmasnaoeram rede criminosa vendido últimos seis meses doi milhões quilos frutas legume produzidos convencionalmente sendo biológicos guardia civil espanhola desmantelou grupo criminoso motril granada dedicado fraude alimentar internacional quatro pessoas detidas outras investigadas grupo vendia frutas legume convencionais produção biológica principais mercados europeus vez frutas legume biológicos caros convencionais ness mercados detidos falsificaram sistematicamente certificados produção venda devem emitidos organismos controlo produção biológica sobre rastreabilidade destes frutos produtos hortícolas revela guardia civil comunicado quartafeira</t>
+          <t>[https://www.noticiasaominuto.com/mundo/2634926/venderam-milhoes-de-kg-de-frutas-e-legumes-como-biologicos-mas-nao-eram](https://www.noticiasaominuto.com/mundo/2634926/venderam-milhoes-de-kg-de-frutas-e-legumes-como-biologicos-mas-nao-eram)
+&gt;Rede criminosa terá vendido, só nos últimos seis meses, mais de dois milhões de quilos de frutas e legumes produzidos convencionalmente como sendo biológicos.
+&gt;A Guardia Civil espanhola desmantelou um grupo criminoso em Motril, Granada, dedicado à fraude alimentar internacional. Quatro pessoas foram detidas e outras 16 estão a ser investigadas.
+&gt;O grupo vendia frutas e legumes convencionais como se fossem de produção biológica para os principais mercados europeus, uma vez que as frutas e legumes biológicos são muito mais caros do que os convencionais nesses mercados.
+&gt;"Os detidos falsificaram sistematicamente os certificados de produção e de venda que devem ser emitidos pelos organismos de controlo da produção biológica sobre a rastreabilidade destes frutos e produtos hortícolas", revela a Guardia Civil, em comunicado, esta quarta-feira.
+&gt; ...</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -5503,7 +6640,8 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>tendo conta estado mota alguma ferrugem rua ano poi garagem pôr embora sempre protegida capa chove suficiente quanto acham vale encontrase andar perfeitamente precisa bateria nova pedal travão empenado queda tal tambor gasolina mossas carenagens tubo escape modificado comprei assim peças originais guardadas</t>
+          <t>Tendo em conta o estado em que está esta mota, com alguma ferrugem de estar na rua há 3 anos (pois não tenho garagem para a pôr, embora ela esteja sempre protegida com uma capa, quando chove não é suficiente), quanto acham que ela vale?
+Ela encontra-se a andar perfeitamente, só precisa de uma bateria nova e o pedal do travão está empenado de uma queda, tal como o tambor da gasolina, que tem umas mossas. Está sem carenagens e com tubo de escape modificado (já a comprei assim), mas tenho as peças originais guardadas.</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -5523,7 +6661,9 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>matriculava escola erame dado papel perguntar profissão pai mãe nível escolaridade coincidência sempre colocada turma pobres dia secundário escolhi geologia betos escolheram disciplina colocada turma melhores colegas onde menos discriminada p modelo gay luís borges turma ano discriminava colegas chora programa daniel oliveira dizendo adotado mãe adotiva deixou ir ano</t>
+          <t>Quando me matriculava na escola, era-me dado um papel a perguntar a profissão do pai e da mãe e o nível de escolaridade.
+Por coincidência, eu era sempre colocada na turma dos pobres. Um dia, no secundário, escolhi Geologia e, como os betos também escolheram essa disciplina, fui colocada na turma deles no 12. Foram os melhores colegas que tive e onde fui menos discriminada.
+P.S. O modelo gay Luís Borges foi da minha turma no 10.º e 11.º ano. Ele era um dos que mais discriminava os colegas e depois chora no programa do Daniel Oliveira, dizendo que era adotado e que a mãe adotiva não o deixou ir para o 11.º ano.</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -5543,7 +6683,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptsociedadedetalhepercebiqueusavaosexocomomoedadetrocaassediosexualdeboaventurasousasantosrelatadoporsetemulheres revelações investidas sexuais surgem após carta coletivo vítimas onde primeira vez surgiram nome subscritoras sete mulheres relataram primeira vez publicamente investidas sexuais sociólogo boaventura sousa santos entrevista agência brasileira jornalismo investigação pública descrevem situações assédio sexual vítimas parte sociólogo universidade coimbra percebi usava sexo moeda troca disse ofendidas entrevista surge após divulgação carta coletivo vítimas onde primeira vez surgiram nome subscritoras antigo coordenador centro estudos sociais desmente acusações</t>
+          <t>https://www.cmjornal.pt/sociedade/detalhe/percebi-que-usava-o-sexo-como-moeda-de-troca-assedio-sexual-de-boaventura-sousa-santos-relatado-por-sete-mulheres
+Revelações de investidas sexuais surgem após carta do coletivo de vítimas, onde pela primeira vez surgiram os nomes das 13 subscritoras.
+Sete mulheres relataram pela primeira vez publicamente as investidas sexuais do sociólogo Boaventura Sousa Santos.
+Em entrevista à agência brasileira de jornalismo de investigação, ‘Pública’, descrevem as situações de assédio sexual de que foram vítimas por parte do sociólogo da Universidade de Coimbra. "Percebi que ele usava o sexo como moeda de troca", disse uma das ofendidas.
+A entrevista surge após a divulgação da carta do coletivo de vítimas, onde pela primeira vez surgiram os nomes das 13 subscritoras.
+O antigo coordenador do Centro de Estudos Sociais desmente as acusações</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -5563,7 +6708,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>bom dia todos passar un dia madrid ficamos hospedados hostel presenteia pequeno almoço simpático hoje enquanto tomava pequeno almoço observei dinâmica família adolescentes rapazes marido mulher leste penso rússia curiosidade nesta observação prendese facto pessoas sexo masculino levantaram cu única vez ir buscar nada nada sempre mãeesposa buscar tudo meninosmarido fodasse incluíndo fazer sandes meninos prai ano acusem cusquice parte sociologo falar alto qd puto realmente coisas diferentes mãe fazia quase tudo chegamos exageros gostaria saber vossa opinião sobre temática caros redditers alguém cusco apercebeu dinâmicas assim pra frentex faço próprias sandesironia ta dizem</t>
+          <t>Ora bom dia a todos.
+Estamos a passar uns dias em Madrid e ficamos hospedados num hostel que nos presenteia com um pequeno almoço simpático. 
+Hoje enquanto tomava o pequeno almoço observei a dinâmica de uma família (2 adolescentes rapazes, marido e mulher) de leste (penso que Rússia).
+ A curiosidade nesta observação prende-se com o facto que as pessoas de sexo masculino não levantaram o cu uma única vez para ir buscar nada!!! Nada!! Foi sempre a mãe/esposa que foi buscar tudo para os meninos/marido. Ora fodasse!!! Incluíndo fazer as sandes para os meninos prai de 17 anos. Acusem me de cusquice, mas é a minha parte sociologo a falar mais alto.
+Qd era puto realmente as coisas eram diferentes e a minha mãe fazia quase tudo.. mas não chegamos a estes exageros... ora gostaria de saber a vossa opinião sobre esta temática caros redditers. Já alguém foi cusco como eu e apercebeu se de dinâmicas assim? Sou muito pra frentex e faço as minhas próprias sandes?(ironia ta) que dizem?</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -5583,7 +6732,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>the dog just passed away</t>
+          <t>The dog just passed away?</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -5603,7 +6752,8 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>todos homens ante serviço militar passar inteiramente voluntário view pollhttpswwwredditcompollbyyxf</t>
+          <t>Para todos ou só para os homens (como era antes de serviço militar passar a ser inteiramente voluntário)?
+[View Poll](https://www.reddit.com/poll/1byyxf1)</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -5623,7 +6773,8 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>últimos tempo parece anúncios empresas telecomunicações têm descido qualidade forma quase surreal desde argumentos vagos estética quase caricatural tendência anúncios parecem tocar insanidade tanto difícil imaginar reunião aprovação destes conceitos mãos departamentos marketing agências perderam toque reflexo próprio setor acredita tipo publicidade ainda eficaz alguém sente bombardeados anúncios cada vez chungosos</t>
+          <t>Nos últimos tempos, parece que os anúncios das empresas de telecomunicações têm descido de qualidade de uma forma quase surreal. Desde os argumentos vagos até à estética quase caricatural, há uma tendência para anúncios que parecem tocar a insanidade – tanto que é difícil imaginar a reunião de aprovação destes conceitos nas mãos dos departamentos de marketing.
+Será que estas agências perderam o toque? Ou será um reflexo do próprio setor, que acredita que este tipo de publicidade ainda é eficaz? Alguém mais sente que estamos a ser bombardeados por anúncios cada vez mais 'chungosos'?</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -5643,7 +6794,8 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptexclusivosdetalhecincoguardasescoltamreclusoasaladecinemanoestoril sindicato alerta precedente grave diz perceber situação cadeia onde reina indisciplina</t>
+          <t>https://www.cmjornal.pt/exclusivos/detalhe/cinco-guardas-escoltam-recluso-a-sala-de-cinema-no-estoril
+Sindicato alerta para precedente grave e diz “não perceber situação, numa cadeia onde reina a indisciplina.".</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -5663,7 +6815,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>httpsecosapoptbruxelasdeclaraguerraaosprecosbaixosdatemueshein bruxelas preparase impor taxas sobre produtos baixo custo plataformas chinesas medida visa combater subsidiação pequim segue ataque recente indústria veículos elétricos acomissão europeia preparar terreno mudança significativa panorama comércio eletrónico plano impor taxas alfandegárias sobre produtos baratos provenientes retalhistas online chinese temu shein medida noticiada quartafeira financial time visa travar bruxelas considera subsidiação governo chinês indústria comercialização produtos baixo custo</t>
+          <t>https://eco.sapo.pt/2024/07/03/bruxelas-declara-guerra-aos-precos-baixos-da-temu-e-shein/
+Bruxelas prepara-se para impor taxas sobre produtos de baixo custo de plataformas chinesas. A medida visa combater a subsidiação de Pequim e segue ataque recente à indústria de veículos elétricos.
+AComissão Europeia está a preparar o terreno para uma mudança significativa no panorama do comércio eletrónico, com planos para impor taxas alfandegárias sobre produtos “baratos” provenientes de retalhistas online chineses, como a Temu e a Shein.
+Esta medida, noticiada esta quarta-feira pelo Financial Times, visa travar o que Bruxelas considera ser uma subsidiação do Governo chinês à indústria de comercialização de produtos de baixo custo.
+...</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -5683,7 +6839,9 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>vão rir algumas bocas fiz porém triste pessoas pensarem assim militares portuguese comentar manifestantes terroristas p major exército português veio falar sobre atitude israel agressiva httpswwwrtpptplaypeo</t>
+          <t>Vão rir de algumas bocas (como eu fiz), porém é muito triste estas pessoas pensarem assim. Há militares portugueses a comentar que os manifestantes são terroristas.
+PS: um major do exército português já veio a falar sobre a atitude de Israel ser muito agressiva
+https://www.rtp.pt/play/p12712/e771968/360-o-/1242796</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -5703,7 +6861,15 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>modelo cidade defendido prática decisores modelo mercados decidem preço consequência tipo utilização imobiliário estado encarregase pagar estradas transportes etc nbsp modelo gera cidades crescem centros escritórios comércio subúrbios habitação cada vez longínquos medida centros crescem modelo bom rendimento imobiliário mau qualidade vida habitantes mau orçamento publico gaste nunca vais ter vias transportes equipamentos suficientes nbsp existe modelo distribuído raio minutos pé existe comércio centros saúde trabalho zona verdes bares restaurantes escolas modelo excelente qualidade vida pessoas barato orçamento estado gera menos rendimentos imobiliários porque existe pressão procura crescente zona concentração faz aumentar preços nbsp tema enorme impacto despesa tempo despendido diariamente quase toda gente tema falado marginalmente agenda nenhum partido voz televisão</t>
+          <t>O modelo de cidade defendido na prática pelos decisores, é um modelo em que os mercados decidem o preço e como consequência o tipo de utilização do imobiliário. Depois o estado encarrega-se de pagar estradas, transportes, etc.
+&amp;nbsp;
+Este modelo gera cidades que crescem com centros de escritórios e comércio, e subúrbios de habitação cada vez mais longínquos à medida que os centros crescem.  Este modelo é bom para o rendimento imobiliário e mau para a qualidade de vida dos habitantes, e mau para o orçamento publico que por mais que gaste nunca vais ter vias de transportes e equipamentos suficientes.
+&amp;nbsp;
+Existe um modelo distribuído, num raio de 15 minutos a pé existe comércio, centros de saúde, trabalho, zonas verdes, bares, restaurantes e escolas.
+Este modelo é excelente para a qualidade de vida das pessoas, barato para o orçamento do estado, mas gera menos rendimentos imobiliários porque não existe a pressão da procura crescente nas zonas de concentração que faz aumentar os preços.
+&amp;nbsp;
+Este é um tema com um enorme impacto na despesa e tempos despendido diariamente por quase toda a gente. 
+E é um tema só falado marginalmente e que não está na agenda de nenhum partido que tenha voz na televisão.</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -5723,7 +6889,8 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditrqeysuwfcjpgwidthformatpjpgautowebpsacbdefddcfdbaeafbeb</t>
+          <t>&amp;#x200B;
+https://preview.redd.it/r0q76eysuwfc1.jpg?width=500&amp;format=pjpg&amp;auto=webp&amp;s=7a6cb9d001e4fdd2425c0f9d1bae840a955fb4eb</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -5743,7 +6910,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>httpswwwjnptmaisdemetadedosmedicosinternosnaovoltariaaescolherocursodemedicina</t>
+          <t>https://www.jn.pt/220676283/mais-de-metade-dos-medicos-internos-nao-voltaria-a-escolher-o-curso-de-medicina/</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -5763,7 +6930,16 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>boa malta decidi criar grupo whatsapp doentes crónicos pt ideia ando maturar algum tempo porque sei experiência própria quão solitário pode viver varias doenças crónicas especialmente novos muitas vezes sentimos falar difícil encontrar pessoas realmente entendam passar assim decidi criar grupo grupo onde podemos trocar experiências apoiarmonos entanto quero deixar claro intuito grupo proporcionar partilhas baseadas experiências pessoais qualquer decisão sobre tratamento outras questões relacionadas saúde deve sempre discutida profissional saúde existem centenas comunidades internacionais facebook discord exemplo posso dizer facto sentir tão compreendida identificarme tanto outras pessoas si terapêutico pensei replicar portugal alguém identificar quiser fazer parte aqui link httpschatwhatsappcomerarjawycmihhjrtzm abreijos</t>
+          <t xml:space="preserve">Boas, malta!+
+Decidi criar um grupo de WhatsApp para doentes crónicos em PT. Esta é uma ideia que ando a maturar há algum tempo porque sei por experiência própria o quão solitário pode ser viver com uma ou varias doenças crónicas, especialmente quando somos mais novos
++Muitas vezes sentimos que não temos com quem falar e é difícil encontrar pessoas que realmente entendam o que estamos a passar. Assim decidi criar este grupo, um grupo onde podemos trocar experiências e apoiarmo-nos. No entanto quero deixar claro que o intuito do grupo é proporcionar estas partilhas, baseadas em experiências pessoais. Qualquer decisão sobre tratamento ou outras questões relacionadas com a saúde deve ser SEMPRE discutida com um profissional de saúde
+Existem centenas de comunidades internacionais no Facebook ou até no Discord, por exemplo, e posso dizer que só o facto de me sentir tão compreendida e identificar-me tanto com outras pessoas por si só já foi terapêutico. Pensei em replicar isto mas para Portugal+
+Se alguém se identificar e quiser fazer parte, aqui está o link: https://chat.whatsapp.com/ErarJ9A9WYc2MihHjRTZ9m
+Abreijos
+</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -5783,7 +6959,9 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>canção infantil cómica ainda cómica adultos crianças partilho convosco pérola humor httpswwwyoutubecomwatchvxogdlnqfshttpswwwyoutubecomwatchvxogdlnqfs</t>
+          <t>Uma canção infantil cómica, ainda mais cómica para os adultos que para as crianças
+partilho convosco esta pérola do humor 
+[https://www.youtube.com/watch?v=XO6GDLNQfs4](https://www.youtube.com/watch?v=XO6GDLNQfs4)</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -5803,7 +6981,9 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>sei único notar repararam malta norte europa faz vida tuktuk lisboa goza torto direito história hoje vi tuk tuk passar mural abril cravo basicamente gajo disse continuamos usar símbolo precisarmos contém vossas</t>
+          <t>Não sei se sou o único a notar, mas já repararam que a malta do norte da Europa que faz vida de tuk-tuk em Lisboa goza a torto e a direito com a nossa história?
+Hoje vi um tuk tuk a passar por um mural do 25 de abril com um cravo e basicamente o gajo disse que nós continuamos a usar este símbolo mesmo sem precisarmos .
+Contém as vossas</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -5823,7 +7003,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>mistura estilos</t>
+          <t>Mais que uma mistura de estilos.</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -5843,7 +7023,8 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>excluindo sector turístico sensação entrar crise severa sensação falar pessoas diversos sectores ficando ideia</t>
+          <t>Excluindo o sector turístico tenho a sensação que estamos a entrar numa crise severa, será só uma sensação? Ao falar com pessoas de diversos sectores fui ficando com esta ideia.
+Será?</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -5863,7 +7044,8 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewredditexbfabecxwqcjpgwidthformatpjpgautowebpsadbfcdebceddcdcbfb</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 27 de março de 2024](https://preview.redd.it/exbfabecxwqc1.jpg?width=1017&amp;format=pjpg&amp;auto=webp&amp;s=7396087a0d782b9fcde55bce2d4772dc78dcb7fb)</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -5883,7 +7065,8 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewredditkvfkupjvncjpgwidthformatpjpgautowebpscbdfdccabafccce</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 11 de março de 2024](https://preview.redd.it/kvfk7upj5vnc1.jpg?width=1031&amp;format=pjpg&amp;auto=webp&amp;s=0842c8b4d4f57d94c71c72ab8a90fc02177cc3e2)</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -5903,7 +7086,10 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>muita pouca positiva negativa maçons boa intenções apenas querem fazer tráfico influências favores mútuos líderes políticos pertencem maçonarias</t>
+          <t>É muita? É pouca? 
+É positiva ou negativa?
+Os maçons tem boas intenções ou apenas querem fazer tráfico de influências e favores mútuos?
+Que líderes políticos pertencem às maçonarias?</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -5923,7 +7109,8 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>queria saber pena melhores materiais mesma forma festejamos abril devemos festejar novembro</t>
+          <t>Queria saber mais e é pena que um dos melhores materiais seja este.
+Da mesma forma que festejamos o 25 de abril devemos festejar o 25 de novembro</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -5943,7 +7130,8 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>boa existe alguma lista oficial praia nudismo portugal</t>
+          <t>Boas,
+Existe alguma lista oficial de praias de nudismo por Portugal?</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -5963,7 +7151,8 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>fazer estudo sobre efeitos pornografia imagem corporal puderem responder favor façam independentemente consumidores desse conteúdo respostas toda anónimas obrigado boa festas todos</t>
+          <t>Estou a fazer um estudo sobre os efeitos da pornografia na imagem corporal. Se puderem responder por favor façam, independentemente se são consumidores desse conteúdo ou não. As respostas são todas anónimas.
+Obrigado e boas festas a todos❤️</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -5983,7 +7172,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>algoritmos redes sociais procuram captar audiências favorecem controvérsias polémicas normal homem morde cão alguém preferência famoso diz estupidez logo outras pessoas desatam replicar estupidez média redes sociais todo lado aparecem outros contestar dizer colocou errado gerase troca argumentos audiência sobe online online famoso disse estupidez recompensado ficando famoso todo processo repete assim extremismos crescem disparates começam tornarse aceitáveis alguém diz algo sensato sorte alguém concorda assunto fica ali tráfico online menor audiências menores logo lucros menores menores</t>
+          <t xml:space="preserve">Os algoritmos das redes sociais (e não só) procuram captar audiências. Para isso favorecem as controvérsias, as polémicas, aquilo que é fora do normal. O homem que morde o cão.
+Alguém, de preferência famoso, diz uma estupidez e logo outras pessoas desatam a replicar a estupidez nos média, nas redes sociais, em todo o lado. Aparecem outros a contestar, a dizer que quem colocou aquilo está errado, gera-se uma troca de argumentos e a audiência sobe, online e não online.   
+O famoso que disse a estupidez é recompensado ficando mais famoso e todo o processo se repete. 
+É assim que os extremismos crescem e os disparates começam a tornar-se aceitáveis. 
+Alguém diz algo sensato, Com sorte alguém que concorda e o assunto fica por ali. O tráfico online é menor, as audiências são menores, logo os lucros são também menores, muito menores.
+</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -6003,7 +7197,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>httpszapaeiouptburaconaleipermitefraudeseleitoraisnospartidoshttpszapaeiouptburaconaleipermitefraudeseleitoraisnospartidos buraco lei permite fraudes eleitorais todos sufrágios órgãos soberania fraudes eleitorais levadas cabo eleições internas partidos associações outras organizações punidas lei lei prevê crime fraude eleitoral circunscritos eleições órgãos soberania exemplo presidência república assembleia república parlamento europeu órgãos regiões autónomas autarquias locais nesse ponto excluemse exemplo fraudes eleitorais cometidos eleições internas liderança partidos políticos clubes futebol</t>
+          <t>[https://zap.aeiou.pt/buraco-na-lei-permite-fraudes-eleitorais-nos-partidos-642071](https://zap.aeiou.pt/buraco-na-lei-permite-fraudes-eleitorais-nos-partidos-642071)
+&gt;**Há um “buraco” na lei permite fraudes eleitorais em todos os sufrágios que não sejam de órgãos de soberania.**
+&gt;As **fraudes eleitorais** levadas a cabo em eleições internas de partidos, associações e outras organizações **não são punidas por lei**.
+&gt;A lei prevê que os crimes de fraude eleitoral estão circunscritos a eleições de órgãos de soberania – como, por exemplo, para a Presidência da República, Assembleia da República, Parlamento Europeu, órgãos Regiões Autónomas ou autarquias locais.
+&gt;Nesse ponto, excluem-se, por exemplo, as fraudes eleitorais cometidos em eleições internas para a liderança dos partidos políticos ou clubes de futebol.  
+...</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -6023,7 +7222,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>manual etiqueta básica comboios pessoal calma deixem pessoas sair prometo comboio vai arrancar bem quase sempre facilita vida toda gente</t>
+          <t>Será que não há um manual de etiqueta básica para comboios? Pessoal, calma. Deixem as pessoas sair! Prometo que o comboio não vai arrancar sem vocês (bem, quase sempre). Facilita a vida a toda a gente…</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -6043,7 +7242,9 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>todos episódios seinfeld todos adquiridos legalmente senhor agente guarda judiciária coloqueios loop tv acontecer contigo aconteceu contigo sim série</t>
+          <t>Tenho todos os episódios de Seinfeld (todos adquiridos legalmente, senhor agente da guarda judiciária) e coloquei-os em loop na minha TV.
+Isto está a acontecer contigo ou já aconteceu contigo?
+Se sim, qual a série?</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -6063,7 +7264,8 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>vou regressar trabalho deprimir lidam regresso trabalho</t>
+          <t xml:space="preserve">Vou regressar ao trabalho e já estou a deprimir 
+Como lidam com o regresso ao trabalho? </t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -6083,7 +7285,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>httpssolsapoptlaboratorioscondenadosapagarmilhoesdeeurosporcartelemanalisesetestescovid</t>
+          <t>https://sol.sapo.pt/2024/07/24/laboratorios-condenados-a-pagar-486-milhoes-de-euros-por-cartel-em-analises-e-testes-covid-19/</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -6103,7 +7305,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>httpsmalomilblogspotcomnaohanadamaisfazerestamorrerehtmlhttpsmalomilblogspotcomnaohanadamaisfazerestamorrerehtml bem verdade ideia distorcida quanto natureza cuidados paliativos certo senso comum conjunto cuidados associados gente vai morrer nada fazer jornalista pôsse encalço diferentes situações doença grave incurável ouviu profissionais doentes familiares nesta poderosa narrativa morrer viver histórias cuidados paliativos sofia teixeira fundação francisco manuel santos afirmase convicção pessoas viver têm direito serem cuidadas terem mínimo sofrimento máximo apoio viagem retratam cinco doentes nini joão francisco maria josé djamila ficanos certeza sempre algo fazer autora dizse chegou fim trabalho ficou enriquecida poi doente pensar morte ajudanos refletir sobre vida vida final surpreendente livro maioria protagonistas oportunidade ler páginas entanto deixaram história outros possam conhecer queria livro servisse lê fizesse si próprio perguntas considera importantes saiba respostas comprei livro vou lêlo fim semana espero nada inesperado surgir admirome falar sobre necessidade melhores cuidados paliativos li metade pessoas precisará un precisam acesso bons cuidados paliativos</t>
+          <t xml:space="preserve">[https://malomil.blogspot.com/2024/06/nao-ha-nada-mais-fazer-esta-morrer-e.html](https://malomil.blogspot.com/2024/06/nao-ha-nada-mais-fazer-esta-morrer-e.html)
+&gt;É bem verdade que temos uma ideia distorcida quanto à natureza dos cuidados paliativos, num certo senso comum é o conjunto de cuidados associados a gente que vai morrer, já nada há a fazer. Uma jornalista pôs-se num encalço de diferentes situações de doença grave ou incurável, ouviu profissionais, doentes e familiares e nesta poderosa narrativa *A morrer ou a viver? Histórias de cuidados paliativos*, por Sofia Teixeira, Fundação Francisco Manuel dos Santos, 2024, afirma-se a convicção de que estas pessoas estão a viver e têm direito a serem cuidadas para terem o mínimo sofrimento e o máximo de apoio. Uma viagem em que se retratam cinco doentes, Nini, João, Francisco, Maria José e Djamila, e fica-nos uma certeza: há sempre algo mais a fazer. A autora diz-se que chegou ao fim do seu trabalho e ficou mais enriquecida, pois estar doente e pensar na morte ajuda-nos a refletir sobre a vida. “A vida não tem um final surpreendente. Este livro também não. A maioria dos seus protagonistas não teve a oportunidade de ler estas páginas. No entanto, deixaram a sua história, para que os outros a possam conhecer. Queria que este livro servisse que para quem o lê fizesse também a si próprio as perguntas que considera importantes, mesmo que não saiba as respostas.”
+&gt;...
+Comprei este livro. Vou lê-lo este fim de semana. Espero eu, se nada de inesperado surgir.
+Admiro-me não se falar mais sobre a necessidade de mais e melhores cuidados paliativos. Pelo que li metade das pessoas precisará deles, mas só uns 20% dos que precisam terão acesso a bons cuidados paliativos. 
+</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -6123,7 +7330,8 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>antigamente youtube existia vídeo senhora faço ideia cesar mourão imagem encontrei net alguém sabe onde posso ver vídeo obrigado</t>
+          <t xml:space="preserve">Antigamente no YouTube existia um vídeo da senhora (não faço ideia se era mesmo ela, ou era o Cesar Mourão, mas tenho uma imagem que encontrei na net, alguém sabe onde posso ver o vídeo? Obrigado 
+</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -6143,7 +7351,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>alguém sabe explicar produtos higiene limpeza desde cremes hidratantes detergentes chão tão absurdamente caros caros espanha sabia un dia dinamarca propriamente país barato supermercado fiquei chocado diferença</t>
+          <t>Alguém me sabe explicar por que é que os produtos de higiene e limpeza (desde os cremes hidratantes até aos detergentes para o chão) são tão absurdamente caros? Que são muito mais caros que em Espanha já sabia, mas estive uns dias na Dinamarca (que não é propriamente um país barato) e quando fui ao supermercado fiquei chocado com a diferença.</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -6163,7 +7371,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>tempo venho discutir aqui eleições afirmo mesmas minadas viciadas impedir outras forças chegarem ter voz voz povo ter valor representatividade suposto terem democracia muitos perguntaramme porquê dizer afirmo porque usar método viciado deu maioria absoluta falsa podium ter sido evitada convém deime trabalho construir prova vivemos democracia voz popular deixovos aqui aconteceu legislativas acontecido usar sistema hareniemeyer apoio incondicionalmente rodeios transparência tomar partidos porque afecta todos vamos discutir problemas poi conhecimento lev liberdade</t>
+          <t>Já há muito tempo que venho a discutir aqui as eleições e como afirmo que as mesmas estão minadas e viciadas para impedir outras forças de chegarem a ter voz, e a voz do povo de ter o valor e a representatividade que é suposto terem numa democracia. Muitos perguntaram-me o porquê de dizer isto. E eu afirmo, porque estamos a usar o método viciado, que nos deu uma maioria absoluta falsa e que podia ter sido evitada. Mas não convém. Dei-me ao trabalho de construir esta prova de que não vivemos em democracia de voz popular. Deixo-vos aqui o que aconteceu nas Legislativas, e o que teria acontecido se estivéssemos a usar o sistema Hare-Niemeyer, que apoio incondicionalmente. Sem rodeios, em transparência, sem tomar partidos, porque isto afecta todos. E vamos discutir sem problemas pois o conhecimento leva à liberdade.</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -6183,7 +7391,8 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>debate aceso namorado porque tantos barbeiros tão baratos fazem dinheiro suficiente pagarem empregados têm</t>
+          <t xml:space="preserve">Estou num debate aceso com o meu namorado. Porque é que há tantos barbeiros tão baratos e como é que fazem dinheiro suficiente para pagarem aos empregados que têm? 
+</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -6203,7 +7412,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>httpsssurveyplanetcomilzjhttpsssurveyplanetcomilzj título explica ideia entender intenção voto malta reddit pode trazer alguma claridade sobre sondagens têm sido publicadas sobre demografia política deste grupo sondagem ficará aberta termos menos participantes poder tirar conclusões erro partilhada aqui assim possível sondagem apenas pessoas votam refletindo itençao votar</t>
+          <t>[https://s.surveyplanet.com/06ilz6j4](https://s.surveyplanet.com/06ilz6j4)
+Como o título explica a ideia é entender a intenção de voto da malta do Reddit.
+Pode trazer alguma claridade sobre as sondagens que têm sido publicadas e também sobre demografia política deste grupo.
+Sondagem  ficará aberta até termos pelo menos 1067 participantes, para poder  tirar conclusões sem erro, e será partilhada aqui assim que possível.
+Esta sondagem será apenas para as pessoas que votam, não refletindo a itençao de não votar.</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -6223,7 +7436,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>sei quantificar números expressivos duvidam perguntem trabalhe nalguma farmácia voluntário instituição apoia famílias pobres últimos tempo aumentado conheço melhor casos imigrantes motivos saúde vários casos caso gémeas brasileiras receberam medicamento caro mundo apenas ponta iceberg ponta pequena instituição colaboro damos alimentos roupa outros ben roupa tempo sobra sobra imigrantes muitas vezes chegam apenas mala avião vezes motivos imigrarem estarem doentes país existirem condições serem tratados conheço casos angolanos lusovenezuelanos brasileiros lusobrasileiros casos pessoas posse rendimentos elevados oriundas países rico reino unido usa pagar tratamentos medicamentos aqui recebemnos graça quase graça hemodiálises medicamentos caros operações diversos tipos sistema saúde generoso imigração turismo saúde estará sobrecarregar sistema ponto</t>
+          <t xml:space="preserve">Não sei quantificar, mas sem que há em números expressivos.
+Se duvidam perguntem a quem trabalhe nalguma farmácia. 
+Sou voluntário numa instituição que apoia as famílias pobres e nos últimos tempos tem aumentado. Conheço melhor os casos de imigrantes por motivos de saúde. Vários casos. O caso das gémeas brasileiras que receberam o medicamento mais caro do mundo é apenas a ponta do iceberg. Uma ponta muito pequena. 
+Na instituição em que colaboro damos alimentos, roupa e outros bens. Roupa em tempos tínhamos de sobra. Já não temos de sobra, os imigrantes muitas vezes chegam com apenas uma mala de avião. 
+E por vezes um dos motivos para imigrarem é estarem doentes e no país deles não existirem condições para serem tratados. Conheço casos de angolanos, luso-venezuelanos, brasileiros ou lusobrasileiros... mas também casos de pessoas com posses e rendimentos elevados oriundas de países ricos, como o Reino Unido e dos USA, que teriam de pagar muito pelos tratamentos ou medicamentos e aqui recebem-nos de graça ou quase de graça.  Hemodiálises, medicamentos muito caros, operações dos mais diversos tipos. 
+Temos um sistema de saúde generoso, mas esta imigração e turismo de saúde estará a sobrecarregar o sistema até que ponto? </t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -6243,7 +7461,46 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>httpswwwtempoptnoticiasactualidadeondeestaagrandequantidadedeplasticoqueerecicladonaeuropasurpreendaseambientehtmlhttpswwwtempoptnoticiasactualidadeondeestaagrandequantidadedeplasticoqueerecicladonaeuropasurpreendaseambientehtml acordo novo estudo cerca metade resíduos plástico europa exportados vários países muitos europeus pensam reciclados velho continente grande percentagem plástico europeu enviada diferentes países distantes vietname acaba natureza segundo estudo cerca metade resíduos plástico europa exportados vários países ásia equipa investigação universidade utrecht investigou destino grande parte plástico europeuhttpswwwtempopteuropahtm imagem rua aterro cheia plásticos país ásia httpspreviewredditofqnqdfcjpgwidthformatpjpgautowebpsddeaabfeababccfec reciclagem europeia plásticos apesar regulamentação rigorosa ue matéria reciclagem plásticos pouca supervisão resíduos plástico enviados ue exemplo vietname grande percentagem plástico europeu exportado pode reciclado eliminado natureza conclusão nova investigação liderada kaustubh thapa universidade utrecht publicada circular economy and sustainability xb gráfico logarítmico mostra exportações europeias resíduos plástico países sudeste asiático últimos ano acordo dado europa fonte eurostathttpspreviewredditzlfqrzxsdfcjpgwidthformatpjpgautowebpsdedcebefcdebfdcb observámos pessoas cozinhar comer viver interior instalação reciclagem rodeadas fumos nocivos plástico derretido crianças brincavam neste ambiente sufocante afirma thapa investigador principal acordo investigação todos dia despejados milhões litros águas residuais tóxicas cursos água cidade embora tipo comércio resíduos lucrativo alguns transferência responsabilidade gestão resíduos produtores aldeias causa danos pessoas comunidades ambiente afirma thapa políticas realidades contrastantes negociações onu tratado internacional sobre plásticos atualmente curso nova investigação thapa mostra contraste notável políticas vietnamitas europeias realidade centros reciclagem sul global consumidores europeus fazer esforços separar reciclagem podemos ver claramente esforços grande medida vão afirma thapa acrescenta concentrarse aumentar taxas reciclagem ue abordar sistematicamente danos humanos ambientais associados longo toda cadeia valor ético circular sustentável investigadores perdem esperança acreditam externalização resíduos plásticos reciclagem possível forma sustentável novo acordo verde europeu plano ação economia circular conversações curso nações unidas sobre tratado global sobre plásticos juridicamente vinculativo podem ignorar conclusões medida consumimos cada vez conseguinte geramos resíduos comércio resíduos reciclagem deve abordado nível sistemático conclui thapa referência notícia kaustubh thapa et al towards just circular economy transition the case of european plastic waste trade to vietnam recycling circular economy and sustainability doi sw li ue proíbe exportação resíduos plásticoshttpspteuronewscomueproibeexportacaoderesiduosplasticos resíduos plástico reciclável deixam poder exportados países desenvolvimento partir janeiro plástico reciclável poder exportado países desenvolvimento nova regras europeias determinam apenas plásticos recicláveis podem exportados países ocde organização cooperação desenvolvimento económico comissário europeu responsável ambiente oceanos pescas afirma trata marco importante luta contra poluição</t>
+          <t>[https://www.tempo.pt/noticias/actualidade/onde-esta-a-grande-quantidade-de-plastico-que-e-reciclado-na-europa-surpreenda-se-ambiente.html](https://www.tempo.pt/noticias/actualidade/onde-esta-a-grande-quantidade-de-plastico-que-e-reciclado-na-europa-surpreenda-se-ambiente.html)
+&gt;De  acordo com um novo estudo, cerca de metade dos resíduos de plástico da  Europa são "exportados" para vários países, quando muitos europeus  pensam que são reciclados no velho continente.  
+&gt;  
+&gt;Uma grande percentagem do **plástico europeu** é enviada para diferentes países distantes, como o Vietname, e acaba na natureza, segundo um estudo. **Cerca de metade dos resíduos de plástico da Europa são exportados para vários países da Ásia**. Uma equipa de investigação da Universidade de Utrecht investigou o destino de grande parte do plástico [europeu](https://www.tempo.pt/europa.htm).
+[ Imagem de uma rua de aterro cheia de plásticos num país da Ásia. ](https://preview.redd.it/of8q0n1q2dfc1.jpg?width=1000&amp;format=pjpg&amp;auto=webp&amp;s=320ddea825ab0949f7e75a7ba3b51ccf810566ec)
+&gt;Reciclagem europeia de plásticos  
+&gt;  
+&gt;Apesar da **regulamentação rigorosa da UE em matéria de reciclagem** de plásticos, há pouca supervisão dos resíduos de plástico enviados da UE, por exemplo, para o Vietname.  
+&gt;  
+&gt;**Uma grande percentagem do plástico europeu exportado não pode ser reciclado e é eliminado na natureza.**  
+&gt;  
+&gt;Esta é a conclusão de uma nova investigação liderada por Kaustubh Thapa da Universidade de Utrecht e publicada na *Circular Economy and Sustainability*.
+&amp;#x200B;
+[Gráfico  logarítmico que mostra as exportações europeias de resíduos de plástico  para os países do Sudeste Asiático nos últimos 10 anos, de acordo com os  dados da Europa. Fonte: Eurostat](https://preview.redd.it/zlfqrzxs2dfc1.jpg?width=901&amp;format=pjpg&amp;auto=webp&amp;s=d02e6dc7e387313b3e52fcd04eb331f67d39cb35)
+&gt;"Observámos  pessoas a cozinhar, a comer e a viver no interior da instalação de  reciclagem, rodeadas pelos fumos nocivos do plástico derretido. As  crianças brincavam neste ambiente sufocante", afirma Thapa, o  investigador principal.  
+&gt;  
+&gt;**De acordo com a investigação,  todos os dias são despejados 7 milhões de litros de águas residuais  tóxicas nos cursos de água da cidade**. "Embora este tipo de  comércio de resíduos seja lucrativo para alguns, a transferência da  responsabilidade pela gestão dos resíduos dos produtores para aldeias  como estas causa danos às pessoas, às comunidades e ao ambiente", afirma  Thapa.  
+&gt;  
+&gt;Políticas e realidades contrastantes  
+&gt;  
+&gt;**As negociações da ONU para um tratado internacional sobre plásticos estão atualmente em curso**. A nova investigação de Thapa mostra **o contraste notável entre as políticas vietnamitas e europeias** e  a realidade dos centros de reciclagem no Sul Global. "Os consumidores  europeus estão a fazer esforços para separar a reciclagem, mas podemos  ver claramente que os seus esforços, em grande medida, são em vão",  afirma Thapa.  
+&gt;  
+&gt;E acrescenta: "Concentrar-se em **aumentar as taxas de reciclagem na UE**  sem abordar sistematicamente os danos humanos e ambientais associados  ao longo de toda a cadeia de valor não é ético, circular nem  sustentável".  
+&gt;  
+&gt;Os investigadores não perdem a esperança: acreditam que **a externalização dos resíduos plásticos para reciclagem é possível de forma sustentável**.  "O Novo Acordo Verde Europeu, o seu Plano de Ação para a Economia  Circular e as conversações em curso nas Nações Unidas sobre um Tratado  Global sobre Plásticos juridicamente vinculativo não podem ignorar as  nossas conclusões. À medida que consumimos cada vez mais e, por  conseguinte, geramos mais resíduos, o comércio de resíduos para  reciclagem deve ser abordado a um nível sistemático", **conclui** Thapa.  
+&gt;  
+&gt;**Referência da notícia:**  
+&gt;  
+&gt;*Kaustubh Thapa et al,* *Towards  a Just Circular Economy Transition: the Case of European Plastic Waste  Trade to Vietnam for Recycling, Circular Economy and Sustainability* (2024). DOI: 10.1007/s43615-023-00330-w
+Também li isto:
+[UE proíbe exportação de resíduos plásticos](https://pt.euronews.com/2020/12/31/ue-proibe-exportacao-de-residuos-plasticos)
+&gt;Os resíduos de plástico não reciclável deixam de poder ser exportados para países em desenvolvimento  
+&gt;  
+&gt;A partir de 1 de janeiro de 2021 o plástico não reciclável poder ser exportado para países em desenvolvimento.  
+&gt;  
+&gt;Novas  regras europeias determinam que apenas os plásticos recicláveis podem  ser exportados para países fora da OCDE (Organização para a Cooperação e  Desenvolvimento Económico).  
+&gt;  
+&gt;O comissário europeu responsável pelo  ambiente, oceanos e pescas afirma que se trata de um marco importante  na luta contra a poluição.  
+&gt;  
+&gt;...</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -6263,7 +7520,8 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>xb jornal notícias janeiro httpspreviewredditvwbxfncecjpgwidthformatpjpgautowebpsaefcedafaaebbc</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 23 janeiro de 2024](https://preview.redd.it/v68w2bxfncec1.jpg?width=1023&amp;format=pjpg&amp;auto=webp&amp;s=a535efc6692387ed45a691fa84a46e47bb00c686)</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -6283,7 +7541,81 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>httpssolsapoptnunopalmaportugaleobrasiltornaramsemaispobresdevidoaescravaturahttpssolsapoptnunopalmaportugaleobrasiltornaramsemaispobresdevidoaescravatura nuno palma explica novo livro causa atraso portugal ouro brasil marquês pombal fundos comunitários principais responsáveis salazar dinamizou país poucos livro podemos concluir atraso portugal começou século xviii devido efeitos económicos políticos ouro brasil fez exemplo deixado investir indústria diz marquês pombal talvez pior político sempre país reconhece nenhum mérito recuperação lisboa após terramoto exemplo defenda marquês pombal quis modernizar universidade coimbra livro explico efeitos diretos terramoto têm sido exagerados contrário muitas vezes diz pouco destrutivo país mostro livro dado estatísticas concretas número habitantes lisboa morreram deixaram cidade correspondeu pouco duas décadas meia capital voltaria ter mesma população rendimento nacional pessoa reagiu terramoto grande parte população país vivia centro norte pouco afetados terramoto ajudou pombal centralizar poder político pessoa viria ter consequências sérias país prazo poi legado político desastroso reformas universidade coimbra apenas tantos outros exemplos ideias parecendo boa papel nunca implementadas forma eficaz explico justifico porquê detalhe livro convencido marquês pombal expulsou jesuítas porque contra interesses brasil diz destruir rede escolas jesuítas pombal condenou portugal ignorância livro mostro assim apoiandome sempre estudos históricos científicos alguns quais recentes primeira metade século xviii portugal ainda atrasado nível educativo final desse século pode surpreender poi quase toda escolas país fechadas pombal qualquer alternativa posta terreno substituição destruído possível compreender porque portugal entrou século xx analfabetos porque nível capital humano particular literacia financeira país ainda hoje tão baixo conhecer contexto defende ouro brasil serviu aumentar consumo tendo servido modernizar país acabando concluir funcionou maldição recursos porquê ouro brasil aumentou consumo riqueza país temporariamente prazo condenounos pobres sido explico detalhe livro ouro condenou indústria portuguesa abandono distorceu instituições políticas forma negativa futuro país outra constatação polémica diz respeito escravatura poi defende portugal beneficiou mesma assim diz portugal brasil países rico mundo vezes ouvimos dizer riqueza portugal outros países ocidentais conseguida graças escravatura ideia absurda algumas pessoas talvez confundam riqueza rendimento alguns mercadores beneficiavam desse comércio sinistro países todo impérios frequentemente tipo afirmações feitas intuito óbvio sujar possível ocidente associando enriquecimento imoralidade desse comércio cuja existência áfrica resto milenar portanto anterior contacto direto europeus comércio atlântico iniciado partir finais século xv ativistas querem usar escravatura arma arremesso político serem exigidas reparações apesar ajuda externa países pobres dura décadas ter tido grade efeitos número escravos áfrica brasil esmagador relativamente número estados unidos américa magnitude diferença cerca milhões meio escravos levados áfrica continente americano brasil recebeu milhões comparação mil recebidos américa norte logo pode ter sido escravatura responsável sucesso económico nações insucesso outras contrário trabalho coautores leticia arroyo abad guilherme lambais cito livro mostram portugal brasil tornaram pobres devido escravatura resto importante extrair ouro brasil tanto prejudicou portugal percebe entende declínio portugal começou duas décadas terramoto ante guerras napoleónicas toda afirmações faço livro baseadas estudos científicos cito logo trata opinião mostro base dado estatísticas efetivamente declínio termos absolutos relativos começa cerca duas décadas informação hoje discuto detalhe capítulo livro mostra sementes problema vinham trás desde início desse século indicadores aponta diz respeito altura portuguese meados século xix ficámos baixos diz indicador diretamente relacionado pobreza consequentemente baixa escolaridade mostro livro século xix economia bateu fundo portuguese passaram ter estatura física claramente baixa outros países europa república afirma vícios passado mantiveram contribuindo ainda atraso portugal durante república prometeu pouco fez bem contrário segundo escreve então possível final ante contas públicas estarem estabilizadas país contas públicas estabilizadas pode país quaisquer perspetivas crescimento convergência caracterizou fase final primeira república compreender dia simple mesma situação caracterizou governos antónio costa contas certas qualquer capacidade implementar reformas fizessem país avançar contrário tentativa impor turmas mistas primária descalabro porque mundo rural desconfiava intenções republicanos livro cito estudos mostram fator importante impediu famílias enviar filhos escola si motivos crescimento económico estado novo devemse apostas industrialização alfabetização camadas jovens integração económica europa através efta dúvida alguns fatores fundamentais explicou várias vezes índices justificam viverse ditadura apesar disso sido atacado chame fascista acusação absurda livro explica instrumentalização frequentemente feita termo fascismo assim motivações parte faz abril diz portugal retomou bons números década porquê portugal parou convergir década partir abril motivos evidentes prec reforma agrária nacionalizações fugas capital excessiva intervenção estado certos setores economia nada disto ambiente favorável crescimento económico tendo sido necessárias intervenções fmi partir meados ano graças reformas então aconteceram convergência retomada outra vez travada partir final século xx atualmente caminhar tornarmos país pobre união europeia acredita portugal democracia plenum livro cito estudos internacionais mostram note país existe partido dominante décadas poder durante períodos curtos excecionais além disso infelizmente censura portugal viva boa saúde evidentemente censura prévia lápis azul estado novo ante censura século xxi menos violenta subtil pessoas sabem represálias carreiras profissionais existem autocensuramse acaso pessoas empregos portugal frequentemente veemência criticam forma independente gravidade passa país muitas críticas aparecem redes sociais feitas forma anónima pedi alguns académicos mediáticos esquerda moderada trabalham portugal normalmente dava bem blurb contracapa livro três recusaramse inventando desculpas compreendo motivos querem assumir receiam turba gostam manter popularidade menos manter paz vidas pessoais ganham dinheiro escrever jornais aborrecido perder benesses ter chatices colegas universidades trabalham vendemse pouco penso cegueira ideológica porque deve evidente qualquer pessoa livro trata assuntos acima divisões políticas corriqueiras espuma podiam ter coragem enfrentar tribalismo enfim país existe sente muitas vezes precisa seguir lógica dominante convém incomodado suma represálias existem dia censura tendo poucos integridade necessária enfrentar verdades estabelecidas pouco nenhum fundamento científico possam ter acredita baixar impostos possa ajudar país crescer carga esforço fiscal país alto especialmente relativamente qualidade oferta serviços públicos saúde educação estado degradar afirma baixar impostos iria gerar crescimento explicar onde iria cortar despesa forma legal deteriorar ainda serviços públicos credível investimento adicional compensasse perda receitas fiscais ênfase impostos partidos direita il pode valer votos proposta séria reforma país criação riqueza estado social qualidade ninguém criação riqueza podem baixarse impostos preciso meter carroça frente bois essencial discutir quais reformas possam criar riqueza segunda grande polémica livro diz fundos europeus ouro vinha brasil diz contribuem atraso país porquê mostro livro atraso explicase más políticas públicas passadas presentes levam baixa produtividade economia más políticas públicas têm si explicadas políticos fazem escolhas desastrosas míopes viradas presente fogem diabo cruz reformas prazo desenvolveriam país porque eleitores escolhem melhores políticos defendam caminho diferente argumento livro existe problema cultural profundo portuguese preguiçosos natureza outros povos existe contexto histórico interage causa contemporâneas cria mistura fatores particularmente tóxica fatores contemporâneos importantes ótica fundos europeus distorcem economia processo político portugal têm efeitos particularmente negativos comparação alguns outros países primeiro porque portugal país recebeu destes fundos relação tamanho economia segundo porque portugal chegaram contexto instituições fracas capital humano particularmente baixo contraste aconteceu partir início século xxi europa leste ambiente cultural criado atmosfera pós abril tornou portugal país esquerda estatista congéneres europeus explicação cultural raiz histórica profunda simplesmente resultado história segunda metade século xx particular ambiente sociocultural transição democracia causou ter sido verdadeira revolução contrário aconteceu espanha explico detalhes livro portugal capital humano instituições suficientemente fortes possível aplicação eficiente fundos europeus melhor acabarem então futuro admite crise alemanha possa obrigar ue repensar distribuição fundos livro considero alguns cenários incluindo fundos europeus infantilizam país portugal adulto ano receber mesada mãe europa acabar fundos benefícios grandes população principalmente prazo enquanto custos estariam concentrados hoje beneficia logo últimos têm incentivo fazer barulho manter tudo natural ainda míope egoísta solução vir internamente única decisão responsável pacto regime maiores partidos acordassem rejeitar fundos europeus infelizmente parece provável aproveito notar outros países europa incluindo vários países europa leste receberam fundos europeus convergiram ainda enquanto claro efeito líquido fundos fundos si podem boa explicação atraso precisam interagir natureza instituições precisamos compreender porque instituições portuguesas tão fracas reformam livro explica porquê acha aposta economia liberal falta vontade mudar país reflete algo profundo apenas maus políticos estarem poder país paciente queixa muda comportamento exigindo políticas públicas diferentes oposição podium alternativa apresenta reformas viáveis credíveis porque enquanto durarem fundos europeus fazêlo parece menos urgente realidade fim contas paciente queixase confortável quer aceitar cura sequer facto óbvio doente ignorância atrevida exército comentadores debitam disparates influenciar opinião pública tudo cairia castelo cartas fim fundos acha então deve fórmula deixarmos países pobres união europeia estado portugal disfuncional fiscalmente regressivo incapaz apoiar criação riqueza privada contrário capturado interesses privados reformas sérias apenas promessas vazias nunca acabando exemplos lei instituições aplicação efetiva sendo exemplos cresap menac lei branqueamento capitais código conduta governo entidade transparência verificação declarações interesses nunca acabam exemplos múltiplas entidades pessoas falam corrupção termo vago professores polícias geralmente corruptos portugal acontece muitas partes globo partes europa leste altas esferas estado outra conversa tudo resultado causa têm profundidade histórica explico livro interagem causa contemporâneas origem externa nomeadamente fundos europeus fácil apontar políticas alternativas melhores iriam certamente gerar crescimento convergência equilíbrio atualmente existe politicamente viáveis justiça exemplo funciona mal conhecimento geral especialmente tribunais administrativos fiscais nuno garoupa ano avisa quais reformas necessárias ignorado país bloqueado vejo saída credível encruzilhada país encontra milhões portuguese limiar pobreza sente vontade tentar fazer parte solução poucas exceções governantes portugal dignificam cargo ocupam académico verdade contrário tantos políticos apenas dizem académicos esconder ambições incompetência qualquer interesse carreira política prezo liberdade independência dizer penso sobre temas estando preso qualquer partido quer diga interessado apresentar diagnóstico sobre porque coisas ter papel ativo direto mudar sendo resto pessimista relativamente possibilidade tal mudança acontecer próximos tempo portugal falhar economia democracia possível compreender presente planear futuro primeiro conhecer passado escrevi livro causa atraso português inimigos acusamme querer reescrever história acham insulto realidade uso novos dado métodos científicos mostram interpretação tradicional muitos aspetos falsa logo incomoda nada digam reescrever história fazer contar verdade analisando história objetividade livrandoa propaganda primeira edição livro felizmente sucesso tendo esgotado rapidamente apesar tiragem grande disponível segunda edição livro vai ter sessão lançamento livraria buchholz lisboa dia janeiro h presença xb</t>
+          <t>[https://sol.sapo.pt/2023/12/17/nuno-palma-portugal-e-o-brasil-tornaram-se-mais-pobres-devido-a-escravatura/](https://sol.sapo.pt/2023/12/17/nuno-palma-portugal-e-o-brasil-tornaram-se-mais-pobres-devido-a-escravatura/)
+&gt; Nuno Palma explica no seu novo livro as causas do atraso de Portugal. O  ouro do Brasil, Marquês de Pombal e os fundos comunitários são os  principais responsáveis. Já Salazar dinamizou o país como poucos.      
+&gt;  
+&gt; **No seu livro, podemos concluir que o atraso de Portugal  começou no século XVIII, devido aos efeitos económicos e políticos do  ouro do Brasil, que fez por exemplo com que se tivesse deixado de  investir na indústria. Diz que Marquês de Pombal foi, talvez, o pior  político de sempre do país. Não lhe reconhece nenhum mérito na  recuperação de Lisboa, após o terramoto de 1755, por exemplo? Também há  quem defenda que foi Marquês de Pombal quem quis modernizar a  Universidade de Coimbra.**  
+&gt;  
+&gt;No livro explico que os efeitos diretos do terramoto de 1755 têm sido  muito exagerados. Este foi, ao contrário do que muitas vezes se diz,  pouco destrutivo para o país: mostro isso mesmo no livro com dados e  estatísticas concretas. O número de habitantes de Lisboa que morreram ou  deixaram a cidade correspondeu a pouco mais de 10%, e duas décadas e  meia depois a capital voltaria a ter a mesma população. O rendimento  nacional por pessoa nem reagiu ao terramoto. Grande parte da população  do país vivia no centro e norte, que foram pouco afetados. Mas o  terramoto ajudou Pombal a centralizar o poder político na sua pessoa, o  que viria a ter consequências muito sérias para o país a prazo, pois o  seu legado político foi desastroso. As reformas da Universidade de  Coimbra são apenas um entre tantos outros exemplos de ideias que  parecendo boas no papel nunca foram implementadas de forma eficaz.  Explico e justifico porquê em detalhe no livro.  
+&gt;  
+&gt;**Está mesmo convencido de que Marquês de Pombal expulsou os  jesuítas porque estes eram contra os seus interesses no Brasil? Diz  também que ao destruir a rede de escolas jesuítas, Pombal condenou  Portugal à ignorância.**  
+&gt;  
+&gt;No livro mostro que assim foi, apoiando-me sempre em estudos  históricos e científicos, alguns dos quais recentes. Na primeira metade  do século XVIII, Portugal ainda não estava atrasado a nível educativo,  mas no final desse século já estava. Isso não pode surpreender, pois  quase todas as escolas do país foram fechadas por Pombal, sem qualquer  alternativa a ser posta no terreno em substituição do que foi destruído.  Não é possível compreender porque é que Portugal entrou no século XX  com 75% de analfabetos, ou porque é que o nível de capital humano, e em  particular, de literacia financeira do nosso país é ainda hoje tão  baixo, sem se conhecer este contexto.  
+&gt;  
+&gt;**Defende também que o ouro do Brasil só serviu para aumentar o  consumo, não tendo servido para modernizar o país, acabando por  concluir que funcionou como uma ‘Maldição dos Recursos’. Porquê?**  
+&gt;  
+&gt;O ouro do Brasil aumentou o consumo e a riqueza do país  temporariamente, mas a prazo, condenou-nos a ser muito mais pobres do  que teríamos sido. Explico em detalhe no livro que o ouro condenou a  indústria portuguesa ao abandono, e distorceu as instituições políticas  de forma muito negativa para o futuro do país.  
+&gt;  
+&gt;**Outra constatação polémica diz respeito à escravatura, pois  defende que Portugal não beneficiou com a mesma. Se assim fosse, diz,  Portugal e o Brasil seriam dos países mais ricos do mundo.**  
+&gt;  
+&gt;Por vezes ouvimos dizer que a riqueza de Portugal ou de outros países  ocidentais foi conseguida graças à escravatura. Essa ideia é absurda.  Algumas pessoas talvez confundam a riqueza ou rendimento de alguns  mercadores, que beneficiavam desse comércio sinistro, com as de países  no seu todo (e impérios). Frequentemente, este tipo de afirmações são  feitas com o intuito óbvio de sujar o mais possível o Ocidente,  associando ao seu enriquecimento a imoralidade desse comércio – cuja  existência em África é de resto milenar, e portanto muito anterior ao  contacto direto com europeus e ao comércio Atlântico iniciado partir de  finais do século XV. Os ativistas querem usar a escravatura como arma de  arremesso político para serem exigidas reparações (isto apesar da ajuda  externa aos países pobres, que dura há décadas, não ter tido grades  efeitos). O número de escravos que foram de África para o Brasil é  esmagador relativamente ao número que foi para os Estados Unidos da  América: a magnitude da diferença é de 10 para 1. Dos cerca de 8 milhões  e meio de escravos levados de África para o continente americano, o  Brasil recebeu 3.2 milhões, por comparação com os 300 mil recebidos pela  América do Norte. Logo, não pode ter sido a escravatura que é  responsável pelo sucesso económico de umas nações e o insucesso de  outras. Pelo contrário, o meu trabalho com coautores como Leticia Arroyo  Abad e Guilherme Lambais, que cito no livro, mostram que Portugal e o  Brasil se tornaram mais pobres devido à escravatura – que foi de resto  também importante para extrair o ouro do Brasil, que tanto prejudicou  Portugal.  
+&gt;  
+&gt;**Como se percebe, entende que o declínio de Portugal começou  duas décadas depois do Terramoto de 1755 e antes das guerras  napoleónicas.**  
+&gt;  
+&gt;Todas as afirmações que faço no livro são baseadas em estudos  científicos que cito, logo não se trata da minha opinião. Mostro, com  base em dados e estatísticas, que efetivamente o declínio em termos  absolutos e relativos começa cerca de duas décadas depois de 1755. Mas a  informação que temos hoje, que discuto em detalhe no capítulo 6 do  livro, mostra que as sementes do problema já vinham de trás, desde o  início desse século.  
+&gt;  
+&gt;**Um dos indicadores que aponta diz respeito à altura dos  portugueses. Foi em meados do século XIX que ficámos mais baixos? Diz  que esse indicador está diretamente relacionado com a pobreza, e  consequentemente com a baixa escolaridade.**  
+&gt;  
+&gt;Mostro no livro que foi no século XIX que a economia bateu no fundo, e  que os portugueses passaram a ter uma estatura física claramente mais  baixa do que os que os outros países da Europa.  
+&gt;  
+&gt;**Com a 1.ª República afirma que os vícios do passado se  mantiveram, contribuindo ainda mais para o atraso de Portugal. Durante a  1.ª República muito se prometeu, mas pouco se fez. Até bem pelo  contrário, segundo escreve. Como foi então possível no final, antes de  1926, as contas públicas estarem estabilizadas?**  
+&gt;  
+&gt;Um país com contas públicas estabilizadas pode ser um país sem  quaisquer perspetivas de crescimento ou convergência. É isso que  caracterizou a fase final da Primeira República. Compreender isto nos  nossos dias é simples, já que também é a mesma situação que caracterizou  os Governos de António Costa: contas certas, mas sem qualquer  capacidade de implementar reformas que fizessem o país avançar, pelo  contrário.  
+&gt;  
+&gt;**A tentativa de impor turmas mistas na primária foi um  descalabro porque o mundo rural desconfiava das intenções dos  Republicanos?**  
+&gt;  
+&gt;No livro cito estudos que mostram que este foi um fator importante que impediu as famílias de enviar os filhos para a escola.  
+&gt;  
+&gt;**Para si, os motivos do crescimento económico do Estado Novo  devem-se às apostas na industrialização, na alfabetização das camadas  mais jovens e na integração económica na Europa, através da EFTA.**  
+&gt;  
+&gt;Esses foram sem dúvida alguns dos fatores fundamentais.  
+&gt;  
+&gt;**Já explicou, várias vezes, que estes índices não justificam  viver-se em ditadura. Apesar disso, tem sido muito atacado e há até quem  o chame de fascista.**  
+&gt;  
+&gt;Essa acusação é absurda. O meu livro explica a instrumentalização que  é frequentemente feita do termo fascismo, assim como as motivações por  parte de quem o faz.  
+&gt;  
+&gt;**Depois do 25 de Abril, diz que Portugal só retomou os bons números na década de 90. Porquê?**  
+&gt;  
+&gt;Portugal parou de convergir por uma década a partir do 25 de Abril.  Os motivos são evidentes: o PREC, a reforma agrária, as nacionalizações,  as fugas de capital, a excessiva intervenção do Estado em certos  setores da economia – nada disto foi um ambiente favorável ao  crescimento económico, tendo sido necessárias intervenções do FMI em  1977 e 1983. A partir de meados dos anos 80, graças a reformas que então  aconteceram, a convergência foi retomada. Mas foi outra vez travada a  partir do final do século XX. Estamos atualmente a caminhar para nos  tornarmos o país mais pobre da União Europeia.  
+&gt;  
+&gt;**Acredita mesmo que Portugal não é uma democracia plena?**  
+&gt;  
+&gt;No livro cito estudos internacionais que mostram isso mesmo. Note que  no país existe um partido dominante, há décadas no poder, a não ser  durante períodos curtos e excecionais. Para além disso, infelizmente, a  censura em Portugal está viva e de boa saúde. Não é, evidentemente, a  censura prévia do lápis azul como no Estado Novo. É antes uma censura do  século XXI, menos violenta mas mais subtil: as pessoas sabem que as  represálias para as suas carreiras profissionais existem, por isso  autocensuram-se. Não é por acaso que são pessoas com empregos fora de  Portugal quem mais frequentemente e com mais veemência criticam de forma  independente a gravidade do que se passa no país. Muitas das críticas  que aparecem nas redes sociais são feitas de forma anónima. Pedi a  alguns académicos mediáticos de esquerda moderada, que trabalham em  Portugal, com que normalmente eu me dava bem, um blurb para a contracapa  do livro. Três recusaram-se, inventando desculpas. Compreendo os seus  motivos, que não querem assumir: receiam a turba, gostam de manter a  popularidade, ou pelo menos de manter a paz nas suas vidas pessoais.  Ganham dinheiro ao escrever para os jornais e seria aborrecido perder  essas benesses, ou ter chatices com colegas nas universidades em que  trabalham. Vendem-se por pouco. Penso que é mais isso do que cegueira  ideológica, porque deve ser evidente para qualquer pessoa que o meu  livro trata de assuntos que estão acima das divisões políticas  corriqueiras da espuma. Podiam ter mais coragem para enfrentar o  tribalismo, mas enfim. No país que existe, quem está sente muitas vezes  que precisa seguir a lógica dominante. Convém não ser incomodado. Em  suma, as represálias existem nos nossos dias, e censura também, tendo  poucos a integridade necessária para enfrentar as ‘verdades’  estabelecidas, por pouco ou nenhum fundamento científico que possam ter.  
+&gt;  
+&gt;**Não acredita que baixar os impostos possa ajudar o país a crescer?**  
+&gt;  
+&gt;A carga e esforço fiscal no país são altos, especialmente  relativamente à qualidade da oferta dos serviços públicos, como saúde e  educação, que se tem estado a degradar muito. Mas quem afirma que baixar  os impostos iria gerar crescimento tem de explicar onde é que iria  cortar na despesa, de forma legal e sem deteriorar ainda mais os  serviços públicos. Não é credível que o investimento adicional  compensasse a perda de receitas fiscais. O ênfase nos impostos pelos  partidos de direita e pela IL pode valer votos mas não é uma proposta  séria de reforma para o país. Sem criação de riqueza, não há Estado  Social de qualidade para ninguém. Com criação de riqueza, podem  baixar-se os impostos. É preciso não meter a carroça à frente dos bois. O  essencial é discutir quais as reformas que possam criar riqueza.  
+&gt;  
+&gt;**A segunda grande polémica no livro, para nós, é quando diz  que os fundos europeus são como o ouro que vinha do Brasil. Diz que só  contribuem para o atraso do país? Porquê?**  
+&gt;  
+&gt;Mostro no livro que o atraso explica-se pelas más políticas públicas,  passadas e presentes, que levam à baixa produtividade da economia. Mas  essas más políticas públicas têm em si de ser explicadas. Temos  políticos que fazem escolhas desastrosas, e míopes, viradas para o  presente, que fogem como o diabo da cruz a reformas que a prazo  desenvolveriam o país. Porque é que os eleitores não escolhem melhores  políticos, que defendam um caminho diferente? Argumento no livro que não  existe um problema cultural profundo: os portugueses não são mais  preguiçosos por natureza do que os outros povos. Mas existe um contexto  histórico que interage com causas contemporâneas que cria uma mistura de  fatores particularmente tóxica. Um dos fatores contemporâneos mais  importantes, na minha ótica, são os fundos Europeus. Distorcem a  economia e o processo político. Em Portugal têm efeitos particularmente  negativos, por comparação com alguns outros países. Primeiro porque  Portugal foi o país que mais recebeu destes fundos em relação ao tamanho  da sua economia. Segundo, porque em Portugal eles chegaram num contexto  de instituições fracas, de capital humano particularmente baixo (por  contraste com o que aconteceu a partir do início do século XXI na Europa  do Leste), e com um ambiente cultural criado pela atmosfera do pós 25  de Abril, que tornou Portugal num país mais à esquerda e mais estatista  do que os seus congéneres europeus. Esta explicação cultural não tem uma  raiz histórica profunda, mas é simplesmente resultado da história da  segunda metade do século XX, e em particular do ambiente sociocultural  que a transição para a democracia causou, até por ter sido uma  verdadeira revolução (ao contrário do que aconteceu em Espanha). Explico  os detalhes no livro. Portugal não tem capital humano, nem instituições  suficientemente fortes, para que seja possível uma aplicação eficiente  dos fundos europeus. O melhor é acabarem.  
+&gt;  
+&gt;**Como será então o futuro? Admite que uma crise na Alemanha possa obrigar a UE a repensar a distribuição de fundos?**  
+&gt;  
+&gt;No livro considero alguns cenários, incluindo esse. Os fundos  Europeus infantilizam o país. Portugal é um adulto de 40 anos a receber  mesada da mãe Europa. Acabar com os fundos teria benefícios grandes para  a população, mas principalmente a prazo, enquanto os custos estariam  concentrados em quem deles hoje beneficia. Logo, estes últimos têm o  incentivo a fazer muito barulho para manter tudo como está. É natural,  ainda que míope e egoísta. A solução terá de vir de fora. Internamente, a  única decisão responsável seria um pacto de regime em que os maiores  partidos acordassem rejeitar mais fundos Europeus. Infelizmente, isso  não parece provável. Aproveito para notar que outros países da Europa,  incluindo vários países da Europa do Leste, receberam fundos europeus e  convergiram, ainda que não seja por enquanto claro qual o efeito líquido  dos fundos. Mas os fundos só por si não podem ser uma boa explicação  para o atraso. Precisam de interagir com a natureza das instituições,  mas também precisamos de compreender porque é que as instituições  portuguesas são tão fracas, e não se reformam. O meu livro explica  porquê.  
+&gt;  
+&gt;**Por que acha que não se aposta numa economia liberal?**  
+&gt;  
+&gt;A falta de vontade de mudar do país reflete algo mais profundo do que  apenas maus políticos estarem no poder. O país é como um paciente que  se queixa, mas que não muda o seu comportamento, exigindo políticas  públicas diferentes. A oposição que podia ser alternativa também não  apresenta reformas viáveis nem credíveis, até porque enquanto durarem os  fundos europeus fazê-lo parece menos urgente do que é na realidade. No  fim das contas, o paciente queixa-se mas está confortável e não quer  aceitar a cura, nem sequer o facto óbvio de que está doente. A  ignorância é atrevida, e um exército de ‘comentadores’ debitam  disparates para influenciar a opinião pública. Tudo isso cairia como um  castelo de cartas com o fim dos fundos.  
+&gt;  
+&gt;**Qual acha então que deve ser a fórmula para deixarmos de ser um dos países mais pobres da União Europeia?**  
+&gt;  
+&gt;O Estado em Portugal é disfuncional, fiscalmente regressivo, incapaz  de apoiar a criação de riqueza privada, e pelo contrário, capturado por  interesses privados. Não há reformas sérias, apenas promessas vazias,  nunca mais acabando os exemplos das leis ou instituições sem aplicação  efetiva, sendo exemplos a CRESAP, o MENAC, a lei de branqueamento de  capitais, o código de conduta do governo, a Entidade para a  Transparência, a verificação de declarações de interesses, … nunca mais  acabam os exemplos de múltiplas entidades. As pessoas falam da corrupção  mas é um termo vago. Professores ou polícias não são geralmente  corruptos em Portugal, como acontece em muitas partes do globo e até  partes da Europa do Leste. Já as altas esferas do Estado é outra  conversa. Tudo isto é um resultado de causas que têm profundidade  histórica, como explico no livro, e que interagem com causas  contemporâneas de origem externa (nomeadamente os fundos europeus). É  fácil apontar políticas alternativas que seriam melhores, e iriam  certamente gerar crescimento e convergência, mas no equilíbrio que  atualmente existe elas não são politicamente viáveis. A justiça, por  exemplo, funciona muito mal como é do conhecimento geral, especialmente  os tribunais administrativos e fiscais. Nuno Garoupa há anos que avisa  quais as reformas necessárias, e é ignorado. O país está bloqueado. Não  vejo saída credível para a encruzilhada em que o país se encontra.  
+&gt;  
+&gt;**Mesmo com 4,4 milhões de portugueses no limiar da pobreza não sente vontade de tentar fazer parte da solução?**  
+&gt;  
+&gt;Com poucas exceções, os governantes em Portugal não dignificam os  cargos que ocupam. Eu sou um académico, mas de verdade – ao contrário de  tantos políticos que apenas dizem ser académicos para esconder as suas  ambições e a sua incompetência. Não tenho qualquer interesse numa  carreira política. Prezo a minha liberdade e independência de dizer o  que penso sobre os temas, não estando preso ao que qualquer partido quer  que eu diga. Estou mais interessado em apresentar um diagnóstico sobre  porque é que as coisas estão como estão do que em ter um papel ativo ou  direto em mudar seja o que for – sendo eu de resto também pessimista  relativamente à possibilidade de tal mudança acontecer nos próximos  tempos. Portugal está a falhar, como economia e como democracia. Mas não  é possível compreender o presente, nem planear o futuro, sem primeiro  conhecer o nosso passado. Foi por isso que escrevi o livro **As causas do atraso português**.  Os meus inimigos acusam-me de querer reescrever a História. Acham que  isso é um insulto. Mas a realidade é que uso novos dados e métodos  científicos que mostram que a interpretação tradicional é, em muitos  aspetos, falsa. Logo, não me incomoda nada que digam que estou a  reescrever a História. Estou de a fazer isso para contar a verdade,  analisando a História com objetividade, livrando-a da propaganda. A  primeira edição do livro foi felizmente um sucesso, tendo esgotado  rapidamente apesar de uma tiragem grande, mas já está disponível a  segunda edição. O livro vai ter uma sessão de lançamento na Livraria  Buchholz, em Lisboa, no dia 8 de janeiro, às 18h30, com a minha  presença.
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -6303,7 +7635,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>quinta pinypon sempre quis dár águinha ás vacas polas toda beber</t>
+          <t>o meu foi quinta da pinypon, sempre quis dár águinha ás vacas e po-las todas a beber ...</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -6323,7 +7655,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>httpsactualidadereligiosaptblogsuperiorestransferemsuspeitodeabusosexualquefaznovasvitimashttpsactualidadereligiosaptblogsuperiorestransferemsuspeitodeabusosexualquefaznovasvitimas vez padre delfim nome fictício sofria perturbação psiquiátrica outras coisas levava ter conversas pouco apropriadas menores ia falar crianças catequese além outras pancas dizialhes manterem sempre mãos cima secretárias insinuando mãos vista porque masturbar comissão independente veio lembrar bem tipo conversa sugestões insinuações natureza sexual configura abuso sexual menores perturbados assunto pais crianças queixaramse vigário fim doi ano vigário abriu finalmente investigação vigário apurou comportamento padre delfim grave devia continuar funções menos devia presença crianças transmitiu informação bispo abriu processo recusouse retirar sacerdote funções enquanto processo concluído comportamento padre delfim manteve agravou porque sabendo investigação passou acusar crianças quererem prejudicar tanto crianças catequistas paróquia medo padre delfim tornasse violento menos ocasião agrediu outra funcionária paróquia final desse ano toda comunidade paróquia suspirou alívio porque soube padre delfim ia regressar paróquia contudo ficaram surpreendidos descobrir vez afastado ministério contacto crianças padre delfim afinal sido mudado outra paróquia souberam então padre delfim pedido transferência voluntária diocese permitido perguntaram possível padre delfim mudar assim paróquia processo aberto foilhes dito departamento autoriza transferências paróquias departamento conduzir processo duas entidades distintas comunicam si cabe diocese zelar superiores interesses crianças foilhes dito presunção inocência padre delfim valia testemunhos incontáveis crianças diversas turmas vários catequistas outros funcionários paróquia assim permitiu padre delfim continuar prejudicar crianças abusando sexualmente enquanto diocese nada faz proteger felizmente história verdade melhor passou igreja afinal padre delfim professora ensino secundário paróquias duas escolas distintas lisboa miúdos catequese alunos dessas mesmas escolas bem reais diocese poi bem ministério educação evidentemente surgiu relatório comissão independente toda classe política rasgou vestes rangeu dentes importantes clérigos chamados justificar pecados igreja assembleia república recomendação comissão independente estado crie órgão semelhante analisar questão abusos sociedade portuguesa geral pg ficou gaveta vários ano igreja ter tornado política oficial afastamento funções qualquer clérigo credivelmente acusado ter cometido abusos processo concluído ministério educação outros continuum agrilhoada passado poucos têm dedicado tanta atenção seguir questão abusos sexuais igreja feito repetidos apelos maior transparência parte igreja saio desta bolha dou conta outras organizações portugal principalmente públicos lidam questão fico vergonha</t>
+          <t>[https://actualidadereligiosa.pt/blog/2024/10/03/superiores-transferem-suspeito-de-abuso-sexual-que-faz-novas-vitimas/](https://actualidadereligiosa.pt/blog/2024/10/03/superiores-transferem-suspeito-de-abuso-sexual-que-faz-novas-vitimas/)
+&gt;Era uma vez o Padre Delfim \[nome fictício\] que sofria de uma perturbação psiquiátrica que, entre outras coisas, o levava a ter conversas pouco apropriadas com menores. Quando ia falar às crianças da catequese, para além de outras pancas, dizia-lhes para manterem sempre as mãos em cima das secretárias, insinuando que, quando não tinham as mãos à vista era porque se estavam a masturbar. Como a Comissão Independente nos veio lembrar – e bem – esse tipo de conversa com sugestões e insinuações de natureza sexual configura abuso sexual de menores.
+&gt;Perturbados com este assunto, os pais das crianças queixaram-se ao vigário. Ao fim de dois anos o vigário abriu finalmente uma investigação. O vigário apurou que o comportamento do Padre Delfim era muito grave e que ele não devia continuar em funções, ou, pelo menos, que não devia estar na presença de crianças, e transmitiu essa informação ao bispo, que abriu um processo, mas recusou-se a retirar o sacerdote de funções enquanto o processo não fosse concluído. O comportamento do Padre Delfim não só se manteve, como se agravou, porque sabendo da investigação passou a acusar as crianças de o quererem prejudicar. Tanto crianças como os catequistas da paróquia tinham medo que o Padre Delfim se tornasse violento e em pelo menos uma ocasião ele agrediu uma outra funcionária da paróquia.
+&gt;No final desse ano, toda a comunidade da paróquia suspirou de alívio porque se soube que o Padre Delfim não ia regressar para a paróquia. Contudo, ficaram muito surpreendidos ao descobrir que em vez de ser afastado do ministério, ou do contacto com as crianças, o Padre Delfim afinal tinha sido mudado para outra paróquia.
+&gt;Souberam então que o Padre Delfim tinha pedido uma transferência voluntária e que a Diocese tinha permitido. Quando perguntaram como é que era possível o Padre Delfim mudar assim de paróquia quando tinha um processo aberto, foi-lhes dito que o departamento que autoriza as transferências de paróquias e o departamento que estava a conduzir o processo são duas entidades distintas, que não comunicam entre si.
+&gt;Mas, não cabe à diocese zelar pelos superiores interesses das crianças? Foi-lhes dito que a presunção de inocência do Padre Delfim valia mais que os testemunhos de incontáveis crianças, de diversas turmas, e de vários catequistas e outros funcionários da paróquia.
+&gt;E foi assim que se permitiu ao Padre Delfim continuar a prejudicar crianças, abusando sexualmente delas enquanto a diocese nada faz para as proteger.
+&gt;**Felizmente esta história não é verdade. Ou melhor, é, mas não se passou na Igreja.**
+&gt;**Afinal o padre Delfim é uma professora de ensino secundário e as paróquias são duas escolas distintas em Lisboa. Os miúdos de catequese são alunos dessas mesmas escolas, bem reais. E a diocese? Pois bem, é o Ministério da Educação, evidentemente.**
+&gt;Quando surgiu o relatório da Comissão Independente toda a classe política rasgou as vestes e rangeu os dentes. Importantes clérigos foram chamados a justificar os pecados da Igreja na Assembleia da República. Mas a recomendação da Comissão Independente de que o Estado crie um órgão semelhante para analisar a questão dos abusos na sociedade portuguesa em geral (Pg 449) ficou na gaveta, e vários anos depois de a Igreja ter tornado política oficial o afastamento de funções de qualquer clérigo credivelmente acusado de ter cometido abusos, até que o processo seja concluído, o Ministério da Educação, entre outros, continua agrilhoada ao passado.
+&gt;Poucos como eu têm dedicado tanta atenção a seguir a questão dos abusos sexuais na Igreja. Tenho feito repetidos apelos a maior transparência por parte da Igreja, mas quando saio desta bolha e me dou conta de como outras organizações em Portugal, principalmente os públicos, lidam com esta questão, até fico com vergonha.</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -6343,7 +7685,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>apenas sobre dinheiro sobre outros ben tai ações terrenos imobiliário outros ben podem servir refúgio tai joias obras arte partir valores sim valor taxon menos view pollhttpswwwredditcompollfpty</t>
+          <t>Apenas sobre o dinheiro, sobre outros bens, tais como ações, terrenos e imobiliário?
+E outros bens que podem servir de refúgio, tais como joias e obras de arte?
+A partir de que valores?
+Se sim, qual o valor da taxa? 1%, 2%, mais de 2% ou menos de 1%?
+[View Poll](https://www.reddit.com/poll/1fp50ty)</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -6363,7 +7709,9 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>defenda proibição uso telemóveis estudantes escolas assunto anda discutido sociedade portuguesa vossa opinião view pollhttpswwwredditcompollfigdc</t>
+          <t>Há quem defenda que a proibição do uso dos telemóveis pelos estudantes nas escolas. É um assunto que anda a ser discutido na sociedade portuguesa. 
+Qual é a vossa opinião?
+[View Poll](https://www.reddit.com/poll/1fi2gdc)</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -6383,7 +7731,18 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>alecrim alecrim dourado nasceu campo semeado alecrim alecrim dourado nasceu campo semeado amor disse assim flor campo alecrim amor disse assim flor campo alecrim</t>
+          <t>Alecrim, Alecrim dourado  
+Que nasceu no campo  
+Sem ser semeado  
+Alecrim, Alecrim dourado  
+Que nasceu no campo  
+Sem ser semeado
+Foi meu amor  
+Que me disse assim  
+Que a flor do campo é o alecrim  
+Foi meu amor  
+Que me disse assim  
+Que a flor do campo é o alecrim.</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -6403,7 +7762,16 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>encontrei seguinte questão reddit lidam surtos raiva intensa gostaria pessoa calma vezes dou mim perder cabeça comportarme animal resposta ante deixemme dizervos qualquer humano pacato monstro potencial cada via éne fatores contextuais comportamentais hormonais bioquímicos patamar partir conseguimos suportar determinado evento externo tornamos agressivos combater perceber crucial pessoas mudem dentro melhorem convivência social posto importa aqui compreender natureza parte problema gene vão determinar comportamento passemos bateria sessões reeducação preparação convivência social saudável si bastante outros fatores bioquímicos fortes vão fazer papel bastidores dificilmente vamos conseguir suportar determinado nível pressão agressão externas agora vamos adicionar aqui problemas relacionados trauma crescimento agressões autoinfligidas infligidas terceiros resultado menor tolerância eventuais ameaças exteriores comportamento provem danos crescimento afetam parte psicológica bioquímica último menos importante devemos ter consideração contexto social conjunto pressões externas expostos via conduta social vigente bem interações impositivas encarregados educação demais familiares amigo conhecidos maior menor medida possam influenciar desenvolvimento psicológico cognitivo ponto moldar maneira reagimos potenciais ameaças externas reparem usei aqui denominador comum termo ameaças externas fator estimula reação exagerada quero dizer catapulta reação exagerada sempre vista olhos todos ameaça sentido maioria pessoas atribui facto acontece agente reage extrapoladamente determinado evento vêo ameaça real razão situação espoleta nele comportamento reprovável socialmente terminar falta adicionar tema fator alimentação últimos estudos científicos vêm demonstrando intestino causa grande parte comportamento alimentação saudável rica proteínas fibras vitaminas sais minerais par noite sono bem dormida podem fazer verdadeiros milagres desenvolvimento pessoal suma devemos julgar situações limite bitaola bommau termos consciência abordagem certa podemos levar pessoas procurar ajuda médica especialidade contribuir sociedade pacífica perdendo vista ainda assim sociedade pacífica objetivo irrealista inalcançável</t>
+          <t>Encontrei a seguinte questão no Reddit:
+Como é que lidam com os surtos de raiva intensa? Gostaria de ser uma pessoa mais calma mas às vezes dou por mim a perder a cabeça e a comportar-me como um animal.
+A minha resposta é:
+Antes de mais, deixem-me dizer-vos que qualquer ser humano, por mais pacato que seja, é um monstro em potencial. Cada um de nós tem, por via de éne fatores contextuais, sejam eles comportamentais, hormonais ou bioquímicos, um patamar a partir do qual não conseguimos suportar mais determinado evento externo e nos tornamos mais agressivos, para o combater. Perceber isto é crucial para que as pessoas mudem por dentro e melhorem a convivência social.
+Posto isto, importa aqui compreender que a nossa natureza é parte do problema. Os nossos genes vão determinar muito do nosso comportamento. Mesmo que passemos por uma bateria de sessões de reeducação e de preparação para uma convivência social mais saudável, isto, por si só, não é o bastante - outros fatores bioquímicos mais fortes vão estar a fazer o seu papel "nos bastidores", e por isso dificilmente vamos conseguir suportar mais do que um determinado nível de pressão ou agressão externas.
+Agora, vamos adicionar aqui problemas relacionados com traumas de crescimento ou agressões auto-infligidas ou infligidas por terceiros que tenham resultado em menor tolerância para com eventuais ameaças exteriores. Muito do nosso comportamento, provem de danos de crescimento que afetam a parte psicológica e bioquímica.
+Por último, e não menos importante, devemos ter em consideração o contexto social, o conjunto de pressões externas a que somos expostos por via da conduta social vigente, bem como, das interações impositivas dos nossos encarregados de educação, demais familiares, amigos e conhecidos, que em maior ou menor medida, possam influenciar o nosso desenvolvimento psicológico e cognitivo ao ponto de moldar a maneira como reagimos a potenciais ameaças externas.
+Reparem, que eu usei aqui um denominador comum, o termo "ameaças externas", o qual é o fator que estimula uma reação exagerada. Não quero com isto dizer que o que catapulta uma reação exagerada seja sempre vista aos olhos de todos como uma ameaça no sentido que a maioria das pessoas lhe atribui. O que de facto acontece é que o agente que reage extrapoladamente a um determinado evento, vê-o como um ameaça real, razão pela qual a situação espoleta nele um comportamento reprovável, socialmente.
+Para terminar, falta adicionar ao tema, o fator alimentação. Os últimos estudos científicos vêm demonstrando que o intestino é a causa de grande parte do nosso comportamento. Uma alimentação saudável, rica proteínas, em fibras, vitaminas e sais minerais, a par de uma noite de sono bem dormida, podem fazer verdadeiros milagres no desenvolvimento pessoal.
+Em suma, não devemos julgar estas situações limite entre a bitaola bom/mau, mas termos consciência de que com a abordagem certa, podemos levar as pessoas a procurar ajuda médica de especialidade e contribuir para uma sociedade mais pacífica, não perdendo de vista, ainda assim, que uma sociedade pacífica é um objetivo irrealista e inalcançável.</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -6423,7 +7791,8 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>verão acabou vou trocar iphone nokia igual avô quiserem falar comigo liguem mandam sm juntemse á causa</t>
+          <t xml:space="preserve">   Este verão acabou! Vou trocar o IPhone pelo um Nokia igual ao do meu avô  se quiserem falar comigo liguem ou mandam SMS 
+         Juntem-se á causa 👍</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -6443,7 +7812,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>httpswwwinstagramcompcsrksbzigshmtrnbnnhmwdlmxpnbw</t>
+          <t>https://www.instagram.com/p/C5sr3-KsBz8/?igsh=MTRnbnNhMWdlMXpnbw==</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -6463,7 +7832,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>httpssicnoticiasptmundoengenheirodamicrosoftevitapossivelataqueinformaticoglobalsemquererbdfe</t>
+          <t>https://sicnoticias.pt/mundo/2024-04-06-Engenheiro-da-Microsoft-evita-possivel-ataque-informatico-global-sem-querer-1bd3fe95</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -6483,7 +7852,8 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>xb jornal notícias abril httpspreviewredditrmfcjlrtcjpgwidthformatpjpgautowebpsffedbdecac</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 8 de abril de 2024](https://preview.redd.it/2rmfc8jlr9tc1.jpg?width=679&amp;format=pjpg&amp;auto=webp&amp;s=f74346919271687f3e455152d93932b2deca201c)</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -6503,7 +7873,8 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>aparentemente faço nada bem pendurar meias secar penduro elástico devia ter pendurado parte dedos penduro parte dedos devia ter pendurado elástico fazem bem alguma tarefa doméstica</t>
+          <t>É que aparentemente eu não faço nada bem. Nem pendurar umas meias a secar! Se penduro pelo elástico, devia ter pendurado pela parte dos dedos. Se penduro pela parte dos dedos, devia ter pendurado pelo elástico.
+Vocês fazem bem alguma tarefa doméstica?</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -6523,7 +7894,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditnjsidduhcjpgwidthformatpjpgautowebpsecacfdaebabafaed xb httpspreviewredditletxhfduhcjpgwidthformatpjpgautowebpsbddabfeefdcbebfde quilos frango total cerca kcal alimentos</t>
+          <t>&amp;#x200B;
+https://preview.redd.it/4njsid47duhc1.jpg?width=4096&amp;format=pjpg&amp;auto=webp&amp;s=6617e8c2824a57cf9053d560aeb467abafa81e4d
+&amp;#x200B;
+https://preview.redd.it/l01etxhfduhc1.jpg?width=586&amp;format=pjpg&amp;auto=webp&amp;s=1792b0d0d2ab7f776e7e6fdc3be2bf1d0e539558
+16,258 quilos de frango no total. 
+Cerca de 300 kcal em alimentos</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -6543,7 +7919,9 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>httpswwwjornalcienciacomporquenataleanonovosaoasdatasmaisdepressivaseansiosasparatantagenteespecialistasexplicamhttpswwwjornalcienciacomporquenataleanonovosaoasdatasmaisdepressivaseansiosasparatantagenteespecialistasexplicam alguns familiares amigo depressão viam tudo negro desta época nesta época pioraram pouco sempre mau humor outro manifestar inveja ambiente alegria felicidade típicos natal ano novo</t>
+          <t xml:space="preserve">[https://www.jornalciencia.com/por-que-natal-e-ano-novo-sao-as-datas-mais-depressivas-e-ansiosas-para-tanta-gente-especialistas-explicam/](https://www.jornalciencia.com/por-que-natal-e-ano-novo-sao-as-datas-mais-depressivas-e-ansiosas-para-tanta-gente-especialistas-explicam/)
+Tenho alguns familiares e amigos com depressão e se já viam tudo negro fora desta época, nesta época pioraram e não foi pouco. 
+Sempre de mau humor, um ou outro a manifestar inveja do ambiente de alegria e felicidade típicos do Natal e Ano Novo. </t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -6563,7 +7941,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptportugaldetalhetribunaldeclaraextintamedidadecoacaodesocrateshttpswwwcmjornalptportugaldetalhetribunaldeclaraextintamedidadecoacaodesocrates</t>
+          <t>[https://www.cmjornal.pt/portugal/detalhe/tribunal-declara-extinta-medida-de-coacao-de-socrates](https://www.cmjornal.pt/portugal/detalhe/tribunal-declara-extinta-medida-de-coacao-de-socrates)</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -6583,7 +7961,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>httpsobservadorptespeciaisinesteotoniopereiraescreveucronicasobrecomoobrigouofilhoaparticiparnumcampodeferiasfoidenunciadaeacpcjquisinvestigarhttpsobservadorptespeciaisinesteotoniopereiraescreveucronicasobrecomoobrigouofilhoaparticiparnumcampodeferiasfoidenunciadaeacpcjquisinvestigar</t>
+          <t>[https://observador.pt/especiais/ines-teotonio-pereira-escreveu-cronica-sobre-como-obrigou-o-filho-a-participar-num-campo-de-ferias-foi-denunciada-e-a-cpcj-quis-investigar/](https://observador.pt/especiais/ines-teotonio-pereira-escreveu-cronica-sobre-como-obrigou-o-filho-a-participar-num-campo-de-ferias-foi-denunciada-e-a-cpcj-quis-investigar/)</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -6603,7 +7981,9 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>httpssapoptatualidadeartigosiwaohakamadapassouanosnocorredordamorteesoagorafoiconsideradoinocente iwao hakamada considerado inocente assassínio patrão família após novo julgamento começou março após ano disputas legais</t>
+          <t xml:space="preserve">https://24.sapo.pt/atualidade/artigos/iwao-hakamada-passou-46-anos-no-corredor-da-morte-e-so-agora-foi-considerado-inocente
+Iwao Hakamada foi considerado inocente do assassínio do seu patrão e da família em 1966, após um novo julgamento que começou em março de 2023, após anos de disputas legais.
+</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -6623,7 +8003,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>boa então deixar fumar ate correr bem queria saber vou ter vontade fumar semana duas dia</t>
+          <t xml:space="preserve">Boas, então estou a deixar de fumar, ate está a correr bem , só queria mesmo saber , até quando vou ter vontade de fumar ? 1 semana ? Duas ? 3 dias ? </t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -6641,7 +8021,11 @@
           <t>Português dá uma guitarrada na volta á França</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr"/>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>💪🎸🎶</t>
+        </is>
+      </c>
       <c r="C311" t="n">
         <v>3</v>
       </c>
@@ -6659,7 +8043,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>httpspteuronewscomjulianassangelibertadoeacaminhodecasahttpspteuronewscomjulianassangelibertadoeacaminhodecasa fundador wikileaks deixou reino unido prisão alta segurança onde passou últimos cinco ano acordo justiça norteamericana fundador wikileaks julian assange homem livre assange deixou reino unido entrou avião caminho ilhas marianas protetorado norteamericano onde presente juíz após acordo justiça norteamericana assange aceitou declararse culpado acusação divulgar segredos defesa estados unidos troca recebe pena prisão cinco ano cumpridos reino unido deve voltar trás grade assange recorrido supremo tribunal britânico ordem extradição estados unidos audiência marianas assange deverá ir austrália país onde natural</t>
+          <t>[https://pt.euronews.com/2024/06/25/julian-assange-libertado-e-a-caminho-de-casa](https://pt.euronews.com/2024/06/25/julian-assange-libertado-e-a-caminho-de-casa)
+&gt;O fundador do Wikileaks deixou o Reino Unido e a prisão de alta segurança onde passou os últimos cinco anos, depois de um acordo com a Justiça norte-americana.
+&gt;O fundador do **WikiLeaks**, **Julian Assange**, é um homem livre. Assange deixou o **Reino Unido** e entrou num avião a caminho das **ilhas Marianas**, um protetorado norte-americano onde será presente a um juíz, após um acordo com a justiça norte-americana. Assange aceitou declarar-se culpado da acusação de divulgar segredos de defesa dos **Estados Unidos** e em troca recebe uma pena de prisão de cinco anos, já cumpridos no Reino Unido, pelo que não deve voltar para trás das grades.
+&gt;Assange tinha recorrido ao supremo tribunal britânico, depois da ordem de extradição para os Estados Unidos.
+&gt;Depois da audiência nas Marianas, Assange deverá ir para a **Austrália**, país de onde é natural.</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -6679,7 +8067,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>noto alguns brasileiros todos espero apenas pequena minoria aprenderam odiar portugal escola certamente ensinaramlhes portugal culpado alguns male brasil famoso ouro brasileiro pago coroa portuguesa imposto ouro descoberto outras coisas género provavelmente afirmar identidade nacional comigo ocorreu alguns professores tentaram ensinarme versão história identidade portuguesa afirmava contra espanha tentaram ensinarme detestar espanha espanhóis talvez evitar iberismo atração hipótese união espanha portugal talvez complexo inferioridade portugal pequeno pobre aprendi continuo simpatizar espanha embora goste atual governo simpatizo particularmente galiza parece parecida minho algumas outras regiões portugal tarde aprendi desconfiar aprendido sobre história escola demasiados enviesamentos algumas coisas manifestamente erradas</t>
+          <t xml:space="preserve">Noto que alguns brasileiros, não todos, espero até que seja apenas uma pequena minoria, aprenderam a odiar Portugal na escola.
+Certamente ensinaram-lhes que Portugal é culpado de alguns males do Brasil. O famoso ouro brasileiro, que era pago à coroa portuguesa (um imposto de 1/5 do ouro descoberto) e outras coisas do género. Provavelmente para afirmar a identidade nacional
+Comigo ocorreu o mesmo, com alguns professores. Tentaram ensinar-me uma versão da história em que a identidade portuguesa se afirmava contra Espanha, tentaram ensinar-me a detestar Espanha e os espanhóis. Talvez para evitar o iberismo, a atração pela hipótese de uma união entre Espanha e Portugal. Talvez também de um complexo de inferioridade por Portugal ser mais pequeno e mais pobre.
+Não aprendi. Continuo a simpatizar com Espanha, embora não goste do seu atual governo. Simpatizo particularmente com a Galiza, que me parece mais parecida com o Minho que algumas outras regiões de Portugal.
+Mais tarde aprendi a desconfiar do que tinha aprendido sobre história na escola. Demasiados enviesamentos e algumas coisas até manifestamente erradas. </t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -6699,7 +8091,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>httpsecosapoptmarcelopromulgadiplomasobremigracoesdevidoasituacaourgentissima</t>
+          <t>https://eco.sapo.pt/2024/06/03/marcelo-promulga-diploma-sobre-migracoes-devido-a-situacao-urgentissima/</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -6719,7 +8111,9 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>httpswwwjnptfernandopimentagaranteaterceiramedalhadeouronatacadomundohttpswwwjnptfernandopimentagaranteaterceiramedalhadeouronatacadomundo canoísta português fernando pimenta arrecadou domingo terceira medalha ouro taça mundo velocidade poznan após triunfar k ter feito k sábado k porque fernando pimenta popular</t>
+          <t xml:space="preserve">[https://www.jn.pt/6002642722/fernando-pimenta-garante-a-terceira-medalha-de-ouro-na-taca-do-mundo/](https://www.jn.pt/6002642722/fernando-pimenta-garante-a-terceira-medalha-de-ouro-na-taca-do-mundo/)
+&gt;O canoísta português Fernando Pimenta arrecadou este domingo a terceira medalha de ouro na Taça do Mundo de velocidade em Poznan, após triunfar em K1 5000 e depois de o também ter feito em K1 1000 e, no sábado, em K1 500.
+Porque é que o Fernando Pimenta não é mais popular? </t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -6739,7 +8133,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>procurei encontrei nenhuma satisfatória</t>
+          <t xml:space="preserve">Procurei e não encontrei nenhuma satisfatória. </t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -6759,7 +8153,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>boa tarde recentemente comecei ler portugal amordaçado mário soares fiquei opinião positiva além poder considerado fundadores república vejo nele homem inteligente culto tendo dado aulas duas universidades francesas tendo seguido curso história direito contudo andado procura discursos final vida parece passar impressão alguém desgastado tempo dizia coisa coisa visitou sócrates cadeia apenas pretendo saber memória guardam positiva negativa melhor ainda legado deixou país</t>
+          <t>Boa tarde,
+Recentemente, comecei a ler o Portugal Amordaçado de Mário Soares e fiquei com uma opinião muito positiva dele
+Para além de poder ser considerado como um dos fundadores da 3 república, vejo nele um homem inteligente e culto, tendo dado aulas em duas universidades francesas e tendo seguido um curso de história e de direito
+Contudo, tenho andado à procura de discursos do mesmo e mais para o final da sua vida, parece passar a impressão de alguém desgastado pelo tempo e que já não dizia coisa com coisa (como quando visitou o Sócrates na cadeia)
+Apenas pretendo saber que memória guardam dele, seja esta positiva ou negativa, ou melhor ainda que legado deixou para o país?</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -6779,7 +8177,8 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>tentar perceber donde vem aumento dst dado públicos</t>
+          <t>Para tentar perceber donde vem o aumento das DST.
+Estes dados são públicos?</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -6799,7 +8198,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>eleições presidenciais aproximaremse surge especulação sobre assumirá cargo presidente república portuguesa acham próximo ocupar papel política portuguesa quais vossas opiniões previsões sobre candidatos</t>
+          <t>Com as eleições presidenciais a aproximarem-se, surge a especulação sobre quem assumirá o cargo de Presidente da República Portuguesa. Quem vocês acham que será o próximo a ocupar este papel na política portuguesa? Quais são as vossas opiniões e previsões sobre os candidatos?</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -6819,7 +8218,21 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>httpsominhoptguimaraeschamasezeuspesatoneladaseeomelhorexemplardesemprederacaminhotahttpsominhoptguimaraeschamasezeuspesatoneladaseeomelhorexemplardesemprederacaminhota zeus cinco ano duas toneladas metro centímetros altura criado quinta souto ronfe guimarães boi castrado melhor exemplar sempre história raça minhota consagração chegou último fim semana feira anual trofa através apacra httpsapacrapt associação portuguesa criadores bovinos raça minhota tutela raça autóctone situada douro minho vias extinção verdadeiro campeão desde registos hoje melhor congratulase carlos sousa proprietário quinta souto declarações minho critérios genealógicos morfológicos joão sobreiro secretário técnico apacra confirmou jornal facto zeus reúne toda condições melhor animal castrado raça minhota atualmente sempre porque apesar muitos registos termos registos fotográficos memória pessoas melhor exemplar castrado apareceu momento receber tal reconhecimento série parâmetros morfológicos genealógicos cumprida primeiro filho pai mãe raça minhota obedecer critérios genealógicos fatores morfológicos além condição física bem tratado tudo conta considerado melhor exemplar apareceu hoje aponta joão sobreiro xb</t>
+          <t>[https://ominho.pt/guimaraes-chama-se-zeus-pesa-2-toneladas-e-e-o-melhor-exemplar-de-sempre-de-raca-minhota/](https://ominho.pt/guimaraes-chama-se-zeus-pesa-2-toneladas-e-e-o-melhor-exemplar-de-sempre-de-raca-minhota/)
+&gt;Zeus  tem cinco anos, mais de duas toneladas, um metro e 92 centímetros de  altura. Criado na Quinta do Souto, em Ronfe, Guimarães, este boi  castrado é o melhor exemplar de sempre da história da Raça Minhota.  
+&gt;  
+&gt; A consagração chegou, no último fim de semana, na Feira Anual da Trofa, através da [APACRA ](https://apacra.pt/)–  Associação Portuguesa dos Criadores de Bovinos de Raça Minhota, que  tutela esta raça autóctone, situada Entre Douro e Minho e que já esteve  em vias de extinção.  
+&gt;  
+&gt;“É um verdadeiro campeão. Desde que há  registos até hoje, é o melhor”, congratula-se Carlos Sousa, proprietário  da Quinta do Souto, em declarações a O MINHO.  
+&gt;  
+&gt;Critérios genealógicos e morfológicos  
+&gt;  
+&gt;João  Sobreiro, secretário técnico da APACRA, confirmou ao nosso jornal que,  de facto, Zeus “reúne todas as condições para ser o melhor animal  castrado de Raça Minhota”.  
+&gt;  
+&gt;Não só atualmente, mas de sempre, isto  porque, “apesar de não haver muitos registos, em termos de registos  fotográficos e da memória das pessoas, é o melhor exemplar castrado que  apareceu até ao momento”.  
+&gt;  
+&gt;Para receber tal reconhecimento, “há uma  série de parâmetros morfológicos e genealógicos” a ser cumprida.  “Primeiro tem de ser filho de pai e mãe de Raça Minhota, tem que  obedecer aos critérios genealógicos, depois há os fatores morfológicos,  além da condição física. Está muito bem tratado. Tudo isso conta para  ser considerado o melhor exemplar que apareceu até ao hoje”, aponta João  Sobreiro.
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -6839,7 +8252,61 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>httpsrrsapoptartigoexplicadorrenascencaporqueequehabancosabloquearascontasdosclienteshttpsrrsapoptartigoexplicadorrenascencaporqueequehabancosabloquearascontasdosclientes decorre lei criada combater branqueamento capitais financiamento terrorismo lei estabelece atualização periódica dado clientes bancários aconteça máximo cada cinco ano bancos bloquear contas clientes banco portugal recebeu reclamações sobre matéria janeiro julho explicador renascença indica causa acontecer bloqueio conta bancária pode acontecer vários motivos relacionado dado pessoais clientes bancários atualizados podem ter consequência suspensão conta bem bloqueio acesso aplicações homebanking fundo acontecer bancos bloquear contas falta atualização dado clientes consequências várias desde logo deixa possível realizar levantamentos dinheiro terminais multibanco pagamentos contas outras operações fica conta bloqueada fica impedido acrescentar retirar titulares conta desbloquear acessos indo balcão próximo banco proceder atualização presencial dado pessoais clientes sabem têm atualizar dado normalmente através contacto feito próprio banco regra ocorre via eletrónica através email através aplicação homebanking dado clientes devem atualizar garantem banco cliente sempre contactável morada número telefone endereço email ainda comprovativos salários pensões domiciliar conta bancária contudo aqui clientes bancários têm razão queixa pouco claras regras relativas forma contactar clientes procedam atualização toda situações desconhecimento lei desculpa fizer arrisca ver conta bloqueada acordo números banco portugal relativos ano passado revelados jornal públicohttpswwwpublicopteconomianoticiabancosestaobloquearcontasbancariasfaltaactualizacaodadosrefhpcxmanchetedestaques situação deu origem queixas clientes bancários junto regulador sete meses entanto número real pessoas afetadas deverá bastante superior regras claras legal legal obrigatório ainda lacuna forma comunicar clientes assim porque decorre lei criada combater branqueamento capitais financiamento terrorismo lei estabelece atualização periódica dado clientes bancários aconteça máximo cada cinco ano pode problema sobretudo tendo conta problema afeta sobretudo reside habitualmente portugal caso emigrantes outro lado acordo jornal público idosos acabam afetados neste caso consequência baixa literacia financeira desconhecimento regras xb</t>
+          <t>[https://rr.sapo.pt/artigo/explicador-renascenca/2024/02/08/por-que-e-que-ha-bancos-a-bloquear-as-contas-dos-clientes/365937/](https://rr.sapo.pt/artigo/explicador-renascenca/2024/02/08/por-que-e-que-ha-bancos-a-bloquear-as-contas-dos-clientes/365937/)
+&gt; **Decorre  de uma lei criada em 2017 para combater o branqueamento de capitais e o  financiamento do terrorismo. Esta lei estabelece que a atualização  periódica de dados dos clientes bancários aconteça, no máximo, a cada  cinco anos.**  
+&gt;  
+&gt;  
+&gt;  
+&gt;Há bancos que estão a bloquear as contas do seus clientes.   
+&gt;  
+&gt;O Banco de Portugal recebeu mais de 200 reclamações sobre esta matéria só entre janeiro e julho de 2023.   
+&gt;  
+&gt;O **Explicador Renascença** indica o que está em causa.   
+&gt;  
+&gt;Por que é que isto está a acontecer?   
+&gt;  
+&gt;O bloqueio de uma conta bancária pode acontecer por vários motivos.  Um deles está relacionado com os dados pessoais dos clientes bancários  que, se não forem atualizados, podem ter como consequência a suspensão  da conta, bem como o bloqueio no acesso às aplicações de homebanking.  
+&gt;  
+&gt;No fundo, é isto que está a acontecer. Os bancos estão a bloquear contas por falta de atualização de dados dos clientes.   
+&gt;  
+&gt;Com que consequências?  
+&gt;  
+&gt;Várias. Desde logo, deixa de ser possível realizar levantamentos de  dinheiro em terminais Multibanco, pagamentos de contas e outras  operações.   
+&gt;  
+&gt;Quem fica com a conta bloqueada, fica, também, impedido de acrescentar ou retirar titulares da conta.   
+&gt;  
+&gt;Como desbloquear os acessos?  
+&gt;  
+&gt;Indo ao balcão mais próximo do seu banco, para proceder à atualização presencial dos dados pessoais.   
+&gt;  
+&gt;E como é que os clientes sabem que têm de atualizar os seus dados?  
+&gt;  
+&gt;Normalmente, através de um contacto feito pelo seu próprio banco que, em regra, ocorre por via eletrónica.   
+&gt;  
+&gt;Seja através de um email, seja através da aplicação de homebanking.  
+&gt;  
+&gt;E que dados são esses que os clientes devem atualizar?  
+&gt;  
+&gt;Aqueles que garantem ao banco que o cliente está sempre contactável:  morada, número de telefone e endereço de email. E, ainda, comprovativos  de salários e pensões a domiciliar na conta bancária.  
+&gt;  
+&gt;Contudo - e é aqui que os clientes bancários têm mais razão de queixa  - são pouco claras as regras relativas à forma de contactar os clientes  para que procedam a essa atualização.   
+&gt;  
+&gt;Mas, como em todas as situações, o desconhecimento da lei não é desculpa: quem não o fizer, arrisca ver a sua conta bloqueada.   
+&gt;  
+&gt;De acordo com números do Banco de Portugal relativos ao ano passado - e revelados [pelo jornal "Público"](https://www.publico.pt/2024/02/08/economia/noticia/bancos-estao-bloquear-contas-bancarias-falta-actualizacao-dados-2079554?ref=hp&amp;cx=manchete_2_destaques_0)  \- esta situação deu origem a 271 queixas de clientes bancários junto do  regulador em sete meses. No entanto, o número real de pessoas afetadas  deverá ser bastante superior.   
+&gt;  
+&gt;Mas se as regras não são claras, isto é legal?  
+&gt;  
+&gt;Mais do que legal, é mesmo obrigatório, ainda que haja lacunas na forma de comunicar com os clientes.  
+&gt;  
+&gt;Como assim?  
+&gt;  
+&gt;Porque decorre de uma lei criada em 2017 para combater o  branqueamento de capitais e o financiamento do terrorismo. Esta lei  estabelece que a atualização periódica de dados dos clientes bancários  aconteça, no máximo, a cada cinco anos.  
+&gt;  
+&gt;E isto pode ser um problema, sobretudo tendo em conta que este é um  problema que afeta, sobretudo, quem não reside habitualmente em  Portugal, como é o caso dos emigrantes.   
+&gt;  
+&gt;Por outro lado, e de acordo com o jornal "Público", também os idosos  acabam por ser afetados, mas, neste caso, como consequência da baixa  literacia financeira e do desconhecimento das regras. 
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -6859,7 +8326,9 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>httpswwwyoutubecomwatchvxogdlnqfshttpswwwyoutubecomwatchvxogdlnqfs música devia conhecida tão má fica boa músicas humorísticas pouco conhecidas quim barreiros similares bastantes conhecidas</t>
+          <t xml:space="preserve">[https://www.youtube.com/watch?v=XO6GDLNQfs4](https://www.youtube.com/watch?v=XO6GDLNQfs4)
+Esta música devia ser mais conhecida. É tão má que fica boa. 
+Mais músicas humorísticas pouco conhecidas? As do Quim Barreiros e similares são bastantes conhecidas. </t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -6879,7 +8348,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>fim semana aniversário avó vou ir alto minho aka distrito viana castelo região origem família vai última vez estarei lá gostava dizer melhor dita região gerês espigueiros quim barreiros bola berlim zé natario trajes ourivesaria granito lugares vãome dar saudades voltar ver ponte barca arcos valdevez vila origem família caminha vila favorita todo portugal espero minho continue ter beleza sempre todos oportunidade ver</t>
+          <t>Este fim de semana é o aniversário da minha avó e vou ir para o Alto Minho (a.k.a Distrito de Viana do Castelo), região de origem da minha família.
+Mas vai ser a última vez que eu estarei lá, por isso gostava de dizer o melhor de dita região:
+- O Gerês 
+- Os espigueiros 
+- Quim Barreiros 
+- As bolas de Berlim do Zé Natario.
+- Os trajes
+- A ourivesaria
+- O Granito.
+Mas os lugares que vão-me dar mais saudades não voltar a ver são: Ponte da Barca e Arcos de Valdevez (as vilas de origem da minha família) e Caminha (a minha vila favorita de todo Portugal)
+Espero que o Minho continue a ter a beleza de sempre, e que todos tenham a oportunidade de a ver.</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -6899,7 +8378,9 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>xb jornal notícias janeiro httpspreviewreddituyghrlecjpgwidthformatpjpgautowebpsaedffddadebbfb jornal notícias janeiro httpspreviewredditdjbxrlecjpgwidthformatpjpgautowebpsceebaecabdeb</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 24 janeiro de 2024](https://preview.redd.it/uyg40h2r2lec1.jpg?width=1278&amp;format=pjpg&amp;auto=webp&amp;s=02039a255ed8f71f88d05dad2295eb1b6fb00534)
+[Jornal de Notícias 25 de janeiro de 2024](https://preview.redd.it/893djbxr2lec1.jpg?width=1429&amp;format=pjpg&amp;auto=webp&amp;s=161525ce4e35ba8e09036821c7a8506b98deb684)</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -6919,7 +8400,9 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ontem ver negócios semana presidente cip dava liberalização turismo portugal bom exemplo fez bem país honestamente achei péssimo gosto dizer tal coisa meio crise habitação devida grande parte boom turístico negócios envolvidos representando indústria turismo fiquei surpreendido discordo turismo massas regras aproximam eleições legislativas lanço debate partidos atualmente defendem turismo regulado invés selva hoje selva fundos investimento imobiliário compram quarteirões inteiros bairros lisboetas transformar alojamento turístico hotéis outros tipos vários cruzeiros gigantescos atracam diariamente simultâneo alfama etc creio resignadamente aceitar tipo indústria turismo motor economia nacional</t>
+          <t>Ontem estava a ver o Negócios da Semana e o presidente da CIP dava a “liberalização do turismo” em Portugal como um bom exemplo que fez bem ao país. Honestamente achei de péssimo gosto dizer tal coisa no meio de uma crise da habitação devida, em grande parte, ao boom turístico e aos negócios envolvidos. Mas, representando ele também a indústria do turismo, não fiquei surpreendido.
+Ora, como eu discordo de um turismo de massas e sem regras, e se aproximam eleições legislativas, lanço ao debate que partidos, atualmente, defendem um turismo regulado ao invés da selva que temos hoje. A selva em que fundos de investimento imobiliário compram quarteirões inteiros de bairros lisboetas para transformar em alojamento turístico (hotéis e de outros tipos), em que vários cruzeiros gigantescos atracam diariamente e em simultâneo em Alfama, etc.
+Não creio que tenhamos de, resignadamente, aceitar este tipo de (indústria do) turismo como motor da economia nacional.</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -6939,7 +8422,19 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>andrea bocelli gloria in excelsis deo httpswwwyoutubecomwatchvhtnceg gosto nesta versão httpswwwyoutubecomwatchvhtnceghttpswwwyoutubecomwatchvhtnceg desta outra alemão httpswwwyoutubecomwatchvpsedqggjby muitas outras versões gosto muitas outras canções natal andrea bocelli adeste fideleshttpswwwyoutubecomwatchvokyzenogc los peces en el ríohttpswwwyoutubecomwatchvlqetxlditek conheci primeiro nesta curiosa versão russahttpswwwyoutubecomwatchvrxrolyhk mil versões desta música popular países língua espanhola entrai pastores entraihttpswwwyoutubecomwatchvceqmeufsza villancico piensa la mulahttpswwwyoutubecomwatchvsljwjoto moonlight nighthttpswwwyoutubecomwatchvaaochwnpgo ucraniana</t>
+          <t>A minha é esta:
+[Andrea Bocelli Gloria in Excelsis Deo ](https://www.youtube.com/watch?v=00ht_nCEG40)
+também gosto muito nesta versão:
+[https://www.youtube.com/watch?v=00ht\_nCEG40](https://www.youtube.com/watch?v=00ht_nCEG40)
+[e desta outra, em alemão ](https://www.youtube.com/watch?v=pSEdQGGjB8Y)
+e em muitas outras versões
+E Também gosto de muitas outras canções de Natal:
+[Andrea Bocelli - Adeste Fideles](https://www.youtube.com/watch?v=okyzEnO7g3c)
+[Los peces en el río](https://www.youtube.com/watch?v=LQEtxLDitEk) (que conheci primeiro nesta [curiosa versão russa](https://www.youtube.com/watch?v=_rxROly7H4k))
+Há mil e uma versões desta música, muito popular nos países de língua espanhola
+[Entrai pastores entrai](https://www.youtube.com/watch?v=CEQmeUF6szA)
+[Villancico PIENSA LA MULA](https://www.youtube.com/watch?v=sLJWjot355o)
+[A Moonlight Night](https://www.youtube.com/watch?v=aaOChwNPg5o) (ucraniana)</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -6959,7 +8454,20 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>httpswwwjnptadechegaaprovamprojetosestrangeirosirregularessemacessogratuitoaosnshttpswwwjnptadechegaaprovamprojetosestrangeirosirregularessemacessogratuitoaosns projetos lei doi partidos ad chega sobre acesso sn estrangeiros residentes aprovados quintafeira parlamento três bancadas votos contra p pcp be livre il baixando nona comissão diploma chega sobre regulação acesso sn estrangeiros residentes primeiro aprovado graças psd cdspp agora debatido especialidade limitar acesso propõe alterar lei base saúde estatuto serviço nacional saúde documento lêse nacionais países pertencentes união europeia residentes considerados beneficiários sn têm direito acesso sn mediante pagamento serviços usufruídos ad pretende retirar lista beneficiários sn migrantes situação legalizada exceção cuidados urgentes vitais concordam aprovação desta medida view pollhttpswwwredditcompollhifgcf</t>
+          <t>[https://www.jn.pt/88775977/ad-e-chega-aprovam-projetos-estrangeiros-irregulares-sem-acesso-gratuito-ao-sns/](https://www.jn.pt/88775977/ad-e-chega-aprovam-projetos-estrangeiros-irregulares-sem-acesso-gratuito-ao-sns/)
+&gt; Os projetos de lei dos dois partidos da AD e do Chega sobre o acesso ao  SNS por estrangeiros não residentes foram aprovados esta quinta-feira no  Parlamento pelas três bancadas, com os votos contra de PS, PCP, BE,  Livre e IL, baixando à nona comissão.                    
+&gt;  
+&gt; O diploma do Chega sobre regulação do acesso ao SNS por estrangeiros não  residentes foi o primeiro a ser aprovado graças ao PSD e ao CDS-PP, e  será agora debatido na especialidade. Para limitar este acesso, propõe  alterar a Lei de Bases da Saúde e o Estatuto do Serviço Nacional de  Saúde. No documento, lê-se que "os nacionais de países não pertencentes à  União Europeia que não sejam residentes não são considerados  beneficiários do SNS, mas têm direito de acesso ao SNS mediante o  pagamento dos serviços usufruídos".   
+&gt;  
+&gt;...  
+&gt;  
+&gt; A AD pretende retirar da lista dos beneficiários do SNS os migrantes sem situação legalizada   
+&gt;  
+&gt; **Exceção para cuidados "urgentes e vitais"**  
+&gt;  
+&gt;...
+Concordam com a aprovação desta medida?
+[View Poll](https://www.reddit.com/poll/1hifgcf)</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -6979,7 +8487,39 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>httpsconversablogspotcomquemhtmlhttpsconversablogspotcomquemhtml httpspreviewredditpbejqiofmgejpgwidthformatpjpgautowebpsaedbddfacfeeaacbbb imagem onde vemos trabalhadores trabalharam recuperaração catedral notre dame lembroume poema brecht perguntas operário lê construiu tebas sete porta livros vem nome reismas real transportaram pedras babilónia tantas vezes destruídaquem outras tantas reconstruiu casas lima dourada moravam obreiros dia ficou pronta muralha chinapara onde pedreiros grande rom cheia arcos triunfo ergueusobre triunfaram césares tão cantada bizâncio palácios habitantes legendária atlântida noite mar engoliu viu afogados gritar escravos jovem alexandre conquistou índias sozinho césar venceu gauleses sequer cozinheiro serviço armada afundou filipe espanha chorou ninguém frederico ii ganhou guerra sete ano ganhou cada página vitória cozinhava festins cada década grande homem pagava despesas tantas histórias quantas perguntas acrescento duas linhas brecht escreveu poemamas traduziu</t>
+          <t xml:space="preserve">[https://conversa2.blogspot.com/2024/12/quem.html](https://conversa2.blogspot.com/2024/12/quem.html)
+https://preview.redd.it/pbejqiofmg4e1.jpg?width=266&amp;format=pjpg&amp;auto=webp&amp;s=4ae0d224bddf2a30c8090646feeaac8348b54b3b
+&gt;Esta imagem, onde vemos os trabalhadores que trabalharam na recuperaração da catedral de Notre Dame, lembrou-me o poema de Brecht:  
+Perguntas para um operário que lê  
+&gt;Quem construiu Tebas, a das sete portas?
+&gt;Nos livros vem o nome dos reis,Mas foram os reis que transportaram as pedras?
+&gt;Babilónia, tantas vezes destruída,Quem outras tantas a reconstruiu?
+&gt; Em que casas
+&gt;Da Lima Dourada moravam seus obreiros?
+&gt;No dia em que ficou pronta a Muralha da China,para onde foram os seus pedreiros?
+&gt;A grande Roma está cheia de arcos de triunfo. Quem os ergueu?Sobre quem triunfaram os Césares?
+&gt;A tão cantada Bizâncio
+&gt;Só tinha palácios
+&gt;Para os seus habitantes?
+&gt;Até a legendária Atlântida,
+&gt;Na noite em que o mar a engoliu
+&gt;Viu afogados gritar por seus escravos.
+&gt;O jovem Alexandre conquistou as Índias
+&gt;Sozinho?
+&gt;César venceu os gauleses.
+&gt;Nem sequer tinha um cozinheiro ao seu serviço?
+&gt;Quando a sua armada se afundou, Filipe de Espanha
+&gt;Chorou. E ninguém mais?
+&gt;Frederico II ganhou a guerra dos sete anos. Quem mais a ganhou?
+&gt;Em cada página uma vitória.
+&gt;Quem cozinhava os festins?
+&gt;Em cada década um grande homem.
+&gt;Quem pagava as despesas?
+&gt;Tantas histórias
+&gt;Quantas perguntas
+&gt;(Acrescento estas duas linhas:
+&gt;Brecht escreveu este poemamas quem o traduziu?)
+</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -6999,7 +8539,13 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>boa dia ver moradia condomínio privado luxo toda casas nova nunca habitadas exceção acontece moradia ocupada supostamente ilegalmente segundo agente imobiliário moradia alugada alguma coisa acontece pessoas lá vivem deixaram pagar renda potencial comprador moradias vou pagar condomínio vez área comum bastante grande jardim árvores tudo exige manutenção portanto alguém pago tal imagino ocupas interessados pagar renda pagam compro posso fazer precaver caso algum problema maior ocupas posso ignorar ocupas viver descansado</t>
+          <t>Boas!!!
+Há dias fui ver uma moradia num condomínio privado, de luxo. 
+Todas as casas são novas, nunca habitadas, com exceção de uma. Acontece que há uma moradia ocupada supostamente ilegalmente. Segundo o agente imobiliário a moradia estava alugada e alguma coisa acontece que as pessoas que lá vivem deixaram de pagar renda. 
+Eu como potencial comprador de uma das moradias vou pagar condomínio, uma vez que este tem uma área comum bastante grande com jardim e árvores, tudo isto exige manutenção portanto tem que haver alguém pago para tal. 
+Imagino que os ocupas não esteja interessados em pagar já que nem a renda pagam. 
+Compro ou não? O que posso fazer para me precaver no caso de haver algum problema maior com os ocupas? 
+Posso “ignorar” os ocupas e viver descansado?</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -7019,7 +8565,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>parece rússia cortou alguns cabos internet ligavam finlândia alemanha</t>
+          <t xml:space="preserve">Parece que a Rússia cortou alguns cabos de Internet que ligavam a Finlândia à Alemanha. </t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -7039,7 +8585,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ando procura trabalho candidatarme etc nada qualquer cena servia genuinamente rapaz ainda novo ja obras etc n encontro merda nenhuma unico requisito part time ate empregado doméstico fazia alguem ai ajuda aonde consigo arranjar alguma coisa dicas onde procurar</t>
+          <t>Ando a 1 mes a procura de trabalho a candidatarme etc e nada qualquer cena servia genuinamente sou um rapaz ainda novo e ja tive nas obras etc mas n encontro merda nenhuma o meu unico requisito é se fosse part time, ate empregado doméstico fazia. Alguem ai tem ajuda aonde consigo arranjar alguma coisa? Ou umas dicas de onde procurar</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -7059,7 +8605,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>total votos votos homens hetero total apenas votos mulheres votos lgbt total poucos votos mulheres satisfeitosas azul insatisfeitosas laranjahttpspreviewredditxvvgyhtdpngwidthformatpngautowebpsabfbfbabadbc estudo feito nível nacional grupo investigação sexualidade género faculdade psicologia ciências educação universidade porto cuja síntese resultados pode consultada infografia questionário shapehttpsnoticiasupptfpceupwpcontentuploadssitesshapesetpdf concluíram pessoas insatisfeitas vida sexual descriminaram homens mulheres heterossexuais lgbt</t>
+          <t xml:space="preserve">Total de 372 votos.
+319 votos de homens hetero (85,8% do total), apenas 21 votos de mulheres (5,6%) e 32 votos de lgbt+ (8,6% do total). Muito poucos votos de mulheres.
+[Satisfeitos\/as a azul, insatisfeitos\/as a laranja](https://preview.redd.it/xv677vg6yhtd1.png?width=670&amp;format=png&amp;auto=webp&amp;s=88703a337149499b39399fbfba359b1ad9b2c200)
+No estudo feito, a nível nacional, pelo Grupo de Investigação em Sexualidade de Género, da Faculdade de Psicologia e de Ciências da Educação da Universidade do Porto, cuja síntese dos resultados pode ser consultada na [Infografia do Questionário SHAPE](https://noticias.up.pt/fpceup/wp-content/uploads/sites/14/2024/09/SHAPE_27SET.pdf), concluíram que 53,3% das pessoas estão insatisfeitas com a sua vida sexual. Não descriminaram entre homens e mulheres, heterossexuais e lgbt+.  
+</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -7079,7 +8629,37 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>httpswwwcmtvptatualidadedetalheestudorevelaquecercademetadedosportuguesesestainsatisfeitocomavidasexualhttpswwwcmtvptatualidadedetalheestudorevelaquecercademetadedosportuguesesestainsatisfeitocomavidasexual questionário sobre saúde práticas sexuais revelou sábado metade portuguese sente insatisfeita vida sexo diz respeito inquiridos lgbt discriminados orientação sexual declarações lusa responsável aplicação questionário avaliação práticas experiências saúde sexual shape criado organização mundial saúde pedro nobre explicou estudo integrou participantes amostra representativa engloba toda características variáveis socioeconómicas população portuguesa segundo professor faculdade psicologia ciências educação universidade porto coordena grupo investigação sexualidade género daquela faculdade aplicou shape objetivo agora criar portugal observatório saúde sexual permita avaliar evolução indicadores saúde sexual comportamentos sexuais população portuguesa ajudar desenvolver implementar políticas públicas promovam saúde direitos sexuais toda pessoas perceber amostra sente insatisfeita vida sexual surpreendente preciso pensar razão acontece porque muita dessa insatisfação ligada sofrimento problemas sexuais referiu docente segundo shape cerca metade pessoas participaram estudo mostrouse insatisfeita vida sexual sendo relatou ter dificuldades sexuais causam sofrimento significativo problemas sexuais reportados dificuldades ejaculação homens orgasmo mulheres seguido dor sexual mulheres baixo desejo sexual disfunção erétil sendo menos frequentes dificuldades excitação mulher ejaculação prematura homens estudo abrangeu questões sobre saúde sexual comportamentos sexuais população portuguesa incluindo biografia sexual práticas sexuais violência sexual discriminação identidade direitos sexuais dificuldades sexuais outros revelou ainda pessoas identifica heterossexual lésbica gay bissexual lgb cisgénero população lgbt pessoas afirmam terem sido discriminadas base orientação sexual destas apontou ter sido discriminada ultimo ano preocupante porque mostra apesar toda legislação ainda grande trabalho fazer pedro nobre preocupante perceber pessoas afirmam terem sido discriminadas profissionais saúde deviam primeiros linha apoio ajuda pessoas shape revelou ainda maioria pessoas inicia atividade sexual outra pessoa ano média ano respeita práticas sexuais pessoas relataram nunca ter tido qualquer experiência sexual outra pessoa pessoas nunca fizeram sexo oral nunca receberam sexo oral nunca masturbou termos frequência resultados indicam quatro semanas anteriores participação estudo pessoas qualquer atividade sexual atividade sexual apenas pessoa pessoas atividade sexual quatro semanas anteriores questionário média relações sexuais pouco vez semana sendo resposta frequente apenas vez mês estudo recolheu dado sobre violência sexual estimam população forçada ameaçada outra pessoa fazer algo sexual queria sendo coagida ter relações primeira experiência sexual outra pessoa mulheres apontam resultados três vezes vitimizadas homens passo pessoas lgbt seis vezes vitimizadas população héterocisgénero nota síntese resultados pode consultada infografia questionário shapehttpsnoticiasupptfpceupwpcontentuploadssitesshapesetpdf satisfeitos vossa vida sexual posso colocar opções view pollhttpswwwredditcompollftifj</t>
+          <t xml:space="preserve">   [https://www.cm-tv.pt/atualidade/detalhe/-estudo-revela-que-cerca-de-metade-dos-portugueses-esta-insatisfeito-com-a-vida-sexual](https://www.cm-tv.pt/atualidade/detalhe/-estudo-revela-que-cerca-de-metade-dos-portugueses-esta-insatisfeito-com-a-vida-sexual) 
+&gt;Um questionário sobre saúde e  práticas sexuais revelou este sábado que metade dos portugueses se sente  "insatisfeita com a sua vida" no que ao sexo diz respeito e que 37,7%  dos inquiridos LGBT+ já foram discriminados pela orientação sexual.   
+&gt;  
+&gt;Em declarações à Lusa, o responsável pela  aplicação do Questionário de Avaliação das Práticas e Experiências de  Saúde Sexual (SHAPE), criado pela Organização Mundial de Saúde em 2023,  Pedro Nobre explicou que estudo integrou 2010 participantes "numa  amostra representativa e que engloba todas as características e  variáveis socioeconómicas" da população portuguesa.   
+&gt;  
+&gt;Segundo o também professor da Faculdade de  Psicologia e de Ciências da Educação da Universidade do Porto, que  coordena o Grupo de Investigação em Sexualidade de Género daquela  faculdade, que aplicou o SHAPE, o objetivo é agora "criar em Portugal um  Observatório de Saúde Sexual" que permita "avaliar a evolução dos  indicadores de saúde sexual e dos comportamentos sexuais" na população  portuguesa para "ajudar a desenvolver e implementar políticas públicas  que promovam a saúde e os direitos sexuais" de todas as pessoas.   
+&gt;  
+&gt;"Perceber que 50% da amostra se sente  insatisfeita com a vida sexual é surpreendente e é preciso pensar na  razão pela qual isso acontece, até porque muita dessa insatisfação está  ligada a sofrimento e não a problemas sexuais", referiu o docente.   
+&gt;  
+&gt;Segundo o SHAPE, cerca de metade das  pessoas que participaram no estudo mostrou-se "insatisfeita com a sua  vida sexual sendo que 20% relatou ter dificuldades sexuais que causam  sofrimento significativo".   
+&gt;  
+&gt;Os problemas sexuais mais reportados foram  as dificuldades de ejaculação nos homens (11,7%) e do orgasmo nas  mulheres (11,3%), seguido da dor sexual nas mulheres (10,7%), do baixo  desejo sexual (10,6%) e da disfunção erétil (10,4%), sendo menos  frequentes dificuldades de excitação na mulher (8,7%) e a ejaculação  prematura nos homens (7,1%).   
+&gt;  
+&gt;O estudo, que abrangeu questões sobre a  saúde sexual e os comportamentos sexuais da população portuguesa,  incluindo biografia sexual, práticas sexuais, violência sexual,  discriminação, identidade e direitos sexuais, dificuldades sexuais,  entre outros, revelou ainda que 93,4% das pessoas se identifica como  heterossexual, 6,6% como Lésbica, Gay, Bissexual (LGB)+ e 0,5% como não  cis-género.   
+&gt;  
+&gt;Da população LGBT+, 37,7% das pessoas  afirmam terem sido discriminadas com base na sua orientação sexual e  destas, 40% apontou ter sido discriminada no ultimo ano: "Isto é muito  preocupante porque mostra que apesar de toda a legislação que há, ainda  há um grande trabalho a fazer".   
+&gt;  
+&gt;Para Pedro Nobre, "mais preocupante é  perceber que 31% das pessoas afirmam terem sido discriminadas por  profissionais de saúde, que deviam ser os primeiros da linha no apoio e  ajuda a estas pessoas".   
+&gt;  
+&gt;O SHAPE revelou ainda que a maioria das  pessoas (74%) inicia a sua atividade sexual com outra pessoa entre os 15  e os 21 anos (média de 18,9 anos) e que no que respeita às práticas  sexuais, 2,7% das pessoas relataram nunca ter tido qualquer experiência  sexual com outra pessoa, 16,6% das pessoas nunca fizeram sexo oral, 14%  nunca receberam sexo oral e 13,7% nunca se masturbou.     
+&gt;  
+&gt;Em termos de frequência, os resultados  indicam que "nas quatro semanas anteriores à participação no estudo,  34,9% das pessoas não tiveram qualquer atividade sexual e 60,8% tiveram  atividade sexual com apenas uma pessoa".   
+&gt;  
+&gt;Entre as pessoas que tiveram atividade  sexual nas quatro semanas anteriores ao questionário, a média é de 5,3  relações sexuais, ou seja, pouco mais do que uma vez por semana (sendo a  resposta mais frequente apenas uma vez por mês).   
+&gt;  
+&gt;O estudo recolheu também dados sobre a  violência sexual que estimam que 9% da população já foi forçada ou  ameaçada por outra pessoa a fazer algo sexual que não queria, sendo que  1,8% foi coagida a ter relações na sua primeira experiência sexual com  outra pessoa.  
+&gt;  
+&gt;As mulheres, apontam os resultados, "são  três vezes mais vitimizadas do que os homens, ao passo que as pessoas  LGBT+ são seis vezes mais vitimizadas do que a população  hétero-cisgénero". 
+Nota -  Uma síntese dos resultados pode ser consultada na [Infografia do Questionário SHAPE](https://noticias.up.pt/fpceup/wp-content/uploads/sites/14/2024/09/SHAPE_27SET.pdf)**.** 
+Estão satisfeitos com a vossa vida sexual? (só posso colocar 6 opções)
+[View Poll](https://www.reddit.com/poll/1fti2fj)</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -7099,7 +8679,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>boa tarde todos pensar fazer viagem braga portimão faro carro interior usar autoestradas alguém aqui fez percurso parecido norte algarve estrada nacional usaram nacional apenas google map evitar portagens experiência cansativo fez bem gostava saber vossa viagem têm alguma dica partilhar obrigado</t>
+          <t>Boa tarde a todos,  
+Estou a pensar em fazer uma viagem de Braga até Portimão (ou Faro) de carro, pelo interior, sem usar as autoestradas.
+Alguém aqui já fez um percurso parecido, do Norte ao Algarve, pela estrada nacional? Usaram a Nacional 2 ou apenas o Google Maps para evitar portagens? Como foi a experiência? Foi cansativo ou até se fez bem?
+Gostava de saber como foi a vossa viagem e se têm alguma dica para partilhar.
+Obrigado!</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -7119,7 +8703,13 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>post httpswwwredditcomrportugalcommentsegumyljoscagameiroasmulheresqueiamparaacamacom devia ter permitido uso termos pejorativos tai puta incel vaca etc usados forma generica serem dirigidos pessoa concreto sub pretende espaço aberto praticamente todos assuntos opiniões preciso opiniões expressas forma educada respeito mutuo liberdade implica responsabilidade educação assim pode ter espaço livre onde interlocutores sintam bem debate qualidade erro ter permitido uso termos pejorativos vale sub menos utilizadores bons post comentários muitos utilizadores post comentários mau gosto</t>
+          <t>no post 
+https://www.reddit.com/r/portugal2/comments/1egumyl/jos%C3%A9_gameiro_as_mulheres_que_iam_para_a_cama_com/
+não devia ter permitido o uso de termos pejorativos, tais como puta, incel, vaca, etc, mesmo quando usados de forma generica, sem serem dirigidos a uma pessoa em concreto.
+Este sub pretende ser um espaço aberto a praticamente todos os assuntos e opiniões, mas para isso é preciso que essas opiniões sejam expressas de forma educada, com respeito mutuo.
+Mais liberdade implica mais responsabilidade, mais educação. Só assim se pode ter um espaço livre onde os interlocutores se sintam bem e o debate tenha qualidade.
+Foi por isso um erro ter permitido o uso de termos pejorativos.
+Mais vale um sub com menos utilizadores, mas com bons posts e comentários, que um com muitos utilizadores, mas posts e comentários de mau gosto.</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -7139,7 +8729,8 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>httpssapoptatualidadeartigosmacronrecusaseanomearcandidatadaesquerdacomoprimeiraministraemfrancahttpssapoptatualidadeartigosmacronrecusaseanomearcandidatadaesquerdacomoprimeiraministraemfranca</t>
+          <t xml:space="preserve">[https://24.sapo.pt/atualidade/artigos/macron-recusa-se-a-nomear-candidata-da-esquerda-como-primeira-ministra-em-franca](https://24.sapo.pt/atualidade/artigos/macron-recusa-se-a-nomear-candidata-da-esquerda-como-primeira-ministra-em-franca)
+</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -7159,7 +8750,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>gostava saber quanto custa colocar novo dente pra saber antemão bastantes cáries neste momento seguro médis cobre próteses existe outro seguro próteses ir serviço privado</t>
+          <t xml:space="preserve">Gostava de saber quanto custa colocar um novo dente, pra saber de antemão. Tenho bastantes cáries neste momento. Tenho o seguro Médis, não cobre próteses. Existe outro seguro para próteses ou terei de ir pelo serviço privado? </t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -7179,7 +8770,21 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>httpsobservadorptopiniaocartaabertaaluismontenegroarespeitodeincendioshttpsobservadorptopiniaocartaabertaaluismontenegroarespeitodeincendios acreditar vontade mudar faço apelo menos dispenda bocadinho precioso tempo pensar aqui escrevi porque fogos catastróficos evitáveis exmo sr primeiro ministro dr luís montenegro dirijome si trágico aniversário pedrógão saber partilha desejo sr presidente república discurso passado dia tragédias nunca ter consciência contrário altura desajeitadamente pr chamou imprevisível tai tragédias continuam ter tudo previsivelmente repetirem ouvi palavras mação leve mal padecem equívocos comuns nesta temática último ano bom ano sim claro daí fruto caminho percorrido últimos ano positivo vai grande distância tipo salta cimo prédio passa queda livre andar pode dizer tudo correr bem mal chega chão previsivelmente ano após maior limpeza mato últimas décadas mil hectare limpos fogo ano calmos nesta matéria mal chegará frente sr primeiro ministro falou mação terra fustigada fogo tudo queimou restava obstante procurar notícias ano anteriores aperceberseia gabado premiado trabalho feito lá sim muita coisa fez nesse intervalo após ano terrível viu lá enquanto tipo vai andar parece tudo bem quer dizer sido nada feito tal afirmou exemplo chega percebe contradição dizer fazer culpar incendiários tudo resto bem bandido efetivamente feito melhorar sistema contudo daqueles casos tornamos vítimas próprio sucesso quanto melhor funciona sistema exclusão fogo programa eleitoral mencionar uso fogo ferramenta mostrava consciência pode caminho ano após ano contribui ampliar tragédia futura permitame metaforização explicar casa onde mangueira gás rota fuga paisagem mato cresce livremente muitas vezes ouvimos chamar barril pólvora perante situação fazemos evitar todo custo faísca aqui apelo agora cidadãos diminuirem risco trabalhamos tal trabalho feito evitar ignição vexa bem disse outro dia virão inevitável poi encararmos problema lado errado tudo falha caro rui rocha reparações justas vale pouco caçar falhas porque meio caos inevitáveis desastre inevitavelmente vai ocorrer devíamos fazer abrir janela gás sair gás mato abrir janela cortar mato brincadeira cara inconsequente limpezas infraestruturas moda socialista invenção costa sim nível paisagem cerca mil hectare ano contas própria agif aí sr primeiro ministro tudo igual bem trabalhado sensibilizar pessoas casa ligar interruptores podem fazer faísca prender malucos criminosos riscarem fósforos negligentes deixem cair objeto chão mal casa cheia gás coisa outra porque abra janela fácil claro tarefa pouca visibilidade resultados prazo custos economia sozinha pode justificar áreas despovoadas etc etc trabalho evitaria desgraças futuras contas feitas estado além justiça pagarem todos proteção todos gota água custo fogo controlado mil hectare un milhões euro aplicálos bem ano passado sugeri neste ensaio jornal forma repetir leitores convido dar vista olhoshttpsobservadorptespeciaisporquevamostermaispedrogaos deixeme terminar dizendo surpreendido positiva nestes poucos meses governo escrevi aqui duvidando opções fragilidade via nelas afinal errado porque mostrado força capacidade superar adversidades força acreditar vontade mudar faço apelo menos dispenda bocadinho precioso tempo pensar aqui escrevi porque fogos catastróficos evitáveis desde ali pedrógão figueiró vinhos grande incêndio destruiu aldeias ceifou vidas humanas animais casas etc ouvimos sempre fim fica tudo mesma mim todos portuguese fartos disto desejo maior sucesso melhor outros fazer diferente porque fazendo sempre mesma coisa resultado pode diferente melhores cumprimentos lisboa junho</t>
+          <t>[https://observador.pt/opiniao/carta-aberta-a-luis-montenegro-a-respeito-de-incendios/](https://observador.pt/opiniao/carta-aberta-a-luis-montenegro-a-respeito-de-incendios/)
+&gt;É por acreditar na sua vontade de mudar que lhe faço este apelo para que ao menos dispenda um bocadinho do seu precioso tempo a pensar no que aqui escrevi. Porque os fogos catastróficos são evitáveis.
+&gt;*Exmo Sr. Primeiro Ministro, Dr. Luís Montenegro*
+&gt;Dirijo-me a si no trágico aniversário de Pedrógão, não só por saber que partilha – quem não? – do desejo do Sr. Presidente da República (no discurso do passado dia 10) “que tragédias como as de 2017 nunca mais”, mas também por ter consciência que, e ao contrário do que na altura desajeitadamente o mesmo PR chamou imprevisível, tais tragédias continuam a ter tudo para previsivelmente se repetirem.
+&gt;Ouvi as suas palavras em Mação e, não me leve a mal, padecem de equívocos comuns nesta temática. Se “o último ano foi um bom ano”? Sim, claro. Mas daí a ser fruto do “caminho percorrido nos últimos anos \[que\] foi positivo” vai uma grande distância: quando um tipo salta do cimo de um prédio e passa em queda livre pelo 5° andar, também pode dizer que está tudo a correr bem, o mal é quando chega ao chão… Previsivelmente estes anos após 2017 e a maior limpeza de mato das últimas décadas – 500 mil hectares “limpos” pelo fogo – seriam anos calmos nesta matéria, como estão a ser. O mal chegará mais à frente.
+&gt;O Sr. Primeiro Ministro falou de Mação, terra fustigada pelo fogo que tudo queimou em 2017 e o que restava em 2019. Não obstante, se procurar notícias de anos anteriores aperceber-se-ia que muito foi gabado e até premiado o trabalho feito por lá — e sim, muita coisa se fez nesse intervalo — após o ano terrível de 2003, mas depois foi o que se viu. Lá está, enquanto o tipo vai no 5° andar parece que está tudo bem…
+&gt;Quer isto dizer que não tem sido nada feito, tal como afirmou por exemplo o Chega que não percebe a contradição entre dizer que há muito a fazer mas depois culpar incendiários como se tudo o resto estivesse bem não fosse o bandido? Não. Efetivamente muito foi feito para melhorar este sistema. Contudo, este é daqueles casos em que nos tornamos vítimas do próprio sucesso: quanto melhor funciona o sistema de exclusão de fogo (é o que temos e o seu programa eleitoral ao mencionar o uso do fogo como ferramenta mostrava a consciência de que este não pode ser o caminho) ano após ano, mais contribui para ampliar a tragédia futura.
+&gt;Permita-me uma metaforização para explicar isto: temos uma casa onde a mangueira do gás está rota, com uma fuga (temos uma paisagem em que o mato cresce livremente — aquilo a que também muitas vezes ouvimos chamar um “barril de pólvora”); perante esta situação o que fazemos é evitar a todo o custo uma faísca? (aqui temos o seu apelo — e que não é só seu nem é de agora — aos cidadãos para diminuirem o risco); trabalhamos (o tal muito trabalho feito) para evitar a ignição, só que como VExa. bem disse o outro dia “elas virão. É inevitável”. Pois é. Por encararmos o problema pelo lado errado, tudo falha (caro Rui Rocha: as reparações são justas, mas vale de pouco caçar falhas porque no meio do caos também elas são inevitáveis) o desastre inevitavelmente vai ocorrer.
+&gt;O que devíamos fazer? Abrir uma janela para o gás sair. O gás é o mato e abrir a janela é cortar mato. Não esta brincadeira cara e inconsequente de limpezas de infraestruturas à moda socialista – uma invenção de Costa em 2006 – mas sim ao nível da paisagem: cerca de 200 mil hectares por ano pelas contas da própria AGIF.
+&gt;É aí Sr. Primeiro Ministro que está tudo igual. Bem se tem trabalhado para sensibilizar as pessoas da casa a não ligar interruptores que podem fazer faísca, para prender os malucos ou os criminosos que riscarem fósforos ou os negligentes que deixem cair um objeto ao chão. O mal é que a casa está cheia de gás e se não for de uma coisa é de outra… Porque não há quem abra a janela.
+&gt;Não é fácil? Não, claro que não. É tarefa de pouca visibilidade, de resultados a prazo, com custos que a economia sozinha pode não justificar, em áreas despovoadas, etc., etc. Mas este era o trabalho que evitaria desgraças futuras. E que, contas feitas, para o Estado – além da justiça de pagarem todos pela proteção de todos – até era uma gota de água: ao custo do fogo controlado 200 mil hectares seriam uns 25 milhões de euros. Como aplicá-los bem, já o ano passado o sugeri neste ensaio para este jornal a que, por forma a não me repetir para os leitores, [o convido a dar uma vista de olhos](https://observador.pt/especiais/porque-vamos-ter-mais-pedrogaos/).
+&gt;Deixe-me terminar dizendo que me tem surpreendido pela positiva nestes poucos meses de governo. Escrevi aqui duvidando das suas opções, pela fragilidade que via nelas, mas afinal eu estava errado porque tem mostrado força e capacidade para superar as adversidades. E é por essa força e por acreditar na sua vontade de mudar, que lhe faço este apelo para que pelo menos dispenda um bocadinho do seu precioso tempo a pensar no que aqui escrevi. Porque os fogos catastróficos são evitáveis, mas desde 1961, quando ali mesmo em Pedrógão e Figueiró dos Vinhos um grande incêndio destruiu 3 aldeias, ceifou vidas humanas e animais, casas, etc., que ouvimos sempre o mesmo, mas no fim fica tudo na mesma.
+&gt;Seja – e de mim (e de todos os portugueses fartos disto) só desejo o seu maior sucesso – melhor que os outros. Terá é que fazer diferente, porque fazendo sempre a mesma coisa, o resultado não pode ser diferente.
+&gt;Com os meus melhores cumprimentos,
+&gt;***Lisboa, 17 de Junho de 2024***</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -7199,7 +8804,9 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>olá todos gostava perguntar sabem possível descobrirmos onde lutou algum soldado específico durante primeira guerra mundial avô avô lutou nesse período ainda voltado morreu pouco tempo devido gas transmitiu menos sabemos onde lutou zona porto sabem onde posso procurar obrigada</t>
+          <t>Olá a todos! Gostava de vos perguntar se sabem se é possível descobrirmos onde lutou algum soldado em específico, durante a Primeira Guerra Mundial. O avô do meu avô lutou nesse período e ainda que tenha voltado, morreu pouco tempo depois devido aos gases e não transmitiu, ou pelo menos nós não sabemos, onde lutou.
+Era da zona do Porto. Sabem onde posso procurar? 
+Obrigada!</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -7219,7 +8826,10 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>declarações rtp relacionam directamente legislaturas direita aumento despesa publica portugal apesar massivas privatizações feitas cavaco silva durão barroso passos coelho josé real professor catedrático faculdade economia universidade coimbra httpscesucptptcespessoasinvestigadorasesjosereis</t>
+          <t xml:space="preserve">Declarações na RTP1 que relacionam directamente legislaturas à direita e o aumento da despesa publica em Portugal (apesar das massivas privatizações feitas por Cavaco Silva, Durão Barroso e Passos Coelho).
+José Reis é Professor Catedrático da Faculdade de Economia da Universidade de Coimbra.
+https://ces.uc.pt/pt/ces/pessoas/investigadoras-es/jose-reis
+</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -7239,7 +8849,8 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>xb jornal dee notícias abril httpspreviewredditxybxdcngscjpgwidthformatpjpgautowebpsbeedfdcdfecacefdeb</t>
+          <t>&amp;#x200B;
+[Jornal dee Notícias 4 de abril de 2024](https://preview.redd.it/xybxdc8n0gsc1.jpg?width=685&amp;format=pjpg&amp;auto=webp&amp;s=1423beed6292fdcdfe77ca87c1ef2d80e9b23364)</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -7259,7 +8870,9 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>pr mtg rota carvão percurso desafiante deslumbrantes paisagens serra estrela manteigas guarda pr circular km h difícil nível iv httpssapatrilhasptpttrilhoprmtgrotadocarvao pr mtg rota carvãohttpspreviewredditxhkefeqhqpcjpgwidthformatpjpgautowebpsfbdbbbecbabdfabe</t>
+          <t>PR4 MTG - Rota do Carvão: Um percurso desafiante pelas deslumbrantes paisagens da Serra da Estrela • Manteigas (Guarda) • PR circular de 20 km • 8h • Difícil (nível IV)
+https://sapatrilhas.pt/pt/trilho/pr4-mtg-rota-do-carvao
+[PR4 MTG - Rota do Carvão](https://preview.redd.it/5xhkefeqhqpc1.jpg?width=3672&amp;format=pjpg&amp;auto=webp&amp;s=8fb83dbb3be86cb6ab59254806df90ab796424e2)</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -7279,7 +8892,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>nunca coisas simple aparecem esperamos simple amor evidente sorrisos encontra curso previsível vida porém distraímos calendário acaso passos empurrou caminho habitual então coisas outras nada espera transforma desvio olhar mão demora ombro forçando aproximação lábios</t>
+          <t>Nunca são as coisas mais simples que aparecem
+quando as esperamos. O que é mais simples,
+como o amor, ou o mais evidente dos sorrisos, não se
+encontra no curso previsível da vida. Porém, se
+nos distraímos do calendário, ou se o acaso dos passos
+nos empurrou para fora do caminho habitual,
+então as coisas são outras. Nada do que se espera
+transforma o que somos se não for isso:
+um desvio no olhar; ou a mão que se demora
+no teu ombro, forçando uma aproximação
+dos lábios.</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -7299,7 +8922,16 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>precisa homem basta humano basta ter sentimentos basta ter coração precisa saber falar calar sobretudo saber ouvir gostar poesia madrugada pássaro sol lua canto ventos canções brisa deve ter amor grande amor alguém então sentir falta ter amor deve amar próximo respeitar dor passantes levam consigo deve guardar segredo sacrificar nbsp preciso primeira mão imprescindível segunda mão pode ter sido enganado poi todos amigo enganados preciso puro todo impuro deve vulgar deve ter ideal medo perdêlo caso assim deve sentir grande vácuo deixa ter ressonâncias humanas principal objetivo deve amigo deve sentir pena pessoa tristes compreender imenso vazio solitários deve gostar crianças lastimar puderam nascer nbsp procurase amigo gostar mesmos gostos comova chamado amigo saiba conversar coisas simple orvalhos grandes chuvas recordações infância precisase amigo enlouquecer contar viu belo triste durante dia anseios realizações sonhos realidade deve gostar ruas desertas poças água caminhos molhados beira estrada mato chuva deitar capim nbsp precisase amigo diga vale pena viver porque vida bela porque amigo precisase amigo parar chorar viver debruçado passado busca memórias perdidas bata ombros sorrindo chorando chame amigo terse consciência ainda vive nbsp nbsp autor desconhecido</t>
+          <t>Não precisa ser homem, basta ser humano, basta ter sentimentos, basta ter coração. Precisa saber falar e calar, sobretudo saber ouvir. Tem que gostar de poesia, de madrugada, de pássaro, de sol, da lua, do canto, dos ventos e das canções da brisa. Deve ter amor, um grande amor por alguém, ou então sentir falta de não ter esse amor.. Deve amar o próximo e respeitar a dor que os passantes levam consigo. Deve guardar segredo sem se sacrificar.
+&amp;nbsp;
+Não é preciso que seja de primeira mão, nem é imprescindível que seja de segunda mão. Pode já ter sido enganado, pois todos os amigos são enganados. Não é preciso que seja puro, nem que seja todo impuro, mas não deve ser vulgar. Deve ter um ideal e medo de perdê-lo e, no caso de assim não ser, deve sentir o grande vácuo que isso deixa. Tem que ter ressonâncias humanas, seu principal objetivo deve ser o de amigo. Deve sentir pena das pessoa tristes e compreender o imenso vazio dos solitários. Deve gostar de crianças e lastimar as que não puderam nascer.
+&amp;nbsp;
+Procura-se um amigo para gostar dos mesmos gostos, que se comova, quando chamado de amigo. Que saiba conversar de coisas simples, de orvalhos, de grandes chuvas e das recordações de infância. Precisa-se de um amigo para não se enlouquecer, para contar o que se viu de belo e triste durante o dia, dos anseios e das realizações, dos sonhos e da realidade. Deve gostar de ruas desertas, de poças de água e de caminhos molhados, de beira de estrada, de mato depois da chuva, de se deitar no capim.
+&amp;nbsp;
+Precisa-se de um amigo que diga que vale a pena viver, não porque a vida é bela, mas porque já se tem um amigo. Precisa-se de um amigo para se parar de chorar. Para não se viver debruçado no passado em busca de memórias perdidas. Que nos bata nos ombros sorrindo ou chorando, mas que nos chame de amigo, para ter-se a consciência de que ainda se vive.
+&amp;nbsp;
+&amp;nbsp;
+*Autor desconhecido*</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -7319,7 +8951,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>bom dia todos neste momento reconstruir casa pensado colocar ac forma climatização tratase moradia t cerca m trabalha casa dado haverá necessidade climatização durante todo dia questão ac casa quanto gastam sensivelmente climatização mensalmente sim sei contas nao assim tão lineares porque cada casa casa apenas ter ideia esperar obrigado todos</t>
+          <t xml:space="preserve"> Bom dia a todos, estou neste momento a reconstruir uma casa, e tenho pensado colocar AC's como forma de climatização.
+Trata-se de 1 moradia T3 com cerca de 150m e um de nós trabalha em casa, dado que haverá necessidade de haver climatização durante todo o dia.
+A minha questão: quem tem também AC em casa, quanto gastam sensivelmente para a climatização mensalmente?
+Sim eu sei, que as contas nao são assim tão lineares porque cada casa é um casa, era para apenas ter uma ideia do que esperar.
+Obrigado a todos</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -7339,7 +8975,9 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>apple watch suporte esim liguei operadora perguntar forma poderia ter esim número usar relógio assim podium ir correr fazer outras actividades andar telefone atrás mim phone música receber chamadas chega bem aqui tudo bem esbarrei preçário tipico portugal pagamos tudo peso outro pedir cartão custa pagar mês ter acesso número pago pouco ilimitado todos meses relógio obviamente fiz nada vou fazer preços alguma solução barata noutra operadora algum provider esim online menos apenas internet ir ouvir música</t>
+          <t xml:space="preserve">Tenho um Apple Watch com suporte para e-sim e liguei para a minha operadora (NOS) para perguntar de que forma poderia ter um e-sim com o mesmo número para usar no relógio, assim podia ir correr e fazer outras actividades sem andar com o telefone atrás de mim, phones para música e receber chamadas chega muito bem. Até aqui tudo bem, esbarrei no preçário, como já é tipico em Portugal pagamos tudo a peso de outro, pedir o cartão custa 9,99€ e depois tenho que pagar 5€/mês para ter acesso ao mesmo número do qual já lhes pago (e não é pouco que tenho o ilimitado) todos os meses no relógio, obviamente não fiz nada nem vou fazer com estes preços.  
+Há alguma solução mais barata noutra operadora? Algum provider de e-sim "online" que pelo menos tenha apenas internet para ir ouvir música?  
+</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -7359,7 +8997,8 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditazikvlqacjpgwidthformatpjpgautowebpsfeccccfbfeeffdaca</t>
+          <t>&amp;#x200B;
+https://preview.redd.it/azik0vl5q7ac1.jpg?width=1383&amp;format=pjpg&amp;auto=webp&amp;s=fe98c3c8c2c4f12b4542fee419f001fd6095a0ca</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -7379,7 +9018,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>nunca valia ter comprado superbock</t>
+          <t>... nunca mais. Valia mais ter comprado Superbock.</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -7399,7 +9038,9 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>olá pessoal criar website grátis expandir portfólio faço tudo zero nada template peço poder divulgar trabalho final precisarem site souberem alguém precise falem comigo</t>
+          <t xml:space="preserve">Olá pessoal! 
+Estou a criar websites grátis para expandir o meu portfólio. Faço tudo do zero, nada de templates, e só peço para poder divulgar o trabalho no final. Se precisarem de um site ou souberem de alguém que precise, falem comigo!
+</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -7419,7 +9060,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>httpsjornaleconomicosapoptnoticiasprofessoresvaoatingirtopodacarreiraatejulhodehttpsjornaleconomicosapoptnoticiasprofessoresvaoatingirtopodacarreiraatejulhode</t>
+          <t>[https://jornaleconomico.sapo.pt/noticias/professores-90-vao-atingir-topo-da-carreira-ate-julho-de-2027/](https://jornaleconomico.sapo.pt/noticias/professores-90-vao-atingir-topo-da-carreira-ate-julho-de-2027/)</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -7439,7 +9080,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>httpsobservadorpttribunaldecoimbraabsolvedjecondenadoisamigosporviolacaodejovem</t>
+          <t>https://observador.pt/2024/10/25/tribunal-de-coimbra-absolve-dj-e-condena-dois-amigos-por-violacao-de-jovem/</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -7459,7 +9100,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>malta tantas maneiras pensar diferentes batem tanto crânio tudo nada cagassem mazé tudo vivessem safoda sempre preocupados argumentar pensar discutir tudo vida so doi dia chavalos bora algarve casa amigo mm vibe jogar uno comer amendoins fumar un nites un bogas bora praia apanhar ondas bora bater gandas punhetas malta bué stressada sempre chateados tudo importam stressam assuntos nexo batam ganda punheta celebrem vida caralho</t>
+          <t xml:space="preserve">A malta tem tantas maneiras de pensar diferentes e batem tanto crânio por tudo e por nada se cagassem mazé em tudo e vivessem mais a que safoda e não tivessem sempre preocupados em argumentar ou pensar ou discutir com tudo a vida é so dois dias chavalos bora ao algarve para uma casa com amigos com a mm vibe jogar uno e comer amendoins fumar uns nites e uns bogas bora a praia apanhar umas ondas bora bater gandas punhetas a malta é bué stressada sempre chateados com tudo importam se e stressam se com assuntos sem nexo BATAM GANDA PUNHETA CELEBREM A VIDA CARALHO </t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -7479,7 +9120,10 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>httpswwwjnptvendiamvinhocontrafeitoamileurosagarrafahttpswwwjnptvendiamvinhocontrafeitoamileurosagarrafa polícias francesa italiana suíça desmantelaram rede contrafação vendia vinho barato luxo chegando cobrar mil euro garrafa vinho expedido através aeroporto italiano consumidores todo mundo seis pessoas detidas paris turim milão</t>
+          <t xml:space="preserve">[https://www.jn.pt/4494230368/vendiam-vinho-contrafeito-a-15-mil-euros-a-garrafa/](https://www.jn.pt/4494230368/vendiam-vinho-contrafeito-a-15-mil-euros-a-garrafa/)
+&gt;As polícias francesa, italiana e suíça desmantelaram uma rede de contrafação que vendia vinho barato como se fosse de luxo, chegando a cobrar 15 mil euros por garrafa. O vinho era expedido através de um aeroporto italiano para os consumidores em todo o Mundo. Seis pessoas foram detidas, em Paris, Turim e Milão.
+&gt;...
+</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -7499,7 +9143,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocompaisdetidotriplohomicidadapenhadefrancafamiliarescolaboraramcompj</t>
+          <t>https://www.noticiasaominuto.com/pais/2647699/detido-triplo-homicida-da-penha-de-franca-familiares-colaboraram-com-pj</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -7519,7 +9163,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>venho meio comunicar faleci maior intensa profunda genuína energia alegria desejo excelente booom diaaaaaa manter vossos alentos reforço lembrança hoje quarta feira apenas doi dia adiante aí estará porta desejado merecido fim semanaaa relembrovos igual forma ultima semana setembro verão faltam meses natal ano acabaaaaar motivo acordarem vossos preciosos sonos aconselho vivamente levantar rabiosques cama agradecer ano vida quarta feira incrível terem sempre oportunidade receber melhores bons dia aqui vez agradeço vossa encarecida simpática atenção têm quê cumprimentos breve todos</t>
+          <t>Venho por este meio comunicar que não faleci e que é com a maior, a mais intensa, a mais profunda, a mais genuína energia e alegria que vos desejo um EXCELENTE BOOOM DIAAAAAA!!!!
+Para manter os vossos alentos, reforço a lembrança de que hoje já é quarta feira e que em apenas mais dois dias adiante, aí estará à porta o nosso desejado e merecido FIM DE SEMANAAA!!! 😎
+Relembro-vos, de igual forma, de que esta é a ultima semana de setembro, o verão também já se foi e só faltam 3 meses para o NATAL E PARA O ANO ACABAAAAAR! 
+Por esse motivo, ao acordarem dos vossos preciosos 3° sonos, aconselho vivamente a levantar esses rabiosques da cama e a agradecer por mais um ano de vida, por mais uma quarta feira incrível e por terem sempre a oportunidade de receber melhores bons dias aqui!!!!!!! 🙌🏻
+Mais uma vez agradeço a vossa encarecida e simpática atenção. Também não têm de quê. Cumprimentos e até breve a todos 😂🫶🏻</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -7539,7 +9187,16 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>pessoas fizeram obras carreiras notáveis desconhecidas grande público muitas vezes pessoas área obra lembreime disto falar instrutora ginásio onde ando jogadora futebol licenciada educação física conhecia aurélio pereirahttpswwwwikisportingcomindexphptitleaurcaliopereira gigante mundo futebol português captou formou maior parte grandes talentos futebol português últimos ano sporting provavelmente seguido caminho beleneses dificilmente hoje grandes futebol português conhecia manuel sérgiohttpsptwikipediaorgwikimanuelscargio pensador importantíssimo motricidade humana noutras áreas gigantes praticamente desconhecidos apesar serem importantíssimos física edward wittenhttpsptwikipediaorgwikiedwardwitten muitos outros música max martinhttpsptwikipediaorgwikimaxmartin provavelmente músico maior sucesso últimas décadas praticamente desconhecido grande público httpswwwyoutubecomwatchvwoiijgmckhttpswwwyoutubecomwatchvwoiijgmck ocorre noutros áreas gigantes desconhecidos conheces</t>
+          <t>Há pessoas que fizeram obras ou carreiras notáveis e são desconhecidas do grande público, muitas vezes até de pessoas da área da sua obra.
+Lembrei-me disto depois de falar com uma instrutora  no ginásio onde ando, que é também jogadora de futebol e licenciada em educação física.
+Não conhecia [Aurélio Pereira](https://www.wikisporting.com/index.php?title=Aur%C3%A9lio_Pereira), que é um gigante no mundo do futebol português. Foi ele que captou e formou a maior parte dos grandes talentos do futebol português dos últimos 30 anos, sem ele o Sporting provavelmente teria seguido o caminho do beleneses e dificilmente seria hoje um dos 3 grandes do futebol português.
+Também não conhecia o [Manuel Sérgio](https://pt.wikipedia.org/wiki/Manuel_S%C3%A9rgio), que é um pensador importantíssimo da motricidade humana.
+Noutras áreas também há gigantes praticamente desconhecidos, apesar de serem importantíssimos.
+Na física temos [Edward Witten](https://pt.wikipedia.org/wiki/Edward_Witten) (e muitos outros)
+Na música temos [Max Martin](https://pt.wikipedia.org/wiki/Max_Martin) que é provavelmente o músico de maior sucesso das últimas décadas, mas praticamente desconhecido do grande público:
+[https://www.youtube.com/watch?v=WoiI3jGMC9k](https://www.youtube.com/watch?v=WoiI3jGMC9k)
+E o mesmo ocorre noutros áreas.
+Que gigantes desconhecidos conheces?</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -7559,7 +9216,9 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocompaisinfarmedmandaretirardomercadoumlotedomedicamentolorazepamhttpswwwnoticiasaominutocompaisinfarmedmandaretirardomercadoumlotedomedicamentolorazepam autoridade nacional medicamento infarmed ordenou suspensão imediata lote medicamento lorazepam indicado tratamento ansiedade devido deteção resultado irregular estudo estabilidadea autoridade nacional medicamento</t>
+          <t>[https://www.noticiasaominuto.com/pais/2631352/infarmed-manda-retirar-do-mercado-um-lote-do-medicamento-lorazepam](https://www.noticiasaominuto.com/pais/2631352/infarmed-manda-retirar-do-mercado-um-lote-do-medicamento-lorazepam)
+&gt;A autoridade nacional do medicamento (Infarmed) ordenou a suspensão imediata de um lote do medicamento Lorazepam, indicado no tratamento da ansiedade, devido à deteção de um resultado irregular num estudo de estabilidade.A autoridade nacional do medicamento 
+&gt;...</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -7579,7 +9238,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>httpswwwjornaldenegociospteconomiaeducacaodetalhesismodemagnitudederichterabalaopaiacutesacthttpswwwjornaldenegociospteconomiaeducacaodetalhesismodemagnitudederichterabalaopaiacutesact fica aqui parem espalhar desinformação drama pânico idiotas httpswwwnoticiasaominutocompaisportugalacordouatremerestefoiosismomaisfortedosultimosanos idiotas httpswwwrtpptnoticiaspaissismodestamadrugadafoiodemaiormagnitudedosultimosanosv etc</t>
+          <t>[https://www.jornaldenegocios.pt/economia/educacao/detalhe/sismo\_de\_magnitude\_6\_de\_richter\_abala\_o\_paiacutes\_act](https://www.jornaldenegocios.pt/economia/educacao/detalhe/sismo_de_magnitude_6_de_richter_abala_o_paiacutes_act)
+Fica aqui o de 6.0/6.3 que tivemos em 2009.
+Parem de espalhar desinformação, drama e pânico.
+[Idiotas 1](https://www.noticiasaominuto.com/pais/2621134/portugal-acordou-a-tremer-este-foi-o-sismo-mais-forte-dos-ultimos-anos)
+[Idiotas 2](https://www.rtp.pt/noticias/pais/sismo-desta-madrugada-foi-o-de-maior-magnitude-dos-ultimos-50-anos_v1595390)
+Etc.</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -7599,7 +9263,8 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>hoje ler un comentários post percebi precisava fazer nestas férias dar livro spicy arrojado sexualmente mulher estimular bocado coisas acham têm sugestões un ano dei livros sombras correu bem edit erro ortográfico</t>
+          <t xml:space="preserve">Hoje estava a ler uns comentários de um post e percebi o que precisava de fazer nestas férias. Dar um livro mais "spicy" (arrojado sexualmente) à minha mulher para estimular um bocado as coisas. Que acham? Têm sugestões? À uns anos dei os livros das 50 sombras e correu bem. 😁
+Edit por erro ortográfico </t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -7619,7 +9284,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>grande abraço</t>
+          <t>um grande abraço ...</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -7639,7 +9304,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>questiono irá necessidade luta direta situação escale todos países nato pequenos chamados soldados lutar ucrânia enquanto bombas enviadas alemanha frança rússia chateada armas ucrânia faria rússia pequenos países nato falo países bálticos putin quer preocupação porque oiço constantes ameaças medium</t>
+          <t>Questiono se irá haver necessidade de haver luta direta. Ou seja, uma situação que escale para todos os países da NATO. E dos mais pequenos, são chamados soldados para lutar na Ucrânia. Enquanto que bombas seriam enviadas para a Alemanha ou França. (Depois da Rússia estar chateada com as armas para a Ucrânia, mas não só.  O que faria a Rússia aos pequenos países da NATO? Já não falo dos países bálticos que Putin quer. Tenho preocupação porque oiço constantes ameaças nos media.)</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -7659,7 +9324,10 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>ano passado nunca fez tanta falta scolari agora acho scolari conseguio patriota governantes precisamos tanto unir prol gloriosa nação euro selecção portuguesa rumo finalhttpswwwyoutubecomwatchvdyzkufm</t>
+          <t>20 anos passados e nunca fez tanta falta um Scolari como agora.
+Acho que o Scolari conseguio ser mais patriota que os nossos governantes...
+Precisamos tanto de nos unir em prol da nossa gloriosa nação...
+[Euro 2004 - Selecção Portuguesa rumo à Final.](https://www.youtube.com/watch?v=D5YzKu5fm40)</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -7679,7 +9347,20 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>httpswwwnitptfitsaudeeoficialreinounidoproibevendadetabacoquemnasceudepoisdehttpswwwnitptfitsaudeeoficialreinounidoproibevendadetabacoquemnasceudepoisde lei entra vigor abril próximo ano objetivo criar primeira geração livre fumo partir abril venda tabaco vaporizadores nasceu janeiro pessoas têm hoje ano passa crime reino unido decisão aprovada parlamento terçafeira abril pretende criar primeira geração livre fumo anunciou victoria atkin secretária estado saúde assistência social medida visa demonizar pessoas fumam impedilas comprar tabaco afetará forma alguma direitos prerrogativas fumadores atuais afirmou significa apenas dá próxima geração liberdade viver vidas longas saudáveis produtivas acrescentou ainda implementação lei economia vai tornarse produtiva ajudar construir sn proporciona cuidados rápidos simple justos vamos quase duplicar financiamento serviços locais cessação tabagismo acrescentou podemos substituir geração viciada nicotina outra viciada vaporizadores podem danificar pulmões jovens enquanto ainda desenvolvimento intensificar pressão longo prazo sobre serviço nacional saúde prejudicar concentração escola legislação dará poderes tomar medidas contra sabores embalagens próximas miúdos mudar forma máquinas exibidas lojas concluiu governante responsáveis regras comerciais vão ficar encarregues garantir cumprimento nova legislação poderem aplicar multas retalhistas façam venda forma ilegal montante angariado coimas utilizado financiar nova medidas aplicação lei xb view pollhttpswwwredditcompollcyycl</t>
+          <t>[https://www.nit.pt/fit/saude/e-oficial-reino-unido-proibe-venda-de-tabaco-quem-nasceu-depois-de-2009](https://www.nit.pt/fit/saude/e-oficial-reino-unido-proibe-venda-de-tabaco-quem-nasceu-depois-de-2009)
+&gt; A lei entra em vigor em abril do próximo ano e tem como objetivo criar a primeira geração livre de fumo.   
+&gt;  
+&gt;A  partir de abril de 2025, a venda de tabaco e vaporizadores a quem  nasceu depois de 1 de janeiro de 2009 (isto é, pessoas que têm hoje 15  anos), passa a ser crime no Reino Unido. A decisão foi aprovada pelo  parlamento esta terça-feira, 16 de abril, e pretende criar a primeira  geração livre de fumo, anunciou Victoria Atkin, secretária de Estado da  Saúde e Assistência Social.  
+&gt;  
+&gt;A medida “não visa demonizar as pessoas que fumam ou impedi-las de  comprar tabaco, nem afetará, de forma alguma os direitos ou  prerrogativas dos fumadores atuais”, afirmou. Significa apenas que dá “à  próxima geração a liberdade de viver vidas mais longas, mais saudáveis e  mais produtivas”.  
+&gt;  
+&gt;Acrescentou ainda que com a implementação da lei a economia vai  tornar-se “mais produtiva e ajudar a construir um SNS que proporciona  cuidados mais rápidos, mais simples e mais justos”. “Vamos também quase  duplicar o financiamento dos serviços locais de cessação do tabagismo”,  acrescentou.  
+&gt;  
+&gt;“Não podemos substituir uma geração viciada em nicotina por outra  viciada em vaporizadores, que também podem danificar os pulmões dos  jovens enquanto ainda estão em desenvolvimento, intensificar a pressão a  longo prazo sobre o serviço nacional de saúde e prejudicar a sua  concentração na escola. (…) A legislação dará poderes para tomar medidas  contra os sabores e embalagens próximas dos miúdos e para mudar a forma  como estas máquinas são exibidas nas lojas”, concluiu a governante.  
+&gt;  
+&gt;Os responsáveis pelas regras comerciais vão ficar encarregues de  garantir o cumprimento da nova legislação, ao poderem aplicar multas aos  retalhistas que façam a venda de forma ilegal. O montante angariado com  as coimas será utilizado para financiar novas medidas de aplicação da  lei.
+&amp;#x200B;
+[View Poll](https://www.reddit.com/poll/1c6yycl)</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -7699,7 +9380,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>httpswwwinstagramcomreelciyqmtoxsigshmxjocxbzgzazgzzg</t>
+          <t>https://www.instagram.com/reel/C4i0yQMtoXS/?igsh=MXJocXB4ZG9zazgzZg==</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -7719,7 +9400,14 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>httpsnewincoimbranitptculturamillivrosdabibliotecajoaninavaoserdigitalizadosesteanohttpsnewincoimbranitptculturamillivrosdabibliotecajoaninavaoserdigitalizadosesteano projeto desenvolvido universidade coimbra autoridade literária sharjah processo arranca março partir março começa novo projeto digitalização livros presentes biblioteca joanina universidade coimbra irá construir biblioteca joanina digital deverá ter disponíveis cerca mil exemplares incluindo obras centenárias guardadas piso nobre biblioteca tudo forma gratuita longo seis ano objetivo avançar progressivamente digitalização mil livros fazem parte catálogo doi milhões obras fasepiloto arranca março primeira coleção digitalizada publicações sobre médio oriente conhecida biblioteca sultan bin muhammad alqasimi todos livros presentes têm valor incalculável incluem imensas obras renome além primeira vez muitas irão presentes ambiente digital tal primeira tradução portuguesa teoria marés isaac newton apesar estarem toda disponíveis nesta plataforma pode encontrar portal património digital europeana projeto desenvolvido parceria autoridade literária sharjah sba contribui financiamento cerca oito milhões euro protocolo assinado passada quartafeira dia fevereiro reitor universidade coimbra amílcar falcão presidente sba ahmed bin rakkad al ameri conhece biblioteca joanina espaços fazem parte enorme história coimbra bibliotecas ricas antigas europa construída memória rei d joão v fã locais mágicos carregue galeria conhecer tesouros quase escondidos coimbra</t>
+          <t>[https://newincoimbra.nit.pt/cultura/30-mil-livros-da-biblioteca-joanina-vao-ser-digitalizados-este-ano/](https://newincoimbra.nit.pt/cultura/30-mil-livros-da-biblioteca-joanina-vao-ser-digitalizados-este-ano/)
+&gt;Este é um projeto desenvolvido pela Universidade de Coimbra e a Autoridade Literária de Sharjah. O processo arranca já em março.
+&gt;A partir de março, começa o novo projeto de digitalização dos livros presentes na Biblioteca Joanina. A Universidade de Coimbra irá construir a Biblioteca Joanina Digital que, até 2030, deverá ter disponíveis os cerca de 30 mil exemplares — incluindo as obras centenárias que estão guardadas no piso nobre da biblioteca. Tudo isto de forma gratuita.
+&gt;Ao longo de seis anos, o objetivo é avançar progressivamente com a digitalização de 30 mil livros, que fazem parte do catálogo de dois milhões de obras. A fase-piloto arranca já em março. A primeira coleção a ser digitalizada serão as publicações sobre o Médio Oriente. Também conhecida como a Biblioteca Sultan bin Muhammad Al-Qasimi.
+&gt;Todos os livros presentes têm um valor incalculável e incluem imensas obras de renome. Além de que será a primeira vez que muitas delas irão estar presentes em ambiente digital, tal como a primeira tradução portuguesa da “Teoria das Marés”, de Isaac Newton. Apesar de estarem todas disponíveis nesta plataforma, também as pode encontrar no portal do património digital Europeana.
+&gt;Este é um projeto que está a ser desenvolvido em parceria com Autoridade Literária de Sharjah (SBA), que contribui com o financiamento de cerca de oito milhões de euros. O protocolo foi assinado na passada quarta-feira, dia 21 de fevereiro, entre o reitor da Universidade de Coimbra, Amílcar Falcão, e o presidente da SBA, Ahmed Bin Rakkad Al Ameri.
+&gt;Para quem não conhece, a Biblioteca Joanina é um dos espaços que fazem parte enorme história de Coimbra. É uma das bibliotecas mais ricas e antigas da Europa, construída em 1728, em memória ao rei D. João V.
+&gt;Se é fã de locais “mágicos”, carregue na galeria para conhecer os tesouros quase “escondidos” de Coimbra.</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -7739,7 +9427,8 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>neto sapateiro hoje político façam questões irei tentar responder todos cordialmente</t>
+          <t>Sou neto de sapateiro e hoje sou político.
+Façam questões e irei tentar responder a todos cordialmente</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -7759,7 +9448,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>engraçado preciso criar subreddit secundário todos querem espalhar msg ódio desinformação vistos subreddit censura apela censura certos grupos pessoas ideais acham nome cativante assim pessoas iriam saber tavam entrar</t>
+          <t>Engraçado como é preciso criar um subreddit secundário para todos aqueles que querem espalhar msgs de ódio e de desinformação. Pelos vistos o subreddit sem "censura" é o que mais apela à censura de certos grupos de pessoas e de ideais. Acham que o nome seria mais cativante? Assim as pessoas já iriam saber no que tavam a entrar.</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -7779,7 +9468,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>httpswwwpublicoptmundonoticiajusticafrancesamantemcondenacaoantigopresidentenicolassarkozycorrupcao</t>
+          <t>https://www.publico.pt/2024/12/18/mundo/noticia/justica-francesa-mantem-condenacao-antigo-presidente-nicolas-sarkozy-corrupcao-2116154</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -7799,7 +9488,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>causa desta pergunta bloqueado casualpt coragem faça pergunta lá</t>
+          <t>Por causa desta pergunta fui bloqueado no casual.pt quem tiver coragem faça essa pergunta lá.</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -7819,7 +9508,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptportugaldetalhemaisdedenunciasdeassedionomeioartisticohttpswwwcmjornalptportugaldetalhemaisdedenunciasdeassedionomeioartistico</t>
+          <t>[https://www.cmjornal.pt/portugal/detalhe/mais-de-150-denuncias-de-assedio-no-meio-artistico](https://www.cmjornal.pt/portugal/detalhe/mais-de-150-denuncias-de-assedio-no-meio-artistico)</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -7839,7 +9528,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>vários sócrates política vale avezedo sucesso relativo preso joe berardo luis filipe vieira ricardo salgado outros banqueiros acabaram descobertos atualmente desprezados quase toda gente alguns continuem ter sucesso medicina considero manuel pinto coelho prática médica mínimo questionável lembro nenhum brasil conheço vários fazem sucesso muitos ano lair ribeiro medicina edir macedo fundador iurd rodrigo silva apresenta arqueólogo diz muitas tolices etc portugal devem continuar existir ídolos pés barro agora pareceme difícil saber</t>
+          <t>Tivemos vários, Sócrates na política, Vale e Avezedo (sucesso relativo, esteve preso), Joe Berardo, luis filipe vieira, Ricardo Salgado e outros banqueiros.
+Mas estes acabaram por ser descobertos e atualmente são desprezados por quase toda a gente.
+Mas há alguns que continuem a ter sucesso?
+Na medicina considero que o Manuel Pinto Coelho tem uma prática médica no mínimo muito questionável, mas não me lembro de mais nenhum. 
+No Brasil conheço vários que fazem sucesso há muitos anos, Lair Ribeiro na medicina, Edir Macedo (fundador da IURD), Rodrigo Silva que se apresenta como arqueólogo e diz muitas tolices, etc. 
+Em Portugal devem continuar a existir estes ídolos com pés de barro, mas agora parece-me mais difícil saber quem são.</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -7859,7 +9553,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptpoliticadetalheportugalvaicontribuircommildolaresanuaiscontraafomehttpswwwcmjornalptpoliticadetalheportugalvaicontribuircommildolaresanuaiscontraafome</t>
+          <t>[https://www.cmjornal.pt/politica/detalhe/portugal-vai-contribuir-com-300-mil-dolares-anuais-contra-a-fome](https://www.cmjornal.pt/politica/detalhe/portugal-vai-contribuir-com-300-mil-dolares-anuais-contra-a-fome)</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -7879,7 +9573,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>httpsexecutivedigestsapoptnoticiastribunalcondenaarguidoviolentoecadastradoafrequentaraulasdeiogaeinscreversenumclubedeatletismooriginserpauto</t>
+          <t>https://executivedigest.sapo.pt/noticias/tribunal-condena-arguido-violento-e-cadastrado-a-frequentar-aulas-de-ioga-e-inscrever-se-num-clube-de-atletismo/?origin=serp_auto</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -7899,7 +9593,10 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>chamam sempre doutor apercebi fiz acabo esquecer sempre fiz caiu bem parece ficaram ainda chateados sei porquê chamar doutor talvez cai pior porque adolescente abaixo idade mínima ótimo ouvir vossas opiniões dou bênçãos qualquer doutor aqui</t>
+          <t xml:space="preserve">Chamam sempre de Doutor?
+Apercebi me que não fiz isso, acabo por me esquecer. E sempre que fiz não caiu bem. Parece que ficaram ainda mais chateados. Não sei porquê…
+Mas não chamar de Doutor talvez cai pior? Até porque já não sou um adolescente abaixo da idade mínima. 
+Era ótimo ouvir as vossas opiniões, e dou bênçãos a qualquer “Doutor” que por aqui esteja </t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -7919,7 +9616,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>left alone</t>
+          <t>Left Alone</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -7939,7 +9636,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocomlifestylepenseduasvezesantesdevoltaraacenderincenso</t>
+          <t>https://www.noticiasaominuto.com/lifestyle/2668034/pense-duas-vezes-antes-de-voltar-a-acender-incenso</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -7959,7 +9656,9 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>olá todos recentemente dediqueime restauração móveis queria partilhar aprender outras pessoas sobre assunto aqui reddit havia nenhum grupo partilhas criei grupo apareçam lá rrestauromoveispthttpswwwredditcomrrestauromoveispt</t>
+          <t>Olá a todos,
+Recentemente dediquei-me à restauração de móveis, e queria partilhar e aprender com outras pessoas sobre este assunto. Aqui no reddit não havia nenhum grupo para haver estas partilhas, por isso criei um grupo.
+Apareçam lá :) [r/RestauroMoveisPT](https://www.reddit.com/r/RestauroMoveisPT/)</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -7979,7 +9678,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>httpssicptprogramascasafelizvideosvideojovemquematouopaiafacadaeconsideradoinimputavelaqualquermomentopodesairdf</t>
+          <t>https://sic.pt/programas/casa-feliz/videos/2024-10-30-video-jovem-que-matou-o-pai-a-facada-e-considerado-inimputavel-a-qualquer-momento-pode-sair-97d6406f</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -7999,7 +9698,10 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>andava pesquisar sobre lisboa encontrei estahttpsarquivosrtpptprogramasbairrospopularesdelisboa série programas sobre cada bairros históricos lisboa realizados bairros populares alfama mouraria etc degradados ainda havia bairros barracas pleno centro curraleira casal ventoso etc menos cidade essencialmente lisboeta portuguesa dessem escolher acho dúvidas lisboa preferia viver</t>
+          <t>Andava a pesquisar sobre Lisboa e encontrei [esta](https://arquivos.rtp.pt/programas/bairros-populares-de-lisboa/) série de programas sobre cada um dos bairros históricos de Lisboa, realizados entre 1989 e 1990.
+Os bairros populares (Alfama, Mouraria, etc.) estavam degradados e ainda havia bairros de barracas em pleno centro (Curraleira, Casal Ventoso, etc.), mas ao menos a cidade era essencialmente lisboeta e portuguesa.
+Se me dessem a escolher, acho que não teria dúvidas em que Lisboa preferia viver, se a de 1990 ou a de 2024.
+E vocês?</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -8019,7 +9721,39 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>olá todos necessitamos ajuda grupo alunos universidade aveiro realizar prova conceito sobre profissão nadadorsalvador projecto final licenciatura gostaríamos ouvir diretamente todos nadadoressalvadores aqui presentes entender melhor trabalho desafios diários nadadorsalvador poderia partilhar experiências respondendo seguintes perguntas caso existam perguntas queira responder pode simplesmente fazer skip perguntas servirão analisar vossa situação geral problemas possam ter prova conceito pode ajudar resolução mesmos forma melhorar segurança praia portuguesas pode ainda ajudarnos partilhando post caso perfira pode preencher google form ingles mesmas perguntas httpsformsgletpyeetsiwxcfu desde agradecemos participação todo input importante rotina atividades dia dia típico nadadorsalvador quais principais responsabilidades tarefas recursos equipamentos tipos equipamentos recursos disposição realizar trabalho sente falta gostaria ter algum tipo equipamento tecnologia melhorar atividade desafios frustrações quais maiores desafios enfrenta profissão existe alguma frustração recorrente trabalho lida comunicação trabalho equipa funciona comunicação membros equipa nadadoressalvadores utilizam algum sistema tecnologia específica manterem conectados organização gestão estruturada organização nadadoressalvadores ex área vigiar turnos etc gerida estrutura emergências procedimentos quais casos comuns requerem atenção quais casos emergência enfrentou pode descrever procedimento padrão comum caso afogamento préafogamento lida stress situações emergências</t>
+          <t>Olá a todos! Necessitamos da ajuda.
+Somos um grupo de 6 alunos da **Universidade de Aveiro** e estamos a realizar uma prova de conceito sobre a profissão de **nadador-salvador** para o nosso **Projecto Final de Licenciatura.** Gostaríamos de ouvir diretamente todos os **nadadores-salvadores** aqui presentes, para entender melhor o seu trabalho e desafios diários.
+**Se é ou já foi nadador-salvador**, poderia partilhar as suas experiências respondendo às seguintes perguntas? Caso existam perguntas que não queira responder, pode simplesmente não o fazer (skip).
+Estas perguntas servirão para analisar a vossa situação geral, problemas que possam ter e como a prova de conceito pode ajudar na resolução dos mesmos, por forma a melhorar a segurança nas praias Portuguesas.
+Pode ainda ajudar-nos partilhando este post!
+Caso perfira, pode preencher este google form (em ingles) com as mesmas perguntas (https://forms.gle/tPYee9TS6iwxCFU66)
+Desde já agradecemos sua a participação. Todo o input é importante para nós 😀
+\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
+**1.) Rotina e Atividades:**
+* Como é o seu dia a dia típico como nadador-salvador?
+* Quais são suas principais responsabilidades e tarefas?
+\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
+**2.) Recursos e Equipamentos:**
+* Que tipos de equipamentos e recursos tem à sua disposição para realizar o seu trabalho?
+* Sente falta de (ou gostaria de ter) algum tipo de equipamento (ou tecnologia) para melhorar sua atividade?
+\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
+**3.) Desafios e Frustrações:**
+* Quais são os maiores desafios que enfrenta na sua profissão?
+* Existe alguma frustração recorrente no seu trabalho? Como lida com ela?
+\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
+**4.) Comunicação e Trabalho em Equipa:**
+* Como funciona a comunicação entre os membros da equipa de nadadores-salvadores?
+* Vocês utilizam algum sistema ou tecnologia específica para se manterem conectados?
+\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
+**5.) Organização e Gestão:**
+* Como é estruturada a organização dos nadadores-salvadores (por ex.: área a vigiar, turnos etc…)?
+* Como é gerida essa estrutura?
+\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
+**6.) Emergências e Procedimentos:**
+* Quais são os casos mais comuns que requerem a sua atenção?
+* Quais são os casos de emergência que já enfrentou?
+* Pode descrever o procedimento padrão (comum) em caso de afogamento ou pré-afogamento?
+* Como lida com o stress em situações de emergências?</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -8039,7 +9773,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>httpswwwcmtvptatualidadedetalhehomemapanhadoaestrangularamulheremquartodehotelnanazare autoridades receberam pedido socorro via comunicado psp explica recebeu pedido auxílio via relativa situação violência doméstica casal imediato ativada equipa serviço chegada local funcionário espaço informou tudo ouvido interior quarto polícias depararamse suspeito cima vítima apertarlhe pescoço taparlhe boca homem imediato manietado algemado</t>
+          <t>https://www.cm-tv.pt/atualidade/detalhe/homem-apanhado-a-estrangular-a-mulher-em-quarto-de-hotel-na-nazare
+Autoridades receberam um pedido de socorro via 112.
+...
+Em  comunicado, a PSP explica que recebeu um pedido de auxílio, via 112, relativa a uma situação de violência doméstica entre casal. De imediato, foi ativada uma equipa de serviço e à chegada ao local um funcionário do espaço informou tudo aquilo que tinha ouvido. 
+No interior do quarto, os polícias depararam-se com o suspeito em cima da vítima, a apertar-lhe o pescoço e a tapar-lhe a boca. O homem foi de imediato manietado e algemado.
+...</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -8059,7 +9798,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>httpsmaisfuteboliolptbenficaluisfilipevieiraministeriopublicoquersuspenderbenficadascompeticoesdesportivashttpsmaisfuteboliolptbenficaluisfilipevieiraministeriopublicoquersuspenderbenficadascompeticoesdesportivas</t>
+          <t>[https://maisfutebol.iol.pt/benfica/luis-filipe-vieira/ministerio-publico-quer-suspender-benfica-das-competicoes-desportivas](https://maisfutebol.iol.pt/benfica/luis-filipe-vieira/ministerio-publico-quer-suspender-benfica-das-competicoes-desportivas)</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -8079,7 +9818,8 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>curiosidade julgamentos associados geração vinte vinte cinco quantos nunca sequer chegaram instalar dating app nunca chegaram ver feed daquilo nenhum objectivo específico pergunta tentar perceber dating digital tornou prisão obrigação ainda muita vida lá redes</t>
+          <t>Curiosidade (sem julgamentos associados). Da geração dos vinte aos vinte e cinco, quantos de nós nunca sequer chegaram a instalar uma *dating app* e nunca chegaram a ver como é que o *feed* daquilo?
+Não tenho nenhum objectivo específico com a pergunta. Só tentar perceber se o *dating* digital se tornou numa prisão e obrigação, ou se ainda há muita vida para lá das redes.</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -8099,7 +9839,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>httpswwwvoltaaomundoptlisboaeomelhordestinoculinariodaeuropadestinoshttpswwwvoltaaomundoptlisboaeomelhordestinoculinariodaeuropadestinos</t>
+          <t>[https://www.voltaaomundo.pt/2024/10/03/lisboa-e-o-melhor-destino-culinario-da-europa/destinos/881983/](https://www.voltaaomundo.pt/2024/10/03/lisboa-e-o-melhor-destino-culinario-da-europa/destinos/881983/)</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -8119,7 +9859,20 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>portuguese ainda melhor conheço alguns apesar serem pequenos acho interessantes provavelmente apenas interessantes muitas poucas pessoas sãono mim alguns exemplos httpswwwredditcomrhappinesshttpswwwredditcomrhappiness sobre felicidade faz felizes principalmente post estudos científicos sobre tema httpswwwredditcomrdonkeysaremetalhttpswwwredditcomrdonkeysaremetal alguns poucos vídeos alguns engraçados httpswwwredditcomraskapriesthttpswwwredditcomraskapriest nome explica algumas perguntas interessantes httpswwwredditcomrmirandeshttpswwwredditcomrmirandes sub mirândes httpswwwredditcomrsustentabilidadepthttpswwwredditcomrsustentabilidadept httpswwwredditcomrcollapsesciencehttpswwwredditcomrcollapsescience</t>
+          <t xml:space="preserve">Se forem portugueses ainda melhor.
+Eu conheço alguns que apesar de serem pequenos acho interessantes, provavelmente apenas são interessantes para muitas poucas pessoas, mas são-no para mim.
+Alguns exemplos:
+[https://www.reddit.com/r/happiness/](https://www.reddit.com/r/happiness/)
+sobre a felicidade, o que nos faz felizes, tem principalmente posts com estudos científicos sobre este tema
+[https://www.reddit.com/r/DonkeysAreMetal/](https://www.reddit.com/r/DonkeysAreMetal/)
+alguns, poucos, vídeos, mas alguns são engraçados
+[https://www.reddit.com/r/AskAPriest/](https://www.reddit.com/r/AskAPriest/)
+o nome já explica o que é, algumas perguntas interessantes
+[https://www.reddit.com/r/mirandes/](https://www.reddit.com/r/mirandes/)
+um sub em mirândes
+[https://www.reddit.com/r/SustentabilidadePT/](https://www.reddit.com/r/SustentabilidadePT/)
+[https://www.reddit.com/r/CollapseScience/](https://www.reddit.com/r/CollapseScience/)
+</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -8139,7 +9892,9 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>origem desta detenção falta moderação telegram utilização desta plataforma permite comunicações secretas fin criminosos precisamente porque comunicação utilizadores pode feita forma secreta concordam eventual condenação donos telegram causa deste usado muitas outras comunicações fin criminosos view pollhttpswwwredditcompollfvwv</t>
+          <t>Na origem desta detenção está a falta de moderação do telegram e na utilização desta plataforma que permite comunicações secretas para fins criminosos (precisamente porque a comunicação entre os utilizadores pode ser feita de forma secreta).
+Concordam com uma eventual condenação dos donos do telegram por causa deste estar a ser usado, entre muitas outras comunicações, para fins criminosos?
+[View Poll](https://www.reddit.com/poll/1f3vw5v)</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -8159,7 +9914,8 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>httpswwwredditcomrportugalcommentsetifpseeutiverumpodredeumpolíticoqualéautmsourceshareutmmediumwebxutmnamewebxcssutmtermutmcontentsharebuttonhttpswwwredditcomrportugalcommentsetifpseeutiverumpodredeumpolíticoqualéautmsourceshareutmmediumwebxutmnamewebxcssutmtermutmcontentsharebutton post apagado sub original</t>
+          <t>[https://www.reddit.com/r/portugal/comments/1et6ifp/se\_eu\_tiver\_um\_podre\_de\_um\_político\_qual\_é\_a/?utm\_source=share&amp;utm\_medium=web3x&amp;utm\_name=web3xcss&amp;utm\_term=1&amp;utm\_content=share\_button](https://www.reddit.com/r/portugal/comments/1et6ifp/se_eu_tiver_um_podre_de_um_político_qual_é_a/?utm_source=share&amp;utm_medium=web3x&amp;utm_name=web3xcss&amp;utm_term=1&amp;utm_content=share_button)
+post apagado no sub original</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -8179,7 +9935,8 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>olá todos setembro vou começar segundo ano mestrado obriga fazer dissertação estágio deste modo posso trabalhar menos horários regulares presencialmente vivo família objetivo apenas começar ganhar alguma independência financeira algum tempo descobri site freelancercom tido sorte novata pensei talvez pudesse fazer transcrições documentos traduções inglês português viceversa gostava alguém experiente nesta área pudesse dar dicas conseguir pequenos trabalhos deste tipo onde devo procurar existem outros site direcionados fin</t>
+          <t xml:space="preserve">
+Olá a todos!! Em setembro vou começar o segundo ano de mestrado que me obriga a fazer uma dissertação e um estágio. Deste modo, não posso trabalhar, pelo menos em horários regulares ou "presencialmente". Vivo com a minha família por isso o meu objetivo é apenas começar a ganhar alguma independência financeira. Há algum tempo descobri sites como o freelancer.com mas não tenho tido sorte por ser novata. Pensei que talvez pudesse fazer transcrições de documentos e traduções de inglês para português e vice-versa. Gostava que alguém mais experiente nesta área me pudesse dar dicas de como conseguir pequenos trabalhos deste tipo. Onde devo procurar? Existem outros sites direcionados para estes fins??</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -8199,7 +9956,10 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>httpswwwjnptmayrasantosfazhistoriaaonadarentreamadeiraeasdesertas nadadora águas livres mayra santos terçafeira primeira fazer percurso madeira ilha deserta grande trajeto ida volta interrupções cerca horas atleta lusobrasileira partiu cais santa cruz ilha madeira horas hoje rumo deserta grande percurso ida volta ronda quilómetros tendo terminado distância poucos minutos ante horas</t>
+          <t>https://www.jn.pt/4716934464/mayra-santos-faz-historia-ao-nadar-entre-a-madeira-e-as-desertas/
+A nadadora de águas livres Mayra Santos foi, esta terça-feira, a primeira a fazer o percurso entre a Madeira e a ilha da Deserta Grande, num trajeto de ida de volta, sem interrupções, em cerca de 20 horas.
+A atleta luso-brasileira partiu do Cais de Santa Cruz, na ilha da Madeira, às 0 horas de hoje, rumo à Deserta Grande, num percurso de ida e volta, que ronda os 60 quilómetros, tendo terminado a distância poucos minutos antes das 21 horas.
+...</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -8219,7 +9979,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>assinaram petição pessoas httpspeticaopublicacommobilepviewaspxpipthttpspeticaopublicacommobilepviewaspxpipt devidamente estudado comprovado dano utilização contenções físicas provoca idosos falamos questões aparecimento úlceras pressão atrofia muscular lesões articulares questões emocionais comportamentais cognitivas facto utilização contenções físicas idosos atenta contra direitos liberdade integridade física dignidade necessário urgente aproximar utilização zero portugal recorrente encontrarmos idosos imobilizados instituições saúde estruturas residenciais pessoa idosa facto forma violência banalizouse tal forma sociedade infelizmente muitos assumiram aplicação necessária deixaram questionarse relativamente alternativas disponíveis muitos países europa exemplo reino unido suécia prática conter fisicamente idosos sujeita regulamentação apertada utilização caiu valores perto zero consequência existisse aumento número quedas acidentes relacionados retirada dispositivos médicos espanha fazemos fronteira preparase tornar ano</t>
+          <t>Assinaram a petição 11 802 pessoas
+[https://peticaopublica.com/mobile/pview.aspx?pi=PT121271](https://peticaopublica.com/mobile/pview.aspx?pi=PT121271)
+&gt;Está devidamente estudado e comprovado o dano que a utilização de contenções físicas provoca nos idosos. Falamos de questões como o aparecimento de úlceras por pressão, atrofia muscular ou lesões articulares, mas também de questões emocionais, comportamentais e cognitivas. De facto, a utilização de contenções físicas nos idosos atenta contra os seus direitos de liberdade, integridade física e dignidade, pelo que é necessário e urgente aproximar a sua utilização de zero.
+&gt;Em Portugal, é recorrente encontrarmos idosos imobilizados em instituições de saúde e em Estruturas Residenciais para a Pessoa Idosa. De facto, esta forma de violência banalizou-se de tal forma na nossa sociedade que, infelizmente, muitos assumiram a sua aplicação como necessária e deixaram de questionar-se relativamente às alternativas disponíveis.
+&gt;Em muitos países da Europa, como são exemplo o Reino Unido e a Suécia, a prática de conter fisicamente idosos foi sujeita a uma regulamentação apertada e, com isso, a sua utilização caiu para valores perto de zero sem que, como consequência, existisse um aumento do número de quedas ou de acidentes relacionados com a retirada de dispositivos médicos. Espanha, com quem fazemos fronteira, prepara-se para tornar o ano 2025
+&gt;...</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -8239,7 +10004,13 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>lido aqui eutanásiahttpswwwredditcomrportugalcommentsbuqujqeutancasia post reconhecido autor themitfords httpswwwredditcomuserthemitfords tendo sido gerado ia apenas fazer dinheiro passa filtros reddit moderação sub caso provável comentários serem apagados vou copiálos aqui httpspreviewreddityrekfwmpscpngwidthformatpngautowebpsefedbdbfbfbebbd troll avençados partidários bot fácil ter conversa pés cabeça</t>
+          <t xml:space="preserve">Lido aqui:
+[Eutanásia](https://www.reddit.com/r/portugal/comments/1buqujq/eutan%C3%A1sia/)
+num post reconhecido pelo autor, [themitfords1     ](https://www.reddit.com/user/themitfords1/)   como tendo sido gerado por IA , apenas para fazer dinheiro
+Mas passa nos filtros do reddit e da moderação do sub. 
+Para o caso, provável, dos comentários serem apagados vou copiá-los para aqui:
+https://preview.redd.it/7yrekfwmp9sc1.png?width=808&amp;format=png&amp;auto=webp&amp;s=77e8f2edb6285d3b435f286b504f3b5e9b9b0d56
+Entre trolls, avençados partidários e bots não é fácil ter uma conversa com pés e cabeça   </t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -8259,7 +10030,9 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>httpswwwyoutubecomwatchvxzupbfixdetshttpswwwyoutubecomwatchvxzupbfixdets acreditam importância novembro fica aqui testemunho exdirigente partido comunista português zita seabra novembro tentativa golpe falhou felizmente falhanço deve lembrado celebrado</t>
+          <t>[https://www.youtube.com/watch?v=xZuPBFixD\_E&amp;t=2s](https://www.youtube.com/watch?v=xZuPBFixD_E&amp;t=2s)
+Para aqueles que não acreditam na importância do 25 de Novembro fica aqui o testemunho de uma ex-dirigente do Partido Comunista Português, Zita Seabra.
+O 25 de Novembro foi uma tentativa de golpe. Falhou, felizmente. Esse falhanço deve ser lembrado e celebrado.</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -8279,7 +10052,8 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewreddituqhlhsircjpgwidthformatpjpgautowebpsdcbccaf</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 28 de março de 2024](https://preview.redd.it/5uqhlhs4i3rc1.jpg?width=356&amp;format=pjpg&amp;auto=webp&amp;s=08d1236849c079b13c2c81a5f652565986940064)</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -8299,7 +10073,8 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>posso colocar opções limitome partidos votados últimas eleições legislativas view pollhttpswwwredditcompollaycwyp</t>
+          <t>Só posso colocar 6 opções, por isso limito-me aos partidos mais votados nas últimas eleições legislativas.
+[View Poll](https://www.reddit.com/poll/1aycwyp)</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -8319,7 +10094,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>httpslisboaparapessoasptfertagusconcessaoprolongamentohttpslisboaparapessoasptfertagusconcessaoprolongamento</t>
+          <t>[https://lisboaparapessoas.pt/2024/02/14/fertagus-concessao-prolongamento/](https://lisboaparapessoas.pt/2024/02/14/fertagus-concessao-prolongamento/)</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -8339,7 +10114,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>passo recibo verde irei começar gostava ter noção seguinte todos arranjaram contabilista cada altura ano necessária tal difícil fazer sozinhos mim neste momento demasiado caro ronda sei emitir recibos abril descrever toda quantias tai sentiram muita dificuldade fazer tudo sozinhos tempo aprender ante</t>
+          <t xml:space="preserve">Passo recibo verde. Irei começar, mas gostava de ter noção do seguinte… Se todos vocês arranjaram contabilista? A cada altura do ano necessária para tal? 
+Ou é difícil fazer sozinhos? 
+Para mim neste momento é demasiado caro; ronda os 75€-170€. Só sei que terei de emitir recibos; e em Abril descrever todas as quantias dos tais. Mas sentiram muita dificuldade em fazer tudo sozinhos ?
+Se não, tiveram muito tempo a aprender antes?
+</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -8359,7 +10138,10 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>boa caros aconteceu estarem hora h mastro ter dificuldade ficar pé ficar pé inicio acabar murchar resolveram ano aparentemente saudável deixarme bocado preocupado moça começar estranhar várias tentativas falhadas ansiedade nervosismo sozinho normalmente problemas agradeço qualquer ajuda obrigado</t>
+          <t>Boas meus caros, já vos aconteceu estarem na hora H e o mastro ter dificuldade em ficar em pé?
+Ou ficar em pé no inicio mas depois acabar por murchar.
+Como é que resolveram? Tenho 30 anos, e sou aparentemente saudável. Isto está a deixar-me um bocado preocupado e a moça está a começar a estranhar. Já foram várias tentativas falhadas. Será ansiedade, nervosismo? Quando estou sozinho normalmente não tenho problemas.
+Agradeço qualquer ajuda! Obrigado!</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -8379,7 +10161,8 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>olá pessoas dilema recebi carta aviso recepção endereçada mim vivo rés chão ordem penhora valor bem avultado campo executado nome senhorio vive lógico falamos logo senhorio disse caso faturas passadas nome á ano absolvido pedir entrar portal finanças ir determinada página confirmar inclino colocar valor pago renda entender verdadeiro objetivo esposa medo passar dívida assim alguém sabe alguma informação possa útil obrigado</t>
+          <t>Olá pessoas, estou com um dilema.
+Recebi uma carta com aviso de recepção endereçada a mim (vivo no rés do chão) com uma ordem de penhora de um valor bem avultado mas que no campo do  "executado" está o nome do meu senhorio (vive no 1°). Lógico que falamos logo com o senhorio e ele disse que era um caso de "faturas que foram passadas em nome dele á 13 anos e que foi absolvido" e está a pedir para eu entrar no meu portal das finanças e ir a determinada página e confirmar que sou inclino deles e colocar o valor que pago de renda. Não estou a entender o verdadeiro objetivo e a minha esposa está com medo que seja para passar a dívida para nós ou assim. Alguém sabe de alguma informação que me possa ser útil? Obrigado 🫂</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -8399,7 +10182,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>acidente trânsito auto aparece descrito bati viatura aconteceu contrário altura nervoso escrevi gnr ditou achei depoimento dúbio receio questionálo poi parecia chateado ter ligado gnr ter resolvido mim ano carta sabia deveria resolver outro senhor cidadão alemão carro rent car fez rotunda toda reparei nisso saí via esquerda ainda conseguiu bater indo via versões complementamse auto aparece viatura embateu outro altura achei apelar certa neutralidade hipóteses reclamar junto gnr seguradora diz pode fazer nada</t>
+          <t xml:space="preserve">Tive um acidente de trânsito e no auto aparece descrito que eu é que bati na viatura, quando aconteceu o contrário. Na altura estava muito nervoso e escrevi o que o GNR me ditou. Achei que o depoimento era dúbio, mas tive receio de questioná-lo, pois ele parecia chateado de eu ter ligado para a GNR e não ter resolvido aquilo por mim mesmo.
+Eu tenho um ano de carta e não sabia como deveria resolver. O outro senhor era um cidadão alemão e estava com um carro de uma rent a car.
+Ela fez a rotunda toda por fora, eu reparei nisso e saí pela via da esquerda. Ele ainda conseguiu bater, indo para a minha via.
+As nossas versões complementam-se, mas no auto aparece a minha viatura embateu na do outro. Na altura, achei que tivesse a apelar a uma certa neutralidade.
+Tenho hipóteses de reclamar junto da GNR. A seguradora diz que não pode fazer mais nada.
+</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -8419,7 +10207,8 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>joão villaret diz fernando pessoa menino mãe httpswwwyoutubecomwatchvgogtgfym</t>
+          <t xml:space="preserve">[João Villaret diz Fernando Pessoa - "o menino de sua mãe" (1951)](https://www.youtube.com/watch?v=G3Og7_tGfYM)
+</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -8439,7 +10228,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>httpsobservadorptinterativoojogodoorcamentosefosseprimeiroministrooquefariadediferentehttpsobservadorptinterativoojogodoorcamentosefosseprimeiroministrooquefariadediferente</t>
+          <t>[https://observador.pt/interativo/o-jogo-do-orcamento-2025-se-fosse-primeiro-ministro-o-que-faria-de-diferente/](https://observador.pt/interativo/o-jogo-do-orcamento-2025-se-fosse-primeiro-ministro-o-que-faria-de-diferente/)</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -8459,7 +10248,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>httpsvejaabrilcombrmundoputindizquebrasilchinaeindiapoderiammediarnegociacoesdepazhttpsvejaabrilcombrmundoputindizquebrasilchinaeindiapoderiammediarnegociacoesdepaz</t>
+          <t>[https://veja.abril.com.br/mundo/putin-diz-que-brasil-china-e-india-poderiam-mediar-negociacoes-de-paz/](https://veja.abril.com.br/mundo/putin-diz-que-brasil-china-e-india-poderiam-mediar-negociacoes-de-paz/)</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -8479,7 +10268,9 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>olá todos gostava perguntar sabem podemos ter ideia real sobre valor dinheiro altura ano conversores online quanto exemplo conto moeda atual contudo conto significava nessa altura corresponde valor euro significa hoje questão deriva conversa avó disse herança outro familiar nove conto permitiam comprar grande quinta considerado rico entanto conversões disponíveis consigo todo perceber quanto valor dia hoje obrigada todos lerem ajuda</t>
+          <t>Olá a todos! Gostava de vos perguntar se sabem como podemos ter uma ideia mais real sobre o valor do dinheiro, por altura dos anos 30. Isto é, há conversores on-line de quanto seria, por exemplo, um conto em moeda atual. Contudo, o que um conto significava nessa altura não corresponde ao que o valor em euros significa, hoje, para nós.
+Esta questão deriva de uma conversa com a minha avó, que me disse que a herança de um outro familiar eram nove contos e lhe permitiam comprar uma grande quinta, e ser considerado “muito rico”. No entanto, pelas conversões disponíveis não consigo, de todo, perceber quanto seria este valor, nos dias de hoje.
+Obrigada a todos por lerem e pela ajuda :)</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -8499,7 +10290,9 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>alguém sabe onde posso solicitar reembolso tap terem cancelado voo duas horas ante partida havia cartaz qr code casos porta balcão empresa aeroporto correria acabei olhar posso fazer processo sozinha necessário procurar advogado agência especializada obrigada</t>
+          <t>Alguém sabe por onde posso solicitar reembolso da Tap por terem cancelado meu voo duas horas antes da partida? Havia um cartaz com um QR code para estes casos à porta do balcão da empresa no aeroporto, mas na correria acabei por não olhar. 
+Posso fazer este processo sozinha ou é necessário procurar um advogado ou uma agência especializada?
+Obrigada!</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -8519,7 +10312,8 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>jornal notícias maio httpspreviewredditilhtizonddjpgwidthformatpjpgautowebpsfeddeabddbdfaedbcb contam portuguese dupla nacionalidade</t>
+          <t>[Jornal de Notícias 28 de maio de 2024](https://preview.redd.it/ilht5izond3d1.jpg?width=516&amp;format=pjpg&amp;auto=webp&amp;s=f31ed26d9916ea578bd717db7d8f71a5ed5bcb18)
+Será que contam com os portugueses com dupla nacionalidade?</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -8539,7 +10333,13 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>atualmente população menos ano esperava mudança maior população ano atualmente população ano atualmente fonte httpswwwpopulationpyramidnetportugal httpswwwpopulationpyramidnetportugal httpswwwpopulationpyramidnetportugal</t>
+          <t>Atualmente, 18% da nossa população tem menos de 20 anos, mas em 2060 será de 16% (esperava uma mudança maior) e em 2100 será de 16,2%
+A população entre os 20 e os 40 anos é atualmente de 22%, em 2060 será de 19,4% e em 2100 de 19,2%
+E a população com mais de 70 anos é atualmente de 17,4%, em 2060 será de 28,5% e em 2100 será de 30,2%
+Fonte:
+https://www.populationpyramid.net/portugal/2024/ 
+https://www.populationpyramid.net/portugal/2060/
+https://www.populationpyramid.net/portugal/2100/</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -8559,7 +10359,15 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>forma resumida queria ajudar esposa projeto loja online divulgando trabalho qualquer forma quero desrespeitar regras comunidade long story short imigrantes durante pandemia esposa desenvolveu gosto costura trabalhos manuais nisto ganhou gosto paixão criação acessórios crianças relacionado acessórios meninas laços bonés arcos cabelo aí vai acontece apesar dedicar alma paixão ainda conseguiu ter tal projeção esperada noto dia dia apesar desistir convicções ficando desanimada ter vendas esperava ter quero fiquem ideia errada pessoa tou aqui pedir comprem trabalhos apenas queria voltar vêla novamente feliz senão pedir gostaria página ainda desenvolvimento vissem trabalhos lá encontram redes sociais onde coloca todos modelos feito hoje facebook tiktok instagram comprando nada deixarem comentário like página acredito voltaria trazer sorriso volta link página magia artehttpsdfcmyshopifycom tiktokhttpswwwtiktokcomamagiadaarte obrigado eusébio</t>
+          <t>De uma forma muito resumida queria ajudar a minha esposa com o seu projeto de loja online, divulgando o seu trabalho.
+De qualquer forma não quero desrespeitar as regras da comunidade, mas long story short nós somos imigrantes e durante a pandemia a minha esposa desenvolveu o gosto pela costura e os trabalhos manuais, nisto ganhou gosto e paixão pela criação de acessórios para crianças, mais relacionado com acessórios para meninas (como laços, bonés, arcos para o cabelo...) e por aí vai.
+Acontece que apesar de ela se dedicar de alma e paixão ainda não conseguiu ter a tal projeção esperada, e noto que dia para dia (apesar de não desistir das suas convicções) está ficando desanimada por não ter as vendas que esperava ter.
+Não quero que fiquem com ideia errada da minha pessoa que tou aqui para pedir que comprem os seus trabalhos, apenas queria voltar a vê-la novamente feliz. E senão for pedir muito gostaria que fossem a sua página (ainda está em desenvolvimento) e vissem os seus trabalhos, lá encontram as suas redes sociais onde coloca todos os modelos que tem feito até hoje (facebook, tiktok, instagram).
+Mesmo não comprando nada, se deixarem um comentário ou um like na sua página acredito que lhe voltaria a trazer o seu sorriso de volta.
+Link da Página [A Magia da arte](https://d200f9-c6.myshopify.com/)
+[Tiktok](https://www.tiktok.com/@a.magia_da.arte)
+O meu muito Obrigado
+\_Eusébio</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -8579,7 +10387,17 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>httpshsacaduracabralblogspotcomfalharnaoeofimhtmlhttpshsacaduracabralblogspotcomfalharnaoeofimhtml tecido vida fios sucesso entrelaçamse muitas vezes falha verdade inegável cuidado habilidades acumulemos vezes falhamos entanto essencial reconhecer falhar fim caminho capítulo livro experiência sociedade muitas vezes estigmatiza fracasso pintandoo marca incompetência inadequação entanto através fracassos construímos resiliência capacidade adaptação sabedoria cada tropeço cada obstáculo superado ensinanos lições valiosas poderíamos aprender outra forma grandes empreendedores artistas cientistas líderes mundo alcançaram sucesso enfrentar falhas longo caminho diferencia pessoas ausência falhas sim capacidade aprender crescer enquanto alguns deixam abater adversidade outros abraçamna oportunidade reinventar refinar estratégias continuar avançando direção objetivos falhar fim sim parte inevitável essencial caminho sucesso oportunidade reavaliar aprender fortalecer seguir frente ainda determinação então ventos vida soprarem contra ondas adversidade ameaçarem afundar barco lembremonos cada falha apenas página virada próximo capítulo pode começo grande vitória publicada helena sacadura cabral httpswwwbloggercomprofile xb</t>
+          <t xml:space="preserve"> [https://hsacaduracabral.blogspot.com/2024/04/falhar-nao-e-o-fim.html](https://hsacaduracabral.blogspot.com/2024/04/falhar-nao-e-o-fim.html)
+&gt;No tecido da vida, os fios do sucesso entrelaçam-se, muitas vezes, com os da falha. É uma verdade inegável que, por mais cuidado que tenhamos, por mais habilidades que acumulemos, às vezes falhamos. No entanto, é essencial reconhecer que falhar não é o fim do caminho, mas um capítulo no livro da experiência.  
+&gt;  
+&gt;A sociedade, muitas vezes, estigmatiza o fracasso, pintando-o como uma marca de incompetência ou inadequação. No entanto, é através dos fracassos que construímos a nossa resiliência, a nossa capacidade de adaptação e a nossa sabedoria. Cada tropeço, cada obstáculo superado, ensina-nos lições valiosas que não poderíamos aprender de outra forma.  
+&gt;  
+&gt;Os grandes empreendedores, artistas, cientistas e líderes do mundo não alcançaram o sucesso sem enfrentar falhas ao longo do caminho. O que diferencia essas pessoas não é a ausência de falhas, mas sim, a sua capacidade de aprender e crescer com elas. Enquanto alguns se deixam abater pela adversidade, outros abraçam-na como uma oportunidade de se reinventar, de refinar suas estratégias e de continuar avançando em direção aos seus objetivos.  
+&gt;  
+&gt;Falhar não é o fim, mas sim uma parte inevitável e essencial do caminho para o sucesso. É uma oportunidade de reavaliar, de aprender, de se fortalecer e de seguir em frente com ainda mais determinação. Então, quando os ventos da vida soprarem contra nós e as ondas da adversidade ameaçarem afundar o barco, lembremo-nos que cada falha é apenas uma página virada, e o próximo capítulo pode ser o começo de uma grande vitória.  
+&gt;  
+&gt;  Publicada por  [ Helena Sacadura Cabral ](https://www.blogger.com/profile/11916182095425230786)
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -8599,7 +10417,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>procurando clínica reabilitação internar pai sido dependente álcool muitos ano devido álcool perdeu emprego afetou família gostaria ajudálo alguém conhece clínica internamento portugal lisboa preferência poderia informar sobre preço tratamento</t>
+          <t>Estou procurando uma clínica de reabilitação para internar meu pai, que tem sido dependente de álcool por muitos anos. Devido ao álcool, ele perdeu o emprego e afetou a família. Gostaria muito de ajudá-lo. Alguém conhece uma clínica para internamento em Portugal (Lisboa de preferência) e poderia me informar sobre o preço do tratamento?</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -8619,7 +10437,21 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>httpsecosapoptmedinafinanciouquedadadividapublicacomdinheirodaspensoesfuturashttpsecosapoptmedinafinanciouquedadadividapublicacomdinheirodaspensoesfuturas forte investimento obrigações tesouro cga fefss baixou dívida pública elevou rating portugal suscita dúvidas sobre impacto futuro pensionistas ás trunfo fernando medina baixar rácio dívida pública nível histórico pib dinheiro pensões futuras portuguese através fundo estabilização financeira segurança social fefss caixa geral aposentações cga investidos mil milhões euro aquisição títulos dívida república nomeadamente obrigações tesouro recordese segundo últimos dado banco portugal stock dívida pública registou quedahttpsbpstatbportugalptdadosseriesmodegraphicsvidseries mil milhões face valores atirandohttpsbpstatbportugalptdadosseriesmodegraphicsvidseries dívida cerca mil milhões euro dezembro ano passado valor baixo desde junho segundo contashttpsecosapoptespeciaisfundodasegurancasocialvalorizaemebateconcorrencia eco fefss fundo criado salvaguardar cumprimento responsabilidades sistema previdencial entrar modo deficitário detinha final ano passado mil milhões euro investidos obrigações tesouro face conta aquisição mil milhões euro obrigações tesouro correspondeu montante subscrições líquidas diferença compras somatório vendas amortizações mil milhões euro acordo informação tutela xb</t>
+          <t>[https://eco.sapo.pt/2024/04/17/medina-financiou-queda-da-divida-publica-com-dinheiro-das-pensoes-futuras/](https://eco.sapo.pt/2024/04/17/medina-financiou-queda-da-divida-publica-com-dinheiro-das-pensoes-futuras/)
+&gt; O forte investimento em obrigações do Tesouro  pela CGA e pelo FEFSS em 2023 baixou a dívida pública e elevou o rating  de Portugal, mas suscita dúvidas sobre o impacto no futuro dos  pensionistas.   
+&gt;  
+&gt; O ás de trunfo de Fernando Medina para baixar o rácio da dívida pública  em 2023 para um nível histórico de 99,1% do PIB foi o dinheiro das  pensões futuras dos portugueses. **Através do Fundo de  Estabilização Financeira da Segurança Social (FEFSS) e da Caixa Geral de  Aposentações (CGA), foram investidos mais de 7,7 mil milhões de euros  na aquisição de títulos de dívida da República,** nomeadamente de obrigações do Tesouro.   
+&gt;  
+&gt; Recorde-se que, segundo os últimos dados do Banco de Portugal, o *stock* da dívida pública registou uma [queda](https://bpstat.bportugal.pt/dados/series?mode=graphic&amp;svid=4409&amp;series=12561516,12561501,12561497) de 9,3 mil milhões em 2023 face aos valores de 2022, [atirando](https://bpstat.bportugal.pt/dados/series?mode=graphic&amp;svid=2678&amp;series=12561508,12561489) a dívida para cerca de 263 mil milhões de euros em dezembro do ano passado, o valor mais baixo desde junho de 2020.  
+&gt;  
+&gt;  
+&gt;  
+&gt;Segundo [contas](https://eco.sapo.pt/especiais/fundo-da-seguranca-social-valoriza-91-em-2023-e-bate-concorrencia/)  do ECO, o FEFSS (fundo criado em 1989 para salvaguardar o cumprimento  das responsabilidades do Sistema Previdencial quando este entrar em modo  deficitário) detinha no final do ano passado 12,6 mil milhões de euros  investidos em obrigações do Tesouro, mais 43% face a 2022, por conta da  aquisição de 4,8 mil milhões de euros de obrigações do Tesouro em 2023, a  que correspondeu um montante de subscrições líquidas (diferença entre  compras e o somatório de vendas e amortizações) de 3,8 mil milhões de  euros, de acordo com informação da tutela.  
+&gt;  
+&gt;...  
+&gt;  
+&gt;...
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -8639,7 +10471,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>hoje continente am lisboa depareime casal muçulmano mulher completamente tapada cima baixo viam olhos mal homem típica barba islâmica comprida invés escura hábito maioria muçulmanos castanho claro tender ruivo lev crer poderão muçulmanos região cáucaso começo ficar pouco preocupado crescimento exponencial população muçulmana portugal aqui comunidade adaptada cultura portuguesa sobretudo descendente indianos muçulmanos estabelecido moçambique durante período colonial português agora próprio imã maior mesquita lisboa disse chegaram relatos radicalização temo passar portugal aconteceu espanha frança bélgica reino unido resultados trágicos conhecemos novo governo deixar cativo esquerdas unidas tão feministas certas situações silenciosas sobre tratamento mulheres islão contudo penso governo liderado maçon convicto amigo grupo bilderberg nada fará agravará situação vamos ver esperar pior aconteça</t>
+          <t>Hoje fui a um Continente na AM de Lisboa e deparei-me com um casal muçulmano em que a mulher estava completamente tapada de cima a baixo e só se viam os olhos (e mal). 
+O homem tinha a típica barba islâmica, comprida, mas ao invés de ser escura, como é hábito entre a maioria dos muçulmanos, era de um castanho claro a tender para o ruivo, o que me leva a crer que poderão ser muçulmanos da região do Cáucaso. 
+Começo a ficar um pouco preocupado com este crescimento exponencial da população muçulmana em Portugal. Até aqui essa comunidade estava adaptada à cultura portuguesa e era, sobretudo, descendente de indianos muçulmanos que se tinham estabelecido em Moçambique durante o período colonial português, agora já não.
+O próprio imã da maior mesquita de Lisboa já disse que lhe chegaram relatos de radicalização, pelo que temo que se esteja a passar em Portugal o que já aconteceu em Espanha, França, Bélgica e Reino Unido, com os resultados trágicos que conhecemos.
+O novo governo tem de deixar de estar cativo das esquerdas unidas, tão feministas em certas situações, mas silenciosas sobre o tratamento das mulheres no islão. Contudo, penso que um governo liderado por um maçon convicto e amigo do grupo Bilderberg nada fará e só agravará a situação.  
+Vamos ver e esperar que o pior não aconteça.</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -8659,7 +10496,9 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewreddittpymuffrcjpgwidthformatpjpgautowebpsabbbbbafbbcbfeacfd view pollhttpswwwredditcompollbpydjp</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 28 de março de 2024](https://preview.redd.it/tp2y5muff3rc1.jpg?width=1027&amp;format=pjpg&amp;auto=webp&amp;s=abb66369bb9ba56316f377b411bcbfea4642c4fd)
+[View Poll](https://www.reddit.com/poll/1bpydjp)</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -8679,7 +10518,8 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewredditqgfwexhvpcjpgwidthformatpjpgautowebpsadccbffcfdcff</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 20 de março de 2024](https://preview.redd.it/q9gfwe3xhvpc1.jpg?width=2057&amp;format=pjpg&amp;auto=webp&amp;s=0a112d81c08484c04b30ff21cfd9118970c9f4f6)</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -8699,7 +10539,8 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewredditbprondfqqmcjpgwidthformatpjpgautowebpsaeacbcbbbccabece</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 6 de março de 2024](https://preview.redd.it/bpron3dfqqmc1.jpg?width=1388&amp;format=pjpg&amp;auto=webp&amp;s=a8899e92a676c08136bc3bb917b0cc20abe30ce0)</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -8719,7 +10560,27 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>httpsexecutivedigestsapoptnoticiastindereoutrasaplicacoesdeencontrosacusadasdepromoverusocompulsivohttpsexecutivedigestsapoptnoticiastindereoutrasaplicacoesdeencontrosacusadasdepromoverusocompulsivo match group proprietária tinder hinge outras aplicações encontros alvo processo judicial acusa empresa incentivar uso compulsivo destas plataformas gerar lucros tinder hinge outras aplicações encontros repletos recursos viciantes incentivam uso compulsivo pode lerse ação judicial divulgada quartafeira associated press ap ação apresentada tribunal federal distrito norte califórnia dia namorados refere match apresenta intencionalmente plataformas namoro recursos semelhantes jogos prendem utilizadores ciclo perpétuo pagar jogar priorizando lucro vez promessas ajuda utilizadores encontrarem relacionamentos política acordo processo transforma utilizadores viciados compram assinaturas cada vez caras aceder recursos especiais prometem romance encontros modelo negócios match depende geração retornos meio monopolização atenção utilizadores match garantiu sucesso mercado fomentar vício aplicações encontros gera assinaturas caras uso perpétuo pode lerse processo ação movida seis utilizadores aplicações encontros procura estatuto ação coletiva representantes match sede dallas texas responderam imediatamente pedido comentário ap embora concentre adultos processo surge momento empresas tecnologia enfrentam escrutínio cada vez maior sobre características viciantes prejudicam saúde mental jovens meta empresamãe facebook instagram exemplo enfrenta ação judicial movida dezenas estados norteamericanos acusam contribuir crise saúde mental jovens desenvolver funcionalidades instagram facebook viciam crianças plataformas aplicações match acordo processo contra empresa aplicam recursos reconhecidos manipulação dopamina transformar utilizadores jogadores presos busca recompensas psicológicas match torna ilusória propósito xb</t>
+          <t>[https://executivedigest.sapo.pt/noticias/tinder-e-outras-aplicacoes-de-encontros-acusadas-de-promover-uso-compulsivo/](https://executivedigest.sapo.pt/noticias/tinder-e-outras-aplicacoes-de-encontros-acusadas-de-promover-uso-compulsivo/)
+&gt; A Match Group, proprietária do Tinder, Hinge e outras aplicações de  encontros, foi alvo de um processo judicial que acusa a empresa de  incentivar o uso compulsivo destas plataformas, para gerar lucros.  
+&gt;  
+&gt;Tinder, Hinge e outras aplicações de encontros  estão repletos de recursos viciantes que incentivam o uso compulsivo,  pode ler-se na ação judicial divulgada esta quarta-feira pela Associated  Press (AP).  
+&gt;  
+&gt;A ação, apresentada no tribunal federal do  distrito norte da Califórnia no Dia dos Namorados, refere que a Match  apresenta intencionalmente as suas plataformas de namoro com recursos  semelhantes aos de jogos que “prendem os utilizadores a um ciclo  perpétuo de pagar para jogar”, priorizando o lucro em vez das promessas  de ajuda para os utilizadores encontrarem relacionamentos.  
+&gt;  
+&gt;Esta política, de acordo com o processo,  transforma os utilizadores em viciados, que compram assinaturas cada vez  mais caras para aceder a recursos especiais que prometem romance e  encontros.  
+&gt;  
+&gt;“O modelo de negócios da Match depende da  geração de retornos por meio da monopolização da atenção dos  utilizadores, e a Match garantiu o seu sucesso no mercado ao fomentar o  vício em aplicações de encontros que gera assinaturas caras e uso  perpétuo”, pode ler-se no processo.  
+&gt;  
+&gt;A ação foi movida por seis utilizadores de aplicações de encontros e procura o estatuto de ação coletiva.  
+&gt;  
+&gt;Representantes da Match, com sede em Dallas (Texas), não responderam imediatamente a um pedido de comentário da AP.  
+&gt;  
+&gt;Embora se concentre em adultos, o processo  surge num momento em que as empresas de tecnologia enfrentam um  escrutínio cada vez maior sobre características viciantes que prejudicam  a saúde mental dos jovens.  
+&gt;  
+&gt;A Meta, empresa-mãe do Facebook e do  Instagram, por exemplo, enfrenta uma ação judicial movida por dezenas de  estados norte-americanos que a acusam de contribuir para a crise de  saúde mental dos jovens, ao desenvolver funcionalidades no Instagram e  no Facebook que viciam as crianças nas suas plataformas.  
+&gt;  
+&gt;As aplicações da Match, de acordo com o  processo contra a empresa, “aplicam recursos reconhecidos de manipulação  de dopamina” para transformar os utilizadores em “jogadores presos numa  busca por recompensas psicológicas, que a Match torna ilusória de  propósito”.
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -8739,7 +10600,10 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>coisas liberdade opinião neste sub liberdade opinião educação respeito mútuo podem ter opiniões negativas sobre podem insultar usar termos pejorativos sobre partido fazer spam abordando repetidamente coisas verdade tema abordado recentemente sub estarmos internet lei deixa existir podem fazer incentivos violência prática outras ilegalidades sub aberto debate variados assuntos aceitando diferentes opiniões debate saudável educado</t>
+          <t>Coisas que a liberdade de opinião não é. Neste sub temos liberdade de opinião, mas com **educação e respeito mútuo**.
+Podem ter opiniões negativas sobre seja o que for, mas não podem insultar, usar termos pejorativos seja sobre que partido for, nem fazer spam abordando repetidamente coisas que na verdade são o mesmo tema que foi abordado recentemente no sub.
+Também não é por estarmos na internet que a lei deixa de existir e se podem fazer incentivos à violência e à prática de outras ilegalidades.
+Este sub é aberto ao debate dos mais variados assuntos, aceitando as diferentes opiniões, mas num **debate saudável e educado**.</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -8759,7 +10623,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>fazer estudo demora cerca minutos respondido sobre benefícios psicossociais pais filhos praticarem desporto faltame respostas poder acabar tese ten filho pratica desporto favor responde link questionário httpsformsglecvhweugqjumztxihhttpsformsglecvhweugqjumztxihfbclidiwzxhbgnhzwcmtaaarhmnomogoviqmagwopxnbsmvoshrqfomyauujeutrqkhnfiaemnoyjurnytgvtkig puderes partilhar grupos pais tenhas ficava agradecida</t>
+          <t>Estou a fazer um estudo, que demora cerca de 10 minutos a ser respondido, sobre os benefícios psicossociais que os pais tem pelos seus filhos praticarem desporto.
+Falta-me 30 respostas para poder acabar a minha tese.
+Se tens um filho que pratica desporto, por favor responde.
+Link para o questionário: [https://forms.gle/CVhWEUGqJuMztXih9](https://forms.gle/CVhWEUGqJuMztXih9?fbclid=IwZXh0bgNhZW0CMTAAAR1HmNo7MO0_Go8VI3qMaGWoPXnbSmVOSH7Rq8F9omyAu-UjEutrQKh0NFI_aem_n5oy4j0U_rNYT-gvTkI-3g)
+Se puderes partilhar em grupos de pais que tenhas, ficava muito agradecida.</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -8779,7 +10647,18 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>anda circular aqui ranking sabe países bonito mundo link httpswwwredditcomrnordicyoushpomgeprc portugal posição tão elevada surge indignação poi noção mundo passa cabeça pesquisem exemplo imagens cazaquistão paisagem escolham outro país aleatoriamente preferirem pesquisem youtube russia nature scenic ponto encontrarão paisagens tirar fôlego nunca sequer mencionadas lindas dimensões variadas dia dia nunca expostos diversidade topográfica surgem vários problemas primeiro facto portugal ter pouca variedade ache portugal maioria bonito concordo muita diversidade visto área país relativamente pequena base nisto estados unidos américa ganham tudo têm oferecer visualmente algumas paisagens repetitivas parecidas têm quantidade opinião melhor qualidade quiserem ver vídeo minutos sobre paisagens eua httpsyoutubexaxfsoikxisismigpxpgwupr segundo problema subjetividade critérios usados avaliar beleza país arquitetura paisagens naturais dimensão paisagem claro site mencionam uso inquéritos globais excelente então basicamente ranking feito base conhecimento pessoas pessoas conhecerem certos lugares bonito podem mencionar devia chamarse países bonito pessoas conhecem terceiro problema ranking elaborado tendo conta ranking melhores países melhores países aventuras sei rant totalmente insignificante mim países mereciam nesta lista</t>
+          <t>Anda a circular por aqui um ranking, para quem não sabe, dos "40 países mais bonitos do mundo".
+LINK: https://www.reddit.com/r/2nordic4you/s/HpomgeP4Rc
+Com Portugal numa posição tão elevada, surge a minha indignação, pois tenho noção de que há muito, mas mesmo muito no mundo, que nem vos passa pela cabeça. Pesquisem, por exemplo: "imagens Cazaquistão paisagem". (Escolham outro país aleatoriamente, se preferirem). Ou pesquisem no YouTube: "Russia nature scenic". O meu ponto é que encontrarão paisagens de tirar o fôlego, que nunca sequer são mencionadas, que são lindas e de dimensões muito variadas, mas que, no dia a dia, nunca somos expostos a essa diversidade topográfica.
+E com isto surgem vários problemas. O **primeiro** é o facto de Portugal ter pouca variedade. Há quem ache que Portugal é, na sua maioria, bonito, mas eu não concordo. Não temos muita diversidade, visto que a área do país é relativamente pequena. Só com base nisto, os Estados Unidos da América ganham, com tudo o que têm para oferecer visualmente, mesmo que algumas paisagens sejam repetitivas ou parecidas. Eles têm mais quantidade e, na minha opinião, de melhor qualidade. (Se quiserem ver um vídeo de 5 minutos sobre as paisagens dos EUA: https://youtu.be/xaXfsOiK6xI?si=SmI7GpxP9g-wuPr3)
+O **segundo** problema é a subjetividade. E que critérios são usados para avaliar a beleza de um país? Arquitetura? Paisagens naturais? A dimensão da paisagem? Claro que no site só mencionam o uso de inquéritos globais. Que excelente, então basicamente este ranking foi feito com base no conhecimento das pessoas. Se as pessoas não conhecerem certos lugares, mesmo que sejam mais bonitos, não os podem mencionar. Isto devia era chamar-se "países mais bonitos que as pessoas conhecem".
+O **terceiro** problema é que o ranking
+foi elaborado tendo em conta também
+os rankings de "melhores países" e
+"melhores países para aventuras".
+**Sei que este Rant é totalmente
+insignificante, é só que para mim, há
+países que mereciam MUITO mais estar nesta lista**</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -8799,7 +10678,8 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>curioso partidos políticos tomam posição relação passa faixa gaza relação eleições venezuela relação fraude eleições moçambique relação mortes provocadas repressão manifestações contra fraude vê quase nenhuma reação mediática partidária pode imagens morte jornalista moçambicano mano shottashttpsdelitodeopiniaoblogssapoptamortedojornalistamocambicanomano mudem apatia portuguese relação passa moçambique</t>
+          <t xml:space="preserve">Curioso como os partidos políticos tomam posição em relação ao que se passa na faixa de Gaza, em relação ao que às eleições na Venezuela, mas em relação à fraude nas eleições em Moçambique, em relação às mortes provocadas pela repressão das manifestações contra essa fraude não se vê quase nenhuma reação, seja ela mediática ou partidária. 
+Pode ser que as imagens da [morte do jornalista moçambicano Mano Shottas](https://delitodeopiniao.blogs.sapo.pt/a-morte-do-jornalista-mocambicano-mano-17646118) mudem esta apatia dos portugueses em relação ao que se passa em Moçambique. </t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -8819,7 +10699,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>coisas devem ficar acham</t>
+          <t>Ou há coisas que devem ficar só para nós? O que vocês acham?</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -8839,7 +10719,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>httpspeticaopublicacompviewaspxpipthttpspeticaopublicacompviewaspxpipt</t>
+          <t>[https://peticaopublica.com/pview.aspx?pi=PT123133](https://peticaopublica.com/pview.aspx?pi=PT123133)</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -8859,7 +10739,9 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>gosto ver gostaria visitar ano passado vigo recomendo vivamente</t>
+          <t xml:space="preserve">Gosto de ver e gostaria de visitar.
+O ano passado fui a Vigo e recomendo vivamente. 
+</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -8879,7 +10761,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>alguem lembra meninas</t>
+          <t xml:space="preserve">Alguem lembra esta meninas </t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -8899,7 +10781,10 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>olá malta lágrimas escrevo favor alguém recomendações veterinários oncologistas preferência especializados gatos favor ajudemme desde obrigada agradeço dêem respostas negativistas zona lisboa vou qualquer zona país</t>
+          <t>Olá, malta! É em lágrimas que escrevo, por favor, alguém tem recomendações de veterinários oncologistas, de preferência especializados em gatos?
+Por favor, ajudem-me. Desde já muito obrigada!
+Agradeço que não dêem respostas negativistas.
+Zona: Lisboa mas vou a qualquer zona do país</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -8919,7 +10804,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>internet tv</t>
+          <t>Na internet ou na tv</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -8939,7 +10824,8 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>correio manhã novembro httpspreviewredditldxjgvcwucydjpgwidthformatpjpgautowebpsbfafbbcfeeecabdcff edit data</t>
+          <t>[Correio da Manhã, 1 de novembro de 2024](https://preview.redd.it/ldxjgvcwucyd1.jpg?width=1158&amp;format=pjpg&amp;auto=webp&amp;s=bfa9f0b0bc0f077eee6925c0abd283537cf790f1)
+edit: data</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -8959,7 +10845,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ante perguntem sim gosto estudo penso capaz trabalhar arduamente acordo exigências universidade estudar difícil mim pequena hipótese ter tdah acho provável apenas preguiçoso qualquer modo devo fazer desistir universidade posso encontrar oportunidades formas melhorar vida ter diploma universitário obrigado</t>
+          <t xml:space="preserve">Antes que perguntem, sim, gosto do que estudo, mas penso que não sou capaz de trabalhar arduamente de acordo com as exigências da universidade.
+Estudar é difícil para mim (há uma pequena hipótese de eu ter TDAH, mas acho que o mais provável é que eu seja apenas preguiçoso).
+De qualquer modo, o que devo fazer se tiver de desistir da universidade? Como é que posso encontrar oportunidades e formas de melhorar a vida sem ter um diploma universitário?
+Obrigado.
+</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -8979,7 +10869,18 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>ontem engano pedi pessoas contassem histórias sucesso pessoas preguiçosas razão porque preguiçoso preguiçoso acredita pode mudar dificuldades ensino secundário estudar concentrado distracções impossível mim piores alunos turma agora entrei faculdade politécnico lisboa queria dizer faculdade demasiado arriscado curso agora médias baixas ter dificuldades imagina universidade topo preciso pensar estudar triplo costumávamos estudar escola algumas pessoas capazes fazer corretamente verdade pessoas chumbam primeiro ano fazemno novo chumbar aprendendo erros vejo fazer pior chumbar duas vezes máximo abandonar faculdade trabalhar pais avisaram dizendo acontecer duro passarás resto vida pensar fizeste quero miséria trabalhar emprego salário mínimo quero viver vida miserável maturidade disciplina mudar hábitos evitar mau final sei fazer gostava ter tido preparação fase vida</t>
+          <t xml:space="preserve">Ontem (se não me engano) pedi às pessoas que me contassem histórias de sucesso de pessoas que eram preguiçosas, e foi por uma razão.
+Porque eu sou preguiçoso, mas não um preguiçoso que acredita que pode mudar.
+Tive dificuldades no ensino secundário (estudar concentrado sem distracções é impossível para mim, fui um dos piores alunos da turma), mas agora entrei na faculdade e estou no politécnico de Lisboa (queria dizer qual a faculdade mas é demasiado arriscado).
+O curso em que estou agora é um dos que tem as médias mais baixas e estou a ter dificuldades (imagina se fosse uma universidade de topo).
+É preciso pensar e estudar o triplo do que costumávamos estudar na escola, e só algumas pessoas são capazes de o fazer corretamente.
+É verdade que as pessoas chumbam no primeiro ano e fazem-no de novo sem chumbar, aprendendo com os seus erros, mas não me vejo a fazer isso.
+O pior é que, se chumbar uma ou duas vezes no máximo, terei de abandonar a faculdade e trabalhar e os meus pais já me avisaram dizendo que “se isso acontecer, será muito duro e passarás o resto da vida a pensar no que fizeste”.
+E eu não quero estar na miséria a trabalhar num emprego de salário mínimo, não quero viver essa vida miserável.
+Mas também não tenho a maturidade e a disciplina para mudar de hábitos e evitar um mau final.
+Não sei o que fazer.
+Gostava de ter tido mais preparação para esta fase da vida.
+</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -8999,7 +10900,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>gostaria deixar aqui un link pessoas saberem sobre segurança alimentar assunto deveria levado forma ligeira poi surto pode causar mortes exemplo manter ph refrigeração adequados certos alimentos vegetais alho carnes peixes etc pode levar desenvolvimento vários microorganismos coli enterohemorrágica toxinas têm poder causar diarreia sanguinolenta botulismo consequências graf incluindo paralisia morte podem ler baixo httpswwwasaegovptsegurancaalimentarriscosbiologicosclostridiumbotuliniumaspxhttpswwwasaegovptsegurancaalimentarriscosbiologicosclostridiumbotuliniumaspx muitos surtos portugal ocorreram alimentos caseiros vendidos público chouriços mal preparados cuidado onde comem vossos alimentos pode ter acontecido nada vez nada feito prevenir contaminação pode acontecer cuidado casa cortam alho fazem azeites infusão alho azeite infusão pimenta phtemperatura adequado podem crescer microorganismos passar tempo ficarem número suficiente causar doença vem sequência discussões ontem várias pessoas diziam problema refrigerar manter certas condições alimentos preparados faz diferença sim r especialmente crianças idosos terem sistemas imunitários enfraquecidos podem desenvolver bactérias próprio intestino comer levar sintomas graf</t>
+          <t>Gostaria de deixar aqui uns links para pessoas saberem mais sobre segurança alimentar. Não é um assunto que deveria ser levado de forma ligeira pois um surto pode causar mortes.
+Por exemplo, não manter um pH e refrigeração adequados em certos alimentos (vegetais como o alho, carnes, peixes, etc) pode levar ao desenvolvimento de vários microorganismos como o E. coli enterohemorrágica ( as as toxinas têm o poder de causar diarreia sanguinolenta) ou Botulismo (que tem consequências graves incluindo paralisia e morte, podem ler em baixo).
+[https://www.asae.gov.pt/seguranca-alimentar/riscos-biologicos/clostridium-botulinium.aspx](https://www.asae.gov.pt/seguranca-alimentar/riscos-biologicos/clostridium-botulinium.aspx)
+Muitos surtos em Portugal ocorreram por alimentos "caseiros" vendidos ao público como chouriços mal preparados. Por isso tenham cuidado onde comem os vossos alimentos, pode não ter acontecido nada da 1a vez mas se nada está a ser feito para prevenir a contaminação pode acontecer.
+Tenham cuidado mesmo em casa, quando cortam alho e fazem "azeites com infusão de alho" ou "azeite com infusão de pimenta", se o pH/temperatura não for adequado podem crescer os microorganismos e com o passar do tempo ficarem em um número suficiente para causar doença!
+isto vem na sequência de umas discussões que tive ontem em que várias pessoas diziam não haver problema em não refrigerar ou manter em certas condições alimentos já preparados. Faz diferença sim! R especialmente para crianças e idosos que por terem sistemas imunitários mais enfraquecidos podem desenvolver as bactérias no seu próprio intestino depois de comer e levar a sintomas mais graves</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -9019,7 +10925,8 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>gostaria saber decide decide conteúdo vai ar degredo cada vez pior tv queria saber nome background dessas pessoas donde vem chegaram ocupar funções sincero imagino pessoas vivendo microcosmo hermético realidade</t>
+          <t xml:space="preserve">Gostaria de saber quem decide, ou como é que se decide, do conteúdo que vai para o ar. 
+O degredo é cada vez pior na TV, queria saber de nomes, o background dessas pessoas, donde é que vem, e como chegaram a ocupar essas funções. Para ser sincero imagino essas pessoas vivendo num microcosmo muito hermético a realidade. </t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -9039,7 +10946,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>peço desculpa médicos vezes sinto dificuldade comunicar médicos tirar dúvidas esclarecer coisas alguns pacientes sentem forma falar naturalmente atabalhoada ainda pior sinto alguns médicos gostam questionados mim então tornase difícil chegar relacionamento suficiente fácil razoável noto dificuldades público privado principalmente serviço privado saúde decidir maleita decidir especialidade escolher outras coisas semelhantes cargo etc privado coisas específicas público pode perder tempo pesquisar</t>
+          <t>Peço desculpa aos médicos mas às vezes sinto dificuldade em comunicar com os médicos para tirar dúvidas. E esclarecer coisas. 
+Mais alguns pacientes sentem o mesmo? 
+A minha forma de falar é naturalmente  atabalhoada e ainda pior quando sinto que alguns médicos não gostam de ser. questionados por mim 
+Então torna-se difícil de chegar a um relacionamento suficiente, fácil e razoável. 
+Noto dificuldades no público e privado. Mas principalmente no serviço privado de saúde, quando tenho de decidir que maleita é para decidir que especialidade escolher; e outras coisas semelhantes a meu cargo etc. (o privado é para coisas mais específicas que o público não pode perder tempo a pesquisar)</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -9059,7 +10970,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>existe economia paralela venda madeira ardida haverá realmente interesse incêndios tento procurar resposta nunca encontro algo concreto encontrei notícia chega quereres acabar venda madeira ardida</t>
+          <t>Existe uma economia paralela de venda de madeira ardida? Haverá realmente interesse que hajam incêndios? Tento procurar uma resposta mas nunca encontro algo em concreto. Só encontrei uma notícia do chega quereres acabar com a venda de madeira ardida.</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -9079,7 +10990,9 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>começado processo cinefilia cerca ano infelizmente nunca encontrei grupo relativo filmes online presencial gostava evoluir cinéfilo conhecer pessoas interessantes partilhem gostos comum sei alguém interessado pensei bem nisto olha alguem ai informações sobre grupos secretos agradeço</t>
+          <t xml:space="preserve">  Tenho começado o meu processo de cinefilia a cerca de 1 ano, infelizmente nunca encontrei um grupo relativo a filmes online ou presencial. 
+  E gostava até para evoluir mais como cinéfilo e conhecer pessoas interessantes que partilhem gostos em comum. 
+  Não sei se alguém esta interessado, não pensei muito bem nisto mas olha é o que é. Se alguem tiver ai informações sobre esses grupos secretos agradeço</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -9099,7 +11012,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>ver filme chamado harper paul newman lauren bacall reparei filme mulheres ano usavam sutiãs davam formato pontiagudo seios moda estranha</t>
+          <t>Estou a ver um filme chamado Harper, com Paul Newman e Lauren Bacall. Reparei no filme que as mulheres dos anos 60 usavam sutiãs que davam um formato pontiagudo aos seios. Era uma moda muito estranha.</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -9119,7 +11032,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>doença autoimune único seguro saúde conheço exclui doenças préexistentes mgen entanto aceitam famílias seguro barato aceitável ainda valor elevado mim vez vou ter pagar sozinho alguém conhece algum seguro exclua doenças portugal</t>
+          <t xml:space="preserve">Tenho uma doença autoimune e o único seguro de saúde que conheço que não exclui doenças pré-existentes é o da MGEN. No entanto, só aceitam famílias e o seguro mais barato aceitável ainda tem um valor muito elevado para mim, uma vez que o vou ter de pagar sozinho. Alguém conhece mais algum seguro que não exclua doenças em Portugal? </t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -9139,7 +11052,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>httpsexpressopteconomiaecomercadosjapaosofrepiordiadesdecriptomoedasperdemmilmilhoeseeuropanovermelhoasegundafeiranegradasbolsasmundiaisdaf</t>
+          <t>https://expresso.pt/economia/ecomercados/2024-08-05-japao-sofre-pior-dia-desde-1987-criptomoedas-perdem-250-mil-milhoes-e-europa-no-vermelho-a-segunda-feira-negra-das-bolsas-mundiais-d866a3f9</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -9159,7 +11072,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>acompanho ciclismo ténis menor grau fórmula</t>
+          <t xml:space="preserve">Eu acompanho o ciclismo, o ténis e em menor grau a fórmula 1. </t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -9179,7 +11092,9 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>revoltas rua provavelmente ajudarão fn conseguir maioria absoluta poi coisas lev franceses votar fn agitação reinante sociedade francesa implicações vitória fn europa incluindo portugal mundo trump poder usa fn frança consequências</t>
+          <t>Com revoltas na rua, que provavelmente ajudarão a FN a conseguir essa maioria absoluta, pois uma das coisas que leva os franceses a votar na FN é a agitação reinante na sociedade francesa.
+Que implicações terá uma vitória da FN na Europa, incluindo em Portugal, e no mundo?
+Trump no poder nos USA e a FN na França, que consequências teremos?</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -9199,7 +11114,13 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>então lembro música dom afonso henriques matou mulher cortou bocadinhos mexeu colher lá cima cheirava gás dona chica dançava chiktachiktass penso continuum recordo procurei net encontro nada pergunto vários amigo ninguém lembra música destas perguntei cantava porque contato música daquelas faziamos roda estavamos lá bater palmas un outros alguém lembra disto continuava música penso fim havia princesa desmaiava cantava aí escola primária</t>
+          <t>Então isto é o que me lembro da música:
+"Dom Afonso Henriques matou sua mulher cortou aos bocadinhos e mexeu com a colher, lá em cima cheirava a gás era dona chica que dançava chiktachiktass..."
+Penso que isto continua mas não me recordo de como, já procurei na net não encontro nada...
+Pergunto a vários amigos e ninguém se lembra de uma música destas (não perguntei com quem cantava isto porque já não tenho contato).
+Mas esta música era daquelas que faziamos uma roda e estavamos lá a bater palmas uns aos outros. 
+Alguém se lembra disto? Como continuava a música, penso que no fim havia uma princesa que desmaiava. 
+Eu cantava isto para aí em 99 na escola primária.</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -9219,7 +11140,14 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>ter feito umpost mostrava tabela alimentação anteontemhttpswwwredditcomrportugalcommentscofcaminhaalimentacacaoduranteodiadeontemkcale seguindo sugestão feita pondipathttpswwwredditcomuserpondipatsubmitted fiz nova tabela onde incluí macronutrientes revi todos dado inserido tabela anterior encontrei alguns pequenos erros corrigi httpspreviewredditdaaqtvcpngwidthformatpngautowebpsdabdedbbbfa usei site indicado fundo ver macronutrientes alimentos caso segundo calculadora proteínas httpsptcalcuworldcomnutricaoproteinashttpsptcalcuworldcomnutricaoproteinas devia consumir grama proteínas dia naquele dia consumi apenas ideal sendo destas proteínas origem animal segundo qumhttpswwwredditcomuserqum nutricionista amabilidade comentar post anterior devia ter pouco proteína origem animal menos entendi dieta muita gordura sei muita gordura originária azeite virgem extra frutos secos sardinha tudo gorduras saudáveis sintome bem homem estatura média vou ginásio vezes semana consumo calórico cada sessão ginásio média kcal considerei atividade física moderada calculadora proteínas</t>
+          <t xml:space="preserve">Depois de ter feito um[post em que mostrava uma tabela com a minha alimentação de anteontem](https://www.reddit.com/r/portugal2/comments/1c5o5fc/a_minha_alimenta%C3%A7%C3%A3o_durante_o_dia_de_ontem_kcal_e/) seguindo uma sugestão feita por [pondipat](https://www.reddit.com/user/pondipat/submitted/) fiz uma nova tabela onde incluí os macronutrientes. 
+Revi também todos os dados que tinha inserido na tabela anterior ( e encontrei alguns pequenos erros que corrigi) 
+https://preview.redd.it/d78a8aqt82vc1.png?width=716&amp;format=png&amp;auto=webp&amp;s=0d20ab87382de923dbb260234327744783bf9a08
+Usei o site indicado no fundo para ver os macronutrientes dos alimentos. 
+Para o meu caso, segundo esta calculadora de proteínas, [https://pt.calcuworld.com/nutricao/proteinas/](https://pt.calcuworld.com/nutricao/proteinas/) , eu devia consumir 122 gramas de proteínas por dia. 
+Naquele dia consumi apenas 94% do ideal, sendo 47% destas proteínas de origem animal. 
+Segundo [Qu1m229](https://www.reddit.com/user/Qu1m229/) , nutricionista que teve a amabilidade de comentar o meu post anterior, devia ter um pouco mais de proteína de origem animal (pelo menos foi o que eu entendi) e a dieta tem muita gordura. Eu sei que tem muita gordura, mas é originária de azeite virgem extra, frutos secos e sardinha e tudo isto são gorduras muito saudáveis, e sinto-me bem com elas. 
+Homem, estatura média, vou ao ginásio 5 vezes por semana, com um consumo calórico em cada sessão de ginásio em média de 600 kcal. Considerei atividade física moderada na calculadora de proteínas. </t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -9239,7 +11167,10 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>hoje dia onde voltamos juntar família pais avós preparam quase tudo primo vemos duas vezes ano namorado tia sofia ano novo projeto sobrinho vai dar nada irmã cala caça ovos recentes membros família belo chibo espero todos desfrutem boa páscoa junto família</t>
+          <t xml:space="preserve">
+Hoje é aquele dia onde voltamos a juntar a família.
+Os pais e avós que preparam quase tudo. Os primos que só vemos duas vezes por ano. Mais um namorado da tua tia Sofia que para o ano já não o é. O novo projeto do teu sobrinho que não vai dar em nada. A tua irmã que não se cala. A caça aos ovos dos mais recentes membros da família. O belo do chibo.
+Espero que todos desfrutem de uma boa páscoa junto da família!</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -9259,7 +11190,8 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>sei ler porque muita dificuldade ler textos difícil explicar sei ler porque percebo palavras quero saber existe algum livro pessoas semialfabetizadas gosto coisas interessantes preferência livros cujas histórias passem dia hoje</t>
+          <t>Não sei ler porque tenho muita dificuldade em ler textos, é difícil de explicar mas não sei ler porque não percebo as palavras.
+Só quero saber se existe algum livro para pessoas semi-alfabetizadas, gosto de coisas interessantes, de preferência livros cujas histórias se passem nos dias de hoje.</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -9279,7 +11211,9 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>cristãos toda pessoas boa vontade fé deve motivo união alegria felicidade ajudarmos un outros xb</t>
+          <t>Para os cristãos e para todas as pessoas de boa vontade. 
+A fé deve ser motivo de união, alegria, felicidade e para nos ajudarmos uns aos outros. 
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -9299,7 +11233,13 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>boa redditors política jogo sujo apreciem aqui declarações paula httpscnnportugaliolptvideospanadmiteacordoscomadepsmastemexigenciasfbecfeebdahttpscnnportugaliolptvideospanadmiteacordoscomadepsmastemexigenciasfbecfeebda ver minuto seguir httpswwwyoutubecomwatchvqmkexoowhttpswwwyoutubecomwatchvqmkexoow ver minuto fim xb poi vai polígrafo creio</t>
+          <t xml:space="preserve">Boas redditors.
+A política é mesmo um jogo sujo! Apreciem só aqui as declarações da Paula:
+[https://cnnportugal.iol.pt/videos/pan-admite-acordos-com-ad-e-ps-mas-tem-exigencias/65fb1e850cf2ee345672b4da](https://cnnportugal.iol.pt/videos/pan-admite-acordos-com-ad-e-ps-mas-tem-exigencias/65fb1e850cf2ee345672b4da) ( ver do minuto 8:10 ao 8:40 )
+e a seguir;
+[https://www.youtube.com/watch?v=q7Mk4e1XOOw](https://www.youtube.com/watch?v=q7Mk4e1XOOw) ( ver do minuto 8:40 até ao fim )
+&amp;#x200B;
+Pois é... será que isto também vai ao Polígrafo? Não creio... :/ </t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -9319,7 +11259,10 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>outros analisaram abstenção inflacionada porque muitos emigraram ainda inscritos lista recenseamento eleitoral imigrantes maioria inscritos votam pouco porque conhecem mal sistema eleitoral partidário português portuguese vivem portugal têm participação eleitoral maior parece números abstenção daqui vai votar vai abster view pollhttpswwwredditcompollbit</t>
+          <t>Como já outros analisaram a abstenção é inflacionada porque muitos emigraram e ainda estão inscritos nas lista de recenseamento eleitoral e os imigrantes, na sua maioria, estão inscritos mas  votam pouco porque conhecem mal o sistema eleitoral e partidário português. 
+Os portugueses que vivem em Portugal têm uma participação eleitoral muito maior do que aquela que parece pelos números da abstenção
+Quem daqui vai votar e quem se vai abster?
+[View Poll](https://www.reddit.com/poll/1b90it0)</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -9339,7 +11282,13 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>posto médicos sn conta risco esperem apoio direita centro esquerda reivindicações pressionem sindicatos muitas vezes mergulhados inúteis dissídios menos pensem toda classe rema sentido menos nunca entrou abandonou sn possivelmente toda razão digase faz apenas complemento afinado diapasão passará olimpicamente dessa dita luta un quantos desmoronamento sistema motivo regozijo claro estáse defender primeiro lugar licitamente direitos condições dignas trabalho profissão selectiva morosa altamente especializada maior missão responsabilidade social plenum sacrifícios constante actualização nesse aspecto dispendiosa desta forma permanecendo actividade pública melhorando desempenho diaadia pugnase sn sempre sistema socialmente justo entrar elitismos facto médicos classe qualquer poi medicina sempre primeira ciência enquanto vida primeiro ben pm pouco importa assim proxenetismo político passará comprar dignidade médica haverá venda barata fito ofuscar rotundo falhanço governação previsível privados conseguem agora resolver manter su abertos garantir médicos família todo português comum resto folclore alimentará próspero negócio saúde tal verdadeiro bluff ameaça peregrina importar médicos alguns quais língua falam entenda assim governo almejada paz social pode descomplicar restante legislatura doi calcanhares aquiles deve foco classe médica representantes sindicais questão su assenta fundamentalmente sobre horas extra médicos família aumento listas utentes pode cedências negociatas temas comuns toda classe solucionar podem procrastinadas questões específicas diversas carreiras medicina hospitalar mgf saúde pública tal acordo prévio nova grelha salarial sistema progressão pode qualquer outro tipo diálogo classe deve firme horas extraordinárias lista utentes toda formas legais luta devem ponderadas mantidas poi pm arrisca vitória cansaço reivindica tempo forma mendaciosa tentará intoxicar opinião pública derrotado desiste lutar deveria ponderarse ainda demissão solidária toda direcções equipas serviços departamentos escalada desta guerra agudizar pedido exoneração todos médicos sn bomba atómica afundaria vez gentuça termo porque dá respeito pode respeitado declaração final interesses fique claro seguramente muitos quase final ciclo poderíamos un meros outsider tudo realidade bastantes deram conta havia vida além medicina alguns ano fazíamos parte profissão respeitada carreira progredimos eventualmente muitos auferem hoje salário anterior tabela maioria actuais médicos manterse triste cenário nunca alcançarão sequer topo carreira movenos certo ver lenta agonia sistema trabalhámos dedicámos vida dignidade profissão posta causa facto próprios familiares podermos futuros utentes sn ruínas onde impere mediocridade escumalha incompetentes vendidos conseguiu transformar deixem embalar conto vigário mentiras ofendem inteligentes dão esperança ignorantes vimos pm diz escreve escreve pode ter finalidade papel áspero dixit</t>
+          <t xml:space="preserve">
+Posto isto, os médicos do SNS estão por sua conta e risco. Não esperem pelo apoio da direita, centro, nem da esquerda nas suas reivindicações, pressionem os sindicatos muitas vezes mergulhados em inúteis dissídios e muito menos não pensem que toda a classe rema no mesmo sentido. Pelo menos quem nunca entrou ou quem abandonou o SNS, possivelmente com toda a razão, diga-se, ou quem faz dele apenas um complemento, não está afinado pelo mesmo diapasão e passará olimpicamente dessa dita luta. Para uns quantos o desmoronamento do sistema será mesmo motivo de regozijo. 
+Sejamos claros, está-se a defender em primeiro lugar e licitamente direitos e condições dignas de trabalho numa profissão selectiva, morosa, altamente especializada, com a maior missão e responsabilidade social, plena de sacrifícios, em constante actualização e nesse aspecto dispendiosa. Desta forma, permanecendo na actividade pública e melhorando o desempenho no dia-a-dia, pugna-se também pelo SNS, que será sempre um sistema socialmente mais justo. 
+Sem entrar em elitismos, de facto os médicos não são uma classe qualquer, pois a medicina é e será sempre a primeira ciência enquanto a vida for o primeiro dos bens. 
+Ao PM pouco lhe importa. Assim, o seu proxenetismo político passará por comprar a dignidade médica (haverá quem a venda barata) com o fito de ofuscar o rotundo falhanço da sua governação, há muito previsível e que os privados não conseguem por agora resolver: manter os SU abertos e garantir médicos de família para todo português comum. O resto é folclore e alimentará o próspero negócio da saúde, tal como é um verdadeiro bluff a ameaça peregrina de importar médicos, alguns dos quais que nem a nossa língua falam e não há quem os entenda… Só assim o governo terá a almejada paz social que lhe pode descomplicar a restante legislatura. Estes são os seus dois calcanhares de Aquiles. Este deve ser o foco da classe médica e dos seus representantes sindicais: a questão do SU, que assenta fundamentalmente sobre horas extras, e a dos médicos de família, no aumento das listas de utentes. 
+Não pode haver cedências nem negociatas. Há temas comuns a toda a classe para solucionar que não podem ser procrastinadas e questões específicas nas diversas carreiras (medicina hospitalar, MGF e saúde pública). Como tal, sem acordo prévio de uma nova grelha salarial e um sistema de progressão não pode haver qualquer outro tipo de diálogo. A classe deve ser firme nas horas extraordinárias e na lista de utentes. Todas as formas legais de luta devem ser ponderadas e mantidas, pois o PM arrisca a sua vitória no cansaço de quem reivindica ao mesmo tempo que de forma mendaciosa tentará intoxicar a opinião pública. Só é derrotado quem desiste de lutar. Deveria ponderar-se ainda a demissão solidária de todas as direcções de equipas, serviços e departamentos e, se a escalada desta “guerra” se agudizar, o pedido de exoneração de todos os médicos do SNS, que seria a bomba atómica que afundaria de vez esta gentuça (o termo é mesmo este porque quem não se dá ao respeito não pode ser respeitado).
+Uma declaração final de interesses. Que fique claro que eu e seguramente muitos como eu, já quase em final de ciclo, poderíamos ser uns meros outsiders em tudo isto. Na realidade, bastantes de nós, que nem se deram conta que havia mais vida para além da medicina, até há alguns anos fazíamos parte de uma profissão respeitada, tínhamos uma carreira na qual progredimos e, eventualmente, também muitos auferem hoje um salário, pela anterior tabela, que a maioria dos actuais médicos, a manter-se este triste cenário, nunca alcançarão, nem sequer no topo da carreira. Move-nos, estou certo, ver a lenta agonia de um sistema para o qual trabalhámos e dedicámos uma vida, a dignidade da profissão posta em causa e o facto de nós próprios ou dos nossos familiares podermos ser futuros utentes de um SNS em ruínas onde impere a mediocridade, que uma escumalha de incompetentes e vendidos conseguiu transformar. E não se deixem embalar por contos de vigário. As mentiras ofendem os inteligentes mas dão esperança aos ignorantes e já vimos que o que este PM diz não se escreve e o que se escreve só pode ter uma finalidade se o papel não for muito áspero…. Dixit</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -9359,7 +11308,13 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>httpswwwjnptadeficiencianaoeumadoencaeumacondicaohttpswwwjnptadeficiencianaoeumadoencaeumacondicao instituição porto assinalar ano marcando percursos vida josé rui ana catarina desde tempo criança associação porto paralisia cerebral appc surgiu esforço preocupações grupo pais apoio alguns técnicos procuravam responder crescente número casos crianças paralisia cerebral zona norte país caminho feito custo medos passam ano desde fundação instituição conhecer vida josé rui ano ana catarina entraram ainda crianças appc paralisia cerebral doença cura regride condição vida xb</t>
+          <t>[https://www.jn.pt/7865605535/a-deficiencia-nao-e-uma-doenca-e-uma-condicao/](https://www.jn.pt/7865605535/a-deficiencia-nao-e-uma-doenca-e-uma-condicao/)
+&gt; Instituição, no Porto, está a assinalar 50 anos, marcando percursos de  vida como os de José Rui e de Ana Catarina, desde os tempos de criança.       
+&gt;  
+&gt; A  Associação do Porto de Paralisia Cerebral (APPC) surgiu em 1974 do  esforço e preocupações de um grupo de pais, com o apoio de alguns  técnicos, que procuravam responder ao crescente número de casos de  crianças com paralisia cerebral na zona Norte do país. O caminho foi  feito a custo, mas sem medos. Quando passam 50 anos desde a fundação da  instituição, fomos conhecer a vida de José Rui, 51 anos, e de Ana  Catarina, de 32, que entraram ainda crianças na APPC. A paralisia  cerebral não é uma doença. Não se cura, nem regride. É uma condição de  vida.   
+&gt;  
+&gt;...
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -9379,7 +11334,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>respeitam nada menos respeitem protejam crianças</t>
+          <t>Se não respeitam nada, ao menos respeitem e protejam as crianças</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -9399,7 +11354,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>programa começou bem representar jovens buscar jotinhas repetir cartilhas definiram usaram colagem partidos disse divisão publico privado importante foco cidadão sondagem grande margem erro viuse jovens votam direita chega il aqui começou fixação partidos durante boa parte programa falouse partidos política participação sociedade jovens reduzir puxar partido outro corrida tal apoia clube ganhar campeonato partidos buraco negro participação cívica nenhuma partícula luz consegue escapar</t>
+          <t>O programa começou bem. Para representar os jovens não foram buscar os jotinhas para repetir cartilhas. Quando se definiram, não usaram a colagem partidos. Uma disse que mais que divisão publico privado, é importante o foco no cidadão.
+Depois pela sondagem (com grande margem de erro) viu-se que os jovens votam à direita, no Chega e IL.
+E aqui começou a fixação nos partidos. Durante boa parte do programa falou-se em partidos. 
+A política e participação na sociedade dos jovens (e não só) tem que se reduzir a puxar por um partido ou outro na corrida, tal como se apoia um clube para ganhar o campeonato?
+Os partidos são o buraco negro da participação cívica. Nenhuma partícula ou luz lhes consegue escapar.</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -9419,7 +11378,21 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>httpspplwaresapoptmotorescarrosdateslasembateriaamontoamsejuntoaossuperchargersnofrioextremodechicagohttpspplwaresapoptmotorescarrosdateslasembateriaamontoamsejuntoaossuperchargersnofrioextremodechicago segredo frio efeito negativo carros elétricos especial preparados cenário apesar modelos tesla estarem supostamente salvaguardados parece carros bateria amontoamse junto supercharger frio extremo chicago todo situação normal relatos problemas carros tesla acumulamse zona chicago eua conseguem carregar estações supercharger cidade afetada onda frio extremo sabese carros têm problemas situações destas independentemente serem elétricos movidos motores combustão interna últimos comum falharem arranque motor elétricos veem autonomia velocidade carregamento afetados negativamente chicago enfrenta onda frio atualmente situação tal forma extremum temperatura c parecia c devido vento temperaturas limite responsabilizadas problemas estações tesla supercharger toda cidade lev vários carros tesla ficado presos bateria incapazes tempo carregar supercharger proprietários relatam conseguem começar carregar veículos após serem ligados carregadores vários recorreram reboque veículos levados centro serviço local tesla alguns especialistas sugerem problema causado proprietários tesla précondicionam baterias ante colocarem carga tesla recomenda passo dado especialmente condições frias afetam chicago ainda assim précondicionamento bateria feito automaticamente escolher estação supercharger sistema navegação carro dado lógico todos carros marca falhar todos condutores esquecer preparar baterias problema parece outro assim parece possível próprios supercharger falhar devido frio extremo região tesla agora ainda comentou situação xb</t>
+          <t>[https://pplware.sapo.pt/motores/carros-da-tesla-sem-bateria-amontoam-se-junto-aos-superchargers-no-frio-extremo-de-chicago/](https://pplware.sapo.pt/motores/carros-da-tesla-sem-bateria-amontoam-se-junto-aos-superchargers-no-frio-extremo-de-chicago/)
+&gt; Não é segredo que o frio tem um efeito negativo nos carros elétricos, em  especial nos que não estão preparados para esse cenário. Apesar de os  modelos da Tesla estarem, supostamente, salvaguardados, parece que os  seus carros sem bateria amontoam-se junto aos Superchargers no frio  extremo de Chicago.   
+&gt;  
+&gt; Não é de todo uma situação normal, mas os relatos de problemas com os  carros da Tesla acumulam-se na zona de Chicago, nos EUA. Este não  conseguem carregar nas estações Superchargers da cidade que está a ser  afetada por uma onda de frio extremo.  
+&gt;  
+&gt;Sabe-se que os carros têm problemas em situações destas,  independentemente de serem elétricos ou movidos por motores de combustão  interna. Estes últimos é comum falharem no arranque do motor, e os  elétricos veem a sua autonomia e velocidade de carregamento afetados  negativamente.  
+&gt;  
+&gt; Chicago enfrenta uma onda de frio, atualmente. A situação é de tal  forma extrema que a temperatura de -19 °C parecia ser de -29 °C devido  ao vento. Essas temperaturas limite são responsabilizadas pelos  problemas nas estações Tesla Superchargers em toda a cidade.  
+&gt;  
+&gt;Isso leva a que vários carros da Tesla tenham ficado presos sem  bateria e incapazes, ao mesmo tempo, de carregar num Supercharger. Os  proprietários relatam que não conseguem começar a carregar os seus  veículos após serem ligados a estes carregadores. Vários recorreram ao  reboque dos seus veículos, que foram levados para o centro de serviço  local da Tesla.  
+&gt;  
+&gt; Alguns especialistas sugerem que o problema é causado pelos  proprietários dos Tesla que não pré-condicionam as suas baterias antes  de as colocarem à carga. A Tesla recomenda que este passo seja dado  especialmente em condições frias como as que afetam Chicago. Ainda  assim, o pré-condicionamento da bateria é feito automaticamente se  escolher uma estação Supercharger no sistema de navegação do carro.  
+&gt;  
+&gt;Dado que não é lógico que todos os carros da marca estejam a falhar e  que todos os condutores se estejam a esquecer de preparar as baterias, o  problema parece ser outro. Assim, parece ser possível que os próprios  Superchargers estejam a falhar devido ao frio extremo na região. A Tesla  por agora ainda não comentou a situação.
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -9439,7 +11412,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>acompanhado pouco noticias bocado apanhado surpresa soube aprovação obrigatoriedade género cartão cidadão sendo ainda falado pronomes diferentes outras medidas aqui httpssicnoticiasptpaisnomesneutrosenaobinariedadenaoeumamodanaoeumacoisadeagorafeaehttpssicnoticiasptpaisnomesneutrosenaobinariedadenaoeumamodanaoeumacoisadeagorafeae conhecimento assunto contexto americano sabia aqui algo equivalente questão objetivo muda exatamente vida destas pessoas ter género especificado cc segundo pessoa noticia link acima capricho honesto exatamente parece poi vejo beneficio nenhum alem satisfação pessoal digo utilização referidos pronomes pareceme algo desnecessário desperdício tempo parlamento discutir assunto concordando gostava menos saber quais motivações edição infelizmente sempre leve extremos nada espera meia dúzia comentários melhor construídos deu pensar alguma coisa fico contente ver upvotes considero sinal posição moderada d apesar algumas pessoas acharem doi lados questão</t>
+          <t>Tenho acompanhado pouco as noticias, pelo que fui um bocado apanhado de surpresa quando soube da aprovação da não obrigatoriedade de género no cartão de cidadão, sendo ainda falado de pronomes diferentes e outras medidas aqui: [https://sicnoticias.pt/pais/2024-01-07-Nomes-neutros-e-nao-binariedade--Nao-e-uma-moda-nao-e-uma-coisa-de-agora-4fea0e16](https://sicnoticias.pt/pais/2024-01-07-Nomes-neutros-e-nao-binariedade--Nao-e-uma-moda-nao-e-uma-coisa-de-agora-4fea0e16)
+Já tinha conhecimento do assunto no contexto americano, mas não sabia que já estava aqui algo equivalente.
+A minha questão é: qual é o objetivo? o que muda exatamente na vida destas pessoas por não ter um género especificado no cc? Segundo a pessoa da noticia no link acima "isto não é um capricho" mas para ser honesto, é exatamente isso que me parece, pois não vejo beneficio nenhum para alem de satisfação pessoal... o mesmo digo para utilização dos referidos pronomes.
+Parece-me algo desnecessário e um desperdício de tempo do parlamento em discutir o assunto, mas mesmo não concordando gostava de pelo menos saber quais as motivações para isto.
+\-----------------------------------------------------------------------------------------------------------------------------------------------
+Edição: Infelizmente há sempre quem leve para extremos mas nada que não tivesse à espera. Mas por meia dúzia de comentários melhor construídos já deu para pensar em alguma coisa. Fico contente por ver \~50% de upvotes, considero isso um sinal de uma posição moderada :D apesar de algumas pessoas acharem que só há dois lados à questão.</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -9459,7 +11437,8 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>httpspplwaresapoptsmartphonestabletsepidemiadesaudepublicaespanhapropoeetiquetasdesaudenossmartphones vizinhos lado deve demorar algum partido propor nesmo cá</t>
+          <t>https://pplware.sapo.pt/smartphones-tablets/epidemia-de-saude-publica-espanha-propoe-etiquetas-de-saude-nos-smartphones/
+Vizinhos do lado, não deve demorar muito até algum partido propor o nesmo por cá.</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -9479,7 +11458,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>renovam situação x ano menos</t>
+          <t>Renovam a situação 1x ano ? Ou menos</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -9499,7 +11478,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>curto som noite inteira loop bué irritante vou testar un tampões ouvidos novos hoje</t>
+          <t>Até curto o som, mas a noite inteira em loop é bué irritante, vou testar uns tampões de ouvidos novos hoje 🤙</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -9519,7 +11498,9 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>olá gostava saber onde posso encontrar comprar cd bandas garagem tavira various lá música nunca esqueço chamase bicicleta vermelha pó cabeça encontro lugar nenhum link disco stock httpswwwdiscogscomreleasevariousbandasdegaragemtavira</t>
+          <t>Olá! Gostava muito de saber onde posso encontrar ou comprar o cd bandas de garagem tavira 90-2000 dos Various, tinha lá uma música que nunca me esqueço, chama-se: bicicleta vermelha, dos Pó na cabeça, mas não encontro em lugar nenhum... 
+Link do disco (não está em stock...)
+https://www.discogs.com/release/19199197-Various-Bandas-De-Garagem-Tavira-90-2000</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -9539,7 +11520,9 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>sobram poucos poucos xb view pollhttpswwwredditcompollguhys</t>
+          <t>Já sobram poucos, muito poucos.
+&amp;#x200B;
+[View Poll](https://www.reddit.com/poll/1guhy2s)</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -9559,7 +11542,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>httpswwwdnptpresidentedacamaradelouresdefendedespejosemdonempiedadedeparticipantesemdisturbioshttpswwwdnptpresidentedacamaradelouresdefendedespejosemdonempiedadedeparticipantesemdisturbios reunião pública câmara municipal loures aprovada recomendação chega faz menção morte odair moniz atos vandalismo desacatos vários bairros área metropolitana lisboa propõe ordem despejo imediato provada participação incidentes concordam proposta view pollhttpswwwredditcompollgfzwd</t>
+          <t>[https://www.dn.pt/2704965926/presidente-da-camara-de-loures-defende-despejo-sem-do-nem-piedade-de-participantes-em-disturbios/](https://www.dn.pt/2704965926/presidente-da-camara-de-loures-defende-despejo-sem-do-nem-piedade-de-participantes-em-disturbios/)
+&gt; Na reunião pública da Câmara Municipal de Loures, foi aprovada a  recomendação do Chega, que faz menção à morte de Odair Moniz e aos "atos  de vandalismo e desacatos" em vários bairros na Área Metropolitana de  Lisboa e que propõe ordem de despejo "imediato" a quem for provada a  participação nos incidentes.   
+&gt;  
+&gt;...
+Concordam com esta proposta ou não?
+[View Poll](https://www.reddit.com/poll/1gfz9wd)</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -9579,7 +11567,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>tempo blog populares seguidos comunidade internet gostaria saber ainda leem continuam escrever neles sim agradeço falem pouco sobre deixem vossas recomendações obrigado</t>
+          <t>Houve um tempo em que os blogs eram muito populares e seguidos pela comunidade da internet. Gostaria de saber se ainda os leem e se continuam a escrever neles. Se sim, agradeço que falem um pouco sobre isso e deixem as vossas recomendações. Obrigado.</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -9599,7 +11587,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>httpswwwjnptquandopodemospoliciasusararmasdefogo</t>
+          <t>https://www.jn.pt/8543253107/quando-podem-os-policias-usar-armas-de-fogo/</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -9619,7 +11607,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>consigo fazer post nessa comunidade tente envie mensagens moderadores porque acontece alguém queria fazer série post têm ver comunidade assim consigo post sempre removidos ficam espera aprovação parte moderadores nada</t>
+          <t>Não consigo fazer posts nessa comunidade, por mais que tente e envie mensagens aos moderadores. Porque será? Acontece isto a alguém? Queria fazer uma série de posts que têm mais a ver com aquela comunidade e assim não consigo. Os meus posts são sempre removidos e ficam à espera de aprovação da parte dos moderadores, mas nada...</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -9639,7 +11627,8 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>httpswwwdnptmerylstreepdizqueumesquilotemmaisdireitosdoqueumaraparigaafegahttpswwwdnptmerylstreepdizqueumesquilotemmaisdireitosdoqueumaraparigaafega cá portugal onde toda gente liberdade tudo alguma coisa ainda continuum chamar extremum partidos nada têm extremum perigo confundir mera esquerda mera direita real extremum radical</t>
+          <t>[https://www.dn.pt/3792072748/meryl-streep-diz-que-um-esquilo-tem-mais-direitos-do-que-uma-rapariga-afega/](https://www.dn.pt/3792072748/meryl-streep-diz-que-um-esquilo-tem-mais-direitos-do-que-uma-rapariga-afega/)
+E por cá em Portugal, onde toda a gente tem liberdade para tudo e mais alguma coisa, ainda se continua a chamar de extrema a partidos que nada têm de extrema. É este o perigo de se confundir mera esquerda ou mera direita com a real extrema radical.</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -9659,7 +11648,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>httpsecosapoptportugalestamenosatrativoparaprofissionaisqualificadoshttpsecosapoptportugalestamenosatrativoparaprofissionaisqualificados conhecida edição deste ano ranking mundial talento portugal desce oito posições atratividade duas investimento desenvolvimento consegue subir seis lugares competênciasjá conhecida edição deste ano ranking mundial talento portugal desce oito posições atratividade duas investimento desenvolvimento consegue subir seis lugares competências portugal perdeu atratividade diz respeitos trabalhadores qualificados edição deste ano ranking talento mundial escola negócios suíça imd ocupa posição países neste indicador correspondente deslize oito lugares atratividade vindo registar maior queda portugal ocupar posição ter estado lugar explica escola nota enviada redações fuga talentos país assistido milhares jovens qualificados emigrarem motivos explica quebra aponta imd países analisados suíça consegue medalha ouro atratividade talento consolidando liderança completar pódio doi repetentes irlanda segundo lugar semelhança última edição país baixos mantendose terceiro lugar</t>
+          <t>[https://eco.sapo.pt/2024/09/19/portugal-esta-menos-atrativo-para-profissionais-qualificados/](https://eco.sapo.pt/2024/09/19/portugal-esta-menos-atrativo-para-profissionais-qualificados/)
+&gt;Já é conhecida edição deste ano do ranking mundial de talento. Portugal desce oito posições na atratividade e duas no investimento e desenvolvimento, mas consegue subir seis lugares nas competências.Já é conhecida edição deste ano do ranking mundial de talento. Portugal desce oito posições na atratividade e duas no investimento e desenvolvimento, mas consegue subir seis lugares nas competências. 
+&gt;Portugal perdeu atratividade, no que diz respeitos aos trabalhadores qualificados. Na edição deste ano do ranking de talento mundial da escola de negócios suíça IMD, ocupa a 45.ª posição, entre 67 países, neste indicador. É o correspondente a um deslize de oito lugares.
+&gt;“A atratividade tem vindo a registar a maior queda, com Portugal a ocupar a 45.ª posição, depois de ter estado em 37.º lugar em 2023, 40.º em 2022 e 30.º em 2021″, explica a escola, numa nota enviada às redações. A fuga de talentos a que o país tem assistido — com milhares de jovens qualificados a emigrarem — é um dos motivos que explica esta quebra, aponta a IMD.
+&gt;Entre os 67 países analisados, é a Suíça que consegue a medalha de ouro na atratividade de talento, consolidando a liderança. A completar o pódio, estão também dois repetentes: Irlanda (em segundo lugar à semelhança da última edição) e País Baixos (mantendo-se em terceiro lugar).
+&gt;...</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -9679,7 +11673,8 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>estado direito poder executivo legislativo separados poder judicial ministério público tribunais supostamente independentes poder executivo legislativo apenas demagogia calor momento algo</t>
+          <t xml:space="preserve">Num estado de direito o poder executivo e legislativo estão separados do poder judicial. O ministério público e os tribunais supostamente são independentes do poder executivo e legislativo. 
+Será que isto é apenas demagogia, no calor do momento, ou é algo mais? </t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -9699,7 +11694,8 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>irei poder pedir reforma devido iniciar atividade trabalho so tarde agradeço todos apoio</t>
+          <t xml:space="preserve">Só irei poder pedir reforma depois dos 80, devido a iniciar atividade de trabalho so mais tarde. Isto da?
+Agradeço a todos pelo apoio. </t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -9719,7 +11715,22 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>edit obrigado todos vossas opiniões refleti sobre assunto fimdesemana sei caminho devo percorrer mudar atitude perante vida corrigir falhas levaram comportamento tão baixo nada característico acredito redenção honesto responsável comigo sei vou conseguir exnamorada alvo gestos ler post quero saibas extremamente arrependido maior mal possas ter feito certeza devote ter feito algum mal durante relação nunca intencional merecias fiz espero tenhas sinceramente vida feliz vez obrigado todos felizes boa tade malta desculpem gigantesco post preciso ajuda cerca ano cortei relações pessoas gostava ex back story conhecemonos praticamente namorar terminou comigo vezes primeira ainda poucos meses mensagem natal arrependeuse voltou atrás ficamos un meses deu desculpa queria ter filhos coisa queria término msg fiquei cauteloso nunca falou sobre ante aliás falava queria ir então ficamos amigo sempre continuei ter sentimentos passado un ano dia saímos junto fazer compras dizme ante entrar supermercado queria ter filhos davam trabalho fiquei comichão atrás orelha então motivo termos terminado dizer talvez tivessemos hipóteses novamente então melhor financeiramente acabado comprar casa stress altura namorávamos mandei email dizer ainda sentimentos queria voltar nunca respondeu email entendi situação tentei seguir frente pensava situação delicada termos trabalhocasa pensei então quisesse focar nisso continuamos amigo ajudei imenso situação mudança casa corria risco ficar rua felizmente tudo correu bem ano atrás tudo ter levado inúmeras situações faz post facebook novo namorado fazer cruzeiro veneza coisas queria ter feito disse altura nunca fizemos deixoume rastos fiquei extremamente magoado aqui começa parte agi mal deixeime levar fúria comecei importunála mensagens email saber então motivo querer voltar após muita insistência lá disse ter dito cara queria ter filhos pq caros bem disselhe nessa chamada nunca queria ver mandar chave casa pedilhe altura guardar caso precisasse passado mês ainda mandado chave voltei falar durante conversa disse coisa insisti altura deveria disse ficado comigo poi sabia ia conseguir vender casa conseguiu ajudeia compra nova nesse telefonema ainda frágil dizia amava disposto esperar terminar atual namorado namoro distância espanhol voltarmos obviamente ideia estúpida fim dia aguentava ficava sempre pensar nisto então pedi novamente chave bloqueeia tudo filo forma pouco violenta berros passado alguns meses vem aqui reddit fazer post httpswwwredditcomrcasualptcommentsrjxprecisodeumapalavraamigadesabafohttpswwwredditcomrcasualptcommentsrjxprecisodeumapalavraamigadesabafo fiquei ainda pior dizer bem procura outras pessoas dizer sozinha namorado enfim ontem passado quase ano disto ainda sentiame ressentido cheio rancor penso justiça casa deixei livro autora deu altura publicação janela lado tal raiva sentia detalhes podium ter dito aqui tb quero dizer tb gajo fez tudo certo relacionamento afinal primeiro sempre pedi falasse fizesse algo errado reagi mal estupidamente única coisa quero superar ir vida frente gostava carinho hoje deixame triste ódio ambo sentimos outro alguém passado precisava saber pouco velho tb vivo sozinho amigo possa desabafar sei devia pensar nisto consigo</t>
+          <t>EDIT: Obrigado a todos pelas vossas opiniões. Refleti muito sobre este assunto no fim-de-semana e sei o caminho que devo percorrer que é mudar de atitude perante a vida e corrigir as minhas falhas que levaram a este comportamento tão baixo e nada característico meu. Acredito na redenção e se for honesto e responsável comigo mesmo sei que vou conseguir. Se a minha ex-namorada alvo dos meus gestos estiver a ler este post, quero que saibas que estou extremamente arrependido e que por maior mal que possas ter feito (que de certeza eu também devo-te ter feito algum mal durante a relação mas nunca foi intencional) não merecias o que fiz e espero que tenhas sinceramente uma vida feliz. Mais uma vez, obrigado a todos! Sejam felizes!
+Boa tade malta! Desculpem o gigantesco post mas preciso de ajuda. Há cerca de 1 ano cortei relações com uma das pessoas que mais gostava e que era minha ex.
+Back story: Conhecemo-nos em 2017 e foi praticamente a namorar. Ela terminou comigo 2 vezes, a primeira ainda em 2017 poucos meses depois por mensagem no Natal mas depois arrependeu-se e voltou atrás e ficamos mais uns meses até que me deu uma desculpa que queria ter filhos (que era coisa que queria mas depois do término por msg fiquei mais cauteloso e ela nunca falou sobre isso antes, aliás até falava que queria ir para fora) e então ficamos amigos mas sempre continuei a ter sentimentos por ela.
+Passados uns anos, um dia quando saímos juntos para fazer compras, ela diz-me antes de entrar no supermercado que já não queria ter filhos, que davam muito trabalho. Ora, eu fiquei com um comichão atrás da orelha, então se foi esse o motivo por termos terminado, para ela me dizer talvez tivessemos hipóteses novamente.
+Então como estava melhor financeiramente e tinha acabado de comprar casa que era um stress que tinha na altura que namorávamos, mandei email a dizer que ainda tinha sentimentos e que queria voltar. Nunca respondeu ao email. Entendi a situação e tentei seguir em frente. Pensava que como ela estava numa situação mais delicada em termos de trabalho/casa, pensei então que quisesse se focar nisso.
+Continuamos amigos e a ajudei imenso, até numa situação de mudança de casa que ela corria o risco de ficar na rua. Felizmente tudo correu bem.
+Há 1 ano atrás depois de tudo isso e de ter levado com inúmeras situações, ela faz um post no Facebook com o novo namorado a fazer um cruzeiro em Veneza, que era das coisas que mais queria ter feito com ela e que lhe disse na altura mas nunca fizemos.
+Deixou-me de rastos, fiquei extremamente magoado. E aqui começa a parte que agi mal. Deixei-me levar pela fúria e comecei a importuná-la com mensagens e emails para saber então qual foi o motivo para não querer voltar. Após muita insistência lá me disse que era por eu ter dito na cara dela que não queria ter filhos pq eram muito caros.
+Muito bem, disse-lhe nessa chamada que nunca mais a queria ver e para me mandar a chave da minha casa que pedi-lhe na altura para guardar caso precisasse.
+Passado 1 mês, como ainda não tinha mandado a chave voltei a falar com ela. E durante a conversa ela disse uma coisa que não insisti na altura mas que deveria. Disse que não tinha ficado comigo pois não sabia se ia conseguir vender a casa dela (que conseguiu e eu ajudei-a na compra da nova). Nesse telefonema ainda estava muito frágil e até lhe dizia que a amava e que estava disposto a esperar por ela terminar com o atual namorado (namoro à distância com um espanhol) para voltarmos. Obviamente foi uma ideia estúpida.
+No fim do dia, não aguentava mais, ficava sempre a pensar nisto e então pedi novamente pela chave e bloqueei-a de tudo e fi-lo de forma um pouco violenta (berros).
+Passados alguns meses ela vem aqui ao reddit fazer este post [https://www.reddit.com/r/CasualPT/comments/18rjx88/preciso\_de\_uma\_palavra\_amiga\_desabafo/](https://www.reddit.com/r/CasualPT/comments/18rjx88/preciso_de_uma_palavra_amiga_desabafo/) e fiquei ainda pior. A dizer que eu estava bem, que eu já estava à procura de outras pessoas e a dizer que estava sozinha quando tem o namorado.
+Enfim, ontem passado quase 1 ano disto ainda sentia-me ressentido, cheio de rancor e só penso em justiça. Fui à casa dela e deixei um livro que ela é autora e me deu na altura da sua publicação na janela mesmo do lado de fora tal era a raiva que sentia.
+Há mais detalhes que podia ter dito aqui e tb quero dizer que tb não fui um gajo que fez tudo certo no relacionamento, afinal era o meu primeiro. Mas sempre lhe pedi que falasse se fizesse algo de errado.
+Reagi mal e estupidamente. A única coisa que quero é superar isto e ir com a minha vida para a frente. Gostava muito dela e tinha muito carinho. Hoje deixa-me triste o ódio que ambos sentimos um pelo outro.
+Alguém que já tenha passado pelo mesmo? Precisava de saber que não estou só. Já sou um pouco velho tb e vivo sozinho, não tenho amigos com quem possa desabafar. Sei que não devia estar a pensar nisto mas não consigo.</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -9739,7 +11750,8 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>httpswwwrtpptnoticiaspaisidososemportugalmenosdeprimidosquegeracoesmaisnovasconcluiestudodoinsaa</t>
+          <t xml:space="preserve">https://www.rtp.pt/noticias/pais/idosos-em-portugal-menos-deprimidos-que-geracoes-mais-novas-conclui-estudo-do-insa_a1584613
+</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -9759,7 +11771,8 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>httpswwwyoutubecomwatchvuycwlgyinmhttpswwwyoutubecomwatchvuycwlgyinm encontrei gostei resolvi partilhar</t>
+          <t xml:space="preserve">[https://www.youtube.com/watch?v=uYcwlgy-iNM](https://www.youtube.com/watch?v=uYcwlgy-iNM)
+Encontrei, gostei e resolvi partilhar. </t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -9779,7 +11792,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>bom dia criar servidor discord convívios cidade porto objetivo reunirmos compartilhar dicas locais organizar encontros promover boa amizades moras porto ten interesse conhecer pessoas região vem fazer parte clica aqui juntares httpsdiscordggrhmtpmrmqhttpsdiscordggrhmtpmrmq esperamos conhecerte breve</t>
+          <t xml:space="preserve"> Bom dia!!
+Estamos a criar um servidor no Discord para convívios na cidade do Porto, com o objetivo de nos reunirmos, compartilhar dicas locais, organizar encontros e promover boas amizades.
+Se moras no Porto ou tens interesse em conhecer pessoas da região, vem fazer parte!
+Clica aqui para te juntares: [https://discord.gg/rhmtpMrm8q](https://discord.gg/rhmtpMrm8q)
+Esperamos conhecer-te em breve!</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -9799,7 +11816,8 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>bem resumindo medium secundário lá grande coisa ano apareceume vitiligo afetou bastante autoestima vida geral sei coisas piores altura soube lidar fez faltasse bastantes aulas consequentemente perdesse imensa matéria agora ano milagrosamente melhoria significativa vitiligo parece ganhei força vontade enorme consegui subir notas ano apenas medium problema peso ano anteriores dáme mero arquitetura marketing opções ensino superior arquitetura amo marketing safety net andei ler arquitetura portugal valorizada lá marketing porque sei sinto marketing menos arriscado consciente entrar universidade publica questão fundo gostava saber verdade medias baixas dá entrar universidades privadas caso lisboa agradeço respostas desde</t>
+          <t>Bem, resumindo a minha media do secundário não é lá grande coisa, no 10º e 11º ano apareceu-me vitiligo, o que me afetou bastante a autoestima e a minha vida no geral, sei que há coisas piores mas na altura não soube lidar com aquilo, ora isto fez com que faltasse a bastantes aulas e consequentemente perdesse imensa matéria, agora no 12º ano tive milagrosamente uma melhoria significativa no vitiligo e parece que ganhei uma força de vontade enorme, consegui subir as minhas notas e este ano apenas estou com uma media de 16, o problema é quando peso com as dos anos anteriores dá-me um mero 12,4. Tenho arquitetura ou marketing como opções para ensino superior, arquitetura mais pelo que amo e marketing como uma safety net (pelo que andei a ler a arquitetura em Portugal não é valorizada como lá fora, não que o marketing seja, porque sei que não é, mas sinto que marketing seria menos arriscado). Estou consciente que entrar numa universidade publica está fora de questão, no fundo gostava de saber se é mesmo verdade que mesmo com estas medias baixas dá para entrar em universidades privadas, no caso em lisboa.  
+Agradeço pelas respostas desde já :)</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -9819,7 +11837,17 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptsociedadedetalheescolabarracalcoescurtosedecotesexcessivoshttpswwwcmjornalptsociedadedetalheescolabarracalcoescurtosedecotesexcessivos direção pede vestuário adequado sob impedimento realização exames direção escola secundária pedro nunes lisboa definiu regras vestuário alunos prevaricar arriscase ficar impedido realizar exames ano email enviado encarregados educação escola informa alunos devem escola vestuário adequado implica trazer roupa praia nomeadamente calções banho chinelos calções demasiado curtos camisolas excessivo decote inclusivamente situação exame recomendase vestuário adequado sob impedimento realização regulamento interno escola vigor estipula alunos devem apresentarse vestuário revele adequado função idade dignidade espaço especificidade atividades escolares muitas raparigas chegam vir praticamente espécie top tapar peito calções abaixo cintura sala aula adequado top tapam apenas peito pouco outras pessoas podem sentir cómodas outros alunos podem sentir incomodados referiu diretora escola maria rosário andorinha declarações público sublinhando associação pais concorda advertências concordam regulamento vestuário view pollhttpswwwredditcompollcbnih</t>
+          <t>[https://www.cmjornal.pt/sociedade/detalhe/escola-barra-calcoes-curtos-e-decotes-excessivos](https://www.cmjornal.pt/sociedade/detalhe/escola-barra-calcoes-curtos-e-decotes-excessivos)
+&gt; **Direção pede vestuário adequado, sob “impedimento” de realização de exames.**   
+&gt;  
+&gt; A direção da Escola Secundária Pedro Nunes, em Lisboa, definiu regras de  vestuário para os alunos. Quem prevaricar arrisca-se a ficar impedido  de realizar os exames do 11.º e do 12.º ano.  
+Num email enviado aos encarregados de educação, a escola informa que "os  alunos devem estar na escola com vestuário adequado. Isso implica não  trazer roupa de praia, nomeadamente calções de banho, chinelos, calções  demasiado curtos e camisolas com excessivo decote. Inclusivamente, em  situação de exame, recomenda-se vestuário adequado sob impedimento de  realização do mesmo".  
+&gt;  
+&gt;O regulamento interno da escola, em vigor até 2025, estipula que os  alunos devem "apresentar-se com vestuário que se revele adequado, em  função da idade, à dignidade do espaço e à especificidade das atividades  escolares".  
+&gt;  
+&gt;"Muitas raparigas chegam a vir praticamente só com uma espécie de top,  só a tapar o peito e calções abaixo da cintura. E isto para estar numa  sala de aula não é adequado. Há tops que tapam apenas o peito e pouco  mais. As outras pessoas também podem não se sentir cómodas, há outros  alunos que se podem sentir incomodados", referiu a diretora da escola,  Maria do Rosário Andorinha, em declarações ao ‘Público’, sublinhando que  a Associação de Pais concorda com as advertências.      
+Concordam com este regulamento de vestuário?
+[View Poll](https://www.reddit.com/poll/1cb0nih)</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -9839,7 +11867,10 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>boa noite venho parabenizar aqui sub criou viva liberdade</t>
+          <t>Boa noite.
+Venho só parabenizar aqui o sub e a quem o criou.
+Viva a liberdade!
+❤️</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -9859,7 +11890,13 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>httpsportadalojablogspotcomsobrepedroarrojaepaulorangelnaoehtmlhttpsportadalojablogspotcomsobrepedroarrojaepaulorangelnaoehtml artigo hoje francisco teixeira mota público água mole pedra durahttpsbloggergoogleusercontentcomimgbrvzxlavvxsejvtxzhvwzlpqngapspackuknhssecqeytcfzfdyculdpnnlgcrybjfeabcdgyxrtmnbblephfwgehnjoxxmrulwlleubfovppmtwlfxcofgyvrojirponiqciicfyjxcumixketscjyhqgspjpg confrangedor certos juízes ainda entenderam jurisprudência pacífica tedh continuam confundir direitos condenar eito ajuizar direito xb</t>
+          <t>[https://portadaloja.blogspot.com/2024/03/sobre-pedro-arroja-e-paulo-rangel-nao-e.html](https://portadaloja.blogspot.com/2024/03/sobre-pedro-arroja-e-paulo-rangel-nao-e.html)
+&gt; em no artigo de hoje, de Francisco Teixeira da Mota no Público:   
+&gt;  
+&gt;[Água mole em pedra dura?](https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjVTx_Z_Hvw4zLpqnGaPsP25Ack9UknhSs0eCq4eytCfzFdy0CULDPNnl1gcR-Y5_8bJFeabcd-g6yx0Rtm2n9-bBLephFWG67e6h3NJoxXMRU2L7wllE1ubfO6vPPMTWl50fx_CO9f7gYVro5-J46IRpoNIq0ciicfy7jXcumIXKE3Tsc49jYHQg/s2982/P%2023%203%202024001.jpg)  
+&gt;  
+&gt; É confrangedor como certos juízes ainda não entenderam o que é  jurisprudência pacífica do TEDH e continuam a confundir direitos e a  condenar a eito, sem ajuizar direito. 
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -9879,7 +11916,9 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>quero começar fazer un projetos diy madeira estantes mesa apoio caixas vasos etc leroy merlin achei caro pinho maciço queria usar madeira fraca algumas recomendações preços lá normais</t>
+          <t>Quero começar a fazer uns projetos DIY em madeira. Estantes, mesas de apoio, caixas para vasos etc.
+Fui à Leroy Merlin e achei caro o Pinho Maciço, mas não queria usar uma madeira muito fraca.
+Algumas recomendações ou os preços de lá são normais?</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -9899,7 +11938,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>muitos post gosto muitas opiniões discordo liberdade opinião serve precisamente opiniões discordo muitos post comentários reportados muitos terem opiniões negativas relação determinados grupos core políticas ninguém obrigado ter boa opinião opinião negativa discurso ódio exemplo alguém disser homens propensos cometer crime violentos mulheres discurso ódio misandria neste caso afirmação pode confirmada refutada vale afirmação contrária discurso ódio misoginia neste caso afirmação pode confirmada refutada parece nenhuma destas afirmações deva partida censuradaeliminada devem ambas permitidas possa apurar verdade embora apenas nenhuma possa verdadeira neste caso conhecimento primeira afirmação correta acho ambas devem permitidas parece admissível tentativas instrumentalização sub tendo bandeira liberdade pensamento fin propaganda política ideológica normalmente tenta fazer recorre colocação sistemática post torno tema pequenas variações spam menos bem disfarçado evitar tolher liberdade expressão dificuldades aprendiz moderador ainda sabe bem lidar crescimento deste ainda pequeno sub outra dificuldade falta tempo</t>
+          <t xml:space="preserve">Há muitos posts de que não gosto, muitas opiniões de que discordo, mas a liberdade de opinião serve precisamente para as opiniões de que discordo
+Muitos posts e comentários são reportados, muitos por terem opiniões negativas em relação a determinados grupos, cores políticas, mas ninguém é obrigado a ter boa opinião seja do que for. Uma opinião negativa não é um discurso de ódio. Um exemplo se alguém disser que os homens são muito mais propensos a cometer crimes violentos que as mulheres isso não é discurso de ódio, misandria neste caso, é uma afirmação que pode ser confirmada ou refutada. O mesmo vale para a afirmação contrária que também não é discurso de ódio, misoginia neste caso, é uma afirmação que pode ser confirmada ou refutada. Não me parece que nenhuma destas afirmações deva à partida censurada/eliminada. Devem ambas ser permitidas, para que se possa apurar a verdade, embora apenas uma, ou até nenhuma delas, possa ser verdadeira. Neste caso, pelo que tenho conhecimento a primeira afirmação é a que está correta, mas acho que ambas devem ser permitidas.
+O que não me parece admissível são as tentativas de instrumentalização de um sub que tendo por bandeira a liberdade de pensamento com fins de propaganda política e ideológica. Normalmente isso quem tenta fazer isso recorre à colocação sistemática de posts em torno do mesmo tema, com pequenas variações. Um spam mais ou menos bem disfarçado.
+Como evitar isto sem tolher a liberdade de expressão?
+Dificuldades de um aprendiz de moderador que ainda não sabe bem como lidar com o crescimento deste ainda pequeno sub.
+outra dificuldade é a falta de tempo </t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -9919,7 +11963,9 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>partilhem aqui vossas opiniões sobre vossas leituras livros conto artigos revistas etc fizerem algum spoiler ocultemno senão termos apagar comentário post ficará decisão contrário afixado</t>
+          <t xml:space="preserve"> Partilhem aqui as vossas opiniões sobre as vossas leituras, livros, contos, artigos, revistas, etc.
+Se fizerem algum spoiler ocultem-no., senão&gt;! termos de apagar esse comentário. !&lt;
+Este post ficará , até decisão em contrário, afixado.    </t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -9939,7 +11985,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>escrevo aqui perguntar hábitos ajudam sítios onde guardam vosso investimento ninguém perto ensine ajude situação facto pais un nabos toca finanças sequer deixaram dinheiro mim poupanças neste momento dá poupar existe coisas urgentes sempre pagar exemplo saúde trabalho etc</t>
+          <t xml:space="preserve">Escrevo aqui para perguntar que hábitos vos ajudam e/ ou sítios onde guardam o vosso investimento. Não tenho ninguém perto que me ensine e me ajude na situação. De facto, os meus pais são uns nabos no que toca a finanças. Nem sequer me deixaram dinheiro para mim. Poupanças neste momento tenho 0. Não dá para poupar, se existe coisas urgentes sempre para pagar. Exemplo: saúde ou trabalho etc. </t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -9959,7 +12005,13 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>homenshttpswwwredditcomrportugalcommentsbenocvparaoshomensqualcaoteugraudesatisfacacao respostas quase disseram atualmente vida sexual mulhereshttpswwwredditcomrportugalcommentsbennskparaasmulheresqualcaoteugraudesatisfacacao respostas disseram atualmente vida sexual quase respostas totais supostamente mulheres noutras sondagens respostas mulheres andam volta suponho alguns homens responderam nesta sondagem provavelmente sempre quase sempre opção terem vida sexual provavelmente curiosidade verem andamento votações algumas mulheres podem ter feito inquérito homens menos afetam menos resultados dessa sondagem resultados percentagem verde homens rosa mulheres xb httpspreviewredditgbxwpcjpgwidthformatpjpgautowebpsfcbbcafebcfca média respostas mulheres dá homens dá</t>
+          <t xml:space="preserve">[Para os homens](https://www.reddit.com/r/portugal2/comments/1benocv/para_os_homens_qual_%C3%A9_o_teu_grau_de_satisfa%C3%A7%C3%A3o/) \- 294 respostas, 116 (quase 40%) disseram que não tinham atualmente vida sexual
+[Para as mulheres](https://www.reddit.com/r/portugal2/comments/1bennsk/para_as_mulheres_qual_%C3%A9_o_teu_grau_de_satisfa%C3%A7%C3%A3o/) \- 92 respostas, 51 (55%) disseram que não tinham atualmente vida sexual
+Quase 1/4 das respostas totais são supostamente de mulheres, mas como noutras sondagens as respostas de mulheres andam por volta dos 15% suponho que alguns homens responderam nesta sondagem, muito provavelmente sempre ou quase sempre com a opção de não terem vida sexual. Também muito provavelmente por curiosidade para verem o andamento das votações. Algumas mulheres também podem ter feito o mesmo no inquérito dos homens, mas como são muito menos afetam muito menos o resultados dessa sondagem.
+Resultados, em percentagem. A verde os homens, em rosa as mulheres:
+&amp;#x200B;
+https://preview.redd.it/g8598bxw15pc1.jpg?width=475&amp;format=pjpg&amp;auto=webp&amp;s=82f42c5b70823bca83f82eb92751c2268fc6166a
+A média das respostas das mulheres dá 3,46, a dos homens dá 3,30. </t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -9979,7 +12031,9 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>lei eutanásia oferece condições favoraveis vida garante livre vontade doente cnn portugal iolpthttpscnnportugaliolptvideosleidaeutanasianaooferececondicoesfavoraveisavidaenaogarantelivrevontadedodoentefecfeebd provedora justiça quer tribunal constitucional reconheça lei eutanasia inconstitucional maria lúcia amaral recebeu elogios iniciativa xb</t>
+          <t xml:space="preserve"> [Lei da Eutanásia: "Não oferece condições favoraveis à vida e não garante livre vontade do doente" - CNN Portugal (iol.pt)](https://cnnportugal.iol.pt/videos/lei-da-eutanasia-nao-oferece-condicoes-favoraveis-a-vida-e-nao-garante-livre-vontade-do-doente/65f21e490cf2ee3456719bd2) 
+&gt; A provedora de justiça quer que o Tribunal Constitucional reconheça que a lei da eutanasia é inconstitucional. Maria Lúcia Amaral já recebeu elogios pela iniciativa. 
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -9999,7 +12053,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>diz perguntar ofende enganase alguém perguntar senhor sério candidato primeiroministro ministro</t>
+          <t>Quem diz que perguntar não ofende, engana-se. E se alguém perguntar: é este o senhor um sério candidato a primeiro-ministro ministro?</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -10019,7 +12073,10 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>acompanhar subida descidas sondagens especular sobre resultados promessas medidas curto prazo aumentar pensões x etc explicar visão modelo social económico sectores deve apostar medidas fundo importantes inverter empobrecimento últimas décadas campanha debate comentários percentagem tempo dispende cada destes temas</t>
+          <t>Acompanhar a subida e descidas das sondagens e especular sobre os resultados
+Promessas de medidas de curto prazo, como aumentar pensões em x%, etc
+Explicar qual a visão de modelo social e económico, em que sectores se deve apostar e que medidas de fundo são importantes para inverter o empobrecimento das últimas décadas. 
+E na campanha, debates e comentários, que percentagem de tempo se dispende com cada um destes temas?</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -10039,7 +12096,131 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>httpssapoptatualidadeartigosentreimpostosetaxasquemequeaindaconseguecomprarcasaafinalnaosaoestrangeirosehaquemcompreaprontohttpssapoptatualidadeartigosentreimpostosetaxasquemequeaindaconseguecomprarcasaafinalnaosaoestrangeirosehaquemcompreapronto mar quer através recurso crédito quer pronto pagamento sim ainda existe verdade comprar casa portugal sempre fácil valor total grande parte diz respeito impostos estado condições vida baixos salários incluídos ajudam consiga amealhar suficiente menos objetivo comprar primeira habitação espera rebente bolha imobiliária parece subida preços habitação surpresa segue tendência últimos ano contudo preço casa diz respeito casa propriamente dita sim impostos taxas estado grande impacto fiscal cada tipo imposto preço final compra gonçalo nascimento rodrigues consultor finanças imobiliárias autor blog out of the boxhttpsoutoftheboxpt ajuda perceber causa preço final venda casa imposto dividido imt imposto municipal sobre transações imi imposto municipal sobre imóveis imposto selo iva construção irc imposto sobre rendimento pessoas coletivas promotor imobiliário pagar maisvalias começa explicar sapo valor considerável sendo todos impostos contribuem aumento preços iva construção significativo aponta artigohttpsoutoftheboxptimpostoscompracasa out of the box gonçalo nascimento rodrigues faz contas exemplo simple compra casa mil euro portugal continental habitação própria permanente assumase ainda contração crédito habitação representando ltv rácio financiamento garantia créditos habitação linha média registada mercado pode lerse feitas contas considerando vários impostos imt imposto selo imi iva construção irc fiscalidade inerente venda casa nova preço venda iva pago construção representa maior fatia impostos pagos seguido imt irc lucro líquido promotor representaria preço venda casa fim explicado então fazer reverter situação consultor finanças imobiliárias resposta óbvia baixar impostos considerar objetivo quer atingir vai baixar impostos exclusivamente porque acha fiscalidade determinado segmento determinado mercado investimento elevado objetivo estratégico adianta assim objetivo permitir aumento oferta construção nova interessante diminuir substancialmente taxon iva construção habitação nova objetivo permitir aquisição habitação própria permanente primeira jovens jovens famílias provavelmente melhor rever tabelas imt exemplo portanto depende remata compra casa portugal considerando toda contas questão impõe apenas afinal ainda consegue comprar casa gonçalo nascimento rodrigues aponta genericamente compra casas portugal portuguese famílias portuguesas recurso crédito habitação todavia pormenor considerar portugal pequeno grande habitação heterogénea diferente compra casas santa maria feira compra casas loulé locais partida grandes centros urbanos onde pessoas recorrem crédito efeito cidades média dimensão zona interior país recorrese menos crédito justifica média maior parte portuguese recorrer crédito comprar habitação própria permanente casas vendidas portugal têm crédito associado cerca volume vendas habitação portugal crédito refere resto números comprovam situação instituições financeiras residentes portugal realizaram doi milhões novos contratos crédito milhões pessoas total mil milhões euro todos indicadores cresceram relativamente segundo informação banco portugalhttpsbpstatbportugalptconteudosnoticias bdp diz respeito compra casa mil pessoas contraíram crédito habitação duas mil acordo dado duas cada três moravam região norte área metropolitana lisboa trabalhavam maioritariamente conta outrem nível escolaridade superior quanto idade crédito habitação concedido contratualizado pessoas idade ano novo crédito habitação concedido pessoas idade ano apenas montante crédito habitação concedido obtido pessoas reformadas portugal total crédito habitação concedido pessoas reformadas metade concedido pessoas nacionalidade estrangeira maioritariamente brasil eua ainda frisado bdp vez considerando apenas região algarve total crédito habitação concedido pessoas reformadas concedido pessoas nacionalidade estrangeira maioritariamente originárias eua reino unido suécia ainda pagamentos pronto pense toda gente recorre créditos portugal embora varie zona zona conforme poder compra famílias verdade ainda avance logo valor necessário filipe garcia one house coimbrahttpsonehousecoimbrapt explica sapo existe compre casas pronto ano fizemos negócios total apenas família estrangeira outros sete oito pronto pagamento falar mercado médio médioalto mil euro realidade cá coimbra avança empresário ano mercado imobiliário realidade custou perceber início one house demorámos doi três ano perceber dinâmica coimbra facto sui generis contudo filipe diz explicação aqui coimbra mercado maioritariamente serviços pessoas médicos advogados professores claro empresas empresários comparação resto residual pessoas razão outra estarem ligados setor público terem trabalhos estáveis perderam poder compra pessoas famílias poder compra imóveis zonaschave querem vender zona valorizadas então conseguem ter dinâmica compra venda forte vendem alto compram alto circunscritos querem determinadas zona mercado explica acrescenta outro pormenor sempre pessoas portuguesas comprar coimbra sentir vêm pessoas distrito comprar cidade daqui conhecem bem zona dinâmica troca sempre zona outra sempre aqui dentro concelho gonçalo nascimento rodrigues confirma tendência acrescenta existem zona onde tal verifica destaque açores exemplo ilha s miguel igual maioritariamente locais compram casas recurso dinheiro próprio recorrem menos crédito causa venda casa antiga permite dinheiro seguinte sempre diz consultor depende historial primeira compra casa feita recurso crédito abater crédito toma decisão compra casa porque precisa outro tipo casa maior outras condições passando tempo casas vão ficando cada vez caras pessoas pouparam efeito vão continuar precisar recorrer crédito muitas vezes acontece explica estrangeiros ficam casas toda achar estrangeiros conseguem comprar casas portugal portuguese consultor finanças imobiliárias ideia errada populista enviesada ideologia política determinada franja mercado quer passar números ine mostram cerca transações portugal volume vendas habitação portugal absorvido portuguese famílias portuguesas estatístico volta dar nota gonçalo nascimento rodrigues ressalva mercado estrangeiro franja mercado tipicamente maiores concentrações termos localização questão volume vendas habitação portugal feito área metropolitana lisboa porto algarve existe concentração acentuada volume vendas existe concentração termos localizações compras estrangeiros passa ideia errada mercado inflacionado estrangeiros vêm comprar verdade evidencia porém verdade mercado crescimento devido várias razões sucedendo cronologicamente tempo contribuíram aumento preços pouca oferta primeira fase facto peso significativo compra estrangeiros nomeadamente via golden visa fundamentalmente compradores chinese concentrado nesse período realmente possível verificar significada cerca transações portugal começa enumerar partir golden visa começaram gradualmente perder importância mercado chega altura consegue estimar correspondem apenas cerca mercado consequentemente surgiram outros compradores estrangeiros vieram cá residir preciso desmistificar questão vêm estrangeiros poder compra residir portugal nota praticamente metade estrangeiros vivem portugal brasileiros esmagadora maioria concentrada área metropolitana lisboa muitos têm recursos financeiros andar comprar casas centenas milhares euro muitos arrendam casas adianta gonçalo nascimento rodrigues assim procura significativa secou oferta arrendamento faz aumentar rendas efeito compra habitação classe média médiabaixa recentemente durante pandemia compra habitação estrangeiros peso significativo aliada dinâmica acentuada turismo portugal vinha desde devido todos benefícios fiscais introduzidos programas desenvolvimento produto alojamento local nesta última fase ciclo fase covid permitiu pessoas acumular poupança porque gastaram menos adiciona período largo moratórias crédito habitação permitiu pessoas juntar dinheiro acima conjuntura monetária convidativa aquisição ativos reais financiamento crédito permitiu tomassem decisões compra outro tipo casas noutras localizações espaço caras frisa assim chegamos ponto ideia estrangeiros vêm cá comprar casas portuguese deveriam comprar completamente errada falaciosa conclui então jovens toda dificuldades toca preços certo existem fortes barreiras entrada mercado imobiliário doi patamares tipo pessoas agora sofrer mercado têm casa têm crédito via aumento prestações querem entrar conseguem porque preços caros enumera consultor solução têm problemas face prestações têm poupar dinheiro obviamente lógico adequado aumentarlhes poder compra via aumento rendimentos aumenta rendimentos aumentando ordenados diminuindose fiscalidade junto famílias baixando irs evidencia outro lado relativamente primeira habitação podem desenvolvidos determinados conjuntos mecanismos signifique interferência direta pricing mercado via aumento oferta substancial zona específicas onde claro exista preponderância procura primeira habitação através desenvolvimento programas específicos apoio primeira aquisição nomeadamente vão recorrer crédito poderia componente crédito eventualmente garantida estado reino unido vem exemplo existem programas contemplam ajuda mercado britânico desenvolveu tipo apoio parte hipoteca garantida estado imaginese vou comprar casa mil euro vou recorrer crédito desses parte garantida estado pago prestações sobre sobre parte menor explica ainda outro dado considerar algo documentado portugal altamente documentado reino unido ajuda familiares reino unido existe figura bank of mum and dad coisa interessante porção significativa mercado compra ajuda pais ano cá desenvolvido programa específico reino unido obviar maior dificuldade acesso mercado habitação faixa população recurso ajuda têm mãe pai recursos financeiros ajudem compra adianta bolha imobiliária prestes rebentar esperança vir conseguir comprar casa surge últimos tempo conceito bolha imobiliária futuro pode assim tão fácil imediato conseguir dizer mercado bolha imobiliária têm acontecer três coisas preços têm subir forma acentuada dinâmica territorial alargada dessa subida preços podem circunscritos cidade pequena região evidência estatística subida preços fundamentalmente alimentada dívida explica gonçalo nascimento rodrigues portugal três premissas começaram verificar desde início pandemia final verificam porque existia dinâmica territorial aumento preços circunscrita lisboa porto algarve havia nenhuma evidência estatística aumentada aumento crédito prática aumento crédito verificou forma acentuada contribuiu aumento preços dinâmica territorial bastante alargada porém consultor finanças imobiliárias aumento subida taxas juro forma natural mercado contrabalançar risco existência bolha imobiliária tendência menor contração crédito creio bolha imobiliária pode eventualmente têm surgir fatores externos façam rebentar existem muitas bolhas imobiliárias identificadas mundo muitos ano nunca rebentaram nota alguns fatores externos podem contribuir nomeadamente recessão económica acentuada alargada tempo qualquer evento crise crédito começámos ver catadupa bancos dificuldades financeiras terem salvo menos capacidade conceder crédito economia gera obviamente evento crédito reflexos prazo eventual rebentamento bolha imobiliária neste momento vejo outro conclui xb</t>
+          <t>[https://24.sapo.pt/atualidade/artigos/entre-impostos-e-taxas-quem-e-que-ainda-consegue-comprar-casa-afinal-nao-sao-estrangeiros-e-ha-quem-compre-a-pronto](https://24.sapo.pt/atualidade/artigos/entre-impostos-e-taxas-quem-e-que-ainda-consegue-comprar-casa-afinal-nao-sao-estrangeiros-e-ha-quem-compre-a-pronto)
+&gt;16 mar 2023  
+&gt;  
+&gt;Quer  seja através de recurso a crédito, quer seja a pronto pagamento — sim,  ainda existe —, a verdade é que comprar casa em Portugal nem sempre é  fácil. Do valor total, uma grande parte diz respeito a impostos ao  Estado e as condições de vida (baixos salários incluídos) não ajudam a  que se consiga amealhar o suficiente, muito menos quando o objetivo é  comprar a primeira habitação. E se está à espera que rebente a bolha  imobiliária: não parece que seja para já.  
+&gt;  
+&gt;A subida nos preços da habitação não é uma surpresa, já que segue a  tendência dos últimos anos. Contudo, há muito do preço de uma casa que  não diz respeito à casa propriamente dita, mas sim a impostos e taxas do  Estado.  
+&gt;  
+&gt;Ou seja, há um grande impacto fiscal de cada  tipo de imposto no preço final da compra. Gonçalo Nascimento Rodrigues,  consultor em Finanças Imobiliárias e autor do blog [Out of the Box](https://outofthebox.pt/), ajuda a perceber o que está em causa.  
+&gt;  
+&gt;"Entre  25 a 30% do preço final de venda de uma casa é imposto. Dividido entre  IMT \[Imposto Municipal sobre Transações\], IMI \[Imposto Municipal sobre  Imóveis\], imposto de selo, o IVA da construção e o IRC \[Imposto Sobre o  Rendimento das Pessoas Coletivas\] que o promotor imobiliário tem de  pagar pelas mais-valias", começa por explicar ao **SAPO24**.  
+&gt;  
+&gt;"É  um valor considerável, sendo que de todos os impostos que contribuem  para este aumento de preços o IVA da construção é o mais significativo",  aponta.  
+&gt;  
+&gt;Num [artigo](https://outofthebox.pt/impostos-compra-casa/)  no Out of the Box, Gonçalo Nascimento Rodrigues faz as contas num  exemplo simples, para a compra de uma casa de 200 mil euros em Portugal  Continental, "para habitação própria e permanente".  
+&gt;  
+&gt;"Assuma-se,  ainda, a contração de um crédito habitação de 154.000€, representando  um LTV \[rácio financiamento garantia nos créditos habitação\] de 77%, em  linha com a média registada no mercado em 2022", pode ler-se.  
+&gt;  
+&gt;Feitas  as contas — considerando os vários impostos, como o IMT, imposto de  selo, IMI, IVA da construção, IRC — "a fiscalidade inerente à venda de  uma casa nova de 200.000€ é de 54.554€, ou seja, 27% do preço de venda".  
+&gt;  
+&gt;"O IVA pago na construção representa a maior fatia de  impostos pagos (40%), seguido de IMT (29%) e IRC (19%). Já o lucro  líquido do Promotor representaria 20% do preço de venda da casa", é por  fim explicado.  
+&gt;  
+&gt;Então, o que fazer para reverter esta  situação? Para o consultor em Finanças Imobiliárias, a resposta é óbvia:  "baixar impostos". Mas há que considerar "o objetivo que se quer  atingir".  
+&gt;  
+&gt;"Não se vai baixar impostos exclusivamente  porque se acha que a fiscalidade num determinado segmento ou num  determinado mercado de investimento é muito elevado. Tem de haver um  objetivo estratégico", adianta.  
+&gt;  
+&gt;Assim, se o objetivo "é permitir o  aumento da oferta de construção nova, seria interessante diminuir  substancialmente a taxa de IVA na construção de habitação nova. Se o  objetivo é permitir a aquisição de habitação própria permanente, a  primeira, por jovens ou por jovens famílias, provavelmente é melhor  rever as tabelas de IMT, por exemplo. Portanto, depende", remata.  
+&gt;  
+&gt;Quem compra casa em Portugal?  
+&gt;  
+&gt;Considerando  todas as contas, a questão que se impõe é apenas uma: afinal, quem é  que ainda consegue comprar casa? Gonçalo Nascimento Rodrigues aponta  que, genericamente, "quem compra casas em Portugal são portugueses e  famílias portuguesas com recurso a crédito de habitação".  
+&gt;  
+&gt;Todavia, há um pormenor a considerar: "Portugal é muito  pequeno, mas é muito grande. A habitação é muito heterogénea, é muito  diferente quem compra casas em Santa Maria da Feira ou quem compra casas  em Loulé".  
+&gt;  
+&gt;"Há locais, à partida os grandes centros  urbanos, onde as pessoas recorrem mais a crédito para o efeito. Em  cidades de média dimensão e em zonas mais no interior do país recorre-se  menos a crédito", justifica.  
+&gt;  
+&gt;"Em média, a maior parte dos portugueses tem de recorrer a  um crédito para comprar habitação própria permanente. Mais de 70% das  casas vendidas em Portugal têm um crédito associado e cerca de 50% em  volume de vendas, na habitação em Portugal, tem crédito", refere.  
+&gt;  
+&gt;De  resto, os números comprovam a situação. Em 2022, "as instituições  financeiras residentes em Portugal realizaram dois milhões de novos  contratos de crédito, com 1,5 milhões de pessoas, num total de 28 mil  milhões de euros. Todos estes indicadores cresceram relativamente a  2021", segundo informação do [Banco de Portugal](https://bpstat.bportugal.pt/conteudos/noticias/1843) (BdP).  
+&gt;  
+&gt;No que diz respeito à compra de casa, "169 mil pessoas contraíram um crédito à habitação, mais duas mil do que em 2021".  
+&gt;  
+&gt;E  quem são?  De acordo com os dados, "duas em cada três" moravam "na  região Norte e na Área Metropolitana de Lisboa" e "trabalhavam  maioritariamente por conta de outrem e tinham um nível de escolaridade  superior".  
+&gt;  
+&gt;Quanto à idade, "61% do crédito à habitação  concedido em 2022 foi contratualizado com pessoas com idade até 40  anos", "19% do novo crédito à habitação foi concedido a pessoas com  idade até 30 anos" e apenas "1% do montante de crédito à habitação  concedido em 2022 foi obtido por pessoas reformadas".  
+&gt;  
+&gt;"Em  Portugal, do total de crédito à habitação concedido a pessoas  reformadas em 2022, metade foi concedido a pessoas com nacionalidade  estrangeira (maioritariamente do Brasil e dos EUA)", é ainda frisado  pelo BdP.  
+&gt;  
+&gt;Por sua vez, "considerando apenas a região do Algarve,  do total de crédito à habitação concedido a pessoas reformadas em 2022,  85% foi concedido a pessoas com nacionalidade estrangeira  (maioritariamente originárias dos EUA, do Reino Unido e da Suécia)".  
+&gt;  
+&gt;**Ainda há pagamentos a pronto?**  
+&gt;  
+&gt;Mas não se pense que  toda a gente recorre a créditos em Portugal. Embora varie de zona para  zona e conforme o poder de compra das famílias, a verdade é que ainda há  quem avance logo com o valor necessário.  
+&gt;  
+&gt;Filipe Garcia, da [One House Coimbra](https://onehousecoimbra.pt/), explica ao **SAPO24**  que "existe muito" quem compre casas a pronto. "Este ano fizemos 15  negócios no total, apenas um deles com família estrangeira. Dos outros,  sete ou oito foram a pronto pagamento. E estamos a falar de um mercado  médio, médio-alto. Entre os 300 e os 500 mil euros. É uma realidade cá  em Coimbra", avança.  
+&gt;  
+&gt;Para o empresário, que está há 10  anos no mercado imobiliário, esta "foi uma realidade que custou muito a  perceber" no início da One House. "Demorámos dois a três anos a perceber  esta dinâmica de Coimbra. De facto é muito *sui generis*".  
+&gt;  
+&gt;Contudo,  Filipe diz há uma explicação: "Aqui em Coimbra temos um mercado  maioritariamente de serviços, ou seja, temos pessoas como médicos,  advogados, professores. Claro que temos empresas e empresários, mas em  comparação com o resto é residual. E essas pessoas, por uma razão ou por  outra, por estarem ligados ao setor público ou terem trabalhos mais  estáveis, não perderam poder de compra".  
+&gt;  
+&gt;"São pessoas de  famílias, com muito poder de compra, que também tinham imóveis em  zonas-chave e que quando querem vender são zonas muito valorizadas.  Então conseguem ter uma dinâmica de compra e venda muito forte. Vendem  alto, compram alto, mas como estão muito circunscritos e querem só  determinadas zonas, é um mercado que não para", explica.  
+&gt;  
+&gt;E acrescenta outro pormenor: "são sempre pessoas portuguesas  a comprar — e de Coimbra. Ou seja, nem estamos a sentir que vêm pessoas  muito de fora do distrito para comprar na cidade. São daqui, conhecem  bem as zonas e a dinâmica de troca é sempre entre uma zona e outra, mas  sempre aqui dentro do concelho".  
+&gt;  
+&gt;Gonçalo Nascimento  Rodrigues confirma esta tendência e acrescenta que existem mais zonas  onde tal se verifica, com destaque para os Açores. "Por exemplo, na ilha  de S. Miguel é igual, maioritariamente os locais compram casas com  recurso a dinheiro próprio, recorrem menos a crédito".  
+&gt;  
+&gt;Em causa  está a venda da casa antiga, que permite que haja dinheiro para a  seguinte? Nem sempre, diz o consultor. "Depende do historial. Se a  primeira compra de casa foi feita com recurso a crédito, há que abater o  crédito. Quando se toma uma decisão de compra de casa é porque se  precisa de outro tipo de casa, maior, com outras condições, e passando o  tempo, as casas vão ficando cada vez mais caras. Ou as pessoas pouparam  para o efeito ou vão continuar a precisar de recorrer a um crédito, o  que muitas vezes acontece", explica.  
+&gt;  
+&gt;Os estrangeiros ficam com as casas todas?  
+&gt;  
+&gt;Achar  que os estrangeiros conseguem comprar mais casas em Portugal do que os  portugueses é, para o consultor em Finanças Imobiliárias, "uma ideia  errada, populista e enviesada por ideologia política que uma determinada  franja do mercado quer passar".  
+&gt;  
+&gt;"Os números do INE  mostram que cerca de 90% das transações em Portugal ou do volume de  vendas na habitação em Portugal é absorvido por portugueses e por  famílias portuguesas. Isto é estatístico, não há volta a dar", nota  Gonçalo Nascimento Rodrigues.  
+&gt;  
+&gt;Por isso, ressalva, "o mercado estrangeiro é uma franja do  mercado", mas que "tem tipicamente maiores concentrações em termos de  localização".  
+&gt;  
+&gt;"A questão é que 70% do volume de vendas da  habitação em Portugal é feito na Área Metropolitana de Lisboa, do Porto  e no Algarve. Existe uma concentração acentuada do volume de vendas e  existe uma concentração em termos de localizações de compras de  estrangeiros e isso passa a ideia errada de que o mercado é inflacionado  pelos estrangeiros que vêm comprar, o que não é verdade", evidencia.  
+&gt;  
+&gt;Porém,  é verdade que "o mercado teve o crescimento que teve devido a várias  razões, que se foram sucedendo cronologicamente no tempo" e que  contribuíram para o aumento dos preços — e para a pouca oferta.  
+&gt;  
+&gt;"Numa  primeira fase, em 2013 e 2014, houve de facto um peso mais  significativo da compra de estrangeiros, nomeadamente por via dos Golden  Visa, fundamentalmente por compradores chineses. Mas aquilo foi  concentrado nesse período e era realmente possível verificar que  significada cerca de 15% das transações em Portugal", começa por  enumerar.  
+&gt;  
+&gt;Depois, a partir de 2014, os Golden Visa  "começaram gradualmente a perder importância no mercado, até que se  chega a uma altura em que se consegue estimar que correspondem a apenas  cerca de 3% do mercado".  
+&gt;  
+&gt;Consequentemente, surgiram  "outros compradores estrangeiros que vieram para cá residir. Mas é  preciso desmistificar esta questão de que só vêm estrangeiros com muito  poder de compra residir para Portugal", nota.  
+&gt;  
+&gt;"Praticamente  metade dos estrangeiros que vivem em Portugal são brasileiros e a  esmagadora maioria deles está concentrada na Área Metropolitana de  Lisboa. Muitos deles não têm recursos financeiros para andar a comprar  casas de centenas de milhares de euros, muitos deles arrendam casas",  adianta Gonçalo Nascimento Rodrigues.  
+&gt;  
+&gt;Assim, esta "procura significativa secou a oferta de  arrendamento e isso faz aumentar as rendas". E tem também o mesmo efeito  para quem "compra habitação para classe média, média-baixa".  
+&gt;  
+&gt;Mais  recentemente, durante a pandemia, a compra de habitação por  estrangeiros "teve um peso significativo", aliada a "uma dinâmica muito  acentuada no turismo em Portugal" que vinha já desde 2010-2011, devido a  "todos os benefícios fiscais que foram introduzidos e os programas para  o desenvolvimento de produto de Alojamento Local".  
+&gt;  
+&gt;"Nesta  última fase do ciclo, a fase covid permitiu às pessoas acumular  poupança, porque gastaram menos, ao qual se adiciona o período largo das  moratórias de crédito à habitação. Isso permitiu às pessoas juntar  muito dinheiro e, acima de uma conjuntura monetária muito convidativa à  aquisição de ativos reais e ao financiamento e ao crédito, permitiu que  tomassem decisões na compra de um outro tipo de casas. Noutras  localizações, com mais espaço, mais caras", frisa.  
+&gt;  
+&gt;"E é assim que  chegamos a este ponto. Essa ideia de que são os estrangeiros que vêm  para cá comprar as casas que os portugueses deveriam comprar é  completamente errada, é falaciosa", conclui.  
+&gt;  
+&gt;Então e os jovens?  
+&gt;  
+&gt;Com  todas as dificuldades no que toca aos preços, é certo que "existem  fortes barreiras à entrada no mercado" imobiliário. "Temos dois  patamares de tipo de pessoas que estão agora a 'sofrer': aqueles que já  estão no mercado e que têm casa e têm crédito, por via do aumento das  prestações; e aqueles que querem entrar e que não conseguem porque os  preços são muito caros", enumera o consultor.  
+&gt;  
+&gt;E qual é a solução? "Aqueles que têm problemas face às  prestações têm de poupar dinheiro. Obviamente que o mais lógico e o mais  adequado seria aumentar-lhes o poder de compra, por via do aumento dos  rendimentos. Como é que se aumenta rendimentos? Aumentando ordenados e  diminuindo-se a fiscalidade junto das famílias, ou seja, baixando o  IRS", evidencia.  
+&gt;  
+&gt;Por outro lado, relativamente à primeira  habitação, "podem ser desenvolvidos determinados conjuntos de  mecanismos sem que isso signifique uma interferência direta do *pricing*  do mercado, seja por via do aumento da oferta — substancial em zonas  específicas onde seja claro que exista uma preponderância de procura por  primeira habitação —, seja através do desenvolvimento de programas  específicos de apoio à primeira aquisição, nomeadamente para aqueles que  vão recorrer a crédito". Ou seja, poderia "haver uma componente no  crédito eventualmente garantida pelo Estado".  
+&gt;  
+&gt;Do Reino  Unido vem esse exemplo, já que existem programas que contemplam esta  ajuda. "O mercado britânico já desenvolveu esse tipo de apoio. Há uma  parte da hipoteca que é garantida pelo estado. Imagine-se, vou comprar  uma casa por 200 mil euros, vou recorrer a 80% do crédito e desses 80%  há uma parte que é garantida pelo Estado. Depois, eu só pago prestações  sobre os 80%, mas sobre uma parte menor", explica.  
+&gt;  
+&gt;E há  ainda um outro dado a considerar. "Algo que não está documentado em  Portugal, mas que está altamente documentado no Reino Unido é a ajuda de  familiares. No Reino Unido existe a figura do *Bank of Mum and Dad*, que é uma coisa muito interessante".  
+&gt;  
+&gt;"Há uma porção muito significativa do mercado que compra com a ajuda  dos pais. De há 10 anos para cá, foi desenvolvido um programa específico  no Reino Unido para obviar a maior dificuldade de acesso ao mercado de  habitação para aquela faixa da população que não tem recurso a essa  ajuda, que não têm a mãe e o pai com recursos financeiros que ajudem à  compra", adianta.  
+&gt;  
+&gt;Há uma bolha imobiliária prestes a rebentar?  
+&gt;  
+&gt;Entre  a esperança de vir a conseguir comprar casa surge, nos últimos tempos, o  conceito de bolha imobiliária. Será esse o futuro? Pode não ser assim  tão fácil — ou imediato.  
+&gt;  
+&gt;"Para se conseguir dizer que o  mercado está em bolha imobiliária têm de acontecer três coisas: os  preços têm de subir de forma muito acentuada, tem de haver uma dinâmica  territorial alargada dessa subida de preços, ou seja, não podem estar  circunscritos só a uma cidade ou a uma pequena região, e tem de haver  evidência estatística de que essa subida de preços foi fundamentalmente  alimentada por dívida", explica Gonçalo Nascimento Rodrigues.  
+&gt;  
+&gt;Em  Portugal, "essas três premissas só se começaram a verificar desde o  início da pandemia. Até final de 2019 não se verificam, porque não  existia uma dinâmica territorial de aumento de preços, estava muito  circunscrita a Lisboa, Porto e Algarve, e não havia nenhuma evidência  estatística de que estava a ser aumentada por aumento de crédito".  
+&gt;  
+&gt;Na  prática, "esse aumento de crédito só se verificou de forma mais  acentuada em 2020-2021 e em 2022 e isso contribuiu para um aumento dos  preços com uma dinâmica territorial bastante mais alargada".  
+&gt;  
+&gt;Porém, para o consultor em Finanças Imobiliárias, "com o  aumento da subida das taxas de juro, de uma forma natural, o mercado já  está a contrabalançar esse risco de existência de uma bolha imobiliária,  por tendência de menor contração de crédito".  
+&gt;  
+&gt;"Não creio  que haja uma bolha imobiliária. Até pode eventualmente haver, mas têm  de surgir fatores externos que a façam rebentar. Existem muitas bolhas  imobiliárias identificadas por esse mundo fora, há muitos anos, e nunca  rebentaram", nota.  
+&gt;  
+&gt;"Há alguns fatores externos que podem  contribuir para isso, nomeadamente uma recessão económica mais acentuada  e mais alargada no tempo e um qualquer evento de crise de crédito.  Começámos a ver, em catadupa, bancos com dificuldades financeiras e a  terem de ser salvos com muito menos capacidade de conceder crédito à  economia e isso gera, obviamente, um evento de crédito que depois tem  reflexos, a prazo, num eventual rebentamento de uma bolha imobiliária.  Mas, neste momento, não vejo nem um, nem outro", conclui.
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -10059,7 +12240,8 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>httpswwwyoutubecomwatchvewjqodyzmqhttpswwwyoutubecomwatchvewjqodyzmq</t>
+          <t xml:space="preserve">[https://www.youtube.com/watch?v=2eWjQOdYzMQ](https://www.youtube.com/watch?v=2eWjQOdYzMQ)
+</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -10079,7 +12261,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>gosto ver filmes antigos vi filme ano passado desde aí mim passou filme natal recomendo vivamente ainda viu final emocionante menos mim it wonderful life hd scene in color httpswwwyoutubecomwatchvzusnycu neste canal youtube pareceme têm filme completo</t>
+          <t xml:space="preserve">Gosto de ver filmes antigos.
+Vi este filme o ano passado e desde aí para mim passou a ser "o filme de Natal".
+Recomendo vivamente para quem ainda não o viu. O final é emocionante, pelo menos para mim. 
+[It's A Wonderful Life HD Scene 1 (1946) In Color ](https://www.youtube.com/watch?v=8_ZuSN84yCU)
+Neste canal de youtube parece-me que têm o filme completo. 
+ </t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -10099,7 +12286,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>notam durante ano pandemia havia mulheres utilizar tinder neste momento</t>
+          <t>Notam que durante os anos de pandemia havia muito mais mulheres a utilizar o Tinder do que neste momento?</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -10119,7 +12306,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptportugaldetalhegnrpagaindemnizacaoamilitarferidoatiroanosaposocorrenciahttpswwwcmjornalptportugaldetalhegnrpagaindemnizacaoamilitarferidoatiroanosaposocorrencia</t>
+          <t>[https://www.cmjornal.pt/portugal/detalhe/gnr-paga-indemnizacao-a-militar-ferido-a-tiro-22-anos-apos-ocorrencia](https://www.cmjornal.pt/portugal/detalhe/gnr-paga-indemnizacao-a-militar-ferido-a-tiro-22-anos-apos-ocorrencia)</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -10139,7 +12326,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>ultima quartafeira fiz encomenda disseram chegaria proximo dia quinta máximo dia entrega segunda entretanto chegou quinta contactei informaram viria sexta fim semana passou apareceu ontem entrega feita ctt expresso espanha tentar contactar area apoio respondem nada mim á pc componentes aparentemente suporte parte pc componentes otimo agradeço comunicação resolver caso preciso encomenda breve possivel procedo garantir encomenda ainda semana posso pedir dinheiro volta comprar noutra loja</t>
+          <t>Ultima quarta-feira fiz uma encomenda com eles no qual disseram que chegaria no proximo dia, Quinta, máximo dia de entrega Segunda.
+Entretanto não chegou Quinta, contactei e informaram que não viria Sexta também. O Fim de semana passou e também não apareceu ontem.
+A entrega está a ser feita pela CTT Expresso de Espanha mas mesmo depois de os tentar contactar pela area de apoio eles não respondem a nada, nem a mim nem á PC Componentes aparentemente.
+O suporte pela parte da PC Componentes está a ser otimo, eu agradeço a comunicação mas não estão a resolver o caso, eu preciso da encomenda o mais breve que possivel.
+Como procedo para garantir a encomenda ainda esta semana? Posso pedir o dinheiro de volta e comprar noutra loja?</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -10159,7 +12350,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>carro venda pessoa disse dava outros porque quer ficar disse condições irmos registo fazer mudança nome hora senhor cabo verdiano disseme trabalha segunda sexta sai h horario incompatível registos preenche assina papel compra venda dáme cópia cartão cidadão dinheiro registo ir lá mudar nome quiser tentativa enganar nalguma coisa sei pessoa lev papel diz vai lá podem passarse medes nunca ir nesta situação sendo contrário poderei alguma enganada</t>
+          <t>Tenho um carro para venda e uma pessoa disse que me dava mais 100€ que os outros porque quer mesmo ficar com ele. Eu disse que uma das condições era irmos ao registo e fazer a mudança de nome na hora. Esse senhor que é um cabo verdiano disse-me que ele trabalha de segunda a sexta e só sai às 28 ou 19h (horario incompatível com os registos), mas que preenche e assina o papel de compra e venda, dá-me cópia do cartão de cidadão mais o dinheiro do registo para eu ir lá mudar o nome quando quiser. Será que é uma tentativa de me enganar nalguma coisa? Sei que quando a pessoa leva o papel e diz que depois ele vai lá podem passar-se medes e nunca ir, mas nesta situação sendo ao contrário poderei de alguma estar a ser enganada?</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -10179,7 +12370,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptsociedadedetalhejuizescomdireitoamassagenseiogagratisoriginserpauto</t>
+          <t>https://www.cmjornal.pt/sociedade/detalhe/juizes-com-direito-a-massagens-e-ioga-gratis?origin=serp_auto</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -10199,7 +12390,8 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>httpsrrsapoptnoticiareligiaocaritasdebragaconstroicentrodeacolhimentodeemergencia</t>
+          <t xml:space="preserve">https://rr.sapo.pt/noticia/religiao/2024/11/19/caritas-de-braga-constroi-centro-de-acolhimento-de-emergencia/402077/
+</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -10219,7 +12411,10 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>malta preciso vossa ajuda sei hipótese remota cá vai aula educação musical ano professora música altura passou música bateu comigo infelizmente porque passaram algumas décadas recordo banda sei conjunto criançasadolescentes coro infantil talvez cd levou altura música som roxette sleeping in my car portanto imaginem refrão desta música seguinte letra corrida vamos ganhar partida conquistar lugar sol sonhar oh yeah</t>
+          <t xml:space="preserve">Malta dos 90, preciso da vossa ajuda. Eu sei que é uma hipótese muito remota mas cá vai.  
+Numa aula de Educação Musical no 5º/6º ano, a minha professora de música na altura passou uma música que bateu muito comigo. Infelizmente (porque já se passaram algumas décadas, não me recordo da banda. Sei que era um conjunto de crianças/adolescentes (um coro infantil talvez?) e aquilo foi um CD que ela levou na altura.
+A música era ao som da Roxette - Sleeping In My Car.   
+Portanto imaginem o refrão desta música mas com a seguinte letra '(...) esta corrida (...) e vamos ganhar esta partida, conquistar o nosso lugar ao sol, e sonhar, oh yeah'. </t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -10239,7 +12434,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>httpssearchapplinkhttpsaffwwwnitptfculturaflivrosfahistoriadogigantedemanjacazeesteportuguesfoiohomemmaisaltodomundoutmcampaignagautmsourceagsadlcshfxfgsfmf</t>
+          <t>https://search.app?link=https%3A%2F%2Fwww.nit.pt%2Fcultura%2Flivros%2Fa-historia-do-gigante-de-manjacaze-este-portugues-foi-o-homem-mais-alto-do-mundo&amp;utm_campaign=aga&amp;utm_source=agsadl2%2Csh%2Fx%2Fgs%2Fm2%2F4</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -10259,7 +12454,10 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>sei vivemos digital gosto ter fotografias especiais formato impresso nada natal passado família ver fotografias antigas ppassarem mão mão dito impresso naquelas máquinas automáticas fnac pingo doce etc gostava saber conhecem alguma forma económica fazer un ano existia site enviavam ficheiros passado algum tempo receniamos fotos correio ficava bastante conta uk presumo brexit coisa deixado possível conhecem algo género</t>
+          <t>Sei que vivemos na era do digital, mas gosto muito de ter aquelas fotografias mais especiais em formato impresso. Não há nada como aquele serão de Natal passado em família a ver fotografias antigas a ppassarem de mão em mão.
+Dito isto, tenho impresso naquelas máquinas automáticas da fnac, pingo doce, etc. Gostava de saber se conhecem alguma forma mais económica de o fazer.
+Há uns anos existia um site em que enviavam os ficheiros e passado algum tempo receniamos as fotos pelo correio. Ficava bastante mais em conta. Mas isto era no uk, e presumo que com o brexit, a coisa tenha deixado de ser possível. 
+Conhecem algo do género?</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -10279,7 +12477,10 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>httpsdelitodeopiniaoblogssapoptbullyingfiscalhttpsdelitodeopiniaoblogssapoptbullyingfiscal un dia ouvi entrevista rádio observador entrevista carlos mota santoshttpsobservadorptprogramasclubedossomosdosmenoseficientesnosprocessosjudiciais ceo motaengil tema abordado deixo aqui excerto disse termos noção portugal hoje comparado países união europeia segundo país menos eficiente termos resolução processos judiciais administrativos primeira instância média duração processos dia dobro espanha realidade itália chipre malta têm processos demorados processo portugal vez tribunais administrativos primeira instância quer dizer quer dizer cerca pib mil milhões euro números cativos nestes processos riqueza criada país utilizada nada jogo parados receita pode utilizada autoridade tributária fin estado verba pode usada empresas</t>
+          <t>[https://delitodeopiniao.blogs.sapo.pt/bullying-fiscal-17528078](https://delitodeopiniao.blogs.sapo.pt/bullying-fiscal-17528078)
+&gt;...
+&gt;Há uns dias ouvi uma entrevista na [Rádio Observador uma entrevista a Carlos Mota Santos](https://observador.pt/programas/clube-dos-52/somos-dos-menos-eficientes-nos-processos-judiciais/), CEO da Mota-Engil. Este tema foi abordado e deixo por isso aqui um excerto do que disse.
+&gt;*“Só para termos uma noção, Portugal é hoje, quando comparado com os países da União Europeia, o segundo país menos eficiente em termos de resolução de processos judiciais administrativos em primeira instância. Em 2021, tínhamos uma média de duração dos processos de 847 dias. (…) Ou seja, mais do dobro de Espanha e na realidade, só Itália, Chipre e Malta têm processos mais demorados do que este processo em Portugal, uma vez mais, de tribunais administrativos de primeira instância. O que quer isto dizer? Quer dizer que cerca de 5% do PIB, 11 mil milhões de euros, isto em números de 2021, estão cativos nestes processos. Ou seja, temos 5% da riqueza criada no país que não está a ser utilizada para nada. (…) Que é o que está em jogo. Nós temos 5% que estão parados, nem estes são receita que pode ser utilizada pela autoridade tributária, ou seja, para fins do Estado, nem é uma verba que pode ser usada pelas empresas.”*</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -10299,7 +12500,10 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>boa tardes recebi sm intuito possivel fraude pessoa denominação infofisco acho estranho mensagem porque pago sempre impostos contribuições nunca problemas fisco nunca multas pagamentos falta sm parece facto fraudulenta visto nada irregular acordo consultas financeiras fiz alguem aqui reddit recebeu mensagem algo parecido existe alguma forma reportar tipo sm autoridades</t>
+          <t>Boas tardes. Recebi um SMS com um intuito de possivel fraude de uma pessoa com a denominação "Infofisco". 
+acho muito estranho esta mensagem porque pago sempre os meus impostos e contribuições e nunca tive com problemas com o fisco. Nunca tive multas ou pagamentos em falta. 
+Esta sms parece ser de facto fraudulenta visto que não tenho nada irregular de acordo com as consultas financeiras que fiz. 
+Alguem aqui no Reddit recebeu esta mensagem ou algo parecido? Existe alguma forma de reportar este tipo de sms as autoridades?.</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -10319,7 +12523,9 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>colesterol diabetes condições cardíacas ter especial atenção dada situação clínica completamente últimas médicos sabem andam fazer vi demasiados desses existem espera maioria pessoas sabe porque vai frequentemente médico</t>
+          <t xml:space="preserve">Colesterol, diabetes, ou condições cardíacas. Tenho de ter especial atenção dada a minha situação clínica.
+Estou completamente nas últimas, para médicos que não sabem o que andam a fazer. Já vi demasiados desses. 
+Existem mais do que se espera. A maioria das pessoas não sabe porque não vai frequentemente ao médico. </t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -10339,7 +12545,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>httpswwwjnptparlamentoquermaishomossexuaisciganoseafrodescendentesnagnrenapsphttpswwwjnptparlamentoquermaishomossexuaisciganoseafrodescendentesnagnrenapsp assembleia república recomendou governo crie campanhas recrutamento forças segurança dirigidas pessoas pertençam comunidades específicas ideia segundo resolução aumentar diversidade incluindo pessoas lgbt migrantes afrodescendentes comunidades ciganas concordam proposta acham deviam limitar campanhas atrair candidatos deviam criar quota minorias view pollhttpswwwredditcompollgjgt</t>
+          <t>[https://www.jn.pt/3985356954/parlamento-quer-mais-homossexuais-ciganos-e-afrodescendentes-na-gnr-e-na-psp/](https://www.jn.pt/3985356954/parlamento-quer-mais-homossexuais-ciganos-e-afrodescendentes-na-gnr-e-na-psp/)
+&gt; A Assembleia da República recomendou ao Governo que crie campanhas de  recrutamento para as forças de segurança dirigidas a pessoas que  pertençam a comunidades específicas. A ideia, segundo a resolução, é  aumentar a diversidade, incluindo mais pessoas LGBT+, migrantes,  afrodescendentes ou de comunidades ciganas.           
+&gt;  
+&gt;...         
+Concordam com esta proposta? Acham que se deviam limitar a campanhas para atrair candidatos ou deviam até criar quotas para minorias? 
+[View Poll](https://www.reddit.com/poll/1g6j6gt)</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -10359,7 +12570,19 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>httpswwwdailymailcouknewsarticlegeneralsirmikejacksonstoppedwwrefusedorderhtmlhttpswwwdailymailcouknewsarticlegeneralsirmikejacksonstoppedwwrefusedorderhtml legendary british military chief general sir mike jackson stopped world war three from exploded after he refused to follow his american superior order in kosovo gen sir mike the former head of the british army died at the age of following an illustrious career that saw him command uk force during usled invasion of iraqhttpswwwdailymailcouknewsiraqindexhtml in but it wa during the celebrated officer time in kosovo in which saw him taking crucial decision that helped prevent the conflict from exploding into allout war between natohttpswwwdailymailcouknewsnatoindexhtml and russiahttpswwwdailymailcouknewsrussiaukraineconflictindexhtml he famously refused an order from his u commander to intercept russian force when they entered kosovo without nato agreement in move credited with saving thousand of life im not going to start the third world war you sir mike dubbed true soldier soldier and the prince of darkness is reported to have told his american bos general wesley clark xb</t>
+          <t>[https://www.dailymail.co.uk/news/article-13965449/general-sir-mike-jackson-stopped-ww3-refused-order.html](https://www.dailymail.co.uk/news/article-13965449/general-sir-mike-jackson-stopped-ww3-refused-order.html)
+&gt; Legendary British military chief General  Sir Mike Jackson stopped World War Three from exploded after he refused  to follow his American superior's orders in Kosovo.   
+&gt;  
+&gt;Gen  Sir Mike, the former head of the British Army, died at the age of 80  following an illustrious career that saw him command UK forces during  US-led invasion of [**Iraq**](https://www.dailymail.co.uk/news/iraq/index.html) in 2003.   
+&gt;  
+&gt;But  it was during the celebrated officer's time in Kosovo in 1999 which saw  him taking a crucial decision that helped prevent the conflict from  exploding into all-out war between [**Nato**](https://www.dailymail.co.uk/news/nato/index.html) and [**Russia**](https://www.dailymail.co.uk/news/russia-ukraine-conflict/index.html).  
+&gt;  
+&gt; He famously refused an order from his US  commander to intercept Russian forces when they entered Kosovo without  Nato's agreement - in a move credited with saving thousands of lives.   
+&gt;  
+&gt;'I'm  not going to start the Third World War for you,' Sir Mike - dubbed a  true 'soldier's soldier' and the 'Prince of Darkness' - is reported to  have told his American boss, General Wesley Clark.  
+&gt;  
+&gt;...
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -10379,7 +12602,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>montenegro recusa fazer birra povo culpao oe falharhttpszapaeiouptmontenegrorecusaestarafazerbirramasopovoculpaoseooefalhar sondagem intercampus correio manhãhttpswwwcmjornalptpoliticadetalheportuguesesapontamdedoaogovernoseorcamentodoestadochumbarrefhpoutrasnoticias divulgada terçafeira conclui culpa governo p culpa partido socialista culpa marcelo rebelo sousa</t>
+          <t>[Montenegro recusa estar a fazer “birra” – mas o povo culpa-o se o OE falhar](https://zap.aeiou.pt/montenegro-recusa-estar-a-fazer-birra-mas-o-povo-culpa-o-se-o-oe-falhar-634064)
+&gt;Uma sondagem da Intercampus para o [Correio da Manhã](https://www.cmjornal.pt/politica/detalhe/portugueses-apontam-dedo-ao-governo-se-orcamento-do-estado-chumbar?ref=HP_OutrasNoticias2), divulgada esta terça-feira, conclui que (...)
+&gt;**(37,4%) culpa o Governo**  
+**(PS): 31,2%** culpa o Partido Socialista  
+**10%** culpa de **Marcelo Rebelo de Sousa**</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -10399,7 +12626,8 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>view pollhttpswwwredditcompollgp</t>
+          <t xml:space="preserve">
+[View Poll](https://www.reddit.com/poll/1g420p1)</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -10419,7 +12647,8 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>conheço várias famílias pobres têm filhos problema obrigado</t>
+          <t>Conheço várias famílias pobres que têm filhos com este problema. 
+Obrigado</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -10439,7 +12668,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>olá cá casa acompanhado programa the floor rtp achamos engraçado formato diferente simple deixa expetativa ver vai chegar fim podem favoritos continuam eliminados etc surgido curiosidade todos programas concorrentes têm sempre mesma roupa supostamente cada programa realizado semana diferente porque palmeirim apresenta cada programa dessa forma assim então têm sempre mesma roupa manter personagem facilmente identificar concorrente pensam acham tudo gravado único dia fazem teatrinho tal fazer conta nova semana nada importante curiosidade vai mantendo vamos ver próximos programas têm outra roupa sim então porque dia gravaram x episódios noutro dia x episódios assim podiam ter disfarçado melhor levar roupa cada episódio então faziam conta supostamente passado semana bjs abraços</t>
+          <t>Olá!
+Cá em casa temos acompanhado o programa The Floor na RTP e achamos engraçado. Um formato diferente, simples, e que deixa na expetativa de ver quem é que vai chegar ao fim e aqueles que podem ser os nossos favoritos se continuam, se são eliminados, etc.
+Mas tem surgido uma curiosidade em todos os programas: os concorrentes têm sempre a mesma roupa. Supostamente cada programa é realizado numa semana diferente, porque o Palmeirim apresenta cada programa dessa forma. Ora, se assim é, então têm sempre a mesma roupa para manter a "personagem"? Para mais facilmente identificar o concorrente? Ou pensam como eu e acham que aquilo foi tudo gravado num único dia? E depois fazem aquele teatrinho e tal de fazer de conta que é uma nova semana 😄
+Não é nada de muito importante mas é uma curiosidade nossa que se vai mantendo. Vamos ver se nos próximos programas já têm outra roupa. Se sim, então é porque num dia gravaram x episódios, noutro dia mais x episódios. Mas se for assim podiam ter disfarçado melhor e levar uma roupa para cada episódio! Ou então, não faziam de conta que teria supostamente passado uma semana.
+Bjs / Abraços!</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -10459,7 +12692,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>pensar compram comer horas</t>
+          <t xml:space="preserve">Estava a pensar no que compram para comer a estas horas. </t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -10479,7 +12712,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>vez lebre vaidosa gostava gabar velocidade constantemente zombava outros animais especialmente lenta tartaruga suportava pacientemente provocações certo dia cansada humilhações tartaruga desafiou lebre corrida lebre segura venceria qualquer esforço aceitou desafio desdém todos animais floresta reuniram assistir corrida curiosos ver desfecho daquela competição inusitada corrida começou lebre disparou frente rapidez fulminante enquanto tartaruga fiel ritmo avançava lentamente perceber frente lebre decidiu descansar sombra árvore convencida tartaruga jamais alcançaria enquanto lebre dormia profundamente tartaruga parar determinação inabalável continuou caminho passo passo lebre acordou percebeu espanto tartaruga próxima linha chegada impulso desespero lebre correu rápido pôde tarde demais tartaruga cruzou linha chegada calma venceu corrida animais floresta aplaudiram feito extraordinário enquanto lebre envergonhada aprendeu valiosa lição perseverança humildade valem velocidade arrogância moral história devagar vai longe confiança excessiva pode obstáculo determinação constante caminho verdadeiro sucesso</t>
+          <t>Era uma vez uma lebre vaidosa que gostava de se gabar da sua velocidade. Constantemente, zombava dos outros animais, especialmente da lenta tartaruga, que suportava pacientemente as provocações.
+Certo dia, cansada das humilhações, a tartaruga desafiou a lebre para uma corrida. A lebre, segura de que venceria sem qualquer esforço, aceitou o desafio com desdém. Todos os animais da floresta se reuniram para assistir à corrida, curiosos para ver o desfecho daquela competição inusitada.
+Quando a corrida começou, a lebre disparou à frente com rapidez fulminante, enquanto a tartaruga, fiel ao seu ritmo, avançava lentamente. Ao perceber que estava muito à frente, a lebre decidiu descansar à sombra de uma árvore, convencida de que a tartaruga jamais a alcançaria.
+Enquanto a lebre dormia profundamente, a tartaruga, sem parar e com determinação inabalável, continuou o seu caminho, passo a passo. Quando a lebre acordou, percebeu, para seu espanto, que a tartaruga já estava muito próxima da linha de chegada.
+Num impulso de desespero, a lebre correu o mais rápido que pôde, mas já era tarde demais. A tartaruga cruzou a linha de chegada com calma e venceu a corrida. Os animais da floresta aplaudiram o feito extraordinário, enquanto a lebre, envergonhada, aprendeu uma valiosa lição: a perseverança e a humildade valem mais do que a velocidade e a arrogância.
+Moral da história: "Devagar se vai ao longe". A confiança excessiva pode ser um obstáculo, e a determinação constante é o caminho para o verdadeiro sucesso.</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -10499,7 +12737,8 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>café bebida popular portugal view pollhttpswwwredditcompollfnfik</t>
+          <t>É o café a bebida mais popular em Portugal?
+[View Poll](https://www.reddit.com/poll/1fnfik4)</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -10519,7 +12758,9 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>exigir devolução olivença espanha fazer acordo espanha entrega definitiva olivença porquê escolhem opção escolhem view pollhttpswwwredditcompollfkyph</t>
+          <t>Exigir a devolução de Olivença a Espanha ou fazer um acordo com Espanha para a entrega definitiva de Olivença?
+E porquê escolhem a opção que escolhem?
+[View Poll](https://www.reddit.com/poll/1fky2ph)</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -10539,7 +12780,8 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>edit finalidade destruição tumor congelar tumores vamos dar exemplo fibroadenoma alguém sabe custo ouvi custos americanos volta mil custos portuguese encontro nada internet sobre agradeço li algures poderá ficar mínimo mil hoje voltei confirmar info sendo coberto seguros certeza</t>
+          <t xml:space="preserve">Edit: finalidade é a destruição do tumor. Congelar tumores. Vamos dar o exemplo de um  fibroadenoma. Alguém sabe o custo? Já ouvi custos americanos por volta de 10 mil, mas custos portugueses não encontro nada na internet sobre isso! Agradeço. (Li algures que poderá ficar no mínimo 2 mil, mas hoje não voltei a confirmar essa info.) 
+isto sendo não coberto pelos seguros, mas não tenho a certeza? </t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -10559,7 +12801,10 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>boa forma aceder registo criminal outra pessoa ficar saber alguma outra maneira outra pessoa cometeu algum crime passado obrigada</t>
+          <t xml:space="preserve">
+Boas
+Há forma de aceder ao registo criminal de outra pessoa ou ficar a saber, de alguma outra maneira, se esta outra pessoa cometeu algum crime no passado?
+Obrigada</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -10579,7 +12824,9 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>basicamente pessoa passar tempo instituição doentes psiquiátricos sofre bullying abuso sexual outros pacientes sendo administração intervem quer sair trabalho ficar casa boa opção problemas familiares quê poderia fazer ocupar tempo enquanto arranja trabalho algo possa fazer durante várias horas ficar dia todo casa</t>
+          <t>Basicamente, esta pessoa está a passar o seu tempo em uma instituição para doentes psiquiátricos, mas sofre de bullying e abuso sexual de outros pacientes, sendo que a administração não intervem.  
+Ela quer sair mas não tem trabalho, ficar em casa também não é uma boa opção por problemas familiares, o quê que ela poderia fazer para ocupar o tempo enquanto não arranja trabalho?  
+Algo que possa fazer durante várias horas para ficar o dia todo fora de casa.</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -10599,7 +12846,8 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>acho super importante saber vosso gosto gastronómico beijos luz</t>
+          <t xml:space="preserve">Acho super importante saber o vosso gosto gastronómico 
+Beijos de luz 💡 </t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -10619,7 +12867,10 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>porque alguém começar começo feliz natal cheio prendas boa saúde paz amor senhor obrigado</t>
+          <t>Porque alguém tem que começar, começo eu:
+Um feliz Natal cheio de prendas e boa saúde.
+Haja paz no amor do nosso Senhor.
+Obrigado.</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -10639,7 +12890,8 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>alguém acabou sentir tremor terra dormir prédio abanou tal maneira cadelas acordamos logo minimamente forte nunca sentido assim</t>
+          <t xml:space="preserve">Alguém acabou de sentir o tremor de terra?!
+Estava a dormir e o meu prédio abanou de tal maneira que eu e as minhas cadelas acordamos logo. Este foi minimamente forte. Nunca tinha sentido um assim... </t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -10659,7 +12911,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>avô pastor</t>
+          <t>O meu avô foi pastor.</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -10679,7 +12931,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>amantes geografia europa tema totalmente consensual varia perspetiva cada país regiões europa x país faz parte região ex consideram hungria europa central europa leste curioso saber perspetiva portuguesa portanto fiz inquérito quiser perder minuto respondêlo daqui semana trago resultado partilhar aqui noutros sub estrangeiros costumo ver perspetivas outros países acho nunca fizeram cá pode traga cenas género link httpsformsglezxednasvzfberhttpsformsglezxednasvzfber httpspreviewredditqejhhpayggdpngwidthformatpngautowebpscdfffbaafcb</t>
+          <t xml:space="preserve">Para os amantes de Geografia (e não só), há pela Europa fora um tema que não é totalmente consensual e que varia da perspetiva de cada país, que são as Regiões da Europa *(x país faz parte de que região? ex: consideram a Hungria como Europa Central ou Europa do Leste)*.
+Estou curioso em saber qual é a perspetiva portuguesa, portanto fiz um inquérito para quem quiser perder 1 minuto a respondê-lo e daqui a uma semana trago o resultado para partilhar aqui e noutros subs estrangeiros,.
+Costumo ver perspetivas de outros países mas acho que nunca fizeram isto por cá, e pode ser que se traga mais cenas do género. O link é este -&gt; [https://forms.gle/zXEd2nASVzF1B4ER7](https://forms.gle/zXEd2nASVzF1B4ER7)
+https://preview.redd.it/qejhhpa4yggd1.png?width=884&amp;format=png&amp;auto=webp&amp;s=83cdff1fb8876132a9101a6f4125269c3b752963
+</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -10699,7 +12955,8 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>basicamente total título vez vi tv programa onde limpavam moedas antigas escuras ficavam parecer nova tempo esquecime produtos usavam procedimentos alguém sabe obrigado</t>
+          <t>Basicamente o total título. Uma vez vi na TV um programa onde limpavam moedas antigas escuras e ficavam a parecer novas, mas já foi há muito tempo e esqueci-me dos produtos que usavam e dos procedimentos. Alguém sabe como é?
+Obrigado.</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -10719,7 +12976,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>sabe ferramenta usada</t>
+          <t xml:space="preserve">Quem sabe que ferramenta é esta e para que era usada ? </t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -10739,7 +12996,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>ante dizerem ladrar morde espera morda estarem finos</t>
+          <t>Antes de dizerem “é só ladrar mas não morde”… estão à espera que morda para depois estarem finos?</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -10759,7 +13016,8 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>pena ter conta cgd ponto final parece suspeito nota</t>
+          <t xml:space="preserve">Pena eu não ter conta na CGD. O ponto final também me parece suspeito. Nota 2.
+</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -10779,7 +13037,9 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>pensar entrar universidade boa fazer primeiro ano nessa universidade repetir exame nacional entrar universidade melhor boa ideia</t>
+          <t xml:space="preserve">
+Estou a pensar entrar numa universidade "não muito boa" e fazer o primeiro ano  nessa universidade e depois repetir o exame nacional e entrar numa universidade melhor.
+É uma boa ideia?</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -10799,7 +13059,14 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>filho mãe lê muitos livros vejoa sempre ler ken follett jeffrey archer outros livros leitores ávidos infelizmente herdei hábito acho maioria rapazes hoje dia gostam videojogos desporto gosto ver euro jogar nintendo assim recentemente vi vídeo benefícios leitura cérebro saber fez sentir bem porque sinto perdi oportunidade pessoas inteligentes benefícios incluem escrever melhores textos vocabulário maior aumento inteligência geral mim benefício importante capaz ler textos longos algo poucas pessoas conseguem fazer importante faculdade escola quer trabalhador sucesso diria ainda importante matemática biologia física gostava poder ler dia sintome pouco envergonhado porque nunca visto ler porque capacidade ler textos longos parar aqui alguém faça sentir melhor gostava sinceramente única pessoa frustrada aproveitar benefícios literatura</t>
+          <t xml:space="preserve">
+Sou filho de uma mãe que lê muitos livros (vejo-a sempre a ler Ken Follett, Jeffrey Archer e outros livros para leitores ávidos).
+Infelizmente, não herdei esse hábito e sou como (acho eu) a maioria dos rapazes de hoje em dia que gostam de videojogos ou de desporto (gosto de ver o Euro e de jogar Nintendo e assim)
+Recentemente, vi um vídeo dos benefícios da leitura para o cérebro e saber isso não me fez sentir bem porque sinto que perdi a oportunidade de ser como as pessoas mais inteligentes.
+Esses benefícios incluem: escrever melhores textos, um vocabulário maior e um aumento da inteligência geral.
+Para mim, o benefício mais importante é ser capaz de ler textos longos, algo que poucas pessoas conseguem fazer e que é muito importante na faculdade ou escola ou se se quer ser um trabalhador de sucesso (diria que é ainda mais importante do que a matemática, a biologia e a física).
+Gostava de poder ler um dia, mas sinto-me um pouco envergonhado porque nunca fui visto a ler e porque não tenho capacidade para ler textos longos sem parar.
+Há aqui alguém que me faça sentir melhor?, gostava sinceramente de não ser a única pessoa frustrada por não aproveitar os benefícios da literatura.</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -10819,7 +13086,11 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>boa queria saber posso fazer jogar lixo medicamentos podem necessários alguém específico caixas nova alprazolam xanax validade cerca ano partir agora poderiam ajudar farmácias recolhem centros ajuda psiquiátrica centro saúde centros apoio á comunidade obrigada</t>
+          <t xml:space="preserve">Boas,
+Queria saber o que posso fazer para não jogar no lixo medicamentos que podem ser necessários para alguém.
+No específico tenho 3 caixas novas de Alprazolam (Xanax) 0,50, com validade de cerca de 2 anos a partir de agora.
+Poderiam me ajudar? Farmácias que recolhem? Centros de ajuda psiquiátrica? Centro de saúde? Centros de apoio á comunidade?
+Obrigada :) </t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -10839,7 +13110,10 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>httpswwwjnpttrabalhoartisticoestaaaumentarentreascriancas solicitações maioritariamente atores músicos pressão mediática preocupa especialistas apesar trabalho menores idade escolar proibido portugal número comunicações participação crianças atividades culturais artísticas publicitárias pedidas comissões proteção crianças jovens cpcj têm vindo aumentar sobretudo idades precoces cinco ano</t>
+          <t>https://www.jn.pt/985471865/trabalho-artistico-esta-a-aumentar-entre-as-criancas/
+Solicitações são maioritariamente para atores e músicos. Pressão mediática preocupa especialistas.
+Apesar de o trabalho de menores em idade escolar ser proibido em Portugal, o número de comunicações de participação de crianças em atividades culturais, artísticas ou publicitárias pedidas às comissões de proteção de crianças e jovens (CPCJ) têm vindo a aumentar, sobretudo em idades muito precoces, até aos cinco anos.
+...</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -10859,7 +13133,14 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>httpswwwrfifrbrmundoguantcanamoisraelensemcadicodenunciacondicacbesdesumanasdedetencacaodeprisioneirospalestinos prisioneiros olhos vendados nu vestidos fraldas amarrados camas operados anestesia existe guantánamo estilo israelense entrevista rádio pública france info médico israelense relatum sob anonimato condições detenção palestinos base militar sde teiman localizada deserto negev sul israel doi meses ongs direitos humanos israelenses denunciam condições detenção sde teiman localizada quilômetros faixa gaza algumas organizações comparam base militar israel campo prisioneiros administrado governo americano cuba onde enviados acusados envolvimento terrorismo após ataques setembro estados unidos nesta segundafeira entrevista rádio france info médico pôde visitar instalações sde teiman conta viu detidos tratados ali seres humanos diz cirurgião israelense entrou base militar hora pedido exército atender paciente gravemente ferido arma fogo descobriu estrutura separada doi espaços presídio hospital campanha pacientes têm nome dispostos duas filas detentos todos amarrados permanecem deitados camas podem mover têm olhos vendados nu usam fraldas descreve clara violação convenção genebra código ética organização mundial saúde tortura física psicológica denuncia cirurgião israelense</t>
+          <t xml:space="preserve">https://www.rfi.fr/br/mundo/20240603-guant%C3%A1namo-israelense-m%C3%A9dico-denuncia-condi%C3%A7%C3%B5es-desumanas-de-deten%C3%A7%C3%A3o-de-prisioneiros-palestinos
+Prisioneiros "com os olhos vendados”, "nus", "vestidos com fraldas", “amarrados às suas camas” e "operados sem anestesia": existe uma Guantánamo ao estilo israelense? Em entrevista à rádio pública France Info, um médico israelense relata, sob anonimato, as condições de detenção de palestinos na base militar de Sde Teiman, localizada no deserto de Negev, no sul de Israel.
+Há dois meses, ONGs de direitos humanos israelenses denunciam as condições de detenção em Sde Teiman, localizada a 30 quilômetros da Faixa de Gaza. Algumas organizações comparam esta base militar de Israel ao campo de prisioneiros administrado pelo governo americano em Cuba, para onde foram enviados acusados de envolvimento com terrorismo, após os ataques de 11 de setembro de 2001 nos Estados Unidos.  
+Nesta segunda-feira (3), em uma entrevista à rádio France Info, um médico que pôde visitar as instalações de Sde Teiman conta o que viu. “Os detidos não são tratados ali como seres humanos”, diz ele. 
+O cirurgião israelense entrou na base militar por uma hora, a pedido do exército, para atender um paciente gravemente ferido por arma de fogo. Ele descobriu uma estrutura separada em dois espaços: um presídio e um hospital de campanha.
+"Os pacientes não têm nomes. Estão dispostos em duas filas. São entre 15 e 20 detentos. Estão todos amarrados e permanecem deitados nas camas. Não podem se mover. Têm os olhos vendados. Estão nus. Usam fraldas", descreve.
+“É uma clara violação da Convenção de Genebra e do código de ética da Organização Mundial da Saúde. É uma tortura física e psicológica”, denuncia o cirurgião israelense.
+</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -10879,7 +13160,10 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>boa pessoal relação ano onde dividiamos casa relação começou descambar ter descoberto traição acompanhando tempo poi parou logo outras falhas entretanto terminei poi apanhei treinar mesma gaja ginásio privado ambo treinador consegui lidar fiz sentia momento separados á meses nestes meses continuou falar comigo julguem porque amo poi mesmos amigo fingir tinhamos acabado afins desde semana passada diz firmemente acabou achei estranha mudança repentina bastante previsível porque perguntasse alguém falar sinceramente nunca conseguiu ontem descobri fala anda outra sei provas saber tipo pessoa sei vale nada consigo evitar sofrer porque amo agora desta descoberta arrasada irei lidar assumir relação vez dar meses superar continuou alimentar esperança agora decidiu seguir vida ja alguém passou fim namoro outra pessoa assumiu logo outra nao sei fazer lidar superar</t>
+          <t xml:space="preserve">Boas pessoal,
+Estive numa relação de 7 anos, onde já dividiamos casa. A relação começou a descambar depois de ter descoberto uma traição( que fui acompanhando com o tempo, pois não parou logo) e entre outras falhas. 
+Entretanto terminei pois o "apanhei" a treinar com essa mesma gaja num ginásio privado ( ambos e o treinador), não consegui lidar e fiz o que sentia no momento. Estamos separados á 3 meses, nestes 3 meses continuou a falar comigo ( não me julguem porque o amo...) , a estar pois temos os mesmos amigos, a fingir que não tinhamos acabado e afins. Desde a semana passada que diz firmemente que acabou , achei estranha a mudança repentina mas bastante previsível porque por mais que perguntasse se tinha alguém ou para falar sinceramente, nunca o conseguiu ser. Ontem descobri que fala ou anda com outra. Sei que tive provas para saber o tipo de pessoa que é e sei que não vale nada, mas não consigo evitar sofrer porque o amo. E agora depois desta descoberta estou arrasada, como irei lidar com ele a assumir uma relação quando em vez de me dar estes 3 meses para superar continuou a alimentar a minha esperança e agora decidiu seguir a vida dele. Ja alguém passou por um fim de namoro em que a outra pessoa assumiu logo outra?
+ Nao sei o que fazer para lidar e superar... </t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -10899,7 +13183,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>httpspreviewredditcmlrwwmrdjpgwidthformatpjpgautowebpscbfecdccbebaeceef fontes httpsenwikipediaorgwikilistofcountriesbyseafoodconsumptionhttpsenwikipediaorgwikilistofcountriesbyseafoodconsumption httpsenwikipediaorgwikilistofcountriesbymeatconsumptionhttpsenwikipediaorgwikilistofcountriesbymeatconsumption un comilões</t>
+          <t xml:space="preserve">https://preview.redd.it/cmlrwwm41r3d1.jpg?width=1051&amp;format=pjpg&amp;auto=webp&amp;s=6c76b396f5389ecdcc1b7ebae8c9e4730e10566f
+Fontes: 
+[https://en.wikipedia.org/wiki/List\_of\_countries\_by\_seafood\_consumption](https://en.wikipedia.org/wiki/List_of_countries_by_seafood_consumption)
+[https://en.wikipedia.org/wiki/List\_of\_countries\_by\_meat\_consumption](https://en.wikipedia.org/wiki/List_of_countries_by_meat_consumption)
+Somos uns comilões. </t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -10919,7 +13207,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>segundo li tempo sofre bullying escolas imigrantes homossexuais outras minorias obesos infelizmente muitas crianças gostam fazer bullying qualquer potencial vitima sintam fraca pode alvo crianças muitas vezes crueis muitos casos pais apercebem disso porque sofrimento crianças gordas escolas incomoda ninguem bullying sobre gordos lev aumentem casos anorexia ninguem família gordo</t>
+          <t>Segundo li em tempos quem mais sofre bullying nas escolas não são os imigrantes nem os homossexuais, nem outras minorias, são os obesos.
+Infelizmente muitas  **crianças** gostam de fazer​ bullying e qualquer potencial vitima que sintam mais fraca pode ser um alvo. As crianças são muitas vezes crueis e em muitos casos os pais delas nem se apercebem disso.
+Porque é que o sofrimento das crianças gordas nas escolas não incomoda ninguem?
+O bullying sobre os gordos também leva a que aumentem os casos de anorexia.
+Não tenho ninguem na família gordo</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -10939,7 +13231,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>embora nascido lisboa família originária concelho arcos valdevez ponte barca</t>
+          <t>Embora tenha nascido em Lisboa, a minha família é originária do concelho de Arcos de Valdevez e também de Ponte da Barca.</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -10959,7 +13251,13 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>voluntariado ajudar famílias pobres vou conhecendo muitas pessoas boa outras más toda raças etnias duas famílias origem angolana vieram pedir ajuda moram apartamento irmãs irmãs irmãs porque cultura angolana primo considerados irmãos ambas separadas filhos outra família dorme quarto outra outro terceiro quarto vive outra família relações parentesco angolana duas vieram pedirnos ajuda pagam cada euro quarto pagaram euro durante un tempo familiar enganouas disselhes custo quarto imigraram angola cá vindo morar apartamento pagava aluguer senhorio euro quarto ficava diferença poi conheciam senhorio obviamente situação durou muitos meses poi acabaram conhecer senhorio falar queixarse valor aluguer quarto perceber enganadas familiar vigarista expulsa casa senhorio destas duas famílias mulher empregada outra ainda procura emprego crianças inscritas escola decidimos ajudar alimentos roupa mobília incluindo camas colchões poi dormir chão louça mulher ainda desempregada conseguir arranjar emprego angolana traidora mudarse local ajudado chegou durante alguns meses conseguir emprego avisado outra familiar feitio complicado assim esperava comportamento tão vil</t>
+          <t xml:space="preserve">No meu voluntariado a ajudar famílias pobres vou conhecendo muitas pessoas, umas boas, outras más.
+Isto em todas as raças e etnias. 
+Duas famílias de origem angolana vieram pedir ajuda. Moram num apartamento. São "irmãs". "Irmãs" e não irmãs porque para a cultura angolana os primos são considerados irmãos. Ambas separadas, uma com 2 filhos e outra com um. Uma família dorme num quarto, outra no outro. Num terceiro quarto vive outra família, sem relações de parentesco com esta, mas também angolana. 
+Estas duas vieram pedir-nos ajuda. Pagam cada uma 350 euros por quarto. Mas pagaram 500 euros durante uns tempos. Uma familiar delas enganou-as e disse-lhes que era esse o custo do quarto quando imigraram de Angola para cá, vindo morar no mesmo apartamento que ela. Pagava o aluguer ao senhorio, 350 euros por quarto e ficava com a diferença para ela, pois elas não conheciam o senhorio. 
+Obviamente a situação não durou muitos meses, pois elas acabaram por conhecer o senhorio, falar com ele, queixar-se do valor do aluguer do quarto e perceber que estavam a ser enganadas. A familiar vigarista foi expulsa da casa pelo senhorio.
+Destas duas famílias, uma mulher já está empregada. A outra ainda procura emprego. As crianças já estão inscritas na escola. Decidimos ajudar com alimentos (e roupa, mobília, incluindo 3 camas e 3 colchões pois estavam a dormir no chão, e louça). Até a mulher ainda desempregada conseguir arranjar um emprego. 
+A angolana traidora teve de mudar-se de local. Também a tínhamos ajudado quando chegou, durante alguns meses até conseguir um emprego. Já me tinham avisado, outra familiar dela, que esta tinha um feitio complicado, mas mesmo assim não esperava que tivesse um comportamento tão vil. </t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -10979,7 +13277,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>alguém quiser falar so mandar mensagem</t>
+          <t xml:space="preserve">Se alguém quiser falar é so mandar mensagem </t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -10999,7 +13297,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>bom dia criar servidor discord convivio cidade porto objetivo reunirmos compartilhar dicas locais organizar encontros promover boa amizades moras porto interessado conectareste pessoas locais vêm fazer parte clique aqui juntar httpsdiscordggrhmtpmrmqhttpsdiscordggrhmtpmrmq esperamos conhecer breve</t>
+          <t>Bom dia!! Estamos a criar um servidor no discord para convivio na cidade do Porto, com o objetivo de nos reunirmos, compartilhar dicas locais, organizar encontros e promover boas amizades. Se moras no Porto ou estas interessado em conectares-te com pessoas locais, vêm fazer parte! Clique aqui para se juntar: [https://discord.gg/rhmtpMrm8q](https://discord.gg/rhmtpMrm8q) Esperamos vos conhecer em breve!</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -11019,7 +13317,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>jovem ambição empreender começar negócio zero gostaria conectar pessoas construíram negócios sucesso poder dar conselhos insight bem algumas orientações realmente apreciaria porque preciso disso</t>
+          <t xml:space="preserve"> Sou um jovem que tem a ambição de empreender e começar um negócio do zero e gostaria de me conectar com pessoas que já construíram negócios de sucesso para poder me dar conselhos e insights, bem como algumas orientações. Eu realmente apreciaria porque preciso disso. </t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -11039,7 +13337,8 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>xb jornal notícias abril httpspreviewredditnjiwmgdwcjpgwidthformatpjpgautowebpsadcfdfdadbdacbd</t>
+          <t>&amp;#x200B;
+[Jornal de Notícias 22 de abril de 2024](https://preview.redd.it/nji73wmgd0wc1.jpg?width=1490&amp;format=pjpg&amp;auto=webp&amp;s=a67019dc15f1d2269220f4d3adb06d8ac6056bd7)</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -11059,7 +13358,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>bom dia malta gostaria saber evitar toda doenças aparecem usualmente velhice indiquei colesterol diabetes usualmente hipertensão tambem etc posso dar luxo tomar medicamentos fazem pernas inchadas</t>
+          <t xml:space="preserve">Bom dia malta, gostaria de saber como evitar todas estas doenças que aparecem usualmente na velhice. Como indiquei, colesterol, diabetes, usualmente hipertensão tambem; etc. não posso me dar ao luxo de tomar medicamentos que fazem as pernas mais inchadas.  </t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -11079,7 +13378,15 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>httpscortafitasblogssapoptepursimuovehttpscortafitasblogssapoptepursimuove joão távora leitura faço história portugal primeira metade séc xx fico ideia clara salazar limitou governar centro onde empurram sempre ventos história entendimento chamado centro política simplesmente pensamento dominante determinada época luta política actores lideranças sectárias promoção determinado modelo ideias espaço centro definido maioria politicasociológica regime suportam determinada época quero dizer simplificando estado novo correspondeu durante duas décadas expectativas grande maioria população portuguesa estado novo promoveu catolicismo limitouse surfar religiosidade grande maioria portuguese puritano grande maioria desses portuguese grande medida repressão exagerada aconteceu leste europa estado novo simplesmente espelho expectativas portuguese tempo revolucionários república acolheram aclamaram vista felicidade prosperidade económica esperança vida melhor ponto partida baixo determinou aquiescência popular àquele regime autoritário fundo fundo estado novo tempo auge politicamente correcto experiência rua concede coincide perfil portuguese grande maioria pouco ideológica menos ainda sectária acredito pouco sucesso movimentações partidárias pretendem mudar força ortopedicamente centro político portuguese quero dizer educadores povo partidos políticos comunicação social têm genericamente pouco sucesso intenções intui exemplo tempo covid tentei explicar dia destes almoço amigo reacionários digamos assim sucesso vencia naquela mesa tese epidemia covid sido conspiração governos ocidentais maquiavelicamente subjugar talvez através vacinas cariz duvidoso povo ignaro talvez motivados interesses obscuros grandes laboratórios contra argumentava independentemente avaliação verdadeiro grau severidade crise sanitária governos medidas si implementadas limitaram corresponder expectativas populações dentro condicionamentos económicos culturais vejase aconteceu boris johnson cuja displicência inicial escândalos finais liquidaram politicamente medidas implementadas governos menos repressivas persecutórias liberais antiliberais incluindo campanhas vacinação abraçadas desejadas exigidas grande centrão político cada país grande critério científico outro resto quanto resultados diferentes estratégias bem sabemos estatísticas bem torturadas darão cada pretenda serve dizer acho vale pena batalharse ideias cada defende tentar influenciar centrão politicamente correcto oprime cada época sendo certo ingénuo quererse mudar direcção vento mãos história provanos saciedade mudamse tempo mudamse vontades tento explicar exemplo dado primeiro parágrafo ventos mudam afrontando irrelevância vontade cada sempre melhor entendase centro movese desde pareça moderno cada geração xb</t>
+          <t>[https://corta-fitas.blogs.sapo.pt/e-pur-si-muove-8217272](https://corta-fitas.blogs.sapo.pt/e-pur-si-muove-8217272)
+&gt; por João Távora, em  17.04.24   
+&gt;  
+&gt; Da leitura que faço da história de Portugal na primeira metade do  Séc. XX, fico com a ideia clara de que Salazar se limitou a governar ao  “centro” que é para onde empurram sempre os ventos da História. Tenho o  entendimento de que o chamado “centro” em política é simplesmente o  pensamento dominante em determinada época. Ou seja, a luta política  pelos seus actores e lideranças sectárias, não é mais do que a promoção  de um determinado modelo de ideias no espaço do centro, que é definido  pela maioria politica-sociológica em que os regimes se suportam numa  determinada época. Quero eu dizer, simplificando muito, que o Estado  Novo correspondeu durante mais de duas décadas às expectativas da grande  maioria população portuguesa. O Estado Novo não promoveu o catolicismo,  limitou-se a surfar a religiosidade da grande maioria dos portugueses,  não era mais puritano que a grande maioria desses portugueses. Em grande  medida, sem uma repressão exagerada como aconteceu a leste da Europa, o  Estado Novo foi simplesmente o espelho das expectativas dos portugueses  que, depois dos tempos revolucionários da 1ª República, o acolheram e  aclamaram com vista à sua felicidade. Não foi só a prosperidade  económica e a esperança numa vida melhor (o ponto de partida era muito  baixo) que determinou a aquiescência popular àquele regime autoritário.  No fundo, no fundo, Estado Novo foi, ao seu tempo e no seu auge,  “politicamente correcto”.  
+&gt;  
+&gt;A experiência que a rua me concede  coincide com este perfil dos portugueses. A sua grande maioria é muito  pouco ideológica e menos ainda sectária. Acredito pouco no sucesso das  movimentações partidárias que pretendem mudar à força (ortopedicamente)  esse “centro” político dos portugueses. Quero eu dizer que os  “Educadores do Povo”, sejam eles partidos políticos, ou a Comunicação  Social, têm genericamente pouco sucesso nas suas intenções. Foi isso que  intui, por exemplo nos tempos da Covid, e que tentei explicar um dia  destes num almoço de amigos “reacionários”, digamos assim, sem sucesso.  Vencia naquela mesa a tese de que a epidemia de Covid teria sido uma  conspiração dos governos ocidentais para maquiavelicamente subjugar,  talvez através de vacinas de cariz duvidoso, o povo ignaro. Talvez  motivados pelos interesses obscuros dos grandes laboratórios. Contra  isso, argumentava eu que, independentemente da avaliação do verdadeiro  grau severidade da crise sanitária, os governos e as medidas por si  implementadas se limitaram a corresponder às expectativas das populações  dentro dos seus condicionamentos económicos e culturais. Veja-se o que  aconteceu a Boris Johnson, cuja displicência inicial e os escândalos  finais o liquidaram politicamente. As medidas implementadas pelos  governos, mais ou menos repressivas ou persecutórias, liberais ou  antiliberais, incluindo as campanhas de vacinação, foram aquelas que  foram abraçadas, desejadas e exigidas pelo grande “centrão” político de  cada país, sem grande critério científico ou outro. De resto, quanto aos  resultados das diferentes estratégias, bem sabemos como as estatísticas  bem torturadas, darão aquilo que cada um pretenda.  
+&gt;  
+&gt;Serve isto  para dizer que acho que não vale a pena batalhar-se pelas ideias que  cada um defende, tentar influenciar o centrão politicamente correcto que  nos oprime a cada época? Sendo certo que é ingénuo querer-se mudar a  direcção do vento com as mãos, a história prova-nos à saciedade que  mudam-se os tempos e mudam-se as vontades. Como tento explicar pelo  exemplo dado no primeiro parágrafo, os ventos mudam, afrontando a  irrelevância da vontade de cada um. Nem sempre para melhor, entenda-se, o  “centro” move-se. Desde que pareça moderno a cada geração.
+&amp;#x200B;</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -11099,7 +13406,9 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>jornal prestigiado portugal acreditou palavra primeiro ministro durante dia repetese desde décadas democracias ocidentais trocar governo mente gosta outro mente vai gostar vez repetese teatro esperança totalmente irracional fazendo mesma coisa milagre produza diferentes resultados</t>
+          <t>O jornal mais prestigiado em Portugal, só acreditou na palavra do primeiro ministro durante 30 dias.
+Isto repete-se desde há décadas nas democracias ocidentais. Trocar um governo que mente e de que não se gosta, por outro que mente e de que não se vai gostar.
+De vez em quando repete-se este teatro, com a esperança totalmente irracional que fazendo a mesma coisa por milagre produza diferentes resultados.</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -11119,7 +13428,15 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>lido agorinha boa constantemente receber mensagens bastante vagas consultoras pequenas sobre projetos quais pensam encaixe sugerir marcar call trabalho consultora big primeiro pensamento nunca vai valer pena entreter tipo propostas sei porque nunca entretive nenhuma alguém passado situação consegue partilhar fazer bem ignorar pode ouro pote thx edit deixar funfact brincadeira toda conversa marcada range salarial acima salario nbsp escrever português menos estilo porque vê cada vez parolices stayaway covid boa constantemente receber mensagens bastante vagas consultoras pequenas sobre projetos quais pensam encaixe sugerir marcar entrevista trabalho consultora grandes primeiro pensamento nunca vai valer pena dar corda tipo propostas sei porque nunca alimentei nenhuma alguém passado situação consegue partilhar fazer bem ignorar pode ouro pote obrigado nota deixar curiosidade brincadeira toda conversa marcada intervalo salarial acima salario</t>
+          <t>Lido agorinha mesmo:
+Boas, estou constantemente a receber mensagens bastante vagas de consultoras pequenas sobre projetos para os quais pensam que eu tenha encaixe e a sugerir marcar uma call. Eu trabalho numa consultora, das big. O meu primeiro pensamento é que nunca vai valer a pena entreter este tipo de propostas. Mas eu não sei isso porque nunca entretive nenhuma. Alguém que tenha passado por esta situação consegue partilhar se estou a “fazer bem” em ignorar ou até pode haver ouro no pote?
+Thx.
+Edit: Só deixar o fun-fact. Com esta “brincadeira” toda já tenho uma conversa marcada com um range salarial 35% acima do meu salario.
+&amp;nbsp;
+Escrever em português tem menos estilo? Porque é que se vê cada vez mais, parolices como a do Stayaway Covid? 
+Boas, estou constantemente a receber mensagens bastante vagas de consultoras pequenas sobre projetos para os quais pensam que eu tenha encaixe e a sugerir marcar uma entrevista. Eu trabalho numa consultora, das grandes. O meu primeiro pensamento é que nunca vai valer a pena dar corda a este tipo de propostas. Mas eu não sei isso porque nunca alimentei nenhuma. Alguém que tenha passado por esta situação consegue partilhar se estou a “fazer bem” em ignorar ou até pode haver ouro no pote?
+Obrigado.
+Nota: Só deixar a curiosidade. Com esta “brincadeira” toda já tenho uma conversa marcada com um intervalo salarial 35% acima do meu salario.</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -11139,7 +13456,10 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>partilhem aqui vossas opiniões sobre filmes séries documentários etc vêm fizerem algum spoiler ocultemno senão fizerem apagar comentário post ficará ver afixado</t>
+          <t xml:space="preserve">Partilhem aqui as vossas opiniões sobre os filmes, séries, documentários, etc, que vêm. 
+Se fizerem algum spoiler ocultem-no., senão: 
+&gt;!Se não o fizerem teremos de apagar o comentário. !&lt;
+Este post ficará, até ver, afixado.  </t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -11159,7 +13479,9 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>motivações ter dividas amortizar máximo possivel ch livrarme destas instituições prioridade máxima</t>
+          <t xml:space="preserve">Esta é uma das minhas motivações para não ter dividas e amortizar o máximo possivel o CH.
+Livrar-me destas instituições é prioridade máxima. 
+</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -11179,7 +13501,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>nome alterado resto verdadeiro menos assim contam lá terra pequenamédia cidade interior júlio couves sei ainda vivo longo historial aldrabices calotes corrupção criado monte dívidas passado tudo nome mulher tendo ante divorciado sempre viveram junto ainda cima acha achava vigarices fazia sinal inteligência contava algumas tom bravata amigo poi júlio alturas abril achou portugal ía comunista governado partido comunista português ladrão ideologia apenas ganância inscreverse pcp ainda conseguiu nomeado cargo público durante auge poder pcp tornou evidente pcp iria dominar país concelho junta freguesia redondezas júlio couves tornou ativo tóxico qualquer partido deixou vida política continuou vida empregado pequena empresa onde dizer verdade nunca constou roubasse nada posição pudesse fazer pequenas grandes vigarices partidos poder atraem muitos júlios couves entram partidos pensar partidos podem oferecer importarem oferecem honestamente desonestamente</t>
+          <t xml:space="preserve">O nome foi alterado, mas o resto é verdadeiro. Pelo menos é assim que o contam lá na terra, uma pequena/média cidade do interior.
+O Júlio das Couves tem ou tinha, não sei se ainda é vivo, um longo historial de aldrabices, calotes e corrupção. Terá criado um monte de dívidas, passado tudo para o nome da mulher, tendo depois ou antes se divorciado, mas sempre viveram juntos. Ainda por cima acha ou achava que as vigarices que fazia eram sinal de inteligência e contava algumas delas em tom de bravata entre os amigos.
+Pois o Júlio por alturas do 25 de abril de 1974 achou que Portugal ía ser comunista, governado pelo Partido Comunista Português. Ladrão não tem ideologia, tem apenas ganância e foi inscrever-se no PCP. 
+Ainda conseguiu ser nomeado para um cargo público durante o auge do poder do PCP. 
+Depois quando se tornou evidente que o PCP não iria dominar o país, nem o concelho, nem a junta de freguesia das redondezas e o Júlio das couves se tornou um ativo tóxico para qualquer partido deixou a vida política e continuou na sua vida de empregado numa pequena empresa, onde a dizer verdade nunca constou que roubasse nada, mas também não estava numa posição que o pudesse fazer, e de pequenas e grandes vigarices. 
+Os partidos de poder atraem muitos Júlios das Couves, que entram para os partidos a pensar no que esses partidos lhes podem oferecer... e sem se importarem muito se o oferecem honestamente ou desonestamente </t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -11199,7 +13526,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>estudantes ano licenciatura psicologia faculdade psicologia universidade lisboa âmbito unidade curricular estatística aplicada psicologia realizar estudo sobre satisfação relação resultados últimas eleições foco diferentes faixas etárias pedimos colaboração solicitamos partilhe estudo familiares idade avançada casa ano cima questionário breve duração minutos respostas essenciais compreendermos diversas perspetivas eleições garantimos confidencialidade informações utilização exclusiva fin académicos participação anónima voluntária pode decidir desistir qualquer momento necessidade justificar decisão agradecemos antecipadamente colaboração httpsdocsgooglecomformsdefaipqlsepcfevlweuylmmkdeypokalntiruyrkxakzyyaviewformhttpsdocsgooglecomformsdefaipqlsepcfevlweuylmmkdeypokalntiruyrkxakzyyaviewform</t>
+          <t>Somos estudantes do 1º ano de Licenciatura em Psicologia na Faculdade de Psicologia da Universidade de Lisboa e, no âmbito da Unidade Curricular de Estatística Aplicada à Psicologia, estamos a realizar um estudo sobre a satisfação em relação aos resultados das últimas eleições, com foco nas diferentes faixas etárias. Pedimos a sua colaboração e solicitamos que partilhe este estudo com familiares de idade mais avançada na casa dos 60 anos para cima.
+O questionário é breve, com duração de 2-3 minutos, e as suas respostas são essenciais para compreendermos as diversas perspetivas nas eleições.
+Garantimos a confidencialidade das informações e a utilização exclusiva para fins académicos. A participação é anónima e voluntária, pelo que pode decidir desistir a qualquer momento, sem que haja necessidade de justificar a sua decisão
+Agradecemos antecipadamente a sua colaboração!
+[https://docs.google.com/forms/d/e/1FAIpQLSePCFeVlWE2uyLmmKdEYP\_O4kaLnTIrU9YRK1x6AK67Z-YY3A/viewform](https://docs.google.com/forms/d/e/1FAIpQLSePCFeVlWE2uyLmmKdEYP_O4kaLnTIrU9YRK1x6AK67Z-YY3A/viewform)</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -11219,7 +13550,9 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>preciso pulseira geolocalizadora familiar demência pulseira cinto etc preciso algo traga permanentemente permita saber onde caso perder recomendam</t>
+          <t>Preciso de uma pulseira geolocalizadora para um familiar com demência. Pulseira, cinto, etc. 
+Preciso de algo que ele traga permanentemente e permita saber onde está no caso de se perder.
+Que recomendam?</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -11239,7 +13572,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>xenofobo presidente fundação manuel santos</t>
+          <t>Também é xenofobo o presidente da Fundação Manuel Dos Santos?</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -11259,7 +13592,9 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>boa sei bem subreddit publicar pareceume fazer sentido então português expatriado desde jovem sei sobre história país agora procura recomendações livros sobre estado novo calhar abordando últimos ish ano portugal contenham algum contexto histórico sobre surgiu acabou obrigado</t>
+          <t xml:space="preserve">Boas,   
+Não sei bem em que subreddit publicar isto, mas este pareceu-me fazer sentido. Então, sou um português expatriado desde jovem e não sei muito sobre a história do país. Agora estava à procura de recomendações  de livros sobre o Estado Novo, se calhar abordando os últimos 100-ish anos de Portugal, e que também contenham algum contexto histórico sobre por que surgiu e por que acabou.   
+Obrigado!   </t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -11279,7 +13614,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>saber azeite comprar realmente bom basta dizer extra virgem tvi notícias iolpthttpstviiolptnoticiasescolherazeitecomprarazeitecomosaberseoazeitequeestaacomprarerealmentebomnaobastadizerextravirgemdbdeafafb</t>
+          <t xml:space="preserve"> [Como saber se o azeite que está a comprar é realmente bom (não basta dizer extra virgem) - TVI Notícias (iol.pt)](https://tvi.iol.pt/noticias/escolher-azeite/comprar-azeite/como-saber-se-o-azeite-que-esta-a-comprar-e-realmente-bom-nao-basta-dizer-extra-virgem/20240224/65d77b26d34e65afa2fb1821) </t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -11299,7 +13634,13 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>ultima decisão caso sócrates colectivo juízes disse corrupção coloca escrito natural feito conversas deixar rastro provas corruptor burro faria contrato condições corrupção julgamentos baseiam prova indirecta algo ter acontecido desafia lógica racionalidade porque aconteceu fizermos deixem gastem dinheiro perseguir corrupção declarem lei selva oficial portugal vêse juizes ivo rosa comentários ai podese pagar metade preço mercado receber mihões euro explicação tudo absolvido falta provas menos exista documento escuta diz doute negócio dásme mil euro nbsp roubo duma televisão precisos documentos alguém assalta loja duas ruas frente policia apanhame correr televisão mão nenhum juiz absolve falta prova documentai</t>
+          <t>Na ultima decisão do caso Sócrates o colectivo de juízes disse que a corrupção não se coloca por escrito. Como é natural é feito por conversas para não deixar rastro e provas.
+Só um corruptor muito burro, faria um contrato com as condições da corrupção.
+Por isso os julgamentos se baseiam em prova indirecta. Quando algo para não ter acontecido desafia a lógica e racionalidade, é porque aconteceu.
+Se não fizermos isso, deixem de gastem dinheiro a perseguir a corrupção, e declarem a lei da selva como oficial em portugal.
+Vê-se muito em juizes como o Ivo Rosa e em comentários por ai. Pode-se pagar metade do preço de mercado ou receber mihões de euros sem explicação. Tudo absolvido por falta de provas a menos que exista  um documento ou uma escuta em que se diz: dou-te o negócio e tu dás-me 50 mil euros.
+&amp;nbsp;
+Mas se for o roubo duma televisão, já não são precisos documentos. Alguém assalta uma loja, e duas ruas à frente a policia apanha-me a correr com a televisão na mão. Esse nenhum juiz absolve por falta de prova documentai.</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -11319,7 +13660,9 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>obviamente resultados vão representativos generalidade população sub tido bastantes post sobre política view pollhttpswwwredditcompollapzv</t>
+          <t>Obviamente os resultados não vão ser representativos da generalidade da população.
+Este sub tem tido bastantes posts sobre política 
+[View Poll](https://www.reddit.com/poll/1ap1zv8)</t>
         </is>
       </c>
       <c r="C545" t="n">
